--- a/Predictions/PV_cp_lstm.xlsx
+++ b/Predictions/PV_cp_lstm.xlsx
@@ -483,5300 +483,5300 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.006251096725464</v>
+        <v>1.124331951141357</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.830265879631042</v>
+        <v>-1.90890371799469</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2762003839015961</v>
+        <v>-1.124653816223145</v>
       </c>
       <c r="F2" t="n">
-        <v>1.890250682830811</v>
+        <v>1.569827079772949</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.710410833358765</v>
+        <v>-1.678811192512512</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6113563776016235</v>
+        <v>-1.038610100746155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.04374005272984505</v>
+        <v>-0.01495973858982325</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0615713857114315</v>
+        <v>-0.01567375101149082</v>
       </c>
       <c r="C3" t="n">
-        <v>3.283300161361694</v>
+        <v>1.549134969711304</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.659270644187927</v>
+        <v>-1.717952966690063</v>
       </c>
       <c r="E3" t="n">
-        <v>2.281069278717041</v>
+        <v>-0.7352652549743652</v>
       </c>
       <c r="F3" t="n">
-        <v>3.606729984283447</v>
+        <v>2.034213781356812</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.5823531150817871</v>
+        <v>-1.483167290687561</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5345650315284729</v>
+        <v>-0.5845949053764343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.05437637493014336</v>
+        <v>-0.01229054853320122</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.09934414923191071</v>
+        <v>-0.01411282829940319</v>
       </c>
       <c r="C4" t="n">
-        <v>3.593841791152954</v>
+        <v>1.473339557647705</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.328457832336426</v>
+        <v>-1.603168487548828</v>
       </c>
       <c r="E4" t="n">
-        <v>3.587223529815674</v>
+        <v>0.3328588306903839</v>
       </c>
       <c r="F4" t="n">
-        <v>4.659754276275635</v>
+        <v>1.987966299057007</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4587672054767609</v>
+        <v>-1.359312176704407</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.7480012178421021</v>
+        <v>0.5946206450462341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.04547514021396637</v>
+        <v>-0.00610732426866889</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1023808121681213</v>
+        <v>-0.009363014250993729</v>
       </c>
       <c r="C5" t="n">
-        <v>3.333958387374878</v>
+        <v>1.297758102416992</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.265005588531494</v>
+        <v>-1.741264700889587</v>
       </c>
       <c r="E5" t="n">
-        <v>2.82392692565918</v>
+        <v>1.245684862136841</v>
       </c>
       <c r="F5" t="n">
-        <v>4.744410037994385</v>
+        <v>1.847237348556519</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3095805943012238</v>
+        <v>-1.465830087661743</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.81533670425415</v>
+        <v>1.682044982910156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.03644409775733948</v>
+        <v>-0.004065759014338255</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.06688902527093887</v>
+        <v>-0.008638963103294373</v>
       </c>
       <c r="C6" t="n">
-        <v>3.070285081863403</v>
+        <v>1.239784955978394</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.731710910797119</v>
+        <v>-2.107682228088379</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3255523443222046</v>
+        <v>1.667402625083923</v>
       </c>
       <c r="F6" t="n">
-        <v>3.754974365234375</v>
+        <v>1.825784921646118</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.3023841381073</v>
+        <v>-1.815950512886047</v>
       </c>
       <c r="H6" t="n">
-        <v>-4.544230937957764</v>
+        <v>2.303677082061768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.04058469086885452</v>
+        <v>-0.006909393239766359</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.007872219197452068</v>
+        <v>-0.0122344046831131</v>
       </c>
       <c r="C7" t="n">
-        <v>3.191175222396851</v>
+        <v>1.320533990859985</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.592362403869629</v>
+        <v>-2.693005084991455</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.517771005630493</v>
+        <v>1.59593141078949</v>
       </c>
       <c r="F7" t="n">
-        <v>2.109711408615112</v>
+        <v>1.932311773300171</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.783461332321167</v>
+        <v>-2.43048357963562</v>
       </c>
       <c r="H7" t="n">
-        <v>-5.176206111907959</v>
+        <v>2.395636796951294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.05060890316963196</v>
+        <v>-0.01086932886391878</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04806382209062576</v>
+        <v>-0.01607601158320904</v>
       </c>
       <c r="C8" t="n">
-        <v>3.483845472335815</v>
+        <v>1.432981967926025</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.27019214630127</v>
+        <v>-3.492339611053467</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.197556972503662</v>
+        <v>1.216694474220276</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5503334999084473</v>
+        <v>2.04613208770752</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.799273490905762</v>
+        <v>-3.312424421310425</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.84034252166748</v>
+        <v>2.08922004699707</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.04897141829133034</v>
+        <v>-0.01218012440949678</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08863464742898941</v>
+        <v>-0.01627491787075996</v>
       </c>
       <c r="C9" t="n">
-        <v>3.436036825180054</v>
+        <v>1.470203876495361</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.100729942321777</v>
+        <v>-4.439587593078613</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.407610893249512</v>
+        <v>0.7313733696937561</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5806949734687805</v>
+        <v>2.052025318145752</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.6456618309021</v>
+        <v>-4.385186195373535</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.030976295471191</v>
+        <v>1.558433890342712</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.02956465259194374</v>
+        <v>-0.009172253310680389</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1241787150502205</v>
+        <v>-0.0112686213105917</v>
       </c>
       <c r="C10" t="n">
-        <v>2.869430541992188</v>
+        <v>1.384791135787964</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.57119083404541</v>
+        <v>-5.396440982818604</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.540203809738159</v>
+        <v>0.294000655412674</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.571588039398193</v>
+        <v>1.90369725227356</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.738378047943115</v>
+        <v>-5.488771438598633</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.016853809356689</v>
+        <v>0.9554842710494995</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0007196981459856033</v>
+        <v>-0.002025008201599121</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1706381738185883</v>
+        <v>-0.001591943320818245</v>
       </c>
       <c r="C11" t="n">
-        <v>1.985238552093506</v>
+        <v>1.181834936141968</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.02104663848877</v>
+        <v>-6.202188014984131</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.100048542022705</v>
+        <v>0.02041305974125862</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.866778612136841</v>
+        <v>1.61699366569519</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.002530097961426</v>
+        <v>-6.436623096466064</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.025563955307007</v>
+        <v>0.4154662191867828</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.03490425273776054</v>
+        <v>0.00800747238099575</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2335918247699738</v>
+        <v>0.01098359748721123</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9871750473976135</v>
+        <v>0.8969483971595764</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.58466911315918</v>
+        <v>-6.742191791534424</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6233855485916138</v>
+        <v>-0.01201258227229118</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.621792793273926</v>
+        <v>1.244401693344116</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.913472652435303</v>
+        <v>-7.08934497833252</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.300491809844971</v>
+        <v>0.05485954508185387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.07029867917299271</v>
+        <v>0.01923372596502304</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3059437274932861</v>
+        <v>0.02423704788088799</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.04621252790093422</v>
+        <v>0.5781629681587219</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.21979808807373</v>
+        <v>-6.991378784179688</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4826295077800751</v>
+        <v>0.2153991758823395</v>
       </c>
       <c r="F13" t="n">
-        <v>-6.638809680938721</v>
+        <v>0.85172438621521</v>
       </c>
       <c r="G13" t="n">
-        <v>-9.223587989807129</v>
+        <v>-7.401944160461426</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.9568643569946289</v>
+        <v>-0.05186480656266212</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1066024154424667</v>
+        <v>0.03018020465970039</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3765560388565063</v>
+        <v>0.03628416731953621</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.106148481369019</v>
+        <v>0.2673221528530121</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.822927951812744</v>
+        <v>-7.011970520019531</v>
       </c>
       <c r="E14" t="n">
-        <v>1.078300714492798</v>
+        <v>0.6559059023857117</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.607331275939941</v>
+        <v>0.494788646697998</v>
       </c>
       <c r="G14" t="n">
-        <v>-10.36306285858154</v>
+        <v>-7.425860404968262</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.9456547498703003</v>
+        <v>0.1108619570732117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1434075534343719</v>
+        <v>0.04020001739263535</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4376307427883148</v>
+        <v>0.046274583786726</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.180723667144775</v>
+        <v>-0.01720467582345009</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.295424938201904</v>
+        <v>-6.914676666259766</v>
       </c>
       <c r="E15" t="n">
-        <v>1.269393086433411</v>
+        <v>1.219104647636414</v>
       </c>
       <c r="F15" t="n">
-        <v>-10.30996322631836</v>
+        <v>0.1987894922494888</v>
       </c>
       <c r="G15" t="n">
-        <v>-10.87135124206543</v>
+        <v>-7.274872779846191</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.195193648338318</v>
+        <v>0.5066637396812439</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1791660040616989</v>
+        <v>0.04974038898944855</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4853858947753906</v>
+        <v>0.05470328778028488</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.224739551544189</v>
+        <v>-0.2881170213222504</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.571531295776367</v>
+        <v>-6.810064315795898</v>
       </c>
       <c r="E16" t="n">
-        <v>1.271102905273438</v>
+        <v>1.808095216751099</v>
       </c>
       <c r="F16" t="n">
-        <v>-11.64127540588379</v>
+        <v>-0.05093871057033539</v>
       </c>
       <c r="G16" t="n">
-        <v>-10.54184722900391</v>
+        <v>-7.078053951263428</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.742024660110474</v>
+        <v>1.071814179420471</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2120534926652908</v>
+        <v>0.06017195805907249</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5173299908638</v>
+        <v>0.06322711706161499</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.184932708740234</v>
+        <v>-0.5843362212181091</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.654623985290527</v>
+        <v>-6.774629592895508</v>
       </c>
       <c r="E17" t="n">
-        <v>1.270794749259949</v>
+        <v>2.352130651473999</v>
       </c>
       <c r="F17" t="n">
-        <v>-12.53180885314941</v>
+        <v>-0.3034854531288147</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.360868453979492</v>
+        <v>-6.941496849060059</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.682536363601685</v>
+        <v>1.74232029914856</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2413659691810608</v>
+        <v>0.07335306704044342</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5299999713897705</v>
+        <v>0.07416485249996185</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.040750026702881</v>
+        <v>-0.9586325883865356</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.643743991851807</v>
+        <v>-6.840425491333008</v>
       </c>
       <c r="E18" t="n">
-        <v>1.356526255607605</v>
+        <v>2.822938442230225</v>
       </c>
       <c r="F18" t="n">
-        <v>-12.8850212097168</v>
+        <v>-0.6275520324707031</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.40401554107666</v>
+        <v>-6.929145336151123</v>
       </c>
       <c r="H18" t="n">
-        <v>-4.022380828857422</v>
+        <v>2.471576929092407</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2681052088737488</v>
+        <v>0.091147780418396</v>
       </c>
       <c r="B19" t="n">
-        <v>0.519370973110199</v>
+        <v>0.08992289006710052</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.821436882019043</v>
+        <v>-1.463938593864441</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.723104238510132</v>
+        <v>-7.001881122589111</v>
       </c>
       <c r="E19" t="n">
-        <v>1.528342485427856</v>
+        <v>3.232908964157104</v>
       </c>
       <c r="F19" t="n">
-        <v>-12.58870697021484</v>
+        <v>-1.094435930252075</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.804463863372803</v>
+        <v>-7.060677051544189</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.616692066192627</v>
+        <v>3.234569787979126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2949570715427399</v>
+        <v>0.1150256395339966</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4839332401752472</v>
+        <v>0.1124932169914246</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.605413436889648</v>
+        <v>-2.141984701156616</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.123939514160156</v>
+        <v>-7.228995323181152</v>
       </c>
       <c r="E20" t="n">
-        <v>1.775233387947083</v>
+        <v>3.620608806610107</v>
       </c>
       <c r="F20" t="n">
-        <v>-11.60077857971191</v>
+        <v>-1.763156294822693</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.816129565238953</v>
+        <v>-7.319149494171143</v>
       </c>
       <c r="H20" t="n">
-        <v>-7.220990180969238</v>
+        <v>4.022613048553467</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.3253719806671143</v>
+        <v>0.145802304148674</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4280934631824493</v>
+        <v>0.1430942416191101</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.493417263031006</v>
+        <v>-3.015931606292725</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.025648355484009</v>
+        <v>-7.480107307434082</v>
       </c>
       <c r="E21" t="n">
-        <v>2.092065334320068</v>
+        <v>4.033296585083008</v>
       </c>
       <c r="F21" t="n">
-        <v>-10.04408550262451</v>
+        <v>-2.66981315612793</v>
       </c>
       <c r="G21" t="n">
-        <v>1.148144125938416</v>
+        <v>-7.662617206573486</v>
       </c>
       <c r="H21" t="n">
-        <v>-8.514788627624512</v>
+        <v>4.836673259735107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3612604737281799</v>
+        <v>0.183513805270195</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3628686666488647</v>
+        <v>0.1819548457860947</v>
       </c>
       <c r="C22" t="n">
-        <v>-8.541229248046875</v>
+        <v>-4.086802959442139</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.429482460021973</v>
+        <v>-7.712539672851562</v>
       </c>
       <c r="E22" t="n">
-        <v>2.520274877548218</v>
+        <v>4.51472282409668</v>
       </c>
       <c r="F22" t="n">
-        <v>-8.225756645202637</v>
+        <v>-3.821187257766724</v>
       </c>
       <c r="G22" t="n">
-        <v>3.584400177001953</v>
+        <v>-8.036267280578613</v>
       </c>
       <c r="H22" t="n">
-        <v>-9.167757034301758</v>
+        <v>5.684254169464111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4019286036491394</v>
+        <v>0.2273402214050293</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3003528416156769</v>
+        <v>0.2281663566827774</v>
       </c>
       <c r="C23" t="n">
-        <v>-9.72859001159668</v>
+        <v>-5.331316947937012</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.135742902755737</v>
+        <v>-7.890649318695068</v>
       </c>
       <c r="E23" t="n">
-        <v>3.095635414123535</v>
+        <v>5.098677635192871</v>
       </c>
       <c r="F23" t="n">
-        <v>-6.482947826385498</v>
+        <v>-5.190355777740479</v>
       </c>
       <c r="G23" t="n">
-        <v>5.141714572906494</v>
+        <v>-8.382513999938965</v>
       </c>
       <c r="H23" t="n">
-        <v>-8.89974308013916</v>
+        <v>6.576996326446533</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.443205714225769</v>
+        <v>0.2755143642425537</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2483027428388596</v>
+        <v>0.2795702517032623</v>
       </c>
       <c r="C24" t="n">
-        <v>-10.93373012542725</v>
+        <v>-6.69929027557373</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.828824281692505</v>
+        <v>-7.989910125732422</v>
       </c>
       <c r="E24" t="n">
-        <v>3.739661693572998</v>
+        <v>5.800968170166016</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.031901836395264</v>
+        <v>-6.713366031646729</v>
       </c>
       <c r="G24" t="n">
-        <v>5.764121532440186</v>
+        <v>-8.647822380065918</v>
       </c>
       <c r="H24" t="n">
-        <v>-7.651844501495361</v>
+        <v>7.520941257476807</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4803333282470703</v>
+        <v>0.3253234028816223</v>
       </c>
       <c r="B25" t="n">
-        <v>0.20903380215168</v>
+        <v>0.3328471183776855</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.01772022247314</v>
+        <v>-8.113688468933105</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.256537437438965</v>
+        <v>-7.995559692382812</v>
       </c>
       <c r="E25" t="n">
-        <v>4.153524875640869</v>
+        <v>6.604925155639648</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.937167167663574</v>
+        <v>-8.2918701171875</v>
       </c>
       <c r="G25" t="n">
-        <v>5.651446342468262</v>
+        <v>-8.787198066711426</v>
       </c>
       <c r="H25" t="n">
-        <v>-5.702887058258057</v>
+        <v>8.49620532989502</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.5096492171287537</v>
+        <v>0.3734554350376129</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1808557659387589</v>
+        <v>0.3840831816196442</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.87363719940186</v>
+        <v>-9.480465888977051</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.290702819824219</v>
+        <v>-7.897058963775635</v>
       </c>
       <c r="E26" t="n">
-        <v>3.812711238861084</v>
+        <v>7.448685646057129</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.151623487472534</v>
+        <v>-9.809907913208008</v>
       </c>
       <c r="G26" t="n">
-        <v>5.145678520202637</v>
+        <v>-8.768232345581055</v>
       </c>
       <c r="H26" t="n">
-        <v>-3.623767137527466</v>
+        <v>9.437519073486328</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5277442932128906</v>
+        <v>0.4167224168777466</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1599391251802444</v>
+        <v>0.4297775328159332</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.40194702148438</v>
+        <v>-10.70909309387207</v>
       </c>
       <c r="D27" t="n">
-        <v>-3.884928226470947</v>
+        <v>-7.683244705200195</v>
       </c>
       <c r="E27" t="n">
-        <v>2.095500946044922</v>
+        <v>8.228414535522461</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.568511962890625</v>
+        <v>-11.16375350952148</v>
       </c>
       <c r="G27" t="n">
-        <v>4.620716571807861</v>
+        <v>-8.574959754943848</v>
       </c>
       <c r="H27" t="n">
-        <v>-2.020169734954834</v>
+        <v>10.23330879211426</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.5299999713897705</v>
+        <v>0.4527370929718018</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1428610384464264</v>
+        <v>0.4677220284938812</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.46780395507812</v>
+        <v>-11.73178195953369</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.035125017166138</v>
+        <v>-7.341401100158691</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.404211640357971</v>
+        <v>8.816107749938965</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.092411041259766</v>
+        <v>-12.28798484802246</v>
       </c>
       <c r="G28" t="n">
-        <v>4.386948585510254</v>
+        <v>-8.208244323730469</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.217665553092957</v>
+        <v>10.74325656890869</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.5115686655044556</v>
+        <v>0.4799962937831879</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1276179999113083</v>
+        <v>0.4971164166927338</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.92967700958252</v>
+        <v>-12.50584506988525</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.791597127914429</v>
+        <v>-6.855367660522461</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.409904479980469</v>
+        <v>9.070374488830566</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.667467474937439</v>
+        <v>-13.15889072418213</v>
       </c>
       <c r="G29" t="n">
-        <v>4.616501808166504</v>
+        <v>-7.676877975463867</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.110715627670288</v>
+        <v>10.81087017059326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4716396331787109</v>
+        <v>0.4972350299358368</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1116872355341911</v>
+        <v>0.517793595790863</v>
       </c>
       <c r="C30" t="n">
-        <v>-11.76389598846436</v>
+        <v>-12.99536323547363</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2680618166923523</v>
+        <v>-6.196057796478271</v>
       </c>
       <c r="E30" t="n">
-        <v>-11.80683135986328</v>
+        <v>8.819437026977539</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.223351955413818</v>
+        <v>-13.77152061462402</v>
       </c>
       <c r="G30" t="n">
-        <v>5.284710884094238</v>
+        <v>-6.976336002349854</v>
       </c>
       <c r="H30" t="n">
-        <v>-1.29493510723114</v>
+        <v>10.24688911437988</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4169904887676239</v>
+        <v>0.5024573802947998</v>
       </c>
       <c r="B31" t="n">
-        <v>0.09246625751256943</v>
+        <v>0.5289345979690552</v>
       </c>
       <c r="C31" t="n">
-        <v>-10.16834163665771</v>
+        <v>-13.14365768432617</v>
       </c>
       <c r="D31" t="n">
-        <v>1.395512819290161</v>
+        <v>-5.312288761138916</v>
       </c>
       <c r="E31" t="n">
-        <v>-16.15578460693359</v>
+        <v>7.821717739105225</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6875118613243103</v>
+        <v>-14.1016092300415</v>
       </c>
       <c r="G31" t="n">
-        <v>6.192724227905273</v>
+        <v>-6.063088417053223</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.346043586730957</v>
+        <v>8.785346031188965</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3575643599033356</v>
+        <v>0.4923474490642548</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0683688223361969</v>
+        <v>0.5277805924415588</v>
       </c>
       <c r="C32" t="n">
-        <v>-8.433316230773926</v>
+        <v>-12.8565731048584</v>
       </c>
       <c r="D32" t="n">
-        <v>3.037532567977905</v>
+        <v>-4.150688648223877</v>
       </c>
       <c r="E32" t="n">
-        <v>-18.37481498718262</v>
+        <v>5.761385917663574</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.01572678983211517</v>
+        <v>-14.06741809844971</v>
       </c>
       <c r="G32" t="n">
-        <v>7.075693130493164</v>
+        <v>-4.8509202003479</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.012714385986328</v>
+        <v>6.071952342987061</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2995890080928802</v>
+        <v>0.4629372656345367</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03671699389815331</v>
+        <v>0.509332001209259</v>
       </c>
       <c r="C33" t="n">
-        <v>-6.740649700164795</v>
+        <v>-12.02143001556396</v>
       </c>
       <c r="D33" t="n">
-        <v>4.488224029541016</v>
+        <v>-2.722319841384888</v>
       </c>
       <c r="E33" t="n">
-        <v>-18.06334686279297</v>
+        <v>2.418838024139404</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8666589260101318</v>
+        <v>-13.52081680297852</v>
       </c>
       <c r="G33" t="n">
-        <v>7.755135536193848</v>
+        <v>-3.271495342254639</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.3203278779983521</v>
+        <v>1.845041632652283</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2449658811092377</v>
+        <v>0.4126058220863342</v>
       </c>
       <c r="B34" t="n">
-        <v>0.998473065783703</v>
+        <v>0.565098053844872</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.145854473114014</v>
+        <v>-10.59219551086426</v>
       </c>
       <c r="D34" t="n">
-        <v>5.618459224700928</v>
+        <v>-1.142031311988831</v>
       </c>
       <c r="E34" t="n">
-        <v>-15.47632884979248</v>
+        <v>-1.90577495098114</v>
       </c>
       <c r="F34" t="n">
-        <v>1.866829872131348</v>
+        <v>-12.34847640991211</v>
       </c>
       <c r="G34" t="n">
-        <v>7.999903678894043</v>
+        <v>-1.391895771026611</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5462808609008789</v>
+        <v>-3.585020542144775</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.7259815699796228</v>
+        <v>0.6170511831002969</v>
       </c>
       <c r="B35" t="n">
-        <v>1.000090977677423</v>
+        <v>0.661630818705466</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.609622716903687</v>
+        <v>-8.68751049041748</v>
       </c>
       <c r="D35" t="n">
-        <v>6.480401992797852</v>
+        <v>0.4569071531295776</v>
       </c>
       <c r="E35" t="n">
-        <v>-11.45873165130615</v>
+        <v>-6.199499130249023</v>
       </c>
       <c r="F35" t="n">
-        <v>2.770589828491211</v>
+        <v>-10.64766693115234</v>
       </c>
       <c r="G35" t="n">
-        <v>7.688621520996094</v>
+        <v>0.5723064541816711</v>
       </c>
       <c r="H35" t="n">
-        <v>1.371580839157104</v>
+        <v>-9.082897186279297</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9285793963466816</v>
+        <v>0.8049921206557603</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9999905807779103</v>
+        <v>0.7794294226536097</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.026931524276733</v>
+        <v>-6.539586544036865</v>
       </c>
       <c r="D36" t="n">
-        <v>7.271703243255615</v>
+        <v>2.020438671112061</v>
       </c>
       <c r="E36" t="n">
-        <v>-7.16963529586792</v>
+        <v>-9.352144241333008</v>
       </c>
       <c r="F36" t="n">
-        <v>3.419983863830566</v>
+        <v>-8.666389465332031</v>
       </c>
       <c r="G36" t="n">
-        <v>6.896556377410889</v>
+        <v>2.440758943557739</v>
       </c>
       <c r="H36" t="n">
-        <v>2.069257497787476</v>
+        <v>-13.34478855133057</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9893690612747842</v>
+        <v>0.9286216286171857</v>
       </c>
       <c r="B37" t="n">
-        <v>1.000001261486652</v>
+        <v>0.88499721262562</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2970581948757172</v>
+        <v>-4.384428977966309</v>
       </c>
       <c r="D37" t="n">
-        <v>8.126079559326172</v>
+        <v>3.606384038925171</v>
       </c>
       <c r="E37" t="n">
-        <v>-3.456380128860474</v>
+        <v>-10.82245063781738</v>
       </c>
       <c r="F37" t="n">
-        <v>3.869056224822998</v>
+        <v>-6.617525100708008</v>
       </c>
       <c r="G37" t="n">
-        <v>5.829592704772949</v>
+        <v>4.219033718109131</v>
       </c>
       <c r="H37" t="n">
-        <v>2.66441011428833</v>
+        <v>-15.68336868286133</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9997593649281266</v>
+        <v>0.9834095646600813</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9999997949751456</v>
+        <v>0.9547917683032192</v>
       </c>
       <c r="C38" t="n">
-        <v>1.655990362167358</v>
+        <v>-2.373754978179932</v>
       </c>
       <c r="D38" t="n">
-        <v>9.013784408569336</v>
+        <v>5.33704948425293</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.4953093230724335</v>
+        <v>-10.64682579040527</v>
       </c>
       <c r="F38" t="n">
-        <v>4.291622161865234</v>
+        <v>-4.603109836578369</v>
       </c>
       <c r="G38" t="n">
-        <v>4.664392471313477</v>
+        <v>6.056122779846191</v>
       </c>
       <c r="H38" t="n">
-        <v>3.171655178070068</v>
+        <v>-16.07763481140137</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.00002813673537</v>
+        <v>0.9982032980203702</v>
       </c>
       <c r="B39" t="n">
-        <v>1.000000040209278</v>
+        <v>0.9880357913578625</v>
       </c>
       <c r="C39" t="n">
-        <v>3.815585851669312</v>
+        <v>-0.5055558085441589</v>
       </c>
       <c r="D39" t="n">
-        <v>9.72971248626709</v>
+        <v>7.244148731231689</v>
       </c>
       <c r="E39" t="n">
-        <v>1.88782000541687</v>
+        <v>-9.174830436706543</v>
       </c>
       <c r="F39" t="n">
-        <v>4.787962913513184</v>
+        <v>-2.585920572280884</v>
       </c>
       <c r="G39" t="n">
-        <v>3.446555137634277</v>
+        <v>8.068767547607422</v>
       </c>
       <c r="H39" t="n">
-        <v>3.594733238220215</v>
+        <v>-14.84444808959961</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9999926573918866</v>
+        <v>1.000023976812164</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9999999906901068</v>
+        <v>0.9984594781404353</v>
       </c>
       <c r="C40" t="n">
-        <v>6.044385433197021</v>
+        <v>1.32517409324646</v>
       </c>
       <c r="D40" t="n">
-        <v>9.952260971069336</v>
+        <v>9.173710823059082</v>
       </c>
       <c r="E40" t="n">
-        <v>3.792881965637207</v>
+        <v>-6.881800651550293</v>
       </c>
       <c r="F40" t="n">
-        <v>5.311257362365723</v>
+        <v>-0.4521050453186035</v>
       </c>
       <c r="G40" t="n">
-        <v>2.085314512252808</v>
+        <v>10.19938659667969</v>
       </c>
       <c r="H40" t="n">
-        <v>3.908935308456421</v>
+        <v>-12.41098117828369</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.000002933450076</v>
+        <v>0.9999966866670584</v>
       </c>
       <c r="B41" t="n">
-        <v>1.000000002441771</v>
+        <v>1.000029552554159</v>
       </c>
       <c r="C41" t="n">
-        <v>8.188301086425781</v>
+        <v>3.204091310501099</v>
       </c>
       <c r="D41" t="n">
-        <v>9.407121658325195</v>
+        <v>10.84807300567627</v>
       </c>
       <c r="E41" t="n">
-        <v>5.154162883758545</v>
+        <v>-4.280931949615479</v>
       </c>
       <c r="F41" t="n">
-        <v>5.765464782714844</v>
+        <v>1.871065139770508</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4789570868015289</v>
+        <v>12.21719551086426</v>
       </c>
       <c r="H41" t="n">
-        <v>4.046133995056152</v>
+        <v>-9.274142265319824</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9999984703237592</v>
+        <v>1.000000880106923</v>
       </c>
       <c r="B42" t="n">
-        <v>0.999999999319367</v>
+        <v>0.9999947832519901</v>
       </c>
       <c r="C42" t="n">
-        <v>10.07534885406494</v>
+        <v>5.122028350830078</v>
       </c>
       <c r="D42" t="n">
-        <v>7.895246028900146</v>
+        <v>12.01104068756104</v>
       </c>
       <c r="E42" t="n">
-        <v>5.725722789764404</v>
+        <v>-1.840746521949768</v>
       </c>
       <c r="F42" t="n">
-        <v>6.008793830871582</v>
+        <v>4.341790676116943</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.467648148536682</v>
+        <v>13.83101463317871</v>
       </c>
       <c r="H42" t="n">
-        <v>3.858882427215576</v>
+        <v>-5.981203079223633</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.000000940455182</v>
+        <v>0.9999996563292457</v>
       </c>
       <c r="B43" t="n">
-        <v>1.000000000183124</v>
+        <v>1.000001748479318</v>
       </c>
       <c r="C43" t="n">
-        <v>11.51980400085449</v>
+        <v>7.001208782196045</v>
       </c>
       <c r="D43" t="n">
-        <v>5.333768367767334</v>
+        <v>12.53354263305664</v>
       </c>
       <c r="E43" t="n">
-        <v>5.089455127716064</v>
+        <v>0.1043158620595932</v>
       </c>
       <c r="F43" t="n">
-        <v>5.865519523620605</v>
+        <v>6.832947731018066</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.780409336090088</v>
+        <v>14.8204174041748</v>
       </c>
       <c r="H43" t="n">
-        <v>3.169135808944702</v>
+        <v>-3.025355815887451</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9999993702012009</v>
+        <v>1.000000174805719</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9999999999582033</v>
+        <v>0.9999991471553799</v>
       </c>
       <c r="C44" t="n">
-        <v>12.36883068084717</v>
+        <v>8.779460906982422</v>
       </c>
       <c r="D44" t="n">
-        <v>1.956376552581787</v>
+        <v>12.41201114654541</v>
       </c>
       <c r="E44" t="n">
-        <v>2.861543893814087</v>
+        <v>1.383010268211365</v>
       </c>
       <c r="F44" t="n">
-        <v>5.262608051300049</v>
+        <v>9.229180335998535</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.187224864959717</v>
+        <v>15.08668613433838</v>
       </c>
       <c r="H44" t="n">
-        <v>1.96266770362854</v>
+        <v>-0.732897162437439</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.000000426510436</v>
+        <v>0.9999998914546683</v>
       </c>
       <c r="B45" t="n">
-        <v>1.000000000006674</v>
+        <v>1.000000539188513</v>
       </c>
       <c r="C45" t="n">
-        <v>12.48554420471191</v>
+        <v>10.46966934204102</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.472182750701904</v>
+        <v>11.68554878234863</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.7179091572761536</v>
+        <v>1.921121120452881</v>
       </c>
       <c r="F45" t="n">
-        <v>4.249427318572998</v>
+        <v>11.49763584136963</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.102791786193848</v>
+        <v>14.60101127624512</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6049662828445435</v>
+        <v>0.7415726184844971</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9999997250866728</v>
+        <v>1.000000079421447</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9999999999994619</v>
+        <v>0.9999995847761537</v>
       </c>
       <c r="C46" t="n">
-        <v>11.98027229309082</v>
+        <v>12.13632869720459</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.731831550598145</v>
+        <v>10.34615802764893</v>
       </c>
       <c r="E46" t="n">
-        <v>-4.17476749420166</v>
+        <v>1.630864024162292</v>
       </c>
       <c r="F46" t="n">
-        <v>3.081536531448364</v>
+        <v>13.66255664825439</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.889186859130859</v>
+        <v>13.31323909759521</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.2534988522529602</v>
+        <v>1.32119882106781</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.000000163660903</v>
+        <v>0.9999999333802863</v>
       </c>
       <c r="B47" t="n">
-        <v>1.000000000000008</v>
+        <v>1.000000372159448</v>
       </c>
       <c r="C47" t="n">
-        <v>11.21823787689209</v>
+        <v>13.74854755401611</v>
       </c>
       <c r="D47" t="n">
-        <v>-4.089402675628662</v>
+        <v>8.332443237304688</v>
       </c>
       <c r="E47" t="n">
-        <v>-5.658127784729004</v>
+        <v>0.3640400171279907</v>
       </c>
       <c r="F47" t="n">
-        <v>2.121625661849976</v>
+        <v>15.64421272277832</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.323733329772949</v>
+        <v>11.12836647033691</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.2774004936218262</v>
+        <v>0.9397261142730713</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9999999123167151</v>
+        <v>1.000000061270803</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0.9999996335968241</v>
       </c>
       <c r="C48" t="n">
-        <v>10.29666137695312</v>
+        <v>14.9660587310791</v>
       </c>
       <c r="D48" t="n">
-        <v>-2.851001024246216</v>
+        <v>5.735751628875732</v>
       </c>
       <c r="E48" t="n">
-        <v>-4.436424255371094</v>
+        <v>-1.920589327812195</v>
       </c>
       <c r="F48" t="n">
-        <v>1.548986673355103</v>
+        <v>17.02994728088379</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.663283348083496</v>
+        <v>8.108700752258301</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3585465252399445</v>
+        <v>-0.3594778776168823</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.000000039892798</v>
+        <v>0.9999999428234825</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>1.00000036313114</v>
       </c>
       <c r="C49" t="n">
-        <v>9.04640007019043</v>
+        <v>15.16874408721924</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.9966299533843994</v>
+        <v>3.125067472457886</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.390479922294617</v>
+        <v>-4.724079608917236</v>
       </c>
       <c r="F49" t="n">
-        <v>1.294541835784912</v>
+        <v>17.13259887695312</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.557523250579834</v>
+        <v>4.831177711486816</v>
       </c>
       <c r="H49" t="n">
-        <v>1.188839554786682</v>
+        <v>-2.134368658065796</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9999999859348587</v>
+        <v>1.00000004854371</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0.999999677116148</v>
       </c>
       <c r="C50" t="n">
-        <v>7.461992263793945</v>
+        <v>13.90209197998047</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6169321537017822</v>
+        <v>1.213894367218018</v>
       </c>
       <c r="E50" t="n">
-        <v>2.115906476974487</v>
+        <v>-6.967659950256348</v>
       </c>
       <c r="F50" t="n">
-        <v>1.194888830184937</v>
+        <v>15.53240203857422</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.640610456466675</v>
+        <v>2.122262001037598</v>
       </c>
       <c r="H50" t="n">
-        <v>1.897648453712463</v>
+        <v>-3.555152416229248</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.000000003331217</v>
+        <v>0.9999999680501054</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>1.000000219640518</v>
       </c>
       <c r="C51" t="n">
-        <v>5.671158313751221</v>
+        <v>11.02982139587402</v>
       </c>
       <c r="D51" t="n">
-        <v>1.015124320983887</v>
+        <v>0.3776501417160034</v>
       </c>
       <c r="E51" t="n">
-        <v>4.040308952331543</v>
+        <v>-7.287253379821777</v>
       </c>
       <c r="F51" t="n">
-        <v>1.109033465385437</v>
+        <v>12.25173473358154</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.651381969451904</v>
+        <v>0.6036515831947327</v>
       </c>
       <c r="H51" t="n">
-        <v>2.001578807830811</v>
+        <v>-3.593011617660522</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9999999996381221</v>
+        <v>1.000000011930751</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0.9999999145609282</v>
       </c>
       <c r="C52" t="n">
-        <v>3.687233686447144</v>
+        <v>6.744351387023926</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.9667338728904724</v>
+        <v>0.343742847442627</v>
       </c>
       <c r="E52" t="n">
-        <v>2.265231847763062</v>
+        <v>-4.671183586120605</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9861788749694824</v>
+        <v>7.678216934204102</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.287994861602783</v>
+        <v>0.3339679539203644</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7506844997406006</v>
+        <v>-1.415848731994629</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.02172624692320824</v>
+        <v>0.006974343210458755</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01668727211654186</v>
+        <v>0.006707348395138979</v>
       </c>
       <c r="C53" t="n">
-        <v>1.37192440032959</v>
+        <v>0.9262855648994446</v>
       </c>
       <c r="D53" t="n">
-        <v>-2.185754299163818</v>
+        <v>-2.151925325393677</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1831149607896805</v>
+        <v>-0.7958813905715942</v>
       </c>
       <c r="F53" t="n">
-        <v>1.425045013427734</v>
+        <v>1.371099710464478</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.060922145843506</v>
+        <v>-1.95929753780365</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2794384658336639</v>
+        <v>-0.7607855796813965</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.03587962687015533</v>
+        <v>-0.01891127787530422</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.05024226754903793</v>
+        <v>-0.0196573231369257</v>
       </c>
       <c r="C54" t="n">
-        <v>3.053804636001587</v>
+        <v>1.661344528198242</v>
       </c>
       <c r="D54" t="n">
-        <v>-2.185853719711304</v>
+        <v>-2.429151296615601</v>
       </c>
       <c r="E54" t="n">
-        <v>1.326799154281616</v>
+        <v>-1.10560154914856</v>
       </c>
       <c r="F54" t="n">
-        <v>3.290898323059082</v>
+        <v>2.15224027633667</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.889289736747742</v>
+        <v>-2.211630344390869</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5911853909492493</v>
+        <v>-1.094002723693848</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.05925070494413376</v>
+        <v>-0.026464918628335</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.09515949338674545</v>
+        <v>-0.02782481908798218</v>
       </c>
       <c r="C55" t="n">
-        <v>3.736154317855835</v>
+        <v>1.875840902328491</v>
       </c>
       <c r="D55" t="n">
-        <v>-2.145747900009155</v>
+        <v>-2.622470855712891</v>
       </c>
       <c r="E55" t="n">
-        <v>2.680193901062012</v>
+        <v>-0.6918880343437195</v>
       </c>
       <c r="F55" t="n">
-        <v>4.543095111846924</v>
+        <v>2.394229412078857</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.195613980293274</v>
+        <v>-2.388123035430908</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1221275925636292</v>
+        <v>-0.7317416667938232</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.04894860088825226</v>
+        <v>-0.01819371432065964</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1106300354003906</v>
+        <v>-0.02081456780433655</v>
       </c>
       <c r="C56" t="n">
-        <v>3.435370683670044</v>
+        <v>1.640968322753906</v>
       </c>
       <c r="D56" t="n">
-        <v>-3.108216285705566</v>
+        <v>-2.930517911911011</v>
       </c>
       <c r="E56" t="n">
-        <v>2.570584297180176</v>
+        <v>0.1398226916790009</v>
       </c>
       <c r="F56" t="n">
-        <v>4.974380970001221</v>
+        <v>2.186527490615845</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.059485673904419</v>
+        <v>-2.648042678833008</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.78996729850769</v>
+        <v>0.07404220104217529</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.01733674295246601</v>
+        <v>-0.003402023809030652</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.08414021134376526</v>
+        <v>-0.007804063614457846</v>
       </c>
       <c r="C57" t="n">
-        <v>2.512420415878296</v>
+        <v>1.220937252044678</v>
       </c>
       <c r="D57" t="n">
-        <v>-5.136689186096191</v>
+        <v>-3.400961637496948</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4704354107379913</v>
+        <v>0.9607841372489929</v>
       </c>
       <c r="F57" t="n">
-        <v>4.23590087890625</v>
+        <v>1.801048278808594</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.127586364746094</v>
+        <v>-3.046804904937744</v>
       </c>
       <c r="H57" t="n">
-        <v>-4.182537078857422</v>
+        <v>0.9293051958084106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.001389150507748127</v>
+        <v>0.008885236456990242</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.02758845873177052</v>
+        <v>0.00278749200515449</v>
       </c>
       <c r="C58" t="n">
-        <v>1.96569299697876</v>
+        <v>0.8720230460166931</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.1292724609375</v>
+        <v>-3.961309909820557</v>
       </c>
       <c r="E58" t="n">
-        <v>-2.391650915145874</v>
+        <v>1.479832768440247</v>
       </c>
       <c r="F58" t="n">
-        <v>2.659358263015747</v>
+        <v>1.48723840713501</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.225143432617188</v>
+        <v>-3.549199819564819</v>
       </c>
       <c r="H58" t="n">
-        <v>-5.31252908706665</v>
+        <v>1.542706847190857</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.005157265812158585</v>
+        <v>0.013866251334548</v>
       </c>
       <c r="B59" t="n">
-        <v>0.03057636320590973</v>
+        <v>0.006800958421081305</v>
       </c>
       <c r="C59" t="n">
-        <v>2.156824350357056</v>
+        <v>0.7305800318717957</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.056476593017578</v>
+        <v>-4.535212993621826</v>
       </c>
       <c r="E59" t="n">
-        <v>-4.080720901489258</v>
+        <v>1.60136604309082</v>
       </c>
       <c r="F59" t="n">
-        <v>1.037846684455872</v>
+        <v>1.368326187133789</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.309886455535889</v>
+        <v>-4.112681865692139</v>
       </c>
       <c r="H59" t="n">
-        <v>-4.876438617706299</v>
+        <v>1.790825724601746</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.01235917117446661</v>
+        <v>0.01158651895821095</v>
       </c>
       <c r="B60" t="n">
-        <v>0.07204936444759369</v>
+        <v>0.004643070977181196</v>
       </c>
       <c r="C60" t="n">
-        <v>2.367093563079834</v>
+        <v>0.7953162789344788</v>
       </c>
       <c r="D60" t="n">
-        <v>-8.024055480957031</v>
+        <v>-5.092367649078369</v>
       </c>
       <c r="E60" t="n">
-        <v>-4.201277732849121</v>
+        <v>1.387421369552612</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1183324307203293</v>
+        <v>1.432260751724243</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.356705665588379</v>
+        <v>-4.720775604248047</v>
       </c>
       <c r="H60" t="n">
-        <v>-3.855834484100342</v>
+        <v>1.696268796920776</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.001699337735772133</v>
+        <v>0.005491066724061966</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1048569828271866</v>
+        <v>-0.0002681497135199606</v>
       </c>
       <c r="C61" t="n">
-        <v>1.956636667251587</v>
+        <v>0.9684053063392639</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.576920032501221</v>
+        <v>-5.627916812896729</v>
       </c>
       <c r="E61" t="n">
-        <v>-3.348982810974121</v>
+        <v>0.9861648678779602</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.032938957214355</v>
+        <v>1.577771902084351</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.419437408447266</v>
+        <v>-5.361199378967285</v>
       </c>
       <c r="H61" t="n">
-        <v>-2.774050951004028</v>
+        <v>1.371491074562073</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.0333331935107708</v>
+        <v>0.000366782711353153</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1459349542856216</v>
+        <v>-0.003528410336002707</v>
       </c>
       <c r="C62" t="n">
-        <v>1.033044099807739</v>
+        <v>1.113916635513306</v>
       </c>
       <c r="D62" t="n">
-        <v>-7.178311347961426</v>
+        <v>-6.129333972930908</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.988345265388489</v>
+        <v>0.5660816431045532</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.17810583114624</v>
+        <v>1.674367904663086</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.472367763519287</v>
+        <v>-5.998263359069824</v>
       </c>
       <c r="H62" t="n">
-        <v>-1.772193193435669</v>
+        <v>0.9629210829734802</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.07140979915857315</v>
+        <v>0.0004339513252489269</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2025765627622604</v>
+        <v>-0.001527269720099866</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.07865318655967712</v>
+        <v>1.112009286880493</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.982958316802979</v>
+        <v>-6.568154335021973</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5632755160331726</v>
+        <v>0.2700212597846985</v>
       </c>
       <c r="F63" t="n">
-        <v>-3.757153034210205</v>
+        <v>1.615077495574951</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.143435478210449</v>
+        <v>-6.572995185852051</v>
       </c>
       <c r="H63" t="n">
-        <v>-1.00224244594574</v>
+        <v>0.6087533831596375</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1092463210225105</v>
+        <v>0.00794743187725544</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2686451971530914</v>
+        <v>0.007354100700467825</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.183340907096863</v>
+        <v>0.8986533284187317</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.852896690368652</v>
+        <v>-6.915391445159912</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5186818242073059</v>
+        <v>0.1864366233348846</v>
       </c>
       <c r="F64" t="n">
-        <v>-5.599006652832031</v>
+        <v>1.351937532424927</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.252786636352539</v>
+        <v>-7.027830123901367</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.5850182771682739</v>
+        <v>0.4091843068599701</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.145248755812645</v>
+        <v>0.02269443683326244</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3336444497108459</v>
+        <v>0.0224471241235733</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.234479665756226</v>
+        <v>0.4798911511898041</v>
       </c>
       <c r="D65" t="n">
-        <v>-6.614231109619141</v>
+        <v>-7.159950733184814</v>
       </c>
       <c r="E65" t="n">
-        <v>1.086574912071228</v>
+        <v>0.3378083407878876</v>
       </c>
       <c r="F65" t="n">
-        <v>-7.411047458648682</v>
+        <v>0.9047567844390869</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.28571796417236</v>
+        <v>-7.332610130310059</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.5161460041999817</v>
+        <v>0.4106133878231049</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.1796712577342987</v>
+        <v>0.04253821074962616</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3899100422859192</v>
+        <v>0.04145967960357666</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.239490747451782</v>
+        <v>-0.08360090851783752</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.16185188293457</v>
+        <v>-7.314750671386719</v>
       </c>
       <c r="E66" t="n">
-        <v>1.241992235183716</v>
+        <v>0.6892849206924438</v>
       </c>
       <c r="F66" t="n">
-        <v>-8.979612350463867</v>
+        <v>0.3414469957351685</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.80812168121338</v>
+        <v>-7.49435567855835</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.7309690713882446</v>
+        <v>0.6079931259155273</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.2122219353914261</v>
+        <v>0.06462866067886353</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4337429404258728</v>
+        <v>0.06167888268828392</v>
       </c>
       <c r="C67" t="n">
-        <v>-4.189850807189941</v>
+        <v>-0.7108907103538513</v>
       </c>
       <c r="D67" t="n">
-        <v>-5.451808929443359</v>
+        <v>-7.410380840301514</v>
       </c>
       <c r="E67" t="n">
-        <v>1.202328443527222</v>
+        <v>1.17349112033844</v>
       </c>
       <c r="F67" t="n">
-        <v>-10.20158004760742</v>
+        <v>-0.2576139569282532</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.59015464782715</v>
+        <v>-7.550353527069092</v>
       </c>
       <c r="H67" t="n">
-        <v>-1.246351718902588</v>
+        <v>0.9627597332000732</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.2416934221982956</v>
+        <v>0.08662091940641403</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4632798135280609</v>
+        <v>0.08109010010957718</v>
       </c>
       <c r="C68" t="n">
-        <v>-5.050310134887695</v>
+        <v>-1.335392236709595</v>
       </c>
       <c r="D68" t="n">
-        <v>-4.489604473114014</v>
+        <v>-7.484336376190186</v>
       </c>
       <c r="E68" t="n">
-        <v>1.148649930953979</v>
+        <v>1.719788789749146</v>
       </c>
       <c r="F68" t="n">
-        <v>-11.02500629425049</v>
+        <v>-0.8327353000640869</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.564047813415527</v>
+        <v>-7.553945064544678</v>
       </c>
       <c r="H68" t="n">
-        <v>-2.150124073028564</v>
+        <v>1.426496148109436</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.2670503854751587</v>
+        <v>0.1074218824505806</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4765365719795227</v>
+        <v>0.09900488704442978</v>
       </c>
       <c r="C69" t="n">
-        <v>-5.790640830993652</v>
+        <v>-1.926064968109131</v>
       </c>
       <c r="D69" t="n">
-        <v>-3.35228443145752</v>
+        <v>-7.572144031524658</v>
       </c>
       <c r="E69" t="n">
-        <v>1.158632159233093</v>
+        <v>2.276546478271484</v>
       </c>
       <c r="F69" t="n">
-        <v>-11.39457607269287</v>
+        <v>-1.36352014541626</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.761820793151855</v>
+        <v>-7.561160087585449</v>
       </c>
       <c r="H69" t="n">
-        <v>-3.452653646469116</v>
+        <v>1.960124611854553</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.28844153881073</v>
+        <v>0.1273465752601624</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4713816046714783</v>
+        <v>0.1161292791366577</v>
       </c>
       <c r="C70" t="n">
-        <v>-6.415183067321777</v>
+        <v>-2.491854906082153</v>
       </c>
       <c r="D70" t="n">
-        <v>-2.216917037963867</v>
+        <v>-7.701758861541748</v>
       </c>
       <c r="E70" t="n">
-        <v>1.241072773933411</v>
+        <v>2.820922613143921</v>
       </c>
       <c r="F70" t="n">
-        <v>-11.25086688995361</v>
+        <v>-1.870886921882629</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.31285572052002</v>
+        <v>-7.620781421661377</v>
       </c>
       <c r="H70" t="n">
-        <v>-5.019623279571533</v>
+        <v>2.543241262435913</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.3078093528747559</v>
+        <v>0.1478123962879181</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4471122324466705</v>
+        <v>0.1342079490423203</v>
       </c>
       <c r="C71" t="n">
-        <v>-6.980652809143066</v>
+        <v>-3.073010921478271</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.358303666114807</v>
+        <v>-7.890012741088867</v>
       </c>
       <c r="E71" t="n">
-        <v>1.405499219894409</v>
+        <v>3.356742143630981</v>
       </c>
       <c r="F71" t="n">
-        <v>-10.5742883682251</v>
+        <v>-2.406527042388916</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.470964908599854</v>
+        <v>-7.767120361328125</v>
       </c>
       <c r="H71" t="n">
-        <v>-6.605744361877441</v>
+        <v>3.173600196838379</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3287742733955383</v>
+        <v>0.170781672000885</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4065556824207306</v>
+        <v>0.1554414480924606</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.592751502990723</v>
+        <v>-3.725256204605103</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.063966393470764</v>
+        <v>-8.140266418457031</v>
       </c>
       <c r="E72" t="n">
-        <v>1.648161053657532</v>
+        <v>3.904868602752686</v>
       </c>
       <c r="F72" t="n">
-        <v>-9.443657875061035</v>
+        <v>-3.035639524459839</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3888839781284332</v>
+        <v>-8.014973640441895</v>
       </c>
       <c r="H72" t="n">
-        <v>-7.870212078094482</v>
+        <v>3.860426664352417</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.35356605052948</v>
+        <v>0.1981506645679474</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3575923442840576</v>
+        <v>0.1818624585866928</v>
       </c>
       <c r="C73" t="n">
-        <v>-8.316580772399902</v>
+        <v>-4.502438068389893</v>
       </c>
       <c r="D73" t="n">
-        <v>-1.4452965259552</v>
+        <v>-8.441625595092773</v>
       </c>
       <c r="E73" t="n">
-        <v>2.007054805755615</v>
+        <v>4.49147891998291</v>
       </c>
       <c r="F73" t="n">
-        <v>-8.078662872314453</v>
+        <v>-3.8184494972229</v>
       </c>
       <c r="G73" t="n">
-        <v>2.812930822372437</v>
+        <v>-8.357369422912598</v>
       </c>
       <c r="H73" t="n">
-        <v>-8.488663673400879</v>
+        <v>4.616123676300049</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.3819675743579865</v>
+        <v>0.2312136143445969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3097126483917236</v>
+        <v>0.214793473482132</v>
       </c>
       <c r="C74" t="n">
-        <v>-9.145801544189453</v>
+        <v>-5.441307067871094</v>
       </c>
       <c r="D74" t="n">
-        <v>-2.3420250415802</v>
+        <v>-8.770040512084961</v>
       </c>
       <c r="E74" t="n">
-        <v>2.524706125259399</v>
+        <v>5.13746166229248</v>
       </c>
       <c r="F74" t="n">
-        <v>-6.743879795074463</v>
+        <v>-4.794139862060547</v>
       </c>
       <c r="G74" t="n">
-        <v>4.471344470977783</v>
+        <v>-8.766454696655273</v>
       </c>
       <c r="H74" t="n">
-        <v>-8.212082862854004</v>
+        <v>5.448720932006836</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.4103171229362488</v>
+        <v>0.2702451050281525</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2696116268634796</v>
+        <v>0.2544316351413727</v>
       </c>
       <c r="C75" t="n">
-        <v>-9.973503112792969</v>
+        <v>-6.549661636352539</v>
       </c>
       <c r="D75" t="n">
-        <v>-3.377723693847656</v>
+        <v>-9.090539932250977</v>
       </c>
       <c r="E75" t="n">
-        <v>3.146717548370361</v>
+        <v>5.848523616790771</v>
       </c>
       <c r="F75" t="n">
-        <v>-5.625947952270508</v>
+        <v>-5.968552112579346</v>
       </c>
       <c r="G75" t="n">
-        <v>5.283600330352783</v>
+        <v>-9.196722984313965</v>
       </c>
       <c r="H75" t="n">
-        <v>-7.026108264923096</v>
+        <v>6.353977680206299</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.4351144731044769</v>
+        <v>0.3142321705818176</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2398252934217453</v>
+        <v>0.2996019423007965</v>
       </c>
       <c r="C76" t="n">
-        <v>-10.69749546051025</v>
+        <v>-7.798736572265625</v>
       </c>
       <c r="D76" t="n">
-        <v>-4.202071666717529</v>
+        <v>-9.358953475952148</v>
       </c>
       <c r="E76" t="n">
-        <v>3.608006238937378</v>
+        <v>6.604559898376465</v>
       </c>
       <c r="F76" t="n">
-        <v>-4.795568466186523</v>
+        <v>-7.30687141418457</v>
       </c>
       <c r="G76" t="n">
-        <v>5.382988929748535</v>
+        <v>-9.589079856872559</v>
       </c>
       <c r="H76" t="n">
-        <v>-5.210558414459229</v>
+        <v>7.30547571182251</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4547251164913177</v>
+        <v>0.3608696460723877</v>
       </c>
       <c r="B77" t="n">
-        <v>0.219025120139122</v>
+        <v>0.3478117287158966</v>
       </c>
       <c r="C77" t="n">
-        <v>-11.27005386352539</v>
+        <v>-9.123074531555176</v>
       </c>
       <c r="D77" t="n">
-        <v>-4.600613117218018</v>
+        <v>-9.522687911987305</v>
       </c>
       <c r="E77" t="n">
-        <v>3.414544582366943</v>
+        <v>7.351052284240723</v>
       </c>
       <c r="F77" t="n">
-        <v>-4.215703964233398</v>
+        <v>-8.735245704650879</v>
       </c>
       <c r="G77" t="n">
-        <v>5.041818141937256</v>
+        <v>-9.875500679016113</v>
       </c>
       <c r="H77" t="n">
-        <v>-3.281627893447876</v>
+        <v>8.245390892028809</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.4673614203929901</v>
+        <v>0.4069432318210602</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2028541564941406</v>
+        <v>0.395732969045639</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.63898849487305</v>
+        <v>-10.43139839172363</v>
       </c>
       <c r="D78" t="n">
-        <v>-4.432791233062744</v>
+        <v>-9.522666931152344</v>
       </c>
       <c r="E78" t="n">
-        <v>1.931927084922791</v>
+        <v>7.999233722686768</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.764892339706421</v>
+        <v>-10.15507125854492</v>
       </c>
       <c r="G78" t="n">
-        <v>4.609128952026367</v>
+        <v>-9.985507011413574</v>
       </c>
       <c r="H78" t="n">
-        <v>-1.801533937454224</v>
+        <v>9.082871437072754</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4685671627521515</v>
+        <v>0.4489963352680206</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1867775022983551</v>
+        <v>0.4399745762348175</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.67419147491455</v>
+        <v>-11.6255578994751</v>
       </c>
       <c r="D79" t="n">
-        <v>-3.571934461593628</v>
+        <v>-9.298200607299805</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.320653080940247</v>
+        <v>8.436812400817871</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.316709280014038</v>
+        <v>-11.46587467193604</v>
       </c>
       <c r="G79" t="n">
-        <v>4.411876678466797</v>
+        <v>-9.854209899902344</v>
       </c>
       <c r="H79" t="n">
-        <v>-1.123856663703918</v>
+        <v>9.702600479125977</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.4525260627269745</v>
+        <v>0.4839125573635101</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1690334528684616</v>
+        <v>0.4777230322360992</v>
       </c>
       <c r="C80" t="n">
-        <v>-11.20585060119629</v>
+        <v>-12.61705303192139</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.999566078186035</v>
+        <v>-8.791792869567871</v>
       </c>
       <c r="E80" t="n">
-        <v>-6.081665515899658</v>
+        <v>8.539437294006348</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.822042942047119</v>
+        <v>-12.5842981338501</v>
       </c>
       <c r="G80" t="n">
-        <v>4.634041309356689</v>
+        <v>-9.427250862121582</v>
       </c>
       <c r="H80" t="n">
-        <v>-1.211291790008545</v>
+        <v>9.974710464477539</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.4175147116184235</v>
+        <v>0.5090298652648926</v>
       </c>
       <c r="B81" t="n">
-        <v>0.148873046040535</v>
+        <v>0.5068469643592834</v>
       </c>
       <c r="C81" t="n">
-        <v>-10.18364715576172</v>
+        <v>-13.33029460906982</v>
       </c>
       <c r="D81" t="n">
-        <v>0.04845952987670898</v>
+        <v>-7.945913791656494</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.16043949127197</v>
+        <v>8.165472030639648</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.260013103485107</v>
+        <v>-13.447190284729</v>
       </c>
       <c r="G81" t="n">
-        <v>5.254040241241455</v>
+        <v>-8.654953956604004</v>
       </c>
       <c r="H81" t="n">
-        <v>-1.686147689819336</v>
+        <v>9.748737335205078</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.3690947294235229</v>
+        <v>0.5216597318649292</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1254093497991562</v>
+        <v>0.5253131985664368</v>
       </c>
       <c r="C82" t="n">
-        <v>-8.769960403442383</v>
+        <v>-13.68893718719482</v>
       </c>
       <c r="D82" t="n">
-        <v>2.206677675247192</v>
+        <v>-6.687304496765137</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.1916332244873</v>
+        <v>7.120805263519287</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.605895638465881</v>
+        <v>-13.99431324005127</v>
       </c>
       <c r="G82" t="n">
-        <v>6.112348556518555</v>
+        <v>-7.470587253570557</v>
       </c>
       <c r="H82" t="n">
-        <v>-2.075921773910522</v>
+        <v>8.815301895141602</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.3157667219638824</v>
+        <v>0.5182626247406006</v>
       </c>
       <c r="B83" t="n">
-        <v>0.09783568978309631</v>
+        <v>0.5299999713897705</v>
       </c>
       <c r="C83" t="n">
-        <v>-7.212978839874268</v>
+        <v>-13.59247016906738</v>
       </c>
       <c r="D83" t="n">
-        <v>4.17194938659668</v>
+        <v>-4.914391040802002</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.28011131286621</v>
+        <v>5.108471870422363</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.8372001647949219</v>
+        <v>-14.13317489624023</v>
       </c>
       <c r="G83" t="n">
-        <v>7.008991241455078</v>
+        <v>-5.761752128601074</v>
       </c>
       <c r="H83" t="n">
-        <v>-2.024040699005127</v>
+        <v>6.842626571655273</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.2621828019618988</v>
+        <v>0.4941688776016235</v>
       </c>
       <c r="B84" t="n">
-        <v>0.06280383467674255</v>
+        <v>0.5154856443405151</v>
       </c>
       <c r="C84" t="n">
-        <v>-5.648525714874268</v>
+        <v>-12.90829563140869</v>
       </c>
       <c r="D84" t="n">
-        <v>5.730403423309326</v>
+        <v>-2.549966335296631</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.09822463989258</v>
+        <v>1.787206411361694</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1394131928682327</v>
+        <v>-13.70314025878906</v>
       </c>
       <c r="G84" t="n">
-        <v>7.777609825134277</v>
+        <v>-3.389084577560425</v>
       </c>
       <c r="H84" t="n">
-        <v>-1.431661128997803</v>
+        <v>3.404227256774902</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.2102699875831604</v>
+        <v>0.4457554817199707</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9618509251175024</v>
+        <v>0.5651722128938416</v>
       </c>
       <c r="C85" t="n">
-        <v>-4.132861614227295</v>
+        <v>-11.53352737426758</v>
       </c>
       <c r="D85" t="n">
-        <v>6.720224380493164</v>
+        <v>0.2859512567520142</v>
       </c>
       <c r="E85" t="n">
-        <v>-14.77338790893555</v>
+        <v>-2.771378755569458</v>
       </c>
       <c r="F85" t="n">
-        <v>1.288815259933472</v>
+        <v>-12.5228443145752</v>
       </c>
       <c r="G85" t="n">
-        <v>8.17763614654541</v>
+        <v>-0.3558490574359894</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.4498479962348938</v>
+        <v>-1.577216506004333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.7615549213723182</v>
+        <v>0.6078472088690501</v>
       </c>
       <c r="B86" t="n">
-        <v>1.001202402861581</v>
+        <v>0.6630439579378621</v>
       </c>
       <c r="C86" t="n">
-        <v>-2.665867567062378</v>
+        <v>-9.524289131164551</v>
       </c>
       <c r="D86" t="n">
-        <v>7.20087194442749</v>
+        <v>3.198309659957886</v>
       </c>
       <c r="E86" t="n">
-        <v>-10.93718242645264</v>
+        <v>-7.48865795135498</v>
       </c>
       <c r="F86" t="n">
-        <v>2.355945587158203</v>
+        <v>-10.59871768951416</v>
       </c>
       <c r="G86" t="n">
-        <v>7.994372367858887</v>
+        <v>2.98828649520874</v>
       </c>
       <c r="H86" t="n">
-        <v>0.6165702342987061</v>
+        <v>-7.123303413391113</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9505797091338354</v>
+        <v>0.7856781295937673</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9999025634339648</v>
+        <v>0.7906790874572316</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.200912117958069</v>
+        <v>-7.100947380065918</v>
       </c>
       <c r="D87" t="n">
-        <v>7.493325710296631</v>
+        <v>5.755000591278076</v>
       </c>
       <c r="E87" t="n">
-        <v>-6.711251735687256</v>
+        <v>-10.8580379486084</v>
       </c>
       <c r="F87" t="n">
-        <v>3.087563037872314</v>
+        <v>-8.185055732727051</v>
       </c>
       <c r="G87" t="n">
-        <v>7.244222640991211</v>
+        <v>6.102560520172119</v>
       </c>
       <c r="H87" t="n">
-        <v>1.550435543060303</v>
+        <v>-11.60053825378418</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9946966650630802</v>
+        <v>0.918955803603611</v>
       </c>
       <c r="B88" t="n">
-        <v>1.000010727537252</v>
+        <v>0.9042160148232674</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3457165658473969</v>
+        <v>-4.566750526428223</v>
       </c>
       <c r="D88" t="n">
-        <v>7.893203258514404</v>
+        <v>7.732606410980225</v>
       </c>
       <c r="E88" t="n">
-        <v>-3.075116157531738</v>
+        <v>-12.1505708694458</v>
       </c>
       <c r="F88" t="n">
-        <v>3.516973495483398</v>
+        <v>-5.615771770477295</v>
       </c>
       <c r="G88" t="n">
-        <v>6.158242225646973</v>
+        <v>8.591279029846191</v>
       </c>
       <c r="H88" t="n">
-        <v>2.31573748588562</v>
+        <v>-13.99175071716309</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.000024996715101</v>
+        <v>0.9818563706127349</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9999985349433282</v>
+        <v>0.9708690014515327</v>
       </c>
       <c r="C89" t="n">
-        <v>2.07918643951416</v>
+        <v>-2.244983673095703</v>
       </c>
       <c r="D89" t="n">
-        <v>8.446098327636719</v>
+        <v>9.150905609130859</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.2526037096977234</v>
+        <v>-11.56925010681152</v>
       </c>
       <c r="F89" t="n">
-        <v>3.908105373382568</v>
+        <v>-3.205962419509888</v>
       </c>
       <c r="G89" t="n">
-        <v>4.983086109161377</v>
+        <v>10.36112022399902</v>
       </c>
       <c r="H89" t="n">
-        <v>2.923879146575928</v>
+        <v>-14.28501987457275</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9999967954283471</v>
+        <v>0.9982282917914659</v>
       </c>
       <c r="B90" t="n">
-        <v>1.000000253574397</v>
+        <v>0.994958767707977</v>
       </c>
       <c r="C90" t="n">
-        <v>3.990020513534546</v>
+        <v>-0.3452962338924408</v>
       </c>
       <c r="D90" t="n">
-        <v>8.940484046936035</v>
+        <v>10.11166381835938</v>
       </c>
       <c r="E90" t="n">
-        <v>1.963086843490601</v>
+        <v>-9.74062442779541</v>
       </c>
       <c r="F90" t="n">
-        <v>4.447578907012939</v>
+        <v>-1.147638440132141</v>
       </c>
       <c r="G90" t="n">
-        <v>3.814080715179443</v>
+        <v>11.54130363464355</v>
       </c>
       <c r="H90" t="n">
-        <v>3.403614282608032</v>
+        <v>-13.02481842041016</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.000000810141384</v>
+        <v>0.9999984372127153</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9999999452688665</v>
+        <v>0.9996707700346003</v>
       </c>
       <c r="C91" t="n">
-        <v>5.918216228485107</v>
+        <v>1.111056566238403</v>
       </c>
       <c r="D91" t="n">
-        <v>9.020544052124023</v>
+        <v>10.67340564727783</v>
       </c>
       <c r="E91" t="n">
-        <v>3.695226669311523</v>
+        <v>-7.309082984924316</v>
       </c>
       <c r="F91" t="n">
-        <v>5.079324245452881</v>
+        <v>0.5443042516708374</v>
       </c>
       <c r="G91" t="n">
-        <v>2.516275405883789</v>
+        <v>12.30082321166992</v>
       </c>
       <c r="H91" t="n">
-        <v>3.754756212234497</v>
+        <v>-10.83954048156738</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9999997003551616</v>
+        <v>1.00000011597372</v>
       </c>
       <c r="B92" t="n">
-        <v>1.000000014051448</v>
+        <v>1.00000855407432</v>
       </c>
       <c r="C92" t="n">
-        <v>7.729598999023438</v>
+        <v>2.241193056106567</v>
       </c>
       <c r="D92" t="n">
-        <v>8.423171997070312</v>
+        <v>10.84658622741699</v>
       </c>
       <c r="E92" t="n">
-        <v>4.923366069793701</v>
+        <v>-4.770398139953613</v>
       </c>
       <c r="F92" t="n">
-        <v>5.68359375</v>
+        <v>1.977823495864868</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9382875561714172</v>
+        <v>12.73253154754639</v>
       </c>
       <c r="H92" t="n">
-        <v>3.941689014434814</v>
+        <v>-8.240701675415039</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.000000141270216</v>
+        <v>0.9999999839964391</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9999999959873829</v>
+        <v>0.9999990650671879</v>
       </c>
       <c r="C93" t="n">
-        <v>9.301631927490234</v>
+        <v>3.201140642166138</v>
       </c>
       <c r="D93" t="n">
-        <v>6.972556591033936</v>
+        <v>10.63356590270996</v>
       </c>
       <c r="E93" t="n">
-        <v>5.449056148529053</v>
+        <v>-2.45114278793335</v>
       </c>
       <c r="F93" t="n">
-        <v>6.109567642211914</v>
+        <v>3.286114692687988</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.056240320205688</v>
+        <v>12.84178256988525</v>
       </c>
       <c r="H93" t="n">
-        <v>3.834070682525635</v>
+        <v>-5.602166652679443</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9999999226867999</v>
+        <v>1.000000003186558</v>
       </c>
       <c r="B94" t="n">
-        <v>1.000000001153467</v>
+        <v>1.000000178482506</v>
       </c>
       <c r="C94" t="n">
-        <v>10.47476482391357</v>
+        <v>4.121041774749756</v>
       </c>
       <c r="D94" t="n">
-        <v>4.562545776367188</v>
+        <v>10.0604305267334</v>
       </c>
       <c r="E94" t="n">
-        <v>4.870166301727295</v>
+        <v>-0.5409928560256958</v>
       </c>
       <c r="F94" t="n">
-        <v>6.137551784515381</v>
+        <v>4.567594528198242</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.567692518234253</v>
+        <v>12.59777545928955</v>
       </c>
       <c r="H94" t="n">
-        <v>3.226645469665527</v>
+        <v>-3.188946008682251</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.000000045457965</v>
+        <v>0.9999999991593722</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9999999997060213</v>
+        <v>0.9999999509589134</v>
       </c>
       <c r="C95" t="n">
-        <v>11.1045560836792</v>
+        <v>5.094613552093506</v>
       </c>
       <c r="D95" t="n">
-        <v>1.395921468734741</v>
+        <v>9.180878639221191</v>
       </c>
       <c r="E95" t="n">
-        <v>2.760560274124146</v>
+        <v>0.8690590858459473</v>
       </c>
       <c r="F95" t="n">
-        <v>5.655954360961914</v>
+        <v>5.88449239730835</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.289995193481445</v>
+        <v>11.98202037811279</v>
       </c>
       <c r="H95" t="n">
-        <v>2.054708480834961</v>
+        <v>-1.178972244262695</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9999999736114813</v>
+        <v>1.000000000283482</v>
       </c>
       <c r="B96" t="n">
-        <v>1.000000000054888</v>
+        <v>1.000000017863664</v>
       </c>
       <c r="C96" t="n">
-        <v>10.98899841308594</v>
+        <v>6.199631690979004</v>
       </c>
       <c r="D96" t="n">
-        <v>-1.794981598854065</v>
+        <v>8.058610916137695</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.7236388325691223</v>
+        <v>1.748080611228943</v>
       </c>
       <c r="F96" t="n">
-        <v>4.648885726928711</v>
+        <v>7.289789199829102</v>
       </c>
       <c r="G96" t="n">
-        <v>-8.426024436950684</v>
+        <v>11.00119972229004</v>
       </c>
       <c r="H96" t="n">
-        <v>0.6624372005462646</v>
+        <v>0.318729966878891</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.000000014164864</v>
+        <v>0.9999999998794918</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9999999999942426</v>
+        <v>0.9999999917191188</v>
       </c>
       <c r="C97" t="n">
-        <v>10.31243515014648</v>
+        <v>7.522120475769043</v>
       </c>
       <c r="D97" t="n">
-        <v>-3.775594472885132</v>
+        <v>6.7410888671875</v>
       </c>
       <c r="E97" t="n">
-        <v>-3.979443311691284</v>
+        <v>2.081254959106445</v>
       </c>
       <c r="F97" t="n">
-        <v>3.440098285675049</v>
+        <v>8.849111557006836</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.12277889251709</v>
+        <v>9.668088912963867</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.2212050557136536</v>
+        <v>1.23397171497345</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9999999929983592</v>
+        <v>1.000000000064237</v>
       </c>
       <c r="B98" t="n">
-        <v>1.000000000000266</v>
+        <v>1.000000004773267</v>
       </c>
       <c r="C98" t="n">
-        <v>9.655020713806152</v>
+        <v>9.146777153015137</v>
       </c>
       <c r="D98" t="n">
-        <v>-3.979544878005981</v>
+        <v>5.236845016479492</v>
       </c>
       <c r="E98" t="n">
-        <v>-5.185636043548584</v>
+        <v>1.834504842758179</v>
       </c>
       <c r="F98" t="n">
-        <v>2.572383165359497</v>
+        <v>10.62135410308838</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.351700782775879</v>
+        <v>7.972466468811035</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.2843801379203796</v>
+        <v>1.505428075790405</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.00000000317788</v>
+        <v>0.9999999999576382</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9999999999999952</v>
+        <v>0.9999999966650541</v>
       </c>
       <c r="C99" t="n">
-        <v>9.029561042785645</v>
+        <v>11.04930782318115</v>
       </c>
       <c r="D99" t="n">
-        <v>-2.8452308177948</v>
+        <v>3.547168493270874</v>
       </c>
       <c r="E99" t="n">
-        <v>-3.928735017776489</v>
+        <v>0.9715413451194763</v>
       </c>
       <c r="F99" t="n">
-        <v>2.155612945556641</v>
+        <v>12.5410680770874</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.557180881500244</v>
+        <v>5.90971851348877</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2735873460769653</v>
+        <v>1.099503993988037</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.999999998748281</v>
+        <v>1.00000000003313</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>1.000000002688152</v>
       </c>
       <c r="C100" t="n">
-        <v>8.101247787475586</v>
+        <v>12.89450073242188</v>
       </c>
       <c r="D100" t="n">
-        <v>-1.230594635009766</v>
+        <v>1.818455696105957</v>
       </c>
       <c r="E100" t="n">
-        <v>-1.158019304275513</v>
+        <v>-0.4199545085430145</v>
       </c>
       <c r="F100" t="n">
-        <v>1.948732614517212</v>
+        <v>14.22732067108154</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.384805202484131</v>
+        <v>3.647922992706299</v>
       </c>
       <c r="H100" t="n">
-        <v>1.060860991477966</v>
+        <v>0.1305475980043411</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.00000000038961</v>
+        <v>0.9999999999715893</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0.9999999976977015</v>
       </c>
       <c r="C101" t="n">
-        <v>6.82270622253418</v>
+        <v>14.03067779541016</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1745573282241821</v>
+        <v>0.4032630920410156</v>
       </c>
       <c r="E101" t="n">
-        <v>1.954102158546448</v>
+        <v>-1.989939093589783</v>
       </c>
       <c r="F101" t="n">
-        <v>1.752345561981201</v>
+        <v>15.01884269714355</v>
       </c>
       <c r="G101" t="n">
-        <v>-2.459758758544922</v>
+        <v>1.607096314430237</v>
       </c>
       <c r="H101" t="n">
-        <v>1.841817498207092</v>
+        <v>-1.031986713409424</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.9999999999168284</v>
+        <v>1.000000000023848</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>1.000000001861993</v>
       </c>
       <c r="C102" t="n">
-        <v>5.309557437896729</v>
+        <v>13.75735187530518</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5978307723999023</v>
+        <v>-0.3835694789886475</v>
       </c>
       <c r="E102" t="n">
-        <v>3.765665054321289</v>
+        <v>-3.074010848999023</v>
       </c>
       <c r="F102" t="n">
-        <v>1.45944356918335</v>
+        <v>14.26969528198242</v>
       </c>
       <c r="G102" t="n">
-        <v>-1.496742844581604</v>
+        <v>0.2179679125547409</v>
       </c>
       <c r="H102" t="n">
-        <v>2.106699466705322</v>
+        <v>-1.768656969070435</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.00000000000802</v>
+        <v>0.9999999999833493</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0.9999999988025294</v>
       </c>
       <c r="C103" t="n">
-        <v>3.498413801193237</v>
+        <v>11.63242816925049</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.9940313100814819</v>
+        <v>-0.6748242974281311</v>
       </c>
       <c r="E103" t="n">
-        <v>2.265625476837158</v>
+        <v>-2.877812623977661</v>
       </c>
       <c r="F103" t="n">
-        <v>1.002480268478394</v>
+        <v>11.66861820220947</v>
       </c>
       <c r="G103" t="n">
-        <v>-2.265363216400146</v>
+        <v>-0.4835427701473236</v>
       </c>
       <c r="H103" t="n">
-        <v>0.8920702338218689</v>
+        <v>-1.391152858734131</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.0348341129720211</v>
+        <v>0.009911073371767998</v>
       </c>
       <c r="B104" t="n">
-        <v>0.02936296910047531</v>
+        <v>0.009381175972521305</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9892227053642273</v>
+        <v>0.8428929448127747</v>
       </c>
       <c r="D104" t="n">
-        <v>-2.371803283691406</v>
+        <v>-2.22249960899353</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1129184290766716</v>
+        <v>-0.6705539226531982</v>
       </c>
       <c r="F104" t="n">
-        <v>1.071673512458801</v>
+        <v>1.291878700256348</v>
       </c>
       <c r="G104" t="n">
-        <v>-2.258795976638794</v>
+        <v>-2.033090829849243</v>
       </c>
       <c r="H104" t="n">
-        <v>0.130106508731842</v>
+        <v>-0.6440821886062622</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.02592788077890873</v>
+        <v>-0.01947239600121975</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.03746498376131058</v>
+        <v>-0.02080848440527916</v>
       </c>
       <c r="C105" t="n">
-        <v>2.763250112533569</v>
+        <v>1.677278280258179</v>
       </c>
       <c r="D105" t="n">
-        <v>-2.717583894729614</v>
+        <v>-2.682587385177612</v>
       </c>
       <c r="E105" t="n">
-        <v>0.7689395546913147</v>
+        <v>-1.163597822189331</v>
       </c>
       <c r="F105" t="n">
-        <v>2.934694766998291</v>
+        <v>2.186347246170044</v>
       </c>
       <c r="G105" t="n">
-        <v>-2.616056680679321</v>
+        <v>-2.465240001678467</v>
       </c>
       <c r="H105" t="n">
-        <v>0.3950868546962738</v>
+        <v>-1.161505103111267</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-0.06018101051449776</v>
+        <v>-0.03698829561471939</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.08586624264717102</v>
+        <v>-0.03895796462893486</v>
       </c>
       <c r="C106" t="n">
-        <v>3.763315916061401</v>
+        <v>2.174667119979858</v>
       </c>
       <c r="D106" t="n">
-        <v>-2.532118320465088</v>
+        <v>-3.053759336471558</v>
       </c>
       <c r="E106" t="n">
-        <v>1.977568626403809</v>
+        <v>-1.185976982116699</v>
       </c>
       <c r="F106" t="n">
-        <v>4.284018993377686</v>
+        <v>2.724085569381714</v>
       </c>
       <c r="G106" t="n">
-        <v>-2.211489200592041</v>
+        <v>-2.827061176300049</v>
       </c>
       <c r="H106" t="n">
-        <v>0.4837981760501862</v>
+        <v>-1.250028014183044</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.05964530259370804</v>
+        <v>-0.03688402101397514</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.1075331121683121</v>
+        <v>-0.03986232355237007</v>
       </c>
       <c r="C107" t="n">
-        <v>3.747675180435181</v>
+        <v>2.171706199645996</v>
       </c>
       <c r="D107" t="n">
-        <v>-2.830739498138428</v>
+        <v>-3.453029632568359</v>
       </c>
       <c r="E107" t="n">
-        <v>2.244021892547607</v>
+        <v>-0.6868078112602234</v>
       </c>
       <c r="F107" t="n">
-        <v>4.888045310974121</v>
+        <v>2.750880241394043</v>
       </c>
       <c r="G107" t="n">
-        <v>-1.941603302955627</v>
+        <v>-3.198851585388184</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.8723369836807251</v>
+        <v>-0.8295631408691406</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-0.02031741663813591</v>
+        <v>-0.02171102538704872</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.08490490913391113</v>
+        <v>-0.02643140405416489</v>
       </c>
       <c r="C108" t="n">
-        <v>2.599445104598999</v>
+        <v>1.74084734916687</v>
       </c>
       <c r="D108" t="n">
-        <v>-4.226203441619873</v>
+        <v>-3.983960151672363</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5261862874031067</v>
+        <v>0.1126435920596123</v>
       </c>
       <c r="F108" t="n">
-        <v>4.257218837738037</v>
+        <v>2.352944850921631</v>
       </c>
       <c r="G108" t="n">
-        <v>-2.602450370788574</v>
+        <v>-3.665403366088867</v>
       </c>
       <c r="H108" t="n">
-        <v>-3.527535676956177</v>
+        <v>-0.08329284191131592</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.02215537056326866</v>
+        <v>0.0007032303838059306</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.02939064800739288</v>
+        <v>-0.006349337287247181</v>
       </c>
       <c r="C109" t="n">
-        <v>1.359395503997803</v>
+        <v>1.104362726211548</v>
       </c>
       <c r="D109" t="n">
-        <v>-6.067419528961182</v>
+        <v>-4.637764453887939</v>
       </c>
       <c r="E109" t="n">
-        <v>-2.29696249961853</v>
+        <v>0.9113526940345764</v>
       </c>
       <c r="F109" t="n">
-        <v>2.709599494934082</v>
+        <v>1.757947206497192</v>
       </c>
       <c r="G109" t="n">
-        <v>-4.230796337127686</v>
+        <v>-4.232355117797852</v>
       </c>
       <c r="H109" t="n">
-        <v>-5.296611309051514</v>
+        <v>0.7130881547927856</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.02933165058493614</v>
+        <v>0.02166523411870003</v>
       </c>
       <c r="B110" t="n">
-        <v>0.02669760957360268</v>
+        <v>0.01224089879542589</v>
       </c>
       <c r="C110" t="n">
-        <v>1.149874448776245</v>
+        <v>0.5091168284416199</v>
       </c>
       <c r="D110" t="n">
-        <v>-7.220479488372803</v>
+        <v>-5.313608646392822</v>
       </c>
       <c r="E110" t="n">
-        <v>-4.015780925750732</v>
+        <v>1.468724846839905</v>
       </c>
       <c r="F110" t="n">
-        <v>1.145978093147278</v>
+        <v>1.207149982452393</v>
       </c>
       <c r="G110" t="n">
-        <v>-6.235022068023682</v>
+        <v>-4.831923484802246</v>
       </c>
       <c r="H110" t="n">
-        <v>-4.966208934783936</v>
+        <v>1.322674989700317</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.0178969819098711</v>
+        <v>0.03496674448251724</v>
       </c>
       <c r="B111" t="n">
-        <v>0.06587411463260651</v>
+        <v>0.02376253716647625</v>
       </c>
       <c r="C111" t="n">
-        <v>1.48372483253479</v>
+        <v>0.1314015090465546</v>
       </c>
       <c r="D111" t="n">
-        <v>-7.422600746154785</v>
+        <v>-5.902593612670898</v>
       </c>
       <c r="E111" t="n">
-        <v>-4.042242527008057</v>
+        <v>1.66488242149353</v>
       </c>
       <c r="F111" t="n">
-        <v>0.05382032692432404</v>
+        <v>0.8657833337783813</v>
       </c>
       <c r="G111" t="n">
-        <v>-7.57824182510376</v>
+        <v>-5.384830951690674</v>
       </c>
       <c r="H111" t="n">
-        <v>-3.751311302185059</v>
+        <v>1.610602736473083</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.02432596310973167</v>
+        <v>0.03853310644626617</v>
       </c>
       <c r="B112" t="n">
-        <v>0.09603746235370636</v>
+        <v>0.02656344324350357</v>
       </c>
       <c r="C112" t="n">
-        <v>1.296022176742554</v>
+        <v>0.03012963756918907</v>
       </c>
       <c r="D112" t="n">
-        <v>-7.038411617279053</v>
+        <v>-6.346925258636475</v>
       </c>
       <c r="E112" t="n">
-        <v>-3.178292989730835</v>
+        <v>1.513930916786194</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.7870694994926453</v>
+        <v>0.7827972173690796</v>
       </c>
       <c r="G112" t="n">
-        <v>-7.767822265625</v>
+        <v>-5.847745418548584</v>
       </c>
       <c r="H112" t="n">
-        <v>-2.574349403381348</v>
+        <v>1.564812779426575</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.05430278927087784</v>
+        <v>0.03440781310200691</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1339540481567383</v>
+        <v>0.02277089096605778</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4208087623119354</v>
+        <v>0.1472732722759247</v>
       </c>
       <c r="D113" t="n">
-        <v>-6.685416221618652</v>
+        <v>-6.647189617156982</v>
       </c>
       <c r="E113" t="n">
-        <v>-1.907577395439148</v>
+        <v>1.140615105628967</v>
       </c>
       <c r="F113" t="n">
-        <v>-1.844103455543518</v>
+        <v>0.8951641321182251</v>
       </c>
       <c r="G113" t="n">
-        <v>-7.688982486724854</v>
+        <v>-6.219595909118652</v>
       </c>
       <c r="H113" t="n">
-        <v>-1.568327188491821</v>
+        <v>1.281397461891174</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.09468315541744232</v>
+        <v>0.02741079963743687</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1863190531730652</v>
+        <v>0.01696382462978363</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.7581499218940735</v>
+        <v>0.345963329076767</v>
       </c>
       <c r="D114" t="n">
-        <v>-6.642908096313477</v>
+        <v>-6.839223384857178</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.5376998782157898</v>
+        <v>0.7242223620414734</v>
       </c>
       <c r="F114" t="n">
-        <v>-3.303928375244141</v>
+        <v>1.067217707633972</v>
       </c>
       <c r="G114" t="n">
-        <v>-8.154754638671875</v>
+        <v>-6.522006511688232</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.7640260457992554</v>
+        <v>0.9172104597091675</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.1347081512212753</v>
+        <v>0.02305573597550392</v>
       </c>
       <c r="B115" t="n">
-        <v>0.24753437936306</v>
+        <v>0.01419171318411827</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.926732778549194</v>
+        <v>0.4696315228939056</v>
       </c>
       <c r="D115" t="n">
-        <v>-6.722067356109619</v>
+        <v>-6.969512462615967</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5377284288406372</v>
+        <v>0.4300453066825867</v>
       </c>
       <c r="F115" t="n">
-        <v>-5.010481357574463</v>
+        <v>1.149350643157959</v>
       </c>
       <c r="G115" t="n">
-        <v>-9.091912269592285</v>
+        <v>-6.779355525970459</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.277349054813385</v>
+        <v>0.6276690363883972</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.1707981079816818</v>
+        <v>0.02554108016192913</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3083610832691193</v>
+        <v>0.01811392977833748</v>
       </c>
       <c r="C116" t="n">
-        <v>-2.980426788330078</v>
+        <v>0.3990566432476044</v>
       </c>
       <c r="D116" t="n">
-        <v>-6.656742572784424</v>
+        <v>-7.081201076507568</v>
       </c>
       <c r="E116" t="n">
-        <v>1.092941164970398</v>
+        <v>0.3587879538536072</v>
       </c>
       <c r="F116" t="n">
-        <v>-6.706201076507568</v>
+        <v>1.03314197063446</v>
       </c>
       <c r="G116" t="n">
-        <v>-10.02825546264648</v>
+        <v>-7.010570526123047</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.1573087871074677</v>
+        <v>0.517560601234436</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.2031650096178055</v>
+        <v>0.03658177331089973</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3614059388637543</v>
+        <v>0.02999028563499451</v>
       </c>
       <c r="C117" t="n">
-        <v>-3.925421714782715</v>
+        <v>0.08554056286811829</v>
       </c>
       <c r="D117" t="n">
-        <v>-6.305944442749023</v>
+        <v>-7.207021713256836</v>
       </c>
       <c r="E117" t="n">
-        <v>1.217653632164001</v>
+        <v>0.531721830368042</v>
       </c>
       <c r="F117" t="n">
-        <v>-8.184978485107422</v>
+        <v>0.6812657117843628</v>
       </c>
       <c r="G117" t="n">
-        <v>-10.53933525085449</v>
+        <v>-7.228720664978027</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.3475826382637024</v>
+        <v>0.6225721836090088</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.2325359582901001</v>
+        <v>0.05539675801992416</v>
       </c>
       <c r="B118" t="n">
-        <v>0.402646541595459</v>
+        <v>0.04878493398427963</v>
       </c>
       <c r="C118" t="n">
-        <v>-4.782946109771729</v>
+        <v>-0.4487377107143402</v>
       </c>
       <c r="D118" t="n">
-        <v>-5.639261722564697</v>
+        <v>-7.364531517028809</v>
       </c>
       <c r="E118" t="n">
-        <v>1.141280889511108</v>
+        <v>0.9072818160057068</v>
       </c>
       <c r="F118" t="n">
-        <v>-9.334678649902344</v>
+        <v>0.1244120746850967</v>
       </c>
       <c r="G118" t="n">
-        <v>-10.38224029541016</v>
+        <v>-7.441247940063477</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.8410550355911255</v>
+        <v>0.9197866320610046</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.2585962116718292</v>
+        <v>0.07959482818841934</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4302316009998322</v>
+        <v>0.07208157330751419</v>
       </c>
       <c r="C119" t="n">
-        <v>-5.543810367584229</v>
+        <v>-1.135876178741455</v>
       </c>
       <c r="D119" t="n">
-        <v>-4.668688774108887</v>
+        <v>-7.555196285247803</v>
       </c>
       <c r="E119" t="n">
-        <v>1.043716073036194</v>
+        <v>1.412687063217163</v>
       </c>
       <c r="F119" t="n">
-        <v>-10.10369110107422</v>
+        <v>-0.5658277869224548</v>
       </c>
       <c r="G119" t="n">
-        <v>-9.458309173583984</v>
+        <v>-7.649989128112793</v>
       </c>
       <c r="H119" t="n">
-        <v>-1.713828325271606</v>
+        <v>1.3537677526474</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.2805216312408447</v>
+        <v>0.106387160718441</v>
       </c>
       <c r="B120" t="n">
-        <v>0.442961573600769</v>
+        <v>0.09724248945713043</v>
       </c>
       <c r="C120" t="n">
-        <v>-6.183951854705811</v>
+        <v>-1.896682620048523</v>
       </c>
       <c r="D120" t="n">
-        <v>-3.450755596160889</v>
+        <v>-7.769854068756104</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9877826571464539</v>
+        <v>1.975218176841736</v>
       </c>
       <c r="F120" t="n">
-        <v>-10.45857715606689</v>
+        <v>-1.311303019523621</v>
       </c>
       <c r="G120" t="n">
-        <v>-7.770298004150391</v>
+        <v>-7.853855609893799</v>
       </c>
       <c r="H120" t="n">
-        <v>-2.980182647705078</v>
+        <v>1.864596605300903</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.2981529831886292</v>
+        <v>0.1336075961589813</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4401274621486664</v>
+        <v>0.1223412826657295</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.698722362518311</v>
+        <v>-2.669645547866821</v>
       </c>
       <c r="D121" t="n">
-        <v>-2.145251512527466</v>
+        <v>-7.998440742492676</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9891001582145691</v>
+        <v>2.544201850891113</v>
       </c>
       <c r="F121" t="n">
-        <v>-10.37956619262695</v>
+        <v>-2.054938077926636</v>
       </c>
       <c r="G121" t="n">
-        <v>-5.450229644775391</v>
+        <v>-8.054459571838379</v>
       </c>
       <c r="H121" t="n">
-        <v>-4.516757011413574</v>
+        <v>2.408979177474976</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.3130377531051636</v>
+        <v>0.1602718383073807</v>
       </c>
       <c r="B122" t="n">
-        <v>0.422021210193634</v>
+        <v>0.1466497480869293</v>
       </c>
       <c r="C122" t="n">
-        <v>-7.133304119110107</v>
+        <v>-3.426815032958984</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.037774085998535</v>
+        <v>-8.238263130187988</v>
       </c>
       <c r="E122" t="n">
-        <v>1.078077077865601</v>
+        <v>3.100449562072754</v>
       </c>
       <c r="F122" t="n">
-        <v>-9.874804496765137</v>
+        <v>-2.77515721321106</v>
       </c>
       <c r="G122" t="n">
-        <v>-2.763890743255615</v>
+        <v>-8.261138916015625</v>
       </c>
       <c r="H122" t="n">
-        <v>-6.078839778900146</v>
+        <v>2.970296859741211</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.3287371098995209</v>
+        <v>0.1866467893123627</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3909710347652435</v>
+        <v>0.1706673353910446</v>
       </c>
       <c r="C123" t="n">
-        <v>-7.591667175292969</v>
+        <v>-4.175768852233887</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.4719006419181824</v>
+        <v>-8.496195793151855</v>
       </c>
       <c r="E123" t="n">
-        <v>1.262059569358826</v>
+        <v>3.653791189193726</v>
       </c>
       <c r="F123" t="n">
-        <v>-9.009189605712891</v>
+        <v>-3.486757516860962</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.07379492372274399</v>
+        <v>-8.491327285766602</v>
       </c>
       <c r="H123" t="n">
-        <v>-7.320942878723145</v>
+        <v>3.557348251342773</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.3478802740573883</v>
+        <v>0.2139382213354111</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3524540364742279</v>
+        <v>0.1957919150590897</v>
       </c>
       <c r="C124" t="n">
-        <v>-8.150576591491699</v>
+        <v>-4.950747966766357</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.6595410108566284</v>
+        <v>-8.784115791320801</v>
       </c>
       <c r="E124" t="n">
-        <v>1.576519250869751</v>
+        <v>4.232066631317139</v>
       </c>
       <c r="F124" t="n">
-        <v>-7.935418605804443</v>
+        <v>-4.231156349182129</v>
       </c>
       <c r="G124" t="n">
-        <v>2.212830066680908</v>
+        <v>-8.765058517456055</v>
       </c>
       <c r="H124" t="n">
-        <v>-7.921151638031006</v>
+        <v>4.194724082946777</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.3702050745487213</v>
+        <v>0.2437455207109451</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3135199248790741</v>
+        <v>0.2237656712532043</v>
       </c>
       <c r="C125" t="n">
-        <v>-8.80237865447998</v>
+        <v>-5.797168254852295</v>
       </c>
       <c r="D125" t="n">
-        <v>-1.515851378440857</v>
+        <v>-9.110260009765625</v>
       </c>
       <c r="E125" t="n">
-        <v>2.064796686172485</v>
+        <v>4.866171360015869</v>
       </c>
       <c r="F125" t="n">
-        <v>-6.850018501281738</v>
+        <v>-5.059970855712891</v>
       </c>
       <c r="G125" t="n">
-        <v>3.804367542266846</v>
+        <v>-9.095691680908203</v>
       </c>
       <c r="H125" t="n">
-        <v>-7.648123741149902</v>
+        <v>4.90930700302124</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.3920460343360901</v>
+        <v>0.2774177193641663</v>
       </c>
       <c r="B126" t="n">
-        <v>0.2799595594406128</v>
+        <v>0.2560261189937592</v>
       </c>
       <c r="C126" t="n">
-        <v>-9.440054893493652</v>
+        <v>-6.75333833694458</v>
       </c>
       <c r="D126" t="n">
-        <v>-2.670855045318604</v>
+        <v>-9.469966888427734</v>
       </c>
       <c r="E126" t="n">
-        <v>2.682592868804932</v>
+        <v>5.574713230133057</v>
       </c>
       <c r="F126" t="n">
-        <v>-5.914426326751709</v>
+        <v>-6.015793800354004</v>
       </c>
       <c r="G126" t="n">
-        <v>4.630561351776123</v>
+        <v>-9.480293273925781</v>
       </c>
       <c r="H126" t="n">
-        <v>-6.509232044219971</v>
+        <v>5.71633243560791</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.4100269675254822</v>
+        <v>0.3154394030570984</v>
       </c>
       <c r="B127" t="n">
-        <v>0.2550719976425171</v>
+        <v>0.2930976748466492</v>
       </c>
       <c r="C127" t="n">
-        <v>-9.965031623840332</v>
+        <v>-7.83301830291748</v>
       </c>
       <c r="D127" t="n">
-        <v>-3.714306831359863</v>
+        <v>-9.838425636291504</v>
       </c>
       <c r="E127" t="n">
-        <v>3.185858726501465</v>
+        <v>6.350045204162598</v>
       </c>
       <c r="F127" t="n">
-        <v>-5.220613956451416</v>
+        <v>-7.114160537719727</v>
       </c>
       <c r="G127" t="n">
-        <v>4.80446720123291</v>
+        <v>-9.892644882202148</v>
       </c>
       <c r="H127" t="n">
-        <v>-4.789233684539795</v>
+        <v>6.606550693511963</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4233079850673676</v>
+        <v>0.3570118844509125</v>
       </c>
       <c r="B128" t="n">
-        <v>0.2387810349464417</v>
+        <v>0.3342031836509705</v>
       </c>
       <c r="C128" t="n">
-        <v>-10.35278987884521</v>
+        <v>-9.013527870178223</v>
       </c>
       <c r="D128" t="n">
-        <v>-4.367786407470703</v>
+        <v>-10.16694355010986</v>
       </c>
       <c r="E128" t="n">
-        <v>3.106282711029053</v>
+        <v>7.147645950317383</v>
       </c>
       <c r="F128" t="n">
-        <v>-4.766457080841064</v>
+        <v>-8.332047462463379</v>
       </c>
       <c r="G128" t="n">
-        <v>4.560401439666748</v>
+        <v>-10.28074264526367</v>
       </c>
       <c r="H128" t="n">
-        <v>-2.971804857254028</v>
+        <v>7.536040306091309</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.4311350286006927</v>
+        <v>0.4000151753425598</v>
       </c>
       <c r="B129" t="n">
-        <v>0.2270780950784683</v>
+        <v>0.3772865235805511</v>
       </c>
       <c r="C129" t="n">
-        <v>-10.5813102722168</v>
+        <v>-10.23466777801514</v>
       </c>
       <c r="D129" t="n">
-        <v>-4.429142951965332</v>
+        <v>-10.3840799331665</v>
       </c>
       <c r="E129" t="n">
-        <v>1.803049325942993</v>
+        <v>7.882603168487549</v>
       </c>
       <c r="F129" t="n">
-        <v>-4.44020414352417</v>
+        <v>-9.608534812927246</v>
       </c>
       <c r="G129" t="n">
-        <v>4.225012302398682</v>
+        <v>-10.57010173797607</v>
       </c>
       <c r="H129" t="n">
-        <v>-1.589847445487976</v>
+        <v>8.422142028808594</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.4295637309551239</v>
+        <v>0.4413975775241852</v>
       </c>
       <c r="B130" t="n">
-        <v>0.2144085615873337</v>
+        <v>0.419484943151474</v>
       </c>
       <c r="C130" t="n">
-        <v>-10.53543376922607</v>
+        <v>-11.40977954864502</v>
       </c>
       <c r="D130" t="n">
-        <v>-3.675950765609741</v>
+        <v>-10.40202808380127</v>
       </c>
       <c r="E130" t="n">
-        <v>-1.276854515075684</v>
+        <v>8.435529708862305</v>
       </c>
       <c r="F130" t="n">
-        <v>-4.0870041847229</v>
+        <v>-10.85880184173584</v>
       </c>
       <c r="G130" t="n">
-        <v>4.133159160614014</v>
+        <v>-10.67241191864014</v>
       </c>
       <c r="H130" t="n">
-        <v>-1.018493175506592</v>
+        <v>9.148026466369629</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.4129152297973633</v>
+        <v>0.4777785837650299</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1980963796377182</v>
+        <v>0.4578032195568085</v>
       </c>
       <c r="C131" t="n">
-        <v>-10.04935932159424</v>
+        <v>-12.44287014007568</v>
       </c>
       <c r="D131" t="n">
-        <v>-2.000206232070923</v>
+        <v>-10.12532424926758</v>
       </c>
       <c r="E131" t="n">
-        <v>-5.884607791900635</v>
+        <v>8.663702011108398</v>
       </c>
       <c r="F131" t="n">
-        <v>-3.632254838943481</v>
+        <v>-11.99410724639893</v>
       </c>
       <c r="G131" t="n">
-        <v>4.465094089508057</v>
+        <v>-10.49554443359375</v>
       </c>
       <c r="H131" t="n">
-        <v>-1.265922784805298</v>
+        <v>9.572478294372559</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.3801095187664032</v>
+        <v>0.5058806538581848</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1775388866662979</v>
+        <v>0.4895668923854828</v>
       </c>
       <c r="C132" t="n">
-        <v>-9.091552734375</v>
+        <v>-13.24086761474609</v>
       </c>
       <c r="D132" t="n">
-        <v>0.310197114944458</v>
+        <v>-9.45525074005127</v>
       </c>
       <c r="E132" t="n">
-        <v>-10.71399211883545</v>
+        <v>8.405625343322754</v>
       </c>
       <c r="F132" t="n">
-        <v>-3.059155702590942</v>
+        <v>-12.93521118164062</v>
       </c>
       <c r="G132" t="n">
-        <v>5.16338062286377</v>
+        <v>-9.947530746459961</v>
       </c>
       <c r="H132" t="n">
-        <v>-1.958609819412231</v>
+        <v>9.533549308776855</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.3360611796379089</v>
+        <v>0.5224609375</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1518588364124298</v>
+        <v>0.5122929215431213</v>
       </c>
       <c r="C133" t="n">
-        <v>-7.805503368377686</v>
+        <v>-13.71168804168701</v>
       </c>
       <c r="D133" t="n">
-        <v>2.754990100860596</v>
+        <v>-8.282270431518555</v>
       </c>
       <c r="E133" t="n">
-        <v>-14.45688247680664</v>
+        <v>7.463363170623779</v>
       </c>
       <c r="F133" t="n">
-        <v>-2.343250751495361</v>
+        <v>-13.60854625701904</v>
       </c>
       <c r="G133" t="n">
-        <v>6.06187105178833</v>
+        <v>-8.926346778869629</v>
       </c>
       <c r="H133" t="n">
-        <v>-2.591247797012329</v>
+        <v>8.829460144042969</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.2872981429100037</v>
+        <v>0.5236802101135254</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1208783388137817</v>
+        <v>0.5228067636489868</v>
       </c>
       <c r="C134" t="n">
-        <v>-6.381800651550293</v>
+        <v>-13.74631214141846</v>
       </c>
       <c r="D134" t="n">
-        <v>4.951188564300537</v>
+        <v>-6.466779232025146</v>
       </c>
       <c r="E134" t="n">
-        <v>-16.40115547180176</v>
+        <v>5.555723667144775</v>
       </c>
       <c r="F134" t="n">
-        <v>-1.479580402374268</v>
+        <v>-13.92005348205566</v>
       </c>
       <c r="G134" t="n">
-        <v>6.98979377746582</v>
+        <v>-7.291911125183105</v>
       </c>
       <c r="H134" t="n">
-        <v>-2.754196405410767</v>
+        <v>7.16407299041748</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.2367091923952103</v>
+        <v>0.5045413970947266</v>
       </c>
       <c r="B135" t="n">
-        <v>0.08217186480760574</v>
+        <v>0.5158849358558655</v>
       </c>
       <c r="C135" t="n">
-        <v>-4.904789447784424</v>
+        <v>-13.20283699035645</v>
       </c>
       <c r="D135" t="n">
-        <v>6.653951644897461</v>
+        <v>-3.85003137588501</v>
       </c>
       <c r="E135" t="n">
-        <v>-16.2769947052002</v>
+        <v>2.314926147460938</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.4005263447761536</v>
+        <v>-13.71497058868408</v>
       </c>
       <c r="G135" t="n">
-        <v>7.791061401367188</v>
+        <v>-4.850335597991943</v>
       </c>
       <c r="H135" t="n">
-        <v>-2.269545555114746</v>
+        <v>4.11430549621582</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.1858033090829849</v>
+        <v>0.4606391787528992</v>
       </c>
       <c r="B136" t="n">
-        <v>0.937009888461666</v>
+        <v>0.5571320275818528</v>
       </c>
       <c r="C136" t="n">
-        <v>-3.418524026870728</v>
+        <v>-11.95617198944092</v>
       </c>
       <c r="D136" t="n">
-        <v>7.651628971099854</v>
+        <v>-0.4157851338386536</v>
       </c>
       <c r="E136" t="n">
-        <v>-14.12582015991211</v>
+        <v>-2.343788146972656</v>
       </c>
       <c r="F136" t="n">
-        <v>0.8762307167053223</v>
+        <v>-12.79526329040527</v>
       </c>
       <c r="G136" t="n">
-        <v>8.229004859924316</v>
+        <v>-1.482052683830261</v>
       </c>
       <c r="H136" t="n">
-        <v>-1.237308859825134</v>
+        <v>-0.5536235570907593</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.790594040785869</v>
+        <v>0.600150488560403</v>
       </c>
       <c r="B137" t="n">
-        <v>1.000865825591477</v>
+        <v>0.6425327202872549</v>
       </c>
       <c r="C137" t="n">
-        <v>-1.973572731018066</v>
+        <v>-10.03290462493896</v>
       </c>
       <c r="D137" t="n">
-        <v>7.926904201507568</v>
+        <v>3.478383302688599</v>
       </c>
       <c r="E137" t="n">
-        <v>-10.4317455291748</v>
+        <v>-7.414605617523193</v>
       </c>
       <c r="F137" t="n">
-        <v>2.093343019485474</v>
+        <v>-11.10507774353027</v>
       </c>
       <c r="G137" t="n">
-        <v>8.070411682128906</v>
+        <v>2.558619260787964</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.004969747737050056</v>
+        <v>-6.034250736236572</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.964650122589471</v>
+        <v>0.7681659824791234</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9999392325715079</v>
+        <v>0.7637237422694557</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.605928361415863</v>
+        <v>-7.601765632629395</v>
       </c>
       <c r="D138" t="n">
-        <v>7.812901020050049</v>
+        <v>7.259944438934326</v>
       </c>
       <c r="E138" t="n">
-        <v>-6.275785446166992</v>
+        <v>-11.12345886230469</v>
       </c>
       <c r="F138" t="n">
-        <v>2.927243947982788</v>
+        <v>-8.80943489074707</v>
       </c>
       <c r="G138" t="n">
-        <v>7.321088790893555</v>
+        <v>6.678680419921875</v>
       </c>
       <c r="H138" t="n">
-        <v>1.115623116493225</v>
+        <v>-10.55790233612061</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.997165389685608</v>
+        <v>0.9076286308895493</v>
       </c>
       <c r="B139" t="n">
-        <v>1.000006020650337</v>
+        <v>0.8840934444833204</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7654287219047546</v>
+        <v>-4.872193336486816</v>
       </c>
       <c r="D139" t="n">
-        <v>7.77131986618042</v>
+        <v>10.47170066833496</v>
       </c>
       <c r="E139" t="n">
-        <v>-2.730401754379272</v>
+        <v>-12.47642612457275</v>
       </c>
       <c r="F139" t="n">
-        <v>3.35413932800293</v>
+        <v>-6.133362770080566</v>
       </c>
       <c r="G139" t="n">
-        <v>6.230251789093018</v>
+        <v>10.28917026519775</v>
       </c>
       <c r="H139" t="n">
-        <v>2.018923044204712</v>
+        <v>-12.85793209075928</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.000054441047734</v>
+        <v>0.9799746873576699</v>
       </c>
       <c r="B140" t="n">
-        <v>0.999999266297122</v>
+        <v>0.9635514729427863</v>
       </c>
       <c r="C140" t="n">
-        <v>2.303443193435669</v>
+        <v>-2.138399839401245</v>
       </c>
       <c r="D140" t="n">
-        <v>7.987988948822021</v>
+        <v>12.83631992340088</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.0492853932082653</v>
+        <v>-11.70037174224854</v>
       </c>
       <c r="F140" t="n">
-        <v>3.690830230712891</v>
+        <v>-3.368213891983032</v>
       </c>
       <c r="G140" t="n">
-        <v>5.082302093505859</v>
+        <v>12.97514343261719</v>
       </c>
       <c r="H140" t="n">
-        <v>2.708947420120239</v>
+        <v>-12.89194107055664</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.9999928784443337</v>
+        <v>0.9988524000221222</v>
       </c>
       <c r="B141" t="n">
-        <v>1.000000115365774</v>
+        <v>0.9943865816546602</v>
       </c>
       <c r="C141" t="n">
-        <v>4.030447006225586</v>
+        <v>0.261848658323288</v>
       </c>
       <c r="D141" t="n">
-        <v>8.27745246887207</v>
+        <v>14.15918254852295</v>
       </c>
       <c r="E141" t="n">
-        <v>2.012595891952515</v>
+        <v>-9.624062538146973</v>
       </c>
       <c r="F141" t="n">
-        <v>4.213480949401855</v>
+        <v>-0.8485839366912842</v>
       </c>
       <c r="G141" t="n">
-        <v>4.000771522521973</v>
+        <v>14.53035354614258</v>
       </c>
       <c r="H141" t="n">
-        <v>3.235925197601318</v>
+        <v>-11.39008331298828</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.000001727798626</v>
+        <v>1.000073363460922</v>
       </c>
       <c r="B142" t="n">
-        <v>0.999999976660302</v>
+        <v>0.9998616787549123</v>
       </c>
       <c r="C142" t="n">
-        <v>5.760494232177734</v>
+        <v>2.086450815200806</v>
       </c>
       <c r="D142" t="n">
-        <v>8.23189640045166</v>
+        <v>14.35662937164307</v>
       </c>
       <c r="E142" t="n">
-        <v>3.595962762832642</v>
+        <v>-7.062360286712646</v>
       </c>
       <c r="F142" t="n">
-        <v>4.87944221496582</v>
+        <v>1.182886600494385</v>
       </c>
       <c r="G142" t="n">
-        <v>2.814368724822998</v>
+        <v>14.9587926864624</v>
       </c>
       <c r="H142" t="n">
-        <v>3.620814800262451</v>
+        <v>-9.169887542724609</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.9999994028570209</v>
+        <v>0.9999895400461197</v>
       </c>
       <c r="B143" t="n">
-        <v>1.000000005776375</v>
+        <v>1.000009526217531</v>
       </c>
       <c r="C143" t="n">
-        <v>7.354226112365723</v>
+        <v>3.270132780075073</v>
       </c>
       <c r="D143" t="n">
-        <v>7.568483829498291</v>
+        <v>13.53975391387939</v>
       </c>
       <c r="E143" t="n">
-        <v>4.712803840637207</v>
+        <v>-4.546139240264893</v>
       </c>
       <c r="F143" t="n">
-        <v>5.547003746032715</v>
+        <v>2.651296615600586</v>
       </c>
       <c r="G143" t="n">
-        <v>1.326584458351135</v>
+        <v>14.44189739227295</v>
       </c>
       <c r="H143" t="n">
-        <v>3.85163426399231</v>
+        <v>-6.787211418151855</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.000000258958753</v>
+        <v>1.000001930090014</v>
       </c>
       <c r="B144" t="n">
-        <v>0.9999999983701753</v>
+        <v>0.9999987541104443</v>
       </c>
       <c r="C144" t="n">
-        <v>8.716774940490723</v>
+        <v>3.901404619216919</v>
       </c>
       <c r="D144" t="n">
-        <v>6.123198509216309</v>
+        <v>11.97096061706543</v>
       </c>
       <c r="E144" t="n">
-        <v>5.198686599731445</v>
+        <v>-2.336395263671875</v>
       </c>
       <c r="F144" t="n">
-        <v>6.059146404266357</v>
+        <v>3.623549461364746</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.6310141682624817</v>
+        <v>13.24433040618896</v>
       </c>
       <c r="H144" t="n">
-        <v>3.811708927154541</v>
+        <v>-4.528523445129395</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.9999998712126791</v>
+        <v>0.9999996111230596</v>
       </c>
       <c r="B145" t="n">
-        <v>1.000000000472356</v>
+        <v>1.000000212531359</v>
       </c>
       <c r="C145" t="n">
-        <v>9.701925277709961</v>
+        <v>4.15664529800415</v>
       </c>
       <c r="D145" t="n">
-        <v>3.775226831436157</v>
+        <v>9.957650184631348</v>
       </c>
       <c r="E145" t="n">
-        <v>4.663503170013428</v>
+        <v>-0.5355461239814758</v>
       </c>
       <c r="F145" t="n">
-        <v>6.17241907119751</v>
+        <v>4.248539924621582</v>
       </c>
       <c r="G145" t="n">
-        <v>-3.232006788253784</v>
+        <v>11.62795543670654</v>
       </c>
       <c r="H145" t="n">
-        <v>3.27762770652771</v>
+        <v>-2.525672197341919</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.000000067875355</v>
+        <v>1.000000080592646</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9999999998766036</v>
+        <v>0.9999999575241084</v>
       </c>
       <c r="C146" t="n">
-        <v>10.16161155700684</v>
+        <v>4.24338436126709</v>
       </c>
       <c r="D146" t="n">
-        <v>0.7240408658981323</v>
+        <v>7.775743961334229</v>
       </c>
       <c r="E146" t="n">
-        <v>2.650538921356201</v>
+        <v>0.823750913143158</v>
       </c>
       <c r="F146" t="n">
-        <v>5.750087261199951</v>
+        <v>4.708182811737061</v>
       </c>
       <c r="G146" t="n">
-        <v>-6.18316125869751</v>
+        <v>9.809938430786133</v>
       </c>
       <c r="H146" t="n">
-        <v>2.144341945648193</v>
+        <v>-0.8481401205062866</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.999999965680445</v>
+        <v>0.9999999826391686</v>
       </c>
       <c r="B147" t="n">
-        <v>1.000000000023704</v>
+        <v>1.000000009781129</v>
       </c>
       <c r="C147" t="n">
-        <v>9.830338478088379</v>
+        <v>4.36634349822998</v>
       </c>
       <c r="D147" t="n">
-        <v>-2.271460056304932</v>
+        <v>5.634027481079102</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.7596632242202759</v>
+        <v>1.73253071308136</v>
       </c>
       <c r="F147" t="n">
-        <v>4.728532791137695</v>
+        <v>5.18583345413208</v>
       </c>
       <c r="G147" t="n">
-        <v>-8.512818336486816</v>
+        <v>7.948620796203613</v>
       </c>
       <c r="H147" t="n">
-        <v>0.7220719456672668</v>
+        <v>0.4533257186412811</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.000000015479111</v>
+        <v>1.000000004140791</v>
       </c>
       <c r="B148" t="n">
-        <v>0.9999999999973875</v>
+        <v>0.9999999973334078</v>
       </c>
       <c r="C148" t="n">
-        <v>8.98549747467041</v>
+        <v>4.713983535766602</v>
       </c>
       <c r="D148" t="n">
-        <v>-3.949802875518799</v>
+        <v>3.662952661514282</v>
       </c>
       <c r="E148" t="n">
-        <v>-3.828745126724243</v>
+        <v>2.184649705886841</v>
       </c>
       <c r="F148" t="n">
-        <v>3.518657684326172</v>
+        <v>5.850876808166504</v>
       </c>
       <c r="G148" t="n">
-        <v>-9.139357566833496</v>
+        <v>6.139573574066162</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.1969330906867981</v>
+        <v>1.330673456192017</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.9999999935824165</v>
+        <v>0.9999999988086351</v>
       </c>
       <c r="B149" t="n">
-        <v>1.000000000000166</v>
+        <v>1.000000000896816</v>
       </c>
       <c r="C149" t="n">
-        <v>8.421738624572754</v>
+        <v>5.454461574554443</v>
       </c>
       <c r="D149" t="n">
-        <v>-3.971903562545776</v>
+        <v>1.916059732437134</v>
       </c>
       <c r="E149" t="n">
-        <v>-4.792148590087891</v>
+        <v>2.166601896286011</v>
       </c>
       <c r="F149" t="n">
-        <v>2.829493284225464</v>
+        <v>6.850987911224365</v>
       </c>
       <c r="G149" t="n">
-        <v>-8.229955673217773</v>
+        <v>4.415317535400391</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.308953583240509</v>
+        <v>1.732252240180969</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1.000000002489992</v>
+        <v>1.000000000441789</v>
       </c>
       <c r="B150" t="n">
-        <v>0.9999999999999919</v>
+        <v>0.9999999996169883</v>
       </c>
       <c r="C150" t="n">
-        <v>8.010110855102539</v>
+        <v>6.705297470092773</v>
       </c>
       <c r="D150" t="n">
-        <v>-2.864784955978394</v>
+        <v>0.3873674869537354</v>
       </c>
       <c r="E150" t="n">
-        <v>-3.509506464004517</v>
+        <v>1.666058301925659</v>
       </c>
       <c r="F150" t="n">
-        <v>2.610468149185181</v>
+        <v>8.27625846862793</v>
       </c>
       <c r="G150" t="n">
-        <v>-6.38267707824707</v>
+        <v>2.759047031402588</v>
       </c>
       <c r="H150" t="n">
-        <v>0.1879381835460663</v>
+        <v>1.61328387260437</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.9999999991504231</v>
+        <v>0.9999999997858801</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>1.000000000206626</v>
       </c>
       <c r="C151" t="n">
-        <v>7.285946846008301</v>
+        <v>8.41860294342041</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.381128191947937</v>
+        <v>-0.9247955679893494</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.9510452747344971</v>
+        <v>0.7315009236335754</v>
       </c>
       <c r="F151" t="n">
-        <v>2.458915710449219</v>
+        <v>10.04124736785889</v>
       </c>
       <c r="G151" t="n">
-        <v>-4.242159366607666</v>
+        <v>1.172276854515076</v>
       </c>
       <c r="H151" t="n">
-        <v>0.9507665634155273</v>
+        <v>0.9973114728927612</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.000000000230536</v>
+        <v>1.000000000129668</v>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0.9999999998659549</v>
       </c>
       <c r="C152" t="n">
-        <v>6.20519495010376</v>
+        <v>10.23843193054199</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.1167823076248169</v>
+        <v>-1.925260066986084</v>
       </c>
       <c r="E152" t="n">
-        <v>1.849597454071045</v>
+        <v>-0.4378564655780792</v>
       </c>
       <c r="F152" t="n">
-        <v>2.195768594741821</v>
+        <v>11.75686931610107</v>
       </c>
       <c r="G152" t="n">
-        <v>-2.392886161804199</v>
+        <v>-0.2178139835596085</v>
       </c>
       <c r="H152" t="n">
-        <v>1.782188534736633</v>
+        <v>0.07131034135818481</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.9999999999569765</v>
+        <v>0.9999999999103941</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>1.000000000095717</v>
       </c>
       <c r="C153" t="n">
-        <v>4.894075393676758</v>
+        <v>11.52460479736328</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2808396816253662</v>
+        <v>-2.448476076126099</v>
       </c>
       <c r="E153" t="n">
-        <v>3.540029048919678</v>
+        <v>-1.459368109703064</v>
       </c>
       <c r="F153" t="n">
-        <v>1.76547908782959</v>
+        <v>12.78282833099365</v>
       </c>
       <c r="G153" t="n">
-        <v>-1.475636839866638</v>
+        <v>-1.175461411476135</v>
       </c>
       <c r="H153" t="n">
-        <v>2.166707992553711</v>
+        <v>-0.7807612419128418</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.000000000003486</v>
+        <v>1.000000000062418</v>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0.9999999999333795</v>
       </c>
       <c r="C154" t="n">
-        <v>3.260173559188843</v>
+        <v>11.60805606842041</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.11118757724762</v>
+        <v>-2.500550508499146</v>
       </c>
       <c r="E154" t="n">
-        <v>2.238628387451172</v>
+        <v>-1.855438351631165</v>
       </c>
       <c r="F154" t="n">
-        <v>1.051955580711365</v>
+        <v>12.49933624267578</v>
       </c>
       <c r="G154" t="n">
-        <v>-2.281091451644897</v>
+        <v>-1.606714725494385</v>
       </c>
       <c r="H154" t="n">
-        <v>1.019012451171875</v>
+        <v>-1.077821969985962</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.04281800612807274</v>
+        <v>0.01110648177564144</v>
       </c>
       <c r="B155" t="n">
-        <v>0.03775991499423981</v>
+        <v>0.01050794776529074</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7561224102973938</v>
+        <v>0.8089476227760315</v>
       </c>
       <c r="D155" t="n">
-        <v>-2.471318483352661</v>
+        <v>-2.243081331253052</v>
       </c>
       <c r="E155" t="n">
-        <v>0.06270502507686615</v>
+        <v>-0.6207022070884705</v>
       </c>
       <c r="F155" t="n">
-        <v>0.8375844955444336</v>
+        <v>1.25849437713623</v>
       </c>
       <c r="G155" t="n">
-        <v>-2.380409955978394</v>
+        <v>-2.054357051849365</v>
       </c>
       <c r="H155" t="n">
-        <v>0.06458854675292969</v>
+        <v>-0.596960723400116</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.01562906801700592</v>
+        <v>-0.01890979148447514</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.02512034773826599</v>
+        <v>-0.02045317739248276</v>
       </c>
       <c r="C156" t="n">
-        <v>2.462562561035156</v>
+        <v>1.661302328109741</v>
       </c>
       <c r="D156" t="n">
-        <v>-3.109411478042603</v>
+        <v>-2.769000291824341</v>
       </c>
       <c r="E156" t="n">
-        <v>0.4088257849216461</v>
+        <v>-1.147426128387451</v>
       </c>
       <c r="F156" t="n">
-        <v>2.590552568435669</v>
+        <v>2.175820112228394</v>
       </c>
       <c r="G156" t="n">
-        <v>-3.09517240524292</v>
+        <v>-2.55139684677124</v>
       </c>
       <c r="H156" t="n">
-        <v>0.1720060110092163</v>
+        <v>-1.146597504615784</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-0.05617347732186317</v>
+        <v>-0.04199057817459106</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.07564006000757217</v>
+        <v>-0.04423113912343979</v>
       </c>
       <c r="C157" t="n">
-        <v>3.646310567855835</v>
+        <v>2.31671404838562</v>
       </c>
       <c r="D157" t="n">
-        <v>-3.020575046539307</v>
+        <v>-3.227049350738525</v>
       </c>
       <c r="E157" t="n">
-        <v>1.446300387382507</v>
+        <v>-1.388184905052185</v>
       </c>
       <c r="F157" t="n">
-        <v>3.998934745788574</v>
+        <v>2.88032078742981</v>
       </c>
       <c r="G157" t="n">
-        <v>-2.951179027557373</v>
+        <v>-3.002376079559326</v>
       </c>
       <c r="H157" t="n">
-        <v>0.5366756916046143</v>
+        <v>-1.44908332824707</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-0.0665699765086174</v>
+        <v>-0.05048779398202896</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.102554589509964</v>
+        <v>-0.0535813495516777</v>
       </c>
       <c r="C158" t="n">
-        <v>3.94985032081604</v>
+        <v>2.55800461769104</v>
       </c>
       <c r="D158" t="n">
-        <v>-2.97008752822876</v>
+        <v>-3.672036409378052</v>
       </c>
       <c r="E158" t="n">
-        <v>1.935090065002441</v>
+        <v>-1.186221361160278</v>
       </c>
       <c r="F158" t="n">
-        <v>4.749254703521729</v>
+        <v>3.157351732254028</v>
       </c>
       <c r="G158" t="n">
-        <v>-2.622334957122803</v>
+        <v>-3.433475017547607</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.2090334892272949</v>
+        <v>-1.332189321517944</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-0.03048423118889332</v>
+        <v>-0.04174550622701645</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.08250641077756882</v>
+        <v>-0.04631850123405457</v>
       </c>
       <c r="C159" t="n">
-        <v>2.896278858184814</v>
+        <v>2.309754848480225</v>
       </c>
       <c r="D159" t="n">
-        <v>-3.780946493148804</v>
+        <v>-4.199562549591064</v>
       </c>
       <c r="E159" t="n">
-        <v>0.5506108999252319</v>
+        <v>-0.5778837203979492</v>
       </c>
       <c r="F159" t="n">
-        <v>4.190353870391846</v>
+        <v>2.942165851593018</v>
       </c>
       <c r="G159" t="n">
-        <v>-2.972895383834839</v>
+        <v>-3.915314197540283</v>
       </c>
       <c r="H159" t="n">
-        <v>-2.742209434509277</v>
+        <v>-0.8051259517669678</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.02843313291668892</v>
+        <v>-0.01910872757434845</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.02316584065556526</v>
+        <v>-0.02599377743899822</v>
       </c>
       <c r="C160" t="n">
-        <v>1.176107883453369</v>
+        <v>1.666951417922974</v>
       </c>
       <c r="D160" t="n">
-        <v>-5.262706756591797</v>
+        <v>-4.865706443786621</v>
       </c>
       <c r="E160" t="n">
-        <v>-2.206623792648315</v>
+        <v>0.2481121122837067</v>
       </c>
       <c r="F160" t="n">
-        <v>2.536065101623535</v>
+        <v>2.339978694915771</v>
       </c>
       <c r="G160" t="n">
-        <v>-4.132518768310547</v>
+        <v>-4.500596046447754</v>
       </c>
       <c r="H160" t="n">
-        <v>-5.086067676544189</v>
+        <v>-0.02946886606514454</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.05369303748011589</v>
+        <v>0.01012024842202663</v>
       </c>
       <c r="B161" t="n">
-        <v>0.03265225887298584</v>
+        <v>0.0003261845849920064</v>
       </c>
       <c r="C161" t="n">
-        <v>0.4386113584041595</v>
+        <v>0.8369531035423279</v>
       </c>
       <c r="D161" t="n">
-        <v>-6.517433166503906</v>
+        <v>-5.629114151000977</v>
       </c>
       <c r="E161" t="n">
-        <v>-3.974408864974976</v>
+        <v>1.053094625473022</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9799751043319702</v>
+        <v>1.560162782669067</v>
       </c>
       <c r="G161" t="n">
-        <v>-5.850622653961182</v>
+        <v>-5.168851852416992</v>
       </c>
       <c r="H161" t="n">
-        <v>-5.062417984008789</v>
+        <v>0.7719671726226807</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.04403353109955788</v>
+        <v>0.03768626600503922</v>
       </c>
       <c r="B162" t="n">
-        <v>0.06750819087028503</v>
+        <v>0.02495678514242172</v>
       </c>
       <c r="C162" t="n">
-        <v>0.7206334471702576</v>
+        <v>0.05417689308524132</v>
       </c>
       <c r="D162" t="n">
-        <v>-7.050071716308594</v>
+        <v>-6.372379779815674</v>
       </c>
       <c r="E162" t="n">
-        <v>-3.924237489700317</v>
+        <v>1.628535628318787</v>
       </c>
       <c r="F162" t="n">
-        <v>0.008265807293355465</v>
+        <v>0.830399751663208</v>
       </c>
       <c r="G162" t="n">
-        <v>-7.426278591156006</v>
+        <v>-5.833616733551025</v>
       </c>
       <c r="H162" t="n">
-        <v>-3.713958740234375</v>
+        <v>1.39189600944519</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.04294449090957642</v>
+        <v>0.05708247423171997</v>
       </c>
       <c r="B163" t="n">
-        <v>0.09329421818256378</v>
+        <v>0.04202224686741829</v>
       </c>
       <c r="C163" t="n">
-        <v>0.7524294257164001</v>
+        <v>-0.4966059625148773</v>
       </c>
       <c r="D163" t="n">
-        <v>-6.79762077331543</v>
+        <v>-6.969847679138184</v>
       </c>
       <c r="E163" t="n">
-        <v>-3.012563943862915</v>
+        <v>1.847983956336975</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.7105937004089355</v>
+        <v>0.3247790336608887</v>
       </c>
       <c r="G163" t="n">
-        <v>-7.869601726531982</v>
+        <v>-6.393784999847412</v>
       </c>
       <c r="H163" t="n">
-        <v>-2.402382850646973</v>
+        <v>1.692700505256653</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.06901668012142181</v>
+        <v>0.06539203971624374</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1284523010253906</v>
+        <v>0.04903554543852806</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.008782955817878246</v>
+        <v>-0.732568085193634</v>
       </c>
       <c r="D164" t="n">
-        <v>-6.420342922210693</v>
+        <v>-7.345261096954346</v>
       </c>
       <c r="E164" t="n">
-        <v>-1.825883030891418</v>
+        <v>1.702517867088318</v>
       </c>
       <c r="F164" t="n">
-        <v>-1.690726399421692</v>
+        <v>0.1169868260622025</v>
       </c>
       <c r="G164" t="n">
-        <v>-7.773510932922363</v>
+        <v>-6.783331871032715</v>
       </c>
       <c r="H164" t="n">
-        <v>-1.386930227279663</v>
+        <v>1.645441889762878</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.1102375760674477</v>
+        <v>0.06385814398527145</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1778837740421295</v>
+        <v>0.04734203591942787</v>
       </c>
       <c r="C165" t="n">
-        <v>-1.212282061576843</v>
+        <v>-0.6890107393264771</v>
       </c>
       <c r="D165" t="n">
-        <v>-6.419170379638672</v>
+        <v>-7.492565631866455</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.5250636339187622</v>
+        <v>1.306307435035706</v>
       </c>
       <c r="F165" t="n">
-        <v>-3.068771123886108</v>
+        <v>0.1671626716852188</v>
       </c>
       <c r="G165" t="n">
-        <v>-8.086592674255371</v>
+        <v>-6.993021965026855</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.5651592612266541</v>
+        <v>1.340181827545166</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.1523288041353226</v>
+        <v>0.05698204040527344</v>
       </c>
       <c r="B166" t="n">
-        <v>0.2352176904678345</v>
+        <v>0.04124271124601364</v>
       </c>
       <c r="C166" t="n">
-        <v>-2.441191434860229</v>
+        <v>-0.4937540292739868</v>
       </c>
       <c r="D166" t="n">
-        <v>-6.654254913330078</v>
+        <v>-7.465103149414062</v>
       </c>
       <c r="E166" t="n">
-        <v>0.5491665005683899</v>
+        <v>0.8521658182144165</v>
       </c>
       <c r="F166" t="n">
-        <v>-4.667118072509766</v>
+        <v>0.3478753566741943</v>
       </c>
       <c r="G166" t="n">
-        <v>-8.879860877990723</v>
+        <v>-7.063915252685547</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.0158174354583025</v>
+        <v>0.9485459923744202</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.1892048865556717</v>
+        <v>0.05055086687207222</v>
       </c>
       <c r="B167" t="n">
-        <v>0.2925003468990326</v>
+        <v>0.03613139688968658</v>
       </c>
       <c r="C167" t="n">
-        <v>-3.517837762832642</v>
+        <v>-0.3111318647861481</v>
       </c>
       <c r="D167" t="n">
-        <v>-6.765769004821777</v>
+        <v>-7.350528717041016</v>
       </c>
       <c r="E167" t="n">
-        <v>1.104920387268066</v>
+        <v>0.5306158065795898</v>
       </c>
       <c r="F167" t="n">
-        <v>-6.264036178588867</v>
+        <v>0.4993150234222412</v>
       </c>
       <c r="G167" t="n">
-        <v>-9.73500919342041</v>
+        <v>-7.065972805023193</v>
       </c>
       <c r="H167" t="n">
-        <v>0.1542730778455734</v>
+        <v>0.6499343514442444</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.2202805727720261</v>
+        <v>0.04955108463764191</v>
       </c>
       <c r="B168" t="n">
-        <v>0.3430489897727966</v>
+        <v>0.03653239831328392</v>
       </c>
       <c r="C168" t="n">
-        <v>-4.42513370513916</v>
+        <v>-0.282741516828537</v>
       </c>
       <c r="D168" t="n">
-        <v>-6.533839702606201</v>
+        <v>-7.243807315826416</v>
       </c>
       <c r="E168" t="n">
-        <v>1.204533219337463</v>
+        <v>0.4604914486408234</v>
       </c>
       <c r="F168" t="n">
-        <v>-7.673225879669189</v>
+        <v>0.4874340295791626</v>
       </c>
       <c r="G168" t="n">
-        <v>-10.2314920425415</v>
+        <v>-7.074426174163818</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.0160078126937151</v>
+        <v>0.5651551485061646</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.2468832433223724</v>
+        <v>0.05682912468910217</v>
       </c>
       <c r="B169" t="n">
-        <v>0.3824869990348816</v>
+        <v>0.04487727582454681</v>
       </c>
       <c r="C169" t="n">
-        <v>-5.201833724975586</v>
+        <v>-0.489411860704422</v>
       </c>
       <c r="D169" t="n">
-        <v>-5.922581672668457</v>
+        <v>-7.222461223602295</v>
       </c>
       <c r="E169" t="n">
-        <v>1.094991564750671</v>
+        <v>0.6669010519981384</v>
       </c>
       <c r="F169" t="n">
-        <v>-8.772672653198242</v>
+        <v>0.240189328789711</v>
       </c>
       <c r="G169" t="n">
-        <v>-10.11439037322998</v>
+        <v>-7.149755477905273</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.4940134286880493</v>
+        <v>0.7316159605979919</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.2696463763713837</v>
+        <v>0.07279128581285477</v>
       </c>
       <c r="B170" t="n">
-        <v>0.4085817039012909</v>
+        <v>0.06129981577396393</v>
       </c>
       <c r="C170" t="n">
-        <v>-5.866434097290039</v>
+        <v>-0.9426800012588501</v>
       </c>
       <c r="D170" t="n">
-        <v>-4.958926200866699</v>
+        <v>-7.327985286712646</v>
       </c>
       <c r="E170" t="n">
-        <v>0.9613152742385864</v>
+        <v>1.10200297832489</v>
       </c>
       <c r="F170" t="n">
-        <v>-9.500137329101562</v>
+        <v>-0.2463826984167099</v>
       </c>
       <c r="G170" t="n">
-        <v>-9.263082504272461</v>
+        <v>-7.323912143707275</v>
       </c>
       <c r="H170" t="n">
-        <v>-1.339622139930725</v>
+        <v>1.117863774299622</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.2882568836212158</v>
+        <v>0.09594148397445679</v>
       </c>
       <c r="B171" t="n">
-        <v>0.4204524159431458</v>
+        <v>0.08421759307384491</v>
       </c>
       <c r="C171" t="n">
-        <v>-6.409792423248291</v>
+        <v>-1.600062847137451</v>
       </c>
       <c r="D171" t="n">
-        <v>-3.690992593765259</v>
+        <v>-7.559800148010254</v>
       </c>
       <c r="E171" t="n">
-        <v>0.8499060273170471</v>
+        <v>1.682592391967773</v>
       </c>
       <c r="F171" t="n">
-        <v>-9.83106803894043</v>
+        <v>-0.9253976345062256</v>
       </c>
       <c r="G171" t="n">
-        <v>-7.657518863677979</v>
+        <v>-7.596097469329834</v>
       </c>
       <c r="H171" t="n">
-        <v>-2.571016311645508</v>
+        <v>1.655274868011475</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.3025813698768616</v>
+        <v>0.1238461881875992</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4184490144252777</v>
+        <v>0.1112723648548126</v>
       </c>
       <c r="C172" t="n">
-        <v>-6.828014373779297</v>
+        <v>-2.392456531524658</v>
       </c>
       <c r="D172" t="n">
-        <v>-2.262595653533936</v>
+        <v>-7.884564399719238</v>
       </c>
       <c r="E172" t="n">
-        <v>0.777245819568634</v>
+        <v>2.324267387390137</v>
       </c>
       <c r="F172" t="n">
-        <v>-9.775217056274414</v>
+        <v>-1.726984739303589</v>
       </c>
       <c r="G172" t="n">
-        <v>-5.431029319763184</v>
+        <v>-7.939852237701416</v>
       </c>
       <c r="H172" t="n">
-        <v>-4.074718475341797</v>
+        <v>2.269027709960938</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.3140101432800293</v>
+        <v>0.1541216373443604</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4039029777050018</v>
+        <v>0.1402474939823151</v>
       </c>
       <c r="C173" t="n">
-        <v>-7.161693572998047</v>
+        <v>-3.252171277999878</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.9573620557785034</v>
+        <v>-8.255731582641602</v>
       </c>
       <c r="E173" t="n">
-        <v>0.7948907017707825</v>
+        <v>2.964771032333374</v>
       </c>
       <c r="F173" t="n">
-        <v>-9.369706153869629</v>
+        <v>-2.585468769073486</v>
       </c>
       <c r="G173" t="n">
-        <v>-2.865851402282715</v>
+        <v>-8.318259239196777</v>
       </c>
       <c r="H173" t="n">
-        <v>-5.607537746429443</v>
+        <v>2.901108026504517</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.3260165452957153</v>
+        <v>0.1851558238267899</v>
       </c>
       <c r="B174" t="n">
-        <v>0.3792579174041748</v>
+        <v>0.1697163432836533</v>
       </c>
       <c r="C174" t="n">
-        <v>-7.512236595153809</v>
+        <v>-4.133430957794189</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.142528772354126</v>
+        <v>-8.633591651916504</v>
       </c>
       <c r="E174" t="n">
-        <v>0.926120936870575</v>
+        <v>3.575805187225342</v>
       </c>
       <c r="F174" t="n">
-        <v>-8.682653427124023</v>
+        <v>-3.458580732345581</v>
       </c>
       <c r="G174" t="n">
-        <v>-0.3277464210987091</v>
+        <v>-8.70021915435791</v>
       </c>
       <c r="H174" t="n">
-        <v>-6.827208518981934</v>
+        <v>3.523451805114746</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.3416922986507416</v>
+        <v>0.2164227515459061</v>
       </c>
       <c r="B175" t="n">
-        <v>0.3484400510787964</v>
+        <v>0.1993100345134735</v>
       </c>
       <c r="C175" t="n">
-        <v>-7.969910621643066</v>
+        <v>-5.021299362182617</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.1011558771133423</v>
+        <v>-8.997444152832031</v>
       </c>
       <c r="E175" t="n">
-        <v>1.206679940223694</v>
+        <v>4.163680076599121</v>
       </c>
       <c r="F175" t="n">
-        <v>-7.823517322540283</v>
+        <v>-4.335391998291016</v>
       </c>
       <c r="G175" t="n">
-        <v>1.804884314537048</v>
+        <v>-9.070835113525391</v>
       </c>
       <c r="H175" t="n">
-        <v>-7.416268348693848</v>
+        <v>4.140375137329102</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.3607053458690643</v>
+        <v>0.248380184173584</v>
       </c>
       <c r="B176" t="n">
-        <v>0.3162249028682709</v>
+        <v>0.2296006232500076</v>
       </c>
       <c r="C176" t="n">
-        <v>-8.525021553039551</v>
+        <v>-5.928776264190674</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.8232541680335999</v>
+        <v>-9.346484184265137</v>
       </c>
       <c r="E176" t="n">
-        <v>1.679889917373657</v>
+        <v>4.759504318237305</v>
       </c>
       <c r="F176" t="n">
-        <v>-6.925426483154297</v>
+        <v>-5.232850551605225</v>
       </c>
       <c r="G176" t="n">
-        <v>3.275277137756348</v>
+        <v>-9.432247161865234</v>
       </c>
       <c r="H176" t="n">
-        <v>-7.156723499298096</v>
+        <v>4.780364513397217</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.3793204724788666</v>
+        <v>0.2820324301719666</v>
       </c>
       <c r="B177" t="n">
-        <v>0.2870460450649261</v>
+        <v>0.2616676390171051</v>
       </c>
       <c r="C177" t="n">
-        <v>-9.068514823913574</v>
+        <v>-6.884379863739014</v>
       </c>
       <c r="D177" t="n">
-        <v>-1.981486082077026</v>
+        <v>-9.690829277038574</v>
       </c>
       <c r="E177" t="n">
-        <v>2.30356764793396</v>
+        <v>5.401301383972168</v>
       </c>
       <c r="F177" t="n">
-        <v>-6.111982822418213</v>
+        <v>-6.182941913604736</v>
       </c>
       <c r="G177" t="n">
-        <v>4.033325672149658</v>
+        <v>-9.795340538024902</v>
       </c>
       <c r="H177" t="n">
-        <v>-6.0613694190979</v>
+        <v>5.479423522949219</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.393817663192749</v>
+        <v>0.3182941377162933</v>
       </c>
       <c r="B178" t="n">
-        <v>0.2645651996135712</v>
+        <v>0.2964747846126556</v>
       </c>
       <c r="C178" t="n">
-        <v>-9.491780281066895</v>
+        <v>-7.914082527160645</v>
       </c>
       <c r="D178" t="n">
-        <v>-3.135577440261841</v>
+        <v>-10.03681087493896</v>
       </c>
       <c r="E178" t="n">
-        <v>2.844340324401855</v>
+        <v>6.112448692321777</v>
       </c>
       <c r="F178" t="n">
-        <v>-5.485264778137207</v>
+        <v>-7.214218616485596</v>
       </c>
       <c r="G178" t="n">
-        <v>4.192654132843018</v>
+        <v>-10.165940284729</v>
       </c>
       <c r="H178" t="n">
-        <v>-4.416977405548096</v>
+        <v>6.260441303253174</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.4034688770771027</v>
+        <v>0.3573402464389801</v>
       </c>
       <c r="B179" t="n">
-        <v>0.2502031624317169</v>
+        <v>0.3342424333095551</v>
       </c>
       <c r="C179" t="n">
-        <v>-9.7735595703125</v>
+        <v>-9.022852897644043</v>
       </c>
       <c r="D179" t="n">
-        <v>-3.952855587005615</v>
+        <v>-10.371901512146</v>
       </c>
       <c r="E179" t="n">
-        <v>2.854592084884644</v>
+        <v>6.881974220275879</v>
       </c>
       <c r="F179" t="n">
-        <v>-5.08488130569458</v>
+        <v>-8.333209991455078</v>
       </c>
       <c r="G179" t="n">
-        <v>3.969229698181152</v>
+        <v>-10.53071975708008</v>
       </c>
       <c r="H179" t="n">
-        <v>-2.687534809112549</v>
+        <v>7.114035606384277</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.4081081748008728</v>
+        <v>0.3981753587722778</v>
       </c>
       <c r="B180" t="n">
-        <v>0.2410781383514404</v>
+        <v>0.3740587532520294</v>
       </c>
       <c r="C180" t="n">
-        <v>-9.909010887145996</v>
+        <v>-10.18242359161377</v>
       </c>
       <c r="D180" t="n">
-        <v>-4.186288833618164</v>
+        <v>-10.65450477600098</v>
       </c>
       <c r="E180" t="n">
-        <v>1.69534957408905</v>
+        <v>7.652328014373779</v>
       </c>
       <c r="F180" t="n">
-        <v>-4.830495357513428</v>
+        <v>-9.512900352478027</v>
       </c>
       <c r="G180" t="n">
-        <v>3.676218509674072</v>
+        <v>-10.8484001159668</v>
       </c>
       <c r="H180" t="n">
-        <v>-1.387193560600281</v>
+        <v>7.986288070678711</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.4041889607906342</v>
+        <v>0.4386038780212402</v>
       </c>
       <c r="B181" t="n">
-        <v>0.2313470095396042</v>
+        <v>0.4139231145381927</v>
       </c>
       <c r="C181" t="n">
-        <v>-9.794584274291992</v>
+        <v>-11.33044910430908</v>
       </c>
       <c r="D181" t="n">
-        <v>-3.548466205596924</v>
+        <v>-10.81209468841553</v>
       </c>
       <c r="E181" t="n">
-        <v>-1.251068949699402</v>
+        <v>8.317892074584961</v>
       </c>
       <c r="F181" t="n">
-        <v>-4.559212207794189</v>
+        <v>-10.69401359558105</v>
       </c>
       <c r="G181" t="n">
-        <v>3.666732788085938</v>
+        <v>-11.04948711395264</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.9113314151763916</v>
+        <v>8.776640892028809</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.3862274587154388</v>
+        <v>0.4755821526050568</v>
       </c>
       <c r="B182" t="n">
-        <v>0.217534601688385</v>
+        <v>0.4511818885803223</v>
       </c>
       <c r="C182" t="n">
-        <v>-9.270174026489258</v>
+        <v>-12.38049983978271</v>
       </c>
       <c r="D182" t="n">
-        <v>-1.852982997894287</v>
+        <v>-10.74659538269043</v>
       </c>
       <c r="E182" t="n">
-        <v>-5.756420135498047</v>
+        <v>8.731919288635254</v>
       </c>
       <c r="F182" t="n">
-        <v>-4.17415189743042</v>
+        <v>-11.79792881011963</v>
       </c>
       <c r="G182" t="n">
-        <v>4.132264614105225</v>
+        <v>-11.04289817810059</v>
       </c>
       <c r="H182" t="n">
-        <v>-1.302232980728149</v>
+        <v>9.343939781188965</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.354142040014267</v>
+        <v>0.5056740045547485</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1987317800521851</v>
+        <v>0.4830510020256042</v>
       </c>
       <c r="C183" t="n">
-        <v>-8.333396911621094</v>
+        <v>-13.23499870300293</v>
       </c>
       <c r="D183" t="n">
-        <v>0.5874267816543579</v>
+        <v>-10.34056758880615</v>
       </c>
       <c r="E183" t="n">
-        <v>-10.38125228881836</v>
+        <v>8.712369918823242</v>
       </c>
       <c r="F183" t="n">
-        <v>-3.649968385696411</v>
+        <v>-12.74215602874756</v>
       </c>
       <c r="G183" t="n">
-        <v>4.971794605255127</v>
+        <v>-10.72221851348877</v>
       </c>
       <c r="H183" t="n">
-        <v>-2.173614740371704</v>
+        <v>9.511701583862305</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.3126990497112274</v>
+        <v>0.5252268314361572</v>
       </c>
       <c r="B184" t="n">
-        <v>0.1729295551776886</v>
+        <v>0.506792426109314</v>
       </c>
       <c r="C184" t="n">
-        <v>-7.123414516448975</v>
+        <v>-13.79022979736328</v>
       </c>
       <c r="D184" t="n">
-        <v>3.184300184249878</v>
+        <v>-9.454863548278809</v>
       </c>
       <c r="E184" t="n">
-        <v>-13.86263084411621</v>
+        <v>8.031933784484863</v>
       </c>
       <c r="F184" t="n">
-        <v>-2.930657625198364</v>
+        <v>-13.44557476043701</v>
       </c>
       <c r="G184" t="n">
-        <v>5.986655235290527</v>
+        <v>-9.96162223815918</v>
       </c>
       <c r="H184" t="n">
-        <v>-2.992562770843506</v>
+        <v>9.057442665100098</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.2667663395404816</v>
+        <v>0.5299999713897705</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1397672444581985</v>
+        <v>0.5191816687583923</v>
       </c>
       <c r="C185" t="n">
-        <v>-5.782348155975342</v>
+        <v>-13.9257698059082</v>
       </c>
       <c r="D185" t="n">
-        <v>5.512367248535156</v>
+        <v>-7.912149906158447</v>
       </c>
       <c r="E185" t="n">
-        <v>-15.6695499420166</v>
+        <v>6.379085540771484</v>
       </c>
       <c r="F185" t="n">
-        <v>-2.006163120269775</v>
+        <v>-13.81264781951904</v>
       </c>
       <c r="G185" t="n">
-        <v>6.999542236328125</v>
+        <v>-8.593060493469238</v>
       </c>
       <c r="H185" t="n">
-        <v>-3.319858312606812</v>
+        <v>7.66914176940918</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.2178219556808472</v>
+        <v>0.5145562291145325</v>
       </c>
       <c r="B186" t="n">
-        <v>0.09821689873933792</v>
+        <v>0.5152451395988464</v>
       </c>
       <c r="C186" t="n">
-        <v>-4.353350639343262</v>
+        <v>-13.48722362518311</v>
       </c>
       <c r="D186" t="n">
-        <v>7.318590641021729</v>
+        <v>-5.489649295806885</v>
       </c>
       <c r="E186" t="n">
-        <v>-15.56768894195557</v>
+        <v>3.329696416854858</v>
       </c>
       <c r="F186" t="n">
-        <v>-0.8478276133537292</v>
+        <v>-13.69601345062256</v>
       </c>
       <c r="G186" t="n">
-        <v>7.839449882507324</v>
+        <v>-6.377805233001709</v>
       </c>
       <c r="H186" t="n">
-        <v>-2.926812887191772</v>
+        <v>4.894340515136719</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.1668420732021332</v>
+        <v>0.4737856686115265</v>
       </c>
       <c r="B187" t="n">
-        <v>0.916803873790303</v>
+        <v>0.553315777778455</v>
       </c>
       <c r="C187" t="n">
-        <v>-2.864925622940063</v>
+        <v>-12.32948589324951</v>
       </c>
       <c r="D187" t="n">
-        <v>8.363865852355957</v>
+        <v>-2.044301271438599</v>
       </c>
       <c r="E187" t="n">
-        <v>-13.5305061340332</v>
+        <v>-1.357459545135498</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5271230936050415</v>
+        <v>-12.89992618560791</v>
       </c>
       <c r="G187" t="n">
-        <v>8.278393745422363</v>
+        <v>-3.092294692993164</v>
       </c>
       <c r="H187" t="n">
-        <v>-1.870467185974121</v>
+        <v>0.3730873167514801</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.8157914707233298</v>
+        <v>0.5942731018247255</v>
       </c>
       <c r="B188" t="n">
-        <v>0.999908832208262</v>
+        <v>0.6320105949926168</v>
       </c>
       <c r="C188" t="n">
-        <v>-1.41501247882843</v>
+        <v>-10.47974395751953</v>
       </c>
       <c r="D188" t="n">
-        <v>8.538187026977539</v>
+        <v>2.189055919647217</v>
       </c>
       <c r="E188" t="n">
-        <v>-9.945074081420898</v>
+        <v>-6.784761428833008</v>
       </c>
       <c r="F188" t="n">
-        <v>1.874059677124023</v>
+        <v>-11.36669063568115</v>
       </c>
       <c r="G188" t="n">
-        <v>8.089221954345703</v>
+        <v>1.135717511177063</v>
       </c>
       <c r="H188" t="n">
-        <v>-0.5157111883163452</v>
+        <v>-5.22689962387085</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.9745805004302008</v>
+        <v>0.7506902475284013</v>
       </c>
       <c r="B189" t="n">
-        <v>1.000005741714347</v>
+        <v>0.7461265278608555</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.1290613114833832</v>
+        <v>-8.12360668182373</v>
       </c>
       <c r="D189" t="n">
-        <v>8.117780685424805</v>
+        <v>6.658559799194336</v>
       </c>
       <c r="E189" t="n">
-        <v>-5.859691143035889</v>
+        <v>-10.92209339141846</v>
       </c>
       <c r="F189" t="n">
-        <v>2.820791959762573</v>
+        <v>-9.263570785522461</v>
       </c>
       <c r="G189" t="n">
-        <v>7.287343978881836</v>
+        <v>5.76503849029541</v>
       </c>
       <c r="H189" t="n">
-        <v>0.7542593479156494</v>
+        <v>-9.985309600830078</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9984508517797615</v>
+        <v>0.8918726467716667</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9999994611987282</v>
+        <v>0.8658282792284426</v>
       </c>
       <c r="C190" t="n">
-        <v>1.06321108341217</v>
+        <v>-5.403000831604004</v>
       </c>
       <c r="D190" t="n">
-        <v>7.681979656219482</v>
+        <v>10.8578405380249</v>
       </c>
       <c r="E190" t="n">
-        <v>-2.415453672409058</v>
+        <v>-12.43763065338135</v>
       </c>
       <c r="F190" t="n">
-        <v>3.276759147644043</v>
+        <v>-6.729183673858643</v>
       </c>
       <c r="G190" t="n">
-        <v>6.161125183105469</v>
+        <v>10.20836448669434</v>
       </c>
       <c r="H190" t="n">
-        <v>1.769704461097717</v>
+        <v>-12.35229015350342</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1.000039907024886</v>
+        <v>0.9739495070281865</v>
       </c>
       <c r="B191" t="n">
-        <v>1.000000061326246</v>
+        <v>0.9531021104084915</v>
       </c>
       <c r="C191" t="n">
-        <v>2.404872417449951</v>
+        <v>-2.501601457595825</v>
       </c>
       <c r="D191" t="n">
-        <v>7.585511684417725</v>
+        <v>14.34410667419434</v>
       </c>
       <c r="E191" t="n">
-        <v>0.1228587552905083</v>
+        <v>-11.51256942749023</v>
       </c>
       <c r="F191" t="n">
-        <v>3.571969032287598</v>
+        <v>-3.918942213058472</v>
       </c>
       <c r="G191" t="n">
-        <v>5.034460544586182</v>
+        <v>13.92372894287109</v>
       </c>
       <c r="H191" t="n">
-        <v>2.521425485610962</v>
+        <v>-12.19562816619873</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.9999949239247296</v>
+        <v>0.9985215529991459</v>
       </c>
       <c r="B192" t="n">
-        <v>0.9999999910046946</v>
+        <v>0.9919253660146307</v>
       </c>
       <c r="C192" t="n">
-        <v>3.974512815475464</v>
+        <v>0.2701915204524994</v>
       </c>
       <c r="D192" t="n">
-        <v>7.70111608505249</v>
+        <v>16.63814735412598</v>
       </c>
       <c r="E192" t="n">
-        <v>2.042563676834106</v>
+        <v>-9.179096221923828</v>
       </c>
       <c r="F192" t="n">
-        <v>4.057480812072754</v>
+        <v>-1.133833885192871</v>
       </c>
       <c r="G192" t="n">
-        <v>4.048383712768555</v>
+        <v>16.42347145080566</v>
       </c>
       <c r="H192" t="n">
-        <v>3.082780122756958</v>
+        <v>-10.40170574188232</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1.000001167288791</v>
+        <v>1.000143631758651</v>
       </c>
       <c r="B193" t="n">
-        <v>1.00000000172309</v>
+        <v>0.999858249658667</v>
       </c>
       <c r="C193" t="n">
-        <v>5.564648151397705</v>
+        <v>2.586455821990967</v>
       </c>
       <c r="D193" t="n">
-        <v>7.567008495330811</v>
+        <v>17.39232444763184</v>
       </c>
       <c r="E193" t="n">
-        <v>3.496877670288086</v>
+        <v>-6.450352191925049</v>
       </c>
       <c r="F193" t="n">
-        <v>4.720518589019775</v>
+        <v>1.294160604476929</v>
       </c>
       <c r="G193" t="n">
-        <v>2.991983413696289</v>
+        <v>17.41854476928711</v>
       </c>
       <c r="H193" t="n">
-        <v>3.496315956115723</v>
+        <v>-7.992456912994385</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.9999996225697254</v>
+        <v>0.9999702507641873</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9999999995900538</v>
+        <v>1.000014237033692</v>
       </c>
       <c r="C194" t="n">
-        <v>7.009620189666748</v>
+        <v>4.241532802581787</v>
       </c>
       <c r="D194" t="n">
-        <v>6.854403972625732</v>
+        <v>16.59386444091797</v>
       </c>
       <c r="E194" t="n">
-        <v>4.519717693328857</v>
+        <v>-3.911413431167603</v>
       </c>
       <c r="F194" t="n">
-        <v>5.4054856300354</v>
+        <v>3.146995544433594</v>
       </c>
       <c r="G194" t="n">
-        <v>1.619099259376526</v>
+        <v>16.92738342285156</v>
       </c>
       <c r="H194" t="n">
-        <v>3.767536401748657</v>
+        <v>-5.611756324768066</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1.000000151650286</v>
+        <v>1.00000801448595</v>
       </c>
       <c r="B195" t="n">
-        <v>1.00000000011266</v>
+        <v>0.9999974823104076</v>
       </c>
       <c r="C195" t="n">
-        <v>8.223677635192871</v>
+        <v>5.178850650787354</v>
       </c>
       <c r="D195" t="n">
-        <v>5.394735336303711</v>
+        <v>14.51730632781982</v>
       </c>
       <c r="E195" t="n">
-        <v>4.973002433776855</v>
+        <v>-1.77653443813324</v>
       </c>
       <c r="F195" t="n">
-        <v>5.950754642486572</v>
+        <v>4.346759796142578</v>
       </c>
       <c r="G195" t="n">
-        <v>-0.265844315290451</v>
+        <v>15.20729160308838</v>
       </c>
       <c r="H195" t="n">
-        <v>3.78764271736145</v>
+        <v>-3.516672134399414</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.9999999307593029</v>
+        <v>0.9999976902126678</v>
       </c>
       <c r="B196" t="n">
-        <v>0.9999999999679128</v>
+        <v>1.000000539113434</v>
       </c>
       <c r="C196" t="n">
-        <v>9.071416854858398</v>
+        <v>5.461794853210449</v>
       </c>
       <c r="D196" t="n">
-        <v>3.055057287216187</v>
+        <v>11.57526683807373</v>
       </c>
       <c r="E196" t="n">
-        <v>4.472383499145508</v>
+        <v>-0.07425428926944733</v>
       </c>
       <c r="F196" t="n">
-        <v>6.098450183868408</v>
+        <v>4.932314395904541</v>
       </c>
       <c r="G196" t="n">
-        <v>-2.894166231155396</v>
+        <v>12.6338586807251</v>
       </c>
       <c r="H196" t="n">
-        <v>3.320467710494995</v>
+        <v>-1.751012086868286</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1.000000033087436</v>
+        <v>1.000000632117386</v>
       </c>
       <c r="B197" t="n">
-        <v>1.000000000008241</v>
+        <v>0.9999998809407251</v>
       </c>
       <c r="C197" t="n">
-        <v>9.400700569152832</v>
+        <v>5.243079662322998</v>
       </c>
       <c r="D197" t="n">
-        <v>0.04351913928985596</v>
+        <v>8.211549758911133</v>
       </c>
       <c r="E197" t="n">
-        <v>2.536824464797974</v>
+        <v>1.22221577167511</v>
       </c>
       <c r="F197" t="n">
-        <v>5.68474817276001</v>
+        <v>5.037720680236816</v>
       </c>
       <c r="G197" t="n">
-        <v>-6.006253719329834</v>
+        <v>9.61357593536377</v>
       </c>
       <c r="H197" t="n">
-        <v>2.227211713790894</v>
+        <v>-0.2931658625602722</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.9999999852868164</v>
+        <v>0.9999998480881365</v>
       </c>
       <c r="B198" t="n">
-        <v>0.9999999999984822</v>
+        <v>1.000000025020151</v>
       </c>
       <c r="C198" t="n">
-        <v>8.887189865112305</v>
+        <v>4.741206169128418</v>
       </c>
       <c r="D198" t="n">
-        <v>-2.803848743438721</v>
+        <v>4.836047172546387</v>
       </c>
       <c r="E198" t="n">
-        <v>-0.8147937059402466</v>
+        <v>2.132228851318359</v>
       </c>
       <c r="F198" t="n">
-        <v>4.611742973327637</v>
+        <v>4.869792461395264</v>
       </c>
       <c r="G198" t="n">
-        <v>-8.479327201843262</v>
+        <v>6.523714065551758</v>
       </c>
       <c r="H198" t="n">
-        <v>0.7792972326278687</v>
+        <v>0.8634242415428162</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1.000000005606818</v>
+        <v>1.000000031199192</v>
       </c>
       <c r="B199" t="n">
-        <v>1.000000000000156</v>
+        <v>0.9999999950493615</v>
       </c>
       <c r="C199" t="n">
-        <v>7.903017997741699</v>
+        <v>4.215275764465332</v>
       </c>
       <c r="D199" t="n">
-        <v>-4.176175594329834</v>
+        <v>1.774490118026733</v>
       </c>
       <c r="E199" t="n">
-        <v>-3.697832584381104</v>
+        <v>2.6471848487854</v>
       </c>
       <c r="F199" t="n">
-        <v>3.410437107086182</v>
+        <v>4.676918029785156</v>
       </c>
       <c r="G199" t="n">
-        <v>-9.016630172729492</v>
+        <v>3.665191650390625</v>
       </c>
       <c r="H199" t="n">
-        <v>-0.1799389123916626</v>
+        <v>1.685726165771484</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.9999999980320918</v>
+        <v>0.9999999941749977</v>
       </c>
       <c r="B200" t="n">
-        <v>0.9999999999999888</v>
+        <v>1.00000000099108</v>
       </c>
       <c r="C200" t="n">
-        <v>7.437410354614258</v>
+        <v>3.934240579605103</v>
       </c>
       <c r="D200" t="n">
-        <v>-4.014780521392822</v>
+        <v>-0.7673232555389404</v>
       </c>
       <c r="E200" t="n">
-        <v>-4.446215629577637</v>
+        <v>2.732299566268921</v>
       </c>
       <c r="F200" t="n">
-        <v>2.949787378311157</v>
+        <v>4.713447570800781</v>
       </c>
       <c r="G200" t="n">
-        <v>-7.997436046600342</v>
+        <v>1.228798985481262</v>
       </c>
       <c r="H200" t="n">
-        <v>-0.3460460901260376</v>
+        <v>2.109861135482788</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1.000000000658803</v>
+        <v>1.000000001167376</v>
       </c>
       <c r="B201" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999997707399</v>
       </c>
       <c r="C201" t="n">
-        <v>7.186549186706543</v>
+        <v>4.140491485595703</v>
       </c>
       <c r="D201" t="n">
-        <v>-2.902164459228516</v>
+        <v>-2.710179567337036</v>
       </c>
       <c r="E201" t="n">
-        <v>-3.151373624801636</v>
+        <v>2.345473766326904</v>
       </c>
       <c r="F201" t="n">
-        <v>2.941846132278442</v>
+        <v>5.20229959487915</v>
       </c>
       <c r="G201" t="n">
-        <v>-6.136800289154053</v>
+        <v>-0.7132495045661926</v>
       </c>
       <c r="H201" t="n">
-        <v>0.1076539754867554</v>
+        <v>2.066461324691772</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.9999999998046482</v>
+        <v>0.9999999997007901</v>
       </c>
       <c r="B202" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000068566</v>
       </c>
       <c r="C202" t="n">
-        <v>6.594704627990723</v>
+        <v>4.981819152832031</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.49949324131012</v>
+        <v>-4.067798137664795</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.7652739286422729</v>
+        <v>1.488633036613464</v>
       </c>
       <c r="F202" t="n">
-        <v>2.835732460021973</v>
+        <v>6.26619815826416</v>
       </c>
       <c r="G202" t="n">
-        <v>-4.085184097290039</v>
+        <v>-2.175765514373779</v>
       </c>
       <c r="H202" t="n">
-        <v>0.8606196045875549</v>
+        <v>1.531008362770081</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.000000000045958</v>
+        <v>1.000000000104609</v>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0.9999999999727808</v>
       </c>
       <c r="C203" t="n">
-        <v>5.646647930145264</v>
+        <v>6.386093616485596</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.3372400403022766</v>
+        <v>-4.874713897705078</v>
       </c>
       <c r="E203" t="n">
-        <v>1.781451940536499</v>
+        <v>0.29610675573349</v>
       </c>
       <c r="F203" t="n">
-        <v>2.519139528274536</v>
+        <v>7.803605079650879</v>
       </c>
       <c r="G203" t="n">
-        <v>-2.36297607421875</v>
+        <v>-3.184885263442993</v>
       </c>
       <c r="H203" t="n">
-        <v>1.726716279983521</v>
+        <v>0.6086364984512329</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.9999999999926521</v>
+        <v>0.9999999999524618</v>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>1.000000000013575</v>
       </c>
       <c r="C204" t="n">
-        <v>4.480274677276611</v>
+        <v>7.963676452636719</v>
       </c>
       <c r="D204" t="n">
-        <v>0.02615916542708874</v>
+        <v>-5.128055572509766</v>
       </c>
       <c r="E204" t="n">
-        <v>3.353985786437988</v>
+        <v>-0.9114283323287964</v>
       </c>
       <c r="F204" t="n">
-        <v>2.001300096511841</v>
+        <v>9.401151657104492</v>
       </c>
       <c r="G204" t="n">
-        <v>-1.52078104019165</v>
+        <v>-3.709546327590942</v>
       </c>
       <c r="H204" t="n">
-        <v>2.197732448577881</v>
+        <v>-0.4070765972137451</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1.000000000000464</v>
+        <v>1.000000000025209</v>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0.9999999999923269</v>
       </c>
       <c r="C205" t="n">
-        <v>2.982550859451294</v>
+        <v>9.105216979980469</v>
       </c>
       <c r="D205" t="n">
-        <v>-1.255856871604919</v>
+        <v>-4.85307788848877</v>
       </c>
       <c r="E205" t="n">
-        <v>2.198347091674805</v>
+        <v>-1.709424495697021</v>
       </c>
       <c r="F205" t="n">
-        <v>1.122172236442566</v>
+        <v>10.44587898254395</v>
       </c>
       <c r="G205" t="n">
-        <v>-2.353425025939941</v>
+        <v>-3.719648838043213</v>
       </c>
       <c r="H205" t="n">
-        <v>1.128649234771729</v>
+        <v>-1.103579998016357</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/PV_cp_lstm.xlsx
+++ b/Predictions/PV_cp_lstm.xlsx
@@ -483,5300 +483,5300 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.124331951141357</v>
+        <v>45.26632690429688</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.90890371799469</v>
+        <v>31.0722599029541</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.124653816223145</v>
+        <v>-10.0668249130249</v>
       </c>
       <c r="F2" t="n">
-        <v>1.569827079772949</v>
+        <v>47.29885864257812</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.678811192512512</v>
+        <v>42.15351867675781</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.038610100746155</v>
+        <v>4.639017581939697</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.01495973858982325</v>
+        <v>-0.04753326743841171</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.01567375101149082</v>
+        <v>-0.01778119288384914</v>
       </c>
       <c r="C3" t="n">
-        <v>1.549134969711304</v>
+        <v>43.74496078491211</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.717952966690063</v>
+        <v>29.77118873596191</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.7352652549743652</v>
+        <v>-8.047873497009277</v>
       </c>
       <c r="F3" t="n">
-        <v>2.034213781356812</v>
+        <v>46.31336212158203</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.483167290687561</v>
+        <v>42.15351867675781</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5845949053764343</v>
+        <v>7.802158355712891</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.01229054853320122</v>
+        <v>-0.03865610681474209</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.01411282829940319</v>
+        <v>0.001057430733926594</v>
       </c>
       <c r="C4" t="n">
-        <v>1.473339557647705</v>
+        <v>43.44134140014648</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.603168487548828</v>
+        <v>30.45923614501953</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3328588306903839</v>
+        <v>-6.732259750366211</v>
       </c>
       <c r="F4" t="n">
-        <v>1.987966299057007</v>
+        <v>45.14552688598633</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.359312176704407</v>
+        <v>43.59047698974609</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5946206450462341</v>
+        <v>9.479772567749023</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.00610732426866889</v>
+        <v>-0.02978285156190396</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.009363014250993729</v>
+        <v>0.01458324009552598</v>
       </c>
       <c r="C5" t="n">
-        <v>1.297758102416992</v>
+        <v>43.13785552978516</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.741264700889587</v>
+        <v>30.7260856628418</v>
       </c>
       <c r="E5" t="n">
-        <v>1.245684862136841</v>
+        <v>-6.732259750366211</v>
       </c>
       <c r="F5" t="n">
-        <v>1.847237348556519</v>
+        <v>44.30704116821289</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.465830087661743</v>
+        <v>43.38440322875977</v>
       </c>
       <c r="H5" t="n">
-        <v>1.682044982910156</v>
+        <v>9.479772567749023</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.004065759014338255</v>
+        <v>-0.001667757590766996</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.008638963103294373</v>
+        <v>0.02831531863659621</v>
       </c>
       <c r="C6" t="n">
-        <v>1.239784955978394</v>
+        <v>42.17625427246094</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.107682228088379</v>
+        <v>30.19850730895996</v>
       </c>
       <c r="E6" t="n">
-        <v>1.667402625083923</v>
+        <v>-5.128768920898438</v>
       </c>
       <c r="F6" t="n">
-        <v>1.825784921646118</v>
+        <v>43.45576858520508</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.815950512886047</v>
+        <v>42.19760894775391</v>
       </c>
       <c r="H6" t="n">
-        <v>2.303677082061768</v>
+        <v>10.48184108734131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.006909393239766359</v>
+        <v>0.03611749731004239</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0122344046831131</v>
+        <v>0.04704293213784695</v>
       </c>
       <c r="C7" t="n">
-        <v>1.320533990859985</v>
+        <v>40.8839111328125</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.693005084991455</v>
+        <v>29.15512466430664</v>
       </c>
       <c r="E7" t="n">
-        <v>1.59593141078949</v>
+        <v>-4.850321769714355</v>
       </c>
       <c r="F7" t="n">
-        <v>1.932311773300171</v>
+        <v>42.29481506347656</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.43048357963562</v>
+        <v>39.11062622070312</v>
       </c>
       <c r="H7" t="n">
-        <v>2.395636796951294</v>
+        <v>9.737467765808105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.01086932886391878</v>
+        <v>0.07264376729726792</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.01607601158320904</v>
+        <v>0.07096970185637475</v>
       </c>
       <c r="C8" t="n">
-        <v>1.432981967926025</v>
+        <v>39.63462829589844</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.492339611053467</v>
+        <v>27.94929695129395</v>
       </c>
       <c r="E8" t="n">
-        <v>1.216694474220276</v>
+        <v>-4.52770471572876</v>
       </c>
       <c r="F8" t="n">
-        <v>2.04613208770752</v>
+        <v>40.81155776977539</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.312424421310425</v>
+        <v>37.41191864013672</v>
       </c>
       <c r="H8" t="n">
-        <v>2.08922004699707</v>
+        <v>9.03413200378418</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.01218012440949678</v>
+        <v>0.09912121802568437</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.01627491787075996</v>
+        <v>0.09641536071896553</v>
       </c>
       <c r="C9" t="n">
-        <v>1.470203876495361</v>
+        <v>38.72903823852539</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.439587593078613</v>
+        <v>26.97534942626953</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7313733696937561</v>
+        <v>-4.080929756164551</v>
       </c>
       <c r="F9" t="n">
-        <v>2.052025318145752</v>
+        <v>39.2341423034668</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.385186195373535</v>
+        <v>35.64531326293945</v>
       </c>
       <c r="H9" t="n">
-        <v>1.558433890342712</v>
+        <v>8.405868530273438</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.009172253310680389</v>
+        <v>0.1129503454267979</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0112686213105917</v>
+        <v>0.119542169123888</v>
       </c>
       <c r="C10" t="n">
-        <v>1.384791135787964</v>
+        <v>38.25605010986328</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.396440982818604</v>
+        <v>26.55031204223633</v>
       </c>
       <c r="E10" t="n">
-        <v>0.294000655412674</v>
+        <v>-3.400972843170166</v>
       </c>
       <c r="F10" t="n">
-        <v>1.90369725227356</v>
+        <v>37.80047607421875</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.488771438598633</v>
+        <v>34.15388488769531</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9554842710494995</v>
+        <v>7.95737886428833</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.002025008201599121</v>
+        <v>0.1152570730447769</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.001591943320818245</v>
+        <v>0.1379054281115532</v>
       </c>
       <c r="C11" t="n">
-        <v>1.181834936141968</v>
+        <v>38.17715454101562</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.202188014984131</v>
+        <v>26.82703018188477</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02041305974125862</v>
+        <v>-2.429286003112793</v>
       </c>
       <c r="F11" t="n">
-        <v>1.61699366569519</v>
+        <v>36.662109375</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.436623096466064</v>
+        <v>33.12505340576172</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4154662191867828</v>
+        <v>7.812123775482178</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.00800747238099575</v>
+        <v>0.1102744358778</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01098359748721123</v>
+        <v>0.1514230498671532</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8969483971595764</v>
+        <v>38.34757232666016</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.742191791534424</v>
+        <v>27.70589256286621</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01201258227229118</v>
+        <v>-1.204360008239746</v>
       </c>
       <c r="F12" t="n">
-        <v>1.244401693344116</v>
+        <v>35.82413101196289</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.08934497833252</v>
+        <v>33.12505340576172</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05485954508185387</v>
+        <v>8.058156967163086</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.01923372596502304</v>
+        <v>0.1042542020976543</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02423704788088799</v>
+        <v>0.1614857491850853</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5781629681587219</v>
+        <v>38.5534782409668</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.991378784179688</v>
+        <v>28.84192085266113</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2153991758823395</v>
+        <v>0.1399979144334793</v>
       </c>
       <c r="F13" t="n">
-        <v>0.85172438621521</v>
+        <v>35.2003288269043</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.401944160461426</v>
+        <v>32.13235473632812</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05186480656266212</v>
+        <v>8.719221115112305</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.03018020465970039</v>
+        <v>0.1029567344486713</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03628416731953621</v>
+        <v>0.1706721132993698</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2673221528530121</v>
+        <v>38.59785461425781</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.011970520019531</v>
+        <v>29.88154983520508</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6559059023857117</v>
+        <v>1.431978702545166</v>
       </c>
       <c r="F14" t="n">
-        <v>0.494788646697998</v>
+        <v>34.63085174560547</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.425860404968262</v>
+        <v>32.57528686523438</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1108619570732117</v>
+        <v>9.65778636932373</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.04020001739263535</v>
+        <v>0.110437940210104</v>
       </c>
       <c r="B15" t="n">
-        <v>0.046274583786726</v>
+        <v>0.1813431659340859</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01720467582345009</v>
+        <v>38.34197998046875</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.914676666259766</v>
+        <v>30.60799217224121</v>
       </c>
       <c r="E15" t="n">
-        <v>1.219104647636414</v>
+        <v>2.512557506561279</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1987894922494888</v>
+        <v>33.96933746337891</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.274872779846191</v>
+        <v>33.24510192871094</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5066637396812439</v>
+        <v>10.73874187469482</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.04974038898944855</v>
+        <v>0.1275723618268967</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05470328778028488</v>
+        <v>0.195185079574585</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2881170213222504</v>
+        <v>37.75594329833984</v>
       </c>
       <c r="D16" t="n">
-        <v>-6.810064315795898</v>
+        <v>31.0045337677002</v>
       </c>
       <c r="E16" t="n">
-        <v>1.808095216751099</v>
+        <v>3.324441432952881</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.05093871057033539</v>
+        <v>33.11125564575195</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.078053951263428</v>
+        <v>33.97505950927734</v>
       </c>
       <c r="H16" t="n">
-        <v>1.071814179420471</v>
+        <v>11.8459005355835</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.06017195805907249</v>
+        <v>0.1530639690160751</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06322711706161499</v>
+        <v>0.2129302790760994</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5843362212181091</v>
+        <v>36.88407135009766</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.774629592895508</v>
+        <v>31.15744400024414</v>
       </c>
       <c r="E17" t="n">
-        <v>2.352130651473999</v>
+        <v>3.897315502166748</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3034854531288147</v>
+        <v>32.01120376586914</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.941496849060059</v>
+        <v>34.64897537231445</v>
       </c>
       <c r="H17" t="n">
-        <v>1.74232029914856</v>
+        <v>12.91046810150146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.07335306704044342</v>
+        <v>0.184315938949585</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07416485249996185</v>
+        <v>0.2350163239240647</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.9586325883865356</v>
+        <v>35.81518173217773</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.840425491333008</v>
+        <v>31.19681739807129</v>
       </c>
       <c r="E18" t="n">
-        <v>2.822938442230225</v>
+        <v>4.336079120635986</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6275520324707031</v>
+        <v>30.64205551147461</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.929145336151123</v>
+        <v>35.18888854980469</v>
       </c>
       <c r="H18" t="n">
-        <v>2.471576929092407</v>
+        <v>13.88721752166748</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.091147780418396</v>
+        <v>0.2187192785739899</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08992289006710052</v>
+        <v>0.2610840147733688</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.463938593864441</v>
+        <v>34.63850784301758</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.001881122589111</v>
+        <v>31.25579071044922</v>
       </c>
       <c r="E19" t="n">
-        <v>3.232908964157104</v>
+        <v>4.776891231536865</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.094435930252075</v>
+        <v>29.02607917785645</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.060677051544189</v>
+        <v>35.58901977539062</v>
       </c>
       <c r="H19" t="n">
-        <v>3.234569787979126</v>
+        <v>14.75374507904053</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1150256395339966</v>
+        <v>0.2551447236537934</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1124932169914246</v>
+        <v>0.2908043211698532</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.141984701156616</v>
+        <v>33.39267349243164</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.228995323181152</v>
+        <v>31.46034622192383</v>
       </c>
       <c r="E20" t="n">
-        <v>3.620608806610107</v>
+        <v>5.338388919830322</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.763156294822693</v>
+        <v>26.1718864440918</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.319149494171143</v>
+        <v>35.88191986083984</v>
       </c>
       <c r="H20" t="n">
-        <v>4.022613048553467</v>
+        <v>15.50776958465576</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.145802304148674</v>
+        <v>0.2932140415906906</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1430942416191101</v>
+        <v>0.3234470295906067</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.015931606292725</v>
+        <v>32.09061431884766</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.480107307434082</v>
+        <v>31.92674827575684</v>
       </c>
       <c r="E21" t="n">
-        <v>4.033296585083008</v>
+        <v>6.080070018768311</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.66981315612793</v>
+        <v>24.6016845703125</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.662617206573486</v>
+        <v>36.12255096435547</v>
       </c>
       <c r="H21" t="n">
-        <v>4.836673259735107</v>
+        <v>16.15446853637695</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.183513805270195</v>
+        <v>0.3324153405427933</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1819548457860947</v>
+        <v>0.3577842503786087</v>
       </c>
       <c r="C22" t="n">
-        <v>-4.086802959442139</v>
+        <v>30.74983978271484</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.712539672851562</v>
+        <v>32.69977188110352</v>
       </c>
       <c r="E22" t="n">
-        <v>4.51472282409668</v>
+        <v>6.989158153533936</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.821187257766724</v>
+        <v>22.76055908203125</v>
       </c>
       <c r="G22" t="n">
-        <v>-8.036267280578613</v>
+        <v>36.35968399047852</v>
       </c>
       <c r="H22" t="n">
-        <v>5.684254169464111</v>
+        <v>16.72614669799805</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.2273402214050293</v>
+        <v>0.3714073842763901</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2281663566827774</v>
+        <v>0.3918542474508286</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.331316947937012</v>
+        <v>29.41622161865234</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.890649318695068</v>
+        <v>33.75162124633789</v>
       </c>
       <c r="E23" t="n">
-        <v>5.098677635192871</v>
+        <v>8.062778472900391</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.190355777740479</v>
+        <v>20.87132835388184</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.382513999938965</v>
+        <v>36.64584732055664</v>
       </c>
       <c r="H23" t="n">
-        <v>6.576996326446533</v>
+        <v>17.34097099304199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.2755143642425537</v>
+        <v>0.4074983811378479</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2795702517032623</v>
+        <v>0.4231058382987976</v>
       </c>
       <c r="C24" t="n">
-        <v>-6.69929027557373</v>
+        <v>28.18182563781738</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.989910125732422</v>
+        <v>35.00711441040039</v>
       </c>
       <c r="E24" t="n">
-        <v>5.800968170166016</v>
+        <v>9.348684310913086</v>
       </c>
       <c r="F24" t="n">
-        <v>-6.713366031646729</v>
+        <v>19.12109756469727</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.647822380065918</v>
+        <v>37.02507019042969</v>
       </c>
       <c r="H24" t="n">
-        <v>7.520941257476807</v>
+        <v>18.09304809570312</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.3253234028816223</v>
+        <v>0.4375688993930817</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3328471183776855</v>
+        <v>0.4490970170497894</v>
       </c>
       <c r="C25" t="n">
-        <v>-8.113688468933105</v>
+        <v>27.15334510803223</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.995559692382812</v>
+        <v>36.42178726196289</v>
       </c>
       <c r="E25" t="n">
-        <v>6.604925155639648</v>
+        <v>10.87797546386719</v>
       </c>
       <c r="F25" t="n">
-        <v>-8.2918701171875</v>
+        <v>17.63827705383301</v>
       </c>
       <c r="G25" t="n">
-        <v>-8.787198066711426</v>
+        <v>37.52400588989258</v>
       </c>
       <c r="H25" t="n">
-        <v>8.49620532989502</v>
+        <v>18.94559860229492</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3734554350376129</v>
+        <v>0.4597042411565781</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3840831816196442</v>
+        <v>0.4687030369043351</v>
       </c>
       <c r="C26" t="n">
-        <v>-9.480465888977051</v>
+        <v>26.39626502990723</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.897058963775635</v>
+        <v>37.98776626586914</v>
       </c>
       <c r="E26" t="n">
-        <v>7.448685646057129</v>
+        <v>12.57285690307617</v>
       </c>
       <c r="F26" t="n">
-        <v>-9.809907913208008</v>
+        <v>16.45106506347656</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.768232345581055</v>
+        <v>38.09972381591797</v>
       </c>
       <c r="H26" t="n">
-        <v>9.437519073486328</v>
+        <v>19.68510437011719</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4167224168777466</v>
+        <v>0.4753966766595841</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4297775328159332</v>
+        <v>0.4830856686830521</v>
       </c>
       <c r="C27" t="n">
-        <v>-10.70909309387207</v>
+        <v>25.85954666137695</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.683244705200195</v>
+        <v>39.63555145263672</v>
       </c>
       <c r="E27" t="n">
-        <v>8.228414535522461</v>
+        <v>14.20829963684082</v>
       </c>
       <c r="F27" t="n">
-        <v>-11.16375350952148</v>
+        <v>16.45106506347656</v>
       </c>
       <c r="G27" t="n">
-        <v>-8.574959754943848</v>
+        <v>38.61109924316406</v>
       </c>
       <c r="H27" t="n">
-        <v>10.23330879211426</v>
+        <v>19.98546981811523</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4527370929718018</v>
+        <v>0.488984524011612</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4677220284938812</v>
+        <v>0.4948951941728592</v>
       </c>
       <c r="C28" t="n">
-        <v>-11.73178195953369</v>
+        <v>25.39481163024902</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.341401100158691</v>
+        <v>41.1982421875</v>
       </c>
       <c r="E28" t="n">
-        <v>8.816107749938965</v>
+        <v>15.50112342834473</v>
       </c>
       <c r="F28" t="n">
-        <v>-12.28798484802246</v>
+        <v>14.53176498413086</v>
       </c>
       <c r="G28" t="n">
-        <v>-8.208244323730469</v>
+        <v>38.85697174072266</v>
       </c>
       <c r="H28" t="n">
-        <v>10.74325656890869</v>
+        <v>19.48402214050293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4799962937831879</v>
+        <v>0.5041655415296555</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4971164166927338</v>
+        <v>0.5066191095113755</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.50584506988525</v>
+        <v>24.87558555603027</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.855367660522461</v>
+        <v>42.48245239257812</v>
       </c>
       <c r="E29" t="n">
-        <v>9.070374488830566</v>
+        <v>16.10442161560059</v>
       </c>
       <c r="F29" t="n">
-        <v>-13.15889072418213</v>
+        <v>13.80498027801514</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.676877975463867</v>
+        <v>38.72771835327148</v>
       </c>
       <c r="H29" t="n">
-        <v>10.81087017059326</v>
+        <v>16.88693046569824</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4972350299358368</v>
+        <v>0.5197884148359299</v>
       </c>
       <c r="B30" t="n">
-        <v>0.517793595790863</v>
+        <v>0.5183604311943054</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.99536323547363</v>
+        <v>24.34124755859375</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.196057796478271</v>
+        <v>43.40287780761719</v>
       </c>
       <c r="E30" t="n">
-        <v>8.819437026977539</v>
+        <v>15.71067428588867</v>
       </c>
       <c r="F30" t="n">
-        <v>-13.77152061462402</v>
+        <v>13.07711887359619</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.976336002349854</v>
+        <v>38.25081253051758</v>
       </c>
       <c r="H30" t="n">
-        <v>10.24688911437988</v>
+        <v>14.66701507568359</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.5024573802947998</v>
+        <v>0.53</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5289345979690552</v>
+        <v>0.5274598741531372</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.14365768432617</v>
+        <v>23.99198722839355</v>
       </c>
       <c r="D31" t="n">
-        <v>-5.312288761138916</v>
+        <v>44.03456497192383</v>
       </c>
       <c r="E31" t="n">
-        <v>7.821717739105225</v>
+        <v>12.72401332855225</v>
       </c>
       <c r="F31" t="n">
-        <v>-14.1016092300415</v>
+        <v>12.51303195953369</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.063088417053223</v>
+        <v>37.626708984375</v>
       </c>
       <c r="H31" t="n">
-        <v>8.785346031188965</v>
+        <v>11.47865676879883</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4923474490642548</v>
+        <v>0.527838580608368</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5277805924415588</v>
+        <v>0.53</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.8565731048584</v>
+        <v>24.0659122467041</v>
       </c>
       <c r="D32" t="n">
-        <v>-4.150688648223877</v>
+        <v>44.56015777587891</v>
       </c>
       <c r="E32" t="n">
-        <v>5.761385917663574</v>
+        <v>9.898260116577148</v>
       </c>
       <c r="F32" t="n">
-        <v>-14.06741809844971</v>
+        <v>12.35556507110596</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.8509202003479</v>
+        <v>37.18760299682617</v>
       </c>
       <c r="H32" t="n">
-        <v>6.071952342987061</v>
+        <v>7.43290901184082</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4629372656345367</v>
+        <v>0.50863840341568</v>
       </c>
       <c r="B33" t="n">
-        <v>0.509332001209259</v>
+        <v>0.5215478771924973</v>
       </c>
       <c r="C33" t="n">
-        <v>-12.02143001556396</v>
+        <v>24.72260284423828</v>
       </c>
       <c r="D33" t="n">
-        <v>-2.722319841384888</v>
+        <v>45.22964477539062</v>
       </c>
       <c r="E33" t="n">
-        <v>2.418838024139404</v>
+        <v>5.8619384765625</v>
       </c>
       <c r="F33" t="n">
-        <v>-13.52081680297852</v>
+        <v>12.87952518463135</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.271495342254639</v>
+        <v>37.363525390625</v>
       </c>
       <c r="H33" t="n">
-        <v>1.845041632652283</v>
+        <v>2.871922016143799</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4126058220863342</v>
+        <v>0.4720580071210861</v>
       </c>
       <c r="B34" t="n">
-        <v>0.565098053844872</v>
+        <v>0.5481899836905306</v>
       </c>
       <c r="C34" t="n">
-        <v>-10.59219551086426</v>
+        <v>25.9737377166748</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.142031311988831</v>
+        <v>46.19468688964844</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.90577495098114</v>
+        <v>1.087534189224243</v>
       </c>
       <c r="F34" t="n">
-        <v>-12.34847640991211</v>
+        <v>15.22724342346191</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.391895771026611</v>
+        <v>39.47016906738281</v>
       </c>
       <c r="H34" t="n">
-        <v>-3.585020542144775</v>
+        <v>-1.62117338180542</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.6170511831002969</v>
+        <v>0.5821474979996495</v>
       </c>
       <c r="B35" t="n">
-        <v>0.661630818705466</v>
+        <v>0.6020107317319876</v>
       </c>
       <c r="C35" t="n">
-        <v>-8.68751049041748</v>
+        <v>28.90082550048828</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4569071531295776</v>
+        <v>47.54219055175781</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.199499130249023</v>
+        <v>-3.580310344696045</v>
       </c>
       <c r="F35" t="n">
-        <v>-10.64766693115234</v>
+        <v>17.12100601196289</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5723064541816711</v>
+        <v>41.53302383422852</v>
       </c>
       <c r="H35" t="n">
-        <v>-9.082897186279297</v>
+        <v>-5.440195083618164</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8049921206557603</v>
+        <v>0.7213227017286161</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7794294226536097</v>
+        <v>0.6826757646359121</v>
       </c>
       <c r="C36" t="n">
-        <v>-6.539586544036865</v>
+        <v>30.78927230834961</v>
       </c>
       <c r="D36" t="n">
-        <v>2.020438671112061</v>
+        <v>50.56237030029297</v>
       </c>
       <c r="E36" t="n">
-        <v>-9.352144241333008</v>
+        <v>-7.272760391235352</v>
       </c>
       <c r="F36" t="n">
-        <v>-8.666389465332031</v>
+        <v>19.68738174438477</v>
       </c>
       <c r="G36" t="n">
-        <v>2.440758943557739</v>
+        <v>44.43556213378906</v>
       </c>
       <c r="H36" t="n">
-        <v>-13.34478855133057</v>
+        <v>-8.329230308532715</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9286216286171857</v>
+        <v>0.8548520300761318</v>
       </c>
       <c r="B37" t="n">
-        <v>0.88499721262562</v>
+        <v>0.7782742260975003</v>
       </c>
       <c r="C37" t="n">
-        <v>-4.384428977966309</v>
+        <v>33.23582458496094</v>
       </c>
       <c r="D37" t="n">
-        <v>3.606384038925171</v>
+        <v>52.60565567016602</v>
       </c>
       <c r="E37" t="n">
-        <v>-10.82245063781738</v>
+        <v>-9.485015869140625</v>
       </c>
       <c r="F37" t="n">
-        <v>-6.617525100708008</v>
+        <v>22.79156684875488</v>
       </c>
       <c r="G37" t="n">
-        <v>4.219033718109131</v>
+        <v>47.86656188964844</v>
       </c>
       <c r="H37" t="n">
-        <v>-15.68336868286133</v>
+        <v>-10.2205286026001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9834095646600813</v>
+        <v>0.9484591207689597</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9547917683032192</v>
+        <v>0.8696503214024449</v>
       </c>
       <c r="C38" t="n">
-        <v>-2.373754978179932</v>
+        <v>36.10147476196289</v>
       </c>
       <c r="D38" t="n">
-        <v>5.33704948425293</v>
+        <v>55.14016723632812</v>
       </c>
       <c r="E38" t="n">
-        <v>-10.64682579040527</v>
+        <v>-9.485015869140625</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.603109836578369</v>
+        <v>26.34291839599609</v>
       </c>
       <c r="G38" t="n">
-        <v>6.056122779846191</v>
+        <v>51.47150421142578</v>
       </c>
       <c r="H38" t="n">
-        <v>-16.07763481140137</v>
+        <v>-10.2205286026001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9982032980203702</v>
+        <v>0.9910377132957309</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9880357913578625</v>
+        <v>0.9392327019857234</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.5055558085441589</v>
+        <v>39.27888870239258</v>
       </c>
       <c r="D39" t="n">
-        <v>7.244148731231689</v>
+        <v>57.70953750610352</v>
       </c>
       <c r="E39" t="n">
-        <v>-9.174830436706543</v>
+        <v>-11.02307415008545</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.585920572280884</v>
+        <v>30.30825233459473</v>
       </c>
       <c r="G39" t="n">
-        <v>8.068767547607422</v>
+        <v>55.05445098876953</v>
       </c>
       <c r="H39" t="n">
-        <v>-14.84444808959961</v>
+        <v>-10.36314392089844</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.000023976812164</v>
+        <v>1.000166660530983</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9984594781404353</v>
+        <v>0.9797707670083793</v>
       </c>
       <c r="C40" t="n">
-        <v>1.32517409324646</v>
+        <v>42.65464019775391</v>
       </c>
       <c r="D40" t="n">
-        <v>9.173710823059082</v>
+        <v>59.83193969726562</v>
       </c>
       <c r="E40" t="n">
-        <v>-6.881800651550293</v>
+        <v>-8.447373390197754</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4521050453186035</v>
+        <v>34.65686798095703</v>
       </c>
       <c r="G40" t="n">
-        <v>10.19938659667969</v>
+        <v>58.63697814941406</v>
       </c>
       <c r="H40" t="n">
-        <v>-12.41098117828369</v>
+        <v>-7.84396505355835</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9999966866670584</v>
+        <v>0.9999640408794566</v>
       </c>
       <c r="B41" t="n">
-        <v>1.000029552554159</v>
+        <v>0.9961791988144011</v>
       </c>
       <c r="C41" t="n">
-        <v>3.204091310501099</v>
+        <v>46.08889389038086</v>
       </c>
       <c r="D41" t="n">
-        <v>10.84807300567627</v>
+        <v>61.18515014648438</v>
       </c>
       <c r="E41" t="n">
-        <v>-4.280931949615479</v>
+        <v>-6.876627922058105</v>
       </c>
       <c r="F41" t="n">
-        <v>1.871065139770508</v>
+        <v>39.30623626708984</v>
       </c>
       <c r="G41" t="n">
-        <v>12.21719551086426</v>
+        <v>62.2883415222168</v>
       </c>
       <c r="H41" t="n">
-        <v>-9.274142265319824</v>
+        <v>-4.667697906494141</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.000000880106923</v>
+        <v>1.000014687243059</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9999947832519901</v>
+        <v>0.9998539996416762</v>
       </c>
       <c r="C42" t="n">
-        <v>5.122028350830078</v>
+        <v>49.41054534912109</v>
       </c>
       <c r="D42" t="n">
-        <v>12.01104068756104</v>
+        <v>61.18515014648438</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.840746521949768</v>
+        <v>-5.377715587615967</v>
       </c>
       <c r="F42" t="n">
-        <v>4.341790676116943</v>
+        <v>44.07368087768555</v>
       </c>
       <c r="G42" t="n">
-        <v>13.83101463317871</v>
+        <v>65.83953857421875</v>
       </c>
       <c r="H42" t="n">
-        <v>-5.981203079223633</v>
+        <v>-1.674979090690613</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9999996563292457</v>
+        <v>0.9999914010269234</v>
       </c>
       <c r="B43" t="n">
-        <v>1.000001748479318</v>
+        <v>1.000016130873239</v>
       </c>
       <c r="C43" t="n">
-        <v>7.001208782196045</v>
+        <v>52.39393615722656</v>
       </c>
       <c r="D43" t="n">
-        <v>12.53354263305664</v>
+        <v>62.06775665283203</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1043158620595932</v>
+        <v>-5.377715587615967</v>
       </c>
       <c r="F43" t="n">
-        <v>6.832947731018066</v>
+        <v>48.64773559570312</v>
       </c>
       <c r="G43" t="n">
-        <v>14.8204174041748</v>
+        <v>68.74928283691406</v>
       </c>
       <c r="H43" t="n">
-        <v>-3.025355815887451</v>
+        <v>0.6227554678916931</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.000000174805719</v>
+        <v>1.000006289221093</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9999991471553799</v>
+        <v>0.9999960670274717</v>
       </c>
       <c r="C44" t="n">
-        <v>8.779460906982422</v>
+        <v>54.79325866699219</v>
       </c>
       <c r="D44" t="n">
-        <v>12.41201114654541</v>
+        <v>59.08874130249023</v>
       </c>
       <c r="E44" t="n">
-        <v>1.383010268211365</v>
+        <v>-3.561938762664795</v>
       </c>
       <c r="F44" t="n">
-        <v>9.229180335998535</v>
+        <v>52.61623382568359</v>
       </c>
       <c r="G44" t="n">
-        <v>15.08668613433838</v>
+        <v>70.21793365478516</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.732897162437439</v>
+        <v>2.041344165802002</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9999998914546683</v>
+        <v>0.9999947703128387</v>
       </c>
       <c r="B45" t="n">
-        <v>1.000000539188513</v>
+        <v>1.000001361484276</v>
       </c>
       <c r="C45" t="n">
-        <v>10.46966934204102</v>
+        <v>56.37384033203125</v>
       </c>
       <c r="D45" t="n">
-        <v>11.68554878234863</v>
+        <v>56.24532318115234</v>
       </c>
       <c r="E45" t="n">
-        <v>1.921121120452881</v>
+        <v>-6.260149002075195</v>
       </c>
       <c r="F45" t="n">
-        <v>11.49763584136963</v>
+        <v>55.55332946777344</v>
       </c>
       <c r="G45" t="n">
-        <v>14.60101127624512</v>
+        <v>70.21793365478516</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7415726184844971</v>
+        <v>2.041344165802002</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.000000079421447</v>
+        <v>1.000004568442475</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9999995847761537</v>
+        <v>0.9999994497233822</v>
       </c>
       <c r="C46" t="n">
-        <v>12.13632869720459</v>
+        <v>56.37384033203125</v>
       </c>
       <c r="D46" t="n">
-        <v>10.34615802764893</v>
+        <v>52.05169677734375</v>
       </c>
       <c r="E46" t="n">
-        <v>1.630864024162292</v>
+        <v>-9.703092575073242</v>
       </c>
       <c r="F46" t="n">
-        <v>13.66255664825439</v>
+        <v>57.14027404785156</v>
       </c>
       <c r="G46" t="n">
-        <v>13.31323909759521</v>
+        <v>65.93445587158203</v>
       </c>
       <c r="H46" t="n">
-        <v>1.32119882106781</v>
+        <v>1.755759716033936</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9999999333802863</v>
+        <v>0.9999961256243814</v>
       </c>
       <c r="B47" t="n">
-        <v>1.000000372159448</v>
+        <v>1.000000226373438</v>
       </c>
       <c r="C47" t="n">
-        <v>13.74854755401611</v>
+        <v>57.49243545532227</v>
       </c>
       <c r="D47" t="n">
-        <v>8.332443237304688</v>
+        <v>46.94612503051758</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3640400171279907</v>
+        <v>-14.57633972167969</v>
       </c>
       <c r="F47" t="n">
-        <v>15.64421272277832</v>
+        <v>57.14027404785156</v>
       </c>
       <c r="G47" t="n">
-        <v>11.12836647033691</v>
+        <v>60.83982467651367</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9397261142730713</v>
+        <v>-0.572833776473999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.000000061270803</v>
+        <v>1.000002962426684</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9999996335968241</v>
+        <v>0.9999999166762913</v>
       </c>
       <c r="C48" t="n">
-        <v>14.9660587310791</v>
+        <v>54.88031005859375</v>
       </c>
       <c r="D48" t="n">
-        <v>5.735751628875732</v>
+        <v>41.68423461914062</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.920589327812195</v>
+        <v>-19.41573715209961</v>
       </c>
       <c r="F48" t="n">
-        <v>17.02994728088379</v>
+        <v>56.04708099365234</v>
       </c>
       <c r="G48" t="n">
-        <v>8.108700752258301</v>
+        <v>54.82115936279297</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.3594778776168823</v>
+        <v>-3.330683708190918</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9999999428234825</v>
+        <v>0.9999980941887814</v>
       </c>
       <c r="B49" t="n">
-        <v>1.00000036313114</v>
+        <v>1.00000002429175</v>
       </c>
       <c r="C49" t="n">
-        <v>15.16874408721924</v>
+        <v>53.10968399047852</v>
       </c>
       <c r="D49" t="n">
-        <v>3.125067472457886</v>
+        <v>37.21646118164062</v>
       </c>
       <c r="E49" t="n">
-        <v>-4.724079608917236</v>
+        <v>-22.05209350585938</v>
       </c>
       <c r="F49" t="n">
-        <v>17.13259887695312</v>
+        <v>53.96618270874023</v>
       </c>
       <c r="G49" t="n">
-        <v>4.831177711486816</v>
+        <v>49.38324356079102</v>
       </c>
       <c r="H49" t="n">
-        <v>-2.134368658065796</v>
+        <v>-4.736825942993164</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.00000004854371</v>
+        <v>1.000000969331094</v>
       </c>
       <c r="B50" t="n">
-        <v>0.999999677116148</v>
+        <v>0.9999999950654207</v>
       </c>
       <c r="C50" t="n">
-        <v>13.90209197998047</v>
+        <v>51.10533142089844</v>
       </c>
       <c r="D50" t="n">
-        <v>1.213894367218018</v>
+        <v>34.3224983215332</v>
       </c>
       <c r="E50" t="n">
-        <v>-6.967659950256348</v>
+        <v>-21.0428352355957</v>
       </c>
       <c r="F50" t="n">
-        <v>15.53240203857422</v>
+        <v>51.58891296386719</v>
       </c>
       <c r="G50" t="n">
-        <v>2.122262001037598</v>
+        <v>45.60958099365234</v>
       </c>
       <c r="H50" t="n">
-        <v>-3.555152416229248</v>
+        <v>-3.448532581329346</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9999999680501054</v>
+        <v>0.9999996266584654</v>
       </c>
       <c r="B51" t="n">
-        <v>1.000000219640518</v>
+        <v>1.000000000600846</v>
       </c>
       <c r="C51" t="n">
-        <v>11.02982139587402</v>
+        <v>49.3225212097168</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3776501417160034</v>
+        <v>33.21205902099609</v>
       </c>
       <c r="E51" t="n">
-        <v>-7.287253379821777</v>
+        <v>-16.87595176696777</v>
       </c>
       <c r="F51" t="n">
-        <v>12.25173473358154</v>
+        <v>49.39640808105469</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6036515831947327</v>
+        <v>43.71057891845703</v>
       </c>
       <c r="H51" t="n">
-        <v>-3.593011617660522</v>
+        <v>-0.009475111961364746</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.000000011930751</v>
+        <v>1.000000111638538</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9999999145609282</v>
+        <v>0.9999999999635563</v>
       </c>
       <c r="C52" t="n">
-        <v>6.744351387023926</v>
+        <v>45.23174285888672</v>
       </c>
       <c r="D52" t="n">
-        <v>0.343742847442627</v>
+        <v>31.09230804443359</v>
       </c>
       <c r="E52" t="n">
-        <v>-4.671183586120605</v>
+        <v>-14.59246730804443</v>
       </c>
       <c r="F52" t="n">
-        <v>7.678216934204102</v>
+        <v>46.72287750244141</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3339679539203644</v>
+        <v>40.89523315429688</v>
       </c>
       <c r="H52" t="n">
-        <v>-1.415848731994629</v>
+        <v>-0.009475111961364746</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.006974343210458755</v>
+        <v>0.02860182635486126</v>
       </c>
       <c r="B53" t="n">
-        <v>0.006707348395138979</v>
+        <v>0.01874010555446148</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9262855648994446</v>
+        <v>45.23174285888672</v>
       </c>
       <c r="D53" t="n">
-        <v>-2.151925325393677</v>
+        <v>31.09230804443359</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.7958813905715942</v>
+        <v>-10.95548057556152</v>
       </c>
       <c r="F53" t="n">
-        <v>1.371099710464478</v>
+        <v>46.72287750244141</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.95929753780365</v>
+        <v>40.89523315429688</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.7607855796813965</v>
+        <v>2.599978446960449</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.01891127787530422</v>
+        <v>-0.05151277713477612</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.0196573231369257</v>
+        <v>-0.02892218325287104</v>
       </c>
       <c r="C54" t="n">
-        <v>1.661344528198242</v>
+        <v>43.88106918334961</v>
       </c>
       <c r="D54" t="n">
-        <v>-2.429151296615601</v>
+        <v>31.09613418579102</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.10560154914856</v>
+        <v>-8.150283813476562</v>
       </c>
       <c r="F54" t="n">
-        <v>2.15224027633667</v>
+        <v>47.00400924682617</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.211630344390869</v>
+        <v>42.84805679321289</v>
       </c>
       <c r="H54" t="n">
-        <v>-1.094002723693848</v>
+        <v>6.435024261474609</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.026464918628335</v>
+        <v>-0.03549592338502407</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.02782481908798218</v>
+        <v>-0.007792090456932784</v>
       </c>
       <c r="C55" t="n">
-        <v>1.875840902328491</v>
+        <v>43.33325576782227</v>
       </c>
       <c r="D55" t="n">
-        <v>-2.622470855712891</v>
+        <v>31.3702335357666</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6918880343437195</v>
+        <v>-6.510798454284668</v>
       </c>
       <c r="F55" t="n">
-        <v>2.394229412078857</v>
+        <v>45.69412231445312</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.388123035430908</v>
+        <v>43.34727478027344</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.7317416667938232</v>
+        <v>8.586475372314453</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.01819371432065964</v>
+        <v>-0.02810282539576292</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.02081456780433655</v>
+        <v>0.01043529795482755</v>
       </c>
       <c r="C56" t="n">
-        <v>1.640968322753906</v>
+        <v>43.08039474487305</v>
       </c>
       <c r="D56" t="n">
-        <v>-2.930517911911011</v>
+        <v>31.42487716674805</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1398226916790009</v>
+        <v>-6.510798454284668</v>
       </c>
       <c r="F56" t="n">
-        <v>2.186527490615845</v>
+        <v>44.56417846679688</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.648042678833008</v>
+        <v>43.29542922973633</v>
       </c>
       <c r="H56" t="n">
-        <v>0.07404220104217529</v>
+        <v>8.586475372314453</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.003402023809030652</v>
+        <v>-0.00209515321534127</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.007804063614457846</v>
+        <v>0.02594846647232771</v>
       </c>
       <c r="C57" t="n">
-        <v>1.220937252044678</v>
+        <v>42.19087219238281</v>
       </c>
       <c r="D57" t="n">
-        <v>-3.400961637496948</v>
+        <v>30.79113578796387</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9607841372489929</v>
+        <v>-4.738650321960449</v>
       </c>
       <c r="F57" t="n">
-        <v>1.801048278808594</v>
+        <v>43.60249328613281</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.046804904937744</v>
+        <v>42.26253890991211</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9293051958084106</v>
+        <v>9.939017295837402</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.008885236456990242</v>
+        <v>0.03481802366673947</v>
       </c>
       <c r="B58" t="n">
-        <v>0.00278749200515449</v>
+        <v>0.04462082035839558</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8720230460166931</v>
+        <v>40.9283561706543</v>
       </c>
       <c r="D58" t="n">
-        <v>-3.961309909820557</v>
+        <v>29.66714286804199</v>
       </c>
       <c r="E58" t="n">
-        <v>1.479832768440247</v>
+        <v>-4.574702262878418</v>
       </c>
       <c r="F58" t="n">
-        <v>1.48723840713501</v>
+        <v>42.44496536254883</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.549199819564819</v>
+        <v>39.29313659667969</v>
       </c>
       <c r="H58" t="n">
-        <v>1.542706847190857</v>
+        <v>9.059366226196289</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.013866251334548</v>
+        <v>0.07125885725021362</v>
       </c>
       <c r="B59" t="n">
-        <v>0.006800958421081305</v>
+        <v>0.06775932118296624</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7305800318717957</v>
+        <v>39.6819953918457</v>
       </c>
       <c r="D59" t="n">
-        <v>-4.535212993621826</v>
+        <v>28.39575576782227</v>
       </c>
       <c r="E59" t="n">
-        <v>1.60136604309082</v>
+        <v>-4.311022281646729</v>
       </c>
       <c r="F59" t="n">
-        <v>1.368326187133789</v>
+        <v>41.01057434082031</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.112681865692139</v>
+        <v>37.63100433349609</v>
       </c>
       <c r="H59" t="n">
-        <v>1.790825724601746</v>
+        <v>8.312891006469727</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.01158651895821095</v>
+        <v>0.09818645626306534</v>
       </c>
       <c r="B60" t="n">
-        <v>0.004643070977181196</v>
+        <v>0.09226114392280579</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7953162789344788</v>
+        <v>38.76100921630859</v>
       </c>
       <c r="D60" t="n">
-        <v>-5.092367649078369</v>
+        <v>27.35800933837891</v>
       </c>
       <c r="E60" t="n">
-        <v>1.387421369552612</v>
+        <v>-3.901082754135132</v>
       </c>
       <c r="F60" t="n">
-        <v>1.432260751724243</v>
+        <v>39.49166870117188</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.720775604248047</v>
+        <v>35.89482879638672</v>
       </c>
       <c r="H60" t="n">
-        <v>1.696268796920776</v>
+        <v>7.693583965301514</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.005491066724061966</v>
+        <v>0.1127641907334328</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.0002681497135199606</v>
+        <v>0.114555551558733</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9684053063392639</v>
+        <v>38.26241683959961</v>
       </c>
       <c r="D61" t="n">
-        <v>-5.627916812896729</v>
+        <v>26.85922050476074</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9861648678779602</v>
+        <v>-3.263896465301514</v>
       </c>
       <c r="F61" t="n">
-        <v>1.577771902084351</v>
+        <v>38.10960388183594</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.361199378967285</v>
+        <v>34.42283630371094</v>
       </c>
       <c r="H61" t="n">
-        <v>1.371491074562073</v>
+        <v>7.259899616241455</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.000366782711353153</v>
+        <v>0.1158194227516651</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.003528410336002707</v>
+        <v>0.1322427825629711</v>
       </c>
       <c r="C62" t="n">
-        <v>1.113916635513306</v>
+        <v>38.15792083740234</v>
       </c>
       <c r="D62" t="n">
-        <v>-6.129333972930908</v>
+        <v>27.04901504516602</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5660816431045532</v>
+        <v>-2.349645614624023</v>
       </c>
       <c r="F62" t="n">
-        <v>1.674367904663086</v>
+        <v>37.01314544677734</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.998263359069824</v>
+        <v>33.40067291259766</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9629210829734802</v>
+        <v>7.114545345306396</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.0004339513252489269</v>
+        <v>0.1114040476083756</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.001527269720099866</v>
+        <v>0.1451806166768074</v>
       </c>
       <c r="C63" t="n">
-        <v>1.112009286880493</v>
+        <v>38.30893707275391</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.568154335021973</v>
+        <v>27.83981323242188</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2700212597846985</v>
+        <v>-1.18966007232666</v>
       </c>
       <c r="F63" t="n">
-        <v>1.615077495574951</v>
+        <v>36.21110916137695</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.572995185852051</v>
+        <v>33.40067291259766</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6087533831596375</v>
+        <v>7.338244915008545</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.00794743187725544</v>
+        <v>0.1056327545642853</v>
       </c>
       <c r="B64" t="n">
-        <v>0.007354100700467825</v>
+        <v>0.1547467139363289</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8986533284187317</v>
+        <v>38.50632858276367</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.915391445159912</v>
+        <v>28.91411399841309</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1864366233348846</v>
+        <v>0.09860462695360184</v>
       </c>
       <c r="F64" t="n">
-        <v>1.351937532424927</v>
+        <v>35.61809158325195</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.027830123901367</v>
+        <v>32.38381195068359</v>
       </c>
       <c r="H64" t="n">
-        <v>0.4091843068599701</v>
+        <v>7.953710079193115</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02269443683326244</v>
+        <v>0.1043065080046654</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0224471241235733</v>
+        <v>0.163439271748066</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4798911511898041</v>
+        <v>38.55168914794922</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.159950733184814</v>
+        <v>29.92574501037598</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3378083407878876</v>
+        <v>1.356525897979736</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9047567844390869</v>
+        <v>35.07922744750977</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.332610130310059</v>
+        <v>32.77461624145508</v>
       </c>
       <c r="H65" t="n">
-        <v>0.4106133878231049</v>
+        <v>8.838652610778809</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.04253821074962616</v>
+        <v>0.1114937171339989</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04145967960357666</v>
+        <v>0.1735822108387947</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.08360090851783752</v>
+        <v>38.30587005615234</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.314750671386719</v>
+        <v>30.65633583068848</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6892849206924438</v>
+        <v>2.432639598846436</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3414469957351685</v>
+        <v>34.4504508972168</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.49435567855835</v>
+        <v>33.37457656860352</v>
       </c>
       <c r="H66" t="n">
-        <v>0.6079931259155273</v>
+        <v>9.863768577575684</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.06462866067886353</v>
+        <v>0.1283065873384476</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06167888268828392</v>
+        <v>0.1867797264456749</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7108907103538513</v>
+        <v>37.73083114624023</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.410380840301514</v>
+        <v>31.07314872741699</v>
       </c>
       <c r="E67" t="n">
-        <v>1.17349112033844</v>
+        <v>3.263794422149658</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.2576139569282532</v>
+        <v>33.63231658935547</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.550353527069092</v>
+        <v>34.0323486328125</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9627597332000732</v>
+        <v>10.91695499420166</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.08662091940641403</v>
+        <v>0.1536530837416649</v>
       </c>
       <c r="B68" t="n">
-        <v>0.08109010010957718</v>
+        <v>0.2037268561124802</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.335392236709595</v>
+        <v>36.86392211914062</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.484336376190186</v>
+        <v>31.24927520751953</v>
       </c>
       <c r="E68" t="n">
-        <v>1.719788789749146</v>
+        <v>3.86797571182251</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.8327353000640869</v>
+        <v>32.58173751831055</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.553945064544678</v>
+        <v>34.64347457885742</v>
       </c>
       <c r="H68" t="n">
-        <v>1.426496148109436</v>
+        <v>11.93045520782471</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.1074218824505806</v>
+        <v>0.1851953700184822</v>
       </c>
       <c r="B69" t="n">
-        <v>0.09900488704442978</v>
+        <v>0.2247852632403374</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.926064968109131</v>
+        <v>35.78510284423828</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.572144031524658</v>
+        <v>31.30093193054199</v>
       </c>
       <c r="E69" t="n">
-        <v>2.276546478271484</v>
+        <v>4.334777355194092</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.36352014541626</v>
+        <v>31.27629470825195</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.561160087585449</v>
+        <v>35.13566589355469</v>
       </c>
       <c r="H69" t="n">
-        <v>1.960124611854553</v>
+        <v>12.86135196685791</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.1273465752601624</v>
+        <v>0.2203278174996376</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1161292791366577</v>
+        <v>0.2496297556161881</v>
       </c>
       <c r="C70" t="n">
-        <v>-2.491854906082153</v>
+        <v>34.58349227905273</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.701758861541748</v>
+        <v>31.35262870788574</v>
       </c>
       <c r="E70" t="n">
-        <v>2.820922613143921</v>
+        <v>4.7873215675354</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.870886921882629</v>
+        <v>29.73614692687988</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.620781421661377</v>
+        <v>35.50055694580078</v>
       </c>
       <c r="H70" t="n">
-        <v>2.543241262435913</v>
+        <v>13.68951892852783</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.1478123962879181</v>
+        <v>0.2577460086345673</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1342079490423203</v>
+        <v>0.2779551219940186</v>
       </c>
       <c r="C71" t="n">
-        <v>-3.073010921478271</v>
+        <v>33.30370330810547</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.890012741088867</v>
+        <v>31.5221996307373</v>
       </c>
       <c r="E71" t="n">
-        <v>3.356742143630981</v>
+        <v>5.338630199432373</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.406527042388916</v>
+        <v>27.9802131652832</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.767120361328125</v>
+        <v>35.76621246337891</v>
       </c>
       <c r="H71" t="n">
-        <v>3.173600196838379</v>
+        <v>14.41282176971436</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.170781672000885</v>
+        <v>0.2967528367042542</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1554414480924606</v>
+        <v>0.3091198390722275</v>
       </c>
       <c r="C72" t="n">
-        <v>-3.725256204605103</v>
+        <v>31.96957969665527</v>
       </c>
       <c r="D72" t="n">
-        <v>-8.140266418457031</v>
+        <v>31.92009353637695</v>
       </c>
       <c r="E72" t="n">
-        <v>3.904868602752686</v>
+        <v>6.048491954803467</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.035639524459839</v>
+        <v>25.02953720092773</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.014973640441895</v>
+        <v>35.98685836791992</v>
       </c>
       <c r="H72" t="n">
-        <v>3.860426664352417</v>
+        <v>15.03600597381592</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.1981506645679474</v>
+        <v>0.3365402966737747</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1818624585866928</v>
+        <v>0.3419864922761917</v>
       </c>
       <c r="C73" t="n">
-        <v>-4.502438068389893</v>
+        <v>30.60875701904297</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.441625595092773</v>
+        <v>32.59830093383789</v>
       </c>
       <c r="E73" t="n">
-        <v>4.49147891998291</v>
+        <v>6.911702632904053</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.8184494972229</v>
+        <v>23.50657653808594</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.357369422912598</v>
+        <v>36.21198654174805</v>
       </c>
       <c r="H73" t="n">
-        <v>4.616123676300049</v>
+        <v>15.58639812469482</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.2312136143445969</v>
+        <v>0.3755781149864197</v>
       </c>
       <c r="B74" t="n">
-        <v>0.214793473482132</v>
+        <v>0.3746876430511475</v>
       </c>
       <c r="C74" t="n">
-        <v>-5.441307067871094</v>
+        <v>29.27357292175293</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.770040512084961</v>
+        <v>33.54164886474609</v>
       </c>
       <c r="E74" t="n">
-        <v>5.13746166229248</v>
+        <v>7.929813861846924</v>
       </c>
       <c r="F74" t="n">
-        <v>-4.794139862060547</v>
+        <v>21.81215667724609</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.766454696655273</v>
+        <v>36.49121475219727</v>
       </c>
       <c r="H74" t="n">
-        <v>5.448720932006836</v>
+        <v>16.1685619354248</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.2702451050281525</v>
+        <v>0.4112670600414277</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2544316351413727</v>
+        <v>0.4047865295410156</v>
       </c>
       <c r="C75" t="n">
-        <v>-6.549661636352539</v>
+        <v>28.05292892456055</v>
       </c>
       <c r="D75" t="n">
-        <v>-9.090539932250977</v>
+        <v>34.6870002746582</v>
       </c>
       <c r="E75" t="n">
-        <v>5.848523616790771</v>
+        <v>9.149600982666016</v>
       </c>
       <c r="F75" t="n">
-        <v>-5.968552112579346</v>
+        <v>20.18451690673828</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.196722984313965</v>
+        <v>36.86651229858398</v>
       </c>
       <c r="H75" t="n">
-        <v>6.353977680206299</v>
+        <v>16.87573623657227</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.3142321705818176</v>
+        <v>0.4407208061218262</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2996019423007965</v>
+        <v>0.4299651700258255</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.798736572265625</v>
+        <v>27.04554176330566</v>
       </c>
       <c r="D76" t="n">
-        <v>-9.358953475952148</v>
+        <v>35.99041748046875</v>
       </c>
       <c r="E76" t="n">
-        <v>6.604559898376465</v>
+        <v>10.60165596008301</v>
       </c>
       <c r="F76" t="n">
-        <v>-7.30687141418457</v>
+        <v>18.77724075317383</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.589079856872559</v>
+        <v>37.36785507202148</v>
       </c>
       <c r="H76" t="n">
-        <v>7.30547571182251</v>
+        <v>17.68314552307129</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.3608696460723877</v>
+        <v>0.4622082275152207</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3478117287158966</v>
+        <v>0.449111517071724</v>
       </c>
       <c r="C77" t="n">
-        <v>-9.123074531555176</v>
+        <v>26.31062316894531</v>
       </c>
       <c r="D77" t="n">
-        <v>-9.522687911987305</v>
+        <v>37.44022369384766</v>
       </c>
       <c r="E77" t="n">
-        <v>7.351052284240723</v>
+        <v>12.21512413024902</v>
       </c>
       <c r="F77" t="n">
-        <v>-8.735245704650879</v>
+        <v>17.63494110107422</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.875500679016113</v>
+        <v>37.9658317565918</v>
       </c>
       <c r="H77" t="n">
-        <v>8.245390892028809</v>
+        <v>18.39565849304199</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.4069432318210602</v>
+        <v>0.4771198731660843</v>
       </c>
       <c r="B78" t="n">
-        <v>0.395732969045639</v>
+        <v>0.4632638227939606</v>
       </c>
       <c r="C78" t="n">
-        <v>-10.43139839172363</v>
+        <v>25.80060958862305</v>
       </c>
       <c r="D78" t="n">
-        <v>-9.522666931152344</v>
+        <v>38.97727584838867</v>
       </c>
       <c r="E78" t="n">
-        <v>7.999233722686768</v>
+        <v>13.78277206420898</v>
       </c>
       <c r="F78" t="n">
-        <v>-10.15507125854492</v>
+        <v>17.63494110107422</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.985507011413574</v>
+        <v>38.52936553955078</v>
       </c>
       <c r="H78" t="n">
-        <v>9.082871437072754</v>
+        <v>18.70248222351074</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4489963352680206</v>
+        <v>0.4895598179101944</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4399745762348175</v>
+        <v>0.4750357556343079</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.6255578994751</v>
+        <v>25.37513542175293</v>
       </c>
       <c r="D79" t="n">
-        <v>-9.298200607299805</v>
+        <v>40.45597457885742</v>
       </c>
       <c r="E79" t="n">
-        <v>8.436812400817871</v>
+        <v>15.03628349304199</v>
       </c>
       <c r="F79" t="n">
-        <v>-11.46587467193604</v>
+        <v>15.7628812789917</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.854209899902344</v>
+        <v>38.85644912719727</v>
       </c>
       <c r="H79" t="n">
-        <v>9.702600479125977</v>
+        <v>18.25465965270996</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.4839125573635101</v>
+        <v>0.5033050173521042</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4777230322360992</v>
+        <v>0.4869077354669571</v>
       </c>
       <c r="C80" t="n">
-        <v>-12.61705303192139</v>
+        <v>24.9050178527832</v>
       </c>
       <c r="D80" t="n">
-        <v>-8.791792869567871</v>
+        <v>41.70235443115234</v>
       </c>
       <c r="E80" t="n">
-        <v>8.539437294006348</v>
+        <v>15.64419937133789</v>
       </c>
       <c r="F80" t="n">
-        <v>-12.5842981338501</v>
+        <v>15.0269193649292</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.427250862121582</v>
+        <v>38.81493759155273</v>
       </c>
       <c r="H80" t="n">
-        <v>9.974710464477539</v>
+        <v>15.78907012939453</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.5090298652648926</v>
+        <v>0.5178692942857742</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5068469643592834</v>
+        <v>0.4991455328464509</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.33029460906982</v>
+        <v>24.40688514709473</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.945913791656494</v>
+        <v>42.63580703735352</v>
       </c>
       <c r="E81" t="n">
-        <v>8.165472030639648</v>
+        <v>15.30118751525879</v>
       </c>
       <c r="F81" t="n">
-        <v>-13.447190284729</v>
+        <v>14.26828098297119</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.654953956604004</v>
+        <v>38.42053604125977</v>
       </c>
       <c r="H81" t="n">
-        <v>9.748737335205078</v>
+        <v>13.64932060241699</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.5216597318649292</v>
+        <v>0.5281234949827195</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5253131985664368</v>
+        <v>0.5092671167850494</v>
       </c>
       <c r="C82" t="n">
-        <v>-13.68893718719482</v>
+        <v>24.05616760253906</v>
       </c>
       <c r="D82" t="n">
-        <v>-6.687304496765137</v>
+        <v>43.32867050170898</v>
       </c>
       <c r="E82" t="n">
-        <v>7.120805263519287</v>
+        <v>12.44658088684082</v>
       </c>
       <c r="F82" t="n">
-        <v>-13.99431324005127</v>
+        <v>13.64082717895508</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.470587253570557</v>
+        <v>37.8646125793457</v>
       </c>
       <c r="H82" t="n">
-        <v>8.815301895141602</v>
+        <v>10.5596399307251</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.5182626247406006</v>
+        <v>0.5274300527572632</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5299999713897705</v>
+        <v>0.5133720761537552</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.59247016906738</v>
+        <v>24.07988548278809</v>
       </c>
       <c r="D83" t="n">
-        <v>-4.914391040802002</v>
+        <v>43.96184158325195</v>
       </c>
       <c r="E83" t="n">
-        <v>5.108471870422363</v>
+        <v>9.696107864379883</v>
       </c>
       <c r="F83" t="n">
-        <v>-14.13317489624023</v>
+        <v>13.38635444641113</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.761752128601074</v>
+        <v>37.4674186706543</v>
       </c>
       <c r="H83" t="n">
-        <v>6.842626571655273</v>
+        <v>6.618788719177246</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.4941688776016235</v>
+        <v>0.5105839967727661</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5154856443405151</v>
+        <v>0.5069305914640427</v>
       </c>
       <c r="C84" t="n">
-        <v>-12.90829563140869</v>
+        <v>24.65605926513672</v>
       </c>
       <c r="D84" t="n">
-        <v>-2.549966335296631</v>
+        <v>44.77498626708984</v>
       </c>
       <c r="E84" t="n">
-        <v>1.787206411361694</v>
+        <v>5.735359191894531</v>
       </c>
       <c r="F84" t="n">
-        <v>-13.70314025878906</v>
+        <v>13.78567218780518</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.389084577560425</v>
+        <v>37.65037155151367</v>
       </c>
       <c r="H84" t="n">
-        <v>3.404227256774902</v>
+        <v>2.152790069580078</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.4457554817199707</v>
+        <v>0.4766564095020294</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5651722128938416</v>
+        <v>0.5461947208452018</v>
       </c>
       <c r="C85" t="n">
-        <v>-11.53352737426758</v>
+        <v>25.81646156311035</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2859512567520142</v>
+        <v>45.89694595336914</v>
       </c>
       <c r="E85" t="n">
-        <v>-2.771378755569458</v>
+        <v>1.017064332962036</v>
       </c>
       <c r="F85" t="n">
-        <v>-12.5228443145752</v>
+        <v>14.97191524505615</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3558490574359894</v>
+        <v>39.72067642211914</v>
       </c>
       <c r="H85" t="n">
-        <v>-1.577216506004333</v>
+        <v>-2.26967716217041</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.6078472088690501</v>
+        <v>0.5787814845143564</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6630439579378621</v>
+        <v>0.6098278517619227</v>
       </c>
       <c r="C86" t="n">
-        <v>-9.524289131164551</v>
+        <v>28.6273365020752</v>
       </c>
       <c r="D86" t="n">
-        <v>3.198309659957886</v>
+        <v>47.39757919311523</v>
       </c>
       <c r="E86" t="n">
-        <v>-7.48865795135498</v>
+        <v>-3.627313613891602</v>
       </c>
       <c r="F86" t="n">
-        <v>-10.59871768951416</v>
+        <v>18.30594635009766</v>
       </c>
       <c r="G86" t="n">
-        <v>2.98828649520874</v>
+        <v>41.7595100402832</v>
       </c>
       <c r="H86" t="n">
-        <v>-7.123303413391113</v>
+        <v>-6.046541690826416</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.7856781295937673</v>
+        <v>0.712006321201943</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7906790874572316</v>
+        <v>0.6964437142856799</v>
       </c>
       <c r="C87" t="n">
-        <v>-7.100947380065918</v>
+        <v>30.48332595825195</v>
       </c>
       <c r="D87" t="n">
-        <v>5.755000591278076</v>
+        <v>50.58403778076172</v>
       </c>
       <c r="E87" t="n">
-        <v>-10.8580379486084</v>
+        <v>-7.330586433410645</v>
       </c>
       <c r="F87" t="n">
-        <v>-8.185055732727051</v>
+        <v>20.57719421386719</v>
       </c>
       <c r="G87" t="n">
-        <v>6.102560520172119</v>
+        <v>44.63743209838867</v>
       </c>
       <c r="H87" t="n">
-        <v>-11.60053825378418</v>
+        <v>-8.908523559570312</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.918955803603611</v>
+        <v>0.8446232599211063</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9042160148232674</v>
+        <v>0.7933887333177109</v>
       </c>
       <c r="C88" t="n">
-        <v>-4.566750526428223</v>
+        <v>32.9141845703125</v>
       </c>
       <c r="D88" t="n">
-        <v>7.732606410980225</v>
+        <v>52.65702819824219</v>
       </c>
       <c r="E88" t="n">
-        <v>-12.1505708694458</v>
+        <v>-9.577776908874512</v>
       </c>
       <c r="F88" t="n">
-        <v>-5.615771770477295</v>
+        <v>23.51470565795898</v>
       </c>
       <c r="G88" t="n">
-        <v>8.591279029846191</v>
+        <v>48.05097961425781</v>
       </c>
       <c r="H88" t="n">
-        <v>-13.99175071716309</v>
+        <v>-10.77895832061768</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9818563706127349</v>
+        <v>0.941935460002258</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9708690014515327</v>
+        <v>0.8820352625569797</v>
       </c>
       <c r="C89" t="n">
-        <v>-2.244983673095703</v>
+        <v>35.7869873046875</v>
       </c>
       <c r="D89" t="n">
-        <v>9.150905609130859</v>
+        <v>55.19609832763672</v>
       </c>
       <c r="E89" t="n">
-        <v>-11.56925010681152</v>
+        <v>-9.577776908874512</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.205962419509888</v>
+        <v>26.96223831176758</v>
       </c>
       <c r="G89" t="n">
-        <v>10.36112022399902</v>
+        <v>51.65272521972656</v>
       </c>
       <c r="H89" t="n">
-        <v>-14.28501987457275</v>
+        <v>-10.77895832061768</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9982282917914659</v>
+        <v>0.9889188886201756</v>
       </c>
       <c r="B90" t="n">
-        <v>0.994958767707977</v>
+        <v>0.9468572506245894</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.3452962338924408</v>
+        <v>38.99203491210938</v>
       </c>
       <c r="D90" t="n">
-        <v>10.11166381835938</v>
+        <v>57.76023864746094</v>
       </c>
       <c r="E90" t="n">
-        <v>-9.74062442779541</v>
+        <v>-11.16789817810059</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.147638440132141</v>
+        <v>30.84989166259766</v>
       </c>
       <c r="G90" t="n">
-        <v>11.54130363464355</v>
+        <v>55.22974395751953</v>
       </c>
       <c r="H90" t="n">
-        <v>-13.02481842041016</v>
+        <v>-10.95853519439697</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9999984372127153</v>
+        <v>1.000047601308096</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9996707700346003</v>
+        <v>0.9830593925915521</v>
       </c>
       <c r="C91" t="n">
-        <v>1.111056566238403</v>
+        <v>42.39603805541992</v>
       </c>
       <c r="D91" t="n">
-        <v>10.67340564727783</v>
+        <v>59.89248275756836</v>
       </c>
       <c r="E91" t="n">
-        <v>-7.309082984924316</v>
+        <v>-8.524867057800293</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5443042516708374</v>
+        <v>35.10948944091797</v>
       </c>
       <c r="G91" t="n">
-        <v>12.30082321166992</v>
+        <v>58.75204467773438</v>
       </c>
       <c r="H91" t="n">
-        <v>-10.83954048156738</v>
+        <v>-8.516292572021484</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.00000011597372</v>
+        <v>0.9999903343052394</v>
       </c>
       <c r="B92" t="n">
-        <v>1.00000855407432</v>
+        <v>0.9969878171134928</v>
       </c>
       <c r="C92" t="n">
-        <v>2.241193056106567</v>
+        <v>45.83832931518555</v>
       </c>
       <c r="D92" t="n">
-        <v>10.84658622741699</v>
+        <v>61.28848266601562</v>
       </c>
       <c r="E92" t="n">
-        <v>-4.770398139953613</v>
+        <v>-6.889797687530518</v>
       </c>
       <c r="F92" t="n">
-        <v>1.977823495864868</v>
+        <v>39.62717819213867</v>
       </c>
       <c r="G92" t="n">
-        <v>12.73253154754639</v>
+        <v>62.2501106262207</v>
       </c>
       <c r="H92" t="n">
-        <v>-8.240701675415039</v>
+        <v>-5.417984485626221</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9999999839964391</v>
+        <v>1.00000381856436</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9999990650671879</v>
+        <v>0.9999022500580571</v>
       </c>
       <c r="C93" t="n">
-        <v>3.201140642166138</v>
+        <v>49.14797973632812</v>
       </c>
       <c r="D93" t="n">
-        <v>10.63356590270996</v>
+        <v>61.28848266601562</v>
       </c>
       <c r="E93" t="n">
-        <v>-2.45114278793335</v>
+        <v>-5.279695510864258</v>
       </c>
       <c r="F93" t="n">
-        <v>3.286114692687988</v>
+        <v>44.22417449951172</v>
       </c>
       <c r="G93" t="n">
-        <v>12.84178256988525</v>
+        <v>65.57864379882812</v>
       </c>
       <c r="H93" t="n">
-        <v>-5.602166652679443</v>
+        <v>-2.457371473312378</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.000000003186558</v>
+        <v>0.9999978221758163</v>
       </c>
       <c r="B94" t="n">
-        <v>1.000000178482506</v>
+        <v>1.000010740538736</v>
       </c>
       <c r="C94" t="n">
-        <v>4.121041774749756</v>
+        <v>52.12693023681641</v>
       </c>
       <c r="D94" t="n">
-        <v>10.0604305267334</v>
+        <v>62.33543395996094</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.5409928560256958</v>
+        <v>-4.212129592895508</v>
       </c>
       <c r="F94" t="n">
-        <v>4.567594528198242</v>
+        <v>48.63816833496094</v>
       </c>
       <c r="G94" t="n">
-        <v>12.59777545928955</v>
+        <v>68.28016662597656</v>
       </c>
       <c r="H94" t="n">
-        <v>-3.188946008682251</v>
+        <v>-0.1413064002990723</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9999999991593722</v>
+        <v>1.000001560231594</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9999999509589134</v>
+        <v>0.9999974367340889</v>
       </c>
       <c r="C95" t="n">
-        <v>5.094613552093506</v>
+        <v>54.55774688720703</v>
       </c>
       <c r="D95" t="n">
-        <v>9.180878639221191</v>
+        <v>59.55961608886719</v>
       </c>
       <c r="E95" t="n">
-        <v>0.8690590858459473</v>
+        <v>-4.212129592895508</v>
       </c>
       <c r="F95" t="n">
-        <v>5.88449239730835</v>
+        <v>52.52978897094727</v>
       </c>
       <c r="G95" t="n">
-        <v>11.98202037811279</v>
+        <v>69.63925170898438</v>
       </c>
       <c r="H95" t="n">
-        <v>-1.178972244262695</v>
+        <v>1.317847371101379</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.000000000283482</v>
+        <v>0.9999987201778948</v>
       </c>
       <c r="B96" t="n">
-        <v>1.000000017863664</v>
+        <v>1.000000874588623</v>
       </c>
       <c r="C96" t="n">
-        <v>6.199631690979004</v>
+        <v>56.20205688476562</v>
       </c>
       <c r="D96" t="n">
-        <v>8.058610916137695</v>
+        <v>56.78337097167969</v>
       </c>
       <c r="E96" t="n">
-        <v>1.748080611228943</v>
+        <v>-5.549456119537354</v>
       </c>
       <c r="F96" t="n">
-        <v>7.289789199829102</v>
+        <v>55.51734161376953</v>
       </c>
       <c r="G96" t="n">
-        <v>11.00119972229004</v>
+        <v>69.63925170898438</v>
       </c>
       <c r="H96" t="n">
-        <v>0.318729966878891</v>
+        <v>1.317847371101379</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9999999998794918</v>
+        <v>1.000001110371455</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9999999917191188</v>
+        <v>0.999999646128814</v>
       </c>
       <c r="C97" t="n">
-        <v>7.522120475769043</v>
+        <v>56.20205688476562</v>
       </c>
       <c r="D97" t="n">
-        <v>6.7410888671875</v>
+        <v>52.62380599975586</v>
       </c>
       <c r="E97" t="n">
-        <v>2.081254959106445</v>
+        <v>-8.970934867858887</v>
       </c>
       <c r="F97" t="n">
-        <v>8.849111557006836</v>
+        <v>57.24159240722656</v>
       </c>
       <c r="G97" t="n">
-        <v>9.668088912963867</v>
+        <v>65.39662170410156</v>
       </c>
       <c r="H97" t="n">
-        <v>1.23397171497345</v>
+        <v>1.037994384765625</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.000000000064237</v>
+        <v>0.9999990617875872</v>
       </c>
       <c r="B98" t="n">
-        <v>1.000000004773267</v>
+        <v>1.000000148146055</v>
       </c>
       <c r="C98" t="n">
-        <v>9.146777153015137</v>
+        <v>57.43587875366211</v>
       </c>
       <c r="D98" t="n">
-        <v>5.236845016479492</v>
+        <v>47.55256652832031</v>
       </c>
       <c r="E98" t="n">
-        <v>1.834504842758179</v>
+        <v>-13.93115234375</v>
       </c>
       <c r="F98" t="n">
-        <v>10.62135410308838</v>
+        <v>57.24159240722656</v>
       </c>
       <c r="G98" t="n">
-        <v>7.972466468811035</v>
+        <v>60.38198852539062</v>
       </c>
       <c r="H98" t="n">
-        <v>1.505428075790405</v>
+        <v>-1.368545293807983</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9999999999576382</v>
+        <v>1.000000715986994</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9999999966650541</v>
+        <v>0.9999999436536524</v>
       </c>
       <c r="C99" t="n">
-        <v>11.04930782318115</v>
+        <v>54.90667724609375</v>
       </c>
       <c r="D99" t="n">
-        <v>3.547168493270874</v>
+        <v>42.39324188232422</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9715413451194763</v>
+        <v>-18.89999008178711</v>
       </c>
       <c r="F99" t="n">
-        <v>12.5410680770874</v>
+        <v>56.51558685302734</v>
       </c>
       <c r="G99" t="n">
-        <v>5.90971851348877</v>
+        <v>54.53182220458984</v>
       </c>
       <c r="H99" t="n">
-        <v>1.099503993988037</v>
+        <v>-4.218530654907227</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.00000000003313</v>
+        <v>0.9999995362425383</v>
       </c>
       <c r="B100" t="n">
-        <v>1.000000002688152</v>
+        <v>1.000000017342927</v>
       </c>
       <c r="C100" t="n">
-        <v>12.89450073242188</v>
+        <v>53.25027465820312</v>
       </c>
       <c r="D100" t="n">
-        <v>1.818455696105957</v>
+        <v>38.04080200195312</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.4199545085430145</v>
+        <v>-21.65726852416992</v>
       </c>
       <c r="F100" t="n">
-        <v>14.22732067108154</v>
+        <v>54.55682373046875</v>
       </c>
       <c r="G100" t="n">
-        <v>3.647922992706299</v>
+        <v>49.30680084228516</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1305475980043411</v>
+        <v>-5.720088958740234</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9999999999715893</v>
+        <v>1.00000024239462</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9999999976977015</v>
+        <v>0.9999999961007493</v>
       </c>
       <c r="C101" t="n">
-        <v>14.03067779541016</v>
+        <v>51.33652496337891</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4032630920410156</v>
+        <v>35.16627502441406</v>
       </c>
       <c r="E101" t="n">
-        <v>-1.989939093589783</v>
+        <v>-21.65726852416992</v>
       </c>
       <c r="F101" t="n">
-        <v>15.01884269714355</v>
+        <v>52.29226684570312</v>
       </c>
       <c r="G101" t="n">
-        <v>1.607096314430237</v>
+        <v>45.66503524780273</v>
       </c>
       <c r="H101" t="n">
-        <v>-1.031986713409424</v>
+        <v>-4.53644323348999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.000000000023848</v>
+        <v>0.9999999023378833</v>
       </c>
       <c r="B102" t="n">
-        <v>1.000000001861993</v>
+        <v>1.000000000571632</v>
       </c>
       <c r="C102" t="n">
-        <v>13.75735187530518</v>
+        <v>49.54914855957031</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.3835694789886475</v>
+        <v>33.94942474365234</v>
       </c>
       <c r="E102" t="n">
-        <v>-3.074010848999023</v>
+        <v>-16.32884979248047</v>
       </c>
       <c r="F102" t="n">
-        <v>14.26969528198242</v>
+        <v>50.12233734130859</v>
       </c>
       <c r="G102" t="n">
-        <v>0.2179679125547409</v>
+        <v>43.77679061889648</v>
       </c>
       <c r="H102" t="n">
-        <v>-1.768656969070435</v>
+        <v>-1.151995539665222</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.9999999999833493</v>
+        <v>1.000000030399833</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9999999988025294</v>
+        <v>0.9999999999523055</v>
       </c>
       <c r="C103" t="n">
-        <v>11.63242816925049</v>
+        <v>45.03661346435547</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.6748242974281311</v>
+        <v>31.76945495605469</v>
       </c>
       <c r="E103" t="n">
-        <v>-2.877812623977661</v>
+        <v>-14.31342792510986</v>
       </c>
       <c r="F103" t="n">
-        <v>11.66861820220947</v>
+        <v>46.60443878173828</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.4835427701473236</v>
+        <v>40.34047698974609</v>
       </c>
       <c r="H103" t="n">
-        <v>-1.391152858734131</v>
+        <v>-1.151995539665222</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.009911073371767998</v>
+        <v>0.04663810037076473</v>
       </c>
       <c r="B104" t="n">
-        <v>0.009381175972521305</v>
+        <v>0.03427136652171612</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8428929448127747</v>
+        <v>45.03661346435547</v>
       </c>
       <c r="D104" t="n">
-        <v>-2.22249960899353</v>
+        <v>31.76945495605469</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.6705539226531982</v>
+        <v>-10.72484016418457</v>
       </c>
       <c r="F104" t="n">
-        <v>1.291878700256348</v>
+        <v>46.60443878173828</v>
       </c>
       <c r="G104" t="n">
-        <v>-2.033090829849243</v>
+        <v>41.44610214233398</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.6440821886062622</v>
+        <v>0.9031370878219604</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.01947239600121975</v>
+        <v>-0.05714041255414486</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.02080848440527916</v>
+        <v>-0.03693894013762474</v>
       </c>
       <c r="C105" t="n">
-        <v>1.677278280258179</v>
+        <v>44.07354736328125</v>
       </c>
       <c r="D105" t="n">
-        <v>-2.682587385177612</v>
+        <v>32.30311965942383</v>
       </c>
       <c r="E105" t="n">
-        <v>-1.163597822189331</v>
+        <v>-7.722829818725586</v>
       </c>
       <c r="F105" t="n">
-        <v>2.186347246170044</v>
+        <v>47.50098037719727</v>
       </c>
       <c r="G105" t="n">
-        <v>-2.465240001678467</v>
+        <v>41.44610214233398</v>
       </c>
       <c r="H105" t="n">
-        <v>-1.161505103111267</v>
+        <v>5.182356834411621</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-0.03698829561471939</v>
+        <v>-0.03502056986093521</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.03895796462893486</v>
+        <v>-0.01601942343637347</v>
       </c>
       <c r="C106" t="n">
-        <v>2.174667119979858</v>
+        <v>43.31699752807617</v>
       </c>
       <c r="D106" t="n">
-        <v>-3.053759336471558</v>
+        <v>32.28402709960938</v>
       </c>
       <c r="E106" t="n">
-        <v>-1.185976982116699</v>
+        <v>-6.022480010986328</v>
       </c>
       <c r="F106" t="n">
-        <v>2.724085569381714</v>
+        <v>46.20414733886719</v>
       </c>
       <c r="G106" t="n">
-        <v>-2.827061176300049</v>
+        <v>43.11888122558594</v>
       </c>
       <c r="H106" t="n">
-        <v>-1.250028014183044</v>
+        <v>7.73825740814209</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.03688402101397514</v>
+        <v>-0.02706322278827429</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.03986232355237007</v>
+        <v>0.005991123169660569</v>
       </c>
       <c r="C107" t="n">
-        <v>2.171706199645996</v>
+        <v>43.04483795166016</v>
       </c>
       <c r="D107" t="n">
-        <v>-3.453029632568359</v>
+        <v>32.12771606445312</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.6868078112602234</v>
+        <v>-6.022480010986328</v>
       </c>
       <c r="F107" t="n">
-        <v>2.750880241394043</v>
+        <v>44.83967971801758</v>
       </c>
       <c r="G107" t="n">
-        <v>-3.198851585388184</v>
+        <v>43.16130447387695</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.8295631408691406</v>
+        <v>7.73825740814209</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-0.02171102538704872</v>
+        <v>-0.003182937693782151</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.02643140405416489</v>
+        <v>0.02333048988133669</v>
       </c>
       <c r="C108" t="n">
-        <v>1.74084734916687</v>
+        <v>42.22807693481445</v>
       </c>
       <c r="D108" t="n">
-        <v>-3.983960151672363</v>
+        <v>31.39094924926758</v>
       </c>
       <c r="E108" t="n">
-        <v>0.1126435920596123</v>
+        <v>-4.343741416931152</v>
       </c>
       <c r="F108" t="n">
-        <v>2.352944850921631</v>
+        <v>43.76478576660156</v>
       </c>
       <c r="G108" t="n">
-        <v>-3.665403366088867</v>
+        <v>42.30985641479492</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.08329284191131592</v>
+        <v>9.426334381103516</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.0007032303838059306</v>
+        <v>0.03269097074866295</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.006349337287247181</v>
+        <v>0.04217871181666851</v>
       </c>
       <c r="C109" t="n">
-        <v>1.104362726211548</v>
+        <v>41.00110626220703</v>
       </c>
       <c r="D109" t="n">
-        <v>-4.637764453887939</v>
+        <v>30.18257331848145</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9113526940345764</v>
+        <v>-4.310308456420898</v>
       </c>
       <c r="F109" t="n">
-        <v>1.757947206497192</v>
+        <v>42.59635543823242</v>
       </c>
       <c r="G109" t="n">
-        <v>-4.232355117797852</v>
+        <v>39.47922515869141</v>
       </c>
       <c r="H109" t="n">
-        <v>0.7130881547927856</v>
+        <v>8.407273292541504</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.02166523411870003</v>
+        <v>0.06899796739220619</v>
       </c>
       <c r="B110" t="n">
-        <v>0.01224089879542589</v>
+        <v>0.06473139122128486</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5091168284416199</v>
+        <v>39.75932312011719</v>
       </c>
       <c r="D110" t="n">
-        <v>-5.313608646392822</v>
+        <v>28.84351539611816</v>
       </c>
       <c r="E110" t="n">
-        <v>1.468724846839905</v>
+        <v>-4.117902278900146</v>
       </c>
       <c r="F110" t="n">
-        <v>1.207149982452393</v>
+        <v>41.19828033447266</v>
       </c>
       <c r="G110" t="n">
-        <v>-4.831923484802246</v>
+        <v>37.85374450683594</v>
       </c>
       <c r="H110" t="n">
-        <v>1.322674989700317</v>
+        <v>7.605953693389893</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.03496674448251724</v>
+        <v>0.09636511608958245</v>
       </c>
       <c r="B111" t="n">
-        <v>0.02376253716647625</v>
+        <v>0.0884000787138939</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1314015090465546</v>
+        <v>38.82330322265625</v>
       </c>
       <c r="D111" t="n">
-        <v>-5.902593612670898</v>
+        <v>27.7425594329834</v>
       </c>
       <c r="E111" t="n">
-        <v>1.66488242149353</v>
+        <v>-3.745886325836182</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8657833337783813</v>
+        <v>39.73102188110352</v>
       </c>
       <c r="G111" t="n">
-        <v>-5.384830951690674</v>
+        <v>36.14659118652344</v>
       </c>
       <c r="H111" t="n">
-        <v>1.610602736473083</v>
+        <v>6.993143558502197</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.03853310644626617</v>
+        <v>0.1116704973578453</v>
       </c>
       <c r="B112" t="n">
-        <v>0.02656344324350357</v>
+        <v>0.1099307079613209</v>
       </c>
       <c r="C112" t="n">
-        <v>0.03012963756918907</v>
+        <v>38.29982376098633</v>
       </c>
       <c r="D112" t="n">
-        <v>-6.346925258636475</v>
+        <v>27.17313003540039</v>
       </c>
       <c r="E112" t="n">
-        <v>1.513930916786194</v>
+        <v>-3.145881175994873</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7827972173690796</v>
+        <v>38.39630508422852</v>
       </c>
       <c r="G112" t="n">
-        <v>-5.847745418548584</v>
+        <v>34.69203186035156</v>
       </c>
       <c r="H112" t="n">
-        <v>1.564812779426575</v>
+        <v>6.578325748443604</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.03440781310200691</v>
+        <v>0.1154533761739731</v>
       </c>
       <c r="B113" t="n">
-        <v>0.02277089096605778</v>
+        <v>0.1269987027347088</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1472732722759247</v>
+        <v>38.17044067382812</v>
       </c>
       <c r="D113" t="n">
-        <v>-6.647189617156982</v>
+        <v>27.28110313415527</v>
       </c>
       <c r="E113" t="n">
-        <v>1.140615105628967</v>
+        <v>-2.281904697418213</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8951641321182251</v>
+        <v>37.33823394775391</v>
       </c>
       <c r="G113" t="n">
-        <v>-6.219595909118652</v>
+        <v>33.67496871948242</v>
       </c>
       <c r="H113" t="n">
-        <v>1.281397461891174</v>
+        <v>6.439414501190186</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.02741079963743687</v>
+        <v>0.1115850609540939</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01696382462978363</v>
+        <v>0.1394151520729065</v>
       </c>
       <c r="C114" t="n">
-        <v>0.345963329076767</v>
+        <v>38.3027458190918</v>
       </c>
       <c r="D114" t="n">
-        <v>-6.839223384857178</v>
+        <v>27.9887580871582</v>
       </c>
       <c r="E114" t="n">
-        <v>0.7242223620414734</v>
+        <v>-1.180933952331543</v>
       </c>
       <c r="F114" t="n">
-        <v>1.067217707633972</v>
+        <v>36.56851959228516</v>
       </c>
       <c r="G114" t="n">
-        <v>-6.522006511688232</v>
+        <v>33.67496871948242</v>
       </c>
       <c r="H114" t="n">
-        <v>0.9172104597091675</v>
+        <v>6.648674488067627</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.02305573597550392</v>
+        <v>0.1060506726801395</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01419171318411827</v>
+        <v>0.1485396620631218</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4696315228939056</v>
+        <v>38.49203491210938</v>
       </c>
       <c r="D115" t="n">
-        <v>-6.969512462615967</v>
+        <v>29.00176620483398</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4300453066825867</v>
+        <v>0.05394119769334793</v>
       </c>
       <c r="F115" t="n">
-        <v>1.149350643157959</v>
+        <v>36.00287628173828</v>
       </c>
       <c r="G115" t="n">
-        <v>-6.779355525970459</v>
+        <v>32.63547134399414</v>
       </c>
       <c r="H115" t="n">
-        <v>0.6276690363883972</v>
+        <v>7.227359294891357</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.02554108016192913</v>
+        <v>0.104669553488493</v>
       </c>
       <c r="B116" t="n">
-        <v>0.01811392977833748</v>
+        <v>0.1568039163947106</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3990566432476044</v>
+        <v>38.53927230834961</v>
       </c>
       <c r="D116" t="n">
-        <v>-7.081201076507568</v>
+        <v>29.98225593566895</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3587879538536072</v>
+        <v>1.276895046234131</v>
       </c>
       <c r="F116" t="n">
-        <v>1.03314197063446</v>
+        <v>35.49056243896484</v>
       </c>
       <c r="G116" t="n">
-        <v>-7.010570526123047</v>
+        <v>32.98052597045898</v>
       </c>
       <c r="H116" t="n">
-        <v>0.517560601234436</v>
+        <v>8.066035270690918</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.03658177331089973</v>
+        <v>0.1115362142026425</v>
       </c>
       <c r="B117" t="n">
-        <v>0.02999028563499451</v>
+        <v>0.1664958700537682</v>
       </c>
       <c r="C117" t="n">
-        <v>0.08554056286811829</v>
+        <v>38.30441665649414</v>
       </c>
       <c r="D117" t="n">
-        <v>-7.207021713256836</v>
+        <v>30.71075439453125</v>
       </c>
       <c r="E117" t="n">
-        <v>0.531721830368042</v>
+        <v>2.344051837921143</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6812657117843628</v>
+        <v>34.88974380493164</v>
       </c>
       <c r="G117" t="n">
-        <v>-7.228720664978027</v>
+        <v>33.51961898803711</v>
       </c>
       <c r="H117" t="n">
-        <v>0.6225721836090088</v>
+        <v>9.041561126708984</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.05539675801992416</v>
+        <v>0.1279575996100903</v>
       </c>
       <c r="B118" t="n">
-        <v>0.04878493398427963</v>
+        <v>0.1791556844115257</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.4487377107143402</v>
+        <v>37.74276733398438</v>
       </c>
       <c r="D118" t="n">
-        <v>-7.364531517028809</v>
+        <v>31.14183044433594</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9072818160057068</v>
+        <v>3.188543796539307</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1244120746850967</v>
+        <v>34.10494232177734</v>
       </c>
       <c r="G118" t="n">
-        <v>-7.441247940063477</v>
+        <v>34.11400985717773</v>
       </c>
       <c r="H118" t="n">
-        <v>0.9197866320610046</v>
+        <v>10.04634189605713</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.07959482818841934</v>
+        <v>0.1530329629778862</v>
       </c>
       <c r="B119" t="n">
-        <v>0.07208157330751419</v>
+        <v>0.1954428577423096</v>
       </c>
       <c r="C119" t="n">
-        <v>-1.135876178741455</v>
+        <v>36.8851318359375</v>
       </c>
       <c r="D119" t="n">
-        <v>-7.555196285247803</v>
+        <v>31.33683395385742</v>
       </c>
       <c r="E119" t="n">
-        <v>1.412687063217163</v>
+        <v>3.81869649887085</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.5658277869224548</v>
+        <v>33.09527587890625</v>
       </c>
       <c r="G119" t="n">
-        <v>-7.649989128112793</v>
+        <v>34.66977691650391</v>
       </c>
       <c r="H119" t="n">
-        <v>1.3537677526474</v>
+        <v>11.01436710357666</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.106387160718441</v>
+        <v>0.1846434056758881</v>
       </c>
       <c r="B120" t="n">
-        <v>0.09724248945713043</v>
+        <v>0.2156603425741196</v>
       </c>
       <c r="C120" t="n">
-        <v>-1.896682620048523</v>
+        <v>35.80398178100586</v>
       </c>
       <c r="D120" t="n">
-        <v>-7.769854068756104</v>
+        <v>31.39979934692383</v>
       </c>
       <c r="E120" t="n">
-        <v>1.975218176841736</v>
+        <v>4.310899257659912</v>
       </c>
       <c r="F120" t="n">
-        <v>-1.311303019523621</v>
+        <v>31.84196281433105</v>
       </c>
       <c r="G120" t="n">
-        <v>-7.853855609893799</v>
+        <v>35.12022399902344</v>
       </c>
       <c r="H120" t="n">
-        <v>1.864596605300903</v>
+        <v>11.90528774261475</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.1336075961589813</v>
+        <v>0.2202199676632881</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1223412826657295</v>
+        <v>0.2395036700367928</v>
       </c>
       <c r="C121" t="n">
-        <v>-2.669645547866821</v>
+        <v>34.58718109130859</v>
       </c>
       <c r="D121" t="n">
-        <v>-7.998440742492676</v>
+        <v>31.44685745239258</v>
       </c>
       <c r="E121" t="n">
-        <v>2.544201850891113</v>
+        <v>4.776294231414795</v>
       </c>
       <c r="F121" t="n">
-        <v>-2.054938077926636</v>
+        <v>30.36387825012207</v>
       </c>
       <c r="G121" t="n">
-        <v>-8.054459571838379</v>
+        <v>35.45491027832031</v>
       </c>
       <c r="H121" t="n">
-        <v>2.408979177474976</v>
+        <v>12.70084857940674</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.1602718383073807</v>
+        <v>0.2583247616887093</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1466497480869293</v>
+        <v>0.2666832345724106</v>
       </c>
       <c r="C122" t="n">
-        <v>-3.426815032958984</v>
+        <v>33.28390884399414</v>
       </c>
       <c r="D122" t="n">
-        <v>-8.238263130187988</v>
+        <v>31.58836936950684</v>
       </c>
       <c r="E122" t="n">
-        <v>3.100449562072754</v>
+        <v>5.322091579437256</v>
       </c>
       <c r="F122" t="n">
-        <v>-2.77515721321106</v>
+        <v>28.67897605895996</v>
       </c>
       <c r="G122" t="n">
-        <v>-8.261138916015625</v>
+        <v>35.69740676879883</v>
       </c>
       <c r="H122" t="n">
-        <v>2.970296859741211</v>
+        <v>13.39906215667725</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.1866467893123627</v>
+        <v>0.2980171817541122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1706673353910446</v>
+        <v>0.2966147547960282</v>
       </c>
       <c r="C123" t="n">
-        <v>-4.175768852233887</v>
+        <v>31.92633628845215</v>
       </c>
       <c r="D123" t="n">
-        <v>-8.496195793151855</v>
+        <v>31.92962455749512</v>
       </c>
       <c r="E123" t="n">
-        <v>3.653791189193726</v>
+        <v>6.007729053497314</v>
       </c>
       <c r="F123" t="n">
-        <v>-3.486757516860962</v>
+        <v>26.8234748840332</v>
       </c>
       <c r="G123" t="n">
-        <v>-8.491327285766602</v>
+        <v>35.89969253540039</v>
       </c>
       <c r="H123" t="n">
-        <v>3.557348251342773</v>
+        <v>14.00381183624268</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.2139382213354111</v>
+        <v>0.3382488667964936</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1957919150590897</v>
+        <v>0.3282251816987992</v>
       </c>
       <c r="C124" t="n">
-        <v>-4.950747966766357</v>
+        <v>30.55031967163086</v>
       </c>
       <c r="D124" t="n">
-        <v>-8.784115791320801</v>
+        <v>32.52770614624023</v>
       </c>
       <c r="E124" t="n">
-        <v>4.232066631317139</v>
+        <v>6.833627223968506</v>
       </c>
       <c r="F124" t="n">
-        <v>-4.231156349182129</v>
+        <v>24.86389541625977</v>
       </c>
       <c r="G124" t="n">
-        <v>-8.765058517456055</v>
+        <v>36.11163330078125</v>
       </c>
       <c r="H124" t="n">
-        <v>4.194724082946777</v>
+        <v>14.53803157806396</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.2437455207109451</v>
+        <v>0.3773263943195343</v>
       </c>
       <c r="B125" t="n">
-        <v>0.2237656712532043</v>
+        <v>0.3597245049476624</v>
       </c>
       <c r="C125" t="n">
-        <v>-5.797168254852295</v>
+        <v>29.21377754211426</v>
       </c>
       <c r="D125" t="n">
-        <v>-9.110260009765625</v>
+        <v>33.37796020507812</v>
       </c>
       <c r="E125" t="n">
-        <v>4.866171360015869</v>
+        <v>7.804665088653564</v>
       </c>
       <c r="F125" t="n">
-        <v>-5.059970855712891</v>
+        <v>22.91120338439941</v>
       </c>
       <c r="G125" t="n">
-        <v>-9.095691680908203</v>
+        <v>36.38116455078125</v>
       </c>
       <c r="H125" t="n">
-        <v>4.90930700302124</v>
+        <v>15.09464359283447</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.2774177193641663</v>
+        <v>0.4127048683166504</v>
       </c>
       <c r="B126" t="n">
-        <v>0.2560261189937592</v>
+        <v>0.3887787580490112</v>
       </c>
       <c r="C126" t="n">
-        <v>-6.75333833694458</v>
+        <v>28.00375175476074</v>
       </c>
       <c r="D126" t="n">
-        <v>-9.469966888427734</v>
+        <v>34.42793655395508</v>
       </c>
       <c r="E126" t="n">
-        <v>5.574713230133057</v>
+        <v>8.966659545898438</v>
       </c>
       <c r="F126" t="n">
-        <v>-6.015793800354004</v>
+        <v>21.11008644104004</v>
       </c>
       <c r="G126" t="n">
-        <v>-9.480293273925781</v>
+        <v>36.74885940551758</v>
       </c>
       <c r="H126" t="n">
-        <v>5.71633243560791</v>
+        <v>15.76466846466064</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.3154394030570984</v>
+        <v>0.4416868108510971</v>
       </c>
       <c r="B127" t="n">
-        <v>0.2930976748466492</v>
+        <v>0.4131776827573777</v>
       </c>
       <c r="C127" t="n">
-        <v>-7.83301830291748</v>
+        <v>27.01250267028809</v>
       </c>
       <c r="D127" t="n">
-        <v>-9.838425636291504</v>
+        <v>35.63550567626953</v>
       </c>
       <c r="E127" t="n">
-        <v>6.350045204162598</v>
+        <v>10.34986686706543</v>
       </c>
       <c r="F127" t="n">
-        <v>-7.114160537719727</v>
+        <v>19.59755897521973</v>
       </c>
       <c r="G127" t="n">
-        <v>-9.892644882202148</v>
+        <v>37.24657440185547</v>
       </c>
       <c r="H127" t="n">
-        <v>6.606550693511963</v>
+        <v>16.53284454345703</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.3570118844509125</v>
+        <v>0.4626931095123291</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3342031836509705</v>
+        <v>0.4318285965919495</v>
       </c>
       <c r="C128" t="n">
-        <v>-9.013527870178223</v>
+        <v>26.29403877258301</v>
       </c>
       <c r="D128" t="n">
-        <v>-10.16694355010986</v>
+        <v>36.98601150512695</v>
       </c>
       <c r="E128" t="n">
-        <v>7.147645950317383</v>
+        <v>11.8892650604248</v>
       </c>
       <c r="F128" t="n">
-        <v>-8.332047462463379</v>
+        <v>18.44136047363281</v>
       </c>
       <c r="G128" t="n">
-        <v>-10.28074264526367</v>
+        <v>37.85550689697266</v>
       </c>
       <c r="H128" t="n">
-        <v>7.536040306091309</v>
+        <v>17.22066307067871</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.4000151753425598</v>
+        <v>0.4770347684621811</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3772865235805511</v>
+        <v>0.4456719791889191</v>
       </c>
       <c r="C129" t="n">
-        <v>-10.23466777801514</v>
+        <v>25.80352020263672</v>
       </c>
       <c r="D129" t="n">
-        <v>-10.3840799331665</v>
+        <v>38.42646026611328</v>
       </c>
       <c r="E129" t="n">
-        <v>7.882603168487549</v>
+        <v>13.39275741577148</v>
       </c>
       <c r="F129" t="n">
-        <v>-9.608534812927246</v>
+        <v>17.58318710327148</v>
       </c>
       <c r="G129" t="n">
-        <v>-10.57010173797607</v>
+        <v>38.45562362670898</v>
       </c>
       <c r="H129" t="n">
-        <v>8.422142028808594</v>
+        <v>17.53258514404297</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.4413975775241852</v>
+        <v>0.488632858991623</v>
       </c>
       <c r="B130" t="n">
-        <v>0.419484943151474</v>
+        <v>0.4572761034965515</v>
       </c>
       <c r="C130" t="n">
-        <v>-11.40977954864502</v>
+        <v>25.40683937072754</v>
       </c>
       <c r="D130" t="n">
-        <v>-10.40202808380127</v>
+        <v>39.8267707824707</v>
       </c>
       <c r="E130" t="n">
-        <v>8.435529708862305</v>
+        <v>14.60582160949707</v>
       </c>
       <c r="F130" t="n">
-        <v>-10.85880184173584</v>
+        <v>16.86383056640625</v>
       </c>
       <c r="G130" t="n">
-        <v>-10.67241191864014</v>
+        <v>38.84739303588867</v>
       </c>
       <c r="H130" t="n">
-        <v>9.148026466369629</v>
+        <v>17.13268852233887</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.4777785837650299</v>
+        <v>0.5012786155939103</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4578032195568085</v>
+        <v>0.4691411650180817</v>
       </c>
       <c r="C131" t="n">
-        <v>-12.44287014007568</v>
+        <v>24.97432518005371</v>
       </c>
       <c r="D131" t="n">
-        <v>-10.12532424926758</v>
+        <v>41.02965927124023</v>
       </c>
       <c r="E131" t="n">
-        <v>8.663702011108398</v>
+        <v>15.21234893798828</v>
       </c>
       <c r="F131" t="n">
-        <v>-11.99410724639893</v>
+        <v>16.1282958984375</v>
       </c>
       <c r="G131" t="n">
-        <v>-10.49554443359375</v>
+        <v>38.88283157348633</v>
       </c>
       <c r="H131" t="n">
-        <v>9.572478294372559</v>
+        <v>14.78842067718506</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.5058806538581848</v>
+        <v>0.5149897921085358</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4895668923854828</v>
+        <v>0.4816915816068649</v>
       </c>
       <c r="C132" t="n">
-        <v>-13.24086761474609</v>
+        <v>24.50537109375</v>
       </c>
       <c r="D132" t="n">
-        <v>-9.45525074005127</v>
+        <v>41.96185684204102</v>
       </c>
       <c r="E132" t="n">
-        <v>8.405625343322754</v>
+        <v>14.91095733642578</v>
       </c>
       <c r="F132" t="n">
-        <v>-12.93521118164062</v>
+        <v>15.35027694702148</v>
       </c>
       <c r="G132" t="n">
-        <v>-9.947530746459961</v>
+        <v>38.56470108032227</v>
       </c>
       <c r="H132" t="n">
-        <v>9.533549308776855</v>
+        <v>12.72146701812744</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.5224609375</v>
+        <v>0.5252678751945495</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5122929215431213</v>
+        <v>0.4926181852817536</v>
       </c>
       <c r="C133" t="n">
-        <v>-13.71168804168701</v>
+        <v>24.15383720397949</v>
       </c>
       <c r="D133" t="n">
-        <v>-8.282270431518555</v>
+        <v>42.69589233398438</v>
       </c>
       <c r="E133" t="n">
-        <v>7.463363170623779</v>
+        <v>12.17445087432861</v>
       </c>
       <c r="F133" t="n">
-        <v>-13.60854625701904</v>
+        <v>14.6729211807251</v>
       </c>
       <c r="G133" t="n">
-        <v>-8.926346778869629</v>
+        <v>38.07440185546875</v>
       </c>
       <c r="H133" t="n">
-        <v>8.829460144042969</v>
+        <v>9.720091819763184</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.5236802101135254</v>
+        <v>0.5258021646738053</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5228067636489868</v>
+        <v>0.4980570203065872</v>
       </c>
       <c r="C134" t="n">
-        <v>-13.74631214141846</v>
+        <v>24.13556289672852</v>
       </c>
       <c r="D134" t="n">
-        <v>-6.466779232025146</v>
+        <v>43.41272354125977</v>
       </c>
       <c r="E134" t="n">
-        <v>5.555723667144775</v>
+        <v>9.493135452270508</v>
       </c>
       <c r="F134" t="n">
-        <v>-13.92005348205566</v>
+        <v>14.33575916290283</v>
       </c>
       <c r="G134" t="n">
-        <v>-7.291911125183105</v>
+        <v>37.72161865234375</v>
       </c>
       <c r="H134" t="n">
-        <v>7.16407299041748</v>
+        <v>5.871572971343994</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.5045413970947266</v>
+        <v>0.5110319179296494</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5158849358558655</v>
+        <v>0.4933914250135422</v>
       </c>
       <c r="C135" t="n">
-        <v>-13.20283699035645</v>
+        <v>24.64073944091797</v>
       </c>
       <c r="D135" t="n">
-        <v>-3.85003137588501</v>
+        <v>44.34675598144531</v>
       </c>
       <c r="E135" t="n">
-        <v>2.314926147460938</v>
+        <v>5.602034568786621</v>
       </c>
       <c r="F135" t="n">
-        <v>-13.71497058868408</v>
+        <v>14.62498664855957</v>
       </c>
       <c r="G135" t="n">
-        <v>-4.850335597991943</v>
+        <v>37.91869354248047</v>
       </c>
       <c r="H135" t="n">
-        <v>4.11430549621582</v>
+        <v>1.487297177314758</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.4606391787528992</v>
+        <v>0.4794544398784638</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5571320275818528</v>
+        <v>0.5449793077921545</v>
       </c>
       <c r="C136" t="n">
-        <v>-11.95617198944092</v>
+        <v>25.72076225280762</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.4157851338386536</v>
+        <v>45.61058044433594</v>
       </c>
       <c r="E136" t="n">
-        <v>-2.343788146972656</v>
+        <v>0.9347224235534668</v>
       </c>
       <c r="F136" t="n">
-        <v>-12.79526329040527</v>
+        <v>15.70123767852783</v>
       </c>
       <c r="G136" t="n">
-        <v>-1.482052683830261</v>
+        <v>39.96746444702148</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.5536235570907593</v>
+        <v>-2.87580943107605</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.600150488560403</v>
+        <v>0.5760891977791277</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6425327202872549</v>
+        <v>0.6176398890781203</v>
       </c>
       <c r="C137" t="n">
-        <v>-10.03290462493896</v>
+        <v>28.4266357421875</v>
       </c>
       <c r="D137" t="n">
-        <v>3.478383302688599</v>
+        <v>48.29476928710938</v>
       </c>
       <c r="E137" t="n">
-        <v>-7.414605617523193</v>
+        <v>-3.689325571060181</v>
       </c>
       <c r="F137" t="n">
-        <v>-11.10507774353027</v>
+        <v>18.91623687744141</v>
       </c>
       <c r="G137" t="n">
-        <v>2.558619260787964</v>
+        <v>41.99040222167969</v>
       </c>
       <c r="H137" t="n">
-        <v>-6.034250736236572</v>
+        <v>-6.617526054382324</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.7681659824791234</v>
+        <v>0.7048051504457882</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7637237422694557</v>
+        <v>0.7092834890136869</v>
       </c>
       <c r="C138" t="n">
-        <v>-7.601765632629395</v>
+        <v>30.25098419189453</v>
       </c>
       <c r="D138" t="n">
-        <v>7.259944438934326</v>
+        <v>50.09042358398438</v>
       </c>
       <c r="E138" t="n">
-        <v>-11.12345886230469</v>
+        <v>-7.402929306030273</v>
       </c>
       <c r="F138" t="n">
-        <v>-8.80943489074707</v>
+        <v>21.15337562561035</v>
       </c>
       <c r="G138" t="n">
-        <v>6.678680419921875</v>
+        <v>44.85210418701172</v>
       </c>
       <c r="H138" t="n">
-        <v>-10.55790233612061</v>
+        <v>-9.456089019775391</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.9076286308895493</v>
+        <v>0.83643929841131</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8840934444833204</v>
+        <v>0.8069243959871082</v>
       </c>
       <c r="C139" t="n">
-        <v>-4.872193336486816</v>
+        <v>32.66283416748047</v>
       </c>
       <c r="D139" t="n">
-        <v>10.47170066833496</v>
+        <v>52.45749664306641</v>
       </c>
       <c r="E139" t="n">
-        <v>-12.47642612457275</v>
+        <v>-9.680681228637695</v>
       </c>
       <c r="F139" t="n">
-        <v>-6.133362770080566</v>
+        <v>24.05671691894531</v>
       </c>
       <c r="G139" t="n">
-        <v>10.28917026519775</v>
+        <v>48.25332641601562</v>
       </c>
       <c r="H139" t="n">
-        <v>-12.85793209075928</v>
+        <v>-11.3074951171875</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9799746873576699</v>
+        <v>0.9364376694438381</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9635514729427863</v>
+        <v>0.8927477711815585</v>
       </c>
       <c r="C140" t="n">
-        <v>-2.138399839401245</v>
+        <v>35.53620147705078</v>
       </c>
       <c r="D140" t="n">
-        <v>12.83631992340088</v>
+        <v>55.13579177856445</v>
       </c>
       <c r="E140" t="n">
-        <v>-11.70037174224854</v>
+        <v>-9.680681228637695</v>
       </c>
       <c r="F140" t="n">
-        <v>-3.368213891983032</v>
+        <v>27.46902275085449</v>
       </c>
       <c r="G140" t="n">
-        <v>12.97514343261719</v>
+        <v>51.85108947753906</v>
       </c>
       <c r="H140" t="n">
-        <v>-12.89194107055664</v>
+        <v>-11.3074951171875</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.9988524000221222</v>
+        <v>0.9869923066272474</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9943865816546602</v>
+        <v>0.9532225364718051</v>
       </c>
       <c r="C141" t="n">
-        <v>0.261848658323288</v>
+        <v>38.76055145263672</v>
       </c>
       <c r="D141" t="n">
-        <v>14.15918254852295</v>
+        <v>57.75909423828125</v>
       </c>
       <c r="E141" t="n">
-        <v>-9.624062538146973</v>
+        <v>-11.31614398956299</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.8485839366912842</v>
+        <v>31.31555557250977</v>
       </c>
       <c r="G141" t="n">
-        <v>14.53035354614258</v>
+        <v>55.41913604736328</v>
       </c>
       <c r="H141" t="n">
-        <v>-11.39008331298828</v>
+        <v>-11.51658058166504</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.000073363460922</v>
+        <v>0.9999036209340534</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9998616787549123</v>
+        <v>0.9856929233678223</v>
       </c>
       <c r="C142" t="n">
-        <v>2.086450815200806</v>
+        <v>42.18586730957031</v>
       </c>
       <c r="D142" t="n">
-        <v>14.35662937164307</v>
+        <v>59.92364501953125</v>
       </c>
       <c r="E142" t="n">
-        <v>-7.062360286712646</v>
+        <v>-8.612489700317383</v>
       </c>
       <c r="F142" t="n">
-        <v>1.182886600494385</v>
+        <v>35.50888824462891</v>
       </c>
       <c r="G142" t="n">
-        <v>14.9587926864624</v>
+        <v>58.88460540771484</v>
       </c>
       <c r="H142" t="n">
-        <v>-9.169887542724609</v>
+        <v>-9.142354011535645</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.9999895400461197</v>
+        <v>1.000018566151005</v>
       </c>
       <c r="B143" t="n">
-        <v>1.000009526217531</v>
+        <v>0.9976011422931577</v>
       </c>
       <c r="C143" t="n">
-        <v>3.270132780075073</v>
+        <v>45.63383102416992</v>
       </c>
       <c r="D143" t="n">
-        <v>13.53975391387939</v>
+        <v>61.35937118530273</v>
       </c>
       <c r="E143" t="n">
-        <v>-4.546139240264893</v>
+        <v>-6.923283576965332</v>
       </c>
       <c r="F143" t="n">
-        <v>2.651296615600586</v>
+        <v>39.91482543945312</v>
       </c>
       <c r="G143" t="n">
-        <v>14.44189739227295</v>
+        <v>62.24411773681641</v>
       </c>
       <c r="H143" t="n">
-        <v>-6.787211418151855</v>
+        <v>-6.113265037536621</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.000001930090014</v>
+        <v>0.9999928688293015</v>
       </c>
       <c r="B144" t="n">
-        <v>0.9999987541104443</v>
+        <v>0.999934995674161</v>
       </c>
       <c r="C144" t="n">
-        <v>3.901404619216919</v>
+        <v>48.93402481079102</v>
       </c>
       <c r="D144" t="n">
-        <v>11.97096061706543</v>
+        <v>61.35937118530273</v>
       </c>
       <c r="E144" t="n">
-        <v>-2.336395263671875</v>
+        <v>-5.220505714416504</v>
       </c>
       <c r="F144" t="n">
-        <v>3.623549461364746</v>
+        <v>44.36084747314453</v>
       </c>
       <c r="G144" t="n">
-        <v>13.24433040618896</v>
+        <v>65.37291717529297</v>
       </c>
       <c r="H144" t="n">
-        <v>-4.528523445129395</v>
+        <v>-3.182397842407227</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.9999996111230596</v>
+        <v>1.000003979198543</v>
       </c>
       <c r="B145" t="n">
-        <v>1.000000212531359</v>
+        <v>1.000007114230786</v>
       </c>
       <c r="C145" t="n">
-        <v>4.15664529800415</v>
+        <v>51.91138458251953</v>
       </c>
       <c r="D145" t="n">
-        <v>9.957650184631348</v>
+        <v>62.53805541992188</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.5355461239814758</v>
+        <v>-4.015227317810059</v>
       </c>
       <c r="F145" t="n">
-        <v>4.248539924621582</v>
+        <v>48.62744903564453</v>
       </c>
       <c r="G145" t="n">
-        <v>11.62795543670654</v>
+        <v>67.88470458984375</v>
       </c>
       <c r="H145" t="n">
-        <v>-2.525672197341919</v>
+        <v>-0.8499737977981567</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.000000080592646</v>
+        <v>0.999997196895957</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9999999575241084</v>
+        <v>0.9999983363991241</v>
       </c>
       <c r="C146" t="n">
-        <v>4.24338436126709</v>
+        <v>54.37298202514648</v>
       </c>
       <c r="D146" t="n">
-        <v>7.775743961334229</v>
+        <v>59.94406127929688</v>
       </c>
       <c r="E146" t="n">
-        <v>0.823750913143158</v>
+        <v>-4.015227317810059</v>
       </c>
       <c r="F146" t="n">
-        <v>4.708182811737061</v>
+        <v>52.43926239013672</v>
       </c>
       <c r="G146" t="n">
-        <v>9.809938430786133</v>
+        <v>69.13763427734375</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.8481401205062866</v>
+        <v>0.6488073468208313</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.9999999826391686</v>
+        <v>1.000002275511059</v>
       </c>
       <c r="B147" t="n">
-        <v>1.000000009781129</v>
+        <v>1.000000558997644</v>
       </c>
       <c r="C147" t="n">
-        <v>4.36634349822998</v>
+        <v>56.0783805847168</v>
       </c>
       <c r="D147" t="n">
-        <v>5.634027481079102</v>
+        <v>57.2330322265625</v>
       </c>
       <c r="E147" t="n">
-        <v>1.73253071308136</v>
+        <v>-4.928716659545898</v>
       </c>
       <c r="F147" t="n">
-        <v>5.18583345413208</v>
+        <v>55.45969772338867</v>
       </c>
       <c r="G147" t="n">
-        <v>7.948620796203613</v>
+        <v>69.13763427734375</v>
       </c>
       <c r="H147" t="n">
-        <v>0.4533257186412811</v>
+        <v>0.6488073468208313</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.000000004140791</v>
+        <v>0.9999980336266839</v>
       </c>
       <c r="B148" t="n">
-        <v>0.9999999973334078</v>
+        <v>0.999999774242764</v>
       </c>
       <c r="C148" t="n">
-        <v>4.713983535766602</v>
+        <v>56.0783805847168</v>
       </c>
       <c r="D148" t="n">
-        <v>3.662952661514282</v>
+        <v>53.1025390625</v>
       </c>
       <c r="E148" t="n">
-        <v>2.184649705886841</v>
+        <v>-8.31987190246582</v>
       </c>
       <c r="F148" t="n">
-        <v>5.850876808166504</v>
+        <v>57.30176544189453</v>
       </c>
       <c r="G148" t="n">
-        <v>6.139573574066162</v>
+        <v>64.90144348144531</v>
       </c>
       <c r="H148" t="n">
-        <v>1.330673456192017</v>
+        <v>0.3830208480358124</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.9999999988086351</v>
+        <v>1.000001659972751</v>
       </c>
       <c r="B149" t="n">
-        <v>1.000000000896816</v>
+        <v>1.000000095734897</v>
       </c>
       <c r="C149" t="n">
-        <v>5.454461574554443</v>
+        <v>57.42185211181641</v>
       </c>
       <c r="D149" t="n">
-        <v>1.916059732437134</v>
+        <v>48.06329345703125</v>
       </c>
       <c r="E149" t="n">
-        <v>2.166601896286011</v>
+        <v>-13.35678863525391</v>
       </c>
       <c r="F149" t="n">
-        <v>6.850987911224365</v>
+        <v>57.30176544189453</v>
       </c>
       <c r="G149" t="n">
-        <v>4.415317535400391</v>
+        <v>59.9478759765625</v>
       </c>
       <c r="H149" t="n">
-        <v>1.732252240180969</v>
+        <v>-2.107933759689331</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1.000000000441789</v>
+        <v>0.9999987319009278</v>
       </c>
       <c r="B150" t="n">
-        <v>0.9999999996169883</v>
+        <v>0.9999999626255275</v>
       </c>
       <c r="C150" t="n">
-        <v>6.705297470092773</v>
+        <v>55.96710205078125</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3873674869537354</v>
+        <v>43.0134391784668</v>
       </c>
       <c r="E150" t="n">
-        <v>1.666058301925659</v>
+        <v>-18.44105911254883</v>
       </c>
       <c r="F150" t="n">
-        <v>8.27625846862793</v>
+        <v>56.91451263427734</v>
       </c>
       <c r="G150" t="n">
-        <v>2.759047031402588</v>
+        <v>54.25802612304688</v>
       </c>
       <c r="H150" t="n">
-        <v>1.61328387260437</v>
+        <v>-5.055687427520752</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.9999999997858801</v>
+        <v>1.000000830041822</v>
       </c>
       <c r="B151" t="n">
-        <v>1.000000000206626</v>
+        <v>1.00000001203543</v>
       </c>
       <c r="C151" t="n">
-        <v>8.41860294342041</v>
+        <v>52.94081878662109</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.9247955679893494</v>
+        <v>38.78822326660156</v>
       </c>
       <c r="E151" t="n">
-        <v>0.7315009236335754</v>
+        <v>-21.3055305480957</v>
       </c>
       <c r="F151" t="n">
-        <v>10.04124736785889</v>
+        <v>55.0870361328125</v>
       </c>
       <c r="G151" t="n">
-        <v>1.172276854515076</v>
+        <v>49.24484252929688</v>
       </c>
       <c r="H151" t="n">
-        <v>0.9973114728927612</v>
+        <v>-6.652844429016113</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.000000000129668</v>
+        <v>0.9999995522709564</v>
       </c>
       <c r="B152" t="n">
-        <v>0.9999999998659549</v>
+        <v>0.9999999970517285</v>
       </c>
       <c r="C152" t="n">
-        <v>10.23843193054199</v>
+        <v>51.37264251708984</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.925260066986084</v>
+        <v>35.95040130615234</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.4378564655780792</v>
+        <v>-21.3055305480957</v>
       </c>
       <c r="F152" t="n">
-        <v>11.75686931610107</v>
+        <v>52.94691467285156</v>
       </c>
       <c r="G152" t="n">
-        <v>-0.2178139835596085</v>
+        <v>45.74229049682617</v>
       </c>
       <c r="H152" t="n">
-        <v>0.07131034135818481</v>
+        <v>-5.569947242736816</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.9999999999103941</v>
+        <v>1.000000189820151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.000000000095717</v>
+        <v>1.000000000502129</v>
       </c>
       <c r="C153" t="n">
-        <v>11.52460479736328</v>
+        <v>49.71432495117188</v>
       </c>
       <c r="D153" t="n">
-        <v>-2.448476076126099</v>
+        <v>34.65214157104492</v>
       </c>
       <c r="E153" t="n">
-        <v>-1.459368109703064</v>
+        <v>-16.29230499267578</v>
       </c>
       <c r="F153" t="n">
-        <v>12.78282833099365</v>
+        <v>50.81251525878906</v>
       </c>
       <c r="G153" t="n">
-        <v>-1.175461411476135</v>
+        <v>43.8771858215332</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.7807612419128418</v>
+        <v>-2.244497299194336</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.000000000062418</v>
+        <v>0.9999999378326022</v>
       </c>
       <c r="B154" t="n">
-        <v>0.9999999999333795</v>
+        <v>0.9999999999470135</v>
       </c>
       <c r="C154" t="n">
-        <v>11.60805606842041</v>
+        <v>44.903564453125</v>
       </c>
       <c r="D154" t="n">
-        <v>-2.500550508499146</v>
+        <v>32.38821411132812</v>
       </c>
       <c r="E154" t="n">
-        <v>-1.855438351631165</v>
+        <v>-14.31203842163086</v>
       </c>
       <c r="F154" t="n">
-        <v>12.49933624267578</v>
+        <v>46.52704620361328</v>
       </c>
       <c r="G154" t="n">
-        <v>-1.606714725494385</v>
+        <v>40.01156997680664</v>
       </c>
       <c r="H154" t="n">
-        <v>-1.077821969985962</v>
+        <v>-3.364539384841919</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.01110648177564144</v>
+        <v>0.05924783594906331</v>
       </c>
       <c r="B155" t="n">
-        <v>0.01050794776529074</v>
+        <v>0.04790172278881073</v>
       </c>
       <c r="C155" t="n">
-        <v>0.8089476227760315</v>
+        <v>44.903564453125</v>
       </c>
       <c r="D155" t="n">
-        <v>-2.243081331253052</v>
+        <v>32.38821411132812</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.6207022070884705</v>
+        <v>-10.72183609008789</v>
       </c>
       <c r="F155" t="n">
-        <v>1.25849437713623</v>
+        <v>46.52704620361328</v>
       </c>
       <c r="G155" t="n">
-        <v>-2.054357051849365</v>
+        <v>41.19660568237305</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.596960723400116</v>
+        <v>-0.004497289657592773</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.01890979148447514</v>
+        <v>-0.06415786638855935</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.02045317739248276</v>
+        <v>-0.04281726956367493</v>
       </c>
       <c r="C156" t="n">
-        <v>1.661302328109741</v>
+        <v>44.31356048583984</v>
       </c>
       <c r="D156" t="n">
-        <v>-2.769000291824341</v>
+        <v>33.41302871704102</v>
       </c>
       <c r="E156" t="n">
-        <v>-1.147426128387451</v>
+        <v>-7.458189964294434</v>
       </c>
       <c r="F156" t="n">
-        <v>2.175820112228394</v>
+        <v>47.86538696289062</v>
       </c>
       <c r="G156" t="n">
-        <v>-2.55139684677124</v>
+        <v>41.19660568237305</v>
       </c>
       <c r="H156" t="n">
-        <v>-1.146597504615784</v>
+        <v>4.289125919342041</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-0.04199057817459106</v>
+        <v>-0.03695622801780701</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.04423113912343979</v>
+        <v>-0.02340100966393948</v>
       </c>
       <c r="C157" t="n">
-        <v>2.31671404838562</v>
+        <v>43.38320159912109</v>
       </c>
       <c r="D157" t="n">
-        <v>-3.227049350738525</v>
+        <v>33.16713333129883</v>
       </c>
       <c r="E157" t="n">
-        <v>-1.388184905052185</v>
+        <v>-5.623668670654297</v>
       </c>
       <c r="F157" t="n">
-        <v>2.88032078742981</v>
+        <v>46.6617431640625</v>
       </c>
       <c r="G157" t="n">
-        <v>-3.002376079559326</v>
+        <v>42.93289947509766</v>
       </c>
       <c r="H157" t="n">
-        <v>-1.44908332824707</v>
+        <v>7.054967880249023</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-0.05048779398202896</v>
+        <v>-0.02704114105552435</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.0535813495516777</v>
+        <v>0.001575131271965802</v>
       </c>
       <c r="C158" t="n">
-        <v>2.55800461769104</v>
+        <v>43.04408264160156</v>
       </c>
       <c r="D158" t="n">
-        <v>-3.672036409378052</v>
+        <v>32.81269454956055</v>
       </c>
       <c r="E158" t="n">
-        <v>-1.186221361160278</v>
+        <v>-5.623668670654297</v>
       </c>
       <c r="F158" t="n">
-        <v>3.157351732254028</v>
+        <v>45.11343383789062</v>
       </c>
       <c r="G158" t="n">
-        <v>-3.433475017547607</v>
+        <v>43.00067901611328</v>
       </c>
       <c r="H158" t="n">
-        <v>-1.332189321517944</v>
+        <v>7.054967880249023</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-0.04174550622701645</v>
+        <v>-0.004941817848011852</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.04631850123405457</v>
+        <v>0.02057054772973061</v>
       </c>
       <c r="C159" t="n">
-        <v>2.309754848480225</v>
+        <v>42.28823471069336</v>
       </c>
       <c r="D159" t="n">
-        <v>-4.199562549591064</v>
+        <v>31.99065017700195</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.5778837203979492</v>
+        <v>-3.948757410049438</v>
       </c>
       <c r="F159" t="n">
-        <v>2.942165851593018</v>
+        <v>43.93587875366211</v>
       </c>
       <c r="G159" t="n">
-        <v>-3.915314197540283</v>
+        <v>42.33674240112305</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.8051259517669678</v>
+        <v>8.933563232421875</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-0.01910872757434845</v>
+        <v>0.0298450867459178</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.02599377743899822</v>
+        <v>0.0396882975101471</v>
       </c>
       <c r="C160" t="n">
-        <v>1.666951417922974</v>
+        <v>41.09844207763672</v>
       </c>
       <c r="D160" t="n">
-        <v>-4.865706443786621</v>
+        <v>30.70110893249512</v>
       </c>
       <c r="E160" t="n">
-        <v>0.2481121122837067</v>
+        <v>-4.054977416992188</v>
       </c>
       <c r="F160" t="n">
-        <v>2.339978694915771</v>
+        <v>42.75074005126953</v>
       </c>
       <c r="G160" t="n">
-        <v>-4.500596046447754</v>
+        <v>39.66529846191406</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.02946886606514454</v>
+        <v>7.777575016021729</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.01012024842202663</v>
+        <v>0.06596437089145184</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0003261845849920064</v>
+        <v>0.06181360930204392</v>
       </c>
       <c r="C161" t="n">
-        <v>0.8369531035423279</v>
+        <v>39.86307907104492</v>
       </c>
       <c r="D161" t="n">
-        <v>-5.629114151000977</v>
+        <v>29.29272651672363</v>
       </c>
       <c r="E161" t="n">
-        <v>1.053094625473022</v>
+        <v>-3.945260763168335</v>
       </c>
       <c r="F161" t="n">
-        <v>1.560162782669067</v>
+        <v>41.37915802001953</v>
       </c>
       <c r="G161" t="n">
-        <v>-5.168851852416992</v>
+        <v>38.07775115966797</v>
       </c>
       <c r="H161" t="n">
-        <v>0.7719671726226807</v>
+        <v>6.911966800689697</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.03768626600503922</v>
+        <v>0.09374676436185837</v>
       </c>
       <c r="B162" t="n">
-        <v>0.02495678514242172</v>
+        <v>0.08475907266139984</v>
       </c>
       <c r="C162" t="n">
-        <v>0.05417689308524132</v>
+        <v>38.91285705566406</v>
       </c>
       <c r="D162" t="n">
-        <v>-6.372379779815674</v>
+        <v>28.12853240966797</v>
       </c>
       <c r="E162" t="n">
-        <v>1.628535628318787</v>
+        <v>-3.613748550415039</v>
       </c>
       <c r="F162" t="n">
-        <v>0.830399751663208</v>
+        <v>39.95673370361328</v>
       </c>
       <c r="G162" t="n">
-        <v>-5.833616733551025</v>
+        <v>36.39914703369141</v>
       </c>
       <c r="H162" t="n">
-        <v>1.39189600944519</v>
+        <v>6.302792072296143</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.05708247423171997</v>
+        <v>0.1097638392448425</v>
       </c>
       <c r="B163" t="n">
-        <v>0.04202224686741829</v>
+        <v>0.1055968046188355</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.4966059625148773</v>
+        <v>38.36503601074219</v>
       </c>
       <c r="D163" t="n">
-        <v>-6.969847679138184</v>
+        <v>27.49082565307617</v>
       </c>
       <c r="E163" t="n">
-        <v>1.847983956336975</v>
+        <v>-3.046792507171631</v>
       </c>
       <c r="F163" t="n">
-        <v>0.3247790336608887</v>
+        <v>38.66497039794922</v>
       </c>
       <c r="G163" t="n">
-        <v>-6.393784999847412</v>
+        <v>34.96061706542969</v>
       </c>
       <c r="H163" t="n">
-        <v>1.692700505256653</v>
+        <v>5.910122394561768</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.06539203971624374</v>
+        <v>0.1142643190920353</v>
       </c>
       <c r="B164" t="n">
-        <v>0.04903554543852806</v>
+        <v>0.1221000882983208</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.732568085193634</v>
+        <v>38.21110916137695</v>
       </c>
       <c r="D164" t="n">
-        <v>-7.345261096954346</v>
+        <v>27.52136611938477</v>
       </c>
       <c r="E164" t="n">
-        <v>1.702517867088318</v>
+        <v>-2.226935386657715</v>
       </c>
       <c r="F164" t="n">
-        <v>0.1169868260622025</v>
+        <v>37.64190673828125</v>
       </c>
       <c r="G164" t="n">
-        <v>-6.783331871032715</v>
+        <v>33.94743347167969</v>
       </c>
       <c r="H164" t="n">
-        <v>1.645441889762878</v>
+        <v>5.783546924591064</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.06385814398527145</v>
+        <v>0.1109373933076859</v>
       </c>
       <c r="B165" t="n">
-        <v>0.04734203591942787</v>
+        <v>0.1340467637777329</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.6890107393264771</v>
+        <v>38.32489776611328</v>
       </c>
       <c r="D165" t="n">
-        <v>-7.492565631866455</v>
+        <v>28.15024375915527</v>
       </c>
       <c r="E165" t="n">
-        <v>1.306307435035706</v>
+        <v>-1.179425239562988</v>
       </c>
       <c r="F165" t="n">
-        <v>0.1671626716852188</v>
+        <v>36.90131378173828</v>
       </c>
       <c r="G165" t="n">
-        <v>-6.993021965026855</v>
+        <v>33.94743347167969</v>
       </c>
       <c r="H165" t="n">
-        <v>1.340181827545166</v>
+        <v>5.985131740570068</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.05698204040527344</v>
+        <v>0.1056410075724125</v>
       </c>
       <c r="B166" t="n">
-        <v>0.04124271124601364</v>
+        <v>0.1427767878770828</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.4937540292739868</v>
+        <v>38.50604629516602</v>
       </c>
       <c r="D166" t="n">
-        <v>-7.465103149414062</v>
+        <v>29.10285949707031</v>
       </c>
       <c r="E166" t="n">
-        <v>0.8521658182144165</v>
+        <v>0.004869887605309486</v>
       </c>
       <c r="F166" t="n">
-        <v>0.3478753566741943</v>
+        <v>36.36012649536133</v>
       </c>
       <c r="G166" t="n">
-        <v>-7.063915252685547</v>
+        <v>32.88624572753906</v>
       </c>
       <c r="H166" t="n">
-        <v>0.9485459923744202</v>
+        <v>6.53478479385376</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.05055086687207222</v>
+        <v>0.104197765737772</v>
       </c>
       <c r="B167" t="n">
-        <v>0.03613139688968658</v>
+        <v>0.1506654158234596</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.3111318647861481</v>
+        <v>38.5554084777832</v>
       </c>
       <c r="D167" t="n">
-        <v>-7.350528717041016</v>
+        <v>30.04991340637207</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5306158065795898</v>
+        <v>1.192561626434326</v>
       </c>
       <c r="F167" t="n">
-        <v>0.4993150234222412</v>
+        <v>35.87109756469727</v>
       </c>
       <c r="G167" t="n">
-        <v>-7.065972805023193</v>
+        <v>33.19050598144531</v>
       </c>
       <c r="H167" t="n">
-        <v>0.6499343514442444</v>
+        <v>7.333704471588135</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.04955108463764191</v>
+        <v>0.1107370781898499</v>
       </c>
       <c r="B168" t="n">
-        <v>0.03653239831328392</v>
+        <v>0.1599671640992165</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.282741516828537</v>
+        <v>38.33174896240234</v>
       </c>
       <c r="D168" t="n">
-        <v>-7.243807315826416</v>
+        <v>30.77135467529297</v>
       </c>
       <c r="E168" t="n">
-        <v>0.4604914486408234</v>
+        <v>2.247330188751221</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4874340295791626</v>
+        <v>35.29446792602539</v>
       </c>
       <c r="G168" t="n">
-        <v>-7.074426174163818</v>
+        <v>33.67589950561523</v>
       </c>
       <c r="H168" t="n">
-        <v>0.5651551485061646</v>
+        <v>8.265050888061523</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.05682912468910217</v>
+        <v>0.1267301759123802</v>
       </c>
       <c r="B169" t="n">
-        <v>0.04487727582454681</v>
+        <v>0.1721711280941963</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.489411860704422</v>
+        <v>37.78474807739258</v>
       </c>
       <c r="D169" t="n">
-        <v>-7.222461223602295</v>
+        <v>31.21162796020508</v>
       </c>
       <c r="E169" t="n">
-        <v>0.6669010519981384</v>
+        <v>3.100208759307861</v>
       </c>
       <c r="F169" t="n">
-        <v>0.240189328789711</v>
+        <v>34.53792572021484</v>
       </c>
       <c r="G169" t="n">
-        <v>-7.149755477905273</v>
+        <v>34.21400451660156</v>
       </c>
       <c r="H169" t="n">
-        <v>0.7316159605979919</v>
+        <v>9.225981712341309</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.07279128581285477</v>
+        <v>0.1514541032910347</v>
       </c>
       <c r="B170" t="n">
-        <v>0.06129981577396393</v>
+        <v>0.1879038572311401</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.9426800012588501</v>
+        <v>36.93913269042969</v>
       </c>
       <c r="D170" t="n">
-        <v>-7.327985286712646</v>
+        <v>31.42171859741211</v>
       </c>
       <c r="E170" t="n">
-        <v>1.10200297832489</v>
+        <v>3.751623630523682</v>
       </c>
       <c r="F170" t="n">
-        <v>-0.2463826984167099</v>
+        <v>33.56262969970703</v>
       </c>
       <c r="G170" t="n">
-        <v>-7.323912143707275</v>
+        <v>34.72034454345703</v>
       </c>
       <c r="H170" t="n">
-        <v>1.117863774299622</v>
+        <v>10.15282917022705</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.09594148397445679</v>
+        <v>0.1829813367128372</v>
       </c>
       <c r="B171" t="n">
-        <v>0.08421759307384491</v>
+        <v>0.2074204286932945</v>
       </c>
       <c r="C171" t="n">
-        <v>-1.600062847137451</v>
+        <v>35.8608283996582</v>
       </c>
       <c r="D171" t="n">
-        <v>-7.559800148010254</v>
+        <v>31.49487495422363</v>
       </c>
       <c r="E171" t="n">
-        <v>1.682592391967773</v>
+        <v>4.266582012176514</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.9253976345062256</v>
+        <v>32.35276794433594</v>
       </c>
       <c r="G171" t="n">
-        <v>-7.596097469329834</v>
+        <v>35.13357543945312</v>
       </c>
       <c r="H171" t="n">
-        <v>1.655274868011475</v>
+        <v>11.00801181793213</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.1238461881875992</v>
+        <v>0.2188020297884941</v>
       </c>
       <c r="B172" t="n">
-        <v>0.1112723648548126</v>
+        <v>0.2304290097951889</v>
       </c>
       <c r="C172" t="n">
-        <v>-2.392456531524658</v>
+        <v>34.63567733764648</v>
       </c>
       <c r="D172" t="n">
-        <v>-7.884564399719238</v>
+        <v>31.53915023803711</v>
       </c>
       <c r="E172" t="n">
-        <v>2.324267387390137</v>
+        <v>4.745225429534912</v>
       </c>
       <c r="F172" t="n">
-        <v>-1.726984739303589</v>
+        <v>30.92642974853516</v>
       </c>
       <c r="G172" t="n">
-        <v>-7.939852237701416</v>
+        <v>35.44169235229492</v>
       </c>
       <c r="H172" t="n">
-        <v>2.269027709960938</v>
+        <v>11.77501201629639</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.1541216373443604</v>
+        <v>0.2573779481649399</v>
       </c>
       <c r="B173" t="n">
-        <v>0.1402474939823151</v>
+        <v>0.2566500881314278</v>
       </c>
       <c r="C173" t="n">
-        <v>-3.252171277999878</v>
+        <v>33.31629180908203</v>
       </c>
       <c r="D173" t="n">
-        <v>-8.255731582641602</v>
+        <v>31.65790557861328</v>
       </c>
       <c r="E173" t="n">
-        <v>2.964771032333374</v>
+        <v>5.288869380950928</v>
       </c>
       <c r="F173" t="n">
-        <v>-2.585468769073486</v>
+        <v>29.30094528198242</v>
       </c>
       <c r="G173" t="n">
-        <v>-8.318259239196777</v>
+        <v>35.66396331787109</v>
       </c>
       <c r="H173" t="n">
-        <v>2.901108026504517</v>
+        <v>12.45203495025635</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.1851558238267899</v>
+        <v>0.2975771898031235</v>
       </c>
       <c r="B174" t="n">
-        <v>0.1697163432836533</v>
+        <v>0.2855382227897644</v>
       </c>
       <c r="C174" t="n">
-        <v>-4.133430957794189</v>
+        <v>31.94138526916504</v>
       </c>
       <c r="D174" t="n">
-        <v>-8.633591651916504</v>
+        <v>31.9516544342041</v>
       </c>
       <c r="E174" t="n">
-        <v>3.575805187225342</v>
+        <v>5.956021785736084</v>
       </c>
       <c r="F174" t="n">
-        <v>-3.458580732345581</v>
+        <v>27.5101261138916</v>
       </c>
       <c r="G174" t="n">
-        <v>-8.70021915435791</v>
+        <v>35.84934997558594</v>
       </c>
       <c r="H174" t="n">
-        <v>3.523451805114746</v>
+        <v>13.04198360443115</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.2164227515459061</v>
+        <v>0.3381509363651276</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1993100345134735</v>
+        <v>0.3160668659210205</v>
       </c>
       <c r="C175" t="n">
-        <v>-5.021299362182617</v>
+        <v>30.55366897583008</v>
       </c>
       <c r="D175" t="n">
-        <v>-8.997444152832031</v>
+        <v>32.48109817504883</v>
       </c>
       <c r="E175" t="n">
-        <v>4.163680076599121</v>
+        <v>6.751306056976318</v>
       </c>
       <c r="F175" t="n">
-        <v>-4.335391998291016</v>
+        <v>25.61760711669922</v>
       </c>
       <c r="G175" t="n">
-        <v>-9.070835113525391</v>
+        <v>36.04772186279297</v>
       </c>
       <c r="H175" t="n">
-        <v>4.140375137329102</v>
+        <v>13.56385135650635</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.248380184173584</v>
+        <v>0.3772624236345291</v>
       </c>
       <c r="B176" t="n">
-        <v>0.2296006232500076</v>
+        <v>0.3465091723203659</v>
       </c>
       <c r="C176" t="n">
-        <v>-5.928776264190674</v>
+        <v>29.21596527099609</v>
       </c>
       <c r="D176" t="n">
-        <v>-9.346484184265137</v>
+        <v>33.25045776367188</v>
       </c>
       <c r="E176" t="n">
-        <v>4.759504318237305</v>
+        <v>7.682087421417236</v>
       </c>
       <c r="F176" t="n">
-        <v>-5.232850551605225</v>
+        <v>23.73044204711914</v>
       </c>
       <c r="G176" t="n">
-        <v>-9.432247161865234</v>
+        <v>36.30606460571289</v>
       </c>
       <c r="H176" t="n">
-        <v>4.780364513397217</v>
+        <v>14.10043430328369</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.2820324301719666</v>
+        <v>0.4123964190483094</v>
       </c>
       <c r="B177" t="n">
-        <v>0.2616676390171051</v>
+        <v>0.3746216189861298</v>
       </c>
       <c r="C177" t="n">
-        <v>-6.884379863739014</v>
+        <v>28.01430130004883</v>
       </c>
       <c r="D177" t="n">
-        <v>-9.690829277038574</v>
+        <v>34.21684265136719</v>
       </c>
       <c r="E177" t="n">
-        <v>5.401301383972168</v>
+        <v>8.793207168579102</v>
       </c>
       <c r="F177" t="n">
-        <v>-6.182941913604736</v>
+        <v>21.98770904541016</v>
       </c>
       <c r="G177" t="n">
-        <v>-9.795340538024902</v>
+        <v>36.66400146484375</v>
       </c>
       <c r="H177" t="n">
-        <v>5.479423522949219</v>
+        <v>14.73966503143311</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.3182941377162933</v>
+        <v>0.4410081845521927</v>
       </c>
       <c r="B178" t="n">
-        <v>0.2964747846126556</v>
+        <v>0.398289161324501</v>
       </c>
       <c r="C178" t="n">
-        <v>-7.914082527160645</v>
+        <v>27.03571319580078</v>
       </c>
       <c r="D178" t="n">
-        <v>-10.03681087493896</v>
+        <v>35.34069442749023</v>
       </c>
       <c r="E178" t="n">
-        <v>6.112448692321777</v>
+        <v>10.11464881896973</v>
       </c>
       <c r="F178" t="n">
-        <v>-7.214218616485596</v>
+        <v>20.52052116394043</v>
       </c>
       <c r="G178" t="n">
-        <v>-10.165940284729</v>
+        <v>37.15439224243164</v>
       </c>
       <c r="H178" t="n">
-        <v>6.260441303253174</v>
+        <v>15.47386837005615</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.3573402464389801</v>
+        <v>0.4616468650102615</v>
       </c>
       <c r="B179" t="n">
-        <v>0.3342424333095551</v>
+        <v>0.4164415144920349</v>
       </c>
       <c r="C179" t="n">
-        <v>-9.022852897644043</v>
+        <v>26.3298225402832</v>
       </c>
       <c r="D179" t="n">
-        <v>-10.371901512146</v>
+        <v>36.6052131652832</v>
       </c>
       <c r="E179" t="n">
-        <v>6.881974220275879</v>
+        <v>11.58639335632324</v>
       </c>
       <c r="F179" t="n">
-        <v>-8.333209991455078</v>
+        <v>19.39522933959961</v>
       </c>
       <c r="G179" t="n">
-        <v>-10.53071975708008</v>
+        <v>37.76672744750977</v>
       </c>
       <c r="H179" t="n">
-        <v>7.114035606384277</v>
+        <v>16.13944625854492</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.3981753587722778</v>
+        <v>0.4755618631839753</v>
       </c>
       <c r="B180" t="n">
-        <v>0.3740587532520294</v>
+        <v>0.429938223361969</v>
       </c>
       <c r="C180" t="n">
-        <v>-10.18242359161377</v>
+        <v>25.85389709472656</v>
       </c>
       <c r="D180" t="n">
-        <v>-10.65450477600098</v>
+        <v>37.96100997924805</v>
       </c>
       <c r="E180" t="n">
-        <v>7.652328014373779</v>
+        <v>13.02944183349609</v>
       </c>
       <c r="F180" t="n">
-        <v>-9.512900352478027</v>
+        <v>18.55854797363281</v>
       </c>
       <c r="G180" t="n">
-        <v>-10.8484001159668</v>
+        <v>38.39185333251953</v>
       </c>
       <c r="H180" t="n">
-        <v>7.986288070678711</v>
+        <v>16.45566177368164</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.4386038780212402</v>
+        <v>0.4865286183357239</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4139231145381927</v>
+        <v>0.4412966686487198</v>
       </c>
       <c r="C181" t="n">
-        <v>-11.33044910430908</v>
+        <v>25.47880935668945</v>
       </c>
       <c r="D181" t="n">
-        <v>-10.81209468841553</v>
+        <v>39.28915786743164</v>
       </c>
       <c r="E181" t="n">
-        <v>8.317892074584961</v>
+        <v>14.20205688476562</v>
       </c>
       <c r="F181" t="n">
-        <v>-10.69401359558105</v>
+        <v>17.85441970825195</v>
       </c>
       <c r="G181" t="n">
-        <v>-11.04948711395264</v>
+        <v>38.83476257324219</v>
       </c>
       <c r="H181" t="n">
-        <v>8.776640892028809</v>
+        <v>16.09921455383301</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.4755821526050568</v>
+        <v>0.4983247494697571</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4511818885803223</v>
+        <v>0.4530456668138504</v>
       </c>
       <c r="C182" t="n">
-        <v>-12.38049983978271</v>
+        <v>25.07535362243652</v>
       </c>
       <c r="D182" t="n">
-        <v>-10.74659538269043</v>
+        <v>40.44615173339844</v>
       </c>
       <c r="E182" t="n">
-        <v>8.731919288635254</v>
+        <v>14.80291366577148</v>
       </c>
       <c r="F182" t="n">
-        <v>-11.79792881011963</v>
+        <v>17.1260814666748</v>
       </c>
       <c r="G182" t="n">
-        <v>-11.04289817810059</v>
+        <v>38.93669509887695</v>
       </c>
       <c r="H182" t="n">
-        <v>9.343939781188965</v>
+        <v>13.8682689666748</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.5056740045547485</v>
+        <v>0.5113536983728409</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4830510020256042</v>
+        <v>0.4657633864879608</v>
       </c>
       <c r="C183" t="n">
-        <v>-13.23499870300293</v>
+        <v>24.62973403930664</v>
       </c>
       <c r="D183" t="n">
-        <v>-10.34056758880615</v>
+        <v>41.36700057983398</v>
       </c>
       <c r="E183" t="n">
-        <v>8.712369918823242</v>
+        <v>14.53580856323242</v>
       </c>
       <c r="F183" t="n">
-        <v>-12.74215602874756</v>
+        <v>16.33769035339355</v>
       </c>
       <c r="G183" t="n">
-        <v>-10.72221851348877</v>
+        <v>38.68795776367188</v>
       </c>
       <c r="H183" t="n">
-        <v>9.511701583862305</v>
+        <v>11.86859512329102</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.5252268314361572</v>
+        <v>0.5216562956571579</v>
       </c>
       <c r="B184" t="n">
-        <v>0.506792426109314</v>
+        <v>0.477312353849411</v>
       </c>
       <c r="C184" t="n">
-        <v>-13.79022979736328</v>
+        <v>24.2773609161377</v>
       </c>
       <c r="D184" t="n">
-        <v>-9.454863548278809</v>
+        <v>42.12666320800781</v>
       </c>
       <c r="E184" t="n">
-        <v>8.031933784484863</v>
+        <v>11.90544700622559</v>
       </c>
       <c r="F184" t="n">
-        <v>-13.44557476043701</v>
+        <v>15.62175178527832</v>
       </c>
       <c r="G184" t="n">
-        <v>-9.96162223815918</v>
+        <v>38.25980377197266</v>
       </c>
       <c r="H184" t="n">
-        <v>9.057442665100098</v>
+        <v>8.947588920593262</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.5299999713897705</v>
+        <v>0.5232349026203156</v>
       </c>
       <c r="B185" t="n">
-        <v>0.5191816687583923</v>
+        <v>0.4838815587759018</v>
       </c>
       <c r="C185" t="n">
-        <v>-13.9257698059082</v>
+        <v>24.22336959838867</v>
       </c>
       <c r="D185" t="n">
-        <v>-7.912149906158447</v>
+        <v>42.90774917602539</v>
       </c>
       <c r="E185" t="n">
-        <v>6.379085540771484</v>
+        <v>9.287939071655273</v>
       </c>
       <c r="F185" t="n">
-        <v>-13.81264781951904</v>
+        <v>15.21451759338379</v>
       </c>
       <c r="G185" t="n">
-        <v>-8.593060493469238</v>
+        <v>37.95241165161133</v>
       </c>
       <c r="H185" t="n">
-        <v>7.66914176940918</v>
+        <v>5.181499004364014</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.5145562291145325</v>
+        <v>0.5102974081039429</v>
       </c>
       <c r="B186" t="n">
-        <v>0.5152451395988464</v>
+        <v>0.4807835769653321</v>
       </c>
       <c r="C186" t="n">
-        <v>-13.48722362518311</v>
+        <v>24.66586112976074</v>
       </c>
       <c r="D186" t="n">
-        <v>-5.489649295806885</v>
+        <v>43.94321441650391</v>
       </c>
       <c r="E186" t="n">
-        <v>3.329696416854858</v>
+        <v>5.46129322052002</v>
       </c>
       <c r="F186" t="n">
-        <v>-13.69601345062256</v>
+        <v>15.40656757354736</v>
       </c>
       <c r="G186" t="n">
-        <v>-6.377805233001709</v>
+        <v>38.16911697387695</v>
       </c>
       <c r="H186" t="n">
-        <v>4.894340515136719</v>
+        <v>0.8681254386901855</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.4737856686115265</v>
+        <v>0.4808063220977783</v>
       </c>
       <c r="B187" t="n">
-        <v>0.553315777778455</v>
+        <v>0.5444130701233774</v>
       </c>
       <c r="C187" t="n">
-        <v>-12.32948589324951</v>
+        <v>25.67452430725098</v>
       </c>
       <c r="D187" t="n">
-        <v>-2.044301271438599</v>
+        <v>45.33502197265625</v>
       </c>
       <c r="E187" t="n">
-        <v>-1.357459545135498</v>
+        <v>0.8405939340591431</v>
       </c>
       <c r="F187" t="n">
-        <v>-12.89992618560791</v>
+        <v>16.38197708129883</v>
       </c>
       <c r="G187" t="n">
-        <v>-3.092294692993164</v>
+        <v>40.20871734619141</v>
       </c>
       <c r="H187" t="n">
-        <v>0.3730873167514801</v>
+        <v>-3.445205688476562</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.5942731018247255</v>
+        <v>0.5739036518708975</v>
       </c>
       <c r="B188" t="n">
-        <v>0.6320105949926168</v>
+        <v>0.6254204541398627</v>
       </c>
       <c r="C188" t="n">
-        <v>-10.47974395751953</v>
+        <v>28.28559112548828</v>
       </c>
       <c r="D188" t="n">
-        <v>2.189055919647217</v>
+        <v>48.21834945678711</v>
       </c>
       <c r="E188" t="n">
-        <v>-6.784761428833008</v>
+        <v>-3.765703916549683</v>
       </c>
       <c r="F188" t="n">
-        <v>-11.36669063568115</v>
+        <v>19.48285675048828</v>
       </c>
       <c r="G188" t="n">
-        <v>1.135717511177063</v>
+        <v>42.22232055664062</v>
       </c>
       <c r="H188" t="n">
-        <v>-5.22689962387085</v>
+        <v>-7.158067226409912</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.7506902475284013</v>
+        <v>0.6993495402125942</v>
       </c>
       <c r="B189" t="n">
-        <v>0.7461265278608555</v>
+        <v>0.7213307466381526</v>
       </c>
       <c r="C189" t="n">
-        <v>-8.12360668182373</v>
+        <v>30.07946586608887</v>
       </c>
       <c r="D189" t="n">
-        <v>6.658559799194336</v>
+        <v>50.08763885498047</v>
       </c>
       <c r="E189" t="n">
-        <v>-10.92209339141846</v>
+        <v>-7.489102840423584</v>
       </c>
       <c r="F189" t="n">
-        <v>-9.263570785522461</v>
+        <v>21.68635559082031</v>
       </c>
       <c r="G189" t="n">
-        <v>5.76503849029541</v>
+        <v>45.07473754882812</v>
       </c>
       <c r="H189" t="n">
-        <v>-9.985309600830078</v>
+        <v>-9.976591110229492</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.8918726467716667</v>
+        <v>0.8300663158052628</v>
       </c>
       <c r="B190" t="n">
-        <v>0.8658282792284426</v>
+        <v>0.8191606740533284</v>
       </c>
       <c r="C190" t="n">
-        <v>-5.403000831604004</v>
+        <v>32.47031402587891</v>
       </c>
       <c r="D190" t="n">
-        <v>10.8578405380249</v>
+        <v>52.50833129882812</v>
       </c>
       <c r="E190" t="n">
-        <v>-12.43763065338135</v>
+        <v>-9.793622016906738</v>
       </c>
       <c r="F190" t="n">
-        <v>-6.729183673858643</v>
+        <v>24.55685424804688</v>
       </c>
       <c r="G190" t="n">
-        <v>10.20836448669434</v>
+        <v>48.46842193603516</v>
       </c>
       <c r="H190" t="n">
-        <v>-12.35229015350342</v>
+        <v>-11.81053638458252</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9739495070281865</v>
+        <v>0.9319593816926616</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9531021104084915</v>
+        <v>0.9021169908061898</v>
       </c>
       <c r="C191" t="n">
-        <v>-2.501601457595825</v>
+        <v>35.33936309814453</v>
       </c>
       <c r="D191" t="n">
-        <v>14.34410667419434</v>
+        <v>55.20795440673828</v>
       </c>
       <c r="E191" t="n">
-        <v>-11.51256942749023</v>
+        <v>-9.793622016906738</v>
       </c>
       <c r="F191" t="n">
-        <v>-3.918942213058472</v>
+        <v>27.93607330322266</v>
       </c>
       <c r="G191" t="n">
-        <v>13.92372894287109</v>
+        <v>52.06248092651367</v>
       </c>
       <c r="H191" t="n">
-        <v>-12.19562816619873</v>
+        <v>-11.81053638458252</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.9985215529991459</v>
+        <v>0.9853207779837926</v>
       </c>
       <c r="B192" t="n">
-        <v>0.9919253660146307</v>
+        <v>0.9586017325755921</v>
       </c>
       <c r="C192" t="n">
-        <v>0.2701915204524994</v>
+        <v>38.57632446289062</v>
       </c>
       <c r="D192" t="n">
-        <v>16.63814735412598</v>
+        <v>57.82955169677734</v>
       </c>
       <c r="E192" t="n">
-        <v>-9.179096221923828</v>
+        <v>-11.46774196624756</v>
       </c>
       <c r="F192" t="n">
-        <v>-1.133833885192871</v>
+        <v>31.74424743652344</v>
       </c>
       <c r="G192" t="n">
-        <v>16.42347145080566</v>
+        <v>55.6195068359375</v>
       </c>
       <c r="H192" t="n">
-        <v>-10.40170574188232</v>
+        <v>-12.04225635528564</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1.000143631758651</v>
+        <v>0.9997522635595238</v>
       </c>
       <c r="B193" t="n">
-        <v>0.999858249658667</v>
+        <v>0.9878299982735573</v>
       </c>
       <c r="C193" t="n">
-        <v>2.586455821990967</v>
+        <v>42.01714324951172</v>
       </c>
       <c r="D193" t="n">
-        <v>17.39232444763184</v>
+        <v>59.98829650878906</v>
       </c>
       <c r="E193" t="n">
-        <v>-6.450352191925049</v>
+        <v>-8.708305358886719</v>
       </c>
       <c r="F193" t="n">
-        <v>1.294160604476929</v>
+        <v>35.8765869140625</v>
       </c>
       <c r="G193" t="n">
-        <v>17.41854476928711</v>
+        <v>59.03053665161133</v>
       </c>
       <c r="H193" t="n">
-        <v>-7.992456912994385</v>
+        <v>-9.728256225585938</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.9999702507641873</v>
+        <v>1.000045629194822</v>
       </c>
       <c r="B194" t="n">
-        <v>1.000014237033692</v>
+        <v>0.998073070861072</v>
       </c>
       <c r="C194" t="n">
-        <v>4.241532802581787</v>
+        <v>45.46852874755859</v>
       </c>
       <c r="D194" t="n">
-        <v>16.59386444091797</v>
+        <v>61.43314361572266</v>
       </c>
       <c r="E194" t="n">
-        <v>-3.911413431167603</v>
+        <v>-6.973002433776855</v>
       </c>
       <c r="F194" t="n">
-        <v>3.146995544433594</v>
+        <v>40.18105316162109</v>
       </c>
       <c r="G194" t="n">
-        <v>16.92738342285156</v>
+        <v>62.26283264160156</v>
       </c>
       <c r="H194" t="n">
-        <v>-5.611756324768066</v>
+        <v>-6.761016368865967</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1.00000801448595</v>
+        <v>0.9999828815220029</v>
       </c>
       <c r="B195" t="n">
-        <v>0.9999974823104076</v>
+        <v>0.9999574472078521</v>
       </c>
       <c r="C195" t="n">
-        <v>5.178850650787354</v>
+        <v>48.76051330566406</v>
       </c>
       <c r="D195" t="n">
-        <v>14.51730632781982</v>
+        <v>61.43314361572266</v>
       </c>
       <c r="E195" t="n">
-        <v>-1.77653443813324</v>
+        <v>-5.192572593688965</v>
       </c>
       <c r="F195" t="n">
-        <v>4.346759796142578</v>
+        <v>44.4898567199707</v>
       </c>
       <c r="G195" t="n">
-        <v>15.20729160308838</v>
+        <v>65.2099609375</v>
       </c>
       <c r="H195" t="n">
-        <v>-3.516672134399414</v>
+        <v>-3.858536243438721</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.9999976902126678</v>
+        <v>1.000009380518732</v>
       </c>
       <c r="B196" t="n">
-        <v>1.000000539113434</v>
+        <v>1.000004646453352</v>
       </c>
       <c r="C196" t="n">
-        <v>5.461794853210449</v>
+        <v>51.73748397827148</v>
       </c>
       <c r="D196" t="n">
-        <v>11.57526683807373</v>
+        <v>62.68820190429688</v>
       </c>
       <c r="E196" t="n">
-        <v>-0.07425428926944733</v>
+        <v>-3.868255615234375</v>
       </c>
       <c r="F196" t="n">
-        <v>4.932314395904541</v>
+        <v>48.61930084228516</v>
       </c>
       <c r="G196" t="n">
-        <v>12.6338586807251</v>
+        <v>67.54693603515625</v>
       </c>
       <c r="H196" t="n">
-        <v>-1.751012086868286</v>
+        <v>-1.512635111808777</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1.000000632117386</v>
+        <v>0.9999934821853009</v>
       </c>
       <c r="B197" t="n">
-        <v>0.9999998809407251</v>
+        <v>0.9999989340176916</v>
       </c>
       <c r="C197" t="n">
-        <v>5.243079662322998</v>
+        <v>54.22840118408203</v>
       </c>
       <c r="D197" t="n">
-        <v>8.211549758911133</v>
+        <v>60.25579071044922</v>
       </c>
       <c r="E197" t="n">
-        <v>1.22221577167511</v>
+        <v>-3.868255615234375</v>
       </c>
       <c r="F197" t="n">
-        <v>5.037720680236816</v>
+        <v>52.34955215454102</v>
       </c>
       <c r="G197" t="n">
-        <v>9.61357593536377</v>
+        <v>68.69680786132812</v>
       </c>
       <c r="H197" t="n">
-        <v>-0.2931658625602722</v>
+        <v>0.02385967969894409</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.9999998480881365</v>
+        <v>1.000005249603918</v>
       </c>
       <c r="B198" t="n">
-        <v>1.000000025020151</v>
+        <v>1.000000352630861</v>
       </c>
       <c r="C198" t="n">
-        <v>4.741206169128418</v>
+        <v>55.99231719970703</v>
       </c>
       <c r="D198" t="n">
-        <v>4.836047172546387</v>
+        <v>57.60783386230469</v>
       </c>
       <c r="E198" t="n">
-        <v>2.132228851318359</v>
+        <v>-4.384873390197754</v>
       </c>
       <c r="F198" t="n">
-        <v>4.869792461395264</v>
+        <v>55.38844299316406</v>
       </c>
       <c r="G198" t="n">
-        <v>6.523714065551758</v>
+        <v>68.69680786132812</v>
       </c>
       <c r="H198" t="n">
-        <v>0.8634242415428162</v>
+        <v>0.02385967969894409</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1.000000031199192</v>
+        <v>0.9999954715551859</v>
       </c>
       <c r="B199" t="n">
-        <v>0.9999999950493615</v>
+        <v>0.9999998581529003</v>
       </c>
       <c r="C199" t="n">
-        <v>4.215275764465332</v>
+        <v>55.99231719970703</v>
       </c>
       <c r="D199" t="n">
-        <v>1.774490118026733</v>
+        <v>53.50090026855469</v>
       </c>
       <c r="E199" t="n">
-        <v>2.6471848487854</v>
+        <v>-7.738128185272217</v>
       </c>
       <c r="F199" t="n">
-        <v>4.676918029785156</v>
+        <v>57.33110427856445</v>
       </c>
       <c r="G199" t="n">
-        <v>3.665191650390625</v>
+        <v>64.43805694580078</v>
       </c>
       <c r="H199" t="n">
-        <v>1.685726165771484</v>
+        <v>-0.2209658920764923</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.9999999941749977</v>
+        <v>1.000003827176016</v>
       </c>
       <c r="B200" t="n">
-        <v>1.00000000099108</v>
+        <v>1.000000060712833</v>
       </c>
       <c r="C200" t="n">
-        <v>3.934240579605103</v>
+        <v>57.43928146362305</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.7673232555389404</v>
+        <v>48.48896789550781</v>
       </c>
       <c r="E200" t="n">
-        <v>2.732299566268921</v>
+        <v>-12.84413051605225</v>
       </c>
       <c r="F200" t="n">
-        <v>4.713447570800781</v>
+        <v>57.33110427856445</v>
       </c>
       <c r="G200" t="n">
-        <v>1.228798985481262</v>
+        <v>59.52845001220703</v>
       </c>
       <c r="H200" t="n">
-        <v>2.109861135482788</v>
+        <v>-2.800351858139038</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1.000000001167376</v>
+        <v>0.9999970673109704</v>
       </c>
       <c r="B201" t="n">
-        <v>0.9999999997707399</v>
+        <v>0.9999999758026872</v>
       </c>
       <c r="C201" t="n">
-        <v>4.140491485595703</v>
+        <v>56.00974655151367</v>
       </c>
       <c r="D201" t="n">
-        <v>-2.710179567337036</v>
+        <v>43.55329132080078</v>
       </c>
       <c r="E201" t="n">
-        <v>2.345473766326904</v>
+        <v>-18.03176116943359</v>
       </c>
       <c r="F201" t="n">
-        <v>5.20229959487915</v>
+        <v>57.25262069702148</v>
       </c>
       <c r="G201" t="n">
-        <v>-0.7132495045661926</v>
+        <v>53.99233627319336</v>
       </c>
       <c r="H201" t="n">
-        <v>2.066461324691772</v>
+        <v>-5.848732471466064</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.9999999997007901</v>
+        <v>1.000001944985946</v>
       </c>
       <c r="B202" t="n">
-        <v>1.000000000068566</v>
+        <v>1.0000000080927</v>
       </c>
       <c r="C202" t="n">
-        <v>4.981819152832031</v>
+        <v>54.14135360717773</v>
       </c>
       <c r="D202" t="n">
-        <v>-4.067798137664795</v>
+        <v>39.46486282348633</v>
       </c>
       <c r="E202" t="n">
-        <v>1.488633036613464</v>
+        <v>-20.99118041992188</v>
       </c>
       <c r="F202" t="n">
-        <v>6.26619815826416</v>
+        <v>55.56385803222656</v>
       </c>
       <c r="G202" t="n">
-        <v>-2.175765514373779</v>
+        <v>49.1904296875</v>
       </c>
       <c r="H202" t="n">
-        <v>1.531008362770081</v>
+        <v>-7.540463447570801</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.000000000104609</v>
+        <v>0.9999989142973279</v>
       </c>
       <c r="B203" t="n">
-        <v>0.9999999999727808</v>
+        <v>0.9999999978659506</v>
       </c>
       <c r="C203" t="n">
-        <v>6.386093616485596</v>
+        <v>51.23683547973633</v>
       </c>
       <c r="D203" t="n">
-        <v>-4.874713897705078</v>
+        <v>36.67829132080078</v>
       </c>
       <c r="E203" t="n">
-        <v>0.29610675573349</v>
+        <v>-20.99118041992188</v>
       </c>
       <c r="F203" t="n">
-        <v>7.803605079650879</v>
+        <v>53.5589599609375</v>
       </c>
       <c r="G203" t="n">
-        <v>-3.184885263442993</v>
+        <v>45.83333587646484</v>
       </c>
       <c r="H203" t="n">
-        <v>0.6086364984512329</v>
+        <v>-7.540463447570801</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.9999999999524618</v>
+        <v>1.000000486126638</v>
       </c>
       <c r="B204" t="n">
-        <v>1.000000000013575</v>
+        <v>1.000000000411993</v>
       </c>
       <c r="C204" t="n">
-        <v>7.963676452636719</v>
+        <v>48.25157928466797</v>
       </c>
       <c r="D204" t="n">
-        <v>-5.128055572509766</v>
+        <v>33.87527465820312</v>
       </c>
       <c r="E204" t="n">
-        <v>-0.9114283323287964</v>
+        <v>-16.26301193237305</v>
       </c>
       <c r="F204" t="n">
-        <v>9.401151657104492</v>
+        <v>50.42890930175781</v>
       </c>
       <c r="G204" t="n">
-        <v>-3.709546327590942</v>
+        <v>43.45336151123047</v>
       </c>
       <c r="H204" t="n">
-        <v>-0.4070765972137451</v>
+        <v>-2.799898862838745</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1.000000000025209</v>
+        <v>0.9999998312045331</v>
       </c>
       <c r="B205" t="n">
-        <v>0.9999999999923269</v>
+        <v>0.9999999999476404</v>
       </c>
       <c r="C205" t="n">
-        <v>9.105216979980469</v>
+        <v>48.25157928466797</v>
       </c>
       <c r="D205" t="n">
-        <v>-4.85307788848877</v>
+        <v>33.87527465820312</v>
       </c>
       <c r="E205" t="n">
-        <v>-1.709424495697021</v>
+        <v>-16.26301193237305</v>
       </c>
       <c r="F205" t="n">
-        <v>10.44587898254395</v>
+        <v>50.42890930175781</v>
       </c>
       <c r="G205" t="n">
-        <v>-3.719648838043213</v>
+        <v>43.45336151123047</v>
       </c>
       <c r="H205" t="n">
-        <v>-1.103579998016357</v>
+        <v>-2.799898862838745</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/PV_cp_lstm.xlsx
+++ b/Predictions/PV_cp_lstm.xlsx
@@ -483,5300 +483,5300 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>45.26632690429688</v>
+        <v>42.13595199584961</v>
       </c>
       <c r="D2" t="n">
-        <v>31.0722599029541</v>
+        <v>28.34355163574219</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.0668249130249</v>
+        <v>-10.15330123901367</v>
       </c>
       <c r="F2" t="n">
-        <v>47.29885864257812</v>
+        <v>45.16877746582031</v>
       </c>
       <c r="G2" t="n">
-        <v>42.15351867675781</v>
+        <v>36.82906723022461</v>
       </c>
       <c r="H2" t="n">
-        <v>4.639017581939697</v>
+        <v>2.473848581314087</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.04753326743841171</v>
+        <v>-0.08325606167316438</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.01778119288384914</v>
+        <v>-0.07595002502202988</v>
       </c>
       <c r="C3" t="n">
-        <v>43.74496078491211</v>
+        <v>41.51135635375977</v>
       </c>
       <c r="D3" t="n">
-        <v>29.77118873596191</v>
+        <v>29.70191383361816</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.047873497009277</v>
+        <v>-7.374225616455078</v>
       </c>
       <c r="F3" t="n">
-        <v>46.31336212158203</v>
+        <v>45.16877746582031</v>
       </c>
       <c r="G3" t="n">
-        <v>42.15351867675781</v>
+        <v>40.09434509277344</v>
       </c>
       <c r="H3" t="n">
-        <v>7.802158355712891</v>
+        <v>6.002833843231201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.03865610681474209</v>
+        <v>-0.09290306210517883</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001057430733926594</v>
+        <v>-0.08398494839668275</v>
       </c>
       <c r="C4" t="n">
-        <v>43.44134140014648</v>
+        <v>41.80748748779297</v>
       </c>
       <c r="D4" t="n">
-        <v>30.45923614501953</v>
+        <v>29.70191383361816</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.732259750366211</v>
+        <v>-6.21293830871582</v>
       </c>
       <c r="F4" t="n">
-        <v>45.14552688598633</v>
+        <v>46.6330680847168</v>
       </c>
       <c r="G4" t="n">
-        <v>43.59047698974609</v>
+        <v>41.90758514404297</v>
       </c>
       <c r="H4" t="n">
-        <v>9.479772567749023</v>
+        <v>8.647278785705566</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.02978285156190396</v>
+        <v>-0.08397994130849838</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01458324009552598</v>
+        <v>-0.06438811346888543</v>
       </c>
       <c r="C5" t="n">
-        <v>43.13785552978516</v>
+        <v>41.53357696533203</v>
       </c>
       <c r="D5" t="n">
-        <v>30.7260856628418</v>
+        <v>30.84470176696777</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.732259750366211</v>
+        <v>-6.21293830871582</v>
       </c>
       <c r="F5" t="n">
-        <v>44.30704116821289</v>
+        <v>45.52134704589844</v>
       </c>
       <c r="G5" t="n">
-        <v>43.38440322875977</v>
+        <v>41.90758514404297</v>
       </c>
       <c r="H5" t="n">
-        <v>9.479772567749023</v>
+        <v>9.908298492431641</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.001667757590766996</v>
+        <v>-0.06371339648962021</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02831531863659621</v>
+        <v>-0.03511198475956917</v>
       </c>
       <c r="C6" t="n">
-        <v>42.17625427246094</v>
+        <v>40.91146087646484</v>
       </c>
       <c r="D6" t="n">
-        <v>30.19850730895996</v>
+        <v>30.03829765319824</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.128768920898438</v>
+        <v>-4.677903175354004</v>
       </c>
       <c r="F6" t="n">
-        <v>43.45576858520508</v>
+        <v>43.86052322387695</v>
       </c>
       <c r="G6" t="n">
-        <v>42.19760894775391</v>
+        <v>41.14897918701172</v>
       </c>
       <c r="H6" t="n">
-        <v>10.48184108734131</v>
+        <v>9.908298492431641</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.03611749731004239</v>
+        <v>-0.03331743724644184</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04704293213784695</v>
+        <v>-0.004693527184426785</v>
       </c>
       <c r="C7" t="n">
-        <v>40.8839111328125</v>
+        <v>39.9784049987793</v>
       </c>
       <c r="D7" t="n">
-        <v>29.15512466430664</v>
+        <v>28.88268280029297</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.850321769714355</v>
+        <v>-4.40727424621582</v>
       </c>
       <c r="F7" t="n">
-        <v>42.29481506347656</v>
+        <v>42.13489532470703</v>
       </c>
       <c r="G7" t="n">
-        <v>39.11062622070312</v>
+        <v>39.33317565917969</v>
       </c>
       <c r="H7" t="n">
-        <v>9.737467765808105</v>
+        <v>10.41263484954834</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.07264376729726792</v>
+        <v>0.002146028419956565</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07096970185637475</v>
+        <v>0.02445086929947138</v>
       </c>
       <c r="C8" t="n">
-        <v>39.63462829589844</v>
+        <v>38.88979339599609</v>
       </c>
       <c r="D8" t="n">
-        <v>27.94929695129395</v>
+        <v>27.68988609313965</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.52770471572876</v>
+        <v>-4.07972526550293</v>
       </c>
       <c r="F8" t="n">
-        <v>40.81155776977539</v>
+        <v>40.48154449462891</v>
       </c>
       <c r="G8" t="n">
-        <v>37.41191864013672</v>
+        <v>37.21411895751953</v>
       </c>
       <c r="H8" t="n">
-        <v>9.03413200378418</v>
+        <v>9.63801097869873</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.09912121802568437</v>
+        <v>0.03239733740687371</v>
       </c>
       <c r="B9" t="n">
-        <v>0.09641536071896553</v>
+        <v>0.05106523111462594</v>
       </c>
       <c r="C9" t="n">
-        <v>38.72903823852539</v>
+        <v>37.96117782592773</v>
       </c>
       <c r="D9" t="n">
-        <v>26.97534942626953</v>
+        <v>26.76578140258789</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.080929756164551</v>
+        <v>-3.583446025848389</v>
       </c>
       <c r="F9" t="n">
-        <v>39.2341423034668</v>
+        <v>38.97172164916992</v>
       </c>
       <c r="G9" t="n">
-        <v>35.64531326293945</v>
+        <v>35.14888763427734</v>
       </c>
       <c r="H9" t="n">
-        <v>8.405868530273438</v>
+        <v>9.030606269836426</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1129503454267979</v>
+        <v>0.05024259179830552</v>
       </c>
       <c r="B10" t="n">
-        <v>0.119542169123888</v>
+        <v>0.07428319379687309</v>
       </c>
       <c r="C10" t="n">
-        <v>38.25605010986328</v>
+        <v>37.41338729858398</v>
       </c>
       <c r="D10" t="n">
-        <v>26.55031204223633</v>
+        <v>26.3896541595459</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.400972843170166</v>
+        <v>-2.833790302276611</v>
       </c>
       <c r="F10" t="n">
-        <v>37.80047607421875</v>
+        <v>37.65457534790039</v>
       </c>
       <c r="G10" t="n">
-        <v>34.15388488769531</v>
+        <v>33.43662261962891</v>
       </c>
       <c r="H10" t="n">
-        <v>7.95737886428833</v>
+        <v>8.651287078857422</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1152570730447769</v>
+        <v>0.05425255469977856</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1379054281115532</v>
+        <v>0.09317840456962585</v>
       </c>
       <c r="C11" t="n">
-        <v>38.17715454101562</v>
+        <v>37.2902946472168</v>
       </c>
       <c r="D11" t="n">
-        <v>26.82703018188477</v>
+        <v>26.70432472229004</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.429286003112793</v>
+        <v>-1.801475524902344</v>
       </c>
       <c r="F11" t="n">
-        <v>36.662109375</v>
+        <v>36.58265686035156</v>
       </c>
       <c r="G11" t="n">
-        <v>33.12505340576172</v>
+        <v>32.26015472412109</v>
       </c>
       <c r="H11" t="n">
-        <v>7.812123775482178</v>
+        <v>8.565939903259277</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1102744358778</v>
+        <v>0.0487504755705595</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1514230498671532</v>
+        <v>0.1077959272265434</v>
       </c>
       <c r="C12" t="n">
-        <v>38.34757232666016</v>
+        <v>37.45919036865234</v>
       </c>
       <c r="D12" t="n">
-        <v>27.70589256286621</v>
+        <v>27.61350631713867</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.204360008239746</v>
+        <v>-0.550903856754303</v>
       </c>
       <c r="F12" t="n">
-        <v>35.82413101196289</v>
+        <v>35.75341033935547</v>
       </c>
       <c r="G12" t="n">
-        <v>33.12505340576172</v>
+        <v>32.26015472412109</v>
       </c>
       <c r="H12" t="n">
-        <v>8.058156967163086</v>
+        <v>8.832793235778809</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1042542020976543</v>
+        <v>0.04134469598531723</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1614857491850853</v>
+        <v>0.1191702941060066</v>
       </c>
       <c r="C13" t="n">
-        <v>38.5534782409668</v>
+        <v>37.6865234375</v>
       </c>
       <c r="D13" t="n">
-        <v>28.84192085266113</v>
+        <v>28.78660202026367</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1399979144334793</v>
+        <v>0.7760052084922791</v>
       </c>
       <c r="F13" t="n">
-        <v>35.2003288269043</v>
+        <v>35.10814666748047</v>
       </c>
       <c r="G13" t="n">
-        <v>32.13235473632812</v>
+        <v>31.07978630065918</v>
       </c>
       <c r="H13" t="n">
-        <v>8.719221115112305</v>
+        <v>9.477298736572266</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1029567344486713</v>
+        <v>0.03894788816571236</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1706721132993698</v>
+        <v>0.1293650099635124</v>
       </c>
       <c r="C14" t="n">
-        <v>38.59785461425781</v>
+        <v>37.76009750366211</v>
       </c>
       <c r="D14" t="n">
-        <v>29.88154983520508</v>
+        <v>29.849853515625</v>
       </c>
       <c r="E14" t="n">
-        <v>1.431978702545166</v>
+        <v>2.029976367950439</v>
       </c>
       <c r="F14" t="n">
-        <v>34.63085174560547</v>
+        <v>34.52980422973633</v>
       </c>
       <c r="G14" t="n">
-        <v>32.57528686523438</v>
+        <v>31.50668907165527</v>
       </c>
       <c r="H14" t="n">
-        <v>9.65778636932373</v>
+        <v>10.37836360931396</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.110437940210104</v>
+        <v>0.04632993146777153</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1813431659340859</v>
+        <v>0.1408098551630974</v>
       </c>
       <c r="C15" t="n">
-        <v>38.34197998046875</v>
+        <v>37.53349304199219</v>
       </c>
       <c r="D15" t="n">
-        <v>30.60799217224121</v>
+        <v>30.55857276916504</v>
       </c>
       <c r="E15" t="n">
-        <v>2.512557506561279</v>
+        <v>3.074028491973877</v>
       </c>
       <c r="F15" t="n">
-        <v>33.96933746337891</v>
+        <v>33.88054275512695</v>
       </c>
       <c r="G15" t="n">
-        <v>33.24510192871094</v>
+        <v>32.16012954711914</v>
       </c>
       <c r="H15" t="n">
-        <v>10.73874187469482</v>
+        <v>11.40428066253662</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1275723618268967</v>
+        <v>0.06459546931087971</v>
       </c>
       <c r="B16" t="n">
-        <v>0.195185079574585</v>
+        <v>0.1554282465577126</v>
       </c>
       <c r="C16" t="n">
-        <v>37.75594329833984</v>
+        <v>36.97280120849609</v>
       </c>
       <c r="D16" t="n">
-        <v>31.0045337677002</v>
+        <v>30.88108444213867</v>
       </c>
       <c r="E16" t="n">
-        <v>3.324441432952881</v>
+        <v>3.867200374603271</v>
       </c>
       <c r="F16" t="n">
-        <v>33.11125564575195</v>
+        <v>33.05124664306641</v>
       </c>
       <c r="G16" t="n">
-        <v>33.97505950927734</v>
+        <v>32.87026596069336</v>
       </c>
       <c r="H16" t="n">
-        <v>11.8459005355835</v>
+        <v>12.44796085357666</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1530639690160751</v>
+        <v>0.09230706065893174</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2129302790760994</v>
+        <v>0.1742060434818268</v>
       </c>
       <c r="C17" t="n">
-        <v>36.88407135009766</v>
+        <v>36.12214660644531</v>
       </c>
       <c r="D17" t="n">
-        <v>31.15744400024414</v>
+        <v>30.92464828491211</v>
       </c>
       <c r="E17" t="n">
-        <v>3.897315502166748</v>
+        <v>4.436245441436768</v>
       </c>
       <c r="F17" t="n">
-        <v>32.01120376586914</v>
+        <v>31.98598861694336</v>
       </c>
       <c r="G17" t="n">
-        <v>34.64897537231445</v>
+        <v>33.52034378051758</v>
       </c>
       <c r="H17" t="n">
-        <v>12.91046810150146</v>
+        <v>13.44886493682861</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.184315938949585</v>
+        <v>0.1268066801130772</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2350163239240647</v>
+        <v>0.1975128701329231</v>
       </c>
       <c r="C18" t="n">
-        <v>35.81518173217773</v>
+        <v>35.0631217956543</v>
       </c>
       <c r="D18" t="n">
-        <v>31.19681739807129</v>
+        <v>30.85140228271484</v>
       </c>
       <c r="E18" t="n">
-        <v>4.336079120635986</v>
+        <v>4.875993251800537</v>
       </c>
       <c r="F18" t="n">
-        <v>30.64205551147461</v>
+        <v>30.6638011932373</v>
       </c>
       <c r="G18" t="n">
-        <v>35.18888854980469</v>
+        <v>34.03551483154297</v>
       </c>
       <c r="H18" t="n">
-        <v>13.88721752166748</v>
+        <v>14.37203884124756</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2187192785739899</v>
+        <v>0.1652377325296402</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2610840147733688</v>
+        <v>0.2249938708543777</v>
       </c>
       <c r="C19" t="n">
-        <v>34.63850784301758</v>
+        <v>33.88341522216797</v>
       </c>
       <c r="D19" t="n">
-        <v>31.25579071044922</v>
+        <v>30.81685829162598</v>
       </c>
       <c r="E19" t="n">
-        <v>4.776891231536865</v>
+        <v>5.311243534088135</v>
       </c>
       <c r="F19" t="n">
-        <v>29.02607917785645</v>
+        <v>29.10481452941895</v>
       </c>
       <c r="G19" t="n">
-        <v>35.58901977539062</v>
+        <v>34.40305328369141</v>
       </c>
       <c r="H19" t="n">
-        <v>14.75374507904053</v>
+        <v>15.20203876495361</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2551447236537934</v>
+        <v>0.2059405735135079</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2908043211698532</v>
+        <v>0.2562260335683822</v>
       </c>
       <c r="C20" t="n">
-        <v>33.39267349243164</v>
+        <v>32.63397216796875</v>
       </c>
       <c r="D20" t="n">
-        <v>31.46034622192383</v>
+        <v>30.94585037231445</v>
       </c>
       <c r="E20" t="n">
-        <v>5.338388919830322</v>
+        <v>5.85101842880249</v>
       </c>
       <c r="F20" t="n">
-        <v>26.1718864440918</v>
+        <v>27.3330249786377</v>
       </c>
       <c r="G20" t="n">
-        <v>35.88191986083984</v>
+        <v>34.65637969970703</v>
       </c>
       <c r="H20" t="n">
-        <v>15.50776958465576</v>
+        <v>15.93519496917725</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.2932140415906906</v>
+        <v>0.2483364105224609</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3234470295906067</v>
+        <v>0.2907029157876969</v>
       </c>
       <c r="C21" t="n">
-        <v>32.09061431884766</v>
+        <v>31.33255958557129</v>
       </c>
       <c r="D21" t="n">
-        <v>31.92674827575684</v>
+        <v>31.31076049804688</v>
       </c>
       <c r="E21" t="n">
-        <v>6.080070018768311</v>
+        <v>6.529552936553955</v>
       </c>
       <c r="F21" t="n">
-        <v>24.6016845703125</v>
+        <v>24.34197616577148</v>
       </c>
       <c r="G21" t="n">
-        <v>36.12255096435547</v>
+        <v>34.85533905029297</v>
       </c>
       <c r="H21" t="n">
-        <v>16.15446853637695</v>
+        <v>16.5827751159668</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3324153405427933</v>
+        <v>0.2913418644666672</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3577842503786087</v>
+        <v>0.3271983969211579</v>
       </c>
       <c r="C22" t="n">
-        <v>30.74983978271484</v>
+        <v>30.0124340057373</v>
       </c>
       <c r="D22" t="n">
-        <v>32.69977188110352</v>
+        <v>31.96239471435547</v>
       </c>
       <c r="E22" t="n">
-        <v>6.989158153533936</v>
+        <v>7.363386631011963</v>
       </c>
       <c r="F22" t="n">
-        <v>22.76055908203125</v>
+        <v>22.77193641662598</v>
       </c>
       <c r="G22" t="n">
-        <v>36.35968399047852</v>
+        <v>35.06734466552734</v>
       </c>
       <c r="H22" t="n">
-        <v>16.72614669799805</v>
+        <v>17.16375923156738</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.3714073842763901</v>
+        <v>0.3344696998596192</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3918542474508286</v>
+        <v>0.3643023419380188</v>
       </c>
       <c r="C23" t="n">
-        <v>29.41622161865234</v>
+        <v>28.68855094909668</v>
       </c>
       <c r="D23" t="n">
-        <v>33.75162124633789</v>
+        <v>32.8566780090332</v>
       </c>
       <c r="E23" t="n">
-        <v>8.062778472900391</v>
+        <v>8.309246063232422</v>
       </c>
       <c r="F23" t="n">
-        <v>20.87132835388184</v>
+        <v>20.98443222045898</v>
       </c>
       <c r="G23" t="n">
-        <v>36.64584732055664</v>
+        <v>35.33778762817383</v>
       </c>
       <c r="H23" t="n">
-        <v>17.34097099304199</v>
+        <v>17.7876033782959</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4074983811378479</v>
+        <v>0.3754256278276444</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4231058382987976</v>
+        <v>0.3996448975801468</v>
       </c>
       <c r="C24" t="n">
-        <v>28.18182563781738</v>
+        <v>27.43133926391602</v>
       </c>
       <c r="D24" t="n">
-        <v>35.00711441040039</v>
+        <v>33.93903732299805</v>
       </c>
       <c r="E24" t="n">
-        <v>9.348684310913086</v>
+        <v>9.422883987426758</v>
       </c>
       <c r="F24" t="n">
-        <v>19.12109756469727</v>
+        <v>19.2153148651123</v>
       </c>
       <c r="G24" t="n">
-        <v>37.02507019042969</v>
+        <v>35.7082633972168</v>
       </c>
       <c r="H24" t="n">
-        <v>18.09304809570312</v>
+        <v>18.55177116394043</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4375688993930817</v>
+        <v>0.4104143702983856</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4490970170497894</v>
+        <v>0.4305058091878891</v>
       </c>
       <c r="C25" t="n">
-        <v>27.15334510803223</v>
+        <v>26.3572998046875</v>
       </c>
       <c r="D25" t="n">
-        <v>36.42178726196289</v>
+        <v>35.20272064208984</v>
       </c>
       <c r="E25" t="n">
-        <v>10.87797546386719</v>
+        <v>10.77080345153809</v>
       </c>
       <c r="F25" t="n">
-        <v>17.63827705383301</v>
+        <v>17.62972259521484</v>
       </c>
       <c r="G25" t="n">
-        <v>37.52400588989258</v>
+        <v>36.21985626220703</v>
       </c>
       <c r="H25" t="n">
-        <v>18.94559860229492</v>
+        <v>19.43013954162598</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4597042411565781</v>
+        <v>0.4365331745147705</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4687030369043351</v>
+        <v>0.455220764875412</v>
       </c>
       <c r="C26" t="n">
-        <v>26.39626502990723</v>
+        <v>25.55553817749023</v>
       </c>
       <c r="D26" t="n">
-        <v>37.98776626586914</v>
+        <v>36.63138580322266</v>
       </c>
       <c r="E26" t="n">
-        <v>12.57285690307617</v>
+        <v>12.28017234802246</v>
       </c>
       <c r="F26" t="n">
-        <v>16.45106506347656</v>
+        <v>16.30800819396973</v>
       </c>
       <c r="G26" t="n">
-        <v>38.09972381591797</v>
+        <v>36.86060333251953</v>
       </c>
       <c r="H26" t="n">
-        <v>19.68510437011719</v>
+        <v>20.24577331542969</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4753966766595841</v>
+        <v>0.4534276586771012</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4830856686830521</v>
+        <v>0.4738676983118058</v>
       </c>
       <c r="C27" t="n">
-        <v>25.85954666137695</v>
+        <v>25.03693389892578</v>
       </c>
       <c r="D27" t="n">
-        <v>39.63555145263672</v>
+        <v>38.1616325378418</v>
       </c>
       <c r="E27" t="n">
-        <v>14.20829963684082</v>
+        <v>13.76946067810059</v>
       </c>
       <c r="F27" t="n">
-        <v>16.45106506347656</v>
+        <v>15.2374439239502</v>
       </c>
       <c r="G27" t="n">
-        <v>38.61109924316406</v>
+        <v>37.53174591064453</v>
       </c>
       <c r="H27" t="n">
-        <v>19.98546981811523</v>
+        <v>20.69735145568848</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.488984524011612</v>
+        <v>0.4640732967853546</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4948951941728592</v>
+        <v>0.4883118683099747</v>
       </c>
       <c r="C28" t="n">
-        <v>25.39481163024902</v>
+        <v>24.71014785766602</v>
       </c>
       <c r="D28" t="n">
-        <v>41.1982421875</v>
+        <v>39.65364837646484</v>
       </c>
       <c r="E28" t="n">
-        <v>15.50112342834473</v>
+        <v>15.0054931640625</v>
       </c>
       <c r="F28" t="n">
-        <v>14.53176498413086</v>
+        <v>15.2374439239502</v>
       </c>
       <c r="G28" t="n">
-        <v>38.85697174072266</v>
+        <v>38.05154037475586</v>
       </c>
       <c r="H28" t="n">
-        <v>19.48402214050293</v>
+        <v>20.42619514465332</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.5041655415296555</v>
+        <v>0.4732679849863052</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5066191095113755</v>
+        <v>0.5011901623010636</v>
       </c>
       <c r="C29" t="n">
-        <v>24.87558555603027</v>
+        <v>24.42790031433105</v>
       </c>
       <c r="D29" t="n">
-        <v>42.48245239257812</v>
+        <v>40.93754577636719</v>
       </c>
       <c r="E29" t="n">
-        <v>16.10442161560059</v>
+        <v>15.70008277893066</v>
       </c>
       <c r="F29" t="n">
-        <v>13.80498027801514</v>
+        <v>13.43630027770996</v>
       </c>
       <c r="G29" t="n">
-        <v>38.72771835327148</v>
+        <v>38.2403450012207</v>
       </c>
       <c r="H29" t="n">
-        <v>16.88693046569824</v>
+        <v>18.14790725708008</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.5197884148359299</v>
+        <v>0.4829771238565445</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5183604311943054</v>
+        <v>0.5137800353765488</v>
       </c>
       <c r="C30" t="n">
-        <v>24.34124755859375</v>
+        <v>24.12986183166504</v>
       </c>
       <c r="D30" t="n">
-        <v>43.40287780761719</v>
+        <v>41.92699813842773</v>
       </c>
       <c r="E30" t="n">
-        <v>15.71067428588867</v>
+        <v>15.55933952331543</v>
       </c>
       <c r="F30" t="n">
-        <v>13.07711887359619</v>
+        <v>12.72208213806152</v>
       </c>
       <c r="G30" t="n">
-        <v>38.25081253051758</v>
+        <v>38.02484893798828</v>
       </c>
       <c r="H30" t="n">
-        <v>14.66701507568359</v>
+        <v>16.02336883544922</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.53</v>
+        <v>0.4899779176712036</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5274598741531372</v>
+        <v>0.5246558099985122</v>
       </c>
       <c r="C31" t="n">
-        <v>23.99198722839355</v>
+        <v>23.91496086120605</v>
       </c>
       <c r="D31" t="n">
-        <v>44.03456497192383</v>
+        <v>42.68675231933594</v>
       </c>
       <c r="E31" t="n">
-        <v>12.72401332855225</v>
+        <v>13.11314105987549</v>
       </c>
       <c r="F31" t="n">
-        <v>12.51303195953369</v>
+        <v>12.1051025390625</v>
       </c>
       <c r="G31" t="n">
-        <v>37.626708984375</v>
+        <v>37.51237106323242</v>
       </c>
       <c r="H31" t="n">
-        <v>11.47865676879883</v>
+        <v>12.87682151794434</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.527838580608368</v>
+        <v>0.4872884005308151</v>
       </c>
       <c r="B32" t="n">
         <v>0.53</v>
       </c>
       <c r="C32" t="n">
-        <v>24.0659122467041</v>
+        <v>23.99752044677734</v>
       </c>
       <c r="D32" t="n">
-        <v>44.56015777587891</v>
+        <v>43.407958984375</v>
       </c>
       <c r="E32" t="n">
-        <v>9.898260116577148</v>
+        <v>10.54030704498291</v>
       </c>
       <c r="F32" t="n">
-        <v>12.35556507110596</v>
+        <v>11.80193042755127</v>
       </c>
       <c r="G32" t="n">
-        <v>37.18760299682617</v>
+        <v>36.98704528808594</v>
       </c>
       <c r="H32" t="n">
-        <v>7.43290901184082</v>
+        <v>8.769467353820801</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.50863840341568</v>
+        <v>0.4680393213033676</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5215478771924973</v>
+        <v>0.5246259570121765</v>
       </c>
       <c r="C33" t="n">
-        <v>24.72260284423828</v>
+        <v>24.58840370178223</v>
       </c>
       <c r="D33" t="n">
-        <v>45.22964477539062</v>
+        <v>44.33949279785156</v>
       </c>
       <c r="E33" t="n">
-        <v>5.8619384765625</v>
+        <v>6.711840629577637</v>
       </c>
       <c r="F33" t="n">
-        <v>12.87952518463135</v>
+        <v>12.10679626464844</v>
       </c>
       <c r="G33" t="n">
-        <v>37.363525390625</v>
+        <v>36.87658309936523</v>
       </c>
       <c r="H33" t="n">
-        <v>2.871922016143799</v>
+        <v>4.020321369171143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4720580071210861</v>
+        <v>0.4299189531803131</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5481899836905306</v>
+        <v>0.5474128084717624</v>
       </c>
       <c r="C34" t="n">
-        <v>25.9737377166748</v>
+        <v>25.75857353210449</v>
       </c>
       <c r="D34" t="n">
-        <v>46.19468688964844</v>
+        <v>45.6336669921875</v>
       </c>
       <c r="E34" t="n">
-        <v>1.087534189224243</v>
+        <v>2.044335842132568</v>
       </c>
       <c r="F34" t="n">
-        <v>15.22724342346191</v>
+        <v>14.27309226989746</v>
       </c>
       <c r="G34" t="n">
-        <v>39.47016906738281</v>
+        <v>37.56504440307617</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.62117338180542</v>
+        <v>-0.7137832641601562</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.5821474979996495</v>
+        <v>0.597344945052393</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6020107317319876</v>
+        <v>0.6001138990871754</v>
       </c>
       <c r="C35" t="n">
-        <v>28.90082550048828</v>
+        <v>28.54540824890137</v>
       </c>
       <c r="D35" t="n">
-        <v>47.54219055175781</v>
+        <v>48.34846878051758</v>
       </c>
       <c r="E35" t="n">
-        <v>-3.580310344696045</v>
+        <v>-2.618576049804688</v>
       </c>
       <c r="F35" t="n">
-        <v>17.12100601196289</v>
+        <v>16.23944854736328</v>
       </c>
       <c r="G35" t="n">
-        <v>41.53302383422852</v>
+        <v>40.70756149291992</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.440195083618164</v>
+        <v>-4.694511413574219</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7213227017286161</v>
+        <v>0.7691036650669599</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6826757646359121</v>
+        <v>0.6852851902085367</v>
       </c>
       <c r="C36" t="n">
-        <v>30.78927230834961</v>
+        <v>30.37198257446289</v>
       </c>
       <c r="D36" t="n">
-        <v>50.56237030029297</v>
+        <v>50.0826530456543</v>
       </c>
       <c r="E36" t="n">
-        <v>-7.272760391235352</v>
+        <v>-6.357176780700684</v>
       </c>
       <c r="F36" t="n">
-        <v>19.68738174438477</v>
+        <v>18.97808074951172</v>
       </c>
       <c r="G36" t="n">
-        <v>44.43556213378906</v>
+        <v>43.23912811279297</v>
       </c>
       <c r="H36" t="n">
-        <v>-8.329230308532715</v>
+        <v>-7.594529628753662</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8548520300761318</v>
+        <v>0.904101810344364</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7782742260975003</v>
+        <v>0.7890654322242888</v>
       </c>
       <c r="C37" t="n">
-        <v>33.23582458496094</v>
+        <v>32.76667785644531</v>
       </c>
       <c r="D37" t="n">
-        <v>52.60565567016602</v>
+        <v>52.34278869628906</v>
       </c>
       <c r="E37" t="n">
-        <v>-9.485015869140625</v>
+        <v>-8.607185363769531</v>
       </c>
       <c r="F37" t="n">
-        <v>22.79156684875488</v>
+        <v>22.29821395874023</v>
       </c>
       <c r="G37" t="n">
-        <v>47.86656188964844</v>
+        <v>46.54196929931641</v>
       </c>
       <c r="H37" t="n">
-        <v>-10.2205286026001</v>
+        <v>-9.401619911193848</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9484591207689597</v>
+        <v>0.977634738047051</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8696503214024449</v>
+        <v>0.8859952357678491</v>
       </c>
       <c r="C38" t="n">
-        <v>36.10147476196289</v>
+        <v>35.5717887878418</v>
       </c>
       <c r="D38" t="n">
-        <v>55.14016723632812</v>
+        <v>54.9066162109375</v>
       </c>
       <c r="E38" t="n">
-        <v>-9.485015869140625</v>
+        <v>-8.607185363769531</v>
       </c>
       <c r="F38" t="n">
-        <v>26.34291839599609</v>
+        <v>26.01375198364258</v>
       </c>
       <c r="G38" t="n">
-        <v>51.47150421142578</v>
+        <v>50.18926239013672</v>
       </c>
       <c r="H38" t="n">
-        <v>-10.2205286026001</v>
+        <v>-9.401619911193848</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9910377132957309</v>
+        <v>0.9992043682491594</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9392327019857234</v>
+        <v>0.9539709188472838</v>
       </c>
       <c r="C39" t="n">
-        <v>39.27888870239258</v>
+        <v>38.64812469482422</v>
       </c>
       <c r="D39" t="n">
-        <v>57.70953750610352</v>
+        <v>57.44132232666016</v>
       </c>
       <c r="E39" t="n">
-        <v>-11.02307415008545</v>
+        <v>-10.16946411132812</v>
       </c>
       <c r="F39" t="n">
-        <v>30.30825233459473</v>
+        <v>30.03105163574219</v>
       </c>
       <c r="G39" t="n">
-        <v>55.05445098876953</v>
+        <v>53.80529022216797</v>
       </c>
       <c r="H39" t="n">
-        <v>-10.36314392089844</v>
+        <v>-9.361400604248047</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.000166660530983</v>
+        <v>1.000135405171717</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9797707670083793</v>
+        <v>0.9880279395957837</v>
       </c>
       <c r="C40" t="n">
-        <v>42.65464019775391</v>
+        <v>41.87701416015625</v>
       </c>
       <c r="D40" t="n">
-        <v>59.83193969726562</v>
+        <v>59.57107543945312</v>
       </c>
       <c r="E40" t="n">
-        <v>-8.447373390197754</v>
+        <v>-7.626895904541016</v>
       </c>
       <c r="F40" t="n">
-        <v>34.65686798095703</v>
+        <v>34.34524536132812</v>
       </c>
       <c r="G40" t="n">
-        <v>58.63697814941406</v>
+        <v>57.24359893798828</v>
       </c>
       <c r="H40" t="n">
-        <v>-7.84396505355835</v>
+        <v>-6.858165740966797</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9999640408794566</v>
+        <v>0.9999488130820614</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9961791988144011</v>
+        <v>0.9987221538748536</v>
       </c>
       <c r="C41" t="n">
-        <v>46.08889389038086</v>
+        <v>45.15803909301758</v>
       </c>
       <c r="D41" t="n">
-        <v>61.18515014648438</v>
+        <v>61.0116081237793</v>
       </c>
       <c r="E41" t="n">
-        <v>-6.876627922058105</v>
+        <v>-6.17957878112793</v>
       </c>
       <c r="F41" t="n">
-        <v>39.30623626708984</v>
+        <v>38.96848297119141</v>
       </c>
       <c r="G41" t="n">
-        <v>62.2883415222168</v>
+        <v>60.6088981628418</v>
       </c>
       <c r="H41" t="n">
-        <v>-4.667697906494141</v>
+        <v>-3.691348314285278</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.000014687243059</v>
+        <v>1.000029836999405</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9998539996416762</v>
+        <v>1.000073232015484</v>
       </c>
       <c r="C42" t="n">
-        <v>49.41054534912109</v>
+        <v>48.3596305847168</v>
       </c>
       <c r="D42" t="n">
-        <v>61.18515014648438</v>
+        <v>61.0116081237793</v>
       </c>
       <c r="E42" t="n">
-        <v>-5.377715587615967</v>
+        <v>-4.87153434753418</v>
       </c>
       <c r="F42" t="n">
-        <v>44.07368087768555</v>
+        <v>43.78945922851562</v>
       </c>
       <c r="G42" t="n">
-        <v>65.83953857421875</v>
+        <v>63.94448089599609</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.674979090690613</v>
+        <v>-0.7115914821624756</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9999914010269234</v>
+        <v>0.9999768820468481</v>
       </c>
       <c r="B43" t="n">
-        <v>1.000016130873239</v>
+        <v>0.9999835793092936</v>
       </c>
       <c r="C43" t="n">
-        <v>52.39393615722656</v>
+        <v>51.24361038208008</v>
       </c>
       <c r="D43" t="n">
-        <v>62.06775665283203</v>
+        <v>62.13778305053711</v>
       </c>
       <c r="E43" t="n">
-        <v>-5.377715587615967</v>
+        <v>-4.87153434753418</v>
       </c>
       <c r="F43" t="n">
-        <v>48.64773559570312</v>
+        <v>48.46900177001953</v>
       </c>
       <c r="G43" t="n">
-        <v>68.74928283691406</v>
+        <v>66.85881042480469</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6227554678916931</v>
+        <v>1.534900188446045</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.000006289221093</v>
+        <v>1.000021558686033</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9999960670274717</v>
+        <v>1.00000616043562</v>
       </c>
       <c r="C44" t="n">
-        <v>54.79325866699219</v>
+        <v>53.556396484375</v>
       </c>
       <c r="D44" t="n">
-        <v>59.08874130249023</v>
+        <v>59.09589004516602</v>
       </c>
       <c r="E44" t="n">
-        <v>-3.561938762664795</v>
+        <v>-3.42667293548584</v>
       </c>
       <c r="F44" t="n">
-        <v>52.61623382568359</v>
+        <v>52.51163482666016</v>
       </c>
       <c r="G44" t="n">
-        <v>70.21793365478516</v>
+        <v>68.53797149658203</v>
       </c>
       <c r="H44" t="n">
-        <v>2.041344165802002</v>
+        <v>2.861031055450439</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9999947703128387</v>
+        <v>0.9999775875952824</v>
       </c>
       <c r="B45" t="n">
-        <v>1.000001361484276</v>
+        <v>0.9999969910259972</v>
       </c>
       <c r="C45" t="n">
-        <v>56.37384033203125</v>
+        <v>55.11500549316406</v>
       </c>
       <c r="D45" t="n">
-        <v>56.24532318115234</v>
+        <v>56.10904693603516</v>
       </c>
       <c r="E45" t="n">
-        <v>-6.260149002075195</v>
+        <v>-5.801697254180908</v>
       </c>
       <c r="F45" t="n">
-        <v>55.55332946777344</v>
+        <v>55.42201995849609</v>
       </c>
       <c r="G45" t="n">
-        <v>70.21793365478516</v>
+        <v>68.53797149658203</v>
       </c>
       <c r="H45" t="n">
-        <v>2.041344165802002</v>
+        <v>2.861031055450439</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.000004568442475</v>
+        <v>1.000024408115155</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9999994497233822</v>
+        <v>1.000001647638207</v>
       </c>
       <c r="C46" t="n">
-        <v>56.37384033203125</v>
+        <v>55.11500549316406</v>
       </c>
       <c r="D46" t="n">
-        <v>52.05169677734375</v>
+        <v>51.71445465087891</v>
       </c>
       <c r="E46" t="n">
-        <v>-9.703092575073242</v>
+        <v>-8.91136360168457</v>
       </c>
       <c r="F46" t="n">
-        <v>57.14027404785156</v>
+        <v>56.88333129882812</v>
       </c>
       <c r="G46" t="n">
-        <v>65.93445587158203</v>
+        <v>65.05156707763672</v>
       </c>
       <c r="H46" t="n">
-        <v>1.755759716033936</v>
+        <v>2.393397569656372</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9999961256243814</v>
+        <v>0.9999737153148447</v>
       </c>
       <c r="B47" t="n">
-        <v>1.000000226373438</v>
+        <v>0.9999990971240907</v>
       </c>
       <c r="C47" t="n">
-        <v>57.49243545532227</v>
+        <v>56.47575378417969</v>
       </c>
       <c r="D47" t="n">
-        <v>46.94612503051758</v>
+        <v>46.38540649414062</v>
       </c>
       <c r="E47" t="n">
-        <v>-14.57633972167969</v>
+        <v>-13.48259925842285</v>
       </c>
       <c r="F47" t="n">
-        <v>57.14027404785156</v>
+        <v>56.88333129882812</v>
       </c>
       <c r="G47" t="n">
-        <v>60.83982467651367</v>
+        <v>59.97297668457031</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.572833776473999</v>
+        <v>0.02354001998901367</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.000002962426684</v>
+        <v>1.000026339693396</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9999999166762913</v>
+        <v>1.000000446071885</v>
       </c>
       <c r="C48" t="n">
-        <v>54.88031005859375</v>
+        <v>54.18453216552734</v>
       </c>
       <c r="D48" t="n">
-        <v>41.68423461914062</v>
+        <v>40.98389434814453</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.41573715209961</v>
+        <v>-18.13564682006836</v>
       </c>
       <c r="F48" t="n">
-        <v>56.04708099365234</v>
+        <v>55.3962516784668</v>
       </c>
       <c r="G48" t="n">
-        <v>54.82115936279297</v>
+        <v>53.75790405273438</v>
       </c>
       <c r="H48" t="n">
-        <v>-3.330683708190918</v>
+        <v>-2.739309549331665</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9999980941887814</v>
+        <v>0.9999770841896004</v>
       </c>
       <c r="B49" t="n">
-        <v>1.00000002429175</v>
+        <v>0.9999998189912661</v>
       </c>
       <c r="C49" t="n">
-        <v>53.10968399047852</v>
+        <v>52.33042907714844</v>
       </c>
       <c r="D49" t="n">
-        <v>37.21646118164062</v>
+        <v>36.54843139648438</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.05209350585938</v>
+        <v>-20.63683700561523</v>
       </c>
       <c r="F49" t="n">
-        <v>53.96618270874023</v>
+        <v>53.29456329345703</v>
       </c>
       <c r="G49" t="n">
-        <v>49.38324356079102</v>
+        <v>48.04684448242188</v>
       </c>
       <c r="H49" t="n">
-        <v>-4.736825942993164</v>
+        <v>-4.071707725524902</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.000000969331094</v>
+        <v>1.000016227239643</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9999999950654207</v>
+        <v>1.000000056134137</v>
       </c>
       <c r="C50" t="n">
-        <v>51.10533142089844</v>
+        <v>50.177490234375</v>
       </c>
       <c r="D50" t="n">
-        <v>34.3224983215332</v>
+        <v>33.80532836914062</v>
       </c>
       <c r="E50" t="n">
-        <v>-21.0428352355957</v>
+        <v>-19.59886932373047</v>
       </c>
       <c r="F50" t="n">
-        <v>51.58891296386719</v>
+        <v>50.98838424682617</v>
       </c>
       <c r="G50" t="n">
-        <v>45.60958099365234</v>
+        <v>44.04600143432617</v>
       </c>
       <c r="H50" t="n">
-        <v>-3.448532581329346</v>
+        <v>-2.782609462738037</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9999996266584654</v>
+        <v>0.9999909545344222</v>
       </c>
       <c r="B51" t="n">
-        <v>1.000000000600846</v>
+        <v>0.9999999872791515</v>
       </c>
       <c r="C51" t="n">
-        <v>49.3225212097168</v>
+        <v>48.25738525390625</v>
       </c>
       <c r="D51" t="n">
-        <v>33.21205902099609</v>
+        <v>33.80532836914062</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.87595176696777</v>
+        <v>-15.62890815734863</v>
       </c>
       <c r="F51" t="n">
-        <v>49.39640808105469</v>
+        <v>48.90794372558594</v>
       </c>
       <c r="G51" t="n">
-        <v>43.71057891845703</v>
+        <v>42.04648208618164</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.009475111961364746</v>
+        <v>0.4875327348709106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.000000111638538</v>
+        <v>1.000004104064619</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9999999999635563</v>
+        <v>1.000000002098035</v>
       </c>
       <c r="C52" t="n">
-        <v>45.23174285888672</v>
+        <v>42.31503295898438</v>
       </c>
       <c r="D52" t="n">
-        <v>31.09230804443359</v>
+        <v>27.08106803894043</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.59246730804443</v>
+        <v>-12.90073013305664</v>
       </c>
       <c r="F52" t="n">
-        <v>46.72287750244141</v>
+        <v>43.706298828125</v>
       </c>
       <c r="G52" t="n">
-        <v>40.89523315429688</v>
+        <v>34.21248626708984</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.009475111961364746</v>
+        <v>-1.95520806312561</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.02860182635486126</v>
+        <v>0.08414559379220009</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01874010555446148</v>
+        <v>0.05929845571517944</v>
       </c>
       <c r="C53" t="n">
-        <v>45.23174285888672</v>
+        <v>42.31503295898438</v>
       </c>
       <c r="D53" t="n">
-        <v>31.09230804443359</v>
+        <v>27.08106803894043</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.95548057556152</v>
+        <v>-10.70639801025391</v>
       </c>
       <c r="F53" t="n">
-        <v>46.72287750244141</v>
+        <v>43.706298828125</v>
       </c>
       <c r="G53" t="n">
-        <v>40.89523315429688</v>
+        <v>34.21248626708984</v>
       </c>
       <c r="H53" t="n">
-        <v>2.599978446960449</v>
+        <v>-0.5133569240570068</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.05151277713477612</v>
+        <v>-0.05136226832866669</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.02892218325287104</v>
+        <v>-0.0609558729827404</v>
       </c>
       <c r="C54" t="n">
-        <v>43.88106918334961</v>
+        <v>40.53232192993164</v>
       </c>
       <c r="D54" t="n">
-        <v>31.09613418579102</v>
+        <v>28.70232772827148</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.150283813476562</v>
+        <v>-8.293556213378906</v>
       </c>
       <c r="F54" t="n">
-        <v>47.00400924682617</v>
+        <v>45.32663726806641</v>
       </c>
       <c r="G54" t="n">
-        <v>42.84805679321289</v>
+        <v>38.01009750366211</v>
       </c>
       <c r="H54" t="n">
-        <v>6.435024261474609</v>
+        <v>2.988438606262207</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.03549592338502407</v>
+        <v>-0.06320761740207673</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.007792090456932784</v>
+        <v>-0.09317712515592576</v>
       </c>
       <c r="C55" t="n">
-        <v>43.33325576782227</v>
+        <v>40.89593505859375</v>
       </c>
       <c r="D55" t="n">
-        <v>31.3702335357666</v>
+        <v>30.23641204833984</v>
       </c>
       <c r="E55" t="n">
-        <v>-6.510798454284668</v>
+        <v>-6.340723991394043</v>
       </c>
       <c r="F55" t="n">
-        <v>45.69412231445312</v>
+        <v>47.15453720092773</v>
       </c>
       <c r="G55" t="n">
-        <v>43.34727478027344</v>
+        <v>40.80272674560547</v>
       </c>
       <c r="H55" t="n">
-        <v>8.586475372314453</v>
+        <v>6.499490737915039</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.02810282539576292</v>
+        <v>-0.04307391837239265</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01043529795482755</v>
+        <v>-0.08423307567834855</v>
       </c>
       <c r="C56" t="n">
-        <v>43.08039474487305</v>
+        <v>40.27789688110352</v>
       </c>
       <c r="D56" t="n">
-        <v>31.42487716674805</v>
+        <v>30.23641204833984</v>
       </c>
       <c r="E56" t="n">
-        <v>-6.510798454284668</v>
+        <v>-5.098208904266357</v>
       </c>
       <c r="F56" t="n">
-        <v>44.56417846679688</v>
+        <v>46.64714431762695</v>
       </c>
       <c r="G56" t="n">
-        <v>43.29542922973633</v>
+        <v>40.80272674560547</v>
       </c>
       <c r="H56" t="n">
-        <v>8.586475372314453</v>
+        <v>8.772930145263672</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.00209515321534127</v>
+        <v>-0.01666679590940475</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02594846647232771</v>
+        <v>-0.05250208772718907</v>
       </c>
       <c r="C57" t="n">
-        <v>42.19087219238281</v>
+        <v>39.46728515625</v>
       </c>
       <c r="D57" t="n">
-        <v>30.79113578796387</v>
+        <v>30.85739707946777</v>
       </c>
       <c r="E57" t="n">
-        <v>-4.738650321960449</v>
+        <v>-5.098208904266357</v>
       </c>
       <c r="F57" t="n">
-        <v>43.60249328613281</v>
+        <v>43.74853134155273</v>
       </c>
       <c r="G57" t="n">
-        <v>42.26253890991211</v>
+        <v>41.32780456542969</v>
       </c>
       <c r="H57" t="n">
-        <v>9.939017295837402</v>
+        <v>8.772930145263672</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.03481802366673947</v>
+        <v>0.007758336048573256</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04462082035839558</v>
+        <v>-0.01377361506223679</v>
       </c>
       <c r="C58" t="n">
-        <v>40.9283561706543</v>
+        <v>38.71751403808594</v>
       </c>
       <c r="D58" t="n">
-        <v>29.66714286804199</v>
+        <v>29.33117485046387</v>
       </c>
       <c r="E58" t="n">
-        <v>-4.574702262878418</v>
+        <v>-3.557589054107666</v>
       </c>
       <c r="F58" t="n">
-        <v>42.44496536254883</v>
+        <v>42.16636657714844</v>
       </c>
       <c r="G58" t="n">
-        <v>39.29313659667969</v>
+        <v>39.27217102050781</v>
       </c>
       <c r="H58" t="n">
-        <v>9.059366226196289</v>
+        <v>10.54823207855225</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.07125885725021362</v>
+        <v>0.03226896561682224</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06775932118296624</v>
+        <v>0.02264134790748358</v>
       </c>
       <c r="C59" t="n">
-        <v>39.6819953918457</v>
+        <v>37.96511840820312</v>
       </c>
       <c r="D59" t="n">
-        <v>28.39575576782227</v>
+        <v>27.91922378540039</v>
       </c>
       <c r="E59" t="n">
-        <v>-4.311022281646729</v>
+        <v>-3.307916164398193</v>
       </c>
       <c r="F59" t="n">
-        <v>41.01057434082031</v>
+        <v>40.53611755371094</v>
       </c>
       <c r="G59" t="n">
-        <v>37.63100433349609</v>
+        <v>36.97182464599609</v>
       </c>
       <c r="H59" t="n">
-        <v>8.312891006469727</v>
+        <v>9.650599479675293</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.09818645626306534</v>
+        <v>0.05464599415659905</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09226114392280579</v>
+        <v>0.05222605422139168</v>
       </c>
       <c r="C60" t="n">
-        <v>38.76100921630859</v>
+        <v>37.27821731567383</v>
       </c>
       <c r="D60" t="n">
-        <v>27.35800933837891</v>
+        <v>26.91610336303711</v>
       </c>
       <c r="E60" t="n">
-        <v>-3.901082754135132</v>
+        <v>-2.888176918029785</v>
       </c>
       <c r="F60" t="n">
-        <v>39.49166870117188</v>
+        <v>39.07570266723633</v>
       </c>
       <c r="G60" t="n">
-        <v>35.89482879638672</v>
+        <v>34.80100250244141</v>
       </c>
       <c r="H60" t="n">
-        <v>7.693583965301514</v>
+        <v>8.962989807128906</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1127641907334328</v>
+        <v>0.07018018513917923</v>
       </c>
       <c r="B61" t="n">
-        <v>0.114555551558733</v>
+        <v>0.07497572779655456</v>
       </c>
       <c r="C61" t="n">
-        <v>38.26241683959961</v>
+        <v>36.80136871337891</v>
       </c>
       <c r="D61" t="n">
-        <v>26.85922050476074</v>
+        <v>26.48928070068359</v>
       </c>
       <c r="E61" t="n">
-        <v>-3.263896465301514</v>
+        <v>-2.16459846496582</v>
       </c>
       <c r="F61" t="n">
-        <v>38.10960388183594</v>
+        <v>37.85742950439453</v>
       </c>
       <c r="G61" t="n">
-        <v>34.42283630371094</v>
+        <v>33.015380859375</v>
       </c>
       <c r="H61" t="n">
-        <v>7.259899616241455</v>
+        <v>8.608791351318359</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.1158194227516651</v>
+        <v>0.07554544597864152</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1322427825629711</v>
+        <v>0.09218253105878831</v>
       </c>
       <c r="C62" t="n">
-        <v>38.15792083740234</v>
+        <v>36.63667297363281</v>
       </c>
       <c r="D62" t="n">
-        <v>27.04901504516602</v>
+        <v>26.73152923583984</v>
       </c>
       <c r="E62" t="n">
-        <v>-2.349645614624023</v>
+        <v>-1.13178014755249</v>
       </c>
       <c r="F62" t="n">
-        <v>37.01314544677734</v>
+        <v>37.85742950439453</v>
       </c>
       <c r="G62" t="n">
-        <v>33.40067291259766</v>
+        <v>31.77005004882812</v>
       </c>
       <c r="H62" t="n">
-        <v>7.114545345306396</v>
+        <v>8.579958915710449</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1114040476083756</v>
+        <v>0.07207457035779953</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1451806166768074</v>
+        <v>0.1052929912507534</v>
       </c>
       <c r="C63" t="n">
-        <v>38.30893707275391</v>
+        <v>36.74321746826172</v>
       </c>
       <c r="D63" t="n">
-        <v>27.83981323242188</v>
+        <v>27.56564903259277</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.18966007232666</v>
+        <v>0.1051244214177132</v>
       </c>
       <c r="F63" t="n">
-        <v>36.21110916137695</v>
+        <v>35.89540100097656</v>
       </c>
       <c r="G63" t="n">
-        <v>33.40067291259766</v>
+        <v>31.77005004882812</v>
       </c>
       <c r="H63" t="n">
-        <v>7.338244915008545</v>
+        <v>8.869566917419434</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1056327545642853</v>
+        <v>0.06552911356091499</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1547467139363289</v>
+        <v>0.1157317276299</v>
       </c>
       <c r="C64" t="n">
-        <v>38.50632858276367</v>
+        <v>36.94414138793945</v>
       </c>
       <c r="D64" t="n">
-        <v>28.91411399841309</v>
+        <v>28.6990909576416</v>
       </c>
       <c r="E64" t="n">
-        <v>0.09860462695360184</v>
+        <v>1.387783527374268</v>
       </c>
       <c r="F64" t="n">
-        <v>35.61809158325195</v>
+        <v>35.30321502685547</v>
       </c>
       <c r="G64" t="n">
-        <v>32.38381195068359</v>
+        <v>30.44345474243164</v>
       </c>
       <c r="H64" t="n">
-        <v>7.953710079193115</v>
+        <v>9.475481986999512</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.1043065080046654</v>
+        <v>0.06256774470210076</v>
       </c>
       <c r="B65" t="n">
-        <v>0.163439271748066</v>
+        <v>0.1251961115002632</v>
       </c>
       <c r="C65" t="n">
-        <v>38.55168914794922</v>
+        <v>37.0350456237793</v>
       </c>
       <c r="D65" t="n">
-        <v>29.92574501037598</v>
+        <v>29.75905418395996</v>
       </c>
       <c r="E65" t="n">
-        <v>1.356525897979736</v>
+        <v>2.585670948028564</v>
       </c>
       <c r="F65" t="n">
-        <v>35.07922744750977</v>
+        <v>34.76630401611328</v>
       </c>
       <c r="G65" t="n">
-        <v>32.77461624145508</v>
+        <v>30.79433441162109</v>
       </c>
       <c r="H65" t="n">
-        <v>8.838652610778809</v>
+        <v>10.2985315322876</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.1114937171339989</v>
+        <v>0.06847793310880661</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1735822108387947</v>
+        <v>0.1358023563027382</v>
       </c>
       <c r="C66" t="n">
-        <v>38.30587005615234</v>
+        <v>36.85362243652344</v>
       </c>
       <c r="D66" t="n">
-        <v>30.65633583068848</v>
+        <v>30.47185897827148</v>
       </c>
       <c r="E66" t="n">
-        <v>2.432639598846436</v>
+        <v>3.591633319854736</v>
       </c>
       <c r="F66" t="n">
-        <v>34.4504508972168</v>
+        <v>34.16461563110352</v>
       </c>
       <c r="G66" t="n">
-        <v>33.37457656860352</v>
+        <v>31.36815643310547</v>
       </c>
       <c r="H66" t="n">
-        <v>9.863768577575684</v>
+        <v>11.22258472442627</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.1283065873384476</v>
+        <v>0.08514969661831856</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1867797264456749</v>
+        <v>0.1493365156650543</v>
       </c>
       <c r="C67" t="n">
-        <v>37.73083114624023</v>
+        <v>36.34185409545898</v>
       </c>
       <c r="D67" t="n">
-        <v>31.07314872741699</v>
+        <v>30.76851463317871</v>
       </c>
       <c r="E67" t="n">
-        <v>3.263794422149658</v>
+        <v>4.377828121185303</v>
       </c>
       <c r="F67" t="n">
-        <v>33.63231658935547</v>
+        <v>33.39682769775391</v>
       </c>
       <c r="G67" t="n">
-        <v>34.0323486328125</v>
+        <v>31.99765396118164</v>
       </c>
       <c r="H67" t="n">
-        <v>10.91695499420166</v>
+        <v>12.15672206878662</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.1536530837416649</v>
+        <v>0.1115603019297123</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2037268561124802</v>
+        <v>0.1668117588758469</v>
       </c>
       <c r="C68" t="n">
-        <v>36.86392211914062</v>
+        <v>35.53113555908203</v>
       </c>
       <c r="D68" t="n">
-        <v>31.24927520751953</v>
+        <v>30.74729156494141</v>
       </c>
       <c r="E68" t="n">
-        <v>3.86797571182251</v>
+        <v>4.963855266571045</v>
       </c>
       <c r="F68" t="n">
-        <v>32.58173751831055</v>
+        <v>32.40546417236328</v>
       </c>
       <c r="G68" t="n">
-        <v>34.64347457885742</v>
+        <v>32.57524490356445</v>
       </c>
       <c r="H68" t="n">
-        <v>11.93045520782471</v>
+        <v>13.04886150360107</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.1851953700184822</v>
+        <v>0.1452429604530334</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2247852632403374</v>
+        <v>0.1885608756542206</v>
       </c>
       <c r="C69" t="n">
-        <v>35.78510284423828</v>
+        <v>34.49718856811523</v>
       </c>
       <c r="D69" t="n">
-        <v>31.30093193054199</v>
+        <v>30.58213424682617</v>
       </c>
       <c r="E69" t="n">
-        <v>4.334777355194092</v>
+        <v>5.425503253936768</v>
       </c>
       <c r="F69" t="n">
-        <v>31.27629470825195</v>
+        <v>31.17164421081543</v>
       </c>
       <c r="G69" t="n">
-        <v>35.13566589355469</v>
+        <v>33.03475570678711</v>
       </c>
       <c r="H69" t="n">
-        <v>12.86135196685791</v>
+        <v>13.87384700775146</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.2203278174996376</v>
+        <v>0.1834474697709084</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2496297556161881</v>
+        <v>0.2142554199695587</v>
       </c>
       <c r="C70" t="n">
-        <v>34.58349227905273</v>
+        <v>33.32443618774414</v>
       </c>
       <c r="D70" t="n">
-        <v>31.35262870788574</v>
+        <v>30.44311332702637</v>
       </c>
       <c r="E70" t="n">
-        <v>4.7873215675354</v>
+        <v>5.865435123443604</v>
       </c>
       <c r="F70" t="n">
-        <v>29.73614692687988</v>
+        <v>29.71400260925293</v>
       </c>
       <c r="G70" t="n">
-        <v>35.50055694580078</v>
+        <v>33.36051559448242</v>
       </c>
       <c r="H70" t="n">
-        <v>13.68951892852783</v>
+        <v>14.62410831451416</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.2577460086345673</v>
+        <v>0.2243119749426842</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2779551219940186</v>
+        <v>0.2434248992800713</v>
       </c>
       <c r="C71" t="n">
-        <v>33.30370330810547</v>
+        <v>32.07003021240234</v>
       </c>
       <c r="D71" t="n">
-        <v>31.5221996307373</v>
+        <v>30.4603385925293</v>
       </c>
       <c r="E71" t="n">
-        <v>5.338630199432373</v>
+        <v>6.378990650177002</v>
       </c>
       <c r="F71" t="n">
-        <v>27.9802131652832</v>
+        <v>28.05922889709473</v>
       </c>
       <c r="G71" t="n">
-        <v>35.76621246337891</v>
+        <v>33.57721328735352</v>
       </c>
       <c r="H71" t="n">
-        <v>14.41282176971436</v>
+        <v>15.29946041107178</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.2967528367042542</v>
+        <v>0.2669817644357682</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3091198390722275</v>
+        <v>0.2755832469463348</v>
       </c>
       <c r="C72" t="n">
-        <v>31.96957969665527</v>
+        <v>30.76020812988281</v>
       </c>
       <c r="D72" t="n">
-        <v>31.92009353637695</v>
+        <v>30.70092964172363</v>
       </c>
       <c r="E72" t="n">
-        <v>6.048491954803467</v>
+        <v>6.996164798736572</v>
       </c>
       <c r="F72" t="n">
-        <v>25.02953720092773</v>
+        <v>26.23489761352539</v>
       </c>
       <c r="G72" t="n">
-        <v>35.98685836791992</v>
+        <v>33.73427963256836</v>
       </c>
       <c r="H72" t="n">
-        <v>15.03600597381592</v>
+        <v>15.90961170196533</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.3365402966737747</v>
+        <v>0.3104760491847992</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3419864922761917</v>
+        <v>0.3098340678215027</v>
       </c>
       <c r="C73" t="n">
-        <v>30.60875701904297</v>
+        <v>29.42507743835449</v>
       </c>
       <c r="D73" t="n">
-        <v>32.59830093383789</v>
+        <v>31.18837547302246</v>
       </c>
       <c r="E73" t="n">
-        <v>6.911702632904053</v>
+        <v>7.719898700714111</v>
       </c>
       <c r="F73" t="n">
-        <v>23.50657653808594</v>
+        <v>24.29186058044434</v>
       </c>
       <c r="G73" t="n">
-        <v>36.21198654174805</v>
+        <v>33.8964958190918</v>
       </c>
       <c r="H73" t="n">
-        <v>15.58639812469482</v>
+        <v>16.47568702697754</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.3755781149864197</v>
+        <v>0.3537703031301498</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3746876430511475</v>
+        <v>0.3448997330665589</v>
       </c>
       <c r="C74" t="n">
-        <v>29.27357292175293</v>
+        <v>28.0960865020752</v>
       </c>
       <c r="D74" t="n">
-        <v>33.54164886474609</v>
+        <v>31.91133308410645</v>
       </c>
       <c r="E74" t="n">
-        <v>7.929813861846924</v>
+        <v>8.541969299316406</v>
       </c>
       <c r="F74" t="n">
-        <v>21.81215667724609</v>
+        <v>22.30259895324707</v>
       </c>
       <c r="G74" t="n">
-        <v>36.49121475219727</v>
+        <v>34.11829376220703</v>
       </c>
       <c r="H74" t="n">
-        <v>16.1685619354248</v>
+        <v>17.06711196899414</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.4112670600414277</v>
+        <v>0.3955326724052429</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4047865295410156</v>
+        <v>0.3791456890106201</v>
       </c>
       <c r="C75" t="n">
-        <v>28.05292892456055</v>
+        <v>26.81411933898926</v>
       </c>
       <c r="D75" t="n">
-        <v>34.6870002746582</v>
+        <v>32.80439376831055</v>
       </c>
       <c r="E75" t="n">
-        <v>9.149600982666016</v>
+        <v>9.475364685058594</v>
       </c>
       <c r="F75" t="n">
-        <v>20.18451690673828</v>
+        <v>20.35983848571777</v>
       </c>
       <c r="G75" t="n">
-        <v>36.86651229858398</v>
+        <v>34.43405151367188</v>
       </c>
       <c r="H75" t="n">
-        <v>16.87573623657227</v>
+        <v>17.78536987304688</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.4407208061218262</v>
+        <v>0.4325472795963288</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4299651700258255</v>
+        <v>0.410229281783104</v>
       </c>
       <c r="C76" t="n">
-        <v>27.04554176330566</v>
+        <v>25.67789268493652</v>
       </c>
       <c r="D76" t="n">
-        <v>35.99041748046875</v>
+        <v>33.84972381591797</v>
       </c>
       <c r="E76" t="n">
-        <v>10.60165596008301</v>
+        <v>10.58935356140137</v>
       </c>
       <c r="F76" t="n">
-        <v>18.77724075317383</v>
+        <v>18.59647750854492</v>
       </c>
       <c r="G76" t="n">
-        <v>37.36785507202148</v>
+        <v>34.89387893676758</v>
       </c>
       <c r="H76" t="n">
-        <v>17.68314552307129</v>
+        <v>18.63603973388672</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4622082275152207</v>
+        <v>0.4610646843910218</v>
       </c>
       <c r="B77" t="n">
-        <v>0.449111517071724</v>
+        <v>0.4360233676433564</v>
       </c>
       <c r="C77" t="n">
-        <v>26.31062316894531</v>
+        <v>24.8025016784668</v>
       </c>
       <c r="D77" t="n">
-        <v>37.44022369384766</v>
+        <v>35.07500457763672</v>
       </c>
       <c r="E77" t="n">
-        <v>12.21512413024902</v>
+        <v>11.87244987487793</v>
       </c>
       <c r="F77" t="n">
-        <v>17.63494110107422</v>
+        <v>17.13318824768066</v>
       </c>
       <c r="G77" t="n">
-        <v>37.9658317565918</v>
+        <v>35.52875900268555</v>
       </c>
       <c r="H77" t="n">
-        <v>18.39565849304199</v>
+        <v>19.46720695495605</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.4771198731660843</v>
+        <v>0.4796413922309876</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4632638227939606</v>
+        <v>0.4559314239025116</v>
       </c>
       <c r="C78" t="n">
-        <v>25.80060958862305</v>
+        <v>24.23225784301758</v>
       </c>
       <c r="D78" t="n">
-        <v>38.97727584838867</v>
+        <v>36.44131851196289</v>
       </c>
       <c r="E78" t="n">
-        <v>13.78277206420898</v>
+        <v>13.16423225402832</v>
       </c>
       <c r="F78" t="n">
-        <v>17.63494110107422</v>
+        <v>16.00381278991699</v>
       </c>
       <c r="G78" t="n">
-        <v>38.52936553955078</v>
+        <v>36.28406524658203</v>
       </c>
       <c r="H78" t="n">
-        <v>18.70248222351074</v>
+        <v>20.01744651794434</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4895598179101944</v>
+        <v>0.489513948559761</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4750357556343079</v>
+        <v>0.4709304487705231</v>
       </c>
       <c r="C79" t="n">
-        <v>25.37513542175293</v>
+        <v>23.92920303344727</v>
       </c>
       <c r="D79" t="n">
-        <v>40.45597457885742</v>
+        <v>37.83557510375977</v>
       </c>
       <c r="E79" t="n">
-        <v>15.03628349304199</v>
+        <v>14.27744483947754</v>
       </c>
       <c r="F79" t="n">
-        <v>15.7628812789917</v>
+        <v>15.15292453765869</v>
       </c>
       <c r="G79" t="n">
-        <v>38.85644912719727</v>
+        <v>37.01396560668945</v>
       </c>
       <c r="H79" t="n">
-        <v>18.25465965270996</v>
+        <v>19.95657920837402</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.5033050173521042</v>
+        <v>0.4944315725564957</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4869077354669571</v>
+        <v>0.4832820349931717</v>
       </c>
       <c r="C80" t="n">
-        <v>24.9050178527832</v>
+        <v>23.77824783325195</v>
       </c>
       <c r="D80" t="n">
-        <v>41.70235443115234</v>
+        <v>39.09587860107422</v>
       </c>
       <c r="E80" t="n">
-        <v>15.64419937133789</v>
+        <v>14.98509979248047</v>
       </c>
       <c r="F80" t="n">
-        <v>15.0269193649292</v>
+        <v>14.45222282409668</v>
       </c>
       <c r="G80" t="n">
-        <v>38.81493759155273</v>
+        <v>37.52255249023438</v>
       </c>
       <c r="H80" t="n">
-        <v>15.78907012939453</v>
+        <v>19.03776168823242</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.5178692942857742</v>
+        <v>0.4976606231927872</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4991455328464509</v>
+        <v>0.4949948620796204</v>
       </c>
       <c r="C81" t="n">
-        <v>24.40688514709473</v>
+        <v>23.67912673950195</v>
       </c>
       <c r="D81" t="n">
-        <v>42.63580703735352</v>
+        <v>40.10744094848633</v>
       </c>
       <c r="E81" t="n">
-        <v>15.30118751525879</v>
+        <v>15.02859115600586</v>
       </c>
       <c r="F81" t="n">
-        <v>14.26828098297119</v>
+        <v>13.78775787353516</v>
       </c>
       <c r="G81" t="n">
-        <v>38.42053604125977</v>
+        <v>37.66146087646484</v>
       </c>
       <c r="H81" t="n">
-        <v>13.64932060241699</v>
+        <v>15.68658065795898</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.5281234949827195</v>
+        <v>0.4988120007514954</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5092671167850494</v>
+        <v>0.5061086708307266</v>
       </c>
       <c r="C82" t="n">
-        <v>24.05616760253906</v>
+        <v>23.64378356933594</v>
       </c>
       <c r="D82" t="n">
-        <v>43.32867050170898</v>
+        <v>40.90298843383789</v>
       </c>
       <c r="E82" t="n">
-        <v>12.44658088684082</v>
+        <v>13.11751937866211</v>
       </c>
       <c r="F82" t="n">
-        <v>13.64082717895508</v>
+        <v>13.15727615356445</v>
       </c>
       <c r="G82" t="n">
-        <v>37.8646125793457</v>
+        <v>37.43820571899414</v>
       </c>
       <c r="H82" t="n">
-        <v>10.5596399307251</v>
+        <v>12.96189880371094</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.5274300527572632</v>
+        <v>0.4930823123455048</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5133720761537552</v>
+        <v>0.5139981991052628</v>
       </c>
       <c r="C83" t="n">
-        <v>24.07988548278809</v>
+        <v>23.81966590881348</v>
       </c>
       <c r="D83" t="n">
-        <v>43.96184158325195</v>
+        <v>41.68560791015625</v>
       </c>
       <c r="E83" t="n">
-        <v>9.696107864379883</v>
+        <v>10.856369972229</v>
       </c>
       <c r="F83" t="n">
-        <v>13.38635444641113</v>
+        <v>12.70970630645752</v>
       </c>
       <c r="G83" t="n">
-        <v>37.4674186706543</v>
+        <v>37.06035995483398</v>
       </c>
       <c r="H83" t="n">
-        <v>6.618788719177246</v>
+        <v>9.084471702575684</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.5105839967727661</v>
+        <v>0.4737943452596665</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5069305914640427</v>
+        <v>0.513894266486168</v>
       </c>
       <c r="C84" t="n">
-        <v>24.65605926513672</v>
+        <v>24.4117431640625</v>
       </c>
       <c r="D84" t="n">
-        <v>44.77498626708984</v>
+        <v>42.75582504272461</v>
       </c>
       <c r="E84" t="n">
-        <v>5.735359191894531</v>
+        <v>7.332415580749512</v>
       </c>
       <c r="F84" t="n">
-        <v>13.78567218780518</v>
+        <v>12.71560096740723</v>
       </c>
       <c r="G84" t="n">
-        <v>37.65037155151367</v>
+        <v>36.90866470336914</v>
       </c>
       <c r="H84" t="n">
-        <v>2.152790069580078</v>
+        <v>4.365699291229248</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.4766564095020294</v>
+        <v>0.4373270744085312</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5461947208452018</v>
+        <v>0.5406625022164486</v>
       </c>
       <c r="C85" t="n">
-        <v>25.81646156311035</v>
+        <v>25.53116798400879</v>
       </c>
       <c r="D85" t="n">
-        <v>45.89694595336914</v>
+        <v>45.38190841674805</v>
       </c>
       <c r="E85" t="n">
-        <v>1.017064332962036</v>
+        <v>2.876040697097778</v>
       </c>
       <c r="F85" t="n">
-        <v>14.97191524505615</v>
+        <v>13.45760345458984</v>
       </c>
       <c r="G85" t="n">
-        <v>39.72067642211914</v>
+        <v>37.39498519897461</v>
       </c>
       <c r="H85" t="n">
-        <v>-2.26967716217041</v>
+        <v>-0.4905843734741211</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.5787814845143564</v>
+        <v>0.5919466806543016</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6098278517619227</v>
+        <v>0.5916529002306503</v>
       </c>
       <c r="C86" t="n">
-        <v>28.6273365020752</v>
+        <v>28.19074821472168</v>
       </c>
       <c r="D86" t="n">
-        <v>47.39757919311523</v>
+        <v>47.16154861450195</v>
       </c>
       <c r="E86" t="n">
-        <v>-3.627313613891602</v>
+        <v>-1.708240866661072</v>
       </c>
       <c r="F86" t="n">
-        <v>18.30594635009766</v>
+        <v>16.4785270690918</v>
       </c>
       <c r="G86" t="n">
-        <v>41.7595100402832</v>
+        <v>40.07695007324219</v>
       </c>
       <c r="H86" t="n">
-        <v>-6.046541690826416</v>
+        <v>-4.607714653015137</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.712006321201943</v>
+        <v>0.7559269214774044</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6964437142856799</v>
+        <v>0.6733520998965491</v>
       </c>
       <c r="C87" t="n">
-        <v>30.48332595825195</v>
+        <v>29.94338226318359</v>
       </c>
       <c r="D87" t="n">
-        <v>50.58403778076172</v>
+        <v>49.42990112304688</v>
       </c>
       <c r="E87" t="n">
-        <v>-7.330586433410645</v>
+        <v>-5.480280876159668</v>
       </c>
       <c r="F87" t="n">
-        <v>20.57719421386719</v>
+        <v>18.90964698791504</v>
       </c>
       <c r="G87" t="n">
-        <v>44.63743209838867</v>
+        <v>42.40676116943359</v>
       </c>
       <c r="H87" t="n">
-        <v>-8.908523559570312</v>
+        <v>-7.519529819488525</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8446232599211063</v>
+        <v>0.8910899455527701</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7933887333177109</v>
+        <v>0.7769830545224031</v>
       </c>
       <c r="C88" t="n">
-        <v>32.9141845703125</v>
+        <v>32.2496452331543</v>
       </c>
       <c r="D88" t="n">
-        <v>52.65702819824219</v>
+        <v>52.00357437133789</v>
       </c>
       <c r="E88" t="n">
-        <v>-9.577776908874512</v>
+        <v>-7.813064098358154</v>
       </c>
       <c r="F88" t="n">
-        <v>23.51470565795898</v>
+        <v>22.17624282836914</v>
       </c>
       <c r="G88" t="n">
-        <v>48.05097961425781</v>
+        <v>45.5653190612793</v>
       </c>
       <c r="H88" t="n">
-        <v>-10.77895832061768</v>
+        <v>-9.212752342224121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.941935460002258</v>
+        <v>0.9705470077679995</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8820352625569797</v>
+        <v>0.8781632004214928</v>
       </c>
       <c r="C89" t="n">
-        <v>35.7869873046875</v>
+        <v>34.9591064453125</v>
       </c>
       <c r="D89" t="n">
-        <v>55.19609832763672</v>
+        <v>54.68308258056641</v>
       </c>
       <c r="E89" t="n">
-        <v>-9.577776908874512</v>
+        <v>-7.813064098358154</v>
       </c>
       <c r="F89" t="n">
-        <v>26.96223831176758</v>
+        <v>25.98352241516113</v>
       </c>
       <c r="G89" t="n">
-        <v>51.65272521972656</v>
+        <v>49.16919326782227</v>
       </c>
       <c r="H89" t="n">
-        <v>-10.77895832061768</v>
+        <v>-9.212752342224121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9889188886201756</v>
+        <v>0.9976699064526232</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9468572506245894</v>
+        <v>0.9510580102978557</v>
       </c>
       <c r="C90" t="n">
-        <v>38.99203491210938</v>
+        <v>37.92744445800781</v>
       </c>
       <c r="D90" t="n">
-        <v>57.76023864746094</v>
+        <v>57.20213317871094</v>
       </c>
       <c r="E90" t="n">
-        <v>-11.16789817810059</v>
+        <v>-9.478973388671875</v>
       </c>
       <c r="F90" t="n">
-        <v>30.84989166259766</v>
+        <v>30.08997344970703</v>
       </c>
       <c r="G90" t="n">
-        <v>55.22974395751953</v>
+        <v>52.77845001220703</v>
       </c>
       <c r="H90" t="n">
-        <v>-10.95853519439697</v>
+        <v>-8.933116912841797</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.000047601308096</v>
+        <v>1.000277864292356</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9830593925915521</v>
+        <v>0.9875113261736326</v>
       </c>
       <c r="C91" t="n">
-        <v>42.39603805541992</v>
+        <v>41.042724609375</v>
       </c>
       <c r="D91" t="n">
-        <v>59.89248275756836</v>
+        <v>59.28552627563477</v>
       </c>
       <c r="E91" t="n">
-        <v>-8.524867057800293</v>
+        <v>-6.882517337799072</v>
       </c>
       <c r="F91" t="n">
-        <v>35.10948944091797</v>
+        <v>34.38344573974609</v>
       </c>
       <c r="G91" t="n">
-        <v>58.75204467773438</v>
+        <v>56.10315704345703</v>
       </c>
       <c r="H91" t="n">
-        <v>-8.516292572021484</v>
+        <v>-6.52106761932373</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9999903343052394</v>
+        <v>0.9999111487083605</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9969878171134928</v>
+        <v>0.9986742713516281</v>
       </c>
       <c r="C92" t="n">
-        <v>45.83832931518555</v>
+        <v>44.22303009033203</v>
       </c>
       <c r="D92" t="n">
-        <v>61.28848266601562</v>
+        <v>60.75349426269531</v>
       </c>
       <c r="E92" t="n">
-        <v>-6.889797687530518</v>
+        <v>-5.455140590667725</v>
       </c>
       <c r="F92" t="n">
-        <v>39.62717819213867</v>
+        <v>38.86685943603516</v>
       </c>
       <c r="G92" t="n">
-        <v>62.2501106262207</v>
+        <v>59.17224502563477</v>
       </c>
       <c r="H92" t="n">
-        <v>-5.417984485626221</v>
+        <v>-3.470829725265503</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.00000381856436</v>
+        <v>1.000046135265806</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9999022500580571</v>
+        <v>1.000065329990353</v>
       </c>
       <c r="C93" t="n">
-        <v>49.14797973632812</v>
+        <v>47.34736633300781</v>
       </c>
       <c r="D93" t="n">
-        <v>61.28848266601562</v>
+        <v>60.75349426269531</v>
       </c>
       <c r="E93" t="n">
-        <v>-5.279695510864258</v>
+        <v>-4.205887794494629</v>
       </c>
       <c r="F93" t="n">
-        <v>44.22417449951172</v>
+        <v>43.50925064086914</v>
       </c>
       <c r="G93" t="n">
-        <v>65.57864379882812</v>
+        <v>62.12970733642578</v>
       </c>
       <c r="H93" t="n">
-        <v>-2.457371473312378</v>
+        <v>-0.5693454742431641</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9999978221758163</v>
+        <v>0.999967343613106</v>
       </c>
       <c r="B94" t="n">
-        <v>1.000010740538736</v>
+        <v>0.9999863480582242</v>
       </c>
       <c r="C94" t="n">
-        <v>52.12693023681641</v>
+        <v>50.17257690429688</v>
       </c>
       <c r="D94" t="n">
-        <v>62.33543395996094</v>
+        <v>62.17513275146484</v>
       </c>
       <c r="E94" t="n">
-        <v>-4.212129592895508</v>
+        <v>-4.205887794494629</v>
       </c>
       <c r="F94" t="n">
-        <v>48.63816833496094</v>
+        <v>48.07846069335938</v>
       </c>
       <c r="G94" t="n">
-        <v>68.28016662597656</v>
+        <v>64.78111267089844</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.1413064002990723</v>
+        <v>1.625170111656189</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.000001560231594</v>
+        <v>1.000028185984795</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9999974367340889</v>
+        <v>1.000004894275772</v>
       </c>
       <c r="C95" t="n">
-        <v>54.55774688720703</v>
+        <v>52.4460334777832</v>
       </c>
       <c r="D95" t="n">
-        <v>59.55961608886719</v>
+        <v>59.52496337890625</v>
       </c>
       <c r="E95" t="n">
-        <v>-4.212129592895508</v>
+        <v>-2.857580661773682</v>
       </c>
       <c r="F95" t="n">
-        <v>52.52978897094727</v>
+        <v>52.13065719604492</v>
       </c>
       <c r="G95" t="n">
-        <v>69.63925170898438</v>
+        <v>66.45018005371094</v>
       </c>
       <c r="H95" t="n">
-        <v>1.317847371101379</v>
+        <v>2.908445835113525</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9999987201778948</v>
+        <v>0.9999726896641721</v>
       </c>
       <c r="B96" t="n">
-        <v>1.000000874588623</v>
+        <v>0.9999976699227585</v>
       </c>
       <c r="C96" t="n">
-        <v>56.20205688476562</v>
+        <v>54.00534820556641</v>
       </c>
       <c r="D96" t="n">
-        <v>56.78337097167969</v>
+        <v>56.56014251708984</v>
       </c>
       <c r="E96" t="n">
-        <v>-5.549456119537354</v>
+        <v>-4.775141716003418</v>
       </c>
       <c r="F96" t="n">
-        <v>55.51734161376953</v>
+        <v>55.15655899047852</v>
       </c>
       <c r="G96" t="n">
-        <v>69.63925170898438</v>
+        <v>66.45018005371094</v>
       </c>
       <c r="H96" t="n">
-        <v>1.317847371101379</v>
+        <v>2.908445835113525</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.000001110371455</v>
+        <v>1.000027880637428</v>
       </c>
       <c r="B97" t="n">
-        <v>0.999999646128814</v>
+        <v>1.00000126427155</v>
       </c>
       <c r="C97" t="n">
-        <v>56.20205688476562</v>
+        <v>54.00534820556641</v>
       </c>
       <c r="D97" t="n">
-        <v>52.62380599975586</v>
+        <v>52.0734977722168</v>
       </c>
       <c r="E97" t="n">
-        <v>-8.970934867858887</v>
+        <v>-7.564317226409912</v>
       </c>
       <c r="F97" t="n">
-        <v>57.24159240722656</v>
+        <v>56.76085662841797</v>
       </c>
       <c r="G97" t="n">
-        <v>65.39662170410156</v>
+        <v>63.62285614013672</v>
       </c>
       <c r="H97" t="n">
-        <v>1.037994384765625</v>
+        <v>2.298457622528076</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9999990617875872</v>
+        <v>0.9999715794739439</v>
       </c>
       <c r="B98" t="n">
-        <v>1.000000148146055</v>
+        <v>0.9999993063394267</v>
       </c>
       <c r="C98" t="n">
-        <v>57.43587875366211</v>
+        <v>55.53996658325195</v>
       </c>
       <c r="D98" t="n">
-        <v>47.55256652832031</v>
+        <v>46.56227493286133</v>
       </c>
       <c r="E98" t="n">
-        <v>-13.93115234375</v>
+        <v>-11.90354919433594</v>
       </c>
       <c r="F98" t="n">
-        <v>57.24159240722656</v>
+        <v>56.76085662841797</v>
       </c>
       <c r="G98" t="n">
-        <v>60.38198852539062</v>
+        <v>58.69794082641602</v>
       </c>
       <c r="H98" t="n">
-        <v>-1.368545293807983</v>
+        <v>-0.1767280101776123</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.000000715986994</v>
+        <v>1.000027269357767</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9999999436536524</v>
+        <v>1.000000343047446</v>
       </c>
       <c r="C99" t="n">
-        <v>54.90667724609375</v>
+        <v>54.56594085693359</v>
       </c>
       <c r="D99" t="n">
-        <v>42.39324188232422</v>
+        <v>41.04800796508789</v>
       </c>
       <c r="E99" t="n">
-        <v>-18.89999008178711</v>
+        <v>-16.44252586364746</v>
       </c>
       <c r="F99" t="n">
-        <v>56.51558685302734</v>
+        <v>55.33539581298828</v>
       </c>
       <c r="G99" t="n">
-        <v>54.53182220458984</v>
+        <v>52.51992797851562</v>
       </c>
       <c r="H99" t="n">
-        <v>-4.218530654907227</v>
+        <v>-3.024158954620361</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9999995362425383</v>
+        <v>0.9999771074896047</v>
       </c>
       <c r="B100" t="n">
-        <v>1.000000017342927</v>
+        <v>0.999999862353677</v>
       </c>
       <c r="C100" t="n">
-        <v>53.25027465820312</v>
+        <v>51.36181640625</v>
       </c>
       <c r="D100" t="n">
-        <v>38.04080200195312</v>
+        <v>36.65824890136719</v>
       </c>
       <c r="E100" t="n">
-        <v>-21.65726852416992</v>
+        <v>-18.89040756225586</v>
       </c>
       <c r="F100" t="n">
-        <v>54.55682373046875</v>
+        <v>53.18842315673828</v>
       </c>
       <c r="G100" t="n">
-        <v>49.30680084228516</v>
+        <v>46.82952880859375</v>
       </c>
       <c r="H100" t="n">
-        <v>-5.720088958740234</v>
+        <v>-4.369023323059082</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.00000024239462</v>
+        <v>1.000015695282958</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9999999961007493</v>
+        <v>1.000000041993431</v>
       </c>
       <c r="C101" t="n">
-        <v>51.33652496337891</v>
+        <v>49.49966430664062</v>
       </c>
       <c r="D101" t="n">
-        <v>35.16627502441406</v>
+        <v>34.00464630126953</v>
       </c>
       <c r="E101" t="n">
-        <v>-21.65726852416992</v>
+        <v>-18.89040756225586</v>
       </c>
       <c r="F101" t="n">
-        <v>52.29226684570312</v>
+        <v>50.91815948486328</v>
       </c>
       <c r="G101" t="n">
-        <v>45.66503524780273</v>
+        <v>42.83376312255859</v>
       </c>
       <c r="H101" t="n">
-        <v>-4.53644323348999</v>
+        <v>-3.166982173919678</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.9999999023378833</v>
+        <v>0.9999916244485658</v>
       </c>
       <c r="B102" t="n">
-        <v>1.000000000571632</v>
+        <v>0.999999990531575</v>
       </c>
       <c r="C102" t="n">
-        <v>49.54914855957031</v>
+        <v>47.63119506835938</v>
       </c>
       <c r="D102" t="n">
-        <v>33.94942474365234</v>
+        <v>34.00464630126953</v>
       </c>
       <c r="E102" t="n">
-        <v>-16.32884979248047</v>
+        <v>-13.890793800354</v>
       </c>
       <c r="F102" t="n">
-        <v>50.12233734130859</v>
+        <v>48.89642333984375</v>
       </c>
       <c r="G102" t="n">
-        <v>43.77679061889648</v>
+        <v>40.80304718017578</v>
       </c>
       <c r="H102" t="n">
-        <v>-1.151995539665222</v>
+        <v>-0.08218514919281006</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.000000030399833</v>
+        <v>1.000003504330857</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9999999999523055</v>
+        <v>1.000000001576478</v>
       </c>
       <c r="C103" t="n">
-        <v>45.03661346435547</v>
+        <v>41.0531120300293</v>
       </c>
       <c r="D103" t="n">
-        <v>31.76945495605469</v>
+        <v>26.56808090209961</v>
       </c>
       <c r="E103" t="n">
-        <v>-14.31342792510986</v>
+        <v>-11.71008014678955</v>
       </c>
       <c r="F103" t="n">
-        <v>46.60443878173828</v>
+        <v>42.47285461425781</v>
       </c>
       <c r="G103" t="n">
-        <v>40.34047698974609</v>
+        <v>32.38571548461914</v>
       </c>
       <c r="H103" t="n">
-        <v>-1.151995539665222</v>
+        <v>-2.913042068481445</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.04663810037076473</v>
+        <v>0.1459648498892784</v>
       </c>
       <c r="B104" t="n">
-        <v>0.03427136652171612</v>
+        <v>0.1025804525613785</v>
       </c>
       <c r="C104" t="n">
-        <v>45.03661346435547</v>
+        <v>41.0531120300293</v>
       </c>
       <c r="D104" t="n">
-        <v>31.76945495605469</v>
+        <v>25.43857955932617</v>
       </c>
       <c r="E104" t="n">
-        <v>-10.72484016418457</v>
+        <v>-10.09162712097168</v>
       </c>
       <c r="F104" t="n">
-        <v>46.60443878173828</v>
+        <v>42.47285461425781</v>
       </c>
       <c r="G104" t="n">
-        <v>41.44610214233398</v>
+        <v>32.38571548461914</v>
       </c>
       <c r="H104" t="n">
-        <v>0.9031370878219604</v>
+        <v>-2.913042068481445</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.05714041255414486</v>
+        <v>-0.03019712690263987</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.03693894013762474</v>
+        <v>-0.04174434296786785</v>
       </c>
       <c r="C105" t="n">
-        <v>44.07354736328125</v>
+        <v>39.88262176513672</v>
       </c>
       <c r="D105" t="n">
-        <v>32.30311965942383</v>
+        <v>27.53525161743164</v>
       </c>
       <c r="E105" t="n">
-        <v>-7.722829818725586</v>
+        <v>-7.880785942077637</v>
       </c>
       <c r="F105" t="n">
-        <v>47.50098037719727</v>
+        <v>45.51824951171875</v>
       </c>
       <c r="G105" t="n">
-        <v>41.44610214233398</v>
+        <v>34.64011001586914</v>
       </c>
       <c r="H105" t="n">
-        <v>5.182356834411621</v>
+        <v>0.8050594329833984</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-0.03502056986093521</v>
+        <v>-0.04945521138608456</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.01601942343637347</v>
+        <v>-0.0869226086139679</v>
       </c>
       <c r="C106" t="n">
-        <v>43.31699752807617</v>
+        <v>40.47378158569336</v>
       </c>
       <c r="D106" t="n">
-        <v>32.28402709960938</v>
+        <v>29.83727264404297</v>
       </c>
       <c r="E106" t="n">
-        <v>-6.022480010986328</v>
+        <v>-5.886363983154297</v>
       </c>
       <c r="F106" t="n">
-        <v>46.20414733886719</v>
+        <v>45.51824951171875</v>
       </c>
       <c r="G106" t="n">
-        <v>43.11888122558594</v>
+        <v>38.75424957275391</v>
       </c>
       <c r="H106" t="n">
-        <v>7.73825740814209</v>
+        <v>4.417856693267822</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.02706322278827429</v>
+        <v>-0.02499068710952997</v>
       </c>
       <c r="B107" t="n">
-        <v>0.005991123169660569</v>
+        <v>-0.09021828353405</v>
       </c>
       <c r="C107" t="n">
-        <v>43.04483795166016</v>
+        <v>39.72280120849609</v>
       </c>
       <c r="D107" t="n">
-        <v>32.12771606445312</v>
+        <v>29.83727264404297</v>
       </c>
       <c r="E107" t="n">
-        <v>-6.022480010986328</v>
+        <v>-4.508527755737305</v>
       </c>
       <c r="F107" t="n">
-        <v>44.83967971801758</v>
+        <v>46.9866828918457</v>
       </c>
       <c r="G107" t="n">
-        <v>43.16130447387695</v>
+        <v>40.87032318115234</v>
       </c>
       <c r="H107" t="n">
-        <v>7.73825740814209</v>
+        <v>7.402535438537598</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-0.003182937693782151</v>
+        <v>0.01282248549163342</v>
       </c>
       <c r="B108" t="n">
-        <v>0.02333048988133669</v>
+        <v>-0.06476931557059289</v>
       </c>
       <c r="C108" t="n">
-        <v>42.22807693481445</v>
+        <v>38.56206130981445</v>
       </c>
       <c r="D108" t="n">
-        <v>31.39094924926758</v>
+        <v>31.68671035766602</v>
       </c>
       <c r="E108" t="n">
-        <v>-4.343741416931152</v>
+        <v>-4.508527755737305</v>
       </c>
       <c r="F108" t="n">
-        <v>43.76478576660156</v>
+        <v>44.41604614257812</v>
       </c>
       <c r="G108" t="n">
-        <v>42.30985641479492</v>
+        <v>40.87032318115234</v>
       </c>
       <c r="H108" t="n">
-        <v>9.426334381103516</v>
+        <v>9.018325805664062</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.03269097074866295</v>
+        <v>0.04401601307094097</v>
       </c>
       <c r="B109" t="n">
-        <v>0.04217871181666851</v>
+        <v>-0.02503965429961682</v>
       </c>
       <c r="C109" t="n">
-        <v>41.00110626220703</v>
+        <v>37.60452270507812</v>
       </c>
       <c r="D109" t="n">
-        <v>30.18257331848145</v>
+        <v>29.8924388885498</v>
       </c>
       <c r="E109" t="n">
-        <v>-4.310308456420898</v>
+        <v>-2.662915706634521</v>
       </c>
       <c r="F109" t="n">
-        <v>42.59635543823242</v>
+        <v>42.65705871582031</v>
       </c>
       <c r="G109" t="n">
-        <v>39.47922515869141</v>
+        <v>38.79965209960938</v>
       </c>
       <c r="H109" t="n">
-        <v>8.407273292541504</v>
+        <v>9.018325805664062</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.06899796739220619</v>
+        <v>0.06606335170567036</v>
       </c>
       <c r="B110" t="n">
-        <v>0.06473139122128486</v>
+        <v>0.0171085549518466</v>
       </c>
       <c r="C110" t="n">
-        <v>39.75932312011719</v>
+        <v>36.92774200439453</v>
       </c>
       <c r="D110" t="n">
-        <v>28.84351539611816</v>
+        <v>28.13368225097656</v>
       </c>
       <c r="E110" t="n">
-        <v>-4.117902278900146</v>
+        <v>-2.414007186889648</v>
       </c>
       <c r="F110" t="n">
-        <v>41.19828033447266</v>
+        <v>40.78849411010742</v>
       </c>
       <c r="G110" t="n">
-        <v>37.85374450683594</v>
+        <v>36.51571273803711</v>
       </c>
       <c r="H110" t="n">
-        <v>7.605953693389893</v>
+        <v>9.820221900939941</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.09636511608958245</v>
+        <v>0.08080780878663063</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0884000787138939</v>
+        <v>0.05197819545865059</v>
       </c>
       <c r="C111" t="n">
-        <v>38.82330322265625</v>
+        <v>36.47513580322266</v>
       </c>
       <c r="D111" t="n">
-        <v>27.7425594329834</v>
+        <v>26.99961090087891</v>
       </c>
       <c r="E111" t="n">
-        <v>-3.745886325836182</v>
+        <v>-2.118082523345947</v>
       </c>
       <c r="F111" t="n">
-        <v>39.73102188110352</v>
+        <v>39.14884185791016</v>
       </c>
       <c r="G111" t="n">
-        <v>36.14659118652344</v>
+        <v>34.29794311523438</v>
       </c>
       <c r="H111" t="n">
-        <v>6.993143558502197</v>
+        <v>9.018205642700195</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1116704973578453</v>
+        <v>0.08990503251552583</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1099307079613209</v>
+        <v>0.07684590682387353</v>
       </c>
       <c r="C112" t="n">
-        <v>38.29982376098633</v>
+        <v>36.19588088989258</v>
       </c>
       <c r="D112" t="n">
-        <v>27.17313003540039</v>
+        <v>26.57026863098145</v>
       </c>
       <c r="E112" t="n">
-        <v>-3.145881175994873</v>
+        <v>-1.509800434112549</v>
       </c>
       <c r="F112" t="n">
-        <v>38.39630508422852</v>
+        <v>37.85317993164062</v>
       </c>
       <c r="G112" t="n">
-        <v>34.69203186035156</v>
+        <v>32.49935150146484</v>
       </c>
       <c r="H112" t="n">
-        <v>6.578325748443604</v>
+        <v>8.616399765014648</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1154533761739731</v>
+        <v>0.09303876683115959</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1269987027347088</v>
+        <v>0.09362160295248032</v>
       </c>
       <c r="C113" t="n">
-        <v>38.17044067382812</v>
+        <v>36.09968566894531</v>
       </c>
       <c r="D113" t="n">
-        <v>27.28110313415527</v>
+        <v>26.78729438781738</v>
       </c>
       <c r="E113" t="n">
-        <v>-2.281904697418213</v>
+        <v>-0.5266366600990295</v>
       </c>
       <c r="F113" t="n">
-        <v>37.33823394775391</v>
+        <v>37.85317993164062</v>
       </c>
       <c r="G113" t="n">
-        <v>33.67496871948242</v>
+        <v>31.25888442993164</v>
       </c>
       <c r="H113" t="n">
-        <v>6.439414501190186</v>
+        <v>8.606011390686035</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.1115850609540939</v>
+        <v>0.09024491429328919</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1394151520729065</v>
+        <v>0.105370182543993</v>
       </c>
       <c r="C114" t="n">
-        <v>38.3027458190918</v>
+        <v>36.18544769287109</v>
       </c>
       <c r="D114" t="n">
-        <v>27.9887580871582</v>
+        <v>27.5438117980957</v>
       </c>
       <c r="E114" t="n">
-        <v>-1.180933952331543</v>
+        <v>0.7059959769248962</v>
       </c>
       <c r="F114" t="n">
-        <v>36.56851959228516</v>
+        <v>35.89102172851562</v>
       </c>
       <c r="G114" t="n">
-        <v>33.67496871948242</v>
+        <v>31.25888442993164</v>
       </c>
       <c r="H114" t="n">
-        <v>6.648674488067627</v>
+        <v>8.916580200195312</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.1060506726801395</v>
+        <v>0.08467883288860321</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1485396620631218</v>
+        <v>0.1145541615784168</v>
       </c>
       <c r="C115" t="n">
-        <v>38.49203491210938</v>
+        <v>36.35630798339844</v>
       </c>
       <c r="D115" t="n">
-        <v>29.00176620483398</v>
+        <v>28.60036087036133</v>
       </c>
       <c r="E115" t="n">
-        <v>0.05394119769334793</v>
+        <v>1.981245517730713</v>
       </c>
       <c r="F115" t="n">
-        <v>36.00287628173828</v>
+        <v>35.37001800537109</v>
       </c>
       <c r="G115" t="n">
-        <v>32.63547134399414</v>
+        <v>29.91747283935547</v>
       </c>
       <c r="H115" t="n">
-        <v>7.227359294891357</v>
+        <v>9.501087188720703</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.104669553488493</v>
+        <v>0.08155591830611229</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1568039163947106</v>
+        <v>0.1230353792011738</v>
       </c>
       <c r="C116" t="n">
-        <v>38.53927230834961</v>
+        <v>36.45217132568359</v>
       </c>
       <c r="D116" t="n">
-        <v>29.98225593566895</v>
+        <v>29.62307929992676</v>
       </c>
       <c r="E116" t="n">
-        <v>1.276895046234131</v>
+        <v>3.152575016021729</v>
       </c>
       <c r="F116" t="n">
-        <v>35.49056243896484</v>
+        <v>34.88888168334961</v>
       </c>
       <c r="G116" t="n">
-        <v>32.98052597045898</v>
+        <v>30.21649360656738</v>
       </c>
       <c r="H116" t="n">
-        <v>8.066035270690918</v>
+        <v>10.26377391815186</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.1115362142026425</v>
+        <v>0.08616237625479699</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1664958700537682</v>
+        <v>0.1327540189027786</v>
       </c>
       <c r="C117" t="n">
-        <v>38.30441665649414</v>
+        <v>36.31076812744141</v>
       </c>
       <c r="D117" t="n">
-        <v>30.71075439453125</v>
+        <v>30.3291187286377</v>
       </c>
       <c r="E117" t="n">
-        <v>2.344051837921143</v>
+        <v>4.130073070526123</v>
       </c>
       <c r="F117" t="n">
-        <v>34.88974380493164</v>
+        <v>34.33754730224609</v>
       </c>
       <c r="G117" t="n">
-        <v>33.51961898803711</v>
+        <v>30.72045707702637</v>
       </c>
       <c r="H117" t="n">
-        <v>9.041561126708984</v>
+        <v>11.10050106048584</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.1279575996100903</v>
+        <v>0.1011302687227726</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1791556844115257</v>
+        <v>0.1453347307443619</v>
       </c>
       <c r="C118" t="n">
-        <v>37.74276733398438</v>
+        <v>35.85130310058594</v>
       </c>
       <c r="D118" t="n">
-        <v>31.14183044433594</v>
+        <v>30.61162948608398</v>
       </c>
       <c r="E118" t="n">
-        <v>3.188543796539307</v>
+        <v>4.903060436248779</v>
       </c>
       <c r="F118" t="n">
-        <v>34.10494232177734</v>
+        <v>33.62384796142578</v>
       </c>
       <c r="G118" t="n">
-        <v>34.11400985717773</v>
+        <v>31.27427291870117</v>
       </c>
       <c r="H118" t="n">
-        <v>10.04634189605713</v>
+        <v>11.93689250946045</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.1530329629778862</v>
+        <v>0.1260001677274704</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1954428577423096</v>
+        <v>0.1617268633842468</v>
       </c>
       <c r="C119" t="n">
-        <v>36.8851318359375</v>
+        <v>35.0878791809082</v>
       </c>
       <c r="D119" t="n">
-        <v>31.33683395385742</v>
+        <v>30.54502296447754</v>
       </c>
       <c r="E119" t="n">
-        <v>3.81869649887085</v>
+        <v>5.493727207183838</v>
       </c>
       <c r="F119" t="n">
-        <v>33.09527587890625</v>
+        <v>32.69392776489258</v>
       </c>
       <c r="G119" t="n">
-        <v>34.66977691650391</v>
+        <v>31.78364944458008</v>
       </c>
       <c r="H119" t="n">
-        <v>11.01436710357666</v>
+        <v>12.73082065582275</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.1846434056758881</v>
+        <v>0.1584968018531799</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2156603425741196</v>
+        <v>0.1822340169548989</v>
       </c>
       <c r="C120" t="n">
-        <v>35.80398178100586</v>
+        <v>34.09033966064453</v>
       </c>
       <c r="D120" t="n">
-        <v>31.39979934692383</v>
+        <v>30.30395889282227</v>
       </c>
       <c r="E120" t="n">
-        <v>4.310899257659912</v>
+        <v>5.965500354766846</v>
       </c>
       <c r="F120" t="n">
-        <v>31.84196281433105</v>
+        <v>31.53056526184082</v>
       </c>
       <c r="G120" t="n">
-        <v>35.12022399902344</v>
+        <v>32.1952018737793</v>
       </c>
       <c r="H120" t="n">
-        <v>11.90528774261475</v>
+        <v>13.4642858505249</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.2202199676632881</v>
+        <v>0.1958392390608788</v>
       </c>
       <c r="B121" t="n">
-        <v>0.2395036700367928</v>
+        <v>0.206555939912796</v>
       </c>
       <c r="C121" t="n">
-        <v>34.58718109130859</v>
+        <v>32.94404983520508</v>
       </c>
       <c r="D121" t="n">
-        <v>31.44685745239258</v>
+        <v>30.07227325439453</v>
       </c>
       <c r="E121" t="n">
-        <v>4.776294231414795</v>
+        <v>6.406788349151611</v>
       </c>
       <c r="F121" t="n">
-        <v>30.36387825012207</v>
+        <v>30.15079116821289</v>
       </c>
       <c r="G121" t="n">
-        <v>35.45491027832031</v>
+        <v>32.48941802978516</v>
       </c>
       <c r="H121" t="n">
-        <v>12.70084857940674</v>
+        <v>14.13724422454834</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.2583247616887093</v>
+        <v>0.2360996714234352</v>
       </c>
       <c r="B122" t="n">
-        <v>0.2666832345724106</v>
+        <v>0.2341971042752266</v>
       </c>
       <c r="C122" t="n">
-        <v>33.28390884399414</v>
+        <v>31.70818710327148</v>
       </c>
       <c r="D122" t="n">
-        <v>31.58836936950684</v>
+        <v>29.9885196685791</v>
       </c>
       <c r="E122" t="n">
-        <v>5.322091579437256</v>
+        <v>6.898653507232666</v>
       </c>
       <c r="F122" t="n">
-        <v>28.67897605895996</v>
+        <v>28.58271789550781</v>
       </c>
       <c r="G122" t="n">
-        <v>35.69740676879883</v>
+        <v>32.68475341796875</v>
       </c>
       <c r="H122" t="n">
-        <v>13.39906215667725</v>
+        <v>14.75291728973389</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.2980171817541122</v>
+        <v>0.2782654666900635</v>
       </c>
       <c r="B123" t="n">
-        <v>0.2966147547960282</v>
+        <v>0.2646315762400627</v>
       </c>
       <c r="C123" t="n">
-        <v>31.92633628845215</v>
+        <v>30.4138355255127</v>
       </c>
       <c r="D123" t="n">
-        <v>31.92962455749512</v>
+        <v>30.12565040588379</v>
       </c>
       <c r="E123" t="n">
-        <v>6.007729053497314</v>
+        <v>7.471780300140381</v>
       </c>
       <c r="F123" t="n">
-        <v>26.8234748840332</v>
+        <v>26.85618209838867</v>
       </c>
       <c r="G123" t="n">
-        <v>35.89969253540039</v>
+        <v>32.81986618041992</v>
       </c>
       <c r="H123" t="n">
-        <v>14.00381183624268</v>
+        <v>15.32060718536377</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.3382488667964936</v>
+        <v>0.3215857511758805</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3282251816987992</v>
+        <v>0.2971268677711487</v>
       </c>
       <c r="C124" t="n">
-        <v>30.55031967163086</v>
+        <v>29.08404541015625</v>
       </c>
       <c r="D124" t="n">
-        <v>32.52770614624023</v>
+        <v>30.49503898620605</v>
       </c>
       <c r="E124" t="n">
-        <v>6.833627223968506</v>
+        <v>8.118101119995117</v>
       </c>
       <c r="F124" t="n">
-        <v>24.86389541625977</v>
+        <v>25.01273536682129</v>
       </c>
       <c r="G124" t="n">
-        <v>36.11163330078125</v>
+        <v>32.94610595703125</v>
       </c>
       <c r="H124" t="n">
-        <v>14.53803157806396</v>
+        <v>15.86290073394775</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.3773263943195343</v>
+        <v>0.3650261425971985</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3597245049476624</v>
+        <v>0.3305898541212082</v>
       </c>
       <c r="C125" t="n">
-        <v>29.21377754211426</v>
+        <v>27.75056838989258</v>
       </c>
       <c r="D125" t="n">
-        <v>33.37796020507812</v>
+        <v>31.08200645446777</v>
       </c>
       <c r="E125" t="n">
-        <v>7.804665088653564</v>
+        <v>8.835811614990234</v>
       </c>
       <c r="F125" t="n">
-        <v>22.91120338439941</v>
+        <v>23.11439323425293</v>
       </c>
       <c r="G125" t="n">
-        <v>36.38116455078125</v>
+        <v>33.11910247802734</v>
       </c>
       <c r="H125" t="n">
-        <v>15.09464359283447</v>
+        <v>16.43210792541504</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.4127048683166504</v>
+        <v>0.4071795386075974</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3887787580490112</v>
+        <v>0.3635635989904404</v>
       </c>
       <c r="C126" t="n">
-        <v>28.00375175476074</v>
+        <v>26.45659828186035</v>
       </c>
       <c r="D126" t="n">
-        <v>34.42793655395508</v>
+        <v>31.84918212890625</v>
       </c>
       <c r="E126" t="n">
-        <v>8.966659545898438</v>
+        <v>9.650739669799805</v>
       </c>
       <c r="F126" t="n">
-        <v>21.11008644104004</v>
+        <v>21.24380493164062</v>
       </c>
       <c r="G126" t="n">
-        <v>36.74885940551758</v>
+        <v>33.37844848632812</v>
       </c>
       <c r="H126" t="n">
-        <v>15.76466846466064</v>
+        <v>17.10658073425293</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.4416868108510971</v>
+        <v>0.4458897638320923</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4131776827573777</v>
+        <v>0.3942936629056931</v>
       </c>
       <c r="C127" t="n">
-        <v>27.01250267028809</v>
+        <v>25.2683219909668</v>
       </c>
       <c r="D127" t="n">
-        <v>35.63550567626953</v>
+        <v>32.7487907409668</v>
       </c>
       <c r="E127" t="n">
-        <v>10.34986686706543</v>
+        <v>10.589599609375</v>
       </c>
       <c r="F127" t="n">
-        <v>19.59755897521973</v>
+        <v>19.5004997253418</v>
       </c>
       <c r="G127" t="n">
-        <v>37.24657440185547</v>
+        <v>33.76499176025391</v>
       </c>
       <c r="H127" t="n">
-        <v>16.53284454345703</v>
+        <v>17.92194557189941</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4626931095123291</v>
+        <v>0.4773708593845368</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4318285965919495</v>
+        <v>0.4206130033731461</v>
       </c>
       <c r="C128" t="n">
-        <v>26.29403877258301</v>
+        <v>24.30195617675781</v>
       </c>
       <c r="D128" t="n">
-        <v>36.98601150512695</v>
+        <v>33.80467987060547</v>
       </c>
       <c r="E128" t="n">
-        <v>11.8892650604248</v>
+        <v>11.67041015625</v>
       </c>
       <c r="F128" t="n">
-        <v>18.44136047363281</v>
+        <v>18.00741386413574</v>
       </c>
       <c r="G128" t="n">
-        <v>37.85550689697266</v>
+        <v>34.33575820922852</v>
       </c>
       <c r="H128" t="n">
-        <v>17.22066307067871</v>
+        <v>18.76240730285645</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.4770347684621811</v>
+        <v>0.4987737131118775</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4456719791889191</v>
+        <v>0.4411876183748246</v>
       </c>
       <c r="C129" t="n">
-        <v>25.80352020263672</v>
+        <v>23.64495849609375</v>
       </c>
       <c r="D129" t="n">
-        <v>38.42646026611328</v>
+        <v>35.03548049926758</v>
       </c>
       <c r="E129" t="n">
-        <v>13.39275741577148</v>
+        <v>12.7912769317627</v>
       </c>
       <c r="F129" t="n">
-        <v>17.58318710327148</v>
+        <v>16.84022331237793</v>
       </c>
       <c r="G129" t="n">
-        <v>38.45562362670898</v>
+        <v>35.09131622314453</v>
       </c>
       <c r="H129" t="n">
-        <v>17.53258514404297</v>
+        <v>19.38214492797852</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.488632858991623</v>
+        <v>0.5101413196325303</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4572761034965515</v>
+        <v>0.4563302850723267</v>
       </c>
       <c r="C130" t="n">
-        <v>25.40683937072754</v>
+        <v>23.29601097106934</v>
       </c>
       <c r="D130" t="n">
-        <v>39.8267707824707</v>
+        <v>36.36019515991211</v>
       </c>
       <c r="E130" t="n">
-        <v>14.60582160949707</v>
+        <v>13.77887725830078</v>
       </c>
       <c r="F130" t="n">
-        <v>16.86383056640625</v>
+        <v>15.98118686676025</v>
       </c>
       <c r="G130" t="n">
-        <v>38.84739303588867</v>
+        <v>35.92580795288086</v>
       </c>
       <c r="H130" t="n">
-        <v>17.13268852233887</v>
+        <v>19.47758483886719</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.5012786155939103</v>
+        <v>0.5141243082284928</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4691411650180817</v>
+        <v>0.4677913677692414</v>
       </c>
       <c r="C131" t="n">
-        <v>24.97432518005371</v>
+        <v>23.17374610900879</v>
       </c>
       <c r="D131" t="n">
-        <v>41.02965927124023</v>
+        <v>37.62317657470703</v>
       </c>
       <c r="E131" t="n">
-        <v>15.21234893798828</v>
+        <v>14.45198059082031</v>
       </c>
       <c r="F131" t="n">
-        <v>16.1282958984375</v>
+        <v>15.33100128173828</v>
       </c>
       <c r="G131" t="n">
-        <v>38.88283157348633</v>
+        <v>36.65305709838867</v>
       </c>
       <c r="H131" t="n">
-        <v>14.78842067718506</v>
+        <v>18.7856273651123</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.5149897921085358</v>
+        <v>0.5141107559204102</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4816915816068649</v>
+        <v>0.477811735868454</v>
       </c>
       <c r="C132" t="n">
-        <v>24.50537109375</v>
+        <v>23.17416191101074</v>
       </c>
       <c r="D132" t="n">
-        <v>41.96185684204102</v>
+        <v>38.67588043212891</v>
       </c>
       <c r="E132" t="n">
-        <v>14.91095733642578</v>
+        <v>14.59530067443848</v>
       </c>
       <c r="F132" t="n">
-        <v>15.35027694702148</v>
+        <v>14.76255130767822</v>
       </c>
       <c r="G132" t="n">
-        <v>38.56470108032227</v>
+        <v>37.0847282409668</v>
       </c>
       <c r="H132" t="n">
-        <v>12.72146701812744</v>
+        <v>15.81360054016113</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.5252678751945495</v>
+        <v>0.5112200391292572</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4926181852817536</v>
+        <v>0.4874969607591629</v>
       </c>
       <c r="C133" t="n">
-        <v>24.15383720397949</v>
+        <v>23.26289749145508</v>
       </c>
       <c r="D133" t="n">
-        <v>42.69589233398438</v>
+        <v>39.49505615234375</v>
       </c>
       <c r="E133" t="n">
-        <v>12.17445087432861</v>
+        <v>13.9576358795166</v>
       </c>
       <c r="F133" t="n">
-        <v>14.6729211807251</v>
+        <v>14.21311283111572</v>
       </c>
       <c r="G133" t="n">
-        <v>38.07440185546875</v>
+        <v>37.14716720581055</v>
       </c>
       <c r="H133" t="n">
-        <v>9.720091819763184</v>
+        <v>13.25351905822754</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.5258021646738053</v>
+        <v>0.5023752784729004</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4980570203065872</v>
+        <v>0.4955254870653153</v>
       </c>
       <c r="C134" t="n">
-        <v>24.13556289672852</v>
+        <v>23.53440284729004</v>
       </c>
       <c r="D134" t="n">
-        <v>43.41272354125977</v>
+        <v>40.25744247436523</v>
       </c>
       <c r="E134" t="n">
-        <v>9.493135452270508</v>
+        <v>10.67245006561279</v>
       </c>
       <c r="F134" t="n">
-        <v>14.33575916290283</v>
+        <v>13.75765609741211</v>
       </c>
       <c r="G134" t="n">
-        <v>37.72161865234375</v>
+        <v>36.97032165527344</v>
       </c>
       <c r="H134" t="n">
-        <v>5.871572971343994</v>
+        <v>9.506110191345215</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.5110319179296494</v>
+        <v>0.4815761184692383</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4933914250135422</v>
+        <v>0.4980563884973526</v>
       </c>
       <c r="C135" t="n">
-        <v>24.64073944091797</v>
+        <v>24.1728687286377</v>
       </c>
       <c r="D135" t="n">
-        <v>44.34675598144531</v>
+        <v>41.3000602722168</v>
       </c>
       <c r="E135" t="n">
-        <v>5.602034568786621</v>
+        <v>7.652148246765137</v>
       </c>
       <c r="F135" t="n">
-        <v>14.62498664855957</v>
+        <v>13.6140775680542</v>
       </c>
       <c r="G135" t="n">
-        <v>37.91869354248047</v>
+        <v>36.8885498046875</v>
       </c>
       <c r="H135" t="n">
-        <v>1.487297177314758</v>
+        <v>4.798410415649414</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.4794544398784638</v>
+        <v>0.4446095287799836</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5449793077921545</v>
+        <v>0.5357614203501952</v>
       </c>
       <c r="C136" t="n">
-        <v>25.72076225280762</v>
+        <v>25.30762100219727</v>
       </c>
       <c r="D136" t="n">
-        <v>45.61058044433594</v>
+        <v>44.09063720703125</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9347224235534668</v>
+        <v>3.526523590087891</v>
       </c>
       <c r="F136" t="n">
-        <v>15.70123767852783</v>
+        <v>14.06048107147217</v>
       </c>
       <c r="G136" t="n">
-        <v>39.96746444702148</v>
+        <v>37.31580352783203</v>
       </c>
       <c r="H136" t="n">
-        <v>-2.87580943107605</v>
+        <v>-0.187636137008667</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.5760891977791277</v>
+        <v>0.5894668025454101</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6176398890781203</v>
+        <v>0.5904376961915224</v>
       </c>
       <c r="C137" t="n">
-        <v>28.4266357421875</v>
+        <v>27.95140075683594</v>
       </c>
       <c r="D137" t="n">
-        <v>48.29476928710938</v>
+        <v>46.09951019287109</v>
       </c>
       <c r="E137" t="n">
-        <v>-3.689325571060181</v>
+        <v>-0.8918349742889404</v>
       </c>
       <c r="F137" t="n">
-        <v>18.91623687744141</v>
+        <v>16.47932243347168</v>
       </c>
       <c r="G137" t="n">
-        <v>41.99040222167969</v>
+        <v>39.72145843505859</v>
       </c>
       <c r="H137" t="n">
-        <v>-6.617526054382324</v>
+        <v>-4.477919101715088</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.7048051504457882</v>
+        <v>0.7481013031909645</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7092834890136869</v>
+        <v>0.6696299093683773</v>
       </c>
       <c r="C138" t="n">
-        <v>30.25098419189453</v>
+        <v>29.67798233032227</v>
       </c>
       <c r="D138" t="n">
-        <v>50.09042358398438</v>
+        <v>48.66969299316406</v>
       </c>
       <c r="E138" t="n">
-        <v>-7.402929306030273</v>
+        <v>-4.636231899261475</v>
       </c>
       <c r="F138" t="n">
-        <v>21.15337562561035</v>
+        <v>18.67424392700195</v>
       </c>
       <c r="G138" t="n">
-        <v>44.85210418701172</v>
+        <v>41.87645721435547</v>
       </c>
       <c r="H138" t="n">
-        <v>-9.456089019775391</v>
+        <v>-7.46054744720459</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.83643929841131</v>
+        <v>0.8830854153329694</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8069243959871082</v>
+        <v>0.7692598173100607</v>
       </c>
       <c r="C139" t="n">
-        <v>32.66283416748047</v>
+        <v>31.93879890441895</v>
       </c>
       <c r="D139" t="n">
-        <v>52.45749664306641</v>
+        <v>51.52072525024414</v>
       </c>
       <c r="E139" t="n">
-        <v>-9.680681228637695</v>
+        <v>-7.029071807861328</v>
       </c>
       <c r="F139" t="n">
-        <v>24.05671691894531</v>
+        <v>21.79982757568359</v>
       </c>
       <c r="G139" t="n">
-        <v>48.25332641601562</v>
+        <v>44.86474609375</v>
       </c>
       <c r="H139" t="n">
-        <v>-11.3074951171875</v>
+        <v>-9.077515602111816</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9364376694438381</v>
+        <v>0.9658219088686634</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8927477711815585</v>
+        <v>0.8699730380589097</v>
       </c>
       <c r="C140" t="n">
-        <v>35.53620147705078</v>
+        <v>34.58190536499023</v>
       </c>
       <c r="D140" t="n">
-        <v>55.13579177856445</v>
+        <v>54.37708282470703</v>
       </c>
       <c r="E140" t="n">
-        <v>-9.680681228637695</v>
+        <v>-7.029071807861328</v>
       </c>
       <c r="F140" t="n">
-        <v>27.46902275085449</v>
+        <v>25.61553382873535</v>
       </c>
       <c r="G140" t="n">
-        <v>51.85108947753906</v>
+        <v>48.36026000976562</v>
       </c>
       <c r="H140" t="n">
-        <v>-11.3074951171875</v>
+        <v>-9.077515602111816</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.9869923066272474</v>
+        <v>0.9963642767687176</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9532225364718051</v>
+        <v>0.9462130447781654</v>
       </c>
       <c r="C141" t="n">
-        <v>38.76055145263672</v>
+        <v>37.45045471191406</v>
       </c>
       <c r="D141" t="n">
-        <v>57.75909423828125</v>
+        <v>56.94184494018555</v>
       </c>
       <c r="E141" t="n">
-        <v>-11.31614398956299</v>
+        <v>-8.802051544189453</v>
       </c>
       <c r="F141" t="n">
-        <v>31.31555557250977</v>
+        <v>29.81991577148438</v>
       </c>
       <c r="G141" t="n">
-        <v>55.41913604736328</v>
+        <v>51.90970611572266</v>
       </c>
       <c r="H141" t="n">
-        <v>-11.51658058166504</v>
+        <v>-8.509635925292969</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.9999036209340534</v>
+        <v>1.000304668003869</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9856929233678223</v>
+        <v>0.9859671074832794</v>
       </c>
       <c r="C142" t="n">
-        <v>42.18586730957031</v>
+        <v>40.44044494628906</v>
       </c>
       <c r="D142" t="n">
-        <v>59.92364501953125</v>
+        <v>58.97454071044922</v>
       </c>
       <c r="E142" t="n">
-        <v>-8.612489700317383</v>
+        <v>-6.145618915557861</v>
       </c>
       <c r="F142" t="n">
-        <v>35.50888824462891</v>
+        <v>34.18531036376953</v>
       </c>
       <c r="G142" t="n">
-        <v>58.88460540771484</v>
+        <v>55.12939453125</v>
       </c>
       <c r="H142" t="n">
-        <v>-9.142354011535645</v>
+        <v>-6.147500991821289</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.000018566151005</v>
+        <v>0.9999162027304939</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9976011422931577</v>
+        <v>0.9984514370029378</v>
       </c>
       <c r="C143" t="n">
-        <v>45.63383102416992</v>
+        <v>43.50149917602539</v>
       </c>
       <c r="D143" t="n">
-        <v>61.35937118530273</v>
+        <v>60.3909797668457</v>
       </c>
       <c r="E143" t="n">
-        <v>-6.923283576965332</v>
+        <v>-4.718197822570801</v>
       </c>
       <c r="F143" t="n">
-        <v>39.91482543945312</v>
+        <v>38.6343994140625</v>
       </c>
       <c r="G143" t="n">
-        <v>62.24411773681641</v>
+        <v>57.96329116821289</v>
       </c>
       <c r="H143" t="n">
-        <v>-6.113265037536621</v>
+        <v>-3.198912858963013</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.9999928688293015</v>
+        <v>1.000039180412455</v>
       </c>
       <c r="B144" t="n">
-        <v>0.999934995674161</v>
+        <v>1.000062570400813</v>
       </c>
       <c r="C144" t="n">
-        <v>48.93402481079102</v>
+        <v>46.54142761230469</v>
       </c>
       <c r="D144" t="n">
-        <v>61.35937118530273</v>
+        <v>60.3909797668457</v>
       </c>
       <c r="E144" t="n">
-        <v>-5.220505714416504</v>
+        <v>-3.520535469055176</v>
       </c>
       <c r="F144" t="n">
-        <v>44.36084747314453</v>
+        <v>43.14664459228516</v>
       </c>
       <c r="G144" t="n">
-        <v>65.37291717529297</v>
+        <v>60.589599609375</v>
       </c>
       <c r="H144" t="n">
-        <v>-3.182397842407227</v>
+        <v>-0.3907620906829834</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.000003979198543</v>
+        <v>0.9999744107124756</v>
       </c>
       <c r="B145" t="n">
-        <v>1.000007114230786</v>
+        <v>0.9999879501779179</v>
       </c>
       <c r="C145" t="n">
-        <v>51.91138458251953</v>
+        <v>49.33319091796875</v>
       </c>
       <c r="D145" t="n">
-        <v>62.53805541992188</v>
+        <v>61.90877532958984</v>
       </c>
       <c r="E145" t="n">
-        <v>-4.015227317810059</v>
+        <v>-3.520535469055176</v>
       </c>
       <c r="F145" t="n">
-        <v>48.62744903564453</v>
+        <v>47.5893440246582</v>
       </c>
       <c r="G145" t="n">
-        <v>67.88470458984375</v>
+        <v>62.97034072875977</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.8499737977981567</v>
+        <v>1.732847690582275</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.999997196895957</v>
+        <v>1.000020713463665</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9999983363991241</v>
+        <v>1.000004073186251</v>
       </c>
       <c r="C146" t="n">
-        <v>54.37298202514648</v>
+        <v>51.60553359985352</v>
       </c>
       <c r="D146" t="n">
-        <v>59.94406127929688</v>
+        <v>59.74644470214844</v>
       </c>
       <c r="E146" t="n">
-        <v>-4.015227317810059</v>
+        <v>-2.312345027923584</v>
       </c>
       <c r="F146" t="n">
-        <v>52.43926239013672</v>
+        <v>51.61986541748047</v>
       </c>
       <c r="G146" t="n">
-        <v>69.13763427734375</v>
+        <v>64.57401275634766</v>
       </c>
       <c r="H146" t="n">
-        <v>0.6488073468208313</v>
+        <v>2.97069787979126</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.000002275511059</v>
+        <v>0.9999810015519471</v>
       </c>
       <c r="B147" t="n">
-        <v>1.000000558997644</v>
+        <v>0.9999981329624642</v>
       </c>
       <c r="C147" t="n">
-        <v>56.0783805847168</v>
+        <v>53.18222045898438</v>
       </c>
       <c r="D147" t="n">
-        <v>57.2330322265625</v>
+        <v>56.90312194824219</v>
       </c>
       <c r="E147" t="n">
-        <v>-4.928716659545898</v>
+        <v>-2.977787017822266</v>
       </c>
       <c r="F147" t="n">
-        <v>55.45969772338867</v>
+        <v>54.76615142822266</v>
       </c>
       <c r="G147" t="n">
-        <v>69.13763427734375</v>
+        <v>64.57401275634766</v>
       </c>
       <c r="H147" t="n">
-        <v>0.6488073468208313</v>
+        <v>2.97069787979126</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.9999980336266839</v>
+        <v>1.000018454251774</v>
       </c>
       <c r="B148" t="n">
-        <v>0.999999774242764</v>
+        <v>1.000000996264333</v>
       </c>
       <c r="C148" t="n">
-        <v>56.0783805847168</v>
+        <v>53.18222045898438</v>
       </c>
       <c r="D148" t="n">
-        <v>53.1025390625</v>
+        <v>52.39916229248047</v>
       </c>
       <c r="E148" t="n">
-        <v>-8.31987190246582</v>
+        <v>-6.886582374572754</v>
       </c>
       <c r="F148" t="n">
-        <v>57.30176544189453</v>
+        <v>56.57040405273438</v>
       </c>
       <c r="G148" t="n">
-        <v>64.90144348144531</v>
+        <v>62.26508331298828</v>
       </c>
       <c r="H148" t="n">
-        <v>0.3830208480358124</v>
+        <v>2.250340461730957</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.000001659972751</v>
+        <v>0.9999819966474661</v>
       </c>
       <c r="B149" t="n">
-        <v>1.000000095734897</v>
+        <v>0.9999994530707886</v>
       </c>
       <c r="C149" t="n">
-        <v>57.42185211181641</v>
+        <v>54.82741165161133</v>
       </c>
       <c r="D149" t="n">
-        <v>48.06329345703125</v>
+        <v>46.72791290283203</v>
       </c>
       <c r="E149" t="n">
-        <v>-13.35678863525391</v>
+        <v>-10.74410915374756</v>
       </c>
       <c r="F149" t="n">
-        <v>57.30176544189453</v>
+        <v>56.57040405273438</v>
       </c>
       <c r="G149" t="n">
-        <v>59.9478759765625</v>
+        <v>57.49845123291016</v>
       </c>
       <c r="H149" t="n">
-        <v>-2.107933759689331</v>
+        <v>-0.3191839456558228</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.9999987319009278</v>
+        <v>1.000016629643616</v>
       </c>
       <c r="B150" t="n">
-        <v>0.9999999626255275</v>
+        <v>1.000000271887965</v>
       </c>
       <c r="C150" t="n">
-        <v>55.96710205078125</v>
+        <v>53.9835319519043</v>
       </c>
       <c r="D150" t="n">
-        <v>43.0134391784668</v>
+        <v>41.07209014892578</v>
       </c>
       <c r="E150" t="n">
-        <v>-18.44105911254883</v>
+        <v>-14.99416923522949</v>
       </c>
       <c r="F150" t="n">
-        <v>56.91451263427734</v>
+        <v>55.32342529296875</v>
       </c>
       <c r="G150" t="n">
-        <v>54.25802612304688</v>
+        <v>51.36466217041016</v>
       </c>
       <c r="H150" t="n">
-        <v>-5.055687427520752</v>
+        <v>-3.241075277328491</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.000000830041822</v>
+        <v>0.9999865018866592</v>
       </c>
       <c r="B151" t="n">
-        <v>1.00000001203543</v>
+        <v>0.9999998918215262</v>
       </c>
       <c r="C151" t="n">
-        <v>52.94081878662109</v>
+        <v>50.99260711669922</v>
       </c>
       <c r="D151" t="n">
-        <v>38.78822326660156</v>
+        <v>36.68648529052734</v>
       </c>
       <c r="E151" t="n">
-        <v>-21.3055305480957</v>
+        <v>-17.28732681274414</v>
       </c>
       <c r="F151" t="n">
-        <v>55.0870361328125</v>
+        <v>53.07440948486328</v>
       </c>
       <c r="G151" t="n">
-        <v>49.24484252929688</v>
+        <v>45.71283340454102</v>
       </c>
       <c r="H151" t="n">
-        <v>-6.652844429016113</v>
+        <v>-4.591564178466797</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.9999995522709564</v>
+        <v>1.00000901709466</v>
       </c>
       <c r="B152" t="n">
-        <v>0.9999999970517285</v>
+        <v>1.000000032225955</v>
       </c>
       <c r="C152" t="n">
-        <v>51.37264251708984</v>
+        <v>49.21190643310547</v>
       </c>
       <c r="D152" t="n">
-        <v>35.95040130615234</v>
+        <v>34.10063934326172</v>
       </c>
       <c r="E152" t="n">
-        <v>-21.3055305480957</v>
+        <v>-17.28732681274414</v>
       </c>
       <c r="F152" t="n">
-        <v>52.94691467285156</v>
+        <v>50.75900650024414</v>
       </c>
       <c r="G152" t="n">
-        <v>45.74229049682617</v>
+        <v>41.77738952636719</v>
       </c>
       <c r="H152" t="n">
-        <v>-5.569947242736816</v>
+        <v>-3.473963737487793</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.000000189820151</v>
+        <v>0.9999953025088972</v>
       </c>
       <c r="B153" t="n">
-        <v>1.000000000502129</v>
+        <v>0.9999999929528458</v>
       </c>
       <c r="C153" t="n">
-        <v>49.71432495117188</v>
+        <v>47.33995819091797</v>
       </c>
       <c r="D153" t="n">
-        <v>34.65214157104492</v>
+        <v>34.10063934326172</v>
       </c>
       <c r="E153" t="n">
-        <v>-16.29230499267578</v>
+        <v>-12.76570892333984</v>
       </c>
       <c r="F153" t="n">
-        <v>50.81251525878906</v>
+        <v>48.73665237426758</v>
       </c>
       <c r="G153" t="n">
-        <v>43.8771858215332</v>
+        <v>39.78240203857422</v>
       </c>
       <c r="H153" t="n">
-        <v>-2.244497299194336</v>
+        <v>-0.5646911859512329</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.9999999378326022</v>
+        <v>1.000001880334683</v>
       </c>
       <c r="B154" t="n">
-        <v>0.9999999999470135</v>
+        <v>1.000000001135746</v>
       </c>
       <c r="C154" t="n">
-        <v>44.903564453125</v>
+        <v>40.14340972900391</v>
       </c>
       <c r="D154" t="n">
-        <v>32.38821411132812</v>
+        <v>26.29383850097656</v>
       </c>
       <c r="E154" t="n">
-        <v>-14.31203842163086</v>
+        <v>-10.92129039764404</v>
       </c>
       <c r="F154" t="n">
-        <v>46.52704620361328</v>
+        <v>41.45351409912109</v>
       </c>
       <c r="G154" t="n">
-        <v>40.01156997680664</v>
+        <v>31.2315673828125</v>
       </c>
       <c r="H154" t="n">
-        <v>-3.364539384841919</v>
+        <v>-3.481416940689087</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.05924783594906331</v>
+        <v>0.1957477688789368</v>
       </c>
       <c r="B155" t="n">
-        <v>0.04790172278881073</v>
+        <v>0.1357007613778115</v>
       </c>
       <c r="C155" t="n">
-        <v>44.903564453125</v>
+        <v>40.14340972900391</v>
       </c>
       <c r="D155" t="n">
-        <v>32.38821411132812</v>
+        <v>24.17955017089844</v>
       </c>
       <c r="E155" t="n">
-        <v>-10.72183609008789</v>
+        <v>-9.713872909545898</v>
       </c>
       <c r="F155" t="n">
-        <v>46.52704620361328</v>
+        <v>41.45351409912109</v>
       </c>
       <c r="G155" t="n">
-        <v>41.19660568237305</v>
+        <v>29.30796813964844</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.004497289657592773</v>
+        <v>-3.481416940689087</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.06415786638855935</v>
+        <v>-0.01153939248993993</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.04281726956367493</v>
+        <v>-0.02412258714437485</v>
       </c>
       <c r="C156" t="n">
-        <v>44.31356048583984</v>
+        <v>39.30989074707031</v>
       </c>
       <c r="D156" t="n">
-        <v>33.41302871704102</v>
+        <v>26.13697052001953</v>
       </c>
       <c r="E156" t="n">
-        <v>-7.458189964294434</v>
+        <v>-7.627148628234863</v>
       </c>
       <c r="F156" t="n">
-        <v>47.86538696289062</v>
+        <v>44.68767166137695</v>
       </c>
       <c r="G156" t="n">
-        <v>41.19660568237305</v>
+        <v>32.56756591796875</v>
       </c>
       <c r="H156" t="n">
-        <v>4.289125919342041</v>
+        <v>-1.461645722389221</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-0.03695622801780701</v>
+        <v>-0.03885915845632553</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.02340100966393948</v>
+        <v>-0.07526245862245561</v>
       </c>
       <c r="C157" t="n">
-        <v>43.38320159912109</v>
+        <v>40.14851760864258</v>
       </c>
       <c r="D157" t="n">
-        <v>33.16713333129883</v>
+        <v>29.04668235778809</v>
       </c>
       <c r="E157" t="n">
-        <v>-5.623668670654297</v>
+        <v>-5.587119102478027</v>
       </c>
       <c r="F157" t="n">
-        <v>46.6617431640625</v>
+        <v>45.749267578125</v>
       </c>
       <c r="G157" t="n">
-        <v>42.93289947509766</v>
+        <v>37.09297561645508</v>
       </c>
       <c r="H157" t="n">
-        <v>7.054967880249023</v>
+        <v>2.202051162719727</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-0.02704114105552435</v>
+        <v>-0.01758875958621502</v>
       </c>
       <c r="B158" t="n">
-        <v>0.001575131271965802</v>
+        <v>-0.08711909338831902</v>
       </c>
       <c r="C158" t="n">
-        <v>43.04408264160156</v>
+        <v>39.49558639526367</v>
       </c>
       <c r="D158" t="n">
-        <v>32.81269454956055</v>
+        <v>30.70233154296875</v>
       </c>
       <c r="E158" t="n">
-        <v>-5.623668670654297</v>
+        <v>-4.07091236114502</v>
       </c>
       <c r="F158" t="n">
-        <v>45.11343383789062</v>
+        <v>45.749267578125</v>
       </c>
       <c r="G158" t="n">
-        <v>43.00067901611328</v>
+        <v>40.0972900390625</v>
       </c>
       <c r="H158" t="n">
-        <v>7.054967880249023</v>
+        <v>5.720220565795898</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-0.004941817848011852</v>
+        <v>0.0251819397136569</v>
       </c>
       <c r="B159" t="n">
-        <v>0.02057054772973061</v>
+        <v>-0.06975534871220589</v>
       </c>
       <c r="C159" t="n">
-        <v>42.28823471069336</v>
+        <v>38.18266677856445</v>
       </c>
       <c r="D159" t="n">
-        <v>31.99065017700195</v>
+        <v>30.70233154296875</v>
       </c>
       <c r="E159" t="n">
-        <v>-3.948757410049438</v>
+        <v>-2.954139709472656</v>
       </c>
       <c r="F159" t="n">
-        <v>43.93587875366211</v>
+        <v>44.80806732177734</v>
       </c>
       <c r="G159" t="n">
-        <v>42.33674240112305</v>
+        <v>40.0972900390625</v>
       </c>
       <c r="H159" t="n">
-        <v>8.933563232421875</v>
+        <v>8.087770462036133</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.0298450867459178</v>
+        <v>0.06634246528148652</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0396882975101471</v>
+        <v>-0.03387430205941201</v>
       </c>
       <c r="C160" t="n">
-        <v>41.09844207763672</v>
+        <v>36.91917419433594</v>
       </c>
       <c r="D160" t="n">
-        <v>30.70110893249512</v>
+        <v>29.43922996520996</v>
       </c>
       <c r="E160" t="n">
-        <v>-4.054977416992188</v>
+        <v>-2.954139709472656</v>
       </c>
       <c r="F160" t="n">
-        <v>42.75074005126953</v>
+        <v>43.04305648803711</v>
       </c>
       <c r="G160" t="n">
-        <v>39.66529846191406</v>
+        <v>39.25204849243164</v>
       </c>
       <c r="H160" t="n">
-        <v>7.777575016021729</v>
+        <v>8.087770462036133</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.06596437089145184</v>
+        <v>0.09478042006492615</v>
       </c>
       <c r="B161" t="n">
-        <v>0.06181360930204392</v>
+        <v>0.01041056755930185</v>
       </c>
       <c r="C161" t="n">
-        <v>39.86307907104492</v>
+        <v>36.04622268676758</v>
       </c>
       <c r="D161" t="n">
-        <v>29.29272651672363</v>
+        <v>28.18735504150391</v>
       </c>
       <c r="E161" t="n">
-        <v>-3.945260763168335</v>
+        <v>-1.445515155792236</v>
       </c>
       <c r="F161" t="n">
-        <v>41.37915802001953</v>
+        <v>41.02302169799805</v>
       </c>
       <c r="G161" t="n">
-        <v>38.07775115966797</v>
+        <v>36.62837219238281</v>
       </c>
       <c r="H161" t="n">
-        <v>6.911966800689697</v>
+        <v>10.02628803253174</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.09374676436185837</v>
+        <v>0.1081258343160152</v>
       </c>
       <c r="B162" t="n">
-        <v>0.08475907266139984</v>
+        <v>0.05051410391926766</v>
       </c>
       <c r="C162" t="n">
-        <v>38.91285705566406</v>
+        <v>35.63656234741211</v>
       </c>
       <c r="D162" t="n">
-        <v>28.12853240966797</v>
+        <v>28.18735504150391</v>
       </c>
       <c r="E162" t="n">
-        <v>-3.613748550415039</v>
+        <v>-1.218656539916992</v>
       </c>
       <c r="F162" t="n">
-        <v>39.95673370361328</v>
+        <v>39.19834136962891</v>
       </c>
       <c r="G162" t="n">
-        <v>36.39914703369141</v>
+        <v>34.08223724365234</v>
       </c>
       <c r="H162" t="n">
-        <v>6.302792072296143</v>
+        <v>9.195090293884277</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.1097638392448425</v>
+        <v>0.1114688396453857</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1055968046188355</v>
+        <v>0.07923499867320061</v>
       </c>
       <c r="C163" t="n">
-        <v>38.36503601074219</v>
+        <v>35.53394317626953</v>
       </c>
       <c r="D163" t="n">
-        <v>27.49082565307617</v>
+        <v>26.50977897644043</v>
       </c>
       <c r="E163" t="n">
-        <v>-3.046792507171631</v>
+        <v>-0.7905445694923401</v>
       </c>
       <c r="F163" t="n">
-        <v>38.66497039794922</v>
+        <v>37.78447341918945</v>
       </c>
       <c r="G163" t="n">
-        <v>34.96061706542969</v>
+        <v>32.08822631835938</v>
       </c>
       <c r="H163" t="n">
-        <v>5.910122394561768</v>
+        <v>8.709485054016113</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.1142643190920353</v>
+        <v>0.1101029786467552</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1221000882983208</v>
+        <v>0.09691633805632592</v>
       </c>
       <c r="C164" t="n">
-        <v>38.21110916137695</v>
+        <v>35.57587051391602</v>
       </c>
       <c r="D164" t="n">
-        <v>27.52136611938477</v>
+        <v>26.81148910522461</v>
       </c>
       <c r="E164" t="n">
-        <v>-2.226935386657715</v>
+        <v>0.04963583499193192</v>
       </c>
       <c r="F164" t="n">
-        <v>37.64190673828125</v>
+        <v>36.77489471435547</v>
       </c>
       <c r="G164" t="n">
-        <v>33.94743347167969</v>
+        <v>30.77541160583496</v>
       </c>
       <c r="H164" t="n">
-        <v>5.783546924591064</v>
+        <v>8.675998687744141</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.1109373933076859</v>
+        <v>0.1060952547192574</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1340467637777329</v>
+        <v>0.1075861270725727</v>
       </c>
       <c r="C165" t="n">
-        <v>38.32489776611328</v>
+        <v>35.69889450073242</v>
       </c>
       <c r="D165" t="n">
-        <v>28.15024375915527</v>
+        <v>27.57464027404785</v>
       </c>
       <c r="E165" t="n">
-        <v>-1.179425239562988</v>
+        <v>1.236524105072021</v>
       </c>
       <c r="F165" t="n">
-        <v>36.90131378173828</v>
+        <v>36.77489471435547</v>
       </c>
       <c r="G165" t="n">
-        <v>33.94743347167969</v>
+        <v>30.77541160583496</v>
       </c>
       <c r="H165" t="n">
-        <v>5.985131740570068</v>
+        <v>8.99079704284668</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.1056410075724125</v>
+        <v>0.1009570345282555</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1427767878770828</v>
+        <v>0.1151449663937092</v>
       </c>
       <c r="C166" t="n">
-        <v>38.50604629516602</v>
+        <v>35.85662078857422</v>
       </c>
       <c r="D166" t="n">
-        <v>29.10285949707031</v>
+        <v>28.56107902526855</v>
       </c>
       <c r="E166" t="n">
-        <v>0.004869887605309486</v>
+        <v>2.52206563949585</v>
       </c>
       <c r="F166" t="n">
-        <v>36.36012649536133</v>
+        <v>35.33650207519531</v>
       </c>
       <c r="G166" t="n">
-        <v>32.88624572753906</v>
+        <v>29.40779876708984</v>
       </c>
       <c r="H166" t="n">
-        <v>6.53478479385376</v>
+        <v>9.557662963867188</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.104197765737772</v>
+        <v>0.0977877688407898</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1506654158234596</v>
+        <v>0.1222205901145935</v>
       </c>
       <c r="C167" t="n">
-        <v>38.5554084777832</v>
+        <v>35.95390701293945</v>
       </c>
       <c r="D167" t="n">
-        <v>30.04991340637207</v>
+        <v>29.50717926025391</v>
       </c>
       <c r="E167" t="n">
-        <v>1.192561626434326</v>
+        <v>3.704155445098877</v>
       </c>
       <c r="F167" t="n">
-        <v>35.87109756469727</v>
+        <v>34.93510437011719</v>
       </c>
       <c r="G167" t="n">
-        <v>33.19050598144531</v>
+        <v>29.70875358581543</v>
       </c>
       <c r="H167" t="n">
-        <v>7.333704471588135</v>
+        <v>10.26976490020752</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.1107370781898499</v>
+        <v>0.1011788627505302</v>
       </c>
       <c r="B168" t="n">
-        <v>0.1599671640992165</v>
+        <v>0.130877584964037</v>
       </c>
       <c r="C168" t="n">
-        <v>38.33174896240234</v>
+        <v>35.84981155395508</v>
       </c>
       <c r="D168" t="n">
-        <v>30.77135467529297</v>
+        <v>30.16866493225098</v>
       </c>
       <c r="E168" t="n">
-        <v>2.247330188751221</v>
+        <v>4.677746295928955</v>
       </c>
       <c r="F168" t="n">
-        <v>35.29446792602539</v>
+        <v>34.44399642944336</v>
       </c>
       <c r="G168" t="n">
-        <v>33.67589950561523</v>
+        <v>30.17349815368652</v>
       </c>
       <c r="H168" t="n">
-        <v>8.265050888061523</v>
+        <v>11.02775859832764</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.1267301759123802</v>
+        <v>0.1143041941523552</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1721711280941963</v>
+        <v>0.142598522901535</v>
       </c>
       <c r="C169" t="n">
-        <v>37.78474807739258</v>
+        <v>35.44690704345703</v>
       </c>
       <c r="D169" t="n">
-        <v>31.21162796020508</v>
+        <v>30.42473411560059</v>
       </c>
       <c r="E169" t="n">
-        <v>3.100208759307861</v>
+        <v>5.442078113555908</v>
       </c>
       <c r="F169" t="n">
-        <v>34.53792572021484</v>
+        <v>33.77907180786133</v>
       </c>
       <c r="G169" t="n">
-        <v>34.21400451660156</v>
+        <v>30.6641674041748</v>
       </c>
       <c r="H169" t="n">
-        <v>9.225981712341309</v>
+        <v>11.77225208282471</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.1514541032910347</v>
+        <v>0.1373915460705757</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1879038572311401</v>
+        <v>0.1581474271416664</v>
       </c>
       <c r="C170" t="n">
-        <v>36.93913269042969</v>
+        <v>34.73820114135742</v>
       </c>
       <c r="D170" t="n">
-        <v>31.42171859741211</v>
+        <v>30.32170104980469</v>
       </c>
       <c r="E170" t="n">
-        <v>3.751623630523682</v>
+        <v>6.029855251312256</v>
       </c>
       <c r="F170" t="n">
-        <v>33.56262969970703</v>
+        <v>32.89698791503906</v>
       </c>
       <c r="G170" t="n">
-        <v>34.72034454345703</v>
+        <v>31.10747146606445</v>
       </c>
       <c r="H170" t="n">
-        <v>10.15282917022705</v>
+        <v>12.47363376617432</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.1829813367128372</v>
+        <v>0.1684666568040848</v>
       </c>
       <c r="B171" t="n">
-        <v>0.2074204286932945</v>
+        <v>0.1776955100893974</v>
       </c>
       <c r="C171" t="n">
-        <v>35.8608283996582</v>
+        <v>33.78429794311523</v>
       </c>
       <c r="D171" t="n">
-        <v>31.49487495422363</v>
+        <v>30.02186965942383</v>
       </c>
       <c r="E171" t="n">
-        <v>4.266582012176514</v>
+        <v>6.501452922821045</v>
       </c>
       <c r="F171" t="n">
-        <v>32.35276794433594</v>
+        <v>31.78803253173828</v>
       </c>
       <c r="G171" t="n">
-        <v>35.13357543945312</v>
+        <v>31.46954917907715</v>
       </c>
       <c r="H171" t="n">
-        <v>11.00801181793213</v>
+        <v>13.12077236175537</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.2188020297884941</v>
+        <v>0.2047196021676064</v>
       </c>
       <c r="B172" t="n">
-        <v>0.2304290097951889</v>
+        <v>0.2009215757250786</v>
       </c>
       <c r="C172" t="n">
-        <v>34.63567733764648</v>
+        <v>32.67145156860352</v>
       </c>
       <c r="D172" t="n">
-        <v>31.53915023803711</v>
+        <v>29.71304321289062</v>
       </c>
       <c r="E172" t="n">
-        <v>4.745225429534912</v>
+        <v>6.936426639556885</v>
       </c>
       <c r="F172" t="n">
-        <v>30.92642974853516</v>
+        <v>30.47042655944824</v>
       </c>
       <c r="G172" t="n">
-        <v>35.44169235229492</v>
+        <v>31.73614501953125</v>
       </c>
       <c r="H172" t="n">
-        <v>11.77501201629639</v>
+        <v>13.71839237213135</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.2573779481649399</v>
+        <v>0.244034089744091</v>
       </c>
       <c r="B173" t="n">
-        <v>0.2566500881314278</v>
+        <v>0.227335861325264</v>
       </c>
       <c r="C173" t="n">
-        <v>33.31629180908203</v>
+        <v>31.46462631225586</v>
       </c>
       <c r="D173" t="n">
-        <v>31.65790557861328</v>
+        <v>29.54257392883301</v>
       </c>
       <c r="E173" t="n">
-        <v>5.288869380950928</v>
+        <v>7.407338619232178</v>
       </c>
       <c r="F173" t="n">
-        <v>29.30094528198242</v>
+        <v>28.97195434570312</v>
       </c>
       <c r="G173" t="n">
-        <v>35.66396331787109</v>
+        <v>31.9156436920166</v>
       </c>
       <c r="H173" t="n">
-        <v>12.45203495025635</v>
+        <v>14.27399349212646</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.2975771898031235</v>
+        <v>0.2853167104721069</v>
       </c>
       <c r="B174" t="n">
-        <v>0.2855382227897644</v>
+        <v>0.2564035561680794</v>
       </c>
       <c r="C174" t="n">
-        <v>31.94138526916504</v>
+        <v>30.19738578796387</v>
       </c>
       <c r="D174" t="n">
-        <v>31.9516544342041</v>
+        <v>29.58870887756348</v>
       </c>
       <c r="E174" t="n">
-        <v>5.956021785736084</v>
+        <v>7.9420485496521</v>
       </c>
       <c r="F174" t="n">
-        <v>27.5101261138916</v>
+        <v>27.32295417785645</v>
       </c>
       <c r="G174" t="n">
-        <v>35.84934997558594</v>
+        <v>32.03889083862305</v>
       </c>
       <c r="H174" t="n">
-        <v>13.04198360443115</v>
+        <v>14.79676723480225</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.3381509363651276</v>
+        <v>0.3278508031368256</v>
       </c>
       <c r="B175" t="n">
-        <v>0.3160668659210205</v>
+        <v>0.2874333345890046</v>
       </c>
       <c r="C175" t="n">
-        <v>30.55366897583008</v>
+        <v>28.8917293548584</v>
       </c>
       <c r="D175" t="n">
-        <v>32.48109817504883</v>
+        <v>29.86904525756836</v>
       </c>
       <c r="E175" t="n">
-        <v>6.751306056976318</v>
+        <v>8.537017822265625</v>
       </c>
       <c r="F175" t="n">
-        <v>25.61760711669922</v>
+        <v>25.56264686584473</v>
       </c>
       <c r="G175" t="n">
-        <v>36.04772186279297</v>
+        <v>32.14521408081055</v>
       </c>
       <c r="H175" t="n">
-        <v>13.56385135650635</v>
+        <v>15.30592250823975</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.3772624236345291</v>
+        <v>0.3710958391427994</v>
       </c>
       <c r="B176" t="n">
-        <v>0.3465091723203659</v>
+        <v>0.3196213299036026</v>
       </c>
       <c r="C176" t="n">
-        <v>29.21596527099609</v>
+        <v>27.56424903869629</v>
       </c>
       <c r="D176" t="n">
-        <v>33.25045776367188</v>
+        <v>30.3468017578125</v>
       </c>
       <c r="E176" t="n">
-        <v>7.682087421417236</v>
+        <v>9.167030334472656</v>
       </c>
       <c r="F176" t="n">
-        <v>23.73044204711914</v>
+        <v>23.73663330078125</v>
       </c>
       <c r="G176" t="n">
-        <v>36.30606460571289</v>
+        <v>32.27841186523438</v>
       </c>
       <c r="H176" t="n">
-        <v>14.10043430328369</v>
+        <v>15.85339069366455</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.4123964190483094</v>
+        <v>0.4134665143489838</v>
       </c>
       <c r="B177" t="n">
-        <v>0.3746216189861298</v>
+        <v>0.3515594130754471</v>
       </c>
       <c r="C177" t="n">
-        <v>28.01430130004883</v>
+        <v>26.26360893249512</v>
       </c>
       <c r="D177" t="n">
-        <v>34.21684265136719</v>
+        <v>31.00110054016113</v>
       </c>
       <c r="E177" t="n">
-        <v>8.793207168579102</v>
+        <v>9.882518768310547</v>
       </c>
       <c r="F177" t="n">
-        <v>21.98770904541016</v>
+        <v>21.92479705810547</v>
       </c>
       <c r="G177" t="n">
-        <v>36.66400146484375</v>
+        <v>32.48640823364258</v>
       </c>
       <c r="H177" t="n">
-        <v>14.73966503143311</v>
+        <v>16.49749565124512</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.4410081845521927</v>
+        <v>0.453017424941063</v>
       </c>
       <c r="B178" t="n">
-        <v>0.398289161324501</v>
+        <v>0.3816758322715759</v>
       </c>
       <c r="C178" t="n">
-        <v>27.03571319580078</v>
+        <v>25.04952621459961</v>
       </c>
       <c r="D178" t="n">
-        <v>35.34069442749023</v>
+        <v>31.80260467529297</v>
       </c>
       <c r="E178" t="n">
-        <v>10.11464881896973</v>
+        <v>10.70784950256348</v>
       </c>
       <c r="F178" t="n">
-        <v>20.52052116394043</v>
+        <v>20.21630477905273</v>
       </c>
       <c r="G178" t="n">
-        <v>37.15439224243164</v>
+        <v>32.80910491943359</v>
       </c>
       <c r="H178" t="n">
-        <v>15.47386837005615</v>
+        <v>17.27176666259766</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.4616468650102615</v>
+        <v>0.4869571429491044</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4164415144920349</v>
+        <v>0.4082300478219986</v>
       </c>
       <c r="C179" t="n">
-        <v>26.3298225402832</v>
+        <v>24.00768852233887</v>
       </c>
       <c r="D179" t="n">
-        <v>36.6052131652832</v>
+        <v>32.73290634155273</v>
       </c>
       <c r="E179" t="n">
-        <v>11.58639335632324</v>
+        <v>11.62361335754395</v>
       </c>
       <c r="F179" t="n">
-        <v>19.39522933959961</v>
+        <v>18.70989418029785</v>
       </c>
       <c r="G179" t="n">
-        <v>37.76672744750977</v>
+        <v>33.29817581176758</v>
       </c>
       <c r="H179" t="n">
-        <v>16.13944625854492</v>
+        <v>18.10921669006348</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.4755618631839753</v>
+        <v>0.5115515494346619</v>
       </c>
       <c r="B180" t="n">
-        <v>0.429938223361969</v>
+        <v>0.4293988162279129</v>
       </c>
       <c r="C180" t="n">
-        <v>25.85389709472656</v>
+        <v>23.25272178649902</v>
       </c>
       <c r="D180" t="n">
-        <v>37.96100997924805</v>
+        <v>33.8375129699707</v>
       </c>
       <c r="E180" t="n">
-        <v>13.02944183349609</v>
+        <v>12.58739471435547</v>
       </c>
       <c r="F180" t="n">
-        <v>18.55854797363281</v>
+        <v>17.50899696350098</v>
       </c>
       <c r="G180" t="n">
-        <v>38.39185333251953</v>
+        <v>34.00027847290039</v>
       </c>
       <c r="H180" t="n">
-        <v>16.45566177368164</v>
+        <v>18.7857723236084</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.4865286183357239</v>
+        <v>0.5253444504737854</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4412966686487198</v>
+        <v>0.4447103655338288</v>
       </c>
       <c r="C181" t="n">
-        <v>25.47880935668945</v>
+        <v>22.82932472229004</v>
       </c>
       <c r="D181" t="n">
-        <v>39.28915786743164</v>
+        <v>35.09453964233398</v>
       </c>
       <c r="E181" t="n">
-        <v>14.20205688476562</v>
+        <v>13.4580078125</v>
       </c>
       <c r="F181" t="n">
-        <v>17.85441970825195</v>
+        <v>16.64037895202637</v>
       </c>
       <c r="G181" t="n">
-        <v>38.83476257324219</v>
+        <v>34.8668327331543</v>
       </c>
       <c r="H181" t="n">
-        <v>16.09921455383301</v>
+        <v>19.00569725036621</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.4983247494697571</v>
+        <v>0.53</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4530456668138504</v>
+        <v>0.4553715777397156</v>
       </c>
       <c r="C182" t="n">
-        <v>25.07535362243652</v>
+        <v>22.68641471862793</v>
       </c>
       <c r="D182" t="n">
-        <v>40.44615173339844</v>
+        <v>36.3682975769043</v>
       </c>
       <c r="E182" t="n">
-        <v>14.80291366577148</v>
+        <v>14.07413291931152</v>
       </c>
       <c r="F182" t="n">
-        <v>17.1260814666748</v>
+        <v>16.03557205200195</v>
       </c>
       <c r="G182" t="n">
-        <v>38.93669509887695</v>
+        <v>35.73631286621094</v>
       </c>
       <c r="H182" t="n">
-        <v>13.8682689666748</v>
+        <v>18.5022144317627</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.5113536983728409</v>
+        <v>0.5287076342105865</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4657633864879608</v>
+        <v>0.4635551184415818</v>
       </c>
       <c r="C183" t="n">
-        <v>24.62973403930664</v>
+        <v>22.7260856628418</v>
       </c>
       <c r="D183" t="n">
-        <v>41.36700057983398</v>
+        <v>37.48447036743164</v>
       </c>
       <c r="E183" t="n">
-        <v>14.53580856323242</v>
+        <v>14.26281547546387</v>
       </c>
       <c r="F183" t="n">
-        <v>16.33769035339355</v>
+        <v>15.57132339477539</v>
       </c>
       <c r="G183" t="n">
-        <v>38.68795776367188</v>
+        <v>36.40079498291016</v>
       </c>
       <c r="H183" t="n">
-        <v>11.86859512329102</v>
+        <v>15.87737083435059</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.5216562956571579</v>
+        <v>0.5234613746404648</v>
       </c>
       <c r="B184" t="n">
-        <v>0.477312353849411</v>
+        <v>0.4710324543714524</v>
       </c>
       <c r="C184" t="n">
-        <v>24.2773609161377</v>
+        <v>22.88712882995605</v>
       </c>
       <c r="D184" t="n">
-        <v>42.12666320800781</v>
+        <v>38.35727691650391</v>
       </c>
       <c r="E184" t="n">
-        <v>11.90544700622559</v>
+        <v>13.79581260681152</v>
       </c>
       <c r="F184" t="n">
-        <v>15.62175178527832</v>
+        <v>15.14713668823242</v>
       </c>
       <c r="G184" t="n">
-        <v>38.25980377197266</v>
+        <v>36.72229766845703</v>
       </c>
       <c r="H184" t="n">
-        <v>8.947588920593262</v>
+        <v>13.48648262023926</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.5232349026203156</v>
+        <v>0.5125124680995942</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4838815587759018</v>
+        <v>0.4776218140125275</v>
       </c>
       <c r="C185" t="n">
-        <v>24.22336959838867</v>
+        <v>23.22322463989258</v>
       </c>
       <c r="D185" t="n">
-        <v>42.90774917602539</v>
+        <v>39.10722732543945</v>
       </c>
       <c r="E185" t="n">
-        <v>9.287939071655273</v>
+        <v>10.96354103088379</v>
       </c>
       <c r="F185" t="n">
-        <v>15.21451759338379</v>
+        <v>14.77332496643066</v>
       </c>
       <c r="G185" t="n">
-        <v>37.95241165161133</v>
+        <v>36.75273895263672</v>
       </c>
       <c r="H185" t="n">
-        <v>5.181499004364014</v>
+        <v>9.892151832580566</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.5102974081039429</v>
+        <v>0.4905414283275604</v>
       </c>
       <c r="B186" t="n">
-        <v>0.4807835769653321</v>
+        <v>0.4805414360761643</v>
       </c>
       <c r="C186" t="n">
-        <v>24.66586112976074</v>
+        <v>23.89766311645508</v>
       </c>
       <c r="D186" t="n">
-        <v>43.94321441650391</v>
+        <v>40.07221603393555</v>
       </c>
       <c r="E186" t="n">
-        <v>5.46129322052002</v>
+        <v>8.170836448669434</v>
       </c>
       <c r="F186" t="n">
-        <v>15.40656757354736</v>
+        <v>14.60769462585449</v>
       </c>
       <c r="G186" t="n">
-        <v>38.16911697387695</v>
+        <v>36.77580642700195</v>
       </c>
       <c r="H186" t="n">
-        <v>0.8681254386901855</v>
+        <v>5.236442089080811</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.4808063220977783</v>
+        <v>0.452917504310608</v>
       </c>
       <c r="B187" t="n">
-        <v>0.5444130701233774</v>
+        <v>0.5340245440905325</v>
       </c>
       <c r="C187" t="n">
-        <v>25.67452430725098</v>
+        <v>25.05259323120117</v>
       </c>
       <c r="D187" t="n">
-        <v>45.33502197265625</v>
+        <v>42.81729888916016</v>
       </c>
       <c r="E187" t="n">
-        <v>0.8405939340591431</v>
+        <v>4.241366863250732</v>
       </c>
       <c r="F187" t="n">
-        <v>16.38197708129883</v>
+        <v>14.8975772857666</v>
       </c>
       <c r="G187" t="n">
-        <v>40.20871734619141</v>
+        <v>37.20398712158203</v>
       </c>
       <c r="H187" t="n">
-        <v>-3.445205688476562</v>
+        <v>0.15635085105896</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.5739036518708975</v>
+        <v>0.587554209701288</v>
       </c>
       <c r="B188" t="n">
-        <v>0.6254204541398627</v>
+        <v>0.597343163198486</v>
       </c>
       <c r="C188" t="n">
-        <v>28.28559112548828</v>
+        <v>27.71369934082031</v>
       </c>
       <c r="D188" t="n">
-        <v>48.21834945678711</v>
+        <v>44.93051147460938</v>
       </c>
       <c r="E188" t="n">
-        <v>-3.765703916549683</v>
+        <v>-0.06196093559265137</v>
       </c>
       <c r="F188" t="n">
-        <v>19.48285675048828</v>
+        <v>15.88751411437988</v>
       </c>
       <c r="G188" t="n">
-        <v>42.22232055664062</v>
+        <v>39.45724487304688</v>
       </c>
       <c r="H188" t="n">
-        <v>-7.158067226409912</v>
+        <v>-4.304804801940918</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.6993495402125942</v>
+        <v>0.7409473287628153</v>
       </c>
       <c r="B189" t="n">
-        <v>0.7213307466381526</v>
+        <v>0.6772376969028328</v>
       </c>
       <c r="C189" t="n">
-        <v>30.07946586608887</v>
+        <v>29.43701934814453</v>
       </c>
       <c r="D189" t="n">
-        <v>50.08763885498047</v>
+        <v>47.6978759765625</v>
       </c>
       <c r="E189" t="n">
-        <v>-7.489102840423584</v>
+        <v>-3.784585952758789</v>
       </c>
       <c r="F189" t="n">
-        <v>21.68635559082031</v>
+        <v>19.19646072387695</v>
       </c>
       <c r="G189" t="n">
-        <v>45.07473754882812</v>
+        <v>41.48421478271484</v>
       </c>
       <c r="H189" t="n">
-        <v>-9.976591110229492</v>
+        <v>-7.396512985229492</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.8300663158052628</v>
+        <v>0.8758762698678031</v>
       </c>
       <c r="B190" t="n">
-        <v>0.8191606740533284</v>
+        <v>0.7719544663123249</v>
       </c>
       <c r="C190" t="n">
-        <v>32.47031402587891</v>
+        <v>31.68630409240723</v>
       </c>
       <c r="D190" t="n">
-        <v>52.50833129882812</v>
+        <v>50.795166015625</v>
       </c>
       <c r="E190" t="n">
-        <v>-9.793622016906738</v>
+        <v>-6.235129356384277</v>
       </c>
       <c r="F190" t="n">
-        <v>24.55685424804688</v>
+        <v>21.79930877685547</v>
       </c>
       <c r="G190" t="n">
-        <v>48.46842193603516</v>
+        <v>44.32220458984375</v>
       </c>
       <c r="H190" t="n">
-        <v>-11.81053638458252</v>
+        <v>-8.98756217956543</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9319593816926616</v>
+        <v>0.9617000816846191</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9021169908061898</v>
+        <v>0.8675228407638973</v>
       </c>
       <c r="C191" t="n">
-        <v>35.33936309814453</v>
+        <v>34.30733108520508</v>
       </c>
       <c r="D191" t="n">
-        <v>55.20795440673828</v>
+        <v>53.88067626953125</v>
       </c>
       <c r="E191" t="n">
-        <v>-9.793622016906738</v>
+        <v>-6.235129356384277</v>
       </c>
       <c r="F191" t="n">
-        <v>27.93607330322266</v>
+        <v>25.31850051879883</v>
       </c>
       <c r="G191" t="n">
-        <v>52.06248092651367</v>
+        <v>47.69863510131836</v>
       </c>
       <c r="H191" t="n">
-        <v>-11.81053638458252</v>
+        <v>-8.98756217956543</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.9853207779837926</v>
+        <v>0.9952274528486498</v>
       </c>
       <c r="B192" t="n">
-        <v>0.9586017325755921</v>
+        <v>0.9425842600238042</v>
       </c>
       <c r="C192" t="n">
-        <v>38.57632446289062</v>
+        <v>37.12205505371094</v>
       </c>
       <c r="D192" t="n">
-        <v>57.82955169677734</v>
+        <v>56.58597183227539</v>
       </c>
       <c r="E192" t="n">
-        <v>-11.46774196624756</v>
+        <v>-8.144645690917969</v>
       </c>
       <c r="F192" t="n">
-        <v>31.74424743652344</v>
+        <v>29.42267417907715</v>
       </c>
       <c r="G192" t="n">
-        <v>55.6195068359375</v>
+        <v>51.1778564453125</v>
       </c>
       <c r="H192" t="n">
-        <v>-12.04225635528564</v>
+        <v>-8.150055885314941</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.9997522635595238</v>
+        <v>1.000287806172367</v>
       </c>
       <c r="B193" t="n">
-        <v>0.9878299982735573</v>
+        <v>0.9840704259940924</v>
       </c>
       <c r="C193" t="n">
-        <v>42.01714324951172</v>
+        <v>40.01487731933594</v>
       </c>
       <c r="D193" t="n">
-        <v>59.98829650878906</v>
+        <v>58.63343811035156</v>
       </c>
       <c r="E193" t="n">
-        <v>-8.708305358886719</v>
+        <v>-5.436305522918701</v>
       </c>
       <c r="F193" t="n">
-        <v>35.8765869140625</v>
+        <v>33.7962646484375</v>
       </c>
       <c r="G193" t="n">
-        <v>59.03053665161133</v>
+        <v>54.31550598144531</v>
       </c>
       <c r="H193" t="n">
-        <v>-9.728256225585938</v>
+        <v>-5.789026260375977</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1.000045629194822</v>
+        <v>0.9999300878434946</v>
       </c>
       <c r="B194" t="n">
-        <v>0.998073070861072</v>
+        <v>0.9980403574966714</v>
       </c>
       <c r="C194" t="n">
-        <v>45.46852874755859</v>
+        <v>42.9569206237793</v>
       </c>
       <c r="D194" t="n">
-        <v>61.43314361572266</v>
+        <v>59.9827995300293</v>
       </c>
       <c r="E194" t="n">
-        <v>-6.973002433776855</v>
+        <v>-3.983365297317505</v>
       </c>
       <c r="F194" t="n">
-        <v>40.18105316162109</v>
+        <v>38.25045013427734</v>
       </c>
       <c r="G194" t="n">
-        <v>62.26283264160156</v>
+        <v>56.96539306640625</v>
       </c>
       <c r="H194" t="n">
-        <v>-6.761016368865967</v>
+        <v>-2.89933705329895</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.9999828815220029</v>
+        <v>1.000029836689075</v>
       </c>
       <c r="B195" t="n">
-        <v>0.9999574472078521</v>
+        <v>1.000054487706692</v>
       </c>
       <c r="C195" t="n">
-        <v>48.76051330566406</v>
+        <v>45.89385986328125</v>
       </c>
       <c r="D195" t="n">
-        <v>61.43314361572266</v>
+        <v>59.9827995300293</v>
       </c>
       <c r="E195" t="n">
-        <v>-5.192572593688965</v>
+        <v>-2.815144538879395</v>
       </c>
       <c r="F195" t="n">
-        <v>44.4898567199707</v>
+        <v>42.69757080078125</v>
       </c>
       <c r="G195" t="n">
-        <v>65.2099609375</v>
+        <v>59.29495239257812</v>
       </c>
       <c r="H195" t="n">
-        <v>-3.858536243438721</v>
+        <v>-0.1718924045562744</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1.000009380518732</v>
+        <v>0.9999818897013831</v>
       </c>
       <c r="B196" t="n">
-        <v>1.000004646453352</v>
+        <v>0.9999904385754643</v>
       </c>
       <c r="C196" t="n">
-        <v>51.73748397827148</v>
+        <v>48.64375305175781</v>
       </c>
       <c r="D196" t="n">
-        <v>62.68820190429688</v>
+        <v>61.42897796630859</v>
       </c>
       <c r="E196" t="n">
-        <v>-3.868255615234375</v>
+        <v>-2.815144538879395</v>
       </c>
       <c r="F196" t="n">
-        <v>48.61930084228516</v>
+        <v>47.03911590576172</v>
       </c>
       <c r="G196" t="n">
-        <v>67.54693603515625</v>
+        <v>61.39070892333984</v>
       </c>
       <c r="H196" t="n">
-        <v>-1.512635111808777</v>
+        <v>1.874224424362183</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.9999934821853009</v>
+        <v>1.000013845465573</v>
       </c>
       <c r="B197" t="n">
-        <v>0.9999989340176916</v>
+        <v>1.000003024892121</v>
       </c>
       <c r="C197" t="n">
-        <v>54.22840118408203</v>
+        <v>50.93212127685547</v>
       </c>
       <c r="D197" t="n">
-        <v>60.25579071044922</v>
+        <v>59.72360992431641</v>
       </c>
       <c r="E197" t="n">
-        <v>-3.868255615234375</v>
+        <v>-1.750365734100342</v>
       </c>
       <c r="F197" t="n">
-        <v>52.34955215454102</v>
+        <v>51.02893829345703</v>
       </c>
       <c r="G197" t="n">
-        <v>68.69680786132812</v>
+        <v>62.87599945068359</v>
       </c>
       <c r="H197" t="n">
-        <v>0.02385967969894409</v>
+        <v>3.057231903076172</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1.000005249603918</v>
+        <v>0.9999878603456503</v>
       </c>
       <c r="B198" t="n">
-        <v>1.000000352630861</v>
+        <v>0.9999986770180885</v>
       </c>
       <c r="C198" t="n">
-        <v>55.99231719970703</v>
+        <v>52.5555534362793</v>
       </c>
       <c r="D198" t="n">
-        <v>57.60783386230469</v>
+        <v>57.09766387939453</v>
       </c>
       <c r="E198" t="n">
-        <v>-4.384873390197754</v>
+        <v>-2.37905216217041</v>
       </c>
       <c r="F198" t="n">
-        <v>55.38844299316406</v>
+        <v>54.27645111083984</v>
       </c>
       <c r="G198" t="n">
-        <v>68.69680786132812</v>
+        <v>62.87599945068359</v>
       </c>
       <c r="H198" t="n">
-        <v>0.02385967969894409</v>
+        <v>3.057231903076172</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.9999954715551859</v>
+        <v>1.000011359204845</v>
       </c>
       <c r="B199" t="n">
-        <v>0.9999998581529003</v>
+        <v>1.00000068885916</v>
       </c>
       <c r="C199" t="n">
-        <v>55.99231719970703</v>
+        <v>52.5555534362793</v>
       </c>
       <c r="D199" t="n">
-        <v>53.50090026855469</v>
+        <v>52.66523361206055</v>
       </c>
       <c r="E199" t="n">
-        <v>-7.738128185272217</v>
+        <v>-5.819767951965332</v>
       </c>
       <c r="F199" t="n">
-        <v>57.33110427856445</v>
+        <v>56.30171203613281</v>
       </c>
       <c r="G199" t="n">
-        <v>64.43805694580078</v>
+        <v>60.97134399414062</v>
       </c>
       <c r="H199" t="n">
-        <v>-0.2209658920764923</v>
+        <v>2.240573644638062</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1.000003827176016</v>
+        <v>0.999989270006498</v>
       </c>
       <c r="B200" t="n">
-        <v>1.000000060712833</v>
+        <v>0.9999996229224815</v>
       </c>
       <c r="C200" t="n">
-        <v>57.43928146362305</v>
+        <v>54.32373428344727</v>
       </c>
       <c r="D200" t="n">
-        <v>48.48896789550781</v>
+        <v>46.86692810058594</v>
       </c>
       <c r="E200" t="n">
-        <v>-12.84413051605225</v>
+        <v>-9.460834503173828</v>
       </c>
       <c r="F200" t="n">
-        <v>57.33110427856445</v>
+        <v>56.30171203613281</v>
       </c>
       <c r="G200" t="n">
-        <v>59.52845001220703</v>
+        <v>56.36487579345703</v>
       </c>
       <c r="H200" t="n">
-        <v>-2.800351858139038</v>
+        <v>-0.4102108478546143</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.9999970673109704</v>
+        <v>1.000009607084529</v>
       </c>
       <c r="B201" t="n">
-        <v>0.9999999758026872</v>
+        <v>1.000000188615736</v>
       </c>
       <c r="C201" t="n">
-        <v>56.00974655151367</v>
+        <v>53.52232360839844</v>
       </c>
       <c r="D201" t="n">
-        <v>43.55329132080078</v>
+        <v>41.05048370361328</v>
       </c>
       <c r="E201" t="n">
-        <v>-18.03176116943359</v>
+        <v>-13.50914764404297</v>
       </c>
       <c r="F201" t="n">
-        <v>57.25262069702148</v>
+        <v>55.33240127563477</v>
       </c>
       <c r="G201" t="n">
-        <v>53.99233627319336</v>
+        <v>50.27287292480469</v>
       </c>
       <c r="H201" t="n">
-        <v>-5.848732471466064</v>
+        <v>-3.39154577255249</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.000001944985946</v>
+        <v>0.9999924574603128</v>
       </c>
       <c r="B202" t="n">
-        <v>1.0000000080927</v>
+        <v>0.9999999254233981</v>
       </c>
       <c r="C202" t="n">
-        <v>54.14135360717773</v>
+        <v>50.63222885131836</v>
       </c>
       <c r="D202" t="n">
-        <v>39.46486282348633</v>
+        <v>36.63922119140625</v>
       </c>
       <c r="E202" t="n">
-        <v>-20.99118041992188</v>
+        <v>-15.68004894256592</v>
       </c>
       <c r="F202" t="n">
-        <v>55.56385803222656</v>
+        <v>52.96656799316406</v>
       </c>
       <c r="G202" t="n">
-        <v>49.1904296875</v>
+        <v>44.65726470947266</v>
       </c>
       <c r="H202" t="n">
-        <v>-7.540463447570801</v>
+        <v>-4.738956451416016</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.9999989142973279</v>
+        <v>1.000004905006687</v>
       </c>
       <c r="B203" t="n">
-        <v>0.9999999978659506</v>
+        <v>1.000000021658858</v>
       </c>
       <c r="C203" t="n">
-        <v>51.23683547973633</v>
+        <v>48.95398330688477</v>
       </c>
       <c r="D203" t="n">
-        <v>36.67829132080078</v>
+        <v>34.11862182617188</v>
       </c>
       <c r="E203" t="n">
-        <v>-20.99118041992188</v>
+        <v>-15.68004894256592</v>
       </c>
       <c r="F203" t="n">
-        <v>53.5589599609375</v>
+        <v>50.5694580078125</v>
       </c>
       <c r="G203" t="n">
-        <v>45.83333587646484</v>
+        <v>40.80229187011719</v>
       </c>
       <c r="H203" t="n">
-        <v>-7.540463447570801</v>
+        <v>-3.710866451263428</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1.000000486126638</v>
+        <v>0.9999974915881688</v>
       </c>
       <c r="B204" t="n">
-        <v>1.000000000411993</v>
+        <v>0.9999999954590574</v>
       </c>
       <c r="C204" t="n">
-        <v>48.25157928466797</v>
+        <v>45.54496765136719</v>
       </c>
       <c r="D204" t="n">
-        <v>33.87527465820312</v>
+        <v>31.23108673095703</v>
       </c>
       <c r="E204" t="n">
-        <v>-16.26301193237305</v>
+        <v>-12.23151779174805</v>
       </c>
       <c r="F204" t="n">
-        <v>50.42890930175781</v>
+        <v>47.3648796081543</v>
       </c>
       <c r="G204" t="n">
-        <v>43.45336151123047</v>
+        <v>37.43587112426758</v>
       </c>
       <c r="H204" t="n">
-        <v>-2.799898862838745</v>
+        <v>-1.827651739120483</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.9999998312045331</v>
+        <v>1.000000980679034</v>
       </c>
       <c r="B205" t="n">
-        <v>0.9999999999476404</v>
+        <v>1.000000000692217</v>
       </c>
       <c r="C205" t="n">
-        <v>48.25157928466797</v>
+        <v>45.54496765136719</v>
       </c>
       <c r="D205" t="n">
-        <v>33.87527465820312</v>
+        <v>31.23108673095703</v>
       </c>
       <c r="E205" t="n">
-        <v>-16.26301193237305</v>
+        <v>-12.23151779174805</v>
       </c>
       <c r="F205" t="n">
-        <v>50.42890930175781</v>
+        <v>47.3648796081543</v>
       </c>
       <c r="G205" t="n">
-        <v>43.45336151123047</v>
+        <v>37.43587112426758</v>
       </c>
       <c r="H205" t="n">
-        <v>-2.799898862838745</v>
+        <v>-1.827651739120483</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/PV_cp_lstm.xlsx
+++ b/Predictions/PV_cp_lstm.xlsx
@@ -477,5306 +477,5306 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1.163007176129421</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>42.13595199584961</v>
+        <v>38.03639984130859</v>
       </c>
       <c r="D2" t="n">
-        <v>28.34355163574219</v>
+        <v>27.91689682006836</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.15330123901367</v>
+        <v>-11.12759971618652</v>
       </c>
       <c r="F2" t="n">
-        <v>45.16877746582031</v>
+        <v>33.39727020263672</v>
       </c>
       <c r="G2" t="n">
-        <v>36.82906723022461</v>
+        <v>39.12298965454102</v>
       </c>
       <c r="H2" t="n">
-        <v>2.473848581314087</v>
+        <v>0.7849576473236084</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.08325606167316438</v>
+        <v>-0.3954081428050995</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.07595002502202988</v>
+        <v>-0.1899185073375702</v>
       </c>
       <c r="C3" t="n">
-        <v>41.51135635375977</v>
+        <v>38.03639984130859</v>
       </c>
       <c r="D3" t="n">
-        <v>29.70191383361816</v>
+        <v>26.70768165588379</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.374225616455078</v>
+        <v>-8.926072120666504</v>
       </c>
       <c r="F3" t="n">
-        <v>45.16877746582031</v>
+        <v>35.15439605712891</v>
       </c>
       <c r="G3" t="n">
-        <v>40.09434509277344</v>
+        <v>42.00597381591797</v>
       </c>
       <c r="H3" t="n">
-        <v>6.002833843231201</v>
+        <v>4.557208061218262</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.09290306210517883</v>
+        <v>-0.6339959263801574</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.08398494839668275</v>
+        <v>-0.372356835603714</v>
       </c>
       <c r="C4" t="n">
-        <v>41.80748748779297</v>
+        <v>39.1960563659668</v>
       </c>
       <c r="D4" t="n">
-        <v>29.70191383361816</v>
+        <v>28.55314064025879</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.21293830871582</v>
+        <v>-6.928796768188477</v>
       </c>
       <c r="F4" t="n">
-        <v>46.6330680847168</v>
+        <v>38.03455352783203</v>
       </c>
       <c r="G4" t="n">
-        <v>41.90758514404297</v>
+        <v>43.90997314453125</v>
       </c>
       <c r="H4" t="n">
-        <v>8.647278785705566</v>
+        <v>7.901431083679199</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.08397994130849838</v>
+        <v>-0.7751671290397645</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.06438811346888543</v>
+        <v>-0.5140381926298142</v>
       </c>
       <c r="C5" t="n">
-        <v>41.53357696533203</v>
+        <v>40.87985610961914</v>
       </c>
       <c r="D5" t="n">
-        <v>30.84470176696777</v>
+        <v>29.65237236022949</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.21293830871582</v>
+        <v>-5.480299949645996</v>
       </c>
       <c r="F5" t="n">
-        <v>45.52134704589844</v>
+        <v>40.73583984375</v>
       </c>
       <c r="G5" t="n">
-        <v>41.90758514404297</v>
+        <v>43.90997314453125</v>
       </c>
       <c r="H5" t="n">
-        <v>9.908298492431641</v>
+        <v>10.09454917907715</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.06371339648962021</v>
+        <v>-0.8433194434642792</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.03511198475956917</v>
+        <v>-0.6033117318153381</v>
       </c>
       <c r="C6" t="n">
-        <v>40.91146087646484</v>
+        <v>41.69273376464844</v>
       </c>
       <c r="D6" t="n">
-        <v>30.03829765319824</v>
+        <v>29.7441463470459</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.677903175354004</v>
+        <v>-5.480299949645996</v>
       </c>
       <c r="F6" t="n">
-        <v>43.86052322387695</v>
+        <v>42.57315063476562</v>
       </c>
       <c r="G6" t="n">
-        <v>41.14897918701172</v>
+        <v>43.60155868530273</v>
       </c>
       <c r="H6" t="n">
-        <v>9.908298492431641</v>
+        <v>10.09454917907715</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.03331743724644184</v>
+        <v>-0.8432164585590363</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.004693527184426785</v>
+        <v>-0.6377599930763245</v>
       </c>
       <c r="C7" t="n">
-        <v>39.9784049987793</v>
+        <v>41.69150543212891</v>
       </c>
       <c r="D7" t="n">
-        <v>28.88268280029297</v>
+        <v>28.9168643951416</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.40727424621582</v>
+        <v>-3.884835958480835</v>
       </c>
       <c r="F7" t="n">
-        <v>42.13489532470703</v>
+        <v>42.57315063476562</v>
       </c>
       <c r="G7" t="n">
-        <v>39.33317565917969</v>
+        <v>41.32543563842773</v>
       </c>
       <c r="H7" t="n">
-        <v>10.41263484954834</v>
+        <v>12.03290271759033</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.002146028419956565</v>
+        <v>-0.7840477764606476</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02445086929947138</v>
+        <v>-0.6213844454288483</v>
       </c>
       <c r="C8" t="n">
-        <v>38.88979339599609</v>
+        <v>40.98577880859375</v>
       </c>
       <c r="D8" t="n">
-        <v>27.68988609313965</v>
+        <v>27.52285957336426</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.07972526550293</v>
+        <v>-4.060073852539062</v>
       </c>
       <c r="F8" t="n">
-        <v>40.48154449462891</v>
+        <v>43.94776916503906</v>
       </c>
       <c r="G8" t="n">
-        <v>37.21411895751953</v>
+        <v>38.45295715332031</v>
       </c>
       <c r="H8" t="n">
-        <v>9.63801097869873</v>
+        <v>11.12639904022217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.03239733740687371</v>
+        <v>-0.6903075671195984</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05106523111462594</v>
+        <v>-0.5663455843925477</v>
       </c>
       <c r="C9" t="n">
-        <v>37.96117782592773</v>
+        <v>39.86770629882812</v>
       </c>
       <c r="D9" t="n">
-        <v>26.76578140258789</v>
+        <v>26.13289642333984</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.583446025848389</v>
+        <v>-4.076809883117676</v>
       </c>
       <c r="F9" t="n">
-        <v>38.97172164916992</v>
+        <v>41.35506439208984</v>
       </c>
       <c r="G9" t="n">
-        <v>35.14888763427734</v>
+        <v>35.60106658935547</v>
       </c>
       <c r="H9" t="n">
-        <v>9.030606269836426</v>
+        <v>10.05833530426025</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.05024259179830552</v>
+        <v>-0.5984806656837464</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07428319379687309</v>
+        <v>-0.4929010146856308</v>
       </c>
       <c r="C10" t="n">
-        <v>37.41338729858398</v>
+        <v>38.77245330810547</v>
       </c>
       <c r="D10" t="n">
-        <v>26.3896541595459</v>
+        <v>25.35437393188477</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.833790302276611</v>
+        <v>-3.607412815093994</v>
       </c>
       <c r="F10" t="n">
-        <v>37.65457534790039</v>
+        <v>39.83916854858398</v>
       </c>
       <c r="G10" t="n">
-        <v>33.43662261962891</v>
+        <v>33.31026077270508</v>
       </c>
       <c r="H10" t="n">
-        <v>8.651287078857422</v>
+        <v>9.189301490783691</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.05425255469977856</v>
+        <v>-0.541209180355072</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09317840456962585</v>
+        <v>-0.422321794629097</v>
       </c>
       <c r="C11" t="n">
-        <v>37.2902946472168</v>
+        <v>38.08935546875</v>
       </c>
       <c r="D11" t="n">
-        <v>26.70432472229004</v>
+        <v>25.54875755310059</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.801475524902344</v>
+        <v>-2.587689399719238</v>
       </c>
       <c r="F11" t="n">
-        <v>36.58265686035156</v>
+        <v>38.30153656005859</v>
       </c>
       <c r="G11" t="n">
-        <v>32.26015472412109</v>
+        <v>31.85087585449219</v>
       </c>
       <c r="H11" t="n">
-        <v>8.565939903259277</v>
+        <v>8.772308349609375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0487504755705595</v>
+        <v>-0.5290480214357376</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1077959272265434</v>
+        <v>-0.3671326261758804</v>
       </c>
       <c r="C12" t="n">
-        <v>37.45919036865234</v>
+        <v>37.94430541992188</v>
       </c>
       <c r="D12" t="n">
-        <v>27.61350631713867</v>
+        <v>26.63905334472656</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.550903856754303</v>
+        <v>-1.172585010528564</v>
       </c>
       <c r="F12" t="n">
-        <v>35.75341033935547</v>
+        <v>36.9934196472168</v>
       </c>
       <c r="G12" t="n">
-        <v>32.26015472412109</v>
+        <v>31.85087585449219</v>
       </c>
       <c r="H12" t="n">
-        <v>8.832793235778809</v>
+        <v>8.935931205749512</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.04134469598531723</v>
+        <v>-0.5466532278060914</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1191702941060066</v>
+        <v>-0.3289585226774216</v>
       </c>
       <c r="C13" t="n">
-        <v>37.6865234375</v>
+        <v>38.15428924560547</v>
       </c>
       <c r="D13" t="n">
-        <v>28.78660202026367</v>
+        <v>28.16400909423828</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7760052084922791</v>
+        <v>0.3892549872398376</v>
       </c>
       <c r="F13" t="n">
-        <v>35.10814666748047</v>
+        <v>35.95691680908203</v>
       </c>
       <c r="G13" t="n">
-        <v>31.07978630065918</v>
+        <v>30.5876579284668</v>
       </c>
       <c r="H13" t="n">
-        <v>9.477298736572266</v>
+        <v>9.678465843200684</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.03894788816571236</v>
+        <v>-0.5678913688659668</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1293650099635124</v>
+        <v>-0.3018875187635422</v>
       </c>
       <c r="C14" t="n">
-        <v>37.76009750366211</v>
+        <v>38.4076042175293</v>
       </c>
       <c r="D14" t="n">
-        <v>29.849853515625</v>
+        <v>29.57131576538086</v>
       </c>
       <c r="E14" t="n">
-        <v>2.029976367950439</v>
+        <v>1.878309726715088</v>
       </c>
       <c r="F14" t="n">
-        <v>34.52980422973633</v>
+        <v>35.95691680908203</v>
       </c>
       <c r="G14" t="n">
-        <v>31.50668907165527</v>
+        <v>31.23704528808594</v>
       </c>
       <c r="H14" t="n">
-        <v>10.37836360931396</v>
+        <v>10.82400226593018</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.04632993146777153</v>
+        <v>-0.5703665447235108</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1408098551630974</v>
+        <v>-0.2780100262165069</v>
       </c>
       <c r="C15" t="n">
-        <v>37.53349304199219</v>
+        <v>38.43712615966797</v>
       </c>
       <c r="D15" t="n">
-        <v>30.55857276916504</v>
+        <v>30.47718238830566</v>
       </c>
       <c r="E15" t="n">
-        <v>3.074028491973877</v>
+        <v>3.115026950836182</v>
       </c>
       <c r="F15" t="n">
-        <v>33.88054275512695</v>
+        <v>34.24575805664062</v>
       </c>
       <c r="G15" t="n">
-        <v>32.16012954711914</v>
+        <v>32.05321884155273</v>
       </c>
       <c r="H15" t="n">
-        <v>11.40428066253662</v>
+        <v>12.15477466583252</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.06459546931087971</v>
+        <v>-0.5429019868373871</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1554282465577126</v>
+        <v>-0.2502109095454216</v>
       </c>
       <c r="C16" t="n">
-        <v>36.97280120849609</v>
+        <v>38.10954666137695</v>
       </c>
       <c r="D16" t="n">
-        <v>30.88108444213867</v>
+        <v>30.79863357543945</v>
       </c>
       <c r="E16" t="n">
-        <v>3.867200374603271</v>
+        <v>4.020802021026611</v>
       </c>
       <c r="F16" t="n">
-        <v>33.05124664306641</v>
+        <v>33.46029663085938</v>
       </c>
       <c r="G16" t="n">
-        <v>32.87026596069336</v>
+        <v>32.85823822021484</v>
       </c>
       <c r="H16" t="n">
-        <v>12.44796085357666</v>
+        <v>13.48279285430908</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.09230706065893174</v>
+        <v>-0.4852012819051743</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1742060434818268</v>
+        <v>-0.2134652161598206</v>
       </c>
       <c r="C17" t="n">
-        <v>36.12214660644531</v>
+        <v>37.42132949829102</v>
       </c>
       <c r="D17" t="n">
-        <v>30.92464828491211</v>
+        <v>30.69130706787109</v>
       </c>
       <c r="E17" t="n">
-        <v>4.436245441436768</v>
+        <v>4.616333484649658</v>
       </c>
       <c r="F17" t="n">
-        <v>31.98598861694336</v>
+        <v>32.42205047607422</v>
       </c>
       <c r="G17" t="n">
-        <v>33.52034378051758</v>
+        <v>33.56261825561523</v>
       </c>
       <c r="H17" t="n">
-        <v>13.44886493682861</v>
+        <v>14.69702053070068</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1268066801130772</v>
+        <v>-0.4049140286445618</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1975128701329231</v>
+        <v>-0.1646125414967537</v>
       </c>
       <c r="C18" t="n">
-        <v>35.0631217956543</v>
+        <v>36.46371459960938</v>
       </c>
       <c r="D18" t="n">
-        <v>30.85140228271484</v>
+        <v>30.4217357635498</v>
       </c>
       <c r="E18" t="n">
-        <v>4.875993251800537</v>
+        <v>5.016074657440186</v>
       </c>
       <c r="F18" t="n">
-        <v>30.6638011932373</v>
+        <v>31.04172325134277</v>
       </c>
       <c r="G18" t="n">
-        <v>34.03551483154297</v>
+        <v>34.12252426147461</v>
       </c>
       <c r="H18" t="n">
-        <v>14.37203884124756</v>
+        <v>15.75233936309814</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1652377325296402</v>
+        <v>-0.3116821098327637</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2249938708543777</v>
+        <v>-0.1032475562393665</v>
       </c>
       <c r="C19" t="n">
-        <v>33.88341522216797</v>
+        <v>35.35170364379883</v>
       </c>
       <c r="D19" t="n">
-        <v>30.81685829162598</v>
+        <v>30.2492847442627</v>
       </c>
       <c r="E19" t="n">
-        <v>5.311243534088135</v>
+        <v>5.38251256942749</v>
       </c>
       <c r="F19" t="n">
-        <v>29.10481452941895</v>
+        <v>28.28645706176758</v>
       </c>
       <c r="G19" t="n">
-        <v>34.40305328369141</v>
+        <v>34.53506469726562</v>
       </c>
       <c r="H19" t="n">
-        <v>15.20203876495361</v>
+        <v>16.6362190246582</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2059405735135079</v>
+        <v>-0.2127629759907723</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2562260335683822</v>
+        <v>-0.03094822961837054</v>
       </c>
       <c r="C20" t="n">
-        <v>32.63397216796875</v>
+        <v>34.17185974121094</v>
       </c>
       <c r="D20" t="n">
-        <v>30.94585037231445</v>
+        <v>30.35623741149902</v>
       </c>
       <c r="E20" t="n">
-        <v>5.85101842880249</v>
+        <v>5.864238262176514</v>
       </c>
       <c r="F20" t="n">
-        <v>27.3330249786377</v>
+        <v>26.64457321166992</v>
       </c>
       <c r="G20" t="n">
-        <v>34.65637969970703</v>
+        <v>34.82745742797852</v>
       </c>
       <c r="H20" t="n">
-        <v>15.93519496917725</v>
+        <v>17.36266136169434</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.2483364105224609</v>
+        <v>-0.1112596555054188</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2907029157876969</v>
+        <v>0.04912139892578125</v>
       </c>
       <c r="C21" t="n">
-        <v>31.33255958557129</v>
+        <v>32.9611930847168</v>
       </c>
       <c r="D21" t="n">
-        <v>31.31076049804688</v>
+        <v>30.8449821472168</v>
       </c>
       <c r="E21" t="n">
-        <v>6.529552936553955</v>
+        <v>6.540589809417725</v>
       </c>
       <c r="F21" t="n">
-        <v>24.34197616577148</v>
+        <v>24.63920783996582</v>
       </c>
       <c r="G21" t="n">
-        <v>34.85533905029297</v>
+        <v>35.04328918457031</v>
       </c>
       <c r="H21" t="n">
-        <v>16.5827751159668</v>
+        <v>17.94893836975098</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2913418644666672</v>
+        <v>-0.008337261863052845</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3271983969211579</v>
+        <v>0.1329599097371101</v>
       </c>
       <c r="C22" t="n">
-        <v>30.0124340057373</v>
+        <v>31.73360061645508</v>
       </c>
       <c r="D22" t="n">
-        <v>31.96239471435547</v>
+        <v>31.72045707702637</v>
       </c>
       <c r="E22" t="n">
-        <v>7.363386631011963</v>
+        <v>7.38762903213501</v>
       </c>
       <c r="F22" t="n">
-        <v>22.77193641662598</v>
+        <v>22.47047424316406</v>
       </c>
       <c r="G22" t="n">
-        <v>35.06734466552734</v>
+        <v>35.23023986816406</v>
       </c>
       <c r="H22" t="n">
-        <v>17.16375923156738</v>
+        <v>18.44708251953125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.3344696998596192</v>
+        <v>0.09466077119112015</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3643023419380188</v>
+        <v>0.2154979202151299</v>
       </c>
       <c r="C23" t="n">
-        <v>28.68855094909668</v>
+        <v>30.50510597229004</v>
       </c>
       <c r="D23" t="n">
-        <v>32.8566780090332</v>
+        <v>32.9061279296875</v>
       </c>
       <c r="E23" t="n">
-        <v>8.309246063232422</v>
+        <v>8.36192512512207</v>
       </c>
       <c r="F23" t="n">
-        <v>20.98443222045898</v>
+        <v>20.32858467102051</v>
       </c>
       <c r="G23" t="n">
-        <v>35.33778762817383</v>
+        <v>35.43929672241211</v>
       </c>
       <c r="H23" t="n">
-        <v>17.7876033782959</v>
+        <v>18.98600769042969</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.3754256278276444</v>
+        <v>0.1930948650836945</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3996448975801468</v>
+        <v>0.2903537464141846</v>
       </c>
       <c r="C24" t="n">
-        <v>27.43133926391602</v>
+        <v>29.33104705810547</v>
       </c>
       <c r="D24" t="n">
-        <v>33.93903732299805</v>
+        <v>34.29364776611328</v>
       </c>
       <c r="E24" t="n">
-        <v>9.422883987426758</v>
+        <v>9.4932861328125</v>
       </c>
       <c r="F24" t="n">
-        <v>19.2153148651123</v>
+        <v>18.40141868591309</v>
       </c>
       <c r="G24" t="n">
-        <v>35.7082633972168</v>
+        <v>35.71617126464844</v>
       </c>
       <c r="H24" t="n">
-        <v>18.55177116394043</v>
+        <v>19.66086769104004</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4104143702983856</v>
+        <v>0.2782008010149002</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4305058091878891</v>
+        <v>0.3509606474637985</v>
       </c>
       <c r="C25" t="n">
-        <v>26.3572998046875</v>
+        <v>28.31595802307129</v>
       </c>
       <c r="D25" t="n">
-        <v>35.20272064208984</v>
+        <v>35.80348968505859</v>
       </c>
       <c r="E25" t="n">
-        <v>10.77080345153809</v>
+        <v>10.83341598510742</v>
       </c>
       <c r="F25" t="n">
-        <v>17.62972259521484</v>
+        <v>16.82880973815918</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21985626220703</v>
+        <v>36.08303833007812</v>
       </c>
       <c r="H25" t="n">
-        <v>19.43013954162598</v>
+        <v>20.42493057250977</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4365331745147705</v>
+        <v>0.3415245449543</v>
       </c>
       <c r="B26" t="n">
-        <v>0.455220764875412</v>
+        <v>0.3940700340270996</v>
       </c>
       <c r="C26" t="n">
-        <v>25.55553817749023</v>
+        <v>27.56067276000977</v>
       </c>
       <c r="D26" t="n">
-        <v>36.63138580322266</v>
+        <v>37.39911651611328</v>
       </c>
       <c r="E26" t="n">
-        <v>12.28017234802246</v>
+        <v>12.34297180175781</v>
       </c>
       <c r="F26" t="n">
-        <v>16.30800819396973</v>
+        <v>15.63735675811768</v>
       </c>
       <c r="G26" t="n">
-        <v>36.86060333251953</v>
+        <v>36.5003662109375</v>
       </c>
       <c r="H26" t="n">
-        <v>20.24577331542969</v>
+        <v>21.07724761962891</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4534276586771012</v>
+        <v>0.3833161038160324</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4738676983118058</v>
+        <v>0.422748139500618</v>
       </c>
       <c r="C27" t="n">
-        <v>25.03693389892578</v>
+        <v>27.06221008300781</v>
       </c>
       <c r="D27" t="n">
-        <v>38.1616325378418</v>
+        <v>39.01871490478516</v>
       </c>
       <c r="E27" t="n">
-        <v>13.76946067810059</v>
+        <v>13.83627128601074</v>
       </c>
       <c r="F27" t="n">
-        <v>15.2374439239502</v>
+        <v>15.63735675811768</v>
       </c>
       <c r="G27" t="n">
-        <v>37.53174591064453</v>
+        <v>36.85598373413086</v>
       </c>
       <c r="H27" t="n">
-        <v>20.69735145568848</v>
+        <v>21.34294319152832</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4640732967853546</v>
+        <v>0.4152857142686844</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4883118683099747</v>
+        <v>0.4443436318635941</v>
       </c>
       <c r="C28" t="n">
-        <v>24.71014785766602</v>
+        <v>26.6808967590332</v>
       </c>
       <c r="D28" t="n">
-        <v>39.65364837646484</v>
+        <v>40.54065704345703</v>
       </c>
       <c r="E28" t="n">
-        <v>15.0054931640625</v>
+        <v>15.07040977478027</v>
       </c>
       <c r="F28" t="n">
-        <v>15.2374439239502</v>
+        <v>13.83572578430176</v>
       </c>
       <c r="G28" t="n">
-        <v>38.05154037475586</v>
+        <v>36.99392700195312</v>
       </c>
       <c r="H28" t="n">
-        <v>20.42619514465332</v>
+        <v>20.90638542175293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4732679849863052</v>
+        <v>0.4496348762512207</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5011901623010636</v>
+        <v>0.466867094039917</v>
       </c>
       <c r="C29" t="n">
-        <v>24.42790031433105</v>
+        <v>26.27120208740234</v>
       </c>
       <c r="D29" t="n">
-        <v>40.93754577636719</v>
+        <v>41.7947883605957</v>
       </c>
       <c r="E29" t="n">
-        <v>15.70008277893066</v>
+        <v>15.71817779541016</v>
       </c>
       <c r="F29" t="n">
-        <v>13.43630027770996</v>
+        <v>13.19932746887207</v>
       </c>
       <c r="G29" t="n">
-        <v>38.2403450012207</v>
+        <v>36.82776641845703</v>
       </c>
       <c r="H29" t="n">
-        <v>18.14790725708008</v>
+        <v>18.58937835693359</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4829771238565445</v>
+        <v>0.4895154333114624</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5137800353765488</v>
+        <v>0.4928952968120575</v>
       </c>
       <c r="C30" t="n">
-        <v>24.12986183166504</v>
+        <v>25.7955322265625</v>
       </c>
       <c r="D30" t="n">
-        <v>41.92699813842773</v>
+        <v>42.70627212524414</v>
       </c>
       <c r="E30" t="n">
-        <v>15.55933952331543</v>
+        <v>15.48001861572266</v>
       </c>
       <c r="F30" t="n">
-        <v>12.72208213806152</v>
+        <v>12.46390247344971</v>
       </c>
       <c r="G30" t="n">
-        <v>38.02484893798828</v>
+        <v>36.37580108642578</v>
       </c>
       <c r="H30" t="n">
-        <v>16.02336883544922</v>
+        <v>16.53569030761719</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4899779176712036</v>
+        <v>0.5238745146989823</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5246558099985122</v>
+        <v>0.5172558706998825</v>
       </c>
       <c r="C31" t="n">
-        <v>23.91496086120605</v>
+        <v>25.38571929931641</v>
       </c>
       <c r="D31" t="n">
-        <v>42.68675231933594</v>
+        <v>43.352783203125</v>
       </c>
       <c r="E31" t="n">
-        <v>13.11314105987549</v>
+        <v>12.91415214538574</v>
       </c>
       <c r="F31" t="n">
-        <v>12.1051025390625</v>
+        <v>11.77559757232666</v>
       </c>
       <c r="G31" t="n">
-        <v>37.51237106323242</v>
+        <v>35.791015625</v>
       </c>
       <c r="H31" t="n">
-        <v>12.87682151794434</v>
+        <v>13.50908660888672</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4872884005308151</v>
+        <v>0.53</v>
       </c>
       <c r="B32" t="n">
         <v>0.53</v>
       </c>
       <c r="C32" t="n">
-        <v>23.99752044677734</v>
+        <v>25.31265830993652</v>
       </c>
       <c r="D32" t="n">
-        <v>43.407958984375</v>
+        <v>43.90871810913086</v>
       </c>
       <c r="E32" t="n">
-        <v>10.54030704498291</v>
+        <v>10.33985328674316</v>
       </c>
       <c r="F32" t="n">
-        <v>11.80193042755127</v>
+        <v>11.41551303863525</v>
       </c>
       <c r="G32" t="n">
-        <v>36.98704528808594</v>
+        <v>35.36955642700195</v>
       </c>
       <c r="H32" t="n">
-        <v>8.769467353820801</v>
+        <v>9.550975799560547</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4680393213033676</v>
+        <v>0.4879282969236374</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5246259570121765</v>
+        <v>0.5183361381292343</v>
       </c>
       <c r="C33" t="n">
-        <v>24.58840370178223</v>
+        <v>25.81446266174316</v>
       </c>
       <c r="D33" t="n">
-        <v>44.33949279785156</v>
+        <v>44.59044647216797</v>
       </c>
       <c r="E33" t="n">
-        <v>6.711840629577637</v>
+        <v>6.53701114654541</v>
       </c>
       <c r="F33" t="n">
-        <v>12.10679626464844</v>
+        <v>11.74507427215576</v>
       </c>
       <c r="G33" t="n">
-        <v>36.87658309936523</v>
+        <v>35.51731109619141</v>
       </c>
       <c r="H33" t="n">
-        <v>4.020321369171143</v>
+        <v>4.940501689910889</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4299189531803131</v>
+        <v>0.3913516116142273</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5474128084717624</v>
+        <v>0.5675282141513445</v>
       </c>
       <c r="C34" t="n">
-        <v>25.75857353210449</v>
+        <v>26.96636772155762</v>
       </c>
       <c r="D34" t="n">
-        <v>45.6336669921875</v>
+        <v>45.53376007080078</v>
       </c>
       <c r="E34" t="n">
-        <v>2.044335842132568</v>
+        <v>1.926205635070801</v>
       </c>
       <c r="F34" t="n">
-        <v>14.27309226989746</v>
+        <v>13.98065376281738</v>
       </c>
       <c r="G34" t="n">
-        <v>37.56504440307617</v>
+        <v>37.58852005004883</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.7137832641601562</v>
+        <v>0.2679338455200195</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.597344945052393</v>
+        <v>0.7139278915043026</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6001138990871754</v>
+        <v>0.67151949505035</v>
       </c>
       <c r="C35" t="n">
-        <v>28.54540824890137</v>
+        <v>29.69196319580078</v>
       </c>
       <c r="D35" t="n">
-        <v>48.34846878051758</v>
+        <v>46.82030487060547</v>
       </c>
       <c r="E35" t="n">
-        <v>-2.618576049804688</v>
+        <v>-2.607490539550781</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23944854736328</v>
+        <v>15.87817478179932</v>
       </c>
       <c r="G35" t="n">
-        <v>40.70756149291992</v>
+        <v>39.59582138061523</v>
       </c>
       <c r="H35" t="n">
-        <v>-4.694511413574219</v>
+        <v>-3.779535531997681</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7691036650669599</v>
+        <v>0.9586738419473015</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6852851902085367</v>
+        <v>0.8110308331524726</v>
       </c>
       <c r="C36" t="n">
-        <v>30.37198257446289</v>
+        <v>31.36202430725098</v>
       </c>
       <c r="D36" t="n">
-        <v>50.0826530456543</v>
+        <v>49.61867904663086</v>
       </c>
       <c r="E36" t="n">
-        <v>-6.357176780700684</v>
+        <v>-6.095440864562988</v>
       </c>
       <c r="F36" t="n">
-        <v>18.97808074951172</v>
+        <v>18.41299819946289</v>
       </c>
       <c r="G36" t="n">
-        <v>43.23912811279297</v>
+        <v>42.35541534423828</v>
       </c>
       <c r="H36" t="n">
-        <v>-7.594529628753662</v>
+        <v>-6.844997882843018</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.904101810344364</v>
+        <v>1.009138798919753</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7890654322242888</v>
+        <v>0.9313180270700001</v>
       </c>
       <c r="C37" t="n">
-        <v>32.76667785644531</v>
+        <v>33.45145416259766</v>
       </c>
       <c r="D37" t="n">
-        <v>52.34278869628906</v>
+        <v>51.44893646240234</v>
       </c>
       <c r="E37" t="n">
-        <v>-8.607185363769531</v>
+        <v>-8.020675659179688</v>
       </c>
       <c r="F37" t="n">
-        <v>22.29821395874023</v>
+        <v>21.36004447937012</v>
       </c>
       <c r="G37" t="n">
-        <v>46.54196929931641</v>
+        <v>45.52035522460938</v>
       </c>
       <c r="H37" t="n">
-        <v>-9.401619911193848</v>
+        <v>-8.836467742919922</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.977634738047051</v>
+        <v>0.994352165371501</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8859952357678491</v>
+        <v>0.9904441146569856</v>
       </c>
       <c r="C38" t="n">
-        <v>35.5717887878418</v>
+        <v>35.79496765136719</v>
       </c>
       <c r="D38" t="n">
-        <v>54.9066162109375</v>
+        <v>53.66407775878906</v>
       </c>
       <c r="E38" t="n">
-        <v>-8.607185363769531</v>
+        <v>-8.020675659179688</v>
       </c>
       <c r="F38" t="n">
-        <v>26.01375198364258</v>
+        <v>24.55501174926758</v>
       </c>
       <c r="G38" t="n">
-        <v>50.18926239013672</v>
+        <v>48.73796081542969</v>
       </c>
       <c r="H38" t="n">
-        <v>-9.401619911193848</v>
+        <v>-8.836467742919922</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9992043682491594</v>
+        <v>1.005811173107326</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9539709188472838</v>
+        <v>1.000867438492214</v>
       </c>
       <c r="C39" t="n">
-        <v>38.64812469482422</v>
+        <v>38.23055267333984</v>
       </c>
       <c r="D39" t="n">
-        <v>57.44132232666016</v>
+        <v>55.85026550292969</v>
       </c>
       <c r="E39" t="n">
-        <v>-10.16946411132812</v>
+        <v>-8.997417449951172</v>
       </c>
       <c r="F39" t="n">
-        <v>30.03105163574219</v>
+        <v>27.92068481445312</v>
       </c>
       <c r="G39" t="n">
-        <v>53.80529022216797</v>
+        <v>51.80441284179688</v>
       </c>
       <c r="H39" t="n">
-        <v>-9.361400604248047</v>
+        <v>-9.275791168212891</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.000135405171717</v>
+        <v>0.9916971593934057</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9880279395957837</v>
+        <v>0.9997164119689913</v>
       </c>
       <c r="C40" t="n">
-        <v>41.87701416015625</v>
+        <v>40.59956741333008</v>
       </c>
       <c r="D40" t="n">
-        <v>59.57107543945312</v>
+        <v>57.59611892700195</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.626895904541016</v>
+        <v>-7.398616790771484</v>
       </c>
       <c r="F40" t="n">
-        <v>34.34524536132812</v>
+        <v>31.43827056884766</v>
       </c>
       <c r="G40" t="n">
-        <v>57.24359893798828</v>
+        <v>54.71920013427734</v>
       </c>
       <c r="H40" t="n">
-        <v>-6.858165740966797</v>
+        <v>-6.987332344055176</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9999488130820614</v>
+        <v>1.01488695665474</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9987221538748536</v>
+        <v>1.000162202662946</v>
       </c>
       <c r="C41" t="n">
-        <v>45.15803909301758</v>
+        <v>42.79066467285156</v>
       </c>
       <c r="D41" t="n">
-        <v>61.0116081237793</v>
+        <v>58.60032272338867</v>
       </c>
       <c r="E41" t="n">
-        <v>-6.17957878112793</v>
+        <v>-4.405439376831055</v>
       </c>
       <c r="F41" t="n">
-        <v>38.96848297119141</v>
+        <v>35.09687042236328</v>
       </c>
       <c r="G41" t="n">
-        <v>60.6088981628418</v>
+        <v>57.59967041015625</v>
       </c>
       <c r="H41" t="n">
-        <v>-3.691348314285278</v>
+        <v>-4.038917541503906</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.000029836999405</v>
+        <v>0.968566770461825</v>
       </c>
       <c r="B42" t="n">
-        <v>1.000073232015484</v>
+        <v>0.9998660700896005</v>
       </c>
       <c r="C42" t="n">
-        <v>48.3596305847168</v>
+        <v>44.76421356201172</v>
       </c>
       <c r="D42" t="n">
-        <v>61.0116081237793</v>
+        <v>58.60032272338867</v>
       </c>
       <c r="E42" t="n">
-        <v>-4.87153434753418</v>
+        <v>-3.175564050674438</v>
       </c>
       <c r="F42" t="n">
-        <v>43.78945922851562</v>
+        <v>38.84196472167969</v>
       </c>
       <c r="G42" t="n">
-        <v>63.94448089599609</v>
+        <v>60.49697875976562</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.7115914821624756</v>
+        <v>-1.16904604434967</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9999768820468481</v>
+        <v>1.075101614017511</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9999835793092936</v>
+        <v>1.000144853052516</v>
       </c>
       <c r="C43" t="n">
-        <v>51.24361038208008</v>
+        <v>46.53940200805664</v>
       </c>
       <c r="D43" t="n">
-        <v>62.13778305053711</v>
+        <v>58.8719596862793</v>
       </c>
       <c r="E43" t="n">
-        <v>-4.87153434753418</v>
+        <v>-3.175564050674438</v>
       </c>
       <c r="F43" t="n">
-        <v>48.46900177001953</v>
+        <v>42.543701171875</v>
       </c>
       <c r="G43" t="n">
-        <v>66.85881042480469</v>
+        <v>63.23263168334961</v>
       </c>
       <c r="H43" t="n">
-        <v>1.534900188446045</v>
+        <v>1.135898590087891</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.000021558686033</v>
+        <v>0.801830710452039</v>
       </c>
       <c r="B44" t="n">
-        <v>1.00000616043562</v>
+        <v>0.9998079456954269</v>
       </c>
       <c r="C44" t="n">
-        <v>53.556396484375</v>
+        <v>48.18431854248047</v>
       </c>
       <c r="D44" t="n">
-        <v>59.09589004516602</v>
+        <v>56.07398986816406</v>
       </c>
       <c r="E44" t="n">
-        <v>-3.42667293548584</v>
+        <v>-1.488967895507812</v>
       </c>
       <c r="F44" t="n">
-        <v>52.51163482666016</v>
+        <v>46.00136566162109</v>
       </c>
       <c r="G44" t="n">
-        <v>68.53797149658203</v>
+        <v>65.38324737548828</v>
       </c>
       <c r="H44" t="n">
-        <v>2.861031055450439</v>
+        <v>2.70281720161438</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9999775875952824</v>
+        <v>0.3938030436190896</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9999969910259972</v>
+        <v>1.000295850410643</v>
       </c>
       <c r="C45" t="n">
-        <v>55.11500549316406</v>
+        <v>49.78836059570312</v>
       </c>
       <c r="D45" t="n">
-        <v>56.10904693603516</v>
+        <v>53.84159469604492</v>
       </c>
       <c r="E45" t="n">
-        <v>-5.801697254180908</v>
+        <v>-3.769080400466919</v>
       </c>
       <c r="F45" t="n">
-        <v>55.42201995849609</v>
+        <v>48.96848297119141</v>
       </c>
       <c r="G45" t="n">
-        <v>68.53797149658203</v>
+        <v>66.40378570556641</v>
       </c>
       <c r="H45" t="n">
-        <v>2.861031055450439</v>
+        <v>2.70281720161438</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.000024408115155</v>
+        <v>3.698163783347716</v>
       </c>
       <c r="B46" t="n">
-        <v>1.000001647638207</v>
+        <v>0.9994953292499118</v>
       </c>
       <c r="C46" t="n">
-        <v>55.11500549316406</v>
+        <v>51.35332870483398</v>
       </c>
       <c r="D46" t="n">
-        <v>51.71445465087891</v>
+        <v>50.62466049194336</v>
       </c>
       <c r="E46" t="n">
-        <v>-8.91136360168457</v>
+        <v>-6.867926120758057</v>
       </c>
       <c r="F46" t="n">
-        <v>56.88333129882812</v>
+        <v>51.18424987792969</v>
       </c>
       <c r="G46" t="n">
-        <v>65.05156707763672</v>
+        <v>66.40378570556641</v>
       </c>
       <c r="H46" t="n">
-        <v>2.393397569656372</v>
+        <v>4.154966831207275</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9999737153148447</v>
+        <v>-8.279734997391083</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9999990971240907</v>
+        <v>1.000910234986073</v>
       </c>
       <c r="C47" t="n">
-        <v>56.47575378417969</v>
+        <v>52.6873779296875</v>
       </c>
       <c r="D47" t="n">
-        <v>46.38540649414062</v>
+        <v>46.59839630126953</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.48259925842285</v>
+        <v>-11.56949520111084</v>
       </c>
       <c r="F47" t="n">
-        <v>56.88333129882812</v>
+        <v>52.40169906616211</v>
       </c>
       <c r="G47" t="n">
-        <v>59.97297668457031</v>
+        <v>62.66533660888672</v>
       </c>
       <c r="H47" t="n">
-        <v>0.02354001998901367</v>
+        <v>0.9511096477508545</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.000026339693396</v>
+        <v>34.04075904108775</v>
       </c>
       <c r="B48" t="n">
-        <v>1.000000446071885</v>
+        <v>0.9983449613732914</v>
       </c>
       <c r="C48" t="n">
-        <v>54.18453216552734</v>
+        <v>52.6873779296875</v>
       </c>
       <c r="D48" t="n">
-        <v>40.98389434814453</v>
+        <v>42.15927886962891</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.13564682006836</v>
+        <v>-16.87199020385742</v>
       </c>
       <c r="F48" t="n">
-        <v>55.3962516784668</v>
+        <v>52.40169906616211</v>
       </c>
       <c r="G48" t="n">
-        <v>53.75790405273438</v>
+        <v>57.93376922607422</v>
       </c>
       <c r="H48" t="n">
-        <v>-2.739309549331665</v>
+        <v>-1.81635582447052</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9999770841896004</v>
+        <v>-107.860404648034</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9999998189912661</v>
+        <v>1.002905827608724</v>
       </c>
       <c r="C49" t="n">
-        <v>52.33042907714844</v>
+        <v>54.04475402832031</v>
       </c>
       <c r="D49" t="n">
-        <v>36.54843139648438</v>
+        <v>37.87750244140625</v>
       </c>
       <c r="E49" t="n">
-        <v>-20.63683700561523</v>
+        <v>-20.78363800048828</v>
       </c>
       <c r="F49" t="n">
-        <v>53.29456329345703</v>
+        <v>52.68308258056641</v>
       </c>
       <c r="G49" t="n">
-        <v>48.04684448242188</v>
+        <v>51.91770172119141</v>
       </c>
       <c r="H49" t="n">
-        <v>-4.071707725524902</v>
+        <v>-3.817341804504395</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.000016227239643</v>
+        <v>320.2901348448358</v>
       </c>
       <c r="B50" t="n">
-        <v>1.000000056134137</v>
+        <v>0.9951968783761747</v>
       </c>
       <c r="C50" t="n">
-        <v>50.177490234375</v>
+        <v>51.57262420654297</v>
       </c>
       <c r="D50" t="n">
-        <v>33.80532836914062</v>
+        <v>34.35537719726562</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.59886932373047</v>
+        <v>-20.78363800048828</v>
       </c>
       <c r="F50" t="n">
-        <v>50.98838424682617</v>
+        <v>51.14336013793945</v>
       </c>
       <c r="G50" t="n">
-        <v>44.04600143432617</v>
+        <v>46.35323333740234</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.782609462738037</v>
+        <v>-3.817341804504395</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9999909545344222</v>
+        <v>-827.1845482216506</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9999999872791515</v>
+        <v>1.007411134613623</v>
       </c>
       <c r="C51" t="n">
-        <v>48.25738525390625</v>
+        <v>49.95798873901367</v>
       </c>
       <c r="D51" t="n">
-        <v>33.80532836914062</v>
+        <v>32.22412109375</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.62890815734863</v>
+        <v>-18.04815673828125</v>
       </c>
       <c r="F51" t="n">
-        <v>48.90794372558594</v>
+        <v>49.49693298339844</v>
       </c>
       <c r="G51" t="n">
-        <v>42.04648208618164</v>
+        <v>42.53070449829102</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4875327348709106</v>
+        <v>0.584423303604126</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.000004104064619</v>
+        <v>-413.4926084390893</v>
       </c>
       <c r="B52" t="n">
-        <v>1.000000002098035</v>
+        <v>0.9893338770049627</v>
       </c>
       <c r="C52" t="n">
-        <v>42.31503295898438</v>
+        <v>39.60732650756836</v>
       </c>
       <c r="D52" t="n">
-        <v>27.08106803894043</v>
+        <v>28.11643218994141</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.90073013305664</v>
+        <v>-13.68699359893799</v>
       </c>
       <c r="F52" t="n">
-        <v>43.706298828125</v>
+        <v>35.15567398071289</v>
       </c>
       <c r="G52" t="n">
-        <v>34.21248626708984</v>
+        <v>36.94380187988281</v>
       </c>
       <c r="H52" t="n">
-        <v>-1.95520806312561</v>
+        <v>-1.606143236160278</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.08414559379220009</v>
+        <v>-206.8097168906338</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05929845571517944</v>
+        <v>0.1423495110869408</v>
       </c>
       <c r="C53" t="n">
-        <v>42.31503295898438</v>
+        <v>36.37709045410156</v>
       </c>
       <c r="D53" t="n">
-        <v>27.08106803894043</v>
+        <v>26.4573802947998</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.70639801025391</v>
+        <v>-11.49920558929443</v>
       </c>
       <c r="F53" t="n">
-        <v>43.706298828125</v>
+        <v>29.98859024047852</v>
       </c>
       <c r="G53" t="n">
-        <v>34.21248626708984</v>
+        <v>36.94380187988281</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.5133569240570068</v>
+        <v>-1.606143236160278</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.05136226832866669</v>
+        <v>-103.5782664979402</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.0609558729827404</v>
+        <v>0.05553397439420223</v>
       </c>
       <c r="C54" t="n">
-        <v>40.53232192993164</v>
+        <v>36.37709045410156</v>
       </c>
       <c r="D54" t="n">
-        <v>28.70232772827148</v>
+        <v>26.4573802947998</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.293556213378906</v>
+        <v>-9.441732406616211</v>
       </c>
       <c r="F54" t="n">
-        <v>45.32663726806641</v>
+        <v>29.98859024047852</v>
       </c>
       <c r="G54" t="n">
-        <v>38.01009750366211</v>
+        <v>41.15127182006836</v>
       </c>
       <c r="H54" t="n">
-        <v>2.988438606262207</v>
+        <v>2.467171430587769</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.06320761740207673</v>
+        <v>-52.02897075121123</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.09317712515592576</v>
+        <v>-0.1039810630679131</v>
       </c>
       <c r="C55" t="n">
-        <v>40.89593505859375</v>
+        <v>35.77075958251953</v>
       </c>
       <c r="D55" t="n">
-        <v>30.23641204833984</v>
+        <v>26.51877403259277</v>
       </c>
       <c r="E55" t="n">
-        <v>-6.340723991394043</v>
+        <v>-7.143534660339355</v>
       </c>
       <c r="F55" t="n">
-        <v>47.15453720092773</v>
+        <v>31.77740097045898</v>
       </c>
       <c r="G55" t="n">
-        <v>40.80272674560547</v>
+        <v>43.83905410766602</v>
       </c>
       <c r="H55" t="n">
-        <v>6.499490737915039</v>
+        <v>5.71846342086792</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.04307391837239265</v>
+        <v>-26.2990376284943</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.08423307567834855</v>
+        <v>-0.2773183846473694</v>
       </c>
       <c r="C56" t="n">
-        <v>40.27789688110352</v>
+        <v>37.35541534423828</v>
       </c>
       <c r="D56" t="n">
-        <v>30.23641204833984</v>
+        <v>28.14980506896973</v>
       </c>
       <c r="E56" t="n">
-        <v>-5.098208904266357</v>
+        <v>-5.013970375061035</v>
       </c>
       <c r="F56" t="n">
-        <v>46.64714431762695</v>
+        <v>35.15621185302734</v>
       </c>
       <c r="G56" t="n">
-        <v>40.80272674560547</v>
+        <v>45.29464340209961</v>
       </c>
       <c r="H56" t="n">
-        <v>8.772930145263672</v>
+        <v>8.717815399169922</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.01666679590940475</v>
+        <v>-13.46807241813471</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.05250208772718907</v>
+        <v>-0.4298161894083024</v>
       </c>
       <c r="C57" t="n">
-        <v>39.46728515625</v>
+        <v>38.42207336425781</v>
       </c>
       <c r="D57" t="n">
-        <v>30.85739707946777</v>
+        <v>29.09704399108887</v>
       </c>
       <c r="E57" t="n">
-        <v>-5.098208904266357</v>
+        <v>-3.538439512252808</v>
       </c>
       <c r="F57" t="n">
-        <v>43.74853134155273</v>
+        <v>38.44689178466797</v>
       </c>
       <c r="G57" t="n">
-        <v>41.32780456542969</v>
+        <v>45.29464340209961</v>
       </c>
       <c r="H57" t="n">
-        <v>8.772930145263672</v>
+        <v>10.73719596862793</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.007758336048573256</v>
+        <v>-7.074458310088167</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.01377361506223679</v>
+        <v>-0.5431610918045044</v>
       </c>
       <c r="C58" t="n">
-        <v>38.71751403808594</v>
+        <v>39.2331657409668</v>
       </c>
       <c r="D58" t="n">
-        <v>29.33117485046387</v>
+        <v>29.11873054504395</v>
       </c>
       <c r="E58" t="n">
-        <v>-3.557589054107666</v>
+        <v>-3.538439512252808</v>
       </c>
       <c r="F58" t="n">
-        <v>42.16636657714844</v>
+        <v>40.99948883056641</v>
       </c>
       <c r="G58" t="n">
-        <v>39.27217102050781</v>
+        <v>43.34205627441406</v>
       </c>
       <c r="H58" t="n">
-        <v>10.54823207855225</v>
+        <v>10.73719596862793</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.03226896561682224</v>
+        <v>-3.879950820545678</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02264134790748358</v>
+        <v>-0.607380393743515</v>
       </c>
       <c r="C59" t="n">
-        <v>37.96511840820312</v>
+        <v>39.75483322143555</v>
       </c>
       <c r="D59" t="n">
-        <v>27.91922378540039</v>
+        <v>28.20749664306641</v>
       </c>
       <c r="E59" t="n">
-        <v>-3.307916164398193</v>
+        <v>-2.305545806884766</v>
       </c>
       <c r="F59" t="n">
-        <v>40.53611755371094</v>
+        <v>42.44879150390625</v>
       </c>
       <c r="G59" t="n">
-        <v>36.97182464599609</v>
+        <v>40.32146453857422</v>
       </c>
       <c r="H59" t="n">
-        <v>9.650599479675293</v>
+        <v>12.35227489471436</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.05464599415659905</v>
+        <v>-2.263171611597302</v>
       </c>
       <c r="B60" t="n">
-        <v>0.05222605422139168</v>
+        <v>-0.6196262466907502</v>
       </c>
       <c r="C60" t="n">
-        <v>37.27821731567383</v>
+        <v>39.80968856811523</v>
       </c>
       <c r="D60" t="n">
-        <v>26.91610336303711</v>
+        <v>26.67180252075195</v>
       </c>
       <c r="E60" t="n">
-        <v>-2.888176918029785</v>
+        <v>-3.021892547607422</v>
       </c>
       <c r="F60" t="n">
-        <v>39.07570266723633</v>
+        <v>42.44879150390625</v>
       </c>
       <c r="G60" t="n">
-        <v>34.80100250244141</v>
+        <v>36.60651779174805</v>
       </c>
       <c r="H60" t="n">
-        <v>8.962989807128906</v>
+        <v>11.10655498504639</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.07018018513917923</v>
+        <v>-2.263171611597302</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07497572779655456</v>
+        <v>-0.5865592467784881</v>
       </c>
       <c r="C61" t="n">
-        <v>36.80136871337891</v>
+        <v>39.34391403198242</v>
       </c>
       <c r="D61" t="n">
-        <v>26.48928070068359</v>
+        <v>25.18605041503906</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.16459846496582</v>
+        <v>-3.419823169708252</v>
       </c>
       <c r="F61" t="n">
-        <v>37.85742950439453</v>
+        <v>42.96378707885742</v>
       </c>
       <c r="G61" t="n">
-        <v>33.015380859375</v>
+        <v>33.13452529907227</v>
       </c>
       <c r="H61" t="n">
-        <v>8.608791351318359</v>
+        <v>9.734295845031738</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.07554544597864152</v>
+        <v>-0.585848777294159</v>
       </c>
       <c r="B62" t="n">
-        <v>0.09218253105878831</v>
+        <v>-0.5249590152502061</v>
       </c>
       <c r="C62" t="n">
-        <v>36.63667297363281</v>
+        <v>38.62178802490234</v>
       </c>
       <c r="D62" t="n">
-        <v>26.73152923583984</v>
+        <v>24.56486129760742</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.13178014755249</v>
+        <v>-2.94926643371582</v>
       </c>
       <c r="F62" t="n">
-        <v>37.85742950439453</v>
+        <v>41.2232780456543</v>
       </c>
       <c r="G62" t="n">
-        <v>31.77005004882812</v>
+        <v>30.70775985717773</v>
       </c>
       <c r="H62" t="n">
-        <v>8.579958915710449</v>
+        <v>8.831059455871582</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.07207457035779953</v>
+        <v>-0.5415794837474823</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1052929912507534</v>
+        <v>-0.4555523699522019</v>
       </c>
       <c r="C63" t="n">
-        <v>36.74321746826172</v>
+        <v>38.09377288818359</v>
       </c>
       <c r="D63" t="n">
-        <v>27.56564903259277</v>
+        <v>25.24984931945801</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1051244214177132</v>
+        <v>-1.598765850067139</v>
       </c>
       <c r="F63" t="n">
-        <v>35.89540100097656</v>
+        <v>39.26219940185547</v>
       </c>
       <c r="G63" t="n">
-        <v>31.77005004882812</v>
+        <v>29.61129760742188</v>
       </c>
       <c r="H63" t="n">
-        <v>8.869566917419434</v>
+        <v>8.718926429748535</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.06552911356091499</v>
+        <v>-0.5338818991184235</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1157317276299</v>
+        <v>-0.3939522331953049</v>
       </c>
       <c r="C64" t="n">
-        <v>36.94414138793945</v>
+        <v>38.00196075439453</v>
       </c>
       <c r="D64" t="n">
-        <v>28.6990909576416</v>
+        <v>26.95627212524414</v>
       </c>
       <c r="E64" t="n">
-        <v>1.387783527374268</v>
+        <v>0.2143635302782059</v>
       </c>
       <c r="F64" t="n">
-        <v>35.30321502685547</v>
+        <v>37.52169418334961</v>
       </c>
       <c r="G64" t="n">
-        <v>30.44345474243164</v>
+        <v>29.61129760742188</v>
       </c>
       <c r="H64" t="n">
-        <v>9.475481986999512</v>
+        <v>9.443219184875488</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.06256774470210076</v>
+        <v>-0.5509149706363679</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1251961115002632</v>
+        <v>-0.3457833498716354</v>
       </c>
       <c r="C65" t="n">
-        <v>37.0350456237793</v>
+        <v>38.20512008666992</v>
       </c>
       <c r="D65" t="n">
-        <v>29.75905418395996</v>
+        <v>28.8992748260498</v>
       </c>
       <c r="E65" t="n">
-        <v>2.585670948028564</v>
+        <v>2.0363450050354</v>
       </c>
       <c r="F65" t="n">
-        <v>34.76630401611328</v>
+        <v>36.16068649291992</v>
       </c>
       <c r="G65" t="n">
-        <v>30.79433441162109</v>
+        <v>29.60898017883301</v>
       </c>
       <c r="H65" t="n">
-        <v>10.2985315322876</v>
+        <v>10.79556179046631</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.06847793310880661</v>
+        <v>-0.5649547195434571</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1358023563027382</v>
+        <v>-0.3086635464429855</v>
       </c>
       <c r="C66" t="n">
-        <v>36.85362243652344</v>
+        <v>38.37257766723633</v>
       </c>
       <c r="D66" t="n">
-        <v>30.47185897827148</v>
+        <v>30.31966018676758</v>
       </c>
       <c r="E66" t="n">
-        <v>3.591633319854736</v>
+        <v>3.568794727325439</v>
       </c>
       <c r="F66" t="n">
-        <v>34.16461563110352</v>
+        <v>35.11186981201172</v>
       </c>
       <c r="G66" t="n">
-        <v>31.36815643310547</v>
+        <v>30.86475944519043</v>
       </c>
       <c r="H66" t="n">
-        <v>11.22258472442627</v>
+        <v>12.44308376312256</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.08514969661831856</v>
+        <v>-0.5538029706478119</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1493365156650543</v>
+        <v>-0.2763616991043091</v>
       </c>
       <c r="C67" t="n">
-        <v>36.34185409545898</v>
+        <v>38.23956680297852</v>
       </c>
       <c r="D67" t="n">
-        <v>30.76851463317871</v>
+        <v>30.86065483093262</v>
       </c>
       <c r="E67" t="n">
-        <v>4.377828121185303</v>
+        <v>4.686737537384033</v>
       </c>
       <c r="F67" t="n">
-        <v>33.39682769775391</v>
+        <v>34.19918441772461</v>
       </c>
       <c r="G67" t="n">
-        <v>31.99765396118164</v>
+        <v>31.9005241394043</v>
       </c>
       <c r="H67" t="n">
-        <v>12.15672206878662</v>
+        <v>14.06635570526123</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.1115603019297123</v>
+        <v>-0.5097378146648407</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1668117588758469</v>
+        <v>-0.2417775040864945</v>
       </c>
       <c r="C68" t="n">
-        <v>35.53113555908203</v>
+        <v>37.71398544311523</v>
       </c>
       <c r="D68" t="n">
-        <v>30.74729156494141</v>
+        <v>30.61958122253418</v>
       </c>
       <c r="E68" t="n">
-        <v>4.963855266571045</v>
+        <v>5.394711971282959</v>
       </c>
       <c r="F68" t="n">
-        <v>32.40546417236328</v>
+        <v>33.22201156616211</v>
       </c>
       <c r="G68" t="n">
-        <v>32.57524490356445</v>
+        <v>32.62392425537109</v>
       </c>
       <c r="H68" t="n">
-        <v>13.04886150360107</v>
+        <v>15.46290493011475</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.1452429604530334</v>
+        <v>-0.4379374969005585</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1885608756542206</v>
+        <v>-0.1982844039797783</v>
       </c>
       <c r="C69" t="n">
-        <v>34.49718856811523</v>
+        <v>36.85759735107422</v>
       </c>
       <c r="D69" t="n">
-        <v>30.58213424682617</v>
+        <v>29.9837760925293</v>
       </c>
       <c r="E69" t="n">
-        <v>5.425503253936768</v>
+        <v>5.806248188018799</v>
       </c>
       <c r="F69" t="n">
-        <v>31.17164421081543</v>
+        <v>31.99311828613281</v>
       </c>
       <c r="G69" t="n">
-        <v>33.03475570678711</v>
+        <v>33.09249496459961</v>
       </c>
       <c r="H69" t="n">
-        <v>13.87384700775146</v>
+        <v>16.56966018676758</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.1834474697709084</v>
+        <v>-0.3492835730314255</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2142554199695587</v>
+        <v>-0.1414439389109612</v>
       </c>
       <c r="C70" t="n">
-        <v>33.32443618774414</v>
+        <v>35.80018997192383</v>
       </c>
       <c r="D70" t="n">
-        <v>30.44311332702637</v>
+        <v>29.40959548950195</v>
       </c>
       <c r="E70" t="n">
-        <v>5.865435123443604</v>
+        <v>6.105848789215088</v>
       </c>
       <c r="F70" t="n">
-        <v>29.71400260925293</v>
+        <v>29.37933349609375</v>
       </c>
       <c r="G70" t="n">
-        <v>33.36051559448242</v>
+        <v>33.40016555786133</v>
       </c>
       <c r="H70" t="n">
-        <v>14.62410831451416</v>
+        <v>17.40881156921387</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.2243119749426842</v>
+        <v>-0.2540037709474564</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2434248992800713</v>
+        <v>-0.07011027544736863</v>
       </c>
       <c r="C71" t="n">
-        <v>32.07003021240234</v>
+        <v>34.66375350952148</v>
       </c>
       <c r="D71" t="n">
-        <v>30.4603385925293</v>
+        <v>29.23892974853516</v>
       </c>
       <c r="E71" t="n">
-        <v>6.378990650177002</v>
+        <v>6.477928638458252</v>
       </c>
       <c r="F71" t="n">
-        <v>28.05922889709473</v>
+        <v>27.70026016235352</v>
       </c>
       <c r="G71" t="n">
-        <v>33.57721328735352</v>
+        <v>33.6210823059082</v>
       </c>
       <c r="H71" t="n">
-        <v>15.29946041107178</v>
+        <v>18.04231262207031</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.2669817644357682</v>
+        <v>-0.1577050027251244</v>
       </c>
       <c r="B72" t="n">
-        <v>0.2755832469463348</v>
+        <v>0.01307464845478535</v>
       </c>
       <c r="C72" t="n">
-        <v>30.76020812988281</v>
+        <v>33.51516342163086</v>
       </c>
       <c r="D72" t="n">
-        <v>30.70092964172363</v>
+        <v>29.62586402893066</v>
       </c>
       <c r="E72" t="n">
-        <v>6.996164798736572</v>
+        <v>7.034608364105225</v>
       </c>
       <c r="F72" t="n">
-        <v>26.23489761352539</v>
+        <v>25.5933723449707</v>
       </c>
       <c r="G72" t="n">
-        <v>33.73427963256836</v>
+        <v>33.79716491699219</v>
       </c>
       <c r="H72" t="n">
-        <v>15.90961170196533</v>
+        <v>18.52558135986328</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.3104760491847992</v>
+        <v>-0.06234620474278927</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3098340678215027</v>
+        <v>0.1027831922471523</v>
       </c>
       <c r="C73" t="n">
-        <v>29.42507743835449</v>
+        <v>32.37778472900391</v>
       </c>
       <c r="D73" t="n">
-        <v>31.18837547302246</v>
+        <v>30.53433418273926</v>
       </c>
       <c r="E73" t="n">
-        <v>7.719898700714111</v>
+        <v>7.761353015899658</v>
       </c>
       <c r="F73" t="n">
-        <v>24.29186058044434</v>
+        <v>23.27824783325195</v>
       </c>
       <c r="G73" t="n">
-        <v>33.8964958190918</v>
+        <v>33.95432281494141</v>
       </c>
       <c r="H73" t="n">
-        <v>16.47568702697754</v>
+        <v>18.9308910369873</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.3537703031301498</v>
+        <v>0.03202720183879137</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3448997330665589</v>
+        <v>0.1920900672674179</v>
       </c>
       <c r="C74" t="n">
-        <v>28.0960865020752</v>
+        <v>31.25215911865234</v>
       </c>
       <c r="D74" t="n">
-        <v>31.91133308410645</v>
+        <v>31.80655479431152</v>
       </c>
       <c r="E74" t="n">
-        <v>8.541969299316406</v>
+        <v>8.5875244140625</v>
       </c>
       <c r="F74" t="n">
-        <v>22.30259895324707</v>
+        <v>20.97728729248047</v>
       </c>
       <c r="G74" t="n">
-        <v>34.11829376220703</v>
+        <v>34.12213897705078</v>
       </c>
       <c r="H74" t="n">
-        <v>17.06711196899414</v>
+        <v>19.38175010681152</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.3955326724052429</v>
+        <v>0.1239229053258896</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3791456890106201</v>
+        <v>0.273024577498436</v>
       </c>
       <c r="C75" t="n">
-        <v>26.81411933898926</v>
+        <v>30.15608596801758</v>
       </c>
       <c r="D75" t="n">
-        <v>32.80439376831055</v>
+        <v>33.26837539672852</v>
       </c>
       <c r="E75" t="n">
-        <v>9.475364685058594</v>
+        <v>9.518436431884766</v>
       </c>
       <c r="F75" t="n">
-        <v>20.35983848571777</v>
+        <v>18.91024017333984</v>
       </c>
       <c r="G75" t="n">
-        <v>34.43405151367188</v>
+        <v>34.33763885498047</v>
       </c>
       <c r="H75" t="n">
-        <v>17.78536987304688</v>
+        <v>19.96111297607422</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.4325472795963288</v>
+        <v>0.2064156782627106</v>
       </c>
       <c r="B76" t="n">
-        <v>0.410229281783104</v>
+        <v>0.3379030776023865</v>
       </c>
       <c r="C76" t="n">
-        <v>25.67789268493652</v>
+        <v>29.17216491699219</v>
       </c>
       <c r="D76" t="n">
-        <v>33.84972381591797</v>
+        <v>34.79958724975586</v>
       </c>
       <c r="E76" t="n">
-        <v>10.58935356140137</v>
+        <v>10.61856651306152</v>
       </c>
       <c r="F76" t="n">
-        <v>18.59647750854492</v>
+        <v>17.24330902099609</v>
       </c>
       <c r="G76" t="n">
-        <v>34.89387893676758</v>
+        <v>34.62747955322266</v>
       </c>
       <c r="H76" t="n">
-        <v>18.63603973388672</v>
+        <v>20.61849594116211</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4610646843910218</v>
+        <v>0.2694250655174256</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4360233676433564</v>
+        <v>0.3827382510900498</v>
       </c>
       <c r="C77" t="n">
-        <v>24.8025016784668</v>
+        <v>28.42062950134277</v>
       </c>
       <c r="D77" t="n">
-        <v>35.07500457763672</v>
+        <v>36.34158706665039</v>
       </c>
       <c r="E77" t="n">
-        <v>11.87244987487793</v>
+        <v>11.88935852050781</v>
       </c>
       <c r="F77" t="n">
-        <v>17.13318824768066</v>
+        <v>16.01900672912598</v>
       </c>
       <c r="G77" t="n">
-        <v>35.52875900268555</v>
+        <v>34.97032928466797</v>
       </c>
       <c r="H77" t="n">
-        <v>19.46720695495605</v>
+        <v>21.17714881896973</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.4796413922309876</v>
+        <v>0.3087747132778168</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4559314239025116</v>
+        <v>0.4104033136367798</v>
       </c>
       <c r="C78" t="n">
-        <v>24.23225784301758</v>
+        <v>27.95129203796387</v>
       </c>
       <c r="D78" t="n">
-        <v>36.44131851196289</v>
+        <v>37.84506988525391</v>
       </c>
       <c r="E78" t="n">
-        <v>13.16423225402832</v>
+        <v>13.19523048400879</v>
       </c>
       <c r="F78" t="n">
-        <v>16.00381278991699</v>
+        <v>16.01900672912598</v>
       </c>
       <c r="G78" t="n">
-        <v>36.28406524658203</v>
+        <v>35.27872848510742</v>
       </c>
       <c r="H78" t="n">
-        <v>20.01744651794434</v>
+        <v>21.41320991516113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.489513948559761</v>
+        <v>0.3327803051471711</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4709304487705231</v>
+        <v>0.4289150083065033</v>
       </c>
       <c r="C79" t="n">
-        <v>23.92920303344727</v>
+        <v>27.66496849060059</v>
       </c>
       <c r="D79" t="n">
-        <v>37.83557510375977</v>
+        <v>39.23876953125</v>
       </c>
       <c r="E79" t="n">
-        <v>14.27744483947754</v>
+        <v>14.33688735961914</v>
       </c>
       <c r="F79" t="n">
-        <v>15.15292453765869</v>
+        <v>14.27165985107422</v>
       </c>
       <c r="G79" t="n">
-        <v>37.01396560668945</v>
+        <v>35.41844177246094</v>
       </c>
       <c r="H79" t="n">
-        <v>19.95657920837402</v>
+        <v>21.05970001220703</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.4944315725564957</v>
+        <v>0.3537661015987397</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4832820349931717</v>
+        <v>0.4481418162584305</v>
       </c>
       <c r="C80" t="n">
-        <v>23.77824783325195</v>
+        <v>27.41466331481934</v>
       </c>
       <c r="D80" t="n">
-        <v>39.09587860107422</v>
+        <v>40.40016937255859</v>
       </c>
       <c r="E80" t="n">
-        <v>14.98509979248047</v>
+        <v>15.01702308654785</v>
       </c>
       <c r="F80" t="n">
-        <v>14.45222282409668</v>
+        <v>13.72840785980225</v>
       </c>
       <c r="G80" t="n">
-        <v>37.52255249023438</v>
+        <v>35.29825592041016</v>
       </c>
       <c r="H80" t="n">
-        <v>19.03776168823242</v>
+        <v>19.99728965759277</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.4976606231927872</v>
+        <v>0.380845097899437</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4949948620796204</v>
+        <v>0.4731919783353806</v>
       </c>
       <c r="C81" t="n">
-        <v>23.67912673950195</v>
+        <v>27.09168243408203</v>
       </c>
       <c r="D81" t="n">
-        <v>40.10744094848633</v>
+        <v>41.27106475830078</v>
       </c>
       <c r="E81" t="n">
-        <v>15.02859115600586</v>
+        <v>14.94197273254395</v>
       </c>
       <c r="F81" t="n">
-        <v>13.78775787353516</v>
+        <v>13.0206184387207</v>
       </c>
       <c r="G81" t="n">
-        <v>37.66146087646484</v>
+        <v>34.91659927368164</v>
       </c>
       <c r="H81" t="n">
-        <v>15.68658065795898</v>
+        <v>16.76068115234375</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.4988120007514954</v>
+        <v>0.4114804220199585</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5061086708307266</v>
+        <v>0.5009429353475571</v>
       </c>
       <c r="C82" t="n">
-        <v>23.64378356933594</v>
+        <v>26.72628402709961</v>
       </c>
       <c r="D82" t="n">
-        <v>40.90298843383789</v>
+        <v>41.92692565917969</v>
       </c>
       <c r="E82" t="n">
-        <v>13.11751937866211</v>
+        <v>12.82914638519287</v>
       </c>
       <c r="F82" t="n">
-        <v>13.15727615356445</v>
+        <v>12.23651790618896</v>
       </c>
       <c r="G82" t="n">
-        <v>37.43820571899414</v>
+        <v>34.38913345336914</v>
       </c>
       <c r="H82" t="n">
-        <v>12.96189880371094</v>
+        <v>14.2021369934082</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.4930823123455048</v>
+        <v>0.4264815950393677</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5139981991052628</v>
+        <v>0.5217707479000092</v>
       </c>
       <c r="C83" t="n">
-        <v>23.81966590881348</v>
+        <v>26.54735946655273</v>
       </c>
       <c r="D83" t="n">
-        <v>41.68560791015625</v>
+        <v>42.54825210571289</v>
       </c>
       <c r="E83" t="n">
-        <v>10.856369972229</v>
+        <v>10.54584693908691</v>
       </c>
       <c r="F83" t="n">
-        <v>12.70970630645752</v>
+        <v>11.64802932739258</v>
       </c>
       <c r="G83" t="n">
-        <v>37.06035995483398</v>
+        <v>33.97639083862305</v>
       </c>
       <c r="H83" t="n">
-        <v>9.084471702575684</v>
+        <v>10.56463623046875</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.4737943452596665</v>
+        <v>0.4014568632841111</v>
       </c>
       <c r="B84" t="n">
-        <v>0.513894266486168</v>
+        <v>0.5211445617675782</v>
       </c>
       <c r="C84" t="n">
-        <v>24.4117431640625</v>
+        <v>26.84583854675293</v>
       </c>
       <c r="D84" t="n">
-        <v>42.75582504272461</v>
+        <v>43.3593864440918</v>
       </c>
       <c r="E84" t="n">
-        <v>7.332415580749512</v>
+        <v>7.042300224304199</v>
       </c>
       <c r="F84" t="n">
-        <v>12.71560096740723</v>
+        <v>11.66572284698486</v>
       </c>
       <c r="G84" t="n">
-        <v>36.90866470336914</v>
+        <v>34.06835174560547</v>
       </c>
       <c r="H84" t="n">
-        <v>4.365699291229248</v>
+        <v>6.109241485595703</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.4373270744085312</v>
+        <v>0.3225308114290237</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5406625022164486</v>
+        <v>0.5585289144237093</v>
       </c>
       <c r="C85" t="n">
-        <v>25.53116798400879</v>
+        <v>27.78721809387207</v>
       </c>
       <c r="D85" t="n">
-        <v>45.38190841674805</v>
+        <v>44.47201156616211</v>
       </c>
       <c r="E85" t="n">
-        <v>2.876040697097778</v>
+        <v>2.657516479492188</v>
       </c>
       <c r="F85" t="n">
-        <v>13.45760345458984</v>
+        <v>12.58462238311768</v>
       </c>
       <c r="G85" t="n">
-        <v>37.39498519897461</v>
+        <v>36.030517578125</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.4905843734741211</v>
+        <v>1.418588399887085</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.5919466806543016</v>
+        <v>0.7473992575549325</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5916529002306503</v>
+        <v>0.6491040223766695</v>
       </c>
       <c r="C86" t="n">
-        <v>28.19074821472168</v>
+        <v>29.27712821960449</v>
       </c>
       <c r="D86" t="n">
-        <v>47.16154861450195</v>
+        <v>45.90383911132812</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.708240866661072</v>
+        <v>-1.7214515209198</v>
       </c>
       <c r="F86" t="n">
-        <v>16.4785270690918</v>
+        <v>15.83400917053223</v>
       </c>
       <c r="G86" t="n">
-        <v>40.07695007324219</v>
+        <v>37.96983337402344</v>
       </c>
       <c r="H86" t="n">
-        <v>-4.607714653015137</v>
+        <v>-2.753354549407959</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.7559269214774044</v>
+        <v>0.9777485943253964</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6733520998965491</v>
+        <v>0.7841799644080116</v>
       </c>
       <c r="C87" t="n">
-        <v>29.94338226318359</v>
+        <v>31.07730293273926</v>
       </c>
       <c r="D87" t="n">
-        <v>49.42990112304688</v>
+        <v>48.71685409545898</v>
       </c>
       <c r="E87" t="n">
-        <v>-5.480280876159668</v>
+        <v>-5.05248498916626</v>
       </c>
       <c r="F87" t="n">
-        <v>18.90964698791504</v>
+        <v>18.05911254882812</v>
       </c>
       <c r="G87" t="n">
-        <v>42.40676116943359</v>
+        <v>40.59677124023438</v>
       </c>
       <c r="H87" t="n">
-        <v>-7.519529819488525</v>
+        <v>-5.935996055603027</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8910899455527701</v>
+        <v>1.005002493863504</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7769830545224031</v>
+        <v>0.911995095015832</v>
       </c>
       <c r="C88" t="n">
-        <v>32.2496452331543</v>
+        <v>34.11894989013672</v>
       </c>
       <c r="D88" t="n">
-        <v>52.00357437133789</v>
+        <v>50.42057037353516</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.813064098358154</v>
+        <v>-6.796903610229492</v>
       </c>
       <c r="F88" t="n">
-        <v>22.17624282836914</v>
+        <v>20.7596549987793</v>
       </c>
       <c r="G88" t="n">
-        <v>45.5653190612793</v>
+        <v>43.54252624511719</v>
       </c>
       <c r="H88" t="n">
-        <v>-9.212752342224121</v>
+        <v>-7.992477893829346</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9705470077679995</v>
+        <v>0.9971919874338698</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8781632004214928</v>
+        <v>0.9827786782715846</v>
       </c>
       <c r="C89" t="n">
-        <v>34.9591064453125</v>
+        <v>35.74467468261719</v>
       </c>
       <c r="D89" t="n">
-        <v>54.68308258056641</v>
+        <v>52.42115783691406</v>
       </c>
       <c r="E89" t="n">
-        <v>-7.813064098358154</v>
+        <v>-6.796903610229492</v>
       </c>
       <c r="F89" t="n">
-        <v>25.98352241516113</v>
+        <v>23.65626525878906</v>
       </c>
       <c r="G89" t="n">
-        <v>49.16919326782227</v>
+        <v>46.46564865112305</v>
       </c>
       <c r="H89" t="n">
-        <v>-9.212752342224121</v>
+        <v>-7.992477893829346</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9976699064526232</v>
+        <v>1.002548039722543</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9510580102978557</v>
+        <v>1.00018660519267</v>
       </c>
       <c r="C90" t="n">
-        <v>37.92744445800781</v>
+        <v>37.58934783935547</v>
       </c>
       <c r="D90" t="n">
-        <v>57.20213317871094</v>
+        <v>54.35283660888672</v>
       </c>
       <c r="E90" t="n">
-        <v>-9.478973388671875</v>
+        <v>-7.439412593841553</v>
       </c>
       <c r="F90" t="n">
-        <v>30.08997344970703</v>
+        <v>26.61139678955078</v>
       </c>
       <c r="G90" t="n">
-        <v>52.77845001220703</v>
+        <v>49.16297912597656</v>
       </c>
       <c r="H90" t="n">
-        <v>-8.933116912841797</v>
+        <v>-9.669023513793945</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.000277864292356</v>
+        <v>0.996856071216447</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9875113261736326</v>
+        <v>0.9999604247986692</v>
       </c>
       <c r="C91" t="n">
-        <v>41.042724609375</v>
+        <v>39.38424301147461</v>
       </c>
       <c r="D91" t="n">
-        <v>59.28552627563477</v>
+        <v>55.88201141357422</v>
       </c>
       <c r="E91" t="n">
-        <v>-6.882517337799072</v>
+        <v>-5.829814910888672</v>
       </c>
       <c r="F91" t="n">
-        <v>34.38344573974609</v>
+        <v>29.59044456481934</v>
       </c>
       <c r="G91" t="n">
-        <v>56.10315704345703</v>
+        <v>51.59811782836914</v>
       </c>
       <c r="H91" t="n">
-        <v>-6.52106761932373</v>
+        <v>-6.148916721343994</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9999111487083605</v>
+        <v>1.004747090219481</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9986742713516281</v>
+        <v>1.000016329137706</v>
       </c>
       <c r="C92" t="n">
-        <v>44.22303009033203</v>
+        <v>40.9639892578125</v>
       </c>
       <c r="D92" t="n">
-        <v>60.75349426269531</v>
+        <v>55.88201141357422</v>
       </c>
       <c r="E92" t="n">
-        <v>-5.455140590667725</v>
+        <v>-3.964054822921753</v>
       </c>
       <c r="F92" t="n">
-        <v>38.86685943603516</v>
+        <v>32.6093864440918</v>
       </c>
       <c r="G92" t="n">
-        <v>59.17224502563477</v>
+        <v>53.88139343261719</v>
       </c>
       <c r="H92" t="n">
-        <v>-3.470829725265503</v>
+        <v>-3.658281803131104</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.000046135265806</v>
+        <v>0.9918075268497878</v>
       </c>
       <c r="B93" t="n">
-        <v>1.000065329990353</v>
+        <v>0.9999899270168126</v>
       </c>
       <c r="C93" t="n">
-        <v>47.34736633300781</v>
+        <v>42.28642272949219</v>
       </c>
       <c r="D93" t="n">
-        <v>60.75349426269531</v>
+        <v>57.65027618408203</v>
       </c>
       <c r="E93" t="n">
-        <v>-4.205887794494629</v>
+        <v>-2.085391521453857</v>
       </c>
       <c r="F93" t="n">
-        <v>43.50925064086914</v>
+        <v>35.68533325195312</v>
       </c>
       <c r="G93" t="n">
-        <v>62.12970733642578</v>
+        <v>56.16933822631836</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.5693454742431641</v>
+        <v>-1.015813231468201</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.999967343613106</v>
+        <v>1.015518848968685</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9999863480582242</v>
+        <v>1.000008321113586</v>
       </c>
       <c r="C94" t="n">
-        <v>50.17257690429688</v>
+        <v>43.41285705566406</v>
       </c>
       <c r="D94" t="n">
-        <v>62.17513275146484</v>
+        <v>57.01454162597656</v>
       </c>
       <c r="E94" t="n">
-        <v>-4.205887794494629</v>
+        <v>-0.6048060059547424</v>
       </c>
       <c r="F94" t="n">
-        <v>48.07846069335938</v>
+        <v>38.78988647460938</v>
       </c>
       <c r="G94" t="n">
-        <v>64.78111267089844</v>
+        <v>58.51345062255859</v>
       </c>
       <c r="H94" t="n">
-        <v>1.625170111656189</v>
+        <v>1.233111619949341</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.000028185984795</v>
+        <v>0.9683187797939899</v>
       </c>
       <c r="B95" t="n">
-        <v>1.000004894275772</v>
+        <v>0.9999913850887185</v>
       </c>
       <c r="C95" t="n">
-        <v>52.4460334777832</v>
+        <v>44.47933197021484</v>
       </c>
       <c r="D95" t="n">
-        <v>59.52496337890625</v>
+        <v>54.54502105712891</v>
       </c>
       <c r="E95" t="n">
-        <v>-2.857580661773682</v>
+        <v>0.05097050219774246</v>
       </c>
       <c r="F95" t="n">
-        <v>52.13065719604492</v>
+        <v>41.82765197753906</v>
       </c>
       <c r="G95" t="n">
-        <v>66.45018005371094</v>
+        <v>60.76353454589844</v>
       </c>
       <c r="H95" t="n">
-        <v>2.908445835113525</v>
+        <v>2.846298217773438</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9999726896641721</v>
+        <v>1.069720465556778</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9999976699227585</v>
+        <v>1.000010628231395</v>
       </c>
       <c r="C96" t="n">
-        <v>54.00534820556641</v>
+        <v>45.67166900634766</v>
       </c>
       <c r="D96" t="n">
-        <v>56.56014251708984</v>
+        <v>52.61354446411133</v>
       </c>
       <c r="E96" t="n">
-        <v>-4.775141716003418</v>
+        <v>-1.583352565765381</v>
       </c>
       <c r="F96" t="n">
-        <v>55.15655899047852</v>
+        <v>44.63774871826172</v>
       </c>
       <c r="G96" t="n">
-        <v>66.45018005371094</v>
+        <v>62.58272933959961</v>
       </c>
       <c r="H96" t="n">
-        <v>2.908445835113525</v>
+        <v>2.846298217773438</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.000027880637428</v>
+        <v>0.8320284496934639</v>
       </c>
       <c r="B97" t="n">
-        <v>1.00000126427155</v>
+        <v>0.9999850551159123</v>
       </c>
       <c r="C97" t="n">
-        <v>54.00534820556641</v>
+        <v>47.14818572998047</v>
       </c>
       <c r="D97" t="n">
-        <v>52.0734977722168</v>
+        <v>49.85529327392578</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.564317226409912</v>
+        <v>-4.234976768493652</v>
       </c>
       <c r="F97" t="n">
-        <v>56.76085662841797</v>
+        <v>46.99669647216797</v>
       </c>
       <c r="G97" t="n">
-        <v>63.62285614013672</v>
+        <v>62.58272933959961</v>
       </c>
       <c r="H97" t="n">
-        <v>2.298457622528076</v>
+        <v>4.57344388961792</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9999715794739439</v>
+        <v>1.451463563641714</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9999993063394267</v>
+        <v>1.00002291869335</v>
       </c>
       <c r="C98" t="n">
-        <v>55.53996658325195</v>
+        <v>48.88725280761719</v>
       </c>
       <c r="D98" t="n">
-        <v>46.56227493286133</v>
+        <v>46.36905670166016</v>
       </c>
       <c r="E98" t="n">
-        <v>-11.90354919433594</v>
+        <v>-8.570594787597656</v>
       </c>
       <c r="F98" t="n">
-        <v>56.76085662841797</v>
+        <v>48.61952972412109</v>
       </c>
       <c r="G98" t="n">
-        <v>58.69794082641602</v>
+        <v>63.24677658081055</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.1767280101776123</v>
+        <v>1.908941745758057</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.000027269357767</v>
+        <v>2.51765652363139</v>
       </c>
       <c r="B99" t="n">
-        <v>1.000000343047446</v>
+        <v>0.9999634960016771</v>
       </c>
       <c r="C99" t="n">
-        <v>54.56594085693359</v>
+        <v>50.49466705322266</v>
       </c>
       <c r="D99" t="n">
-        <v>41.04800796508789</v>
+        <v>42.48468780517578</v>
       </c>
       <c r="E99" t="n">
-        <v>-16.44252586364746</v>
+        <v>-13.91278076171875</v>
       </c>
       <c r="F99" t="n">
-        <v>55.33539581298828</v>
+        <v>48.61952972412109</v>
       </c>
       <c r="G99" t="n">
-        <v>52.51992797851562</v>
+        <v>60.04601669311523</v>
       </c>
       <c r="H99" t="n">
-        <v>-3.024158954620361</v>
+        <v>-0.9499623775482178</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9999771074896047</v>
+        <v>-5.344866418470053</v>
       </c>
       <c r="B100" t="n">
-        <v>0.999999862353677</v>
+        <v>1.000057479920692</v>
       </c>
       <c r="C100" t="n">
-        <v>51.36181640625</v>
+        <v>50.49466705322266</v>
       </c>
       <c r="D100" t="n">
-        <v>36.65824890136719</v>
+        <v>38.69744873046875</v>
       </c>
       <c r="E100" t="n">
-        <v>-18.89040756225586</v>
+        <v>-18.50883865356445</v>
       </c>
       <c r="F100" t="n">
-        <v>53.18842315673828</v>
+        <v>49.97069931030273</v>
       </c>
       <c r="G100" t="n">
-        <v>46.82952880859375</v>
+        <v>54.684814453125</v>
       </c>
       <c r="H100" t="n">
-        <v>-4.369023323059082</v>
+        <v>-3.557657241821289</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.000015695282958</v>
+        <v>19.16874997040991</v>
       </c>
       <c r="B101" t="n">
-        <v>1.000000041993431</v>
+        <v>0.9999130525604991</v>
       </c>
       <c r="C101" t="n">
-        <v>49.49966430664062</v>
+        <v>52.08465576171875</v>
       </c>
       <c r="D101" t="n">
-        <v>34.00464630126953</v>
+        <v>35.34402465820312</v>
       </c>
       <c r="E101" t="n">
-        <v>-18.89040756225586</v>
+        <v>-20.21873474121094</v>
       </c>
       <c r="F101" t="n">
-        <v>50.91815948486328</v>
+        <v>49.04280853271484</v>
       </c>
       <c r="G101" t="n">
-        <v>42.83376312255859</v>
+        <v>48.45667266845703</v>
       </c>
       <c r="H101" t="n">
-        <v>-3.166982173919678</v>
+        <v>-3.557657241821289</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.9999916244485658</v>
+        <v>-47.22904830594446</v>
       </c>
       <c r="B102" t="n">
-        <v>0.999999990531575</v>
+        <v>1.000126179253315</v>
       </c>
       <c r="C102" t="n">
-        <v>47.63119506835938</v>
+        <v>49.61824798583984</v>
       </c>
       <c r="D102" t="n">
-        <v>34.00464630126953</v>
+        <v>32.73918151855469</v>
       </c>
       <c r="E102" t="n">
-        <v>-13.890793800354</v>
+        <v>-18.01052856445312</v>
       </c>
       <c r="F102" t="n">
-        <v>48.89642333984375</v>
+        <v>48.1226692199707</v>
       </c>
       <c r="G102" t="n">
-        <v>40.80304718017578</v>
+        <v>43.01854705810547</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.08218514919281006</v>
+        <v>-1.028828859329224</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.000003504330857</v>
+        <v>-23.48677035132838</v>
       </c>
       <c r="B103" t="n">
-        <v>1.000000001576478</v>
+        <v>0.9998234317365116</v>
       </c>
       <c r="C103" t="n">
-        <v>41.0531120300293</v>
+        <v>39.10243988037109</v>
       </c>
       <c r="D103" t="n">
-        <v>26.56808090209961</v>
+        <v>28.09904861450195</v>
       </c>
       <c r="E103" t="n">
-        <v>-11.71008014678955</v>
+        <v>-13.57996368408203</v>
       </c>
       <c r="F103" t="n">
-        <v>42.47285461425781</v>
+        <v>34.11590194702148</v>
       </c>
       <c r="G103" t="n">
-        <v>32.38571548461914</v>
+        <v>36.41293334960938</v>
       </c>
       <c r="H103" t="n">
-        <v>-2.913042068481445</v>
+        <v>-2.823716163635254</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.1459648498892784</v>
+        <v>-11.75022708475797</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1025804525613785</v>
+        <v>0.1948243007063866</v>
       </c>
       <c r="C104" t="n">
-        <v>41.0531120300293</v>
+        <v>35.44990539550781</v>
       </c>
       <c r="D104" t="n">
-        <v>25.43857955932617</v>
+        <v>25.78726196289062</v>
       </c>
       <c r="E104" t="n">
-        <v>-10.09162712097168</v>
+        <v>-11.60033321380615</v>
       </c>
       <c r="F104" t="n">
-        <v>42.47285461425781</v>
+        <v>27.76249313354492</v>
       </c>
       <c r="G104" t="n">
-        <v>32.38571548461914</v>
+        <v>36.41293334960938</v>
       </c>
       <c r="H104" t="n">
-        <v>-2.913042068481445</v>
+        <v>-2.823716163635254</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.03019712690263987</v>
+        <v>-5.97500845030054</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.04174434296786785</v>
+        <v>0.1763065880537033</v>
       </c>
       <c r="C105" t="n">
-        <v>39.88262176513672</v>
+        <v>35.44990539550781</v>
       </c>
       <c r="D105" t="n">
-        <v>27.53525161743164</v>
+        <v>25.78726196289062</v>
       </c>
       <c r="E105" t="n">
-        <v>-7.880785942077637</v>
+        <v>-9.870744705200195</v>
       </c>
       <c r="F105" t="n">
-        <v>45.51824951171875</v>
+        <v>26.22679138183594</v>
       </c>
       <c r="G105" t="n">
-        <v>34.64011001586914</v>
+        <v>39.27305603027344</v>
       </c>
       <c r="H105" t="n">
-        <v>0.8050594329833984</v>
+        <v>0.08556437492370605</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-0.04945521138608456</v>
+        <v>-3.137117915526552</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.0869226086139679</v>
+        <v>0.06014970019459725</v>
       </c>
       <c r="C106" t="n">
-        <v>40.47378158569336</v>
+        <v>34.01712417602539</v>
       </c>
       <c r="D106" t="n">
-        <v>29.83727264404297</v>
+        <v>24.67690277099609</v>
       </c>
       <c r="E106" t="n">
-        <v>-5.886363983154297</v>
+        <v>-7.625359535217285</v>
       </c>
       <c r="F106" t="n">
-        <v>45.51824951171875</v>
+        <v>27.71978569030762</v>
       </c>
       <c r="G106" t="n">
-        <v>38.75424957275391</v>
+        <v>42.7676887512207</v>
       </c>
       <c r="H106" t="n">
-        <v>4.417856693267822</v>
+        <v>3.311671733856201</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.02499068710952997</v>
+        <v>-1.746537818499169</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.09021828353405</v>
+        <v>-0.09988242968916894</v>
       </c>
       <c r="C107" t="n">
-        <v>39.72280120849609</v>
+        <v>35.20315170288086</v>
       </c>
       <c r="D107" t="n">
-        <v>29.83727264404297</v>
+        <v>26.26767921447754</v>
       </c>
       <c r="E107" t="n">
-        <v>-4.508527755737305</v>
+        <v>-5.125389575958252</v>
       </c>
       <c r="F107" t="n">
-        <v>46.9866828918457</v>
+        <v>30.75460052490234</v>
       </c>
       <c r="G107" t="n">
-        <v>40.87032318115234</v>
+        <v>45.12648010253906</v>
       </c>
       <c r="H107" t="n">
-        <v>7.402535438537598</v>
+        <v>6.80690860748291</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.01282248549163342</v>
+        <v>-1.746537818499169</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.06476931557059289</v>
+        <v>-0.261859181523323</v>
       </c>
       <c r="C108" t="n">
-        <v>38.56206130981445</v>
+        <v>35.87979507446289</v>
       </c>
       <c r="D108" t="n">
-        <v>31.68671035766602</v>
+        <v>27.58687210083008</v>
       </c>
       <c r="E108" t="n">
-        <v>-4.508527755737305</v>
+        <v>-2.996134281158447</v>
       </c>
       <c r="F108" t="n">
-        <v>44.41604614257812</v>
+        <v>34.26322174072266</v>
       </c>
       <c r="G108" t="n">
-        <v>40.87032318115234</v>
+        <v>45.12648010253906</v>
       </c>
       <c r="H108" t="n">
-        <v>9.018325805664062</v>
+        <v>9.683521270751953</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.04401601307094097</v>
+        <v>-0.4083003681898117</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.02503965429961682</v>
+        <v>-0.4028055232763291</v>
       </c>
       <c r="C109" t="n">
-        <v>37.60452270507812</v>
+        <v>36.50410461425781</v>
       </c>
       <c r="D109" t="n">
-        <v>29.8924388885498</v>
+        <v>28.31177711486816</v>
       </c>
       <c r="E109" t="n">
-        <v>-2.662915706634521</v>
+        <v>-1.760049104690552</v>
       </c>
       <c r="F109" t="n">
-        <v>42.65705871582031</v>
+        <v>37.52174377441406</v>
       </c>
       <c r="G109" t="n">
-        <v>38.79965209960938</v>
+        <v>45.20830535888672</v>
       </c>
       <c r="H109" t="n">
-        <v>9.018325805664062</v>
+        <v>11.36839294433594</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.06606335170567036</v>
+        <v>-0.47086341381073</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0171085549518466</v>
+        <v>-0.5092800372838975</v>
       </c>
       <c r="C110" t="n">
-        <v>36.92774200439453</v>
+        <v>37.25031661987305</v>
       </c>
       <c r="D110" t="n">
-        <v>28.13368225097656</v>
+        <v>28.25885009765625</v>
       </c>
       <c r="E110" t="n">
-        <v>-2.414007186889648</v>
+        <v>-1.760049104690552</v>
       </c>
       <c r="F110" t="n">
-        <v>40.78849411010742</v>
+        <v>40.05014801025391</v>
       </c>
       <c r="G110" t="n">
-        <v>36.51571273803711</v>
+        <v>42.46867370605469</v>
       </c>
       <c r="H110" t="n">
-        <v>9.820221900939941</v>
+        <v>11.36839294433594</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.08080780878663063</v>
+        <v>-0.5321957898139954</v>
       </c>
       <c r="B111" t="n">
-        <v>0.05197819545865059</v>
+        <v>-0.5729249930381776</v>
       </c>
       <c r="C111" t="n">
-        <v>36.47513580322266</v>
+        <v>37.98184967041016</v>
       </c>
       <c r="D111" t="n">
-        <v>26.99961090087891</v>
+        <v>27.37065696716309</v>
       </c>
       <c r="E111" t="n">
-        <v>-2.118082523345947</v>
+        <v>-1.335058212280273</v>
       </c>
       <c r="F111" t="n">
-        <v>39.14884185791016</v>
+        <v>41.58452606201172</v>
       </c>
       <c r="G111" t="n">
-        <v>34.29794311523438</v>
+        <v>38.56014251708984</v>
       </c>
       <c r="H111" t="n">
-        <v>9.018205642700195</v>
+        <v>12.07474613189697</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.08990503251552583</v>
+        <v>-0.5674628126621246</v>
       </c>
       <c r="B112" t="n">
-        <v>0.07684590682387353</v>
+        <v>-0.5920493531227112</v>
       </c>
       <c r="C112" t="n">
-        <v>36.19588088989258</v>
+        <v>38.40249252319336</v>
       </c>
       <c r="D112" t="n">
-        <v>26.57026863098145</v>
+        <v>25.9217643737793</v>
       </c>
       <c r="E112" t="n">
-        <v>-1.509800434112549</v>
+        <v>-2.453075408935547</v>
       </c>
       <c r="F112" t="n">
-        <v>37.85317993164062</v>
+        <v>41.58452606201172</v>
       </c>
       <c r="G112" t="n">
-        <v>32.49935150146484</v>
+        <v>34.19823455810547</v>
       </c>
       <c r="H112" t="n">
-        <v>8.616399765014648</v>
+        <v>10.36934185028076</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.09303876683115959</v>
+        <v>-0.5654568815231323</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09362160295248032</v>
+        <v>-0.5738765609264374</v>
       </c>
       <c r="C113" t="n">
-        <v>36.09968566894531</v>
+        <v>38.37856674194336</v>
       </c>
       <c r="D113" t="n">
-        <v>26.78729438781738</v>
+        <v>24.63258361816406</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.5266366600990295</v>
+        <v>-2.896658420562744</v>
       </c>
       <c r="F113" t="n">
-        <v>37.85317993164062</v>
+        <v>42.60543823242188</v>
       </c>
       <c r="G113" t="n">
-        <v>31.25888442993164</v>
+        <v>30.45908737182617</v>
       </c>
       <c r="H113" t="n">
-        <v>8.606011390686035</v>
+        <v>8.872048377990723</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.09024491429328919</v>
+        <v>-0.5458306753635407</v>
       </c>
       <c r="B114" t="n">
-        <v>0.105370182543993</v>
+        <v>-0.5312751805782319</v>
       </c>
       <c r="C114" t="n">
-        <v>36.18544769287109</v>
+        <v>38.14447784423828</v>
       </c>
       <c r="D114" t="n">
-        <v>27.5438117980957</v>
+        <v>24.37157249450684</v>
       </c>
       <c r="E114" t="n">
-        <v>0.7059959769248962</v>
+        <v>-2.145489692687988</v>
       </c>
       <c r="F114" t="n">
-        <v>35.89102172851562</v>
+        <v>41.40174102783203</v>
       </c>
       <c r="G114" t="n">
-        <v>31.25888442993164</v>
+        <v>28.21370697021484</v>
       </c>
       <c r="H114" t="n">
-        <v>8.916580200195312</v>
+        <v>8.282870292663574</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.08467883288860321</v>
+        <v>-0.5398310148715973</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1145541615784168</v>
+        <v>-0.4766574203968048</v>
       </c>
       <c r="C115" t="n">
-        <v>36.35630798339844</v>
+        <v>38.07291793823242</v>
       </c>
       <c r="D115" t="n">
-        <v>28.60036087036133</v>
+        <v>26.57594680786133</v>
       </c>
       <c r="E115" t="n">
-        <v>1.981245517730713</v>
+        <v>0.671877384185791</v>
       </c>
       <c r="F115" t="n">
-        <v>35.37001800537109</v>
+        <v>39.8585205078125</v>
       </c>
       <c r="G115" t="n">
-        <v>29.91747283935547</v>
+        <v>28.21370697021484</v>
       </c>
       <c r="H115" t="n">
-        <v>9.501087188720703</v>
+        <v>8.821271896362305</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.08155591830611229</v>
+        <v>-0.5568791234493256</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1230353792011738</v>
+        <v>-0.4190743899345398</v>
       </c>
       <c r="C116" t="n">
-        <v>36.45217132568359</v>
+        <v>38.2762565612793</v>
       </c>
       <c r="D116" t="n">
-        <v>29.62307929992676</v>
+        <v>28.12200927734375</v>
       </c>
       <c r="E116" t="n">
-        <v>3.152575016021729</v>
+        <v>2.193201541900635</v>
       </c>
       <c r="F116" t="n">
-        <v>34.88888168334961</v>
+        <v>38.23151779174805</v>
       </c>
       <c r="G116" t="n">
-        <v>30.21649360656738</v>
+        <v>27.08316230773926</v>
       </c>
       <c r="H116" t="n">
-        <v>10.26377391815186</v>
+        <v>11.31285953521729</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.08616237625479699</v>
+        <v>-0.5781690728664398</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1327540189027786</v>
+        <v>-0.3643304890394211</v>
       </c>
       <c r="C117" t="n">
-        <v>36.31076812744141</v>
+        <v>38.53018951416016</v>
       </c>
       <c r="D117" t="n">
-        <v>30.3291187286377</v>
+        <v>29.45975875854492</v>
       </c>
       <c r="E117" t="n">
-        <v>4.130073070526123</v>
+        <v>3.706732749938965</v>
       </c>
       <c r="F117" t="n">
-        <v>34.33754730224609</v>
+        <v>36.68473434448242</v>
       </c>
       <c r="G117" t="n">
-        <v>30.72045707702637</v>
+        <v>28.96685981750488</v>
       </c>
       <c r="H117" t="n">
-        <v>11.10050106048584</v>
+        <v>12.86305046081543</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.1011302687227726</v>
+        <v>-0.5766805934906006</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1453347307443619</v>
+        <v>-0.3150017303228378</v>
       </c>
       <c r="C118" t="n">
-        <v>35.85130310058594</v>
+        <v>38.51243591308594</v>
       </c>
       <c r="D118" t="n">
-        <v>30.61162948608398</v>
+        <v>29.45975875854492</v>
       </c>
       <c r="E118" t="n">
-        <v>4.903060436248779</v>
+        <v>4.943775177001953</v>
       </c>
       <c r="F118" t="n">
-        <v>33.62384796142578</v>
+        <v>35.29095458984375</v>
       </c>
       <c r="G118" t="n">
-        <v>31.27427291870117</v>
+        <v>30.67696952819824</v>
       </c>
       <c r="H118" t="n">
-        <v>11.93689250946045</v>
+        <v>14.52187252044678</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.1260001677274704</v>
+        <v>-0.5376737654209137</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1617268633842468</v>
+        <v>-0.2700006753206253</v>
       </c>
       <c r="C119" t="n">
-        <v>35.0878791809082</v>
+        <v>38.04718780517578</v>
       </c>
       <c r="D119" t="n">
-        <v>30.54502296447754</v>
+        <v>30.75320053100586</v>
       </c>
       <c r="E119" t="n">
-        <v>5.493727207183838</v>
+        <v>4.943775177001953</v>
       </c>
       <c r="F119" t="n">
-        <v>32.69392776489258</v>
+        <v>34.01945495605469</v>
       </c>
       <c r="G119" t="n">
-        <v>31.78364944458008</v>
+        <v>31.77898406982422</v>
       </c>
       <c r="H119" t="n">
-        <v>12.73082065582275</v>
+        <v>15.98738861083984</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.1584968018531799</v>
+        <v>-0.4647639906406403</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1822340169548989</v>
+        <v>-0.2246027335524559</v>
       </c>
       <c r="C120" t="n">
-        <v>34.09033966064453</v>
+        <v>37.17756652832031</v>
       </c>
       <c r="D120" t="n">
-        <v>30.30395889282227</v>
+        <v>29.86834335327148</v>
       </c>
       <c r="E120" t="n">
-        <v>5.965500354766846</v>
+        <v>6.684508800506592</v>
       </c>
       <c r="F120" t="n">
-        <v>31.53056526184082</v>
+        <v>32.73674011230469</v>
       </c>
       <c r="G120" t="n">
-        <v>32.1952018737793</v>
+        <v>32.28895950317383</v>
       </c>
       <c r="H120" t="n">
-        <v>13.4642858505249</v>
+        <v>17.1265754699707</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.1958392390608788</v>
+        <v>-0.3730377995967865</v>
       </c>
       <c r="B121" t="n">
-        <v>0.206555939912796</v>
+        <v>-0.1720615249872208</v>
       </c>
       <c r="C121" t="n">
-        <v>32.94404983520508</v>
+        <v>36.08351516723633</v>
       </c>
       <c r="D121" t="n">
-        <v>30.07227325439453</v>
+        <v>28.7936840057373</v>
       </c>
       <c r="E121" t="n">
-        <v>6.406788349151611</v>
+        <v>6.938469409942627</v>
       </c>
       <c r="F121" t="n">
-        <v>30.15079116821289</v>
+        <v>31.25219345092773</v>
       </c>
       <c r="G121" t="n">
-        <v>32.48941802978516</v>
+        <v>32.44547271728516</v>
       </c>
       <c r="H121" t="n">
-        <v>14.13724422454834</v>
+        <v>17.1265754699707</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.2360996714234352</v>
+        <v>-0.2784440159797669</v>
       </c>
       <c r="B122" t="n">
-        <v>0.2341971042752266</v>
+        <v>-0.1063014851510525</v>
       </c>
       <c r="C122" t="n">
-        <v>31.70818710327148</v>
+        <v>34.95526123046875</v>
       </c>
       <c r="D122" t="n">
-        <v>29.9885196685791</v>
+        <v>28.14931869506836</v>
       </c>
       <c r="E122" t="n">
-        <v>6.898653507232666</v>
+        <v>7.184611797332764</v>
       </c>
       <c r="F122" t="n">
-        <v>28.58271789550781</v>
+        <v>28.24841690063477</v>
       </c>
       <c r="G122" t="n">
-        <v>32.68475341796875</v>
+        <v>32.49488067626953</v>
       </c>
       <c r="H122" t="n">
-        <v>14.75291728973389</v>
+        <v>18.76916885375977</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.2782654666900635</v>
+        <v>-0.1893874242901802</v>
       </c>
       <c r="B123" t="n">
-        <v>0.2646315762400627</v>
+        <v>-0.02520179431885481</v>
       </c>
       <c r="C123" t="n">
-        <v>30.4138355255127</v>
+        <v>33.89305114746094</v>
       </c>
       <c r="D123" t="n">
-        <v>30.12565040588379</v>
+        <v>28.28582382202148</v>
       </c>
       <c r="E123" t="n">
-        <v>7.471780300140381</v>
+        <v>7.597155094146729</v>
       </c>
       <c r="F123" t="n">
-        <v>26.85618209838867</v>
+        <v>26.36053466796875</v>
       </c>
       <c r="G123" t="n">
-        <v>32.81986618041992</v>
+        <v>32.5723762512207</v>
       </c>
       <c r="H123" t="n">
-        <v>15.32060718536377</v>
+        <v>19.10793495178223</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.3215857511758805</v>
+        <v>-0.1062556394934654</v>
       </c>
       <c r="B124" t="n">
-        <v>0.2971268677711487</v>
+        <v>0.06788064435124398</v>
       </c>
       <c r="C124" t="n">
-        <v>29.08404541015625</v>
+        <v>32.90150833129883</v>
       </c>
       <c r="D124" t="n">
-        <v>30.49503898620605</v>
+        <v>29.20175743103027</v>
       </c>
       <c r="E124" t="n">
-        <v>8.118101119995117</v>
+        <v>8.192262649536133</v>
       </c>
       <c r="F124" t="n">
-        <v>25.01273536682129</v>
+        <v>24.0482292175293</v>
       </c>
       <c r="G124" t="n">
-        <v>32.94610595703125</v>
+        <v>32.70219802856445</v>
       </c>
       <c r="H124" t="n">
-        <v>15.86290073394775</v>
+        <v>19.40449523925781</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.3650261425971985</v>
+        <v>-0.02482980478554964</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3305898541212082</v>
+        <v>0.1647390455007553</v>
       </c>
       <c r="C125" t="n">
-        <v>27.75056838989258</v>
+        <v>31.93031311035156</v>
       </c>
       <c r="D125" t="n">
-        <v>31.08200645446777</v>
+        <v>30.63800811767578</v>
       </c>
       <c r="E125" t="n">
-        <v>8.835811614990234</v>
+        <v>8.87925910949707</v>
       </c>
       <c r="F125" t="n">
-        <v>23.11439323425293</v>
+        <v>21.62542724609375</v>
       </c>
       <c r="G125" t="n">
-        <v>33.11910247802734</v>
+        <v>32.86523818969727</v>
       </c>
       <c r="H125" t="n">
-        <v>16.43210792541504</v>
+        <v>19.78613471984863</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.4071795386075974</v>
+        <v>0.05829447135329247</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3635635989904404</v>
+        <v>0.2543977671861649</v>
       </c>
       <c r="C126" t="n">
-        <v>26.45659828186035</v>
+        <v>30.9388599395752</v>
       </c>
       <c r="D126" t="n">
-        <v>31.84918212890625</v>
+        <v>32.28220367431641</v>
       </c>
       <c r="E126" t="n">
-        <v>9.650739669799805</v>
+        <v>9.63188362121582</v>
       </c>
       <c r="F126" t="n">
-        <v>21.24380493164062</v>
+        <v>19.39580535888672</v>
       </c>
       <c r="G126" t="n">
-        <v>33.37844848632812</v>
+        <v>33.05931854248047</v>
       </c>
       <c r="H126" t="n">
-        <v>17.10658073425293</v>
+        <v>20.31018447875977</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.4458897638320923</v>
+        <v>0.1385671693086624</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3942936629056931</v>
+        <v>0.3264717847108841</v>
       </c>
       <c r="C127" t="n">
-        <v>25.2683219909668</v>
+        <v>29.98141860961914</v>
       </c>
       <c r="D127" t="n">
-        <v>32.7487907409668</v>
+        <v>33.91903686523438</v>
       </c>
       <c r="E127" t="n">
-        <v>10.589599609375</v>
+        <v>10.51803779602051</v>
       </c>
       <c r="F127" t="n">
-        <v>19.5004997253418</v>
+        <v>17.58857345581055</v>
       </c>
       <c r="G127" t="n">
-        <v>33.76499176025391</v>
+        <v>33.30482864379883</v>
       </c>
       <c r="H127" t="n">
-        <v>17.92194557189941</v>
+        <v>20.90085220336914</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4773708593845368</v>
+        <v>0.2038095757365227</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4206130033731461</v>
+        <v>0.3754841333627701</v>
       </c>
       <c r="C128" t="n">
-        <v>24.30195617675781</v>
+        <v>29.20324897766113</v>
       </c>
       <c r="D128" t="n">
-        <v>33.80467987060547</v>
+        <v>35.4569091796875</v>
       </c>
       <c r="E128" t="n">
-        <v>11.67041015625</v>
+        <v>11.57317161560059</v>
       </c>
       <c r="F128" t="n">
-        <v>18.00741386413574</v>
+        <v>16.28317832946777</v>
       </c>
       <c r="G128" t="n">
-        <v>34.33575820922852</v>
+        <v>33.5999755859375</v>
       </c>
       <c r="H128" t="n">
-        <v>18.76240730285645</v>
+        <v>21.39008331298828</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.4987737131118775</v>
+        <v>0.2446542578935623</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4411876183748246</v>
+        <v>0.4039238256216049</v>
       </c>
       <c r="C129" t="n">
-        <v>23.64495849609375</v>
+        <v>28.71607971191406</v>
       </c>
       <c r="D129" t="n">
-        <v>35.03548049926758</v>
+        <v>36.86582946777344</v>
       </c>
       <c r="E129" t="n">
-        <v>12.7912769317627</v>
+        <v>12.70468521118164</v>
       </c>
       <c r="F129" t="n">
-        <v>16.84022331237793</v>
+        <v>16.28317832946777</v>
       </c>
       <c r="G129" t="n">
-        <v>35.09131622314453</v>
+        <v>33.88282012939453</v>
       </c>
       <c r="H129" t="n">
-        <v>19.38214492797852</v>
+        <v>21.59636116027832</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.5101413196325303</v>
+        <v>0.2648064294457436</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4563302850723267</v>
+        <v>0.4202677828073502</v>
       </c>
       <c r="C130" t="n">
-        <v>23.29601097106934</v>
+        <v>28.47571754455566</v>
       </c>
       <c r="D130" t="n">
-        <v>36.36019515991211</v>
+        <v>38.12680053710938</v>
       </c>
       <c r="E130" t="n">
-        <v>13.77887725830078</v>
+        <v>13.75075531005859</v>
       </c>
       <c r="F130" t="n">
-        <v>15.98118686676025</v>
+        <v>14.51598644256592</v>
       </c>
       <c r="G130" t="n">
-        <v>35.92580795288086</v>
+        <v>34.03549194335938</v>
       </c>
       <c r="H130" t="n">
-        <v>19.47758483886719</v>
+        <v>21.29647254943848</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.5141243082284928</v>
+        <v>0.2750399541854859</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4677913677692414</v>
+        <v>0.4359075254201889</v>
       </c>
       <c r="C131" t="n">
-        <v>23.17374610900879</v>
+        <v>28.35365867614746</v>
       </c>
       <c r="D131" t="n">
-        <v>37.62317657470703</v>
+        <v>39.16824722290039</v>
       </c>
       <c r="E131" t="n">
-        <v>14.45198059082031</v>
+        <v>14.44199371337891</v>
       </c>
       <c r="F131" t="n">
-        <v>15.33100128173828</v>
+        <v>14.07408714294434</v>
       </c>
       <c r="G131" t="n">
-        <v>36.65305709838867</v>
+        <v>33.96077728271484</v>
       </c>
       <c r="H131" t="n">
-        <v>18.7856273651123</v>
+        <v>20.38013648986816</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.5141107559204102</v>
+        <v>0.2879801654815674</v>
       </c>
       <c r="B132" t="n">
-        <v>0.477811735868454</v>
+        <v>0.4582694339752197</v>
       </c>
       <c r="C132" t="n">
-        <v>23.17416191101074</v>
+        <v>28.19931602478027</v>
       </c>
       <c r="D132" t="n">
-        <v>38.67588043212891</v>
+        <v>39.95553970336914</v>
       </c>
       <c r="E132" t="n">
-        <v>14.59530067443848</v>
+        <v>14.49232292175293</v>
       </c>
       <c r="F132" t="n">
-        <v>14.76255130767822</v>
+        <v>13.44225311279297</v>
       </c>
       <c r="G132" t="n">
-        <v>37.0847282409668</v>
+        <v>33.63581466674805</v>
       </c>
       <c r="H132" t="n">
-        <v>15.81360054016113</v>
+        <v>17.47765731811523</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.5112200391292572</v>
+        <v>0.3087899082899094</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4874969607591629</v>
+        <v>0.4866490095853806</v>
       </c>
       <c r="C133" t="n">
-        <v>23.26289749145508</v>
+        <v>27.95111083984375</v>
       </c>
       <c r="D133" t="n">
-        <v>39.49505615234375</v>
+        <v>40.56315612792969</v>
       </c>
       <c r="E133" t="n">
-        <v>13.9576358795166</v>
+        <v>13.68746185302734</v>
       </c>
       <c r="F133" t="n">
-        <v>14.21311283111572</v>
+        <v>12.64039134979248</v>
       </c>
       <c r="G133" t="n">
-        <v>37.14716720581055</v>
+        <v>33.14391708374023</v>
       </c>
       <c r="H133" t="n">
-        <v>13.25351905822754</v>
+        <v>15.09155654907227</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.5023752784729004</v>
+        <v>0.3247718387842178</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4955254870653153</v>
+        <v>0.5127592211961747</v>
       </c>
       <c r="C134" t="n">
-        <v>23.53440284729004</v>
+        <v>27.76048851013184</v>
       </c>
       <c r="D134" t="n">
-        <v>40.25744247436523</v>
+        <v>41.17427444458008</v>
       </c>
       <c r="E134" t="n">
-        <v>10.67245006561279</v>
+        <v>10.25464916229248</v>
       </c>
       <c r="F134" t="n">
-        <v>13.75765609741211</v>
+        <v>11.90264987945557</v>
       </c>
       <c r="G134" t="n">
-        <v>36.97032165527344</v>
+        <v>32.71339797973633</v>
       </c>
       <c r="H134" t="n">
-        <v>9.506110191345215</v>
+        <v>11.62558174133301</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.4815761184692383</v>
+        <v>0.3112010818719864</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4980563884973526</v>
+        <v>0.5215210884809495</v>
       </c>
       <c r="C135" t="n">
-        <v>24.1728687286377</v>
+        <v>27.9223518371582</v>
       </c>
       <c r="D135" t="n">
-        <v>41.3000602722168</v>
+        <v>42.04123687744141</v>
       </c>
       <c r="E135" t="n">
-        <v>7.652148246765137</v>
+        <v>7.262139320373535</v>
       </c>
       <c r="F135" t="n">
-        <v>13.6140775680542</v>
+        <v>11.65508365631104</v>
       </c>
       <c r="G135" t="n">
-        <v>36.8885498046875</v>
+        <v>32.72240447998047</v>
       </c>
       <c r="H135" t="n">
-        <v>4.798410415649414</v>
+        <v>7.274278163909912</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.4446095287799836</v>
+        <v>0.2479659017920494</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5357614203501952</v>
+        <v>0.5492003834466672</v>
       </c>
       <c r="C136" t="n">
-        <v>25.30762100219727</v>
+        <v>28.67658042907715</v>
       </c>
       <c r="D136" t="n">
-        <v>44.09063720703125</v>
+        <v>43.29605484008789</v>
       </c>
       <c r="E136" t="n">
-        <v>3.526523590087891</v>
+        <v>3.216516017913818</v>
       </c>
       <c r="F136" t="n">
-        <v>14.06048107147217</v>
+        <v>12.28180027008057</v>
       </c>
       <c r="G136" t="n">
-        <v>37.31580352783203</v>
+        <v>33.57785797119141</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.187636137008667</v>
+        <v>2.571205139160156</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.5894668025454101</v>
+        <v>0.8014472888648498</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5904376961915224</v>
+        <v>0.6260727940537429</v>
       </c>
       <c r="C137" t="n">
-        <v>27.95140075683594</v>
+        <v>29.96515083312988</v>
       </c>
       <c r="D137" t="n">
-        <v>46.09951019287109</v>
+        <v>44.90781784057617</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.8918349742889404</v>
+        <v>-0.9537546634674072</v>
       </c>
       <c r="F137" t="n">
-        <v>16.47932243347168</v>
+        <v>15.26238441467285</v>
       </c>
       <c r="G137" t="n">
-        <v>39.72145843505859</v>
+        <v>36.8961067199707</v>
       </c>
       <c r="H137" t="n">
-        <v>-4.477919101715088</v>
+        <v>-1.702169179916382</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.7481013031909645</v>
+        <v>0.9962492123671062</v>
       </c>
       <c r="B138" t="n">
-        <v>0.6696299093683773</v>
+        <v>0.7544212576738119</v>
       </c>
       <c r="C138" t="n">
-        <v>29.67798233032227</v>
+        <v>31.51474189758301</v>
       </c>
       <c r="D138" t="n">
-        <v>48.66969299316406</v>
+        <v>47.82433700561523</v>
       </c>
       <c r="E138" t="n">
-        <v>-4.636231899261475</v>
+        <v>-4.123392105102539</v>
       </c>
       <c r="F138" t="n">
-        <v>18.67424392700195</v>
+        <v>17.42943382263184</v>
       </c>
       <c r="G138" t="n">
-        <v>41.87645721435547</v>
+        <v>39.18652725219727</v>
       </c>
       <c r="H138" t="n">
-        <v>-7.46054744720459</v>
+        <v>-4.984394073486328</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.8830854153329694</v>
+        <v>1.000915370959769</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7692598173100607</v>
+        <v>0.8885821352133445</v>
       </c>
       <c r="C139" t="n">
-        <v>31.93879890441895</v>
+        <v>33.17690658569336</v>
       </c>
       <c r="D139" t="n">
-        <v>51.52072525024414</v>
+        <v>49.44530868530273</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.029071807861328</v>
+        <v>-5.714744567871094</v>
       </c>
       <c r="F139" t="n">
-        <v>21.79982757568359</v>
+        <v>20.04473495483398</v>
       </c>
       <c r="G139" t="n">
-        <v>44.86474609375</v>
+        <v>41.84962463378906</v>
       </c>
       <c r="H139" t="n">
-        <v>-9.077515602111816</v>
+        <v>-7.095464706420898</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9658219088686634</v>
+        <v>0.9995172816789658</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8699730380589097</v>
+        <v>0.9722437236087734</v>
       </c>
       <c r="C140" t="n">
-        <v>34.58190536499023</v>
+        <v>34.9677848815918</v>
       </c>
       <c r="D140" t="n">
-        <v>54.37708282470703</v>
+        <v>51.29404449462891</v>
       </c>
       <c r="E140" t="n">
-        <v>-7.029071807861328</v>
+        <v>-5.714744567871094</v>
       </c>
       <c r="F140" t="n">
-        <v>25.61553382873535</v>
+        <v>22.79244804382324</v>
       </c>
       <c r="G140" t="n">
-        <v>48.36026000976562</v>
+        <v>44.48608016967773</v>
       </c>
       <c r="H140" t="n">
-        <v>-9.077515602111816</v>
+        <v>-7.095464706420898</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.9963642767687176</v>
+        <v>1.000397949167483</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9462130447781654</v>
+        <v>0.9984236938809543</v>
       </c>
       <c r="C141" t="n">
-        <v>37.45045471191406</v>
+        <v>36.84555435180664</v>
       </c>
       <c r="D141" t="n">
-        <v>56.94184494018555</v>
+        <v>53.04511642456055</v>
       </c>
       <c r="E141" t="n">
-        <v>-8.802051544189453</v>
+        <v>-6.106744289398193</v>
       </c>
       <c r="F141" t="n">
-        <v>29.81991577148438</v>
+        <v>25.51083183288574</v>
       </c>
       <c r="G141" t="n">
-        <v>51.90970611572266</v>
+        <v>46.87417602539062</v>
       </c>
       <c r="H141" t="n">
-        <v>-8.509635925292969</v>
+        <v>-8.885211944580078</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.000304668003869</v>
+        <v>0.9995596400167998</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9859671074832794</v>
+        <v>1.000193534798618</v>
       </c>
       <c r="C142" t="n">
-        <v>40.44044494628906</v>
+        <v>38.62936401367188</v>
       </c>
       <c r="D142" t="n">
-        <v>58.97454071044922</v>
+        <v>54.42151641845703</v>
       </c>
       <c r="E142" t="n">
-        <v>-6.145618915557861</v>
+        <v>-4.522134780883789</v>
       </c>
       <c r="F142" t="n">
-        <v>34.18531036376953</v>
+        <v>28.16021728515625</v>
       </c>
       <c r="G142" t="n">
-        <v>55.12939453125</v>
+        <v>48.94995880126953</v>
       </c>
       <c r="H142" t="n">
-        <v>-6.147500991821289</v>
+        <v>-5.714235305786133</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.9999162027304939</v>
+        <v>1.000589241782615</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9984514370029378</v>
+        <v>0.9999428899799849</v>
       </c>
       <c r="C143" t="n">
-        <v>43.50149917602539</v>
+        <v>40.09290313720703</v>
       </c>
       <c r="D143" t="n">
-        <v>60.3909797668457</v>
+        <v>54.42151641845703</v>
       </c>
       <c r="E143" t="n">
-        <v>-4.718197822570801</v>
+        <v>-2.805680274963379</v>
       </c>
       <c r="F143" t="n">
-        <v>38.6343994140625</v>
+        <v>30.77169418334961</v>
       </c>
       <c r="G143" t="n">
-        <v>57.96329116821289</v>
+        <v>50.798583984375</v>
       </c>
       <c r="H143" t="n">
-        <v>-3.198912858963013</v>
+        <v>-3.377523422241211</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.000039180412455</v>
+        <v>0.9991140192439757</v>
       </c>
       <c r="B144" t="n">
-        <v>1.000062570400813</v>
+        <v>1.000026667284108</v>
       </c>
       <c r="C144" t="n">
-        <v>46.54142761230469</v>
+        <v>41.13913345336914</v>
       </c>
       <c r="D144" t="n">
-        <v>60.3909797668457</v>
+        <v>56.03919219970703</v>
       </c>
       <c r="E144" t="n">
-        <v>-3.520535469055176</v>
+        <v>-1.087097644805908</v>
       </c>
       <c r="F144" t="n">
-        <v>43.14664459228516</v>
+        <v>33.40200805664062</v>
       </c>
       <c r="G144" t="n">
-        <v>60.589599609375</v>
+        <v>52.60910797119141</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.3907620906829834</v>
+        <v>-0.8195854425430298</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.9999744107124756</v>
+        <v>1.001429468445944</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9999879501779179</v>
+        <v>0.9999828302747258</v>
       </c>
       <c r="C145" t="n">
-        <v>49.33319091796875</v>
+        <v>41.83346176147461</v>
       </c>
       <c r="D145" t="n">
-        <v>61.90877532958984</v>
+        <v>55.52206802368164</v>
       </c>
       <c r="E145" t="n">
-        <v>-3.520535469055176</v>
+        <v>0.3457655310630798</v>
       </c>
       <c r="F145" t="n">
-        <v>47.5893440246582</v>
+        <v>36.08348846435547</v>
       </c>
       <c r="G145" t="n">
-        <v>62.97034072875977</v>
+        <v>54.55729675292969</v>
       </c>
       <c r="H145" t="n">
-        <v>1.732847690582275</v>
+        <v>1.42531681060791</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.000020713463665</v>
+        <v>0.9975774557487407</v>
       </c>
       <c r="B146" t="n">
-        <v>1.000004073186251</v>
+        <v>1.000014187836355</v>
       </c>
       <c r="C146" t="n">
-        <v>51.60553359985352</v>
+        <v>42.34731292724609</v>
       </c>
       <c r="D146" t="n">
-        <v>59.74644470214844</v>
+        <v>54.30450439453125</v>
       </c>
       <c r="E146" t="n">
-        <v>-2.312345027923584</v>
+        <v>1.118808269500732</v>
       </c>
       <c r="F146" t="n">
-        <v>51.61986541748047</v>
+        <v>38.78875350952148</v>
       </c>
       <c r="G146" t="n">
-        <v>64.57401275634766</v>
+        <v>56.68264770507812</v>
       </c>
       <c r="H146" t="n">
-        <v>2.97069787979126</v>
+        <v>3.083921194076538</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.9999810015519471</v>
+        <v>1.004321080689209</v>
       </c>
       <c r="B147" t="n">
-        <v>0.9999981329624642</v>
+        <v>0.9999856906006988</v>
       </c>
       <c r="C147" t="n">
-        <v>53.18222045898438</v>
+        <v>42.9097900390625</v>
       </c>
       <c r="D147" t="n">
-        <v>56.90312194824219</v>
+        <v>51.19892883300781</v>
       </c>
       <c r="E147" t="n">
-        <v>-2.977787017822266</v>
+        <v>0.8660473227500916</v>
       </c>
       <c r="F147" t="n">
-        <v>54.76615142822266</v>
+        <v>41.41910934448242</v>
       </c>
       <c r="G147" t="n">
-        <v>64.57401275634766</v>
+        <v>58.84023284912109</v>
       </c>
       <c r="H147" t="n">
-        <v>2.97069787979126</v>
+        <v>3.083921194076538</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.000018454251774</v>
+        <v>0.9916841940741427</v>
       </c>
       <c r="B148" t="n">
-        <v>1.000000996264333</v>
+        <v>1.000016873851248</v>
       </c>
       <c r="C148" t="n">
-        <v>53.18222045898438</v>
+        <v>43.79972076416016</v>
       </c>
       <c r="D148" t="n">
-        <v>52.39916229248047</v>
+        <v>48.9793701171875</v>
       </c>
       <c r="E148" t="n">
-        <v>-6.886582374572754</v>
+        <v>-2.630176067352295</v>
       </c>
       <c r="F148" t="n">
-        <v>56.57040405273438</v>
+        <v>43.79787063598633</v>
       </c>
       <c r="G148" t="n">
-        <v>62.26508331298828</v>
+        <v>60.68791198730469</v>
       </c>
       <c r="H148" t="n">
-        <v>2.250340461730957</v>
+        <v>4.990987300872803</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.9999819966474661</v>
+        <v>1.017959456286689</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9999994530707886</v>
+        <v>0.9999777052310851</v>
       </c>
       <c r="C149" t="n">
-        <v>54.82741165161133</v>
+        <v>46.35749816894531</v>
       </c>
       <c r="D149" t="n">
-        <v>46.72791290283203</v>
+        <v>45.94411087036133</v>
       </c>
       <c r="E149" t="n">
-        <v>-10.74410915374756</v>
+        <v>-6.335098266601562</v>
       </c>
       <c r="F149" t="n">
-        <v>56.57040405273438</v>
+        <v>45.64588165283203</v>
       </c>
       <c r="G149" t="n">
-        <v>57.49845123291016</v>
+        <v>60.68791198730469</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.3191839456558228</v>
+        <v>2.760807514190674</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1.000016629643616</v>
+        <v>0.9551282771691162</v>
       </c>
       <c r="B150" t="n">
-        <v>1.000000271887965</v>
+        <v>1.000031418336595</v>
       </c>
       <c r="C150" t="n">
-        <v>53.9835319519043</v>
+        <v>48.01365280151367</v>
       </c>
       <c r="D150" t="n">
-        <v>41.07209014892578</v>
+        <v>42.39552307128906</v>
       </c>
       <c r="E150" t="n">
-        <v>-14.99416923522949</v>
+        <v>-11.46210479736328</v>
       </c>
       <c r="F150" t="n">
-        <v>55.32342529296875</v>
+        <v>46.6462516784668</v>
       </c>
       <c r="G150" t="n">
-        <v>51.36466217041016</v>
+        <v>60.93573760986328</v>
       </c>
       <c r="H150" t="n">
-        <v>-3.241075277328491</v>
+        <v>-0.07579576969146729</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.9999865018866592</v>
+        <v>1.128021911576083</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9999998918215262</v>
+        <v>0.9999554040680479</v>
       </c>
       <c r="C151" t="n">
-        <v>50.99260711669922</v>
+        <v>49.37442398071289</v>
       </c>
       <c r="D151" t="n">
-        <v>36.68648529052734</v>
+        <v>38.88152694702148</v>
       </c>
       <c r="E151" t="n">
-        <v>-17.28732681274414</v>
+        <v>-16.40487670898438</v>
       </c>
       <c r="F151" t="n">
-        <v>53.07440948486328</v>
+        <v>46.6462516784668</v>
       </c>
       <c r="G151" t="n">
-        <v>45.71283340454102</v>
+        <v>56.80542755126953</v>
       </c>
       <c r="H151" t="n">
-        <v>-4.591564178466797</v>
+        <v>-3.110097408294678</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.00000901709466</v>
+        <v>0.6131692082636075</v>
       </c>
       <c r="B152" t="n">
-        <v>1.000000032225955</v>
+        <v>1.000061126943854</v>
       </c>
       <c r="C152" t="n">
-        <v>49.21190643310547</v>
+        <v>49.37442398071289</v>
       </c>
       <c r="D152" t="n">
-        <v>34.10063934326172</v>
+        <v>35.79028701782227</v>
       </c>
       <c r="E152" t="n">
-        <v>-17.28732681274414</v>
+        <v>-18.9603157043457</v>
       </c>
       <c r="F152" t="n">
-        <v>50.75900650024414</v>
+        <v>46.91674423217773</v>
       </c>
       <c r="G152" t="n">
-        <v>41.77738952636719</v>
+        <v>50.69232559204102</v>
       </c>
       <c r="H152" t="n">
-        <v>-3.473963737487793</v>
+        <v>-3.110097408294678</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.9999953025088972</v>
+        <v>0.07710036520368013</v>
       </c>
       <c r="B153" t="n">
-        <v>0.9999999929528458</v>
+        <v>0.999919440975751</v>
       </c>
       <c r="C153" t="n">
-        <v>47.33995819091797</v>
+        <v>50.04013442993164</v>
       </c>
       <c r="D153" t="n">
-        <v>34.10063934326172</v>
+        <v>33.214599609375</v>
       </c>
       <c r="E153" t="n">
-        <v>-12.76570892333984</v>
+        <v>-17.77363204956055</v>
       </c>
       <c r="F153" t="n">
-        <v>48.73665237426758</v>
+        <v>46.12625122070312</v>
       </c>
       <c r="G153" t="n">
-        <v>39.78240203857422</v>
+        <v>44.34332656860352</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.5646911859512329</v>
+        <v>-2.365607023239136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.000001880334683</v>
+        <v>0.07710036520368013</v>
       </c>
       <c r="B154" t="n">
-        <v>1.000000001135746</v>
+        <v>1.000103301519452</v>
       </c>
       <c r="C154" t="n">
-        <v>40.14340972900391</v>
+        <v>38.36616134643555</v>
       </c>
       <c r="D154" t="n">
-        <v>26.29383850097656</v>
+        <v>28.17594146728516</v>
       </c>
       <c r="E154" t="n">
-        <v>-10.92129039764404</v>
+        <v>-13.42130279541016</v>
       </c>
       <c r="F154" t="n">
-        <v>41.45351409912109</v>
+        <v>32.88759613037109</v>
       </c>
       <c r="G154" t="n">
-        <v>31.2315673828125</v>
+        <v>36.69306182861328</v>
       </c>
       <c r="H154" t="n">
-        <v>-3.481416940689087</v>
+        <v>-3.701221466064453</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.1957477688789368</v>
+        <v>0.2697280812263489</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1357007613778115</v>
+        <v>0.2197398716211319</v>
       </c>
       <c r="C155" t="n">
-        <v>40.14340972900391</v>
+        <v>34.80034255981445</v>
       </c>
       <c r="D155" t="n">
-        <v>24.17955017089844</v>
+        <v>25.38275718688965</v>
       </c>
       <c r="E155" t="n">
-        <v>-9.713872909545898</v>
+        <v>-11.610107421875</v>
       </c>
       <c r="F155" t="n">
-        <v>41.45351409912109</v>
+        <v>26.19303512573242</v>
       </c>
       <c r="G155" t="n">
-        <v>29.30796813964844</v>
+        <v>35.62135314941406</v>
       </c>
       <c r="H155" t="n">
-        <v>-3.481416940689087</v>
+        <v>-3.701221466064453</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.01153939248993993</v>
+        <v>0.03350576378405094</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.02412258714437485</v>
+        <v>0.2439271402359009</v>
       </c>
       <c r="C156" t="n">
-        <v>39.30989074707031</v>
+        <v>34.80034255981445</v>
       </c>
       <c r="D156" t="n">
-        <v>26.13697052001953</v>
+        <v>24.30978393554688</v>
       </c>
       <c r="E156" t="n">
-        <v>-7.627148628234863</v>
+        <v>-10.19003391265869</v>
       </c>
       <c r="F156" t="n">
-        <v>44.68767166137695</v>
+        <v>23.98748779296875</v>
       </c>
       <c r="G156" t="n">
-        <v>32.56756591796875</v>
+        <v>38.28812408447266</v>
       </c>
       <c r="H156" t="n">
-        <v>-1.461645722389221</v>
+        <v>-1.639328598976135</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-0.03885915845632553</v>
+        <v>-0.1232221657037735</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.07526245862245561</v>
+        <v>0.163110494017601</v>
       </c>
       <c r="C157" t="n">
-        <v>40.14851760864258</v>
+        <v>33.10387420654297</v>
       </c>
       <c r="D157" t="n">
-        <v>29.04668235778809</v>
+        <v>24.30978393554688</v>
       </c>
       <c r="E157" t="n">
-        <v>-5.587119102478027</v>
+        <v>-8.142646789550781</v>
       </c>
       <c r="F157" t="n">
-        <v>45.749267578125</v>
+        <v>23.98748779296875</v>
       </c>
       <c r="G157" t="n">
-        <v>37.09297561645508</v>
+        <v>41.95027160644531</v>
       </c>
       <c r="H157" t="n">
-        <v>2.202051162719727</v>
+        <v>1.33026647567749</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-0.01758875958621502</v>
+        <v>-0.1940936923027039</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.08711909338831902</v>
+        <v>0.0223511914908886</v>
       </c>
       <c r="C158" t="n">
-        <v>39.49558639526367</v>
+        <v>33.94918441772461</v>
       </c>
       <c r="D158" t="n">
-        <v>30.70233154296875</v>
+        <v>24.52471160888672</v>
       </c>
       <c r="E158" t="n">
-        <v>-4.07091236114502</v>
+        <v>-5.521588802337646</v>
       </c>
       <c r="F158" t="n">
-        <v>45.749267578125</v>
+        <v>27.95952606201172</v>
       </c>
       <c r="G158" t="n">
-        <v>40.0972900390625</v>
+        <v>44.77605438232422</v>
       </c>
       <c r="H158" t="n">
-        <v>5.720220565795898</v>
+        <v>4.971500396728516</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.0251819397136569</v>
+        <v>-0.2180628445744515</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.06975534871220589</v>
+        <v>-0.1334055089950562</v>
       </c>
       <c r="C159" t="n">
-        <v>38.18266677856445</v>
+        <v>34.23507308959961</v>
       </c>
       <c r="D159" t="n">
-        <v>30.70233154296875</v>
+        <v>25.83928489685059</v>
       </c>
       <c r="E159" t="n">
-        <v>-2.954139709472656</v>
+        <v>-2.938163042068481</v>
       </c>
       <c r="F159" t="n">
-        <v>44.80806732177734</v>
+        <v>31.11392974853516</v>
       </c>
       <c r="G159" t="n">
-        <v>40.0972900390625</v>
+        <v>46.016357421875</v>
       </c>
       <c r="H159" t="n">
-        <v>8.087770462036133</v>
+        <v>8.388774871826172</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.06634246528148652</v>
+        <v>-0.2386341425776482</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.03387430205941201</v>
+        <v>-0.2788090121746064</v>
       </c>
       <c r="C160" t="n">
-        <v>36.91917419433594</v>
+        <v>34.48043441772461</v>
       </c>
       <c r="D160" t="n">
-        <v>29.43922996520996</v>
+        <v>26.8640251159668</v>
       </c>
       <c r="E160" t="n">
-        <v>-2.954139709472656</v>
+        <v>-1.085412383079529</v>
       </c>
       <c r="F160" t="n">
-        <v>43.04305648803711</v>
+        <v>34.41030883789062</v>
       </c>
       <c r="G160" t="n">
-        <v>39.25204849243164</v>
+        <v>46.016357421875</v>
       </c>
       <c r="H160" t="n">
-        <v>8.087770462036133</v>
+        <v>10.8121280670166</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.09478042006492615</v>
+        <v>-0.2825569993257523</v>
       </c>
       <c r="B161" t="n">
-        <v>0.01041056755930185</v>
+        <v>-0.4004995459318161</v>
       </c>
       <c r="C161" t="n">
-        <v>36.04622268676758</v>
+        <v>35.00431823730469</v>
       </c>
       <c r="D161" t="n">
-        <v>28.18735504150391</v>
+        <v>27.4345531463623</v>
       </c>
       <c r="E161" t="n">
-        <v>-1.445515155792236</v>
+        <v>-1.085412383079529</v>
       </c>
       <c r="F161" t="n">
-        <v>41.02302169799805</v>
+        <v>37.3182373046875</v>
       </c>
       <c r="G161" t="n">
-        <v>36.62837219238281</v>
+        <v>43.3814811706543</v>
       </c>
       <c r="H161" t="n">
-        <v>10.02628803253174</v>
+        <v>11.82014656066895</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.1081258343160152</v>
+        <v>-0.3511558449268341</v>
       </c>
       <c r="B162" t="n">
-        <v>0.05051410391926766</v>
+        <v>-0.4896692788600922</v>
       </c>
       <c r="C162" t="n">
-        <v>35.63656234741211</v>
+        <v>35.8225212097168</v>
       </c>
       <c r="D162" t="n">
-        <v>28.18735504150391</v>
+        <v>27.3711986541748</v>
       </c>
       <c r="E162" t="n">
-        <v>-1.218656539916992</v>
+        <v>0.3168300986289978</v>
       </c>
       <c r="F162" t="n">
-        <v>39.19834136962891</v>
+        <v>39.50157165527344</v>
       </c>
       <c r="G162" t="n">
-        <v>34.08223724365234</v>
+        <v>40.08802032470703</v>
       </c>
       <c r="H162" t="n">
-        <v>9.195090293884277</v>
+        <v>11.82014656066895</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.1114688396453857</v>
+        <v>-0.4209850442409516</v>
       </c>
       <c r="B163" t="n">
-        <v>0.07923499867320061</v>
+        <v>-0.5412970018386841</v>
       </c>
       <c r="C163" t="n">
-        <v>35.53394317626953</v>
+        <v>36.65539932250977</v>
       </c>
       <c r="D163" t="n">
-        <v>26.50977897644043</v>
+        <v>26.58533477783203</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.7905445694923401</v>
+        <v>-1.088155746459961</v>
       </c>
       <c r="F163" t="n">
-        <v>37.78447341918945</v>
+        <v>40.82569122314453</v>
       </c>
       <c r="G163" t="n">
-        <v>32.08822631835938</v>
+        <v>35.72192001342773</v>
       </c>
       <c r="H163" t="n">
-        <v>8.709485054016113</v>
+        <v>10.0856819152832</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.1101029786467552</v>
+        <v>-0.4643475651741028</v>
       </c>
       <c r="B164" t="n">
-        <v>0.09691633805632592</v>
+        <v>-0.5577509570121766</v>
       </c>
       <c r="C164" t="n">
-        <v>35.57587051391602</v>
+        <v>37.17259979248047</v>
       </c>
       <c r="D164" t="n">
-        <v>26.81148910522461</v>
+        <v>25.36841011047363</v>
       </c>
       <c r="E164" t="n">
-        <v>0.04963583499193192</v>
+        <v>-2.305575847625732</v>
       </c>
       <c r="F164" t="n">
-        <v>36.77489471435547</v>
+        <v>40.82569122314453</v>
       </c>
       <c r="G164" t="n">
-        <v>30.77541160583496</v>
+        <v>31.21613311767578</v>
       </c>
       <c r="H164" t="n">
-        <v>8.675998687744141</v>
+        <v>8.954099655151367</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.1060952547192574</v>
+        <v>-0.4807086759805679</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1075861270725727</v>
+        <v>-0.5484974789619446</v>
       </c>
       <c r="C165" t="n">
-        <v>35.69889450073242</v>
+        <v>37.36774444580078</v>
       </c>
       <c r="D165" t="n">
-        <v>27.57464027404785</v>
+        <v>24.47462844848633</v>
       </c>
       <c r="E165" t="n">
-        <v>1.236524105072021</v>
+        <v>-2.370637893676758</v>
       </c>
       <c r="F165" t="n">
-        <v>36.77489471435547</v>
+        <v>41.88835525512695</v>
       </c>
       <c r="G165" t="n">
-        <v>30.77541160583496</v>
+        <v>27.73846244812012</v>
       </c>
       <c r="H165" t="n">
-        <v>8.99079704284668</v>
+        <v>8.954099655151367</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.1009570345282555</v>
+        <v>-0.498361868262291</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1151449663937092</v>
+        <v>-0.5228276067972184</v>
       </c>
       <c r="C166" t="n">
-        <v>35.85662078857422</v>
+        <v>37.57830047607422</v>
       </c>
       <c r="D166" t="n">
-        <v>28.56107902526855</v>
+        <v>24.70993804931641</v>
       </c>
       <c r="E166" t="n">
-        <v>2.52206563949585</v>
+        <v>-0.01267457008361816</v>
       </c>
       <c r="F166" t="n">
-        <v>35.33650207519531</v>
+        <v>41.16305541992188</v>
       </c>
       <c r="G166" t="n">
-        <v>29.40779876708984</v>
+        <v>26.0534553527832</v>
       </c>
       <c r="H166" t="n">
-        <v>9.557662963867188</v>
+        <v>7.935290813446045</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.0977877688407898</v>
+        <v>-0.5383649015426636</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1222205901145935</v>
+        <v>-0.4846739107370377</v>
       </c>
       <c r="C167" t="n">
-        <v>35.95390701293945</v>
+        <v>38.0554313659668</v>
       </c>
       <c r="D167" t="n">
-        <v>29.50717926025391</v>
+        <v>27.38214874267578</v>
       </c>
       <c r="E167" t="n">
-        <v>3.704155445098877</v>
+        <v>1.683154702186584</v>
       </c>
       <c r="F167" t="n">
-        <v>34.93510437011719</v>
+        <v>40.08502578735352</v>
       </c>
       <c r="G167" t="n">
-        <v>29.70875358581543</v>
+        <v>26.0534553527832</v>
       </c>
       <c r="H167" t="n">
-        <v>10.26976490020752</v>
+        <v>10.50594711303711</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.1011788627505302</v>
+        <v>-0.588628990650177</v>
       </c>
       <c r="B168" t="n">
-        <v>0.130877584964037</v>
+        <v>-0.4352307629585266</v>
       </c>
       <c r="C168" t="n">
-        <v>35.84981155395508</v>
+        <v>38.65494918823242</v>
       </c>
       <c r="D168" t="n">
-        <v>30.16866493225098</v>
+        <v>28.82319450378418</v>
       </c>
       <c r="E168" t="n">
-        <v>4.677746295928955</v>
+        <v>3.527788162231445</v>
       </c>
       <c r="F168" t="n">
-        <v>34.44399642944336</v>
+        <v>38.68801498413086</v>
       </c>
       <c r="G168" t="n">
-        <v>30.17349815368652</v>
+        <v>27.45755004882812</v>
       </c>
       <c r="H168" t="n">
-        <v>11.02775859832764</v>
+        <v>12.39580535888672</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.1143041941523552</v>
+        <v>-0.6149911046028137</v>
       </c>
       <c r="B169" t="n">
-        <v>0.142598522901535</v>
+        <v>-0.3776740789413452</v>
       </c>
       <c r="C169" t="n">
-        <v>35.44690704345703</v>
+        <v>38.96937942504883</v>
       </c>
       <c r="D169" t="n">
-        <v>30.42473411560059</v>
+        <v>28.82319450378418</v>
       </c>
       <c r="E169" t="n">
-        <v>5.442078113555908</v>
+        <v>5.155874252319336</v>
       </c>
       <c r="F169" t="n">
-        <v>33.77907180786133</v>
+        <v>37.0617561340332</v>
       </c>
       <c r="G169" t="n">
-        <v>30.6641674041748</v>
+        <v>29.01037979125977</v>
       </c>
       <c r="H169" t="n">
-        <v>11.77225208282471</v>
+        <v>14.51853466033936</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.1373915460705757</v>
+        <v>-0.5899803042411804</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1581474271416664</v>
+        <v>-0.3174154311418533</v>
       </c>
       <c r="C170" t="n">
-        <v>34.73820114135742</v>
+        <v>38.67106628417969</v>
       </c>
       <c r="D170" t="n">
-        <v>30.32170104980469</v>
+        <v>30.78780364990234</v>
       </c>
       <c r="E170" t="n">
-        <v>6.029855251312256</v>
+        <v>6.363457679748535</v>
       </c>
       <c r="F170" t="n">
-        <v>32.89698791503906</v>
+        <v>35.35915374755859</v>
       </c>
       <c r="G170" t="n">
-        <v>31.10747146606445</v>
+        <v>30.27463150024414</v>
       </c>
       <c r="H170" t="n">
-        <v>12.47363376617432</v>
+        <v>16.41446876525879</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.1684666568040848</v>
+        <v>-0.5114274621009827</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1776955100893974</v>
+        <v>-0.2583674088120461</v>
       </c>
       <c r="C171" t="n">
-        <v>33.78429794311523</v>
+        <v>37.73413848876953</v>
       </c>
       <c r="D171" t="n">
-        <v>30.02186965942383</v>
+        <v>29.99477195739746</v>
       </c>
       <c r="E171" t="n">
-        <v>6.501452922821045</v>
+        <v>6.363457679748535</v>
       </c>
       <c r="F171" t="n">
-        <v>31.78803253173828</v>
+        <v>33.69075775146484</v>
       </c>
       <c r="G171" t="n">
-        <v>31.46954917907715</v>
+        <v>30.27463150024414</v>
       </c>
       <c r="H171" t="n">
-        <v>13.12077236175537</v>
+        <v>17.81562423706055</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.2047196021676064</v>
+        <v>-0.4011253529787064</v>
       </c>
       <c r="B172" t="n">
-        <v>0.2009215757250786</v>
+        <v>-0.1997638484835625</v>
       </c>
       <c r="C172" t="n">
-        <v>32.67145156860352</v>
+        <v>36.41852569580078</v>
       </c>
       <c r="D172" t="n">
-        <v>29.71304321289062</v>
+        <v>28.50973129272461</v>
       </c>
       <c r="E172" t="n">
-        <v>6.936426639556885</v>
+        <v>7.890326023101807</v>
       </c>
       <c r="F172" t="n">
-        <v>30.47042655944824</v>
+        <v>32.03491973876953</v>
       </c>
       <c r="G172" t="n">
-        <v>31.73614501953125</v>
+        <v>31.73056983947754</v>
       </c>
       <c r="H172" t="n">
-        <v>13.71839237213135</v>
+        <v>17.81562423706055</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.244034089744091</v>
+        <v>-0.2898944842815399</v>
       </c>
       <c r="B173" t="n">
-        <v>0.227335861325264</v>
+        <v>-0.1359301871061325</v>
       </c>
       <c r="C173" t="n">
-        <v>31.46462631225586</v>
+        <v>35.09183502197266</v>
       </c>
       <c r="D173" t="n">
-        <v>29.54257392883301</v>
+        <v>27.23931503295898</v>
       </c>
       <c r="E173" t="n">
-        <v>7.407338619232178</v>
+        <v>8.028145790100098</v>
       </c>
       <c r="F173" t="n">
-        <v>28.97195434570312</v>
+        <v>29.15681076049805</v>
       </c>
       <c r="G173" t="n">
-        <v>31.9156436920166</v>
+        <v>31.56765747070312</v>
       </c>
       <c r="H173" t="n">
-        <v>14.27399349212646</v>
+        <v>19.58528137207031</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.2853167104721069</v>
+        <v>-0.1986998501420021</v>
       </c>
       <c r="B174" t="n">
-        <v>0.2564035561680794</v>
+        <v>-0.05987286113202572</v>
       </c>
       <c r="C174" t="n">
-        <v>30.19738578796387</v>
+        <v>34.00412368774414</v>
       </c>
       <c r="D174" t="n">
-        <v>29.58870887756348</v>
+        <v>26.89356422424316</v>
       </c>
       <c r="E174" t="n">
-        <v>7.9420485496521</v>
+        <v>8.260040283203125</v>
       </c>
       <c r="F174" t="n">
-        <v>27.32295417785645</v>
+        <v>27.33000183105469</v>
       </c>
       <c r="G174" t="n">
-        <v>32.03889083862305</v>
+        <v>31.42931175231934</v>
       </c>
       <c r="H174" t="n">
-        <v>14.79676723480225</v>
+        <v>19.71989059448242</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.3278508031368256</v>
+        <v>-0.1297399255633354</v>
       </c>
       <c r="B175" t="n">
-        <v>0.2874333345890046</v>
+        <v>0.03140753518790007</v>
       </c>
       <c r="C175" t="n">
-        <v>28.8917293548584</v>
+        <v>33.18161392211914</v>
       </c>
       <c r="D175" t="n">
-        <v>29.86904525756836</v>
+        <v>27.67877388000488</v>
       </c>
       <c r="E175" t="n">
-        <v>8.537017822265625</v>
+        <v>8.687257766723633</v>
       </c>
       <c r="F175" t="n">
-        <v>25.56264686584473</v>
+        <v>24.98250961303711</v>
       </c>
       <c r="G175" t="n">
-        <v>32.14521408081055</v>
+        <v>31.46451950073242</v>
       </c>
       <c r="H175" t="n">
-        <v>15.30592250823975</v>
+        <v>19.86020088195801</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.3710958391427994</v>
+        <v>-0.07015735313296319</v>
       </c>
       <c r="B176" t="n">
-        <v>0.3196213299036026</v>
+        <v>0.1329183208942413</v>
       </c>
       <c r="C176" t="n">
-        <v>27.56424903869629</v>
+        <v>32.47095108032227</v>
       </c>
       <c r="D176" t="n">
-        <v>30.3468017578125</v>
+        <v>29.30240821838379</v>
       </c>
       <c r="E176" t="n">
-        <v>9.167030334472656</v>
+        <v>9.228736877441406</v>
       </c>
       <c r="F176" t="n">
-        <v>23.73663330078125</v>
+        <v>22.40856552124023</v>
       </c>
       <c r="G176" t="n">
-        <v>32.27841186523438</v>
+        <v>31.63153457641602</v>
       </c>
       <c r="H176" t="n">
-        <v>15.85339069366455</v>
+        <v>20.16841506958008</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.4134665143489838</v>
+        <v>-0.004323907429352403</v>
       </c>
       <c r="B177" t="n">
-        <v>0.3515594130754471</v>
+        <v>0.2320301723480225</v>
       </c>
       <c r="C177" t="n">
-        <v>26.26360893249512</v>
+        <v>31.68573188781738</v>
       </c>
       <c r="D177" t="n">
-        <v>31.00110054016113</v>
+        <v>31.25723266601562</v>
       </c>
       <c r="E177" t="n">
-        <v>9.882518768310547</v>
+        <v>9.820255279541016</v>
       </c>
       <c r="F177" t="n">
-        <v>21.92479705810547</v>
+        <v>19.96108818054199</v>
       </c>
       <c r="G177" t="n">
-        <v>32.48640823364258</v>
+        <v>31.84727668762207</v>
       </c>
       <c r="H177" t="n">
-        <v>16.49749565124512</v>
+        <v>20.67225456237793</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.453017424941063</v>
+        <v>0.07036603972315789</v>
       </c>
       <c r="B178" t="n">
-        <v>0.3816758322715759</v>
+        <v>0.3141755765676499</v>
       </c>
       <c r="C178" t="n">
-        <v>25.04952621459961</v>
+        <v>30.79487800598145</v>
       </c>
       <c r="D178" t="n">
-        <v>31.80260467529297</v>
+        <v>33.13143539428711</v>
       </c>
       <c r="E178" t="n">
-        <v>10.70784950256348</v>
+        <v>10.51485633850098</v>
       </c>
       <c r="F178" t="n">
-        <v>20.21630477905273</v>
+        <v>17.94258880615234</v>
       </c>
       <c r="G178" t="n">
-        <v>32.80910491943359</v>
+        <v>32.08529663085938</v>
       </c>
       <c r="H178" t="n">
-        <v>17.27176666259766</v>
+        <v>21.24359130859375</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.4869571429491044</v>
+        <v>0.1397628366947174</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4082300478219986</v>
+        <v>0.3704320919513703</v>
       </c>
       <c r="C179" t="n">
-        <v>24.00768852233887</v>
+        <v>29.9671573638916</v>
       </c>
       <c r="D179" t="n">
-        <v>32.73290634155273</v>
+        <v>34.74071884155273</v>
       </c>
       <c r="E179" t="n">
-        <v>11.62361335754395</v>
+        <v>11.3709545135498</v>
       </c>
       <c r="F179" t="n">
-        <v>18.70989418029785</v>
+        <v>16.48927688598633</v>
       </c>
       <c r="G179" t="n">
-        <v>33.29817581176758</v>
+        <v>32.35305023193359</v>
       </c>
       <c r="H179" t="n">
-        <v>18.10921669006348</v>
+        <v>21.69679260253906</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.5115515494346619</v>
+        <v>0.1869191667437554</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4293988162279129</v>
+        <v>0.4018646329641342</v>
       </c>
       <c r="C180" t="n">
-        <v>23.25272178649902</v>
+        <v>29.40470695495605</v>
       </c>
       <c r="D180" t="n">
-        <v>33.8375129699707</v>
+        <v>36.07290649414062</v>
       </c>
       <c r="E180" t="n">
-        <v>12.58739471435547</v>
+        <v>12.33422660827637</v>
       </c>
       <c r="F180" t="n">
-        <v>17.50899696350098</v>
+        <v>16.48927688598633</v>
       </c>
       <c r="G180" t="n">
-        <v>34.00027847290039</v>
+        <v>32.62165832519531</v>
       </c>
       <c r="H180" t="n">
-        <v>18.7857723236084</v>
+        <v>21.88065338134766</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.5253444504737854</v>
+        <v>0.2084841743111611</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4447103655338288</v>
+        <v>0.4171710962057114</v>
       </c>
       <c r="C181" t="n">
-        <v>22.82932472229004</v>
+        <v>29.14749336242676</v>
       </c>
       <c r="D181" t="n">
-        <v>35.09453964233398</v>
+        <v>37.18400955200195</v>
       </c>
       <c r="E181" t="n">
-        <v>13.4580078125</v>
+        <v>13.27816581726074</v>
       </c>
       <c r="F181" t="n">
-        <v>16.64037895202637</v>
+        <v>14.60348320007324</v>
       </c>
       <c r="G181" t="n">
-        <v>34.8668327331543</v>
+        <v>32.79548263549805</v>
       </c>
       <c r="H181" t="n">
-        <v>19.00569725036621</v>
+        <v>21.61407470703125</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.53</v>
+        <v>0.2118407556414604</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4553715777397156</v>
+        <v>0.4292392212152482</v>
       </c>
       <c r="C182" t="n">
-        <v>22.68641471862793</v>
+        <v>29.10745811462402</v>
       </c>
       <c r="D182" t="n">
-        <v>36.3682975769043</v>
+        <v>38.07291793823242</v>
       </c>
       <c r="E182" t="n">
-        <v>14.07413291931152</v>
+        <v>13.96044158935547</v>
       </c>
       <c r="F182" t="n">
-        <v>16.03557205200195</v>
+        <v>14.26249885559082</v>
       </c>
       <c r="G182" t="n">
-        <v>35.73631286621094</v>
+        <v>32.77231216430664</v>
       </c>
       <c r="H182" t="n">
-        <v>18.5022144317627</v>
+        <v>20.80681800842285</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.5287076342105865</v>
+        <v>0.2112138903141022</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4635551184415818</v>
+        <v>0.4477799791097641</v>
       </c>
       <c r="C183" t="n">
-        <v>22.7260856628418</v>
+        <v>29.11493492126465</v>
       </c>
       <c r="D183" t="n">
-        <v>37.48447036743164</v>
+        <v>38.74010848999023</v>
       </c>
       <c r="E183" t="n">
-        <v>14.26281547546387</v>
+        <v>14.10561180114746</v>
       </c>
       <c r="F183" t="n">
-        <v>15.57132339477539</v>
+        <v>13.73863220214844</v>
       </c>
       <c r="G183" t="n">
-        <v>36.40079498291016</v>
+        <v>32.50566482543945</v>
       </c>
       <c r="H183" t="n">
-        <v>15.87737083435059</v>
+        <v>18.1784782409668</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.5234613746404648</v>
+        <v>0.2182632070779801</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4710324543714524</v>
+        <v>0.4746711069345474</v>
       </c>
       <c r="C184" t="n">
-        <v>22.88712882995605</v>
+        <v>29.03085517883301</v>
       </c>
       <c r="D184" t="n">
-        <v>38.35727691650391</v>
+        <v>39.26066589355469</v>
       </c>
       <c r="E184" t="n">
-        <v>13.79581260681152</v>
+        <v>13.48658752441406</v>
       </c>
       <c r="F184" t="n">
-        <v>15.14713668823242</v>
+        <v>12.97882556915283</v>
       </c>
       <c r="G184" t="n">
-        <v>36.72229766845703</v>
+        <v>32.04603958129883</v>
       </c>
       <c r="H184" t="n">
-        <v>13.48648262023926</v>
+        <v>15.93802833557129</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.5125124680995942</v>
+        <v>0.2283027505874634</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4776218140125275</v>
+        <v>0.5035970079898835</v>
       </c>
       <c r="C185" t="n">
-        <v>23.22322463989258</v>
+        <v>28.91110992431641</v>
       </c>
       <c r="D185" t="n">
-        <v>39.10722732543945</v>
+        <v>39.81094360351562</v>
       </c>
       <c r="E185" t="n">
-        <v>10.96354103088379</v>
+        <v>10.46913623809814</v>
       </c>
       <c r="F185" t="n">
-        <v>14.77332496643066</v>
+        <v>12.16152667999268</v>
       </c>
       <c r="G185" t="n">
-        <v>36.75273895263672</v>
+        <v>31.58841514587402</v>
       </c>
       <c r="H185" t="n">
-        <v>9.892151832580566</v>
+        <v>12.62012672424316</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.4905414283275604</v>
+        <v>0.2198533919453621</v>
       </c>
       <c r="B186" t="n">
-        <v>0.4805414360761643</v>
+        <v>0.5198369061946869</v>
       </c>
       <c r="C186" t="n">
-        <v>23.89766311645508</v>
+        <v>29.01188850402832</v>
       </c>
       <c r="D186" t="n">
-        <v>40.07221603393555</v>
+        <v>40.66753387451172</v>
       </c>
       <c r="E186" t="n">
-        <v>8.170836448669434</v>
+        <v>7.69764518737793</v>
       </c>
       <c r="F186" t="n">
-        <v>14.60769462585449</v>
+        <v>11.70267009735107</v>
       </c>
       <c r="G186" t="n">
-        <v>36.77580642700195</v>
+        <v>31.49664115905762</v>
       </c>
       <c r="H186" t="n">
-        <v>5.236442089080811</v>
+        <v>8.370590209960938</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.452917504310608</v>
+        <v>0.1687393772602081</v>
       </c>
       <c r="B187" t="n">
-        <v>0.5340245440905325</v>
+        <v>0.5401766109207504</v>
       </c>
       <c r="C187" t="n">
-        <v>25.05259323120117</v>
+        <v>29.62154388427734</v>
       </c>
       <c r="D187" t="n">
-        <v>42.81729888916016</v>
+        <v>42.01130676269531</v>
       </c>
       <c r="E187" t="n">
-        <v>4.241366863250732</v>
+        <v>3.849978685379028</v>
       </c>
       <c r="F187" t="n">
-        <v>14.8975772857666</v>
+        <v>12.04985809326172</v>
       </c>
       <c r="G187" t="n">
-        <v>37.20398712158203</v>
+        <v>32.21349716186523</v>
       </c>
       <c r="H187" t="n">
-        <v>0.15635085105896</v>
+        <v>3.678547859191895</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.587554209701288</v>
+        <v>0.8811109303841609</v>
       </c>
       <c r="B188" t="n">
-        <v>0.597343163198486</v>
+        <v>0.6040061289667705</v>
       </c>
       <c r="C188" t="n">
-        <v>27.71369934082031</v>
+        <v>30.73004150390625</v>
       </c>
       <c r="D188" t="n">
-        <v>44.93051147460938</v>
+        <v>44.82956314086914</v>
       </c>
       <c r="E188" t="n">
-        <v>-0.06196093559265137</v>
+        <v>-0.182378888130188</v>
       </c>
       <c r="F188" t="n">
-        <v>15.88751411437988</v>
+        <v>14.71572113037109</v>
       </c>
       <c r="G188" t="n">
-        <v>39.45724487304688</v>
+        <v>35.38211822509766</v>
       </c>
       <c r="H188" t="n">
-        <v>-4.304804801940918</v>
+        <v>-0.6615288257598877</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.7409473287628153</v>
+        <v>1.007735012110075</v>
       </c>
       <c r="B189" t="n">
-        <v>0.6772376969028328</v>
+        <v>0.7235750501637964</v>
       </c>
       <c r="C189" t="n">
-        <v>29.43701934814453</v>
+        <v>32.04544067382812</v>
       </c>
       <c r="D189" t="n">
-        <v>47.6978759765625</v>
+        <v>46.40813446044922</v>
       </c>
       <c r="E189" t="n">
-        <v>-3.784585952758789</v>
+        <v>-3.241065740585327</v>
       </c>
       <c r="F189" t="n">
-        <v>19.19646072387695</v>
+        <v>16.80680465698242</v>
       </c>
       <c r="G189" t="n">
-        <v>41.48421478271484</v>
+        <v>37.61005020141602</v>
       </c>
       <c r="H189" t="n">
-        <v>-7.396512985229492</v>
+        <v>-4.014237403869629</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.8758762698678031</v>
+        <v>0.9978309860869584</v>
       </c>
       <c r="B190" t="n">
-        <v>0.7719544663123249</v>
+        <v>0.8616920153990097</v>
       </c>
       <c r="C190" t="n">
-        <v>31.68630409240723</v>
+        <v>33.40680313110352</v>
       </c>
       <c r="D190" t="n">
-        <v>50.795166015625</v>
+        <v>48.24632263183594</v>
       </c>
       <c r="E190" t="n">
-        <v>-6.235129356384277</v>
+        <v>-4.724499702453613</v>
       </c>
       <c r="F190" t="n">
-        <v>21.79930877685547</v>
+        <v>19.3405933380127</v>
       </c>
       <c r="G190" t="n">
-        <v>44.32220458984375</v>
+        <v>40.16150665283203</v>
       </c>
       <c r="H190" t="n">
-        <v>-8.98756217956543</v>
+        <v>-6.16001033782959</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9617000816846191</v>
+        <v>1.001113639186117</v>
       </c>
       <c r="B191" t="n">
-        <v>0.8675228407638973</v>
+        <v>0.9582887141965287</v>
       </c>
       <c r="C191" t="n">
-        <v>34.30733108520508</v>
+        <v>34.87981414794922</v>
       </c>
       <c r="D191" t="n">
-        <v>53.88067626953125</v>
+        <v>50.11542892456055</v>
       </c>
       <c r="E191" t="n">
-        <v>-6.235129356384277</v>
+        <v>-4.724499702453613</v>
       </c>
       <c r="F191" t="n">
-        <v>25.31850051879883</v>
+        <v>21.97761917114258</v>
       </c>
       <c r="G191" t="n">
-        <v>47.69863510131836</v>
+        <v>42.62901306152344</v>
       </c>
       <c r="H191" t="n">
-        <v>-8.98756217956543</v>
+        <v>-6.16001033782959</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.9952274528486498</v>
+        <v>0.9991456519650924</v>
       </c>
       <c r="B192" t="n">
-        <v>0.9425842600238042</v>
+        <v>0.9950532591627702</v>
       </c>
       <c r="C192" t="n">
-        <v>37.12205505371094</v>
+        <v>36.48381042480469</v>
       </c>
       <c r="D192" t="n">
-        <v>56.58597183227539</v>
+        <v>51.79360198974609</v>
       </c>
       <c r="E192" t="n">
-        <v>-8.144645690917969</v>
+        <v>-4.941717147827148</v>
       </c>
       <c r="F192" t="n">
-        <v>29.42267417907715</v>
+        <v>24.53561782836914</v>
       </c>
       <c r="G192" t="n">
-        <v>51.1778564453125</v>
+        <v>44.80206298828125</v>
       </c>
       <c r="H192" t="n">
-        <v>-8.150055885314941</v>
+        <v>-8.030622482299805</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1.000287806172367</v>
+        <v>1.000868856516053</v>
       </c>
       <c r="B193" t="n">
-        <v>0.9840704259940924</v>
+        <v>1.000232224363039</v>
       </c>
       <c r="C193" t="n">
-        <v>40.01487731933594</v>
+        <v>38.06301116943359</v>
       </c>
       <c r="D193" t="n">
-        <v>58.63343811035156</v>
+        <v>53.08574676513672</v>
       </c>
       <c r="E193" t="n">
-        <v>-5.436305522918701</v>
+        <v>-3.393569469451904</v>
       </c>
       <c r="F193" t="n">
-        <v>33.7962646484375</v>
+        <v>26.96584320068359</v>
       </c>
       <c r="G193" t="n">
-        <v>54.31550598144531</v>
+        <v>46.61870574951172</v>
       </c>
       <c r="H193" t="n">
-        <v>-5.789026260375977</v>
+        <v>-5.172393798828125</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.9999300878434946</v>
+        <v>0.9989368429368212</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9980403574966714</v>
+        <v>0.9999533932738542</v>
       </c>
       <c r="C194" t="n">
-        <v>42.9569206237793</v>
+        <v>39.36932373046875</v>
       </c>
       <c r="D194" t="n">
-        <v>59.9827995300293</v>
+        <v>53.08574676513672</v>
       </c>
       <c r="E194" t="n">
-        <v>-3.983365297317505</v>
+        <v>-1.826489925384521</v>
       </c>
       <c r="F194" t="n">
-        <v>38.25045013427734</v>
+        <v>29.30136680603027</v>
       </c>
       <c r="G194" t="n">
-        <v>56.96539306640625</v>
+        <v>48.14689254760742</v>
       </c>
       <c r="H194" t="n">
-        <v>-2.89933705329895</v>
+        <v>-2.982728004455566</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1.000029836689075</v>
+        <v>1.001450493488817</v>
       </c>
       <c r="B195" t="n">
-        <v>1.000054487706692</v>
+        <v>1.000016327897662</v>
       </c>
       <c r="C195" t="n">
-        <v>45.89385986328125</v>
+        <v>40.25875091552734</v>
       </c>
       <c r="D195" t="n">
-        <v>59.9827995300293</v>
+        <v>54.62685012817383</v>
       </c>
       <c r="E195" t="n">
-        <v>-2.815144538879395</v>
+        <v>-0.2783938050270081</v>
       </c>
       <c r="F195" t="n">
-        <v>42.69757080078125</v>
+        <v>31.61600112915039</v>
       </c>
       <c r="G195" t="n">
-        <v>59.29495239257812</v>
+        <v>49.57651519775391</v>
       </c>
       <c r="H195" t="n">
-        <v>-0.1718924045562744</v>
+        <v>-0.5158368349075317</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.9999818897013831</v>
+        <v>0.9979066779940015</v>
       </c>
       <c r="B196" t="n">
-        <v>0.9999904385754643</v>
+        <v>0.9999917788342243</v>
       </c>
       <c r="C196" t="n">
-        <v>48.64375305175781</v>
+        <v>40.75721740722656</v>
       </c>
       <c r="D196" t="n">
-        <v>61.42897796630859</v>
+        <v>54.22108840942383</v>
       </c>
       <c r="E196" t="n">
-        <v>-2.815144538879395</v>
+        <v>1.072795391082764</v>
       </c>
       <c r="F196" t="n">
-        <v>47.03911590576172</v>
+        <v>33.97780609130859</v>
       </c>
       <c r="G196" t="n">
-        <v>61.39070892333984</v>
+        <v>51.14618301391602</v>
       </c>
       <c r="H196" t="n">
-        <v>1.874224424362183</v>
+        <v>1.710183382034302</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1.000013845465573</v>
+        <v>1.003106002315538</v>
       </c>
       <c r="B197" t="n">
-        <v>1.000003024892121</v>
+        <v>1.000005461890047</v>
       </c>
       <c r="C197" t="n">
-        <v>50.93212127685547</v>
+        <v>41.0137939453125</v>
       </c>
       <c r="D197" t="n">
-        <v>59.72360992431641</v>
+        <v>53.19509887695312</v>
       </c>
       <c r="E197" t="n">
-        <v>-1.750365734100342</v>
+        <v>1.910219669342041</v>
       </c>
       <c r="F197" t="n">
-        <v>51.02893829345703</v>
+        <v>36.40796661376953</v>
       </c>
       <c r="G197" t="n">
-        <v>62.87599945068359</v>
+        <v>53.02629089355469</v>
       </c>
       <c r="H197" t="n">
-        <v>3.057231903076172</v>
+        <v>3.397421360015869</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.9999878603456503</v>
+        <v>0.9952778945663273</v>
       </c>
       <c r="B198" t="n">
-        <v>0.9999986770180885</v>
+        <v>0.9999954600005058</v>
       </c>
       <c r="C198" t="n">
-        <v>52.5555534362793</v>
+        <v>41.24483871459961</v>
       </c>
       <c r="D198" t="n">
-        <v>57.09766387939453</v>
+        <v>50.46614074707031</v>
       </c>
       <c r="E198" t="n">
-        <v>-2.37905216217041</v>
+        <v>1.885176181793213</v>
       </c>
       <c r="F198" t="n">
-        <v>54.27645111083984</v>
+        <v>38.85938262939453</v>
       </c>
       <c r="G198" t="n">
-        <v>62.87599945068359</v>
+        <v>55.23776245117188</v>
       </c>
       <c r="H198" t="n">
-        <v>3.057231903076172</v>
+        <v>4.414423942565918</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1.000011359204845</v>
+        <v>1.007539116027435</v>
       </c>
       <c r="B199" t="n">
-        <v>1.00000068885916</v>
+        <v>1.000004523350788</v>
       </c>
       <c r="C199" t="n">
-        <v>52.5555534362793</v>
+        <v>41.72680282592773</v>
       </c>
       <c r="D199" t="n">
-        <v>52.66523361206055</v>
+        <v>48.46947479248047</v>
       </c>
       <c r="E199" t="n">
-        <v>-5.819767951965332</v>
+        <v>-0.9094996452331543</v>
       </c>
       <c r="F199" t="n">
-        <v>56.30171203613281</v>
+        <v>41.20471954345703</v>
       </c>
       <c r="G199" t="n">
-        <v>60.97134399414062</v>
+        <v>57.61061477661133</v>
       </c>
       <c r="H199" t="n">
-        <v>2.240573644638062</v>
+        <v>4.414423942565918</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.999989270006498</v>
+        <v>0.9866992665911437</v>
       </c>
       <c r="B200" t="n">
-        <v>0.9999996229224815</v>
+        <v>0.9999948168484577</v>
       </c>
       <c r="C200" t="n">
-        <v>54.32373428344727</v>
+        <v>42.78673934936523</v>
       </c>
       <c r="D200" t="n">
-        <v>46.86692810058594</v>
+        <v>45.68511199951172</v>
       </c>
       <c r="E200" t="n">
-        <v>-9.460834503173828</v>
+        <v>-4.216052055358887</v>
       </c>
       <c r="F200" t="n">
-        <v>56.30171203613281</v>
+        <v>43.20082855224609</v>
       </c>
       <c r="G200" t="n">
-        <v>56.36487579345703</v>
+        <v>59.65901184082031</v>
       </c>
       <c r="H200" t="n">
-        <v>-0.4102108478546143</v>
+        <v>3.560549736022949</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1.000009607084529</v>
+        <v>1.027458772136695</v>
       </c>
       <c r="B201" t="n">
-        <v>1.000000188615736</v>
+        <v>1.000006509209687</v>
       </c>
       <c r="C201" t="n">
-        <v>53.52232360839844</v>
+        <v>45.9447021484375</v>
       </c>
       <c r="D201" t="n">
-        <v>41.05048370361328</v>
+        <v>42.3044319152832</v>
       </c>
       <c r="E201" t="n">
-        <v>-13.50914764404297</v>
+        <v>-9.158168792724609</v>
       </c>
       <c r="F201" t="n">
-        <v>55.33240127563477</v>
+        <v>44.47926712036133</v>
       </c>
       <c r="G201" t="n">
-        <v>50.27287292480469</v>
+        <v>59.65901184082031</v>
       </c>
       <c r="H201" t="n">
-        <v>-3.39154577255249</v>
+        <v>0.8125537633895874</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.9999924574603128</v>
+        <v>0.9323656878280985</v>
       </c>
       <c r="B202" t="n">
-        <v>0.9999999254233981</v>
+        <v>0.9999915817264774</v>
       </c>
       <c r="C202" t="n">
-        <v>50.63222885131836</v>
+        <v>47.52027130126953</v>
       </c>
       <c r="D202" t="n">
-        <v>36.63922119140625</v>
+        <v>38.83589935302734</v>
       </c>
       <c r="E202" t="n">
-        <v>-15.68004894256592</v>
+        <v>-14.38705539703369</v>
       </c>
       <c r="F202" t="n">
-        <v>52.96656799316406</v>
+        <v>44.47926712036133</v>
       </c>
       <c r="G202" t="n">
-        <v>44.65726470947266</v>
+        <v>58.33922958374023</v>
       </c>
       <c r="H202" t="n">
-        <v>-4.738956451416016</v>
+        <v>-2.526953220367432</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.000004905006687</v>
+        <v>1.186824118194396</v>
       </c>
       <c r="B203" t="n">
-        <v>1.000000021658858</v>
+        <v>1.000010566464456</v>
       </c>
       <c r="C203" t="n">
-        <v>48.95398330688477</v>
+        <v>47.52027130126953</v>
       </c>
       <c r="D203" t="n">
-        <v>34.11862182617188</v>
+        <v>35.80943298339844</v>
       </c>
       <c r="E203" t="n">
-        <v>-15.68004894256592</v>
+        <v>-17.63530731201172</v>
       </c>
       <c r="F203" t="n">
-        <v>50.5694580078125</v>
+        <v>45.18708419799805</v>
       </c>
       <c r="G203" t="n">
-        <v>40.80229187011719</v>
+        <v>52.81442260742188</v>
       </c>
       <c r="H203" t="n">
-        <v>-3.710866451263428</v>
+        <v>-4.088586807250977</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.9999974915881688</v>
+        <v>0.481820027346942</v>
       </c>
       <c r="B204" t="n">
-        <v>0.9999999954590574</v>
+        <v>0.999987365371551</v>
       </c>
       <c r="C204" t="n">
-        <v>45.54496765136719</v>
+        <v>44.44504928588867</v>
       </c>
       <c r="D204" t="n">
-        <v>31.23108673095703</v>
+        <v>31.8631649017334</v>
       </c>
       <c r="E204" t="n">
-        <v>-12.23151779174805</v>
+        <v>-15.50527191162109</v>
       </c>
       <c r="F204" t="n">
-        <v>47.3648796081543</v>
+        <v>39.66728973388672</v>
       </c>
       <c r="G204" t="n">
-        <v>37.43587112426758</v>
+        <v>44.83648681640625</v>
       </c>
       <c r="H204" t="n">
-        <v>-1.827651739120483</v>
+        <v>-2.565149307250977</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1.000000980679034</v>
+        <v>1.163007176129421</v>
       </c>
       <c r="B205" t="n">
-        <v>1.000000000692217</v>
+        <v>1.000014591432479</v>
       </c>
       <c r="C205" t="n">
-        <v>45.54496765136719</v>
+        <v>44.44504928588867</v>
       </c>
       <c r="D205" t="n">
-        <v>31.23108673095703</v>
+        <v>31.8631649017334</v>
       </c>
       <c r="E205" t="n">
-        <v>-12.23151779174805</v>
+        <v>-15.50527191162109</v>
       </c>
       <c r="F205" t="n">
-        <v>47.3648796081543</v>
+        <v>39.66728973388672</v>
       </c>
       <c r="G205" t="n">
-        <v>37.43587112426758</v>
+        <v>44.83648681640625</v>
       </c>
       <c r="H205" t="n">
-        <v>-1.827651739120483</v>
+        <v>-2.565149307250977</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/PV_cp_lstm.xlsx
+++ b/Predictions/PV_cp_lstm.xlsx
@@ -477,782 +477,782 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.163007176129421</v>
+        <v>-2.265805322580739</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>38.03639984130859</v>
+        <v>36.60826110839844</v>
       </c>
       <c r="D2" t="n">
-        <v>27.91689682006836</v>
+        <v>27.27024459838867</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.12759971618652</v>
+        <v>-10.22271919250488</v>
       </c>
       <c r="F2" t="n">
-        <v>33.39727020263672</v>
+        <v>32.63117980957031</v>
       </c>
       <c r="G2" t="n">
-        <v>39.12298965454102</v>
+        <v>37.35383605957031</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7849576473236084</v>
+        <v>2.489508867263794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.3954081428050995</v>
+        <v>-0.422459055185318</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1899185073375702</v>
+        <v>-0.2021738690137863</v>
       </c>
       <c r="C3" t="n">
-        <v>38.03639984130859</v>
+        <v>37.65890502929688</v>
       </c>
       <c r="D3" t="n">
-        <v>26.70768165588379</v>
+        <v>26.01186370849609</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.926072120666504</v>
+        <v>-8.174654006958008</v>
       </c>
       <c r="F3" t="n">
-        <v>35.15439605712891</v>
+        <v>34.77795028686523</v>
       </c>
       <c r="G3" t="n">
-        <v>42.00597381591797</v>
+        <v>41.07441711425781</v>
       </c>
       <c r="H3" t="n">
-        <v>4.557208061218262</v>
+        <v>5.417813777923584</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.6339959263801574</v>
+        <v>-0.6907237398624421</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.372356835603714</v>
+        <v>-0.3983776462078095</v>
       </c>
       <c r="C4" t="n">
-        <v>39.1960563659668</v>
+        <v>39.35334777832031</v>
       </c>
       <c r="D4" t="n">
-        <v>28.55314064025879</v>
+        <v>27.82561492919922</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.928796768188477</v>
+        <v>-6.122828483581543</v>
       </c>
       <c r="F4" t="n">
-        <v>38.03455352783203</v>
+        <v>37.81447601318359</v>
       </c>
       <c r="G4" t="n">
-        <v>43.90997314453125</v>
+        <v>43.59294128417969</v>
       </c>
       <c r="H4" t="n">
-        <v>7.901431083679199</v>
+        <v>8.076778411865234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.7751671290397645</v>
+        <v>-0.8626402962207794</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5140381926298142</v>
+        <v>-0.5436720359325409</v>
       </c>
       <c r="C5" t="n">
-        <v>40.87985610961914</v>
+        <v>40.72517395019531</v>
       </c>
       <c r="D5" t="n">
-        <v>29.65237236022949</v>
+        <v>29.54940986633301</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.480299949645996</v>
+        <v>-4.612159252166748</v>
       </c>
       <c r="F5" t="n">
-        <v>40.73583984375</v>
+        <v>40.4652099609375</v>
       </c>
       <c r="G5" t="n">
-        <v>43.90997314453125</v>
+        <v>43.59294128417969</v>
       </c>
       <c r="H5" t="n">
-        <v>10.09454917907715</v>
+        <v>9.891489028930664</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.8433194434642792</v>
+        <v>-0.9573947489261627</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6033117318153381</v>
+        <v>-0.6274873435497285</v>
       </c>
       <c r="C6" t="n">
-        <v>41.69273376464844</v>
+        <v>40.72517395019531</v>
       </c>
       <c r="D6" t="n">
-        <v>29.7441463470459</v>
+        <v>30.40863609313965</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.480299949645996</v>
+        <v>-4.612159252166748</v>
       </c>
       <c r="F6" t="n">
-        <v>42.57315063476562</v>
+        <v>42.13976669311523</v>
       </c>
       <c r="G6" t="n">
-        <v>43.60155868530273</v>
+        <v>43.54428482055664</v>
       </c>
       <c r="H6" t="n">
-        <v>10.09454917907715</v>
+        <v>9.891489028930664</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.8432164585590363</v>
+        <v>-0.9697769463062287</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6377599930763245</v>
+        <v>-0.653331310749054</v>
       </c>
       <c r="C7" t="n">
-        <v>41.69150543212891</v>
+        <v>42.23411178588867</v>
       </c>
       <c r="D7" t="n">
-        <v>28.9168643951416</v>
+        <v>29.98387336730957</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.884835958480835</v>
+        <v>-3.103540897369385</v>
       </c>
       <c r="F7" t="n">
-        <v>42.57315063476562</v>
+        <v>42.13976669311523</v>
       </c>
       <c r="G7" t="n">
-        <v>41.32543563842773</v>
+        <v>40.8128662109375</v>
       </c>
       <c r="H7" t="n">
-        <v>12.03290271759033</v>
+        <v>11.69138622283936</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.7840477764606476</v>
+        <v>-0.9027598667144776</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.6213844454288483</v>
+        <v>-0.6318795549869538</v>
       </c>
       <c r="C8" t="n">
-        <v>40.98577880859375</v>
+        <v>41.49203109741211</v>
       </c>
       <c r="D8" t="n">
-        <v>27.52285957336426</v>
+        <v>28.4366512298584</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.060073852539062</v>
+        <v>-3.622177600860596</v>
       </c>
       <c r="F8" t="n">
-        <v>43.94776916503906</v>
+        <v>43.23463439941406</v>
       </c>
       <c r="G8" t="n">
-        <v>38.45295715332031</v>
+        <v>37.49369049072266</v>
       </c>
       <c r="H8" t="n">
-        <v>11.12639904022217</v>
+        <v>11.10668087005615</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.6903075671195984</v>
+        <v>-0.7857355916500092</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5663455843925477</v>
+        <v>-0.5795237350463868</v>
       </c>
       <c r="C9" t="n">
-        <v>39.86770629882812</v>
+        <v>40.19622039794922</v>
       </c>
       <c r="D9" t="n">
-        <v>26.13289642333984</v>
+        <v>26.50568008422852</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.076809883117676</v>
+        <v>-4.097094535827637</v>
       </c>
       <c r="F9" t="n">
-        <v>41.35506439208984</v>
+        <v>41.81982421875</v>
       </c>
       <c r="G9" t="n">
-        <v>35.60106658935547</v>
+        <v>34.39604949951172</v>
       </c>
       <c r="H9" t="n">
-        <v>10.05833530426025</v>
+        <v>10.26662731170654</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.5984806656837464</v>
+        <v>-0.6677067399024964</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.4929010146856308</v>
+        <v>-0.5147572231292725</v>
       </c>
       <c r="C10" t="n">
-        <v>38.77245330810547</v>
+        <v>38.88928604125977</v>
       </c>
       <c r="D10" t="n">
-        <v>25.35437393188477</v>
+        <v>25.13191223144531</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.607412815093994</v>
+        <v>-4.06432056427002</v>
       </c>
       <c r="F10" t="n">
-        <v>39.83916854858398</v>
+        <v>40.06964111328125</v>
       </c>
       <c r="G10" t="n">
-        <v>33.31026077270508</v>
+        <v>32.12517547607422</v>
       </c>
       <c r="H10" t="n">
-        <v>9.189301490783691</v>
+        <v>9.453907012939453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.541209180355072</v>
+        <v>-0.5924460029602051</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.422321794629097</v>
+        <v>-0.4523628389835358</v>
       </c>
       <c r="C11" t="n">
-        <v>38.08935546875</v>
+        <v>38.05592346191406</v>
       </c>
       <c r="D11" t="n">
-        <v>25.54875755310059</v>
+        <v>24.93863487243652</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.587689399719238</v>
+        <v>-3.330896854400635</v>
       </c>
       <c r="F11" t="n">
-        <v>38.30153656005859</v>
+        <v>38.38356018066406</v>
       </c>
       <c r="G11" t="n">
-        <v>31.85087585449219</v>
+        <v>30.87856674194336</v>
       </c>
       <c r="H11" t="n">
-        <v>8.772308349609375</v>
+        <v>8.93734073638916</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.5290480214357376</v>
+        <v>-0.5754578530788422</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3671326261758804</v>
+        <v>-0.3997358149290085</v>
       </c>
       <c r="C12" t="n">
-        <v>37.94430541992188</v>
+        <v>37.86781311035156</v>
       </c>
       <c r="D12" t="n">
-        <v>26.63905334472656</v>
+        <v>25.92842292785645</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.172585010528564</v>
+        <v>-2.012994766235352</v>
       </c>
       <c r="F12" t="n">
-        <v>36.9934196472168</v>
+        <v>36.96142196655273</v>
       </c>
       <c r="G12" t="n">
-        <v>31.85087585449219</v>
+        <v>30.87856674194336</v>
       </c>
       <c r="H12" t="n">
-        <v>8.935931205749512</v>
+        <v>8.910542488098145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.5466532278060914</v>
+        <v>-0.6003985857963562</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3289585226774216</v>
+        <v>-0.3582296127080917</v>
       </c>
       <c r="C13" t="n">
-        <v>38.15428924560547</v>
+        <v>38.14398193359375</v>
       </c>
       <c r="D13" t="n">
-        <v>28.16400909423828</v>
+        <v>27.57050704956055</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3892549872398376</v>
+        <v>-0.4161978363990784</v>
       </c>
       <c r="F13" t="n">
-        <v>35.95691680908203</v>
+        <v>35.83980178833008</v>
       </c>
       <c r="G13" t="n">
-        <v>30.5876579284668</v>
+        <v>30.16499519348145</v>
       </c>
       <c r="H13" t="n">
-        <v>9.678465843200684</v>
+        <v>9.434359550476074</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.5678913688659668</v>
+        <v>-0.6354243206977844</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3018875187635422</v>
+        <v>-0.3249811571836472</v>
       </c>
       <c r="C14" t="n">
-        <v>38.4076042175293</v>
+        <v>38.53182220458984</v>
       </c>
       <c r="D14" t="n">
-        <v>29.57131576538086</v>
+        <v>29.19942474365234</v>
       </c>
       <c r="E14" t="n">
-        <v>1.878309726715088</v>
+        <v>1.150439739227295</v>
       </c>
       <c r="F14" t="n">
-        <v>35.95691680908203</v>
+        <v>34.94132995605469</v>
       </c>
       <c r="G14" t="n">
-        <v>31.23704528808594</v>
+        <v>31.02016258239746</v>
       </c>
       <c r="H14" t="n">
-        <v>10.82400226593018</v>
+        <v>10.37574481964111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.5703665447235108</v>
+        <v>-0.6514947044849396</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2780100262165069</v>
+        <v>-0.2949899309873581</v>
       </c>
       <c r="C15" t="n">
-        <v>38.43712615966797</v>
+        <v>38.70977020263672</v>
       </c>
       <c r="D15" t="n">
-        <v>30.47718238830566</v>
+        <v>30.33856964111328</v>
       </c>
       <c r="E15" t="n">
-        <v>3.115026950836182</v>
+        <v>2.453539371490479</v>
       </c>
       <c r="F15" t="n">
-        <v>34.24575805664062</v>
+        <v>34.13087844848633</v>
       </c>
       <c r="G15" t="n">
-        <v>32.05321884155273</v>
+        <v>31.94457244873047</v>
       </c>
       <c r="H15" t="n">
-        <v>12.15477466583252</v>
+        <v>11.55452823638916</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.5429019868373871</v>
+        <v>-0.6323747670650482</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.2502109095454216</v>
+        <v>-0.2626390078663826</v>
       </c>
       <c r="C16" t="n">
-        <v>38.10954666137695</v>
+        <v>38.49805450439453</v>
       </c>
       <c r="D16" t="n">
-        <v>30.79863357543945</v>
+        <v>30.84496879577637</v>
       </c>
       <c r="E16" t="n">
-        <v>4.020802021026611</v>
+        <v>3.393747806549072</v>
       </c>
       <c r="F16" t="n">
-        <v>33.46029663085938</v>
+        <v>33.25666046142578</v>
       </c>
       <c r="G16" t="n">
-        <v>32.85823822021484</v>
+        <v>32.81770706176758</v>
       </c>
       <c r="H16" t="n">
-        <v>13.48279285430908</v>
+        <v>12.81215572357178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.4852012819051743</v>
+        <v>-0.5755505394935608</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2134652161598206</v>
+        <v>-0.2230698853731156</v>
       </c>
       <c r="C17" t="n">
-        <v>37.42132949829102</v>
+        <v>37.86883926391602</v>
       </c>
       <c r="D17" t="n">
-        <v>30.69130706787109</v>
+        <v>30.8449592590332</v>
       </c>
       <c r="E17" t="n">
-        <v>4.616333484649658</v>
+        <v>3.989676952362061</v>
       </c>
       <c r="F17" t="n">
-        <v>32.42205047607422</v>
+        <v>32.18738555908203</v>
       </c>
       <c r="G17" t="n">
-        <v>33.56261825561523</v>
+        <v>33.58247375488281</v>
       </c>
       <c r="H17" t="n">
-        <v>14.69702053070068</v>
+        <v>14.03953456878662</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.4049140286445618</v>
+        <v>-0.489178141951561</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1646125414967537</v>
+        <v>-0.1725842681527138</v>
       </c>
       <c r="C18" t="n">
-        <v>36.46371459960938</v>
+        <v>36.91243743896484</v>
       </c>
       <c r="D18" t="n">
-        <v>30.4217357635498</v>
+        <v>30.60814094543457</v>
       </c>
       <c r="E18" t="n">
-        <v>5.016074657440186</v>
+        <v>4.361286640167236</v>
       </c>
       <c r="F18" t="n">
-        <v>31.04172325134277</v>
+        <v>30.8231143951416</v>
       </c>
       <c r="G18" t="n">
-        <v>34.12252426147461</v>
+        <v>34.19651794433594</v>
       </c>
       <c r="H18" t="n">
-        <v>15.75233936309814</v>
+        <v>15.15795230865479</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.3116821098327637</v>
+        <v>-0.3855736845731735</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1032475562393665</v>
+        <v>-0.1099367101490498</v>
       </c>
       <c r="C19" t="n">
-        <v>35.35170364379883</v>
+        <v>35.76522445678711</v>
       </c>
       <c r="D19" t="n">
-        <v>30.2492847442627</v>
+        <v>30.41726493835449</v>
       </c>
       <c r="E19" t="n">
-        <v>5.38251256942749</v>
+        <v>4.682252407073975</v>
       </c>
       <c r="F19" t="n">
-        <v>28.28645706176758</v>
+        <v>29.13019180297852</v>
       </c>
       <c r="G19" t="n">
-        <v>34.53506469726562</v>
+        <v>34.64398193359375</v>
       </c>
       <c r="H19" t="n">
-        <v>16.6362190246582</v>
+        <v>16.11032676696777</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.2127629759907723</v>
+        <v>-0.2749403178691864</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.03094822961837054</v>
+        <v>-0.03609618164598942</v>
       </c>
       <c r="C20" t="n">
-        <v>34.17185974121094</v>
+        <v>34.54018020629883</v>
       </c>
       <c r="D20" t="n">
-        <v>30.35623741149902</v>
+        <v>30.48383140563965</v>
       </c>
       <c r="E20" t="n">
-        <v>5.864238262176514</v>
+        <v>5.115525722503662</v>
       </c>
       <c r="F20" t="n">
-        <v>26.64457321166992</v>
+        <v>26.02565002441406</v>
       </c>
       <c r="G20" t="n">
-        <v>34.82745742797852</v>
+        <v>34.93779373168945</v>
       </c>
       <c r="H20" t="n">
-        <v>17.36266136169434</v>
+        <v>16.86883926391602</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.1112596555054188</v>
+        <v>-0.1625041624903679</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04912139892578125</v>
+        <v>0.04599347330629826</v>
       </c>
       <c r="C21" t="n">
-        <v>32.9611930847168</v>
+        <v>33.29517364501953</v>
       </c>
       <c r="D21" t="n">
-        <v>30.8449821472168</v>
+        <v>30.92743301391602</v>
       </c>
       <c r="E21" t="n">
-        <v>6.540589809417725</v>
+        <v>5.752022266387939</v>
       </c>
       <c r="F21" t="n">
-        <v>24.63920783996582</v>
+        <v>24.3066577911377</v>
       </c>
       <c r="G21" t="n">
-        <v>35.04328918457031</v>
+        <v>35.11938095092773</v>
       </c>
       <c r="H21" t="n">
-        <v>17.94893836975098</v>
+        <v>17.43233680725098</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.008337261863052845</v>
+        <v>-0.05126032195985317</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1329599097371101</v>
+        <v>0.1321731650829315</v>
       </c>
       <c r="C22" t="n">
-        <v>31.73360061645508</v>
+        <v>32.06336975097656</v>
       </c>
       <c r="D22" t="n">
-        <v>31.72045707702637</v>
+        <v>31.76310157775879</v>
       </c>
       <c r="E22" t="n">
-        <v>7.38762903213501</v>
+        <v>6.58294153213501</v>
       </c>
       <c r="F22" t="n">
-        <v>22.47047424316406</v>
+        <v>22.29981994628906</v>
       </c>
       <c r="G22" t="n">
-        <v>35.23023986816406</v>
+        <v>35.25644683837891</v>
       </c>
       <c r="H22" t="n">
-        <v>18.44708251953125</v>
+        <v>17.86770248413086</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.09466077119112015</v>
+        <v>0.05653089039027691</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2154979202151299</v>
+        <v>0.2170892897248268</v>
       </c>
       <c r="C23" t="n">
-        <v>30.50510597229004</v>
+        <v>30.86979675292969</v>
       </c>
       <c r="D23" t="n">
-        <v>32.9061279296875</v>
+        <v>32.91049957275391</v>
       </c>
       <c r="E23" t="n">
-        <v>8.36192512512207</v>
+        <v>7.575903415679932</v>
       </c>
       <c r="F23" t="n">
-        <v>20.32858467102051</v>
+        <v>20.25187301635742</v>
       </c>
       <c r="G23" t="n">
-        <v>35.43929672241211</v>
+        <v>35.42691421508789</v>
       </c>
       <c r="H23" t="n">
-        <v>18.98600769042969</v>
+        <v>18.31691741943359</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1930948650836945</v>
+        <v>0.1565468174219131</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2903537464141846</v>
+        <v>0.2943958407640457</v>
       </c>
       <c r="C24" t="n">
-        <v>29.33104705810547</v>
+        <v>29.76231956481934</v>
       </c>
       <c r="D24" t="n">
-        <v>34.29364776611328</v>
+        <v>34.2430534362793</v>
       </c>
       <c r="E24" t="n">
-        <v>9.4932861328125</v>
+        <v>8.74177360534668</v>
       </c>
       <c r="F24" t="n">
-        <v>18.40141868591309</v>
+        <v>18.3708381652832</v>
       </c>
       <c r="G24" t="n">
-        <v>35.71617126464844</v>
+        <v>35.69547653198242</v>
       </c>
       <c r="H24" t="n">
-        <v>19.66086769104004</v>
+        <v>18.89045906066895</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2782008010149002</v>
+        <v>0.2413895732164383</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3509606474637985</v>
+        <v>0.3578279399871827</v>
       </c>
       <c r="C25" t="n">
-        <v>28.31595802307129</v>
+        <v>28.82285499572754</v>
       </c>
       <c r="D25" t="n">
-        <v>35.80348968505859</v>
+        <v>35.67253875732422</v>
       </c>
       <c r="E25" t="n">
-        <v>10.83341598510742</v>
+        <v>10.10919380187988</v>
       </c>
       <c r="F25" t="n">
-        <v>16.82880973815918</v>
+        <v>16.80587387084961</v>
       </c>
       <c r="G25" t="n">
-        <v>36.08303833007812</v>
+        <v>36.09590530395508</v>
       </c>
       <c r="H25" t="n">
-        <v>20.42493057250977</v>
+        <v>19.57411766052246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3415245449543</v>
+        <v>0.3054678553342819</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3940700340270996</v>
+        <v>0.4040440905094147</v>
       </c>
       <c r="C26" t="n">
-        <v>27.56067276000977</v>
+        <v>28.11331558227539</v>
       </c>
       <c r="D26" t="n">
-        <v>37.39911651611328</v>
+        <v>37.18181991577148</v>
       </c>
       <c r="E26" t="n">
-        <v>12.34297180175781</v>
+        <v>11.64831352233887</v>
       </c>
       <c r="F26" t="n">
-        <v>15.63735675811768</v>
+        <v>15.60197162628174</v>
       </c>
       <c r="G26" t="n">
-        <v>36.5003662109375</v>
+        <v>36.58527755737305</v>
       </c>
       <c r="H26" t="n">
-        <v>21.07724761962891</v>
+        <v>20.18265533447266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.3833161038160324</v>
+        <v>0.3499634945392609</v>
       </c>
       <c r="B27" t="n">
-        <v>0.422748139500618</v>
+        <v>0.4352337956428528</v>
       </c>
       <c r="C27" t="n">
-        <v>27.06221008300781</v>
+        <v>27.62061500549316</v>
       </c>
       <c r="D27" t="n">
-        <v>39.01871490478516</v>
+        <v>38.7418098449707</v>
       </c>
       <c r="E27" t="n">
-        <v>13.83627128601074</v>
+        <v>13.19118881225586</v>
       </c>
       <c r="F27" t="n">
-        <v>15.63735675811768</v>
+        <v>15.60197162628174</v>
       </c>
       <c r="G27" t="n">
-        <v>36.85598373413086</v>
+        <v>37.04113006591797</v>
       </c>
       <c r="H27" t="n">
-        <v>21.34294319152832</v>
+        <v>20.4545783996582</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4152857142686844</v>
+        <v>0.3860475730895996</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4443436318635941</v>
+        <v>0.4575729274749756</v>
       </c>
       <c r="C28" t="n">
-        <v>26.6808967590332</v>
+        <v>27.22105598449707</v>
       </c>
       <c r="D28" t="n">
-        <v>40.54065704345703</v>
+        <v>40.24690246582031</v>
       </c>
       <c r="E28" t="n">
-        <v>15.07040977478027</v>
+        <v>14.49913024902344</v>
       </c>
       <c r="F28" t="n">
-        <v>13.83572578430176</v>
+        <v>13.79440021514893</v>
       </c>
       <c r="G28" t="n">
-        <v>36.99392700195312</v>
+        <v>37.29516220092773</v>
       </c>
       <c r="H28" t="n">
-        <v>20.90638542175293</v>
+        <v>20.0853157043457</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4496348762512207</v>
+        <v>0.4246120399236679</v>
       </c>
       <c r="B29" t="n">
-        <v>0.466867094039917</v>
+        <v>0.4785204362869263</v>
       </c>
       <c r="C29" t="n">
-        <v>26.27120208740234</v>
+        <v>26.79403114318848</v>
       </c>
       <c r="D29" t="n">
-        <v>41.7947883605957</v>
+        <v>41.5245475769043</v>
       </c>
       <c r="E29" t="n">
-        <v>15.71817779541016</v>
+        <v>15.2365837097168</v>
       </c>
       <c r="F29" t="n">
-        <v>13.19932746887207</v>
+        <v>13.22833633422852</v>
       </c>
       <c r="G29" t="n">
-        <v>36.82776641845703</v>
+        <v>37.24628829956055</v>
       </c>
       <c r="H29" t="n">
-        <v>18.58937835693359</v>
+        <v>18.95427131652832</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4895154333114624</v>
+        <v>0.4693423014879227</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4928952968120575</v>
+        <v>0.501168617606163</v>
       </c>
       <c r="C30" t="n">
-        <v>25.7955322265625</v>
+        <v>26.29873275756836</v>
       </c>
       <c r="D30" t="n">
-        <v>42.70627212524414</v>
+        <v>42.46045303344727</v>
       </c>
       <c r="E30" t="n">
-        <v>15.48001861572266</v>
+        <v>15.06781196594238</v>
       </c>
       <c r="F30" t="n">
-        <v>12.46390247344971</v>
+        <v>12.61631488800049</v>
       </c>
       <c r="G30" t="n">
-        <v>36.37580108642578</v>
+        <v>36.88393783569336</v>
       </c>
       <c r="H30" t="n">
-        <v>16.53569030761719</v>
+        <v>15.59688758850098</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.5238745146989823</v>
+        <v>0.511477564573288</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5172558706998825</v>
+        <v>0.5213844597339631</v>
       </c>
       <c r="C31" t="n">
-        <v>25.38571929931641</v>
+        <v>25.83216857910156</v>
       </c>
       <c r="D31" t="n">
-        <v>43.352783203125</v>
+        <v>43.07968139648438</v>
       </c>
       <c r="E31" t="n">
-        <v>12.91415214538574</v>
+        <v>12.46804618835449</v>
       </c>
       <c r="F31" t="n">
-        <v>11.77559757232666</v>
+        <v>12.07002353668213</v>
       </c>
       <c r="G31" t="n">
-        <v>35.791015625</v>
+        <v>36.3405647277832</v>
       </c>
       <c r="H31" t="n">
-        <v>13.50908660888672</v>
+        <v>13.00671005249023</v>
       </c>
     </row>
     <row r="32">
@@ -1263,4520 +1263,4520 @@
         <v>0.53</v>
       </c>
       <c r="C32" t="n">
-        <v>25.31265830993652</v>
+        <v>25.6270694732666</v>
       </c>
       <c r="D32" t="n">
-        <v>43.90871810913086</v>
+        <v>43.53989028930664</v>
       </c>
       <c r="E32" t="n">
-        <v>10.33985328674316</v>
+        <v>9.810553550720215</v>
       </c>
       <c r="F32" t="n">
-        <v>11.41551303863525</v>
+        <v>11.83720588684082</v>
       </c>
       <c r="G32" t="n">
-        <v>35.36955642700195</v>
+        <v>35.91814422607422</v>
       </c>
       <c r="H32" t="n">
-        <v>9.550975799560547</v>
+        <v>9.367259979248047</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4879282969236374</v>
+        <v>0.5034070229530335</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5183361381292343</v>
+        <v>0.5149721014499664</v>
       </c>
       <c r="C33" t="n">
-        <v>25.81446266174316</v>
+        <v>25.92153358459473</v>
       </c>
       <c r="D33" t="n">
-        <v>44.59044647216797</v>
+        <v>44.06046295166016</v>
       </c>
       <c r="E33" t="n">
-        <v>6.53701114654541</v>
+        <v>5.907320022583008</v>
       </c>
       <c r="F33" t="n">
-        <v>11.74507427215576</v>
+        <v>12.24330425262451</v>
       </c>
       <c r="G33" t="n">
-        <v>35.51731109619141</v>
+        <v>36.05953598022461</v>
       </c>
       <c r="H33" t="n">
-        <v>4.940501689910889</v>
+        <v>4.977194786071777</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3913516116142273</v>
+        <v>0.4193581986427307</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5675282141513445</v>
+        <v>0.5697509320823906</v>
       </c>
       <c r="C34" t="n">
-        <v>26.96636772155762</v>
+        <v>26.85220718383789</v>
       </c>
       <c r="D34" t="n">
-        <v>45.53376007080078</v>
+        <v>44.81106567382812</v>
       </c>
       <c r="E34" t="n">
-        <v>1.926205635070801</v>
+        <v>1.215548753738403</v>
       </c>
       <c r="F34" t="n">
-        <v>13.98065376281738</v>
+        <v>14.4575138092041</v>
       </c>
       <c r="G34" t="n">
-        <v>37.58852005004883</v>
+        <v>38.22765350341797</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2679338455200195</v>
+        <v>0.4509902000427246</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.7139278915043026</v>
+        <v>0.69215993797746</v>
       </c>
       <c r="B35" t="n">
-        <v>0.67151949505035</v>
+        <v>0.6785909208886534</v>
       </c>
       <c r="C35" t="n">
-        <v>29.69196319580078</v>
+        <v>28.38434600830078</v>
       </c>
       <c r="D35" t="n">
-        <v>46.82030487060547</v>
+        <v>45.92138671875</v>
       </c>
       <c r="E35" t="n">
-        <v>-2.607490539550781</v>
+        <v>-3.352808952331543</v>
       </c>
       <c r="F35" t="n">
-        <v>15.87817478179932</v>
+        <v>16.27376937866211</v>
       </c>
       <c r="G35" t="n">
-        <v>39.59582138061523</v>
+        <v>40.33536529541016</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.779535531997681</v>
+        <v>-3.472568988800049</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9586738419473015</v>
+        <v>0.9397546583697587</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8110308331524726</v>
+        <v>0.8189126854783796</v>
       </c>
       <c r="C36" t="n">
-        <v>31.36202430725098</v>
+        <v>31.47142028808594</v>
       </c>
       <c r="D36" t="n">
-        <v>49.61867904663086</v>
+        <v>48.589599609375</v>
       </c>
       <c r="E36" t="n">
-        <v>-6.095440864562988</v>
+        <v>-6.843827724456787</v>
       </c>
       <c r="F36" t="n">
-        <v>18.41299819946289</v>
+        <v>18.68611526489258</v>
       </c>
       <c r="G36" t="n">
-        <v>42.35541534423828</v>
+        <v>43.22617340087891</v>
       </c>
       <c r="H36" t="n">
-        <v>-6.844997882843018</v>
+        <v>-6.394634246826172</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.009138798919753</v>
+        <v>1.011290418816163</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9313180270700001</v>
+        <v>0.9360105945343407</v>
       </c>
       <c r="C37" t="n">
-        <v>33.45145416259766</v>
+        <v>33.28260803222656</v>
       </c>
       <c r="D37" t="n">
-        <v>51.44893646240234</v>
+        <v>50.42059707641602</v>
       </c>
       <c r="E37" t="n">
-        <v>-8.020675659179688</v>
+        <v>-8.771267890930176</v>
       </c>
       <c r="F37" t="n">
-        <v>21.36004447937012</v>
+        <v>21.48652076721191</v>
       </c>
       <c r="G37" t="n">
-        <v>45.52035522460938</v>
+        <v>46.52231979370117</v>
       </c>
       <c r="H37" t="n">
-        <v>-8.836467742919922</v>
+        <v>-8.18766975402832</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.994352165371501</v>
+        <v>0.9930779756136348</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9904441146569856</v>
+        <v>0.9916341621344453</v>
       </c>
       <c r="C38" t="n">
-        <v>35.79496765136719</v>
+        <v>35.53347015380859</v>
       </c>
       <c r="D38" t="n">
-        <v>53.66407775878906</v>
+        <v>52.68246459960938</v>
       </c>
       <c r="E38" t="n">
-        <v>-8.020675659179688</v>
+        <v>-8.771267890930176</v>
       </c>
       <c r="F38" t="n">
-        <v>24.55501174926758</v>
+        <v>24.54178237915039</v>
       </c>
       <c r="G38" t="n">
-        <v>48.73796081542969</v>
+        <v>49.80998229980469</v>
       </c>
       <c r="H38" t="n">
-        <v>-8.836467742919922</v>
+        <v>-8.18766975402832</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.005811173107326</v>
+        <v>1.007417263300755</v>
       </c>
       <c r="B39" t="n">
-        <v>1.000867438492214</v>
+        <v>1.000839766595214</v>
       </c>
       <c r="C39" t="n">
-        <v>38.23055267333984</v>
+        <v>38.04576873779297</v>
       </c>
       <c r="D39" t="n">
-        <v>55.85026550292969</v>
+        <v>54.99908828735352</v>
       </c>
       <c r="E39" t="n">
-        <v>-8.997417449951172</v>
+        <v>-9.731437683105469</v>
       </c>
       <c r="F39" t="n">
-        <v>27.92068481445312</v>
+        <v>27.79990577697754</v>
       </c>
       <c r="G39" t="n">
-        <v>51.80441284179688</v>
+        <v>52.82770538330078</v>
       </c>
       <c r="H39" t="n">
-        <v>-9.275791168212891</v>
+        <v>-7.972246646881104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9916971593934057</v>
+        <v>0.9885464364477499</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9997164119689913</v>
+        <v>0.999712772219399</v>
       </c>
       <c r="C40" t="n">
-        <v>40.59956741333008</v>
+        <v>40.63346481323242</v>
       </c>
       <c r="D40" t="n">
-        <v>57.59611892700195</v>
+        <v>56.98291397094727</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.398616790771484</v>
+        <v>-7.007014751434326</v>
       </c>
       <c r="F40" t="n">
-        <v>31.43827056884766</v>
+        <v>31.25284576416016</v>
       </c>
       <c r="G40" t="n">
-        <v>54.71920013427734</v>
+        <v>55.57541275024414</v>
       </c>
       <c r="H40" t="n">
-        <v>-6.987332344055176</v>
+        <v>-5.601594924926758</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.01488695665474</v>
+        <v>1.022883724042426</v>
       </c>
       <c r="B41" t="n">
-        <v>1.000162202662946</v>
+        <v>1.000171396211015</v>
       </c>
       <c r="C41" t="n">
-        <v>42.79066467285156</v>
+        <v>43.12964630126953</v>
       </c>
       <c r="D41" t="n">
-        <v>58.60032272338867</v>
+        <v>58.35125732421875</v>
       </c>
       <c r="E41" t="n">
-        <v>-4.405439376831055</v>
+        <v>-5.35905933380127</v>
       </c>
       <c r="F41" t="n">
-        <v>35.09687042236328</v>
+        <v>34.88146209716797</v>
       </c>
       <c r="G41" t="n">
-        <v>57.59967041015625</v>
+        <v>58.24571228027344</v>
       </c>
       <c r="H41" t="n">
-        <v>-4.038917541503906</v>
+        <v>-2.757727861404419</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.968566770461825</v>
+        <v>0.9449028087019788</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9998660700896005</v>
+        <v>0.9998521967772158</v>
       </c>
       <c r="C42" t="n">
-        <v>44.76421356201172</v>
+        <v>45.44768524169922</v>
       </c>
       <c r="D42" t="n">
-        <v>58.60032272338867</v>
+        <v>58.35125732421875</v>
       </c>
       <c r="E42" t="n">
-        <v>-3.175564050674438</v>
+        <v>-3.630953788757324</v>
       </c>
       <c r="F42" t="n">
-        <v>38.84196472167969</v>
+        <v>38.60908126831055</v>
       </c>
       <c r="G42" t="n">
-        <v>60.49697875976562</v>
+        <v>60.98226928710938</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.16904604434967</v>
+        <v>-0.1428477764129639</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.075101614017511</v>
+        <v>1.152747625639968</v>
       </c>
       <c r="B43" t="n">
-        <v>1.000144853052516</v>
+        <v>1.000166948208535</v>
       </c>
       <c r="C43" t="n">
-        <v>46.53940200805664</v>
+        <v>47.52757263183594</v>
       </c>
       <c r="D43" t="n">
-        <v>58.8719596862793</v>
+        <v>59.62979888916016</v>
       </c>
       <c r="E43" t="n">
-        <v>-3.175564050674438</v>
+        <v>-2.271372318267822</v>
       </c>
       <c r="F43" t="n">
-        <v>42.543701171875</v>
+        <v>42.27911376953125</v>
       </c>
       <c r="G43" t="n">
-        <v>63.23263168334961</v>
+        <v>63.64759063720703</v>
       </c>
       <c r="H43" t="n">
-        <v>1.135898590087891</v>
+        <v>1.832094669342041</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.801830710452039</v>
+        <v>1.554028096255445</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9998079456954269</v>
+        <v>0.9997693180146239</v>
       </c>
       <c r="C44" t="n">
-        <v>48.18431854248047</v>
+        <v>49.34334945678711</v>
       </c>
       <c r="D44" t="n">
-        <v>56.07398986816406</v>
+        <v>58.87858963012695</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.488967895507812</v>
+        <v>-2.271372318267822</v>
       </c>
       <c r="F44" t="n">
-        <v>46.00136566162109</v>
+        <v>45.66146087646484</v>
       </c>
       <c r="G44" t="n">
-        <v>65.38324737548828</v>
+        <v>65.79772186279297</v>
       </c>
       <c r="H44" t="n">
-        <v>2.70281720161438</v>
+        <v>3.081522941589355</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.3938030436190896</v>
+        <v>-1.540772793089328</v>
       </c>
       <c r="B45" t="n">
-        <v>1.000295850410643</v>
+        <v>1.000368591155942</v>
       </c>
       <c r="C45" t="n">
-        <v>49.78836059570312</v>
+        <v>50.88942718505859</v>
       </c>
       <c r="D45" t="n">
-        <v>53.84159469604492</v>
+        <v>56.46244812011719</v>
       </c>
       <c r="E45" t="n">
-        <v>-3.769080400466919</v>
+        <v>-2.212027788162231</v>
       </c>
       <c r="F45" t="n">
-        <v>48.96848297119141</v>
+        <v>48.49114990234375</v>
       </c>
       <c r="G45" t="n">
-        <v>66.40378570556641</v>
+        <v>65.79772186279297</v>
       </c>
       <c r="H45" t="n">
-        <v>2.70281720161438</v>
+        <v>3.081522941589355</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.698163783347716</v>
+        <v>10.20042948719719</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9994953292499118</v>
+        <v>0.9993524521018927</v>
       </c>
       <c r="C46" t="n">
-        <v>51.35332870483398</v>
+        <v>52.0965461730957</v>
       </c>
       <c r="D46" t="n">
-        <v>50.62466049194336</v>
+        <v>54.14835357666016</v>
       </c>
       <c r="E46" t="n">
-        <v>-6.867926120758057</v>
+        <v>-5.094081878662109</v>
       </c>
       <c r="F46" t="n">
-        <v>51.18424987792969</v>
+        <v>50.51103210449219</v>
       </c>
       <c r="G46" t="n">
-        <v>66.40378570556641</v>
+        <v>66.34538269042969</v>
       </c>
       <c r="H46" t="n">
-        <v>4.154966831207275</v>
+        <v>4.122815608978271</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-8.279734997391083</v>
+        <v>-33.54296581601031</v>
       </c>
       <c r="B47" t="n">
-        <v>1.000910234986073</v>
+        <v>1.001192335817121</v>
       </c>
       <c r="C47" t="n">
-        <v>52.6873779296875</v>
+        <v>52.0965461730957</v>
       </c>
       <c r="D47" t="n">
-        <v>46.59839630126953</v>
+        <v>50.25579833984375</v>
       </c>
       <c r="E47" t="n">
-        <v>-11.56949520111084</v>
+        <v>-9.953422546386719</v>
       </c>
       <c r="F47" t="n">
-        <v>52.40169906616211</v>
+        <v>50.51103210449219</v>
       </c>
       <c r="G47" t="n">
-        <v>62.66533660888672</v>
+        <v>62.61628723144531</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9511096477508545</v>
+        <v>1.47193717956543</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>34.04075904108775</v>
+        <v>123.0074925474468</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9983449613732914</v>
+        <v>0.9978112977101785</v>
       </c>
       <c r="C48" t="n">
-        <v>52.6873779296875</v>
+        <v>53.43477630615234</v>
       </c>
       <c r="D48" t="n">
-        <v>42.15927886962891</v>
+        <v>44.88137054443359</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.87199020385742</v>
+        <v>-15.56287384033203</v>
       </c>
       <c r="F48" t="n">
-        <v>52.40169906616211</v>
+        <v>52.44976043701172</v>
       </c>
       <c r="G48" t="n">
-        <v>57.93376922607422</v>
+        <v>56.60286712646484</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.81635582447052</v>
+        <v>-0.8144980669021606</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-107.860404648034</v>
+        <v>-384.1751252525251</v>
       </c>
       <c r="B49" t="n">
-        <v>1.002905827608724</v>
+        <v>1.003823700013231</v>
       </c>
       <c r="C49" t="n">
-        <v>54.04475402832031</v>
+        <v>51.33689117431641</v>
       </c>
       <c r="D49" t="n">
-        <v>37.87750244140625</v>
+        <v>39.20606994628906</v>
       </c>
       <c r="E49" t="n">
-        <v>-20.78363800048828</v>
+        <v>-19.46679878234863</v>
       </c>
       <c r="F49" t="n">
-        <v>52.68308258056641</v>
+        <v>51.18045043945312</v>
       </c>
       <c r="G49" t="n">
-        <v>51.91770172119141</v>
+        <v>49.84775161743164</v>
       </c>
       <c r="H49" t="n">
-        <v>-3.817341804504395</v>
+        <v>-2.443813562393188</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>320.2901348448358</v>
+        <v>1074.200060015862</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9951968783761747</v>
+        <v>0.9937682277568245</v>
       </c>
       <c r="C50" t="n">
-        <v>51.57262420654297</v>
+        <v>49.74092864990234</v>
       </c>
       <c r="D50" t="n">
-        <v>34.35537719726562</v>
+        <v>34.85330963134766</v>
       </c>
       <c r="E50" t="n">
-        <v>-20.78363800048828</v>
+        <v>-19.46679878234863</v>
       </c>
       <c r="F50" t="n">
-        <v>51.14336013793945</v>
+        <v>49.50129699707031</v>
       </c>
       <c r="G50" t="n">
-        <v>46.35323333740234</v>
+        <v>44.52861785888672</v>
       </c>
       <c r="H50" t="n">
-        <v>-3.817341804504395</v>
+        <v>-2.443813562393188</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-827.1845482216506</v>
+        <v>-2719.983764569248</v>
       </c>
       <c r="B51" t="n">
-        <v>1.007411134613623</v>
+        <v>1.009547498212916</v>
       </c>
       <c r="C51" t="n">
-        <v>49.95798873901367</v>
+        <v>48.17007446289062</v>
       </c>
       <c r="D51" t="n">
-        <v>32.22412109375</v>
+        <v>32.60281753540039</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.04815673828125</v>
+        <v>-16.70123481750488</v>
       </c>
       <c r="F51" t="n">
-        <v>49.49693298339844</v>
+        <v>48.10191345214844</v>
       </c>
       <c r="G51" t="n">
-        <v>42.53070449829102</v>
+        <v>41.61091613769531</v>
       </c>
       <c r="H51" t="n">
-        <v>0.584423303604126</v>
+        <v>1.297515392303467</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-413.4926084390893</v>
+        <v>-1359.894392090035</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9893338770049627</v>
+        <v>0.9861927042389994</v>
       </c>
       <c r="C52" t="n">
-        <v>39.60732650756836</v>
+        <v>38.75341033935547</v>
       </c>
       <c r="D52" t="n">
-        <v>28.11643218994141</v>
+        <v>28.17514419555664</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.68699359893799</v>
+        <v>-13.05789375305176</v>
       </c>
       <c r="F52" t="n">
-        <v>35.15567398071289</v>
+        <v>34.39659118652344</v>
       </c>
       <c r="G52" t="n">
-        <v>36.94380187988281</v>
+        <v>36.10720062255859</v>
       </c>
       <c r="H52" t="n">
-        <v>-1.606143236160278</v>
+        <v>-0.648133397102356</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-206.8097168906338</v>
+        <v>-680.0201140491131</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1423495110869408</v>
+        <v>0.1568239763379097</v>
       </c>
       <c r="C53" t="n">
-        <v>36.37709045410156</v>
+        <v>35.9320068359375</v>
       </c>
       <c r="D53" t="n">
-        <v>26.4573802947998</v>
+        <v>25.90976333618164</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.49920558929443</v>
+        <v>-11.22920799255371</v>
       </c>
       <c r="F53" t="n">
-        <v>29.98859024047852</v>
+        <v>29.37184906005859</v>
       </c>
       <c r="G53" t="n">
-        <v>36.94380187988281</v>
+        <v>36.10720062255859</v>
       </c>
       <c r="H53" t="n">
-        <v>-1.606143236160278</v>
+        <v>0.5793798565864563</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-103.5782664979402</v>
+        <v>-340.1967766343536</v>
       </c>
       <c r="B54" t="n">
-        <v>0.05553397439420223</v>
+        <v>0.06706411778926849</v>
       </c>
       <c r="C54" t="n">
-        <v>36.37709045410156</v>
+        <v>35.9320068359375</v>
       </c>
       <c r="D54" t="n">
-        <v>26.4573802947998</v>
+        <v>25.90976333618164</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.441732406616211</v>
+        <v>-9.181601524353027</v>
       </c>
       <c r="F54" t="n">
-        <v>29.98859024047852</v>
+        <v>29.37184906005859</v>
       </c>
       <c r="G54" t="n">
-        <v>41.15127182006836</v>
+        <v>40.11625289916992</v>
       </c>
       <c r="H54" t="n">
-        <v>2.467171430587769</v>
+        <v>3.180503129959106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-52.02897075121123</v>
+        <v>-170.363114522645</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1039810630679131</v>
+        <v>-0.1114513385295868</v>
       </c>
       <c r="C55" t="n">
-        <v>35.77075958251953</v>
+        <v>35.630859375</v>
       </c>
       <c r="D55" t="n">
-        <v>26.51877403259277</v>
+        <v>25.89208030700684</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.143534660339355</v>
+        <v>-6.645411014556885</v>
       </c>
       <c r="F55" t="n">
-        <v>31.77740097045898</v>
+        <v>31.74197769165039</v>
       </c>
       <c r="G55" t="n">
-        <v>43.83905410766602</v>
+        <v>43.26409912109375</v>
       </c>
       <c r="H55" t="n">
-        <v>5.71846342086792</v>
+        <v>6.005832672119141</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-26.2990376284943</v>
+        <v>-85.51330019888734</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.2773183846473694</v>
+        <v>-0.3017232483625412</v>
       </c>
       <c r="C56" t="n">
-        <v>37.35541534423828</v>
+        <v>37.35839462280273</v>
       </c>
       <c r="D56" t="n">
-        <v>28.14980506896973</v>
+        <v>27.48486709594727</v>
       </c>
       <c r="E56" t="n">
-        <v>-5.013970375061035</v>
+        <v>-4.181203842163086</v>
       </c>
       <c r="F56" t="n">
-        <v>35.15621185302734</v>
+        <v>35.13711166381836</v>
       </c>
       <c r="G56" t="n">
-        <v>45.29464340209961</v>
+        <v>45.24698638916016</v>
       </c>
       <c r="H56" t="n">
-        <v>8.717815399169922</v>
+        <v>8.425971984863281</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-13.46807241813471</v>
+        <v>-43.14644594399857</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.4298161894083024</v>
+        <v>-0.4578650128841401</v>
       </c>
       <c r="C57" t="n">
-        <v>38.42207336425781</v>
+        <v>38.84254837036133</v>
       </c>
       <c r="D57" t="n">
-        <v>29.09704399108887</v>
+        <v>28.97357749938965</v>
       </c>
       <c r="E57" t="n">
-        <v>-3.538439512252808</v>
+        <v>-2.434081792831421</v>
       </c>
       <c r="F57" t="n">
-        <v>38.44689178466797</v>
+        <v>38.22810745239258</v>
       </c>
       <c r="G57" t="n">
-        <v>45.29464340209961</v>
+        <v>45.24698638916016</v>
       </c>
       <c r="H57" t="n">
-        <v>10.73719596862793</v>
+        <v>10.13196754455566</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-7.074458310088167</v>
+        <v>-21.99653424307072</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.5431610918045044</v>
+        <v>-0.5609942865371704</v>
       </c>
       <c r="C58" t="n">
-        <v>39.2331657409668</v>
+        <v>40.12818908691406</v>
       </c>
       <c r="D58" t="n">
-        <v>29.11873054504395</v>
+        <v>28.97357749938965</v>
       </c>
       <c r="E58" t="n">
-        <v>-3.538439512252808</v>
+        <v>-2.434081792831421</v>
       </c>
       <c r="F58" t="n">
-        <v>40.99948883056641</v>
+        <v>40.40447998046875</v>
       </c>
       <c r="G58" t="n">
-        <v>43.34205627441406</v>
+        <v>43.36338043212891</v>
       </c>
       <c r="H58" t="n">
-        <v>10.73719596862793</v>
+        <v>10.13196754455566</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-3.879950820545678</v>
+        <v>-11.41341263733488</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.607380393743515</v>
+        <v>-0.6076861262321472</v>
       </c>
       <c r="C59" t="n">
-        <v>39.75483322143555</v>
+        <v>40.87042236328125</v>
       </c>
       <c r="D59" t="n">
-        <v>28.20749664306641</v>
+        <v>30.32114791870117</v>
       </c>
       <c r="E59" t="n">
-        <v>-2.305545806884766</v>
+        <v>-1.074871063232422</v>
       </c>
       <c r="F59" t="n">
-        <v>42.44879150390625</v>
+        <v>41.46860504150391</v>
       </c>
       <c r="G59" t="n">
-        <v>40.32146453857422</v>
+        <v>39.51853942871094</v>
       </c>
       <c r="H59" t="n">
-        <v>12.35227489471436</v>
+        <v>11.92928791046143</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-2.263171611597302</v>
+        <v>-6.074465604832679</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.6196262466907502</v>
+        <v>-0.6059050559997559</v>
       </c>
       <c r="C60" t="n">
-        <v>39.80968856811523</v>
+        <v>40.68958282470703</v>
       </c>
       <c r="D60" t="n">
-        <v>26.67180252075195</v>
+        <v>27.24909591674805</v>
       </c>
       <c r="E60" t="n">
-        <v>-3.021892547607422</v>
+        <v>-2.304449081420898</v>
       </c>
       <c r="F60" t="n">
-        <v>42.44879150390625</v>
+        <v>41.46860504150391</v>
       </c>
       <c r="G60" t="n">
-        <v>36.60651779174805</v>
+        <v>34.90322113037109</v>
       </c>
       <c r="H60" t="n">
-        <v>11.10655498504639</v>
+        <v>11.32400798797607</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-2.263171611597302</v>
+        <v>-3.34763404538776</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.5865592467784881</v>
+        <v>-0.5732674336433411</v>
       </c>
       <c r="C61" t="n">
-        <v>39.34391403198242</v>
+        <v>39.64016723632812</v>
       </c>
       <c r="D61" t="n">
-        <v>25.18605041503906</v>
+        <v>25.70441055297852</v>
       </c>
       <c r="E61" t="n">
-        <v>-3.419823169708252</v>
+        <v>-3.425769805908203</v>
       </c>
       <c r="F61" t="n">
-        <v>42.96378707885742</v>
+        <v>41.65076065063477</v>
       </c>
       <c r="G61" t="n">
-        <v>33.13452529907227</v>
+        <v>30.89745330810547</v>
       </c>
       <c r="H61" t="n">
-        <v>9.734295845031738</v>
+        <v>10.3312520980835</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.585848777294159</v>
+        <v>-1.951278164637812</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.5249590152502061</v>
+        <v>-0.5285264629125596</v>
       </c>
       <c r="C62" t="n">
-        <v>38.62178802490234</v>
+        <v>38.36991500854492</v>
       </c>
       <c r="D62" t="n">
-        <v>24.56486129760742</v>
+        <v>25.70441055297852</v>
       </c>
       <c r="E62" t="n">
-        <v>-2.94926643371582</v>
+        <v>-3.645040988922119</v>
       </c>
       <c r="F62" t="n">
-        <v>41.2232780456543</v>
+        <v>40.44172668457031</v>
       </c>
       <c r="G62" t="n">
-        <v>30.70775985717773</v>
+        <v>28.50191497802734</v>
       </c>
       <c r="H62" t="n">
-        <v>8.831059455871582</v>
+        <v>9.385540008544922</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.5415794837474823</v>
+        <v>-1.951278164637812</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.4555523699522019</v>
+        <v>-0.4808694082498551</v>
       </c>
       <c r="C63" t="n">
-        <v>38.09377288818359</v>
+        <v>37.64042282104492</v>
       </c>
       <c r="D63" t="n">
-        <v>25.24984931945801</v>
+        <v>24.06240463256836</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.598765850067139</v>
+        <v>-2.763439178466797</v>
       </c>
       <c r="F63" t="n">
-        <v>39.26219940185547</v>
+        <v>39.15389251708984</v>
       </c>
       <c r="G63" t="n">
-        <v>29.61129760742188</v>
+        <v>28.50191497802734</v>
       </c>
       <c r="H63" t="n">
-        <v>8.718926429748535</v>
+        <v>8.923174858093262</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.5338818991184235</v>
+        <v>-0.5626350319385529</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.3939522331953049</v>
+        <v>-0.431469002366066</v>
       </c>
       <c r="C64" t="n">
-        <v>38.00196075439453</v>
+        <v>37.72582626342773</v>
       </c>
       <c r="D64" t="n">
-        <v>26.95627212524414</v>
+        <v>26.67639541625977</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2143635302782059</v>
+        <v>-1.155473709106445</v>
       </c>
       <c r="F64" t="n">
-        <v>37.52169418334961</v>
+        <v>37.81894683837891</v>
       </c>
       <c r="G64" t="n">
-        <v>29.61129760742188</v>
+        <v>27.22711372375488</v>
       </c>
       <c r="H64" t="n">
-        <v>9.443219184875488</v>
+        <v>9.181017875671387</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.5509149706363679</v>
+        <v>-0.6171645283699035</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.3457833498716354</v>
+        <v>-0.3812664830684662</v>
       </c>
       <c r="C65" t="n">
-        <v>38.20512008666992</v>
+        <v>38.32963180541992</v>
       </c>
       <c r="D65" t="n">
-        <v>28.8992748260498</v>
+        <v>28.18755531311035</v>
       </c>
       <c r="E65" t="n">
-        <v>2.0363450050354</v>
+        <v>0.6283907294273376</v>
       </c>
       <c r="F65" t="n">
-        <v>36.16068649291992</v>
+        <v>36.46232604980469</v>
       </c>
       <c r="G65" t="n">
-        <v>29.60898017883301</v>
+        <v>29.05596351623535</v>
       </c>
       <c r="H65" t="n">
-        <v>10.79556179046631</v>
+        <v>10.07996082305908</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.5649547195434571</v>
+        <v>-0.6716454386711121</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.3086635464429855</v>
+        <v>-0.3327674162387848</v>
       </c>
       <c r="C66" t="n">
-        <v>38.37257766723633</v>
+        <v>38.93289947509766</v>
       </c>
       <c r="D66" t="n">
-        <v>30.31966018676758</v>
+        <v>29.46110725402832</v>
       </c>
       <c r="E66" t="n">
-        <v>3.568794727325439</v>
+        <v>2.1742844581604</v>
       </c>
       <c r="F66" t="n">
-        <v>35.11186981201172</v>
+        <v>35.15173721313477</v>
       </c>
       <c r="G66" t="n">
-        <v>30.86475944519043</v>
+        <v>30.72871589660645</v>
       </c>
       <c r="H66" t="n">
-        <v>12.44308376312256</v>
+        <v>11.36575603485107</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.5538029706478119</v>
+        <v>-0.689525260925293</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.2763616991043091</v>
+        <v>-0.2872552275657654</v>
       </c>
       <c r="C67" t="n">
-        <v>38.23956680297852</v>
+        <v>39.13088226318359</v>
       </c>
       <c r="D67" t="n">
-        <v>30.86065483093262</v>
+        <v>29.46110725402832</v>
       </c>
       <c r="E67" t="n">
-        <v>4.686737537384033</v>
+        <v>3.297256946563721</v>
       </c>
       <c r="F67" t="n">
-        <v>34.19918441772461</v>
+        <v>33.9218635559082</v>
       </c>
       <c r="G67" t="n">
-        <v>31.9005241394043</v>
+        <v>31.93523406982422</v>
       </c>
       <c r="H67" t="n">
-        <v>14.06635570526123</v>
+        <v>12.78410816192627</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.5097378146648407</v>
+        <v>-0.6565076053142548</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.2417775040864945</v>
+        <v>-0.2427374276518822</v>
       </c>
       <c r="C68" t="n">
-        <v>37.71398544311523</v>
+        <v>38.76527786254883</v>
       </c>
       <c r="D68" t="n">
-        <v>30.61958122253418</v>
+        <v>30.84030723571777</v>
       </c>
       <c r="E68" t="n">
-        <v>5.394711971282959</v>
+        <v>3.990348339080811</v>
       </c>
       <c r="F68" t="n">
-        <v>33.22201156616211</v>
+        <v>32.7188606262207</v>
       </c>
       <c r="G68" t="n">
-        <v>32.62392425537109</v>
+        <v>32.72170639038086</v>
       </c>
       <c r="H68" t="n">
-        <v>15.46290493011475</v>
+        <v>14.16335201263428</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.4379374969005585</v>
+        <v>-0.5782817244529724</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.1982844039797783</v>
+        <v>-0.1942572677135468</v>
       </c>
       <c r="C69" t="n">
-        <v>36.85759735107422</v>
+        <v>37.89908218383789</v>
       </c>
       <c r="D69" t="n">
-        <v>29.9837760925293</v>
+        <v>30.35566139221191</v>
       </c>
       <c r="E69" t="n">
-        <v>5.806248188018799</v>
+        <v>4.369537830352783</v>
       </c>
       <c r="F69" t="n">
-        <v>31.99311828613281</v>
+        <v>31.40878295898438</v>
       </c>
       <c r="G69" t="n">
-        <v>33.09249496459961</v>
+        <v>33.23163223266602</v>
       </c>
       <c r="H69" t="n">
-        <v>16.56966018676758</v>
+        <v>15.39427661895752</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.3492835730314255</v>
+        <v>-0.4715419453382492</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.1414439389109612</v>
+        <v>-0.1364069819450378</v>
       </c>
       <c r="C70" t="n">
-        <v>35.80018997192383</v>
+        <v>36.7171516418457</v>
       </c>
       <c r="D70" t="n">
-        <v>29.40959548950195</v>
+        <v>29.77163314819336</v>
       </c>
       <c r="E70" t="n">
-        <v>6.105848789215088</v>
+        <v>4.620995044708252</v>
       </c>
       <c r="F70" t="n">
-        <v>29.37933349609375</v>
+        <v>29.84549713134766</v>
       </c>
       <c r="G70" t="n">
-        <v>33.40016555786133</v>
+        <v>33.57363891601562</v>
       </c>
       <c r="H70" t="n">
-        <v>17.40881156921387</v>
+        <v>16.39856338500977</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.2540037709474564</v>
+        <v>-0.3542531001567841</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.07011027544736863</v>
+        <v>-0.06594030290842057</v>
       </c>
       <c r="C71" t="n">
-        <v>34.66375350952148</v>
+        <v>35.41841125488281</v>
       </c>
       <c r="D71" t="n">
-        <v>29.23892974853516</v>
+        <v>29.50789642333984</v>
       </c>
       <c r="E71" t="n">
-        <v>6.477928638458252</v>
+        <v>4.932131290435791</v>
       </c>
       <c r="F71" t="n">
-        <v>27.70026016235352</v>
+        <v>26.82819938659668</v>
       </c>
       <c r="G71" t="n">
-        <v>33.6210823059082</v>
+        <v>33.79530334472656</v>
       </c>
       <c r="H71" t="n">
-        <v>18.04231262207031</v>
+        <v>17.12994575500488</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.1577050027251244</v>
+        <v>-0.2386712771654129</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01307464845478535</v>
+        <v>0.01643993789330125</v>
       </c>
       <c r="C72" t="n">
-        <v>33.51516342163086</v>
+        <v>34.13857269287109</v>
       </c>
       <c r="D72" t="n">
-        <v>29.62586402893066</v>
+        <v>29.79030799865723</v>
       </c>
       <c r="E72" t="n">
-        <v>7.034608364105225</v>
+        <v>5.430602550506592</v>
       </c>
       <c r="F72" t="n">
-        <v>25.5933723449707</v>
+        <v>25.05810165405273</v>
       </c>
       <c r="G72" t="n">
-        <v>33.79716491699219</v>
+        <v>33.91798782348633</v>
       </c>
       <c r="H72" t="n">
-        <v>18.52558135986328</v>
+        <v>17.58802795410156</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.06234620474278927</v>
+        <v>-0.1314612345397473</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1027831922471523</v>
+        <v>0.1062566819787026</v>
       </c>
       <c r="C73" t="n">
-        <v>32.37778472900391</v>
+        <v>32.95143508911133</v>
       </c>
       <c r="D73" t="n">
-        <v>30.53433418273926</v>
+        <v>30.62094497680664</v>
       </c>
       <c r="E73" t="n">
-        <v>7.761353015899658</v>
+        <v>6.12549352645874</v>
       </c>
       <c r="F73" t="n">
-        <v>23.27824783325195</v>
+        <v>22.95653915405273</v>
       </c>
       <c r="G73" t="n">
-        <v>33.95432281494141</v>
+        <v>33.98350143432617</v>
       </c>
       <c r="H73" t="n">
-        <v>18.9308910369873</v>
+        <v>17.86088371276855</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.03202720183879137</v>
+        <v>-0.034417859390378</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1920900672674179</v>
+        <v>0.1962922304868698</v>
       </c>
       <c r="C74" t="n">
-        <v>31.25215911865234</v>
+        <v>31.87687301635742</v>
       </c>
       <c r="D74" t="n">
-        <v>31.80655479431152</v>
+        <v>31.84409332275391</v>
       </c>
       <c r="E74" t="n">
-        <v>8.5875244140625</v>
+        <v>6.987625598907471</v>
       </c>
       <c r="F74" t="n">
-        <v>20.97728729248047</v>
+        <v>20.79701995849609</v>
       </c>
       <c r="G74" t="n">
-        <v>34.12213897705078</v>
+        <v>34.07046508789062</v>
       </c>
       <c r="H74" t="n">
-        <v>19.38175010681152</v>
+        <v>18.1189022064209</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.1239229053258896</v>
+        <v>0.05263351589441299</v>
       </c>
       <c r="B75" t="n">
-        <v>0.273024577498436</v>
+        <v>0.278351234793663</v>
       </c>
       <c r="C75" t="n">
-        <v>30.15608596801758</v>
+        <v>30.9129524230957</v>
       </c>
       <c r="D75" t="n">
-        <v>33.26837539672852</v>
+        <v>33.24364852905273</v>
       </c>
       <c r="E75" t="n">
-        <v>9.518436431884766</v>
+        <v>8.002773284912109</v>
       </c>
       <c r="F75" t="n">
-        <v>18.91024017333984</v>
+        <v>18.81434631347656</v>
       </c>
       <c r="G75" t="n">
-        <v>34.33763885498047</v>
+        <v>34.25839614868164</v>
       </c>
       <c r="H75" t="n">
-        <v>19.96111297607422</v>
+        <v>18.49376106262207</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.2064156782627106</v>
+        <v>0.1267539319396019</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3379030776023865</v>
+        <v>0.345176939368248</v>
       </c>
       <c r="C76" t="n">
-        <v>29.17216491699219</v>
+        <v>30.09221649169922</v>
       </c>
       <c r="D76" t="n">
-        <v>34.79958724975586</v>
+        <v>34.66004180908203</v>
       </c>
       <c r="E76" t="n">
-        <v>10.61856651306152</v>
+        <v>9.182960510253906</v>
       </c>
       <c r="F76" t="n">
-        <v>17.24330902099609</v>
+        <v>17.17961311340332</v>
       </c>
       <c r="G76" t="n">
-        <v>34.62747955322266</v>
+        <v>34.60054397583008</v>
       </c>
       <c r="H76" t="n">
-        <v>20.61849594116211</v>
+        <v>19.00377655029297</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.2694250655174256</v>
+        <v>0.1851622000336647</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3827382510900498</v>
+        <v>0.392795422077179</v>
       </c>
       <c r="C77" t="n">
-        <v>28.42062950134277</v>
+        <v>29.44546127319336</v>
       </c>
       <c r="D77" t="n">
-        <v>36.34158706665039</v>
+        <v>36.05115509033203</v>
       </c>
       <c r="E77" t="n">
-        <v>11.88935852050781</v>
+        <v>10.53608512878418</v>
       </c>
       <c r="F77" t="n">
-        <v>16.01900672912598</v>
+        <v>15.95424842834473</v>
       </c>
       <c r="G77" t="n">
-        <v>34.97032928466797</v>
+        <v>35.06935882568359</v>
       </c>
       <c r="H77" t="n">
-        <v>21.17714881896973</v>
+        <v>19.48480796813965</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.3087747132778168</v>
+        <v>0.2258836162090302</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4104033136367798</v>
+        <v>0.4229918599128724</v>
       </c>
       <c r="C78" t="n">
-        <v>27.95129203796387</v>
+        <v>28.99455261230469</v>
       </c>
       <c r="D78" t="n">
-        <v>37.84506988525391</v>
+        <v>37.42462539672852</v>
       </c>
       <c r="E78" t="n">
-        <v>13.19523048400879</v>
+        <v>11.9438533782959</v>
       </c>
       <c r="F78" t="n">
-        <v>16.01900672912598</v>
+        <v>15.95424842834473</v>
       </c>
       <c r="G78" t="n">
-        <v>35.27872848510742</v>
+        <v>35.55921173095703</v>
       </c>
       <c r="H78" t="n">
-        <v>21.41320991516113</v>
+        <v>19.72924613952637</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.3327803051471711</v>
+        <v>0.2558072546124459</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4289150083065033</v>
+        <v>0.441812698841095</v>
       </c>
       <c r="C79" t="n">
-        <v>27.66496849060059</v>
+        <v>28.6632080078125</v>
       </c>
       <c r="D79" t="n">
-        <v>39.23876953125</v>
+        <v>38.75397872924805</v>
       </c>
       <c r="E79" t="n">
-        <v>14.33688735961914</v>
+        <v>13.2142219543457</v>
       </c>
       <c r="F79" t="n">
-        <v>14.27165985107422</v>
+        <v>14.22028827667236</v>
       </c>
       <c r="G79" t="n">
-        <v>35.41844177246094</v>
+        <v>35.90646743774414</v>
       </c>
       <c r="H79" t="n">
-        <v>21.05970001220703</v>
+        <v>19.48108291625977</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.3537661015987397</v>
+        <v>0.2836674672365189</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4481418162584305</v>
+        <v>0.4577387773990632</v>
       </c>
       <c r="C80" t="n">
-        <v>27.41466331481934</v>
+        <v>28.35471153259277</v>
       </c>
       <c r="D80" t="n">
-        <v>40.40016937255859</v>
+        <v>39.9371223449707</v>
       </c>
       <c r="E80" t="n">
-        <v>15.01702308654785</v>
+        <v>14.04343795776367</v>
       </c>
       <c r="F80" t="n">
-        <v>13.72840785980225</v>
+        <v>13.78991794586182</v>
       </c>
       <c r="G80" t="n">
-        <v>35.29825592041016</v>
+        <v>35.99247741699219</v>
       </c>
       <c r="H80" t="n">
-        <v>19.99728965759277</v>
+        <v>18.62074851989746</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.380845097899437</v>
+        <v>0.317411482334137</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4731919783353806</v>
+        <v>0.4762903392314911</v>
       </c>
       <c r="C81" t="n">
-        <v>27.09168243408203</v>
+        <v>27.98106384277344</v>
       </c>
       <c r="D81" t="n">
-        <v>41.27106475830078</v>
+        <v>40.86770629882812</v>
       </c>
       <c r="E81" t="n">
-        <v>14.94197273254395</v>
+        <v>14.09415626525879</v>
       </c>
       <c r="F81" t="n">
-        <v>13.0206184387207</v>
+        <v>13.28859996795654</v>
       </c>
       <c r="G81" t="n">
-        <v>34.91659927368164</v>
+        <v>35.77731704711914</v>
       </c>
       <c r="H81" t="n">
-        <v>16.76068115234375</v>
+        <v>15.88971519470215</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.4114804220199585</v>
+        <v>0.3578579825162888</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5009429353475571</v>
+        <v>0.4961593180894852</v>
       </c>
       <c r="C82" t="n">
-        <v>26.72628402709961</v>
+        <v>27.53319931030273</v>
       </c>
       <c r="D82" t="n">
-        <v>41.92692565917969</v>
+        <v>41.52560424804688</v>
       </c>
       <c r="E82" t="n">
-        <v>12.82914638519287</v>
+        <v>11.95227241516113</v>
       </c>
       <c r="F82" t="n">
-        <v>12.23651790618896</v>
+        <v>12.75168132781982</v>
       </c>
       <c r="G82" t="n">
-        <v>34.38913345336914</v>
+        <v>35.3460578918457</v>
       </c>
       <c r="H82" t="n">
-        <v>14.2021369934082</v>
+        <v>13.65417671203613</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.4264815950393677</v>
+        <v>0.3913508534431458</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5217707479000092</v>
+        <v>0.5094585549831391</v>
       </c>
       <c r="C83" t="n">
-        <v>26.54735946655273</v>
+        <v>27.16233253479004</v>
       </c>
       <c r="D83" t="n">
-        <v>42.54825210571289</v>
+        <v>42.0261344909668</v>
       </c>
       <c r="E83" t="n">
-        <v>10.54584693908691</v>
+        <v>9.521560668945312</v>
       </c>
       <c r="F83" t="n">
-        <v>11.64802932739258</v>
+        <v>12.39229679107666</v>
       </c>
       <c r="G83" t="n">
-        <v>33.97639083862305</v>
+        <v>34.95891571044922</v>
       </c>
       <c r="H83" t="n">
-        <v>10.56463623046875</v>
+        <v>10.37976169586182</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.4014568632841111</v>
+        <v>0.3955601876974106</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5211445617675782</v>
+        <v>0.5032474279403687</v>
       </c>
       <c r="C84" t="n">
-        <v>26.84583854675293</v>
+        <v>27.11572265625</v>
       </c>
       <c r="D84" t="n">
-        <v>43.3593864440918</v>
+        <v>42.57276153564453</v>
       </c>
       <c r="E84" t="n">
-        <v>7.042300224304199</v>
+        <v>5.82017707824707</v>
       </c>
       <c r="F84" t="n">
-        <v>11.66572284698486</v>
+        <v>12.56013965606689</v>
       </c>
       <c r="G84" t="n">
-        <v>34.06835174560547</v>
+        <v>35.05033111572266</v>
       </c>
       <c r="H84" t="n">
-        <v>6.109241485595703</v>
+        <v>6.231680870056152</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.3225308114290237</v>
+        <v>0.3489091628789902</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5585289144237093</v>
+        <v>0.5616752168536301</v>
       </c>
       <c r="C85" t="n">
-        <v>27.78721809387207</v>
+        <v>27.63228988647461</v>
       </c>
       <c r="D85" t="n">
-        <v>44.47201156616211</v>
+        <v>43.32842254638672</v>
       </c>
       <c r="E85" t="n">
-        <v>2.657516479492188</v>
+        <v>1.266692399978638</v>
       </c>
       <c r="F85" t="n">
-        <v>12.58462238311768</v>
+        <v>13.52177238464355</v>
       </c>
       <c r="G85" t="n">
-        <v>36.030517578125</v>
+        <v>37.17925262451172</v>
       </c>
       <c r="H85" t="n">
-        <v>1.418588399887085</v>
+        <v>1.755242109298706</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.7473992575549325</v>
+        <v>0.697689461151503</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6491040223766695</v>
+        <v>0.6689194212647045</v>
       </c>
       <c r="C86" t="n">
-        <v>29.27712821960449</v>
+        <v>28.77084732055664</v>
       </c>
       <c r="D86" t="n">
-        <v>45.90383911132812</v>
+        <v>44.40105056762695</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.7214515209198</v>
+        <v>-3.179390907287598</v>
       </c>
       <c r="F86" t="n">
-        <v>15.83400917053223</v>
+        <v>16.59519577026367</v>
       </c>
       <c r="G86" t="n">
-        <v>37.96983337402344</v>
+        <v>39.32229232788086</v>
       </c>
       <c r="H86" t="n">
-        <v>-2.753354549407959</v>
+        <v>-2.237353801727295</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9777485943253964</v>
+        <v>0.9420953160275408</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7841799644080116</v>
+        <v>0.8078920195566212</v>
       </c>
       <c r="C87" t="n">
-        <v>31.07730293273926</v>
+        <v>30.37167167663574</v>
       </c>
       <c r="D87" t="n">
-        <v>48.71685409545898</v>
+        <v>46.91280364990234</v>
       </c>
       <c r="E87" t="n">
-        <v>-5.05248498916626</v>
+        <v>-6.486773014068604</v>
       </c>
       <c r="F87" t="n">
-        <v>18.05911254882812</v>
+        <v>18.65243911743164</v>
       </c>
       <c r="G87" t="n">
-        <v>40.59677124023438</v>
+        <v>42.22866058349609</v>
       </c>
       <c r="H87" t="n">
-        <v>-5.935996055603027</v>
+        <v>-5.197760581970215</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.005002493863504</v>
+        <v>1.007540063871835</v>
       </c>
       <c r="B88" t="n">
-        <v>0.911995095015832</v>
+        <v>0.9269014661859626</v>
       </c>
       <c r="C88" t="n">
-        <v>34.11894989013672</v>
+        <v>33.33246612548828</v>
       </c>
       <c r="D88" t="n">
-        <v>50.42057037353516</v>
+        <v>48.60111999511719</v>
       </c>
       <c r="E88" t="n">
-        <v>-6.796903610229492</v>
+        <v>-8.182005882263184</v>
       </c>
       <c r="F88" t="n">
-        <v>20.7596549987793</v>
+        <v>21.13196563720703</v>
       </c>
       <c r="G88" t="n">
-        <v>43.54252624511719</v>
+        <v>45.46441650390625</v>
       </c>
       <c r="H88" t="n">
-        <v>-7.992477893829346</v>
+        <v>-6.930350780487061</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9971919874338698</v>
+        <v>0.9962622614157711</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9827786782715846</v>
+        <v>0.9869959147333046</v>
       </c>
       <c r="C89" t="n">
-        <v>35.74467468261719</v>
+        <v>35.04504013061523</v>
       </c>
       <c r="D89" t="n">
-        <v>52.42115783691406</v>
+        <v>50.66244888305664</v>
       </c>
       <c r="E89" t="n">
-        <v>-6.796903610229492</v>
+        <v>-8.182005882263184</v>
       </c>
       <c r="F89" t="n">
-        <v>23.65626525878906</v>
+        <v>23.79219055175781</v>
       </c>
       <c r="G89" t="n">
-        <v>46.46564865112305</v>
+        <v>48.57342529296875</v>
       </c>
       <c r="H89" t="n">
-        <v>-7.992477893829346</v>
+        <v>-6.930350780487061</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.002548039722543</v>
+        <v>1.003351243067106</v>
       </c>
       <c r="B90" t="n">
-        <v>1.00018660519267</v>
+        <v>1.000266070592651</v>
       </c>
       <c r="C90" t="n">
-        <v>37.58934783935547</v>
+        <v>37.11256408691406</v>
       </c>
       <c r="D90" t="n">
-        <v>54.35283660888672</v>
+        <v>52.777099609375</v>
       </c>
       <c r="E90" t="n">
-        <v>-7.439412593841553</v>
+        <v>-8.697599411010742</v>
       </c>
       <c r="F90" t="n">
-        <v>26.61139678955078</v>
+        <v>26.5361328125</v>
       </c>
       <c r="G90" t="n">
-        <v>49.16297912597656</v>
+        <v>51.24121475219727</v>
       </c>
       <c r="H90" t="n">
-        <v>-9.669023513793945</v>
+        <v>-6.545940399169922</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.996856071216447</v>
+        <v>0.9956119624126467</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9999604247986692</v>
+        <v>0.9999420251476517</v>
       </c>
       <c r="C91" t="n">
-        <v>39.38424301147461</v>
+        <v>39.27211761474609</v>
       </c>
       <c r="D91" t="n">
-        <v>55.88201141357422</v>
+        <v>54.64056396484375</v>
       </c>
       <c r="E91" t="n">
-        <v>-5.829814910888672</v>
+        <v>-5.919290542602539</v>
       </c>
       <c r="F91" t="n">
-        <v>29.59044456481934</v>
+        <v>29.36209487915039</v>
       </c>
       <c r="G91" t="n">
-        <v>51.59811782836914</v>
+        <v>53.41510772705078</v>
       </c>
       <c r="H91" t="n">
-        <v>-6.148916721343994</v>
+        <v>-4.342994213104248</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.004747090219481</v>
+        <v>1.007429105938605</v>
       </c>
       <c r="B92" t="n">
-        <v>1.000016329137706</v>
+        <v>1.000024403555678</v>
       </c>
       <c r="C92" t="n">
-        <v>40.9639892578125</v>
+        <v>41.30249786376953</v>
       </c>
       <c r="D92" t="n">
-        <v>55.88201141357422</v>
+        <v>56.02887344360352</v>
       </c>
       <c r="E92" t="n">
-        <v>-3.964054822921753</v>
+        <v>-4.301352500915527</v>
       </c>
       <c r="F92" t="n">
-        <v>32.6093864440918</v>
+        <v>32.29379272460938</v>
       </c>
       <c r="G92" t="n">
-        <v>53.88139343261719</v>
+        <v>55.30809783935547</v>
       </c>
       <c r="H92" t="n">
-        <v>-3.658281803131104</v>
+        <v>-1.777125239372253</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9918075268497878</v>
+        <v>0.9850155514192568</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9999899270168126</v>
+        <v>0.9999845522479412</v>
       </c>
       <c r="C93" t="n">
-        <v>42.28642272949219</v>
+        <v>43.13491821289062</v>
       </c>
       <c r="D93" t="n">
-        <v>57.65027618408203</v>
+        <v>56.02887344360352</v>
       </c>
       <c r="E93" t="n">
-        <v>-2.085391521453857</v>
+        <v>-2.534652471542358</v>
       </c>
       <c r="F93" t="n">
-        <v>35.68533325195312</v>
+        <v>35.319580078125</v>
       </c>
       <c r="G93" t="n">
-        <v>56.16933822631836</v>
+        <v>57.22671127319336</v>
       </c>
       <c r="H93" t="n">
-        <v>-1.015813231468201</v>
+        <v>0.5814427733421326</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.015518848968685</v>
+        <v>1.034396758797747</v>
       </c>
       <c r="B94" t="n">
-        <v>1.000008321113586</v>
+        <v>1.000013143694534</v>
       </c>
       <c r="C94" t="n">
-        <v>43.41285705566406</v>
+        <v>44.75842666625977</v>
       </c>
       <c r="D94" t="n">
-        <v>57.01454162597656</v>
+        <v>57.61953735351562</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.6048060059547424</v>
+        <v>-0.9812861680984497</v>
       </c>
       <c r="F94" t="n">
-        <v>38.78988647460938</v>
+        <v>38.36809539794922</v>
       </c>
       <c r="G94" t="n">
-        <v>58.51345062255859</v>
+        <v>59.29928970336914</v>
       </c>
       <c r="H94" t="n">
-        <v>1.233111619949341</v>
+        <v>2.381116628646851</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9683187797939899</v>
+        <v>0.9127512836094659</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9999913850887185</v>
+        <v>0.9999859981778464</v>
       </c>
       <c r="C95" t="n">
-        <v>44.47933197021484</v>
+        <v>46.21663665771484</v>
       </c>
       <c r="D95" t="n">
-        <v>54.54502105712891</v>
+        <v>57.25435256958008</v>
       </c>
       <c r="E95" t="n">
-        <v>0.05097050219774246</v>
+        <v>-0.9812861680984497</v>
       </c>
       <c r="F95" t="n">
-        <v>41.82765197753906</v>
+        <v>41.28844451904297</v>
       </c>
       <c r="G95" t="n">
-        <v>60.76353454589844</v>
+        <v>61.37871551513672</v>
       </c>
       <c r="H95" t="n">
-        <v>2.846298217773438</v>
+        <v>3.556684017181396</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.069720465556778</v>
+        <v>1.240531165287422</v>
       </c>
       <c r="B96" t="n">
-        <v>1.000010628231395</v>
+        <v>1.00001764570098</v>
       </c>
       <c r="C96" t="n">
-        <v>45.67166900634766</v>
+        <v>47.58235168457031</v>
       </c>
       <c r="D96" t="n">
-        <v>52.61354446411133</v>
+        <v>56.4928092956543</v>
       </c>
       <c r="E96" t="n">
-        <v>-1.583352565765381</v>
+        <v>0.9673294425010681</v>
       </c>
       <c r="F96" t="n">
-        <v>44.63774871826172</v>
+        <v>43.87192153930664</v>
       </c>
       <c r="G96" t="n">
-        <v>62.58272933959961</v>
+        <v>63.05635452270508</v>
       </c>
       <c r="H96" t="n">
-        <v>2.846298217773438</v>
+        <v>3.556684017181396</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8320284496934639</v>
+        <v>1.783031202647511</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9999850551159123</v>
+        <v>0.999974994184807</v>
       </c>
       <c r="C97" t="n">
-        <v>47.14818572998047</v>
+        <v>48.89788436889648</v>
       </c>
       <c r="D97" t="n">
-        <v>49.85529327392578</v>
+        <v>55.36828994750977</v>
       </c>
       <c r="E97" t="n">
-        <v>-4.234976768493652</v>
+        <v>-1.980978965759277</v>
       </c>
       <c r="F97" t="n">
-        <v>46.99669647216797</v>
+        <v>45.88793182373047</v>
       </c>
       <c r="G97" t="n">
-        <v>62.58272933959961</v>
+        <v>63.05635452270508</v>
       </c>
       <c r="H97" t="n">
-        <v>4.57344388961792</v>
+        <v>4.742729663848877</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.451463563641714</v>
+        <v>-2.43814521118609</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00002291869335</v>
+        <v>1.000037964958394</v>
       </c>
       <c r="C98" t="n">
-        <v>48.88725280761719</v>
+        <v>50.04848098754883</v>
       </c>
       <c r="D98" t="n">
-        <v>46.36905670166016</v>
+        <v>51.79007720947266</v>
       </c>
       <c r="E98" t="n">
-        <v>-8.570594787597656</v>
+        <v>-6.153481483459473</v>
       </c>
       <c r="F98" t="n">
-        <v>48.61952972412109</v>
+        <v>47.10234069824219</v>
       </c>
       <c r="G98" t="n">
-        <v>63.24677658081055</v>
+        <v>62.64891815185547</v>
       </c>
       <c r="H98" t="n">
-        <v>1.908941745758057</v>
+        <v>2.921331644058228</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.51765652363139</v>
+        <v>12.07786649064055</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9999634960016771</v>
+        <v>0.9999412656220948</v>
       </c>
       <c r="C99" t="n">
-        <v>50.49466705322266</v>
+        <v>50.04848098754883</v>
       </c>
       <c r="D99" t="n">
-        <v>42.48468780517578</v>
+        <v>47.90574645996094</v>
       </c>
       <c r="E99" t="n">
-        <v>-13.91278076171875</v>
+        <v>-11.99247360229492</v>
       </c>
       <c r="F99" t="n">
-        <v>48.61952972412109</v>
+        <v>47.10234069824219</v>
       </c>
       <c r="G99" t="n">
-        <v>60.04601669311523</v>
+        <v>58.17870330810547</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.9499623775482178</v>
+        <v>0.8360865116119385</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-5.344866418470053</v>
+        <v>-32.3270769092976</v>
       </c>
       <c r="B100" t="n">
-        <v>1.000057479920692</v>
+        <v>1.000088048940949</v>
       </c>
       <c r="C100" t="n">
-        <v>50.49466705322266</v>
+        <v>51.106201171875</v>
       </c>
       <c r="D100" t="n">
-        <v>38.69744873046875</v>
+        <v>42.27038955688477</v>
       </c>
       <c r="E100" t="n">
-        <v>-18.50883865356445</v>
+        <v>-16.84775543212891</v>
       </c>
       <c r="F100" t="n">
-        <v>49.97069931030273</v>
+        <v>47.62979888916016</v>
       </c>
       <c r="G100" t="n">
-        <v>54.684814453125</v>
+        <v>51.31615447998047</v>
       </c>
       <c r="H100" t="n">
-        <v>-3.557657241821289</v>
+        <v>-1.058764100074768</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>19.16874997040991</v>
+        <v>85.62055243622058</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9999130525604991</v>
+        <v>0.9998747128000008</v>
       </c>
       <c r="C101" t="n">
-        <v>52.08465576171875</v>
+        <v>48.05461883544922</v>
       </c>
       <c r="D101" t="n">
-        <v>35.34402465820312</v>
+        <v>36.81440353393555</v>
       </c>
       <c r="E101" t="n">
-        <v>-20.21873474121094</v>
+        <v>-18.18910026550293</v>
       </c>
       <c r="F101" t="n">
-        <v>49.04280853271484</v>
+        <v>46.53877639770508</v>
       </c>
       <c r="G101" t="n">
-        <v>48.45667266845703</v>
+        <v>44.64745330810547</v>
       </c>
       <c r="H101" t="n">
-        <v>-3.557657241821289</v>
+        <v>-1.058764100074768</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-47.22904830594446</v>
+        <v>-189.3555372406414</v>
       </c>
       <c r="B102" t="n">
-        <v>1.000126179253315</v>
+        <v>1.000174168022414</v>
       </c>
       <c r="C102" t="n">
-        <v>49.61824798583984</v>
+        <v>46.5158576965332</v>
       </c>
       <c r="D102" t="n">
-        <v>32.73918151855469</v>
+        <v>33.21406173706055</v>
       </c>
       <c r="E102" t="n">
-        <v>-18.01052856445312</v>
+        <v>-15.88039493560791</v>
       </c>
       <c r="F102" t="n">
-        <v>48.1226692199707</v>
+        <v>46.06934356689453</v>
       </c>
       <c r="G102" t="n">
-        <v>43.01854705810547</v>
+        <v>40.30773544311523</v>
       </c>
       <c r="H102" t="n">
-        <v>-1.028828859329224</v>
+        <v>0.8301732540130615</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-23.48677035132838</v>
+        <v>-94.55521376363292</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9998234317365116</v>
+        <v>0.9997587057486973</v>
       </c>
       <c r="C103" t="n">
-        <v>39.10243988037109</v>
+        <v>37.64875793457031</v>
       </c>
       <c r="D103" t="n">
-        <v>28.09904861450195</v>
+        <v>28.09492492675781</v>
       </c>
       <c r="E103" t="n">
-        <v>-13.57996368408203</v>
+        <v>-12.56424999237061</v>
       </c>
       <c r="F103" t="n">
-        <v>34.11590194702148</v>
+        <v>33.13282775878906</v>
       </c>
       <c r="G103" t="n">
-        <v>36.41293334960938</v>
+        <v>34.66215896606445</v>
       </c>
       <c r="H103" t="n">
-        <v>-2.823716163635254</v>
+        <v>-1.288650512695312</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-11.75022708475797</v>
+        <v>-47.2998062120346</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1948243007063866</v>
+        <v>0.2181545200943947</v>
       </c>
       <c r="C104" t="n">
-        <v>35.44990539550781</v>
+        <v>34.81807327270508</v>
       </c>
       <c r="D104" t="n">
-        <v>25.78726196289062</v>
+        <v>24.97395896911621</v>
       </c>
       <c r="E104" t="n">
-        <v>-11.60033321380615</v>
+        <v>-11.25003528594971</v>
       </c>
       <c r="F104" t="n">
-        <v>27.76249313354492</v>
+        <v>26.84040069580078</v>
       </c>
       <c r="G104" t="n">
-        <v>36.41293334960938</v>
+        <v>34.66215896606445</v>
       </c>
       <c r="H104" t="n">
-        <v>-2.823716163635254</v>
+        <v>-1.288650512695312</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-5.97500845030054</v>
+        <v>-23.76045164443392</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1763065880537033</v>
+        <v>0.2076531240344048</v>
       </c>
       <c r="C105" t="n">
-        <v>35.44990539550781</v>
+        <v>34.81807327270508</v>
       </c>
       <c r="D105" t="n">
-        <v>25.78726196289062</v>
+        <v>23.62426376342773</v>
       </c>
       <c r="E105" t="n">
-        <v>-9.870744705200195</v>
+        <v>-9.776218414306641</v>
       </c>
       <c r="F105" t="n">
-        <v>26.22679138183594</v>
+        <v>25.51162528991699</v>
       </c>
       <c r="G105" t="n">
-        <v>39.27305603027344</v>
+        <v>37.84152221679688</v>
       </c>
       <c r="H105" t="n">
-        <v>0.08556437492370605</v>
+        <v>2.184269428253174</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-3.137117915526552</v>
+        <v>-12.03758593607614</v>
       </c>
       <c r="B106" t="n">
-        <v>0.06014970019459725</v>
+        <v>0.07314247012138367</v>
       </c>
       <c r="C106" t="n">
-        <v>34.01712417602539</v>
+        <v>33.94397354125977</v>
       </c>
       <c r="D106" t="n">
-        <v>24.67690277099609</v>
+        <v>23.62426376342773</v>
       </c>
       <c r="E106" t="n">
-        <v>-7.625359535217285</v>
+        <v>-7.42302131652832</v>
       </c>
       <c r="F106" t="n">
-        <v>27.71978569030762</v>
+        <v>27.35551834106445</v>
       </c>
       <c r="G106" t="n">
-        <v>42.7676887512207</v>
+        <v>41.67147064208984</v>
       </c>
       <c r="H106" t="n">
-        <v>3.311671733856201</v>
+        <v>4.681254386901855</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.746537818499169</v>
+        <v>-6.220000010970579</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.09988242968916894</v>
+        <v>-0.1124982938170433</v>
       </c>
       <c r="C107" t="n">
-        <v>35.20315170288086</v>
+        <v>34.98066329956055</v>
       </c>
       <c r="D107" t="n">
-        <v>26.26767921447754</v>
+        <v>25.18828201293945</v>
       </c>
       <c r="E107" t="n">
-        <v>-5.125389575958252</v>
+        <v>-4.576029300689697</v>
       </c>
       <c r="F107" t="n">
-        <v>30.75460052490234</v>
+        <v>30.67043304443359</v>
       </c>
       <c r="G107" t="n">
-        <v>45.12648010253906</v>
+        <v>44.69907379150391</v>
       </c>
       <c r="H107" t="n">
-        <v>6.80690860748291</v>
+        <v>7.151017189025879</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.746537818499169</v>
+        <v>-3.369600168885463</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.261859181523323</v>
+        <v>-0.2896044838428498</v>
       </c>
       <c r="C108" t="n">
-        <v>35.87979507446289</v>
+        <v>35.95169830322266</v>
       </c>
       <c r="D108" t="n">
-        <v>27.58687210083008</v>
+        <v>27.02700614929199</v>
       </c>
       <c r="E108" t="n">
-        <v>-2.996134281158447</v>
+        <v>-2.008668422698975</v>
       </c>
       <c r="F108" t="n">
-        <v>34.26322174072266</v>
+        <v>34.19514465332031</v>
       </c>
       <c r="G108" t="n">
-        <v>45.12648010253906</v>
+        <v>46.0806770324707</v>
       </c>
       <c r="H108" t="n">
-        <v>9.683521270751953</v>
+        <v>9.216150283813477</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-0.4083003681898117</v>
+        <v>-2.009217130751249</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.4028055232763291</v>
+        <v>-0.4278022342920303</v>
       </c>
       <c r="C109" t="n">
-        <v>36.50410461425781</v>
+        <v>37.244873046875</v>
       </c>
       <c r="D109" t="n">
-        <v>28.31177711486816</v>
+        <v>28.78019523620605</v>
       </c>
       <c r="E109" t="n">
-        <v>-1.760049104690552</v>
+        <v>-0.4190082550048828</v>
       </c>
       <c r="F109" t="n">
-        <v>37.52174377441406</v>
+        <v>37.132568359375</v>
       </c>
       <c r="G109" t="n">
-        <v>45.20830535888672</v>
+        <v>46.0806770324707</v>
       </c>
       <c r="H109" t="n">
-        <v>11.36839294433594</v>
+        <v>10.66138076782227</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.47086341381073</v>
+        <v>-2.009217130751249</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.5092800372838975</v>
+        <v>-0.5147703331708908</v>
       </c>
       <c r="C110" t="n">
-        <v>37.25031661987305</v>
+        <v>38.6803092956543</v>
       </c>
       <c r="D110" t="n">
-        <v>28.25885009765625</v>
+        <v>28.78019523620605</v>
       </c>
       <c r="E110" t="n">
-        <v>-1.760049104690552</v>
+        <v>-0.4190082550048828</v>
       </c>
       <c r="F110" t="n">
-        <v>40.05014801025391</v>
+        <v>39.09676361083984</v>
       </c>
       <c r="G110" t="n">
-        <v>42.46867370605469</v>
+        <v>41.888916015625</v>
       </c>
       <c r="H110" t="n">
-        <v>11.36839294433594</v>
+        <v>10.66138076782227</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-0.5321957898139954</v>
+        <v>-0.7352815806865692</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.5729249930381776</v>
+        <v>-0.551441330909729</v>
       </c>
       <c r="C111" t="n">
-        <v>37.98184967041016</v>
+        <v>39.63754272460938</v>
       </c>
       <c r="D111" t="n">
-        <v>27.37065696716309</v>
+        <v>29.39042282104492</v>
       </c>
       <c r="E111" t="n">
-        <v>-1.335058212280273</v>
+        <v>0.1490191966295242</v>
       </c>
       <c r="F111" t="n">
-        <v>41.58452606201172</v>
+        <v>39.09676361083984</v>
       </c>
       <c r="G111" t="n">
-        <v>38.56014251708984</v>
+        <v>37.05451583862305</v>
       </c>
       <c r="H111" t="n">
-        <v>12.07474613189697</v>
+        <v>12.06797885894775</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-0.5674628126621246</v>
+        <v>-0.7222052145004273</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.5920493531227112</v>
+        <v>-0.5514328646659852</v>
       </c>
       <c r="C112" t="n">
-        <v>38.40249252319336</v>
+        <v>39.49274826049805</v>
       </c>
       <c r="D112" t="n">
-        <v>25.9217643737793</v>
+        <v>27.39366722106934</v>
       </c>
       <c r="E112" t="n">
-        <v>-2.453075408935547</v>
+        <v>-1.68681526184082</v>
       </c>
       <c r="F112" t="n">
-        <v>41.58452606201172</v>
+        <v>41.06072616577148</v>
       </c>
       <c r="G112" t="n">
-        <v>34.19823455810547</v>
+        <v>31.52283096313477</v>
       </c>
       <c r="H112" t="n">
-        <v>10.36934185028076</v>
+        <v>11.24868106842041</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.5654568815231323</v>
+        <v>-0.6193890023231506</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.5738765609264374</v>
+        <v>-0.5367839252948762</v>
       </c>
       <c r="C113" t="n">
-        <v>38.37856674194336</v>
+        <v>38.35426330566406</v>
       </c>
       <c r="D113" t="n">
-        <v>24.63258361816406</v>
+        <v>25.44475936889648</v>
       </c>
       <c r="E113" t="n">
-        <v>-2.896658420562744</v>
+        <v>-3.070379734039307</v>
       </c>
       <c r="F113" t="n">
-        <v>42.60543823242188</v>
+        <v>40.66486740112305</v>
       </c>
       <c r="G113" t="n">
-        <v>30.45908737182617</v>
+        <v>27.16300964355469</v>
       </c>
       <c r="H113" t="n">
-        <v>8.872048377990723</v>
+        <v>10.03172206878662</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-0.5458306753635407</v>
+        <v>-0.5152464330196381</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.5312751805782319</v>
+        <v>-0.5215205830335617</v>
       </c>
       <c r="C114" t="n">
-        <v>38.14447784423828</v>
+        <v>37.20109176635742</v>
       </c>
       <c r="D114" t="n">
-        <v>24.37157249450684</v>
+        <v>25.44475936889648</v>
       </c>
       <c r="E114" t="n">
-        <v>-2.145489692687988</v>
+        <v>-3.114672183990479</v>
       </c>
       <c r="F114" t="n">
-        <v>41.40174102783203</v>
+        <v>40.25240707397461</v>
       </c>
       <c r="G114" t="n">
-        <v>28.21370697021484</v>
+        <v>25.15524291992188</v>
       </c>
       <c r="H114" t="n">
-        <v>8.282870292663574</v>
+        <v>9.051618576049805</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-0.5398310148715973</v>
+        <v>-0.4944442403316498</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.4766574203968048</v>
+        <v>-0.5007262563705445</v>
       </c>
       <c r="C115" t="n">
-        <v>38.07291793823242</v>
+        <v>36.97074890136719</v>
       </c>
       <c r="D115" t="n">
-        <v>26.57594680786133</v>
+        <v>23.70245933532715</v>
       </c>
       <c r="E115" t="n">
-        <v>0.671877384185791</v>
+        <v>-1.843504905700684</v>
       </c>
       <c r="F115" t="n">
-        <v>39.8585205078125</v>
+        <v>39.69048309326172</v>
       </c>
       <c r="G115" t="n">
-        <v>28.21370697021484</v>
+        <v>25.15524291992188</v>
       </c>
       <c r="H115" t="n">
-        <v>8.821271896362305</v>
+        <v>8.832234382629395</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.5568791234493256</v>
+        <v>-0.566880031824112</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.4190743899345398</v>
+        <v>-0.4629956513643265</v>
       </c>
       <c r="C116" t="n">
-        <v>38.2762565612793</v>
+        <v>37.77283096313477</v>
       </c>
       <c r="D116" t="n">
-        <v>28.12200927734375</v>
+        <v>26.98427963256836</v>
       </c>
       <c r="E116" t="n">
-        <v>2.193201541900635</v>
+        <v>0.06075472384691238</v>
       </c>
       <c r="F116" t="n">
-        <v>38.23151779174805</v>
+        <v>38.67089080810547</v>
       </c>
       <c r="G116" t="n">
-        <v>27.08316230773926</v>
+        <v>27.20565032958984</v>
       </c>
       <c r="H116" t="n">
-        <v>11.31285953521729</v>
+        <v>9.505780220031738</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-0.5781690728664398</v>
+        <v>-0.6772023272514344</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.3643304890394211</v>
+        <v>-0.4062762725353241</v>
       </c>
       <c r="C117" t="n">
-        <v>38.53018951416016</v>
+        <v>38.99443054199219</v>
       </c>
       <c r="D117" t="n">
-        <v>29.45975875854492</v>
+        <v>28.59103393554688</v>
       </c>
       <c r="E117" t="n">
-        <v>3.706732749938965</v>
+        <v>1.872021198272705</v>
       </c>
       <c r="F117" t="n">
-        <v>36.68473434448242</v>
+        <v>37.13816452026367</v>
       </c>
       <c r="G117" t="n">
-        <v>28.96685981750488</v>
+        <v>29.07094955444336</v>
       </c>
       <c r="H117" t="n">
-        <v>12.86305046081543</v>
+        <v>10.86181545257568</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-0.5766805934906006</v>
+        <v>-0.7558484876155853</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.3150017303228378</v>
+        <v>-0.3392403966188431</v>
       </c>
       <c r="C118" t="n">
-        <v>38.51243591308594</v>
+        <v>39.86528015136719</v>
       </c>
       <c r="D118" t="n">
-        <v>29.45975875854492</v>
+        <v>29.71907043457031</v>
       </c>
       <c r="E118" t="n">
-        <v>4.943775177001953</v>
+        <v>3.194157123565674</v>
       </c>
       <c r="F118" t="n">
-        <v>35.29095458984375</v>
+        <v>35.32665634155273</v>
       </c>
       <c r="G118" t="n">
-        <v>30.67696952819824</v>
+        <v>30.60712623596191</v>
       </c>
       <c r="H118" t="n">
-        <v>14.52187252044678</v>
+        <v>12.5377893447876</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-0.5376737654209137</v>
+        <v>-0.7607769787311555</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.2700006753206253</v>
+        <v>-0.2725113904476166</v>
       </c>
       <c r="C119" t="n">
-        <v>38.04718780517578</v>
+        <v>39.91985321044922</v>
       </c>
       <c r="D119" t="n">
-        <v>30.75320053100586</v>
+        <v>29.71907043457031</v>
       </c>
       <c r="E119" t="n">
-        <v>4.943775177001953</v>
+        <v>3.960333347320557</v>
       </c>
       <c r="F119" t="n">
-        <v>34.01945495605469</v>
+        <v>33.52344131469727</v>
       </c>
       <c r="G119" t="n">
-        <v>31.77898406982422</v>
+        <v>30.60712623596191</v>
       </c>
       <c r="H119" t="n">
-        <v>15.98738861083984</v>
+        <v>14.21212673187256</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.4647639906406403</v>
+        <v>-0.6893316113948822</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.2246027335524559</v>
+        <v>-0.2106911313533783</v>
       </c>
       <c r="C120" t="n">
-        <v>37.17756652832031</v>
+        <v>39.12873840332031</v>
       </c>
       <c r="D120" t="n">
-        <v>29.86834335327148</v>
+        <v>30.34597778320312</v>
       </c>
       <c r="E120" t="n">
-        <v>6.684508800506592</v>
+        <v>4.311775684356689</v>
       </c>
       <c r="F120" t="n">
-        <v>32.73674011230469</v>
+        <v>31.85287475585938</v>
       </c>
       <c r="G120" t="n">
-        <v>32.28895950317383</v>
+        <v>32.59775543212891</v>
       </c>
       <c r="H120" t="n">
-        <v>17.1265754699707</v>
+        <v>15.67525959014893</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-0.3730377995967865</v>
+        <v>-0.5670688164234161</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.1720615249872208</v>
+        <v>-0.1506756669282913</v>
       </c>
       <c r="C121" t="n">
-        <v>36.08351516723633</v>
+        <v>37.77492141723633</v>
       </c>
       <c r="D121" t="n">
-        <v>28.7936840057373</v>
+        <v>29.3342170715332</v>
       </c>
       <c r="E121" t="n">
-        <v>6.938469409942627</v>
+        <v>4.483999729156494</v>
       </c>
       <c r="F121" t="n">
-        <v>31.25219345092773</v>
+        <v>30.2310791015625</v>
       </c>
       <c r="G121" t="n">
-        <v>32.44547271728516</v>
+        <v>32.69596862792969</v>
       </c>
       <c r="H121" t="n">
-        <v>17.1265754699707</v>
+        <v>16.803466796875</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.2784440159797669</v>
+        <v>-0.4282339811325073</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.1063014851510525</v>
+        <v>-0.08507797047495842</v>
       </c>
       <c r="C122" t="n">
-        <v>34.95526123046875</v>
+        <v>36.23760223388672</v>
       </c>
       <c r="D122" t="n">
-        <v>28.14931869506836</v>
+        <v>28.5539379119873</v>
       </c>
       <c r="E122" t="n">
-        <v>7.184611797332764</v>
+        <v>4.699499607086182</v>
       </c>
       <c r="F122" t="n">
-        <v>28.24841690063477</v>
+        <v>27.41529655456543</v>
       </c>
       <c r="G122" t="n">
-        <v>32.49488067626953</v>
+        <v>32.70058441162109</v>
       </c>
       <c r="H122" t="n">
-        <v>18.76916885375977</v>
+        <v>17.53767585754395</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.1893874242901802</v>
+        <v>-0.2988795697689057</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.02520179431885481</v>
+        <v>-0.007874114597216248</v>
       </c>
       <c r="C123" t="n">
-        <v>33.89305114746094</v>
+        <v>34.80525970458984</v>
       </c>
       <c r="D123" t="n">
-        <v>28.28582382202148</v>
+        <v>28.50919151306152</v>
       </c>
       <c r="E123" t="n">
-        <v>7.597155094146729</v>
+        <v>5.103886127471924</v>
       </c>
       <c r="F123" t="n">
-        <v>26.36053466796875</v>
+        <v>25.68917465209961</v>
       </c>
       <c r="G123" t="n">
-        <v>32.5723762512207</v>
+        <v>32.70161437988281</v>
       </c>
       <c r="H123" t="n">
-        <v>19.10793495178223</v>
+        <v>17.89140701293945</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.1062556394934654</v>
+        <v>-0.1914717945456505</v>
       </c>
       <c r="B124" t="n">
-        <v>0.06788064435124398</v>
+        <v>0.08127611368894577</v>
       </c>
       <c r="C124" t="n">
-        <v>32.90150833129883</v>
+        <v>33.61593246459961</v>
       </c>
       <c r="D124" t="n">
-        <v>29.20175743103027</v>
+        <v>29.29773139953613</v>
       </c>
       <c r="E124" t="n">
-        <v>8.192262649536133</v>
+        <v>5.694324016571045</v>
       </c>
       <c r="F124" t="n">
-        <v>24.0482292175293</v>
+        <v>23.5518913269043</v>
       </c>
       <c r="G124" t="n">
-        <v>32.70219802856445</v>
+        <v>32.7014274597168</v>
       </c>
       <c r="H124" t="n">
-        <v>19.40449523925781</v>
+        <v>17.98169326782227</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.02482980478554964</v>
+        <v>-0.1060936672985554</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1647390455007553</v>
+        <v>0.1755828189849854</v>
       </c>
       <c r="C125" t="n">
-        <v>31.93031311035156</v>
+        <v>32.67053985595703</v>
       </c>
       <c r="D125" t="n">
-        <v>30.63800811767578</v>
+        <v>30.6904354095459</v>
       </c>
       <c r="E125" t="n">
-        <v>8.87925910949707</v>
+        <v>6.442527294158936</v>
       </c>
       <c r="F125" t="n">
-        <v>21.62542724609375</v>
+        <v>21.28867340087891</v>
       </c>
       <c r="G125" t="n">
-        <v>32.86523818969727</v>
+        <v>32.73386383056641</v>
       </c>
       <c r="H125" t="n">
-        <v>19.78613471984863</v>
+        <v>18.03154182434082</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.05829447135329247</v>
+        <v>-0.03555059067904949</v>
       </c>
       <c r="B126" t="n">
-        <v>0.2543977671861649</v>
+        <v>0.2639946967363357</v>
       </c>
       <c r="C126" t="n">
-        <v>30.9388599395752</v>
+        <v>31.8894157409668</v>
       </c>
       <c r="D126" t="n">
-        <v>32.28220367431641</v>
+        <v>32.310302734375</v>
       </c>
       <c r="E126" t="n">
-        <v>9.63188362121582</v>
+        <v>7.327682018280029</v>
       </c>
       <c r="F126" t="n">
-        <v>19.39580535888672</v>
+        <v>19.18060874938965</v>
       </c>
       <c r="G126" t="n">
-        <v>33.05931854248047</v>
+        <v>32.86735916137695</v>
       </c>
       <c r="H126" t="n">
-        <v>20.31018447875977</v>
+        <v>18.21321678161621</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.1385671693086624</v>
+        <v>0.02465289030224085</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3264717847108841</v>
+        <v>0.3362633430957794</v>
       </c>
       <c r="C127" t="n">
-        <v>29.98141860961914</v>
+        <v>31.22278213500977</v>
       </c>
       <c r="D127" t="n">
-        <v>33.91903686523438</v>
+        <v>33.85068893432617</v>
       </c>
       <c r="E127" t="n">
-        <v>10.51803779602051</v>
+        <v>8.357690811157227</v>
       </c>
       <c r="F127" t="n">
-        <v>17.58857345581055</v>
+        <v>17.44599151611328</v>
       </c>
       <c r="G127" t="n">
-        <v>33.30482864379883</v>
+        <v>33.17264938354492</v>
       </c>
       <c r="H127" t="n">
-        <v>20.90085220336914</v>
+        <v>18.57246017456055</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.2038095757365227</v>
+        <v>0.0763140419125557</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3754841333627701</v>
+        <v>0.3866342395544052</v>
       </c>
       <c r="C128" t="n">
-        <v>29.20324897766113</v>
+        <v>30.65073776245117</v>
       </c>
       <c r="D128" t="n">
-        <v>35.4569091796875</v>
+        <v>35.20492935180664</v>
       </c>
       <c r="E128" t="n">
-        <v>11.57317161560059</v>
+        <v>9.566993713378906</v>
       </c>
       <c r="F128" t="n">
-        <v>16.28317832946777</v>
+        <v>16.17401123046875</v>
       </c>
       <c r="G128" t="n">
-        <v>33.5999755859375</v>
+        <v>33.64313888549805</v>
       </c>
       <c r="H128" t="n">
-        <v>21.39008331298828</v>
+        <v>18.95016479492188</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.2446542578935623</v>
+        <v>0.1153117403388023</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4039238256216049</v>
+        <v>0.4165843349695206</v>
       </c>
       <c r="C129" t="n">
-        <v>28.71607971191406</v>
+        <v>30.21891593933105</v>
       </c>
       <c r="D129" t="n">
-        <v>36.86582946777344</v>
+        <v>36.41019821166992</v>
       </c>
       <c r="E129" t="n">
-        <v>12.70468521118164</v>
+        <v>10.86784934997559</v>
       </c>
       <c r="F129" t="n">
-        <v>16.28317832946777</v>
+        <v>16.17401123046875</v>
       </c>
       <c r="G129" t="n">
-        <v>33.88282012939453</v>
+        <v>34.18784713745117</v>
       </c>
       <c r="H129" t="n">
-        <v>21.59636116027832</v>
+        <v>19.17004013061523</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.2648064294457436</v>
+        <v>0.1435421299934387</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4202677828073502</v>
+        <v>0.4323840200901032</v>
       </c>
       <c r="C130" t="n">
-        <v>28.47571754455566</v>
+        <v>29.90632057189941</v>
       </c>
       <c r="D130" t="n">
-        <v>38.12680053710938</v>
+        <v>37.53018951416016</v>
       </c>
       <c r="E130" t="n">
-        <v>13.75075531005859</v>
+        <v>12.09978675842285</v>
       </c>
       <c r="F130" t="n">
-        <v>14.51598644256592</v>
+        <v>14.47507858276367</v>
       </c>
       <c r="G130" t="n">
-        <v>34.03549194335938</v>
+        <v>34.63704299926758</v>
       </c>
       <c r="H130" t="n">
-        <v>21.29647254943848</v>
+        <v>19.00667381286621</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.2750399541854859</v>
+        <v>0.1654705068469048</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4359075254201889</v>
+        <v>0.4434512013196946</v>
       </c>
       <c r="C131" t="n">
-        <v>28.35365867614746</v>
+        <v>29.66350746154785</v>
       </c>
       <c r="D131" t="n">
-        <v>39.16824722290039</v>
+        <v>38.55720138549805</v>
       </c>
       <c r="E131" t="n">
-        <v>14.44199371337891</v>
+        <v>12.98734283447266</v>
       </c>
       <c r="F131" t="n">
-        <v>14.07408714294434</v>
+        <v>14.17601108551025</v>
       </c>
       <c r="G131" t="n">
-        <v>33.96077728271484</v>
+        <v>34.8475227355957</v>
       </c>
       <c r="H131" t="n">
-        <v>20.38013648986816</v>
+        <v>18.34814071655273</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.2879801654815674</v>
+        <v>0.1892845341563225</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4582694339752197</v>
+        <v>0.4571981698274613</v>
       </c>
       <c r="C132" t="n">
-        <v>28.19931602478027</v>
+        <v>29.39981460571289</v>
       </c>
       <c r="D132" t="n">
-        <v>39.95553970336914</v>
+        <v>39.42901611328125</v>
       </c>
       <c r="E132" t="n">
-        <v>14.49232292175293</v>
+        <v>13.20596885681152</v>
       </c>
       <c r="F132" t="n">
-        <v>13.44225311279297</v>
+        <v>13.80452728271484</v>
       </c>
       <c r="G132" t="n">
-        <v>33.63581466674805</v>
+        <v>34.75067138671875</v>
       </c>
       <c r="H132" t="n">
-        <v>17.47765731811523</v>
+        <v>17.1043586730957</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.3087899082899094</v>
+        <v>0.2219345715641975</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4866490095853806</v>
+        <v>0.4749375092983246</v>
       </c>
       <c r="C133" t="n">
-        <v>27.95111083984375</v>
+        <v>29.03828048706055</v>
       </c>
       <c r="D133" t="n">
-        <v>40.56315612792969</v>
+        <v>40.10299301147461</v>
       </c>
       <c r="E133" t="n">
-        <v>13.68746185302734</v>
+        <v>12.45911598205566</v>
       </c>
       <c r="F133" t="n">
-        <v>12.64039134979248</v>
+        <v>13.32515716552734</v>
       </c>
       <c r="G133" t="n">
-        <v>33.14391708374023</v>
+        <v>34.39847183227539</v>
       </c>
       <c r="H133" t="n">
-        <v>15.09155654907227</v>
+        <v>13.69491100311279</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.3247718387842178</v>
+        <v>0.2584849095344544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5127592211961747</v>
+        <v>0.4907739025354386</v>
       </c>
       <c r="C134" t="n">
-        <v>27.76048851013184</v>
+        <v>28.63355827331543</v>
       </c>
       <c r="D134" t="n">
-        <v>41.17427444458008</v>
+        <v>40.63929748535156</v>
       </c>
       <c r="E134" t="n">
-        <v>10.25464916229248</v>
+        <v>8.741776466369629</v>
       </c>
       <c r="F134" t="n">
-        <v>11.90264987945557</v>
+        <v>12.8972110748291</v>
       </c>
       <c r="G134" t="n">
-        <v>32.71339797973633</v>
+        <v>34.01949310302734</v>
       </c>
       <c r="H134" t="n">
-        <v>11.62558174133301</v>
+        <v>11.0080509185791</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.3112010818719864</v>
+        <v>0.2815913105010986</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5215210884809495</v>
+        <v>0.4918884456157684</v>
       </c>
       <c r="C135" t="n">
-        <v>27.9223518371582</v>
+        <v>28.37770080566406</v>
       </c>
       <c r="D135" t="n">
-        <v>42.04123687744141</v>
+        <v>41.21183013916016</v>
       </c>
       <c r="E135" t="n">
-        <v>7.262139320373535</v>
+        <v>5.481441497802734</v>
       </c>
       <c r="F135" t="n">
-        <v>11.65508365631104</v>
+        <v>12.86709308624268</v>
       </c>
       <c r="G135" t="n">
-        <v>32.72240447998047</v>
+        <v>34.03760528564453</v>
       </c>
       <c r="H135" t="n">
-        <v>7.274278163909912</v>
+        <v>7.241837024688721</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.2479659017920494</v>
+        <v>0.266373205780983</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5492003834466672</v>
+        <v>0.5536245439940625</v>
       </c>
       <c r="C136" t="n">
-        <v>28.67658042907715</v>
+        <v>28.54621124267578</v>
       </c>
       <c r="D136" t="n">
-        <v>43.29605484008789</v>
+        <v>41.98770141601562</v>
       </c>
       <c r="E136" t="n">
-        <v>3.216516017913818</v>
+        <v>1.181314945220947</v>
       </c>
       <c r="F136" t="n">
-        <v>12.28180027008057</v>
+        <v>13.57736492156982</v>
       </c>
       <c r="G136" t="n">
-        <v>33.57785797119141</v>
+        <v>36.06854248046875</v>
       </c>
       <c r="H136" t="n">
-        <v>2.571205139160156</v>
+        <v>2.909084796905518</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.8014472888648498</v>
+        <v>0.7241163012946994</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6260727940537429</v>
+        <v>0.6581193248848123</v>
       </c>
       <c r="C137" t="n">
-        <v>29.96515083312988</v>
+        <v>29.28881454467773</v>
       </c>
       <c r="D137" t="n">
-        <v>44.90781784057617</v>
+        <v>43.05604934692383</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.9537546634674072</v>
+        <v>-3.092020750045776</v>
       </c>
       <c r="F137" t="n">
-        <v>15.26238441467285</v>
+        <v>16.38583946228027</v>
       </c>
       <c r="G137" t="n">
-        <v>36.8961067199707</v>
+        <v>38.2501220703125</v>
       </c>
       <c r="H137" t="n">
-        <v>-1.702169179916382</v>
+        <v>-1.108741521835327</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.9962492123671062</v>
+        <v>0.9534950625606901</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7544212576738119</v>
+        <v>0.7952448118594579</v>
       </c>
       <c r="C138" t="n">
-        <v>31.51474189758301</v>
+        <v>30.50649452209473</v>
       </c>
       <c r="D138" t="n">
-        <v>47.82433700561523</v>
+        <v>44.50319290161133</v>
       </c>
       <c r="E138" t="n">
-        <v>-4.123392105102539</v>
+        <v>-6.195268154144287</v>
       </c>
       <c r="F138" t="n">
-        <v>17.42943382263184</v>
+        <v>18.37292098999023</v>
       </c>
       <c r="G138" t="n">
-        <v>39.18652725219727</v>
+        <v>41.21759033203125</v>
       </c>
       <c r="H138" t="n">
-        <v>-4.984394073486328</v>
+        <v>-4.10389232635498</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.000915370959769</v>
+        <v>1.004356133940028</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8885821352133445</v>
+        <v>0.9170899237183603</v>
       </c>
       <c r="C139" t="n">
-        <v>33.17690658569336</v>
+        <v>32.04548645019531</v>
       </c>
       <c r="D139" t="n">
-        <v>49.44530868530273</v>
+        <v>47.48896026611328</v>
       </c>
       <c r="E139" t="n">
-        <v>-5.714744567871094</v>
+        <v>-7.651289939880371</v>
       </c>
       <c r="F139" t="n">
-        <v>20.04473495483398</v>
+        <v>20.73750686645508</v>
       </c>
       <c r="G139" t="n">
-        <v>41.84962463378906</v>
+        <v>44.47482299804688</v>
       </c>
       <c r="H139" t="n">
-        <v>-7.095464706420898</v>
+        <v>-5.798201560974121</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9995172816789658</v>
+        <v>0.9982198551960944</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9722437236087734</v>
+        <v>0.982301581840466</v>
       </c>
       <c r="C140" t="n">
-        <v>34.9677848815918</v>
+        <v>34.95272064208984</v>
       </c>
       <c r="D140" t="n">
-        <v>51.29404449462891</v>
+        <v>49.15275192260742</v>
       </c>
       <c r="E140" t="n">
-        <v>-5.714744567871094</v>
+        <v>-7.651289939880371</v>
       </c>
       <c r="F140" t="n">
-        <v>22.79244804382324</v>
+        <v>23.18907928466797</v>
       </c>
       <c r="G140" t="n">
-        <v>44.48608016967773</v>
+        <v>47.51011657714844</v>
       </c>
       <c r="H140" t="n">
-        <v>-7.095464706420898</v>
+        <v>-5.798201560974121</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.000397949167483</v>
+        <v>1.001369728408424</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9984236938809543</v>
+        <v>0.9993589912933802</v>
       </c>
       <c r="C141" t="n">
-        <v>36.84555435180664</v>
+        <v>36.59421539306641</v>
       </c>
       <c r="D141" t="n">
-        <v>53.04511642456055</v>
+        <v>50.98218536376953</v>
       </c>
       <c r="E141" t="n">
-        <v>-6.106744289398193</v>
+        <v>-7.743111133575439</v>
       </c>
       <c r="F141" t="n">
-        <v>25.51083183288574</v>
+        <v>25.60787963867188</v>
       </c>
       <c r="G141" t="n">
-        <v>46.87417602539062</v>
+        <v>49.96425628662109</v>
       </c>
       <c r="H141" t="n">
-        <v>-8.885211944580078</v>
+        <v>-5.317698001861572</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.9995596400167998</v>
+        <v>0.9984269259391725</v>
       </c>
       <c r="B142" t="n">
-        <v>1.000193534798618</v>
+        <v>1.000083573873634</v>
       </c>
       <c r="C142" t="n">
-        <v>38.62936401367188</v>
+        <v>38.44126510620117</v>
       </c>
       <c r="D142" t="n">
-        <v>54.42151641845703</v>
+        <v>52.66939544677734</v>
       </c>
       <c r="E142" t="n">
-        <v>-4.522134780883789</v>
+        <v>-5.961706161499023</v>
       </c>
       <c r="F142" t="n">
-        <v>28.16021728515625</v>
+        <v>28.00579452514648</v>
       </c>
       <c r="G142" t="n">
-        <v>48.94995880126953</v>
+        <v>51.7476806640625</v>
       </c>
       <c r="H142" t="n">
-        <v>-5.714235305786133</v>
+        <v>-3.24869966506958</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.000589241782615</v>
+        <v>1.002356799187474</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9999428899799849</v>
+        <v>0.9999752331158505</v>
       </c>
       <c r="C143" t="n">
-        <v>40.09290313720703</v>
+        <v>40.1890869140625</v>
       </c>
       <c r="D143" t="n">
-        <v>54.42151641845703</v>
+        <v>54.00979995727539</v>
       </c>
       <c r="E143" t="n">
-        <v>-2.805680274963379</v>
+        <v>-2.988543510437012</v>
       </c>
       <c r="F143" t="n">
-        <v>30.77169418334961</v>
+        <v>30.44832229614258</v>
       </c>
       <c r="G143" t="n">
-        <v>50.798583984375</v>
+        <v>53.06891632080078</v>
       </c>
       <c r="H143" t="n">
-        <v>-3.377523422241211</v>
+        <v>-0.8923913240432739</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.9991140192439757</v>
+        <v>0.9958069594960299</v>
       </c>
       <c r="B144" t="n">
-        <v>1.000026667284108</v>
+        <v>1.000011640528761</v>
       </c>
       <c r="C144" t="n">
-        <v>41.13913345336914</v>
+        <v>41.7440185546875</v>
       </c>
       <c r="D144" t="n">
-        <v>56.03919219970703</v>
+        <v>54.00979995727539</v>
       </c>
       <c r="E144" t="n">
-        <v>-1.087097644805908</v>
+        <v>-1.553673028945923</v>
       </c>
       <c r="F144" t="n">
-        <v>33.40200805664062</v>
+        <v>32.97460174560547</v>
       </c>
       <c r="G144" t="n">
-        <v>52.60910797119141</v>
+        <v>54.31957244873047</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.8195854425430298</v>
+        <v>1.275893449783325</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.001429468445944</v>
+        <v>1.008433094678368</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9999828302747258</v>
+        <v>0.9999924075742818</v>
       </c>
       <c r="C145" t="n">
-        <v>41.83346176147461</v>
+        <v>43.09194564819336</v>
       </c>
       <c r="D145" t="n">
-        <v>55.52206802368164</v>
+        <v>55.75093078613281</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3457655310630798</v>
+        <v>-0.1109875440597534</v>
       </c>
       <c r="F145" t="n">
-        <v>36.08348846435547</v>
+        <v>35.57519149780273</v>
       </c>
       <c r="G145" t="n">
-        <v>54.55729675292969</v>
+        <v>55.7908935546875</v>
       </c>
       <c r="H145" t="n">
-        <v>1.42531681060791</v>
+        <v>2.942543983459473</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.9975774557487407</v>
+        <v>0.981399798535872</v>
       </c>
       <c r="B146" t="n">
-        <v>1.000014187836355</v>
+        <v>1.000006370100447</v>
       </c>
       <c r="C146" t="n">
-        <v>42.34731292724609</v>
+        <v>44.30030059814453</v>
       </c>
       <c r="D146" t="n">
-        <v>54.30450439453125</v>
+        <v>55.63649368286133</v>
       </c>
       <c r="E146" t="n">
-        <v>1.118808269500732</v>
+        <v>0.9859088063240051</v>
       </c>
       <c r="F146" t="n">
-        <v>38.78875350952148</v>
+        <v>38.1533203125</v>
       </c>
       <c r="G146" t="n">
-        <v>56.68264770507812</v>
+        <v>57.54704284667969</v>
       </c>
       <c r="H146" t="n">
-        <v>3.083921194076538</v>
+        <v>4.051600456237793</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.004321080689209</v>
+        <v>1.044412367801356</v>
       </c>
       <c r="B147" t="n">
-        <v>0.9999856906006988</v>
+        <v>0.999993518751512</v>
       </c>
       <c r="C147" t="n">
-        <v>42.9097900390625</v>
+        <v>45.47965240478516</v>
       </c>
       <c r="D147" t="n">
-        <v>51.19892883300781</v>
+        <v>55.1598014831543</v>
       </c>
       <c r="E147" t="n">
-        <v>0.8660473227500916</v>
+        <v>0.9859088063240051</v>
       </c>
       <c r="F147" t="n">
-        <v>41.41910934448242</v>
+        <v>40.53144073486328</v>
       </c>
       <c r="G147" t="n">
-        <v>58.84023284912109</v>
+        <v>59.38214111328125</v>
       </c>
       <c r="H147" t="n">
-        <v>3.083921194076538</v>
+        <v>4.051600456237793</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.9916841940741427</v>
+        <v>0.885249504313591</v>
       </c>
       <c r="B148" t="n">
-        <v>1.000016873851248</v>
+        <v>1.000007580004241</v>
       </c>
       <c r="C148" t="n">
-        <v>43.79972076416016</v>
+        <v>46.74703216552734</v>
       </c>
       <c r="D148" t="n">
-        <v>48.9793701171875</v>
+        <v>54.47291564941406</v>
       </c>
       <c r="E148" t="n">
-        <v>-2.630176067352295</v>
+        <v>0.3638231456279755</v>
       </c>
       <c r="F148" t="n">
-        <v>43.79787063598633</v>
+        <v>42.47809600830078</v>
       </c>
       <c r="G148" t="n">
-        <v>60.68791198730469</v>
+        <v>60.84697341918945</v>
       </c>
       <c r="H148" t="n">
-        <v>4.990987300872803</v>
+        <v>5.292534351348877</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.017959456286689</v>
+        <v>1.32298881601578</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9999777052310851</v>
+        <v>0.9999903330557793</v>
       </c>
       <c r="C149" t="n">
-        <v>46.35749816894531</v>
+        <v>48.11114501953125</v>
       </c>
       <c r="D149" t="n">
-        <v>45.94411087036133</v>
+        <v>53.52779006958008</v>
       </c>
       <c r="E149" t="n">
-        <v>-6.335098266601562</v>
+        <v>-3.098389387130737</v>
       </c>
       <c r="F149" t="n">
-        <v>45.64588165283203</v>
+        <v>43.73797225952148</v>
       </c>
       <c r="G149" t="n">
-        <v>60.68791198730469</v>
+        <v>60.84697341918945</v>
       </c>
       <c r="H149" t="n">
-        <v>2.760807514190674</v>
+        <v>4.899436473846436</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.9551282771691162</v>
+        <v>2.085253760363248</v>
       </c>
       <c r="B150" t="n">
-        <v>1.000031418336595</v>
+        <v>1.000012715283947</v>
       </c>
       <c r="C150" t="n">
-        <v>48.01365280151367</v>
+        <v>49.17429351806641</v>
       </c>
       <c r="D150" t="n">
-        <v>42.39552307128906</v>
+        <v>49.687255859375</v>
       </c>
       <c r="E150" t="n">
-        <v>-11.46210479736328</v>
+        <v>-8.82612133026123</v>
       </c>
       <c r="F150" t="n">
-        <v>46.6462516784668</v>
+        <v>43.73797225952148</v>
       </c>
       <c r="G150" t="n">
-        <v>60.93573760986328</v>
+        <v>59.03341674804688</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.07579576969146729</v>
+        <v>1.996307611465454</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.128021911576083</v>
+        <v>-3.159955986428865</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9999554040680479</v>
+        <v>0.9999837318479439</v>
       </c>
       <c r="C151" t="n">
-        <v>49.37442398071289</v>
+        <v>49.17429351806641</v>
       </c>
       <c r="D151" t="n">
-        <v>38.88152694702148</v>
+        <v>45.07358169555664</v>
       </c>
       <c r="E151" t="n">
-        <v>-16.40487670898438</v>
+        <v>-14.46910858154297</v>
       </c>
       <c r="F151" t="n">
-        <v>46.6462516784668</v>
+        <v>44.48340606689453</v>
       </c>
       <c r="G151" t="n">
-        <v>56.80542755126953</v>
+        <v>53.21829986572266</v>
       </c>
       <c r="H151" t="n">
-        <v>-3.110097408294678</v>
+        <v>0.1805777549743652</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.6131692082636075</v>
+        <v>10.4123728236837</v>
       </c>
       <c r="B152" t="n">
-        <v>1.000061126943854</v>
+        <v>1.000019611511692</v>
       </c>
       <c r="C152" t="n">
-        <v>49.37442398071289</v>
+        <v>47.40031433105469</v>
       </c>
       <c r="D152" t="n">
-        <v>35.79028701782227</v>
+        <v>39.12739562988281</v>
       </c>
       <c r="E152" t="n">
-        <v>-18.9603157043457</v>
+        <v>-16.80603408813477</v>
       </c>
       <c r="F152" t="n">
-        <v>46.91674423217773</v>
+        <v>43.42497634887695</v>
       </c>
       <c r="G152" t="n">
-        <v>50.69232559204102</v>
+        <v>45.80568695068359</v>
       </c>
       <c r="H152" t="n">
-        <v>-3.110097408294678</v>
+        <v>0.1805777549743652</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.07710036520368013</v>
+        <v>-17.01831233512039</v>
       </c>
       <c r="B153" t="n">
-        <v>0.999919440975751</v>
+        <v>0.9999766843494637</v>
       </c>
       <c r="C153" t="n">
-        <v>50.04013442993164</v>
+        <v>45.25029754638672</v>
       </c>
       <c r="D153" t="n">
-        <v>33.214599609375</v>
+        <v>34.21307373046875</v>
       </c>
       <c r="E153" t="n">
-        <v>-17.77363204956055</v>
+        <v>-15.22868537902832</v>
       </c>
       <c r="F153" t="n">
-        <v>46.12625122070312</v>
+        <v>43.1866569519043</v>
       </c>
       <c r="G153" t="n">
-        <v>44.34332656860352</v>
+        <v>39.94323348999023</v>
       </c>
       <c r="H153" t="n">
-        <v>-2.365607023239136</v>
+        <v>0.7180688381195068</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.07710036520368013</v>
+        <v>-8.382526433520889</v>
       </c>
       <c r="B154" t="n">
-        <v>1.000103301519452</v>
+        <v>1.00002888897242</v>
       </c>
       <c r="C154" t="n">
-        <v>38.36616134643555</v>
+        <v>36.97085952758789</v>
       </c>
       <c r="D154" t="n">
-        <v>28.17594146728516</v>
+        <v>28.35160064697266</v>
       </c>
       <c r="E154" t="n">
-        <v>-13.42130279541016</v>
+        <v>-12.19581031799316</v>
       </c>
       <c r="F154" t="n">
-        <v>32.88759613037109</v>
+        <v>31.66833114624023</v>
       </c>
       <c r="G154" t="n">
-        <v>36.69306182861328</v>
+        <v>34.08824157714844</v>
       </c>
       <c r="H154" t="n">
-        <v>-3.701221466064453</v>
+        <v>-1.547875046730042</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.2697280812263489</v>
+        <v>-4.198455171369451</v>
       </c>
       <c r="B155" t="n">
-        <v>0.2197398716211319</v>
+        <v>0.2489660558104515</v>
       </c>
       <c r="C155" t="n">
-        <v>34.80034255981445</v>
+        <v>34.31295013427734</v>
       </c>
       <c r="D155" t="n">
-        <v>25.38275718688965</v>
+        <v>24.43090057373047</v>
       </c>
       <c r="E155" t="n">
-        <v>-11.610107421875</v>
+        <v>-12.19581031799316</v>
       </c>
       <c r="F155" t="n">
-        <v>26.19303512573242</v>
+        <v>24.97173118591309</v>
       </c>
       <c r="G155" t="n">
-        <v>35.62135314941406</v>
+        <v>34.08824157714844</v>
       </c>
       <c r="H155" t="n">
-        <v>-3.701221466064453</v>
+        <v>-1.547875046730042</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.03350576378405094</v>
+        <v>-2.176471011083791</v>
       </c>
       <c r="B156" t="n">
-        <v>0.2439271402359009</v>
+        <v>0.2917609435319901</v>
       </c>
       <c r="C156" t="n">
-        <v>34.80034255981445</v>
+        <v>34.31295013427734</v>
       </c>
       <c r="D156" t="n">
-        <v>24.30978393554688</v>
+        <v>22.29732894897461</v>
       </c>
       <c r="E156" t="n">
-        <v>-10.19003391265869</v>
+        <v>-10.24639225006104</v>
       </c>
       <c r="F156" t="n">
-        <v>23.98748779296875</v>
+        <v>22.92899513244629</v>
       </c>
       <c r="G156" t="n">
-        <v>38.28812408447266</v>
+        <v>36.12114715576172</v>
       </c>
       <c r="H156" t="n">
-        <v>-1.639328598976135</v>
+        <v>1.082264423370361</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-0.1232221657037735</v>
+        <v>-2.176471011083791</v>
       </c>
       <c r="B157" t="n">
-        <v>0.163110494017601</v>
+        <v>0.1951346769928932</v>
       </c>
       <c r="C157" t="n">
-        <v>33.10387420654297</v>
+        <v>33.20639801025391</v>
       </c>
       <c r="D157" t="n">
-        <v>24.30978393554688</v>
+        <v>22.29732894897461</v>
       </c>
       <c r="E157" t="n">
-        <v>-8.142646789550781</v>
+        <v>-7.702182769775391</v>
       </c>
       <c r="F157" t="n">
-        <v>23.98748779296875</v>
+        <v>24.23190689086914</v>
       </c>
       <c r="G157" t="n">
-        <v>41.95027160644531</v>
+        <v>40.21321105957031</v>
       </c>
       <c r="H157" t="n">
-        <v>1.33026647567749</v>
+        <v>3.459087371826172</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-0.1940936923027039</v>
+        <v>-0.1890919587016106</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0223511914908886</v>
+        <v>0.02311217412352562</v>
       </c>
       <c r="C158" t="n">
-        <v>33.94918441772461</v>
+        <v>33.58958053588867</v>
       </c>
       <c r="D158" t="n">
-        <v>24.52471160888672</v>
+        <v>22.46842193603516</v>
       </c>
       <c r="E158" t="n">
-        <v>-5.521588802337646</v>
+        <v>-5.037322998046875</v>
       </c>
       <c r="F158" t="n">
-        <v>27.95952606201172</v>
+        <v>27.3188362121582</v>
       </c>
       <c r="G158" t="n">
-        <v>44.77605438232422</v>
+        <v>43.79942321777344</v>
       </c>
       <c r="H158" t="n">
-        <v>4.971500396728516</v>
+        <v>5.945253372192383</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-0.2180628445744515</v>
+        <v>-0.2152391311526299</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.1334055089950562</v>
+        <v>-0.1571401020884514</v>
       </c>
       <c r="C159" t="n">
-        <v>34.23507308959961</v>
+        <v>33.87910842895508</v>
       </c>
       <c r="D159" t="n">
-        <v>25.83928489685059</v>
+        <v>24.38786315917969</v>
       </c>
       <c r="E159" t="n">
-        <v>-2.938163042068481</v>
+        <v>-2.107010126113892</v>
       </c>
       <c r="F159" t="n">
-        <v>31.11392974853516</v>
+        <v>30.92543411254883</v>
       </c>
       <c r="G159" t="n">
-        <v>46.016357421875</v>
+        <v>46.01315307617188</v>
       </c>
       <c r="H159" t="n">
-        <v>8.388774871826172</v>
+        <v>8.204769134521484</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-0.2386341425776482</v>
+        <v>-0.2921228122711182</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.2788090121746064</v>
+        <v>-0.309834857583046</v>
       </c>
       <c r="C160" t="n">
-        <v>34.48043441772461</v>
+        <v>34.73044204711914</v>
       </c>
       <c r="D160" t="n">
-        <v>26.8640251159668</v>
+        <v>26.71616744995117</v>
       </c>
       <c r="E160" t="n">
-        <v>-1.085412383079529</v>
+        <v>0.1996809244155884</v>
       </c>
       <c r="F160" t="n">
-        <v>34.41030883789062</v>
+        <v>34.17555618286133</v>
       </c>
       <c r="G160" t="n">
-        <v>46.016357421875</v>
+        <v>46.01315307617188</v>
       </c>
       <c r="H160" t="n">
-        <v>10.8121280670166</v>
+        <v>10.01878356933594</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-0.2825569993257523</v>
+        <v>-0.4276872766017914</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.4004995459318161</v>
+        <v>-0.416915876865387</v>
       </c>
       <c r="C161" t="n">
-        <v>35.00431823730469</v>
+        <v>36.23154830932617</v>
       </c>
       <c r="D161" t="n">
-        <v>27.4345531463623</v>
+        <v>28.74462509155273</v>
       </c>
       <c r="E161" t="n">
-        <v>-1.085412383079529</v>
+        <v>1.233852863311768</v>
       </c>
       <c r="F161" t="n">
-        <v>37.3182373046875</v>
+        <v>36.56505584716797</v>
       </c>
       <c r="G161" t="n">
-        <v>43.3814811706543</v>
+        <v>44.58775329589844</v>
       </c>
       <c r="H161" t="n">
-        <v>11.82014656066895</v>
+        <v>11.21976661682129</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-0.3511558449268341</v>
+        <v>-0.5774917733669281</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.4896692788600922</v>
+        <v>-0.4734928458929062</v>
       </c>
       <c r="C162" t="n">
-        <v>35.8225212097168</v>
+        <v>37.89033508300781</v>
       </c>
       <c r="D162" t="n">
-        <v>27.3711986541748</v>
+        <v>28.74462509155273</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3168300986289978</v>
+        <v>1.233852863311768</v>
       </c>
       <c r="F162" t="n">
-        <v>39.50157165527344</v>
+        <v>37.97220611572266</v>
       </c>
       <c r="G162" t="n">
-        <v>40.08802032470703</v>
+        <v>40.13765716552734</v>
       </c>
       <c r="H162" t="n">
-        <v>11.82014656066895</v>
+        <v>11.21976661682129</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-0.4209850442409516</v>
+        <v>-0.6552022874355317</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.5412970018386841</v>
+        <v>-0.4892128282785416</v>
       </c>
       <c r="C163" t="n">
-        <v>36.65539932250977</v>
+        <v>38.75082397460938</v>
       </c>
       <c r="D163" t="n">
-        <v>26.58533477783203</v>
+        <v>29.06721878051758</v>
       </c>
       <c r="E163" t="n">
-        <v>-1.088155746459961</v>
+        <v>-0.6609971523284912</v>
       </c>
       <c r="F163" t="n">
-        <v>40.82569122314453</v>
+        <v>37.97220611572266</v>
       </c>
       <c r="G163" t="n">
-        <v>35.72192001342773</v>
+        <v>33.91640853881836</v>
       </c>
       <c r="H163" t="n">
-        <v>10.0856819152832</v>
+        <v>12.06086444854736</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-0.4643475651741028</v>
+        <v>-0.5994473969936371</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.5577509570121766</v>
+        <v>-0.4879444712400436</v>
       </c>
       <c r="C164" t="n">
-        <v>37.17259979248047</v>
+        <v>38.13344955444336</v>
       </c>
       <c r="D164" t="n">
-        <v>25.36841011047363</v>
+        <v>26.85095405578613</v>
       </c>
       <c r="E164" t="n">
-        <v>-2.305575847625732</v>
+        <v>-1.784084439277649</v>
       </c>
       <c r="F164" t="n">
-        <v>40.82569122314453</v>
+        <v>39.3450813293457</v>
       </c>
       <c r="G164" t="n">
-        <v>31.21613311767578</v>
+        <v>27.73345184326172</v>
       </c>
       <c r="H164" t="n">
-        <v>8.954099655151367</v>
+        <v>10.84854221343994</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-0.4807086759805679</v>
+        <v>-0.4642022806406021</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.5484974789619446</v>
+        <v>-0.4945237535238266</v>
       </c>
       <c r="C165" t="n">
-        <v>37.36774444580078</v>
+        <v>36.63587951660156</v>
       </c>
       <c r="D165" t="n">
-        <v>24.47462844848633</v>
+        <v>24.95302391052246</v>
       </c>
       <c r="E165" t="n">
-        <v>-2.370637893676758</v>
+        <v>-1.784084439277649</v>
       </c>
       <c r="F165" t="n">
-        <v>41.88835525512695</v>
+        <v>39.52287292480469</v>
       </c>
       <c r="G165" t="n">
-        <v>27.73846244812012</v>
+        <v>23.63934707641602</v>
       </c>
       <c r="H165" t="n">
-        <v>8.954099655151367</v>
+        <v>9.436692237854004</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-0.498361868262291</v>
+        <v>-0.3825472235679627</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.5228276067972184</v>
+        <v>-0.5111714845895767</v>
       </c>
       <c r="C166" t="n">
-        <v>37.57830047607422</v>
+        <v>35.73171234130859</v>
       </c>
       <c r="D166" t="n">
-        <v>24.70993804931641</v>
+        <v>24.95302391052246</v>
       </c>
       <c r="E166" t="n">
-        <v>-0.01267457008361816</v>
+        <v>-2.353993892669678</v>
       </c>
       <c r="F166" t="n">
-        <v>41.16305541992188</v>
+        <v>39.97274398803711</v>
       </c>
       <c r="G166" t="n">
-        <v>26.0534553527832</v>
+        <v>22.55796051025391</v>
       </c>
       <c r="H166" t="n">
-        <v>7.935290813446045</v>
+        <v>8.642233848571777</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-0.5383649015426636</v>
+        <v>-0.4362347394227982</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.4846739107370377</v>
+        <v>-0.5164319914579392</v>
       </c>
       <c r="C167" t="n">
-        <v>38.0554313659668</v>
+        <v>36.32619476318359</v>
       </c>
       <c r="D167" t="n">
-        <v>27.38214874267578</v>
+        <v>25.07121849060059</v>
       </c>
       <c r="E167" t="n">
-        <v>1.683154702186584</v>
+        <v>0.4913429915904999</v>
       </c>
       <c r="F167" t="n">
-        <v>40.08502578735352</v>
+        <v>40.11489868164062</v>
       </c>
       <c r="G167" t="n">
-        <v>26.0534553527832</v>
+        <v>23.97626113891602</v>
       </c>
       <c r="H167" t="n">
-        <v>10.50594711303711</v>
+        <v>8.86555290222168</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-0.588628990650177</v>
+        <v>-0.6010837829113007</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.4352307629585266</v>
+        <v>-0.4886562359333039</v>
       </c>
       <c r="C168" t="n">
-        <v>38.65494918823242</v>
+        <v>39.15215301513672</v>
       </c>
       <c r="D168" t="n">
-        <v>28.82319450378418</v>
+        <v>27.03629684448242</v>
       </c>
       <c r="E168" t="n">
-        <v>3.527788162231445</v>
+        <v>1.83364725112915</v>
       </c>
       <c r="F168" t="n">
-        <v>38.68801498413086</v>
+        <v>39.36431503295898</v>
       </c>
       <c r="G168" t="n">
-        <v>27.45755004882812</v>
+        <v>26.55950164794922</v>
       </c>
       <c r="H168" t="n">
-        <v>12.39580535888672</v>
+        <v>10.05133152008057</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-0.6149911046028137</v>
+        <v>-0.781808581352234</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.3776740789413452</v>
+        <v>-0.424101727604866</v>
       </c>
       <c r="C169" t="n">
-        <v>38.96937942504883</v>
+        <v>40.19609069824219</v>
       </c>
       <c r="D169" t="n">
-        <v>28.82319450378418</v>
+        <v>28.80117797851562</v>
       </c>
       <c r="E169" t="n">
-        <v>5.155874252319336</v>
+        <v>2.95715856552124</v>
       </c>
       <c r="F169" t="n">
-        <v>37.0617561340332</v>
+        <v>36.44278717041016</v>
       </c>
       <c r="G169" t="n">
-        <v>29.01037979125977</v>
+        <v>29.01421356201172</v>
       </c>
       <c r="H169" t="n">
-        <v>14.51853466033936</v>
+        <v>12.90632724761963</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-0.5899803042411804</v>
+        <v>-0.8800012135505677</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.3174154311418533</v>
+        <v>-0.3369849956035614</v>
       </c>
       <c r="C170" t="n">
-        <v>38.67106628417969</v>
+        <v>40.19609069824219</v>
       </c>
       <c r="D170" t="n">
-        <v>30.78780364990234</v>
+        <v>28.80117797851562</v>
       </c>
       <c r="E170" t="n">
-        <v>6.363457679748535</v>
+        <v>2.95715856552124</v>
       </c>
       <c r="F170" t="n">
-        <v>35.35915374755859</v>
+        <v>34.63814544677734</v>
       </c>
       <c r="G170" t="n">
-        <v>30.27463150024414</v>
+        <v>30.64290809631348</v>
       </c>
       <c r="H170" t="n">
-        <v>16.41446876525879</v>
+        <v>14.35880851745605</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-0.5114274621009827</v>
+        <v>-0.8492569971084595</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.2583674088120461</v>
+        <v>-0.246979995071888</v>
       </c>
       <c r="C171" t="n">
-        <v>37.73413848876953</v>
+        <v>40.89959335327148</v>
       </c>
       <c r="D171" t="n">
-        <v>29.99477195739746</v>
+        <v>30.46464920043945</v>
       </c>
       <c r="E171" t="n">
-        <v>6.363457679748535</v>
+        <v>4.351813793182373</v>
       </c>
       <c r="F171" t="n">
-        <v>33.69075775146484</v>
+        <v>32.64461517333984</v>
       </c>
       <c r="G171" t="n">
-        <v>30.27463150024414</v>
+        <v>30.64290809631348</v>
       </c>
       <c r="H171" t="n">
-        <v>17.81562423706055</v>
+        <v>15.80014991760254</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.4011253529787064</v>
+        <v>-0.7096842086315155</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.1997638484835625</v>
+        <v>-0.1662182214856148</v>
       </c>
       <c r="C172" t="n">
-        <v>36.41852569580078</v>
+        <v>38.32034301757812</v>
       </c>
       <c r="D172" t="n">
-        <v>28.50973129272461</v>
+        <v>29.16355323791504</v>
       </c>
       <c r="E172" t="n">
-        <v>7.890326023101807</v>
+        <v>4.322523593902588</v>
       </c>
       <c r="F172" t="n">
-        <v>32.03491973876953</v>
+        <v>30.67143249511719</v>
       </c>
       <c r="G172" t="n">
-        <v>31.73056983947754</v>
+        <v>32.14595413208008</v>
       </c>
       <c r="H172" t="n">
-        <v>17.81562423706055</v>
+        <v>16.94395446777344</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-0.2898944842815399</v>
+        <v>-0.5229667627811432</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.1359301871061325</v>
+        <v>-0.09395245775580406</v>
       </c>
       <c r="C173" t="n">
-        <v>35.09183502197266</v>
+        <v>36.84779357910156</v>
       </c>
       <c r="D173" t="n">
-        <v>27.23931503295898</v>
+        <v>27.71892166137695</v>
       </c>
       <c r="E173" t="n">
-        <v>8.028145790100098</v>
+        <v>4.354791164398193</v>
       </c>
       <c r="F173" t="n">
-        <v>29.15681076049805</v>
+        <v>28.69309043884277</v>
       </c>
       <c r="G173" t="n">
-        <v>31.56765747070312</v>
+        <v>31.76459503173828</v>
       </c>
       <c r="H173" t="n">
-        <v>19.58528137207031</v>
+        <v>16.94395446777344</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.1986998501420021</v>
+        <v>-0.3503550267219543</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.05987286113202572</v>
+        <v>-0.02055186394602061</v>
       </c>
       <c r="C174" t="n">
-        <v>34.00412368774414</v>
+        <v>35.41939544677734</v>
       </c>
       <c r="D174" t="n">
-        <v>26.89356422424316</v>
+        <v>27.09945869445801</v>
       </c>
       <c r="E174" t="n">
-        <v>8.260040283203125</v>
+        <v>4.6639723777771</v>
       </c>
       <c r="F174" t="n">
-        <v>27.33000183105469</v>
+        <v>26.57196044921875</v>
       </c>
       <c r="G174" t="n">
-        <v>31.42931175231934</v>
+        <v>31.4998950958252</v>
       </c>
       <c r="H174" t="n">
-        <v>19.71989059448242</v>
+        <v>18.37414932250977</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-0.1297399255633354</v>
+        <v>-0.2253441300988197</v>
       </c>
       <c r="B175" t="n">
-        <v>0.03140753518790007</v>
+        <v>0.06322562791407109</v>
       </c>
       <c r="C175" t="n">
-        <v>33.18161392211914</v>
+        <v>34.28366088867188</v>
       </c>
       <c r="D175" t="n">
-        <v>27.67877388000488</v>
+        <v>27.700439453125</v>
       </c>
       <c r="E175" t="n">
-        <v>8.687257766723633</v>
+        <v>5.21459436416626</v>
       </c>
       <c r="F175" t="n">
-        <v>24.98250961303711</v>
+        <v>24.24089813232422</v>
       </c>
       <c r="G175" t="n">
-        <v>31.46451950073242</v>
+        <v>31.39813232421875</v>
       </c>
       <c r="H175" t="n">
-        <v>19.86020088195801</v>
+        <v>18.27325057983398</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-0.07015735313296319</v>
+        <v>-0.1492062997817993</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1329183208942413</v>
+        <v>0.1572565761208534</v>
       </c>
       <c r="C176" t="n">
-        <v>32.47095108032227</v>
+        <v>34.28366088867188</v>
       </c>
       <c r="D176" t="n">
-        <v>29.30240821838379</v>
+        <v>30.31231307983398</v>
       </c>
       <c r="E176" t="n">
-        <v>9.228736877441406</v>
+        <v>5.908764362335205</v>
       </c>
       <c r="F176" t="n">
-        <v>22.40856552124023</v>
+        <v>21.8111515045166</v>
       </c>
       <c r="G176" t="n">
-        <v>31.63153457641602</v>
+        <v>31.40036582946777</v>
       </c>
       <c r="H176" t="n">
-        <v>20.16841506958008</v>
+        <v>18.07771492004395</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.004323907429352403</v>
+        <v>-0.1023764729499817</v>
       </c>
       <c r="B177" t="n">
-        <v>0.2320301723480225</v>
+        <v>0.2508226588368416</v>
       </c>
       <c r="C177" t="n">
-        <v>31.68573188781738</v>
+        <v>32.62937927246094</v>
       </c>
       <c r="D177" t="n">
-        <v>31.25723266601562</v>
+        <v>31.75019645690918</v>
       </c>
       <c r="E177" t="n">
-        <v>9.820255279541016</v>
+        <v>6.700140476226807</v>
       </c>
       <c r="F177" t="n">
-        <v>19.96108818054199</v>
+        <v>19.52853775024414</v>
       </c>
       <c r="G177" t="n">
-        <v>31.84727668762207</v>
+        <v>31.50333023071289</v>
       </c>
       <c r="H177" t="n">
-        <v>20.67225456237793</v>
+        <v>18.03516960144043</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.07036603972315789</v>
+        <v>-0.0651393622905016</v>
       </c>
       <c r="B178" t="n">
-        <v>0.3141755765676499</v>
+        <v>0.3298472571372986</v>
       </c>
       <c r="C178" t="n">
-        <v>30.79487800598145</v>
+        <v>32.2170524597168</v>
       </c>
       <c r="D178" t="n">
-        <v>33.13143539428711</v>
+        <v>33.19208908081055</v>
       </c>
       <c r="E178" t="n">
-        <v>10.51485633850098</v>
+        <v>7.606167316436768</v>
       </c>
       <c r="F178" t="n">
-        <v>17.94258880615234</v>
+        <v>17.64655113220215</v>
       </c>
       <c r="G178" t="n">
-        <v>32.08529663085938</v>
+        <v>31.77927017211914</v>
       </c>
       <c r="H178" t="n">
-        <v>21.24359130859375</v>
+        <v>18.23748397827148</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.1397628366947174</v>
+        <v>-0.02576632771641016</v>
       </c>
       <c r="B179" t="n">
-        <v>0.3704320919513703</v>
+        <v>0.3846658378839493</v>
       </c>
       <c r="C179" t="n">
-        <v>29.9671573638916</v>
+        <v>31.78107452392578</v>
       </c>
       <c r="D179" t="n">
-        <v>34.74071884155273</v>
+        <v>34.44487762451172</v>
       </c>
       <c r="E179" t="n">
-        <v>11.3709545135498</v>
+        <v>8.698902130126953</v>
       </c>
       <c r="F179" t="n">
-        <v>16.48927688598633</v>
+        <v>16.29125785827637</v>
       </c>
       <c r="G179" t="n">
-        <v>32.35305023193359</v>
+        <v>32.25860977172852</v>
       </c>
       <c r="H179" t="n">
-        <v>21.69679260253906</v>
+        <v>18.52322387695312</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.1869191667437554</v>
+        <v>0.01127734368667006</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4018646329641342</v>
+        <v>0.4153286772966385</v>
       </c>
       <c r="C180" t="n">
-        <v>29.40470695495605</v>
+        <v>31.37088966369629</v>
       </c>
       <c r="D180" t="n">
-        <v>36.07290649414062</v>
+        <v>35.50149154663086</v>
       </c>
       <c r="E180" t="n">
-        <v>12.33422660827637</v>
+        <v>9.916807174682617</v>
       </c>
       <c r="F180" t="n">
-        <v>16.48927688598633</v>
+        <v>16.29125785827637</v>
       </c>
       <c r="G180" t="n">
-        <v>32.62165832519531</v>
+        <v>32.87685394287109</v>
       </c>
       <c r="H180" t="n">
-        <v>21.88065338134766</v>
+        <v>18.72625350952148</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.2084841743111611</v>
+        <v>0.04190755113959313</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4171710962057114</v>
+        <v>0.4283800238370896</v>
       </c>
       <c r="C181" t="n">
-        <v>29.14749336242676</v>
+        <v>31.0317211151123</v>
       </c>
       <c r="D181" t="n">
-        <v>37.18400955200195</v>
+        <v>35.50149154663086</v>
       </c>
       <c r="E181" t="n">
-        <v>13.27816581726074</v>
+        <v>11.11857032775879</v>
       </c>
       <c r="F181" t="n">
-        <v>14.60348320007324</v>
+        <v>14.58327865600586</v>
       </c>
       <c r="G181" t="n">
-        <v>32.79548263549805</v>
+        <v>33.45238876342773</v>
       </c>
       <c r="H181" t="n">
-        <v>21.61407470703125</v>
+        <v>18.63276863098145</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.2118407556414604</v>
+        <v>0.06375376515090465</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4292392212152482</v>
+        <v>0.4345122694969177</v>
       </c>
       <c r="C182" t="n">
-        <v>29.10745811462402</v>
+        <v>30.78981781005859</v>
       </c>
       <c r="D182" t="n">
-        <v>38.07291793823242</v>
+        <v>37.34563064575195</v>
       </c>
       <c r="E182" t="n">
-        <v>13.96044158935547</v>
+        <v>12.04689025878906</v>
       </c>
       <c r="F182" t="n">
-        <v>14.26249885559082</v>
+        <v>14.41756725311279</v>
       </c>
       <c r="G182" t="n">
-        <v>32.77231216430664</v>
+        <v>33.80327224731445</v>
       </c>
       <c r="H182" t="n">
-        <v>20.80681800842285</v>
+        <v>18.13569259643555</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.2112138903141022</v>
+        <v>0.08161751180887222</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4477799791097641</v>
+        <v>0.4429843574762344</v>
       </c>
       <c r="C183" t="n">
-        <v>29.11493492126465</v>
+        <v>30.59201240539551</v>
       </c>
       <c r="D183" t="n">
-        <v>38.74010848999023</v>
+        <v>38.08687973022461</v>
       </c>
       <c r="E183" t="n">
-        <v>14.10561180114746</v>
+        <v>12.39341926574707</v>
       </c>
       <c r="F183" t="n">
-        <v>13.73863220214844</v>
+        <v>14.18862628936768</v>
       </c>
       <c r="G183" t="n">
-        <v>32.50566482543945</v>
+        <v>33.82124710083008</v>
       </c>
       <c r="H183" t="n">
-        <v>18.1784782409668</v>
+        <v>17.139404296875</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.2182632070779801</v>
+        <v>0.1048984105885029</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4746711069345474</v>
+        <v>0.457452883720398</v>
       </c>
       <c r="C184" t="n">
-        <v>29.03085517883301</v>
+        <v>30.3342227935791</v>
       </c>
       <c r="D184" t="n">
-        <v>39.26066589355469</v>
+        <v>38.74774932861328</v>
       </c>
       <c r="E184" t="n">
-        <v>13.48658752441406</v>
+        <v>11.85548782348633</v>
       </c>
       <c r="F184" t="n">
-        <v>12.97882556915283</v>
+        <v>13.79764366149902</v>
       </c>
       <c r="G184" t="n">
-        <v>32.04603958129883</v>
+        <v>33.52746963500977</v>
       </c>
       <c r="H184" t="n">
-        <v>15.93802833557129</v>
+        <v>14.2338981628418</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.2283027505874634</v>
+        <v>0.1364152112603188</v>
       </c>
       <c r="B185" t="n">
-        <v>0.5035970079898835</v>
+        <v>0.4741710615158081</v>
       </c>
       <c r="C185" t="n">
-        <v>28.91110992431641</v>
+        <v>29.98523712158203</v>
       </c>
       <c r="D185" t="n">
-        <v>39.81094360351562</v>
+        <v>39.33152389526367</v>
       </c>
       <c r="E185" t="n">
-        <v>10.46913623809814</v>
+        <v>8.530230522155762</v>
       </c>
       <c r="F185" t="n">
-        <v>12.16152667999268</v>
+        <v>13.34586906433105</v>
       </c>
       <c r="G185" t="n">
-        <v>31.58841514587402</v>
+        <v>33.12777709960938</v>
       </c>
       <c r="H185" t="n">
-        <v>12.62012672424316</v>
+        <v>11.81608009338379</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.2198533919453621</v>
+        <v>0.1671385937929153</v>
       </c>
       <c r="B186" t="n">
-        <v>0.5198369061946869</v>
+        <v>0.481079832315445</v>
       </c>
       <c r="C186" t="n">
-        <v>29.01188850402832</v>
+        <v>29.6450366973877</v>
       </c>
       <c r="D186" t="n">
-        <v>40.66753387451172</v>
+        <v>39.95296859741211</v>
       </c>
       <c r="E186" t="n">
-        <v>7.69764518737793</v>
+        <v>5.422224998474121</v>
       </c>
       <c r="F186" t="n">
-        <v>11.70267009735107</v>
+        <v>13.1591739654541</v>
       </c>
       <c r="G186" t="n">
-        <v>31.49664115905762</v>
+        <v>33.04045867919922</v>
       </c>
       <c r="H186" t="n">
-        <v>8.370590209960938</v>
+        <v>8.288626670837402</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.1687393772602081</v>
+        <v>0.1745426872372627</v>
       </c>
       <c r="B187" t="n">
-        <v>0.5401766109207504</v>
+        <v>0.5461495653735008</v>
       </c>
       <c r="C187" t="n">
-        <v>29.62154388427734</v>
+        <v>29.56305122375488</v>
       </c>
       <c r="D187" t="n">
-        <v>42.01130676269531</v>
+        <v>40.76605606079102</v>
       </c>
       <c r="E187" t="n">
-        <v>3.849978685379028</v>
+        <v>1.227221965789795</v>
       </c>
       <c r="F187" t="n">
-        <v>12.04985809326172</v>
+        <v>13.63312721252441</v>
       </c>
       <c r="G187" t="n">
-        <v>32.21349716186523</v>
+        <v>34.90313720703125</v>
       </c>
       <c r="H187" t="n">
-        <v>3.678547859191895</v>
+        <v>4.050491333007812</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.8811109303841609</v>
+        <v>0.7819354472794291</v>
       </c>
       <c r="B188" t="n">
-        <v>0.6040061289667705</v>
+        <v>0.6472550953986351</v>
       </c>
       <c r="C188" t="n">
-        <v>30.73004150390625</v>
+        <v>29.94540596008301</v>
       </c>
       <c r="D188" t="n">
-        <v>44.82956314086914</v>
+        <v>41.85092544555664</v>
       </c>
       <c r="E188" t="n">
-        <v>-0.182378888130188</v>
+        <v>-2.958805322647095</v>
       </c>
       <c r="F188" t="n">
-        <v>14.71572113037109</v>
+        <v>16.16082763671875</v>
       </c>
       <c r="G188" t="n">
-        <v>35.38211822509766</v>
+        <v>37.10801696777344</v>
       </c>
       <c r="H188" t="n">
-        <v>-0.6615288257598877</v>
+        <v>-0.01326465606689453</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1.007735012110075</v>
+        <v>0.9730590646475082</v>
       </c>
       <c r="B189" t="n">
-        <v>0.7235750501637964</v>
+        <v>0.7816486067998487</v>
       </c>
       <c r="C189" t="n">
-        <v>32.04544067382812</v>
+        <v>30.77071189880371</v>
       </c>
       <c r="D189" t="n">
-        <v>46.40813446044922</v>
+        <v>43.26103210449219</v>
       </c>
       <c r="E189" t="n">
-        <v>-3.241065740585327</v>
+        <v>-5.908763408660889</v>
       </c>
       <c r="F189" t="n">
-        <v>16.80680465698242</v>
+        <v>18.08844757080078</v>
       </c>
       <c r="G189" t="n">
-        <v>37.61005020141602</v>
+        <v>40.16025543212891</v>
       </c>
       <c r="H189" t="n">
-        <v>-4.014237403869629</v>
+        <v>-3.063607215881348</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9978309860869584</v>
+        <v>1.002063137443258</v>
       </c>
       <c r="B190" t="n">
-        <v>0.8616920153990097</v>
+        <v>0.9063409809653328</v>
       </c>
       <c r="C190" t="n">
-        <v>33.40680313110352</v>
+        <v>31.94518852233887</v>
       </c>
       <c r="D190" t="n">
-        <v>48.24632263183594</v>
+        <v>46.06245422363281</v>
       </c>
       <c r="E190" t="n">
-        <v>-4.724499702453613</v>
+        <v>-7.150644302368164</v>
       </c>
       <c r="F190" t="n">
-        <v>19.3405933380127</v>
+        <v>20.38129043579102</v>
       </c>
       <c r="G190" t="n">
-        <v>40.16150665283203</v>
+        <v>43.50450897216797</v>
       </c>
       <c r="H190" t="n">
-        <v>-6.16001033782959</v>
+        <v>-4.742850780487061</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1.001113639186117</v>
+        <v>0.9992951553114198</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9582887141965287</v>
+        <v>0.9772084398801436</v>
       </c>
       <c r="C191" t="n">
-        <v>34.87981414794922</v>
+        <v>33.50072860717773</v>
       </c>
       <c r="D191" t="n">
-        <v>50.11542892456055</v>
+        <v>47.59745025634766</v>
       </c>
       <c r="E191" t="n">
-        <v>-4.724499702453613</v>
+        <v>-7.150644302368164</v>
       </c>
       <c r="F191" t="n">
-        <v>21.97761917114258</v>
+        <v>22.7016716003418</v>
       </c>
       <c r="G191" t="n">
-        <v>42.62901306152344</v>
+        <v>46.55713653564453</v>
       </c>
       <c r="H191" t="n">
-        <v>-6.16001033782959</v>
+        <v>-4.742850780487061</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.9991456519650924</v>
+        <v>1.00047104726697</v>
       </c>
       <c r="B192" t="n">
-        <v>0.9950532591627702</v>
+        <v>0.9981901224665114</v>
       </c>
       <c r="C192" t="n">
-        <v>36.48381042480469</v>
+        <v>36.46949768066406</v>
       </c>
       <c r="D192" t="n">
-        <v>51.79360198974609</v>
+        <v>49.28723907470703</v>
       </c>
       <c r="E192" t="n">
-        <v>-4.941717147827148</v>
+        <v>-6.848743438720703</v>
       </c>
       <c r="F192" t="n">
-        <v>24.53561782836914</v>
+        <v>24.8975830078125</v>
       </c>
       <c r="G192" t="n">
-        <v>44.80206298828125</v>
+        <v>48.904541015625</v>
       </c>
       <c r="H192" t="n">
-        <v>-8.030622482299805</v>
+        <v>-4.21508264541626</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1.000868856516053</v>
+        <v>0.9995163732995119</v>
       </c>
       <c r="B193" t="n">
-        <v>1.000232224363039</v>
+        <v>1.000118043539608</v>
       </c>
       <c r="C193" t="n">
-        <v>38.06301116943359</v>
+        <v>37.98056411743164</v>
       </c>
       <c r="D193" t="n">
-        <v>53.08574676513672</v>
+        <v>50.8685417175293</v>
       </c>
       <c r="E193" t="n">
-        <v>-3.393569469451904</v>
+        <v>-5.051129817962646</v>
       </c>
       <c r="F193" t="n">
-        <v>26.96584320068359</v>
+        <v>26.98116683959961</v>
       </c>
       <c r="G193" t="n">
-        <v>46.61870574951172</v>
+        <v>50.42263793945312</v>
       </c>
       <c r="H193" t="n">
-        <v>-5.172393798828125</v>
+        <v>-2.264547824859619</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.9989368429368212</v>
+        <v>1.00065892249024</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9999533932738542</v>
+        <v>0.9999760538443522</v>
       </c>
       <c r="C194" t="n">
-        <v>39.36932373046875</v>
+        <v>39.51046371459961</v>
       </c>
       <c r="D194" t="n">
-        <v>53.08574676513672</v>
+        <v>52.17239379882812</v>
       </c>
       <c r="E194" t="n">
-        <v>-1.826489925384521</v>
+        <v>-3.249986171722412</v>
       </c>
       <c r="F194" t="n">
-        <v>29.30136680603027</v>
+        <v>29.04962539672852</v>
       </c>
       <c r="G194" t="n">
-        <v>48.14689254760742</v>
+        <v>50.42263793945312</v>
       </c>
       <c r="H194" t="n">
-        <v>-2.982728004455566</v>
+        <v>-0.07740199565887451</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1.001450493488817</v>
+        <v>0.998928355956985</v>
       </c>
       <c r="B195" t="n">
-        <v>1.000016327897662</v>
+        <v>1.000008290781836</v>
       </c>
       <c r="C195" t="n">
-        <v>40.25875091552734</v>
+        <v>40.88742828369141</v>
       </c>
       <c r="D195" t="n">
-        <v>54.62685012817383</v>
+        <v>52.17239379882812</v>
       </c>
       <c r="E195" t="n">
-        <v>-0.2783938050270081</v>
+        <v>-1.399687767028809</v>
       </c>
       <c r="F195" t="n">
-        <v>31.61600112915039</v>
+        <v>31.1829948425293</v>
       </c>
       <c r="G195" t="n">
-        <v>49.57651519775391</v>
+        <v>52.19418716430664</v>
       </c>
       <c r="H195" t="n">
-        <v>-0.5158368349075317</v>
+        <v>1.934436798095703</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.9979066779940015</v>
+        <v>1.001966388520192</v>
       </c>
       <c r="B196" t="n">
-        <v>0.9999917788342243</v>
+        <v>0.9999958569807346</v>
       </c>
       <c r="C196" t="n">
-        <v>40.75721740722656</v>
+        <v>42.05735015869141</v>
       </c>
       <c r="D196" t="n">
-        <v>54.22108840942383</v>
+        <v>54.01579666137695</v>
       </c>
       <c r="E196" t="n">
-        <v>1.072795391082764</v>
+        <v>0.2758612036705017</v>
       </c>
       <c r="F196" t="n">
-        <v>33.97780609130859</v>
+        <v>33.42230224609375</v>
       </c>
       <c r="G196" t="n">
-        <v>51.14618301391602</v>
+        <v>52.69063949584961</v>
       </c>
       <c r="H196" t="n">
-        <v>1.710183382034302</v>
+        <v>3.488031148910522</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1.003106002315538</v>
+        <v>0.9960691932554948</v>
       </c>
       <c r="B197" t="n">
-        <v>1.000005461890047</v>
+        <v>1.000002748742095</v>
       </c>
       <c r="C197" t="n">
-        <v>41.0137939453125</v>
+        <v>43.08253860473633</v>
       </c>
       <c r="D197" t="n">
-        <v>53.19509887695312</v>
+        <v>54.09942245483398</v>
       </c>
       <c r="E197" t="n">
-        <v>1.910219669342041</v>
+        <v>1.705248355865479</v>
       </c>
       <c r="F197" t="n">
-        <v>36.40796661376953</v>
+        <v>35.71879196166992</v>
       </c>
       <c r="G197" t="n">
-        <v>53.02629089355469</v>
+        <v>53.79281997680664</v>
       </c>
       <c r="H197" t="n">
-        <v>3.397421360015869</v>
+        <v>4.53217601776123</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.9952778945663273</v>
+        <v>1.00844739693557</v>
       </c>
       <c r="B198" t="n">
-        <v>0.9999954600005058</v>
+        <v>0.9999977245887998</v>
       </c>
       <c r="C198" t="n">
-        <v>41.24483871459961</v>
+        <v>44.08970642089844</v>
       </c>
       <c r="D198" t="n">
-        <v>50.46614074707031</v>
+        <v>53.82928085327148</v>
       </c>
       <c r="E198" t="n">
-        <v>1.885176181793213</v>
+        <v>2.643504619598389</v>
       </c>
       <c r="F198" t="n">
-        <v>38.85938262939453</v>
+        <v>37.92756652832031</v>
       </c>
       <c r="G198" t="n">
-        <v>55.23776245117188</v>
+        <v>56.5936279296875</v>
       </c>
       <c r="H198" t="n">
-        <v>4.414423942565918</v>
+        <v>4.53217601776123</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1.007539116027435</v>
+        <v>0.980422565424764</v>
       </c>
       <c r="B199" t="n">
-        <v>1.000004523350788</v>
+        <v>1.00000222056667</v>
       </c>
       <c r="C199" t="n">
-        <v>41.72680282592773</v>
+        <v>45.24348449707031</v>
       </c>
       <c r="D199" t="n">
-        <v>48.46947479248047</v>
+        <v>53.36856460571289</v>
       </c>
       <c r="E199" t="n">
-        <v>-0.9094996452331543</v>
+        <v>2.676952838897705</v>
       </c>
       <c r="F199" t="n">
-        <v>41.20471954345703</v>
+        <v>39.82075500488281</v>
       </c>
       <c r="G199" t="n">
-        <v>57.61061477661133</v>
+        <v>58.07682418823242</v>
       </c>
       <c r="H199" t="n">
-        <v>4.414423942565918</v>
+        <v>5.764888286590576</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.9866992665911437</v>
+        <v>1.04971006789976</v>
       </c>
       <c r="B200" t="n">
-        <v>0.9999948168484577</v>
+        <v>0.999997588356957</v>
       </c>
       <c r="C200" t="n">
-        <v>42.78673934936523</v>
+        <v>46.6673698425293</v>
       </c>
       <c r="D200" t="n">
-        <v>45.68511199951172</v>
+        <v>52.83731842041016</v>
       </c>
       <c r="E200" t="n">
-        <v>-4.216052055358887</v>
+        <v>-1.255609512329102</v>
       </c>
       <c r="F200" t="n">
-        <v>43.20082855224609</v>
+        <v>41.11248397827148</v>
       </c>
       <c r="G200" t="n">
-        <v>59.65901184082031</v>
+        <v>59.24953460693359</v>
       </c>
       <c r="H200" t="n">
-        <v>3.560549736022949</v>
+        <v>5.622128009796143</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1.027458772136695</v>
+        <v>0.8594298898778233</v>
       </c>
       <c r="B201" t="n">
-        <v>1.000006509209687</v>
+        <v>1.000002735391841</v>
       </c>
       <c r="C201" t="n">
-        <v>45.9447021484375</v>
+        <v>48.12572479248047</v>
       </c>
       <c r="D201" t="n">
-        <v>42.3044319152832</v>
+        <v>50.92681503295898</v>
       </c>
       <c r="E201" t="n">
-        <v>-9.158168792724609</v>
+        <v>-6.274250030517578</v>
       </c>
       <c r="F201" t="n">
-        <v>44.47926712036133</v>
+        <v>41.11248397827148</v>
       </c>
       <c r="G201" t="n">
-        <v>59.65901184082031</v>
+        <v>59.24953460693359</v>
       </c>
       <c r="H201" t="n">
-        <v>0.8125537633895874</v>
+        <v>3.517522811889648</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.9323656878280985</v>
+        <v>1.433261126045116</v>
       </c>
       <c r="B202" t="n">
-        <v>0.9999915817264774</v>
+        <v>0.9999969830165366</v>
       </c>
       <c r="C202" t="n">
-        <v>47.52027130126953</v>
+        <v>48.12572479248047</v>
       </c>
       <c r="D202" t="n">
-        <v>38.83589935302734</v>
+        <v>47.55534362792969</v>
       </c>
       <c r="E202" t="n">
-        <v>-14.38705539703369</v>
+        <v>-12.31634330749512</v>
       </c>
       <c r="F202" t="n">
-        <v>44.47926712036133</v>
+        <v>41.95592498779297</v>
       </c>
       <c r="G202" t="n">
-        <v>58.33922958374023</v>
+        <v>54.59797668457031</v>
       </c>
       <c r="H202" t="n">
-        <v>-2.526953220367432</v>
+        <v>1.673897385597229</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.186824118194396</v>
+        <v>1.935102434647332</v>
       </c>
       <c r="B203" t="n">
-        <v>1.000010566464456</v>
+        <v>1.000003064257939</v>
       </c>
       <c r="C203" t="n">
-        <v>47.52027130126953</v>
+        <v>47.47263336181641</v>
       </c>
       <c r="D203" t="n">
-        <v>35.80943298339844</v>
+        <v>41.72901153564453</v>
       </c>
       <c r="E203" t="n">
-        <v>-17.63530731201172</v>
+        <v>-15.60004806518555</v>
       </c>
       <c r="F203" t="n">
-        <v>45.18708419799805</v>
+        <v>40.70596694946289</v>
       </c>
       <c r="G203" t="n">
-        <v>52.81442260742188</v>
+        <v>47.48722457885742</v>
       </c>
       <c r="H203" t="n">
-        <v>-4.088586807250977</v>
+        <v>1.673897385597229</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.481820027346942</v>
+        <v>-0.1653514439667034</v>
       </c>
       <c r="B204" t="n">
-        <v>0.999987365371551</v>
+        <v>0.9999970032088993</v>
       </c>
       <c r="C204" t="n">
-        <v>44.44504928588867</v>
+        <v>42.04044723510742</v>
       </c>
       <c r="D204" t="n">
-        <v>31.8631649017334</v>
+        <v>34.49962615966797</v>
       </c>
       <c r="E204" t="n">
-        <v>-15.50527191162109</v>
+        <v>-13.70456123352051</v>
       </c>
       <c r="F204" t="n">
-        <v>39.66728973388672</v>
+        <v>36.90293121337891</v>
       </c>
       <c r="G204" t="n">
-        <v>44.83648681640625</v>
+        <v>40.41929626464844</v>
       </c>
       <c r="H204" t="n">
-        <v>-2.565149307250977</v>
+        <v>-0.178545743227005</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1.163007176129421</v>
+        <v>-0.1653514439667034</v>
       </c>
       <c r="B205" t="n">
-        <v>1.000014591432479</v>
+        <v>1.000003130365046</v>
       </c>
       <c r="C205" t="n">
-        <v>44.44504928588867</v>
+        <v>42.04044723510742</v>
       </c>
       <c r="D205" t="n">
-        <v>31.8631649017334</v>
+        <v>34.49962615966797</v>
       </c>
       <c r="E205" t="n">
-        <v>-15.50527191162109</v>
+        <v>-13.70456123352051</v>
       </c>
       <c r="F205" t="n">
-        <v>39.66728973388672</v>
+        <v>36.90293121337891</v>
       </c>
       <c r="G205" t="n">
-        <v>44.83648681640625</v>
+        <v>40.41929626464844</v>
       </c>
       <c r="H205" t="n">
-        <v>-2.565149307250977</v>
+        <v>0.6332845687866211</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/PV_cp_lstm.xlsx
+++ b/Predictions/PV_cp_lstm.xlsx
@@ -477,5306 +477,5306 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.265805322580739</v>
+        <v>-884332381623.3533</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>36.60826110839844</v>
+        <v>36.15248107910156</v>
       </c>
       <c r="D2" t="n">
-        <v>27.27024459838867</v>
+        <v>24.28925132751465</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.22271919250488</v>
+        <v>-22.63095092773438</v>
       </c>
       <c r="F2" t="n">
-        <v>32.63117980957031</v>
+        <v>27.93913841247559</v>
       </c>
       <c r="G2" t="n">
-        <v>37.35383605957031</v>
+        <v>55.88208770751953</v>
       </c>
       <c r="H2" t="n">
-        <v>2.489508867263794</v>
+        <v>-22.85134887695312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.422459055185318</v>
+        <v>-442166190811.7424</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2021738690137863</v>
+        <v>0.009186447039246559</v>
       </c>
       <c r="C3" t="n">
-        <v>37.65890502929688</v>
+        <v>36.15248107910156</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01186370849609</v>
+        <v>23.01112937927246</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.174654006958008</v>
+        <v>-21.18818283081055</v>
       </c>
       <c r="F3" t="n">
-        <v>34.77795028686523</v>
+        <v>30.5577392578125</v>
       </c>
       <c r="G3" t="n">
-        <v>41.07441711425781</v>
+        <v>56.93010711669922</v>
       </c>
       <c r="H3" t="n">
-        <v>5.417813777923584</v>
+        <v>-16.2190055847168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.6907237398624421</v>
+        <v>-221083095405.8562</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3983776462078095</v>
+        <v>0.02024548780173063</v>
       </c>
       <c r="C4" t="n">
-        <v>39.35334777832031</v>
+        <v>34.72895431518555</v>
       </c>
       <c r="D4" t="n">
-        <v>27.82561492919922</v>
+        <v>21.66419219970703</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.122828483581543</v>
+        <v>-21.18818283081055</v>
       </c>
       <c r="F4" t="n">
-        <v>37.81447601318359</v>
+        <v>31.5798511505127</v>
       </c>
       <c r="G4" t="n">
-        <v>43.59294128417969</v>
+        <v>56.93010711669922</v>
       </c>
       <c r="H4" t="n">
-        <v>8.076778411865234</v>
+        <v>-13.37956809997559</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.8626402962207794</v>
+        <v>-110541547702.8197</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5436720359325409</v>
+        <v>0.0330604350194335</v>
       </c>
       <c r="C5" t="n">
-        <v>40.72517395019531</v>
+        <v>34.32688140869141</v>
       </c>
       <c r="D5" t="n">
-        <v>29.54940986633301</v>
+        <v>20.37546539306641</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.612159252166748</v>
+        <v>-20.12750625610352</v>
       </c>
       <c r="F5" t="n">
-        <v>40.4652099609375</v>
+        <v>31.5798511505127</v>
       </c>
       <c r="G5" t="n">
-        <v>43.59294128417969</v>
+        <v>58.60536956787109</v>
       </c>
       <c r="H5" t="n">
-        <v>9.891489028930664</v>
+        <v>-13.37956809997559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.9573947489261627</v>
+        <v>-55270773851.22131</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6274873435497285</v>
+        <v>0.04774044558405877</v>
       </c>
       <c r="C6" t="n">
-        <v>40.72517395019531</v>
+        <v>33.86181259155273</v>
       </c>
       <c r="D6" t="n">
-        <v>30.40863609313965</v>
+        <v>19.17502021789551</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.612159252166748</v>
+        <v>-20.5112247467041</v>
       </c>
       <c r="F6" t="n">
-        <v>42.13976669311523</v>
+        <v>31.94399452209473</v>
       </c>
       <c r="G6" t="n">
-        <v>43.54428482055664</v>
+        <v>59.26896286010742</v>
       </c>
       <c r="H6" t="n">
-        <v>9.891489028930664</v>
+        <v>-11.47150993347168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.9697769463062287</v>
+        <v>-27635386925.36832</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.653331310749054</v>
+        <v>0.06421610735356809</v>
       </c>
       <c r="C7" t="n">
-        <v>42.23411178588867</v>
+        <v>33.46309661865234</v>
       </c>
       <c r="D7" t="n">
-        <v>29.98387336730957</v>
+        <v>18.06290817260742</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.103540897369385</v>
+        <v>-20.89634704589844</v>
       </c>
       <c r="F7" t="n">
-        <v>42.13976669311523</v>
+        <v>31.20554351806641</v>
       </c>
       <c r="G7" t="n">
-        <v>40.8128662109375</v>
+        <v>59.92098617553711</v>
       </c>
       <c r="H7" t="n">
-        <v>11.69138622283936</v>
+        <v>-12.3023796081543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.9027598667144776</v>
+        <v>-13817693462.41916</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.6318795549869538</v>
+        <v>0.08235078170895577</v>
       </c>
       <c r="C8" t="n">
-        <v>41.49203109741211</v>
+        <v>33.19514846801758</v>
       </c>
       <c r="D8" t="n">
-        <v>28.4366512298584</v>
+        <v>17.02647399902344</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.622177600860596</v>
+        <v>-21.2757625579834</v>
       </c>
       <c r="F8" t="n">
-        <v>43.23463439941406</v>
+        <v>30.39273452758789</v>
       </c>
       <c r="G8" t="n">
-        <v>37.49369049072266</v>
+        <v>60.53889083862305</v>
       </c>
       <c r="H8" t="n">
-        <v>11.10668087005615</v>
+        <v>-13.01399517059326</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.7857355916500092</v>
+        <v>-6908846730.953414</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5795237350463868</v>
+        <v>0.1019012181460857</v>
       </c>
       <c r="C9" t="n">
-        <v>40.19622039794922</v>
+        <v>33.08230972290039</v>
       </c>
       <c r="D9" t="n">
-        <v>26.50568008422852</v>
+        <v>16.05147552490234</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.097094535827637</v>
+        <v>-21.64016914367676</v>
       </c>
       <c r="F9" t="n">
-        <v>41.81982421875</v>
+        <v>29.51646995544434</v>
       </c>
       <c r="G9" t="n">
-        <v>34.39604949951172</v>
+        <v>61.11490249633789</v>
       </c>
       <c r="H9" t="n">
-        <v>10.26662731170654</v>
+        <v>-13.6188850402832</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.6677067399024964</v>
+        <v>-3454423365.25885</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.5147572231292725</v>
+        <v>0.1225501655042172</v>
       </c>
       <c r="C10" t="n">
-        <v>38.88928604125977</v>
+        <v>33.12628936767578</v>
       </c>
       <c r="D10" t="n">
-        <v>25.13191223144531</v>
+        <v>15.12666416168213</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.06432056427002</v>
+        <v>-21.9805736541748</v>
       </c>
       <c r="F10" t="n">
-        <v>40.06964111328125</v>
+        <v>28.59096908569336</v>
       </c>
       <c r="G10" t="n">
-        <v>32.12517547607422</v>
+        <v>61.64862823486328</v>
       </c>
       <c r="H10" t="n">
-        <v>9.453907012939453</v>
+        <v>-14.14479351043701</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.5924460029602051</v>
+        <v>-1727211682.476197</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4523628389835358</v>
+        <v>0.1439499154686928</v>
       </c>
       <c r="C11" t="n">
-        <v>38.05592346191406</v>
+        <v>33.3170166015625</v>
       </c>
       <c r="D11" t="n">
-        <v>24.93863487243652</v>
+        <v>14.24510288238525</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.330896854400635</v>
+        <v>-22.2895393371582</v>
       </c>
       <c r="F11" t="n">
-        <v>38.38356018066406</v>
+        <v>27.63181686401367</v>
       </c>
       <c r="G11" t="n">
-        <v>30.87856674194336</v>
+        <v>62.14271926879883</v>
       </c>
       <c r="H11" t="n">
-        <v>8.93734073638916</v>
+        <v>-14.62593746185303</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.5754578530788422</v>
+        <v>-863605841.1721635</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3997358149290085</v>
+        <v>0.1657545050978661</v>
       </c>
       <c r="C12" t="n">
-        <v>37.86781311035156</v>
+        <v>33.6387825012207</v>
       </c>
       <c r="D12" t="n">
-        <v>25.92842292785645</v>
+        <v>13.40410804748535</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.012994766235352</v>
+        <v>-22.56161689758301</v>
       </c>
       <c r="F12" t="n">
-        <v>36.96142196655273</v>
+        <v>26.65452003479004</v>
       </c>
       <c r="G12" t="n">
-        <v>30.87856674194336</v>
+        <v>62.60045623779297</v>
       </c>
       <c r="H12" t="n">
-        <v>8.910542488098145</v>
+        <v>-15.09841060638428</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.6003985857963562</v>
+        <v>-431802920.6262374</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3582296127080917</v>
+        <v>0.1876392081379891</v>
       </c>
       <c r="C13" t="n">
-        <v>38.14398193359375</v>
+        <v>34.07338333129883</v>
       </c>
       <c r="D13" t="n">
-        <v>27.57050704956055</v>
+        <v>12.60467433929443</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4161978363990784</v>
+        <v>-22.79346466064453</v>
       </c>
       <c r="F13" t="n">
-        <v>35.83980178833008</v>
+        <v>25.67363166809082</v>
       </c>
       <c r="G13" t="n">
-        <v>30.16499519348145</v>
+        <v>63.02431488037109</v>
       </c>
       <c r="H13" t="n">
-        <v>9.434359550476074</v>
+        <v>-15.59752178192139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.6354243206977844</v>
+        <v>-215901460.4742149</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3249811571836472</v>
+        <v>0.2093076902627945</v>
       </c>
       <c r="C14" t="n">
-        <v>38.53182220458984</v>
+        <v>34.60157012939453</v>
       </c>
       <c r="D14" t="n">
-        <v>29.19942474365234</v>
+        <v>11.85099506378174</v>
       </c>
       <c r="E14" t="n">
-        <v>1.150439739227295</v>
+        <v>-22.98376083374023</v>
       </c>
       <c r="F14" t="n">
-        <v>34.94132995605469</v>
+        <v>24.70243453979492</v>
       </c>
       <c r="G14" t="n">
-        <v>31.02016258239746</v>
+        <v>63.41535568237305</v>
       </c>
       <c r="H14" t="n">
-        <v>10.37574481964111</v>
+        <v>-16.15632247924805</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.6514947044849396</v>
+        <v>-107950730.5300168</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2949899309873581</v>
+        <v>0.2304927119612694</v>
       </c>
       <c r="C15" t="n">
-        <v>38.70977020263672</v>
+        <v>35.20368957519531</v>
       </c>
       <c r="D15" t="n">
-        <v>30.33856964111328</v>
+        <v>11.15016269683838</v>
       </c>
       <c r="E15" t="n">
-        <v>2.453539371490479</v>
+        <v>-23.13312149047852</v>
       </c>
       <c r="F15" t="n">
-        <v>34.13087844848633</v>
+        <v>23.75290679931641</v>
       </c>
       <c r="G15" t="n">
-        <v>31.94457244873047</v>
+        <v>63.77301788330078</v>
       </c>
       <c r="H15" t="n">
-        <v>11.55452823638916</v>
+        <v>-16.80480575561523</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.6323747670650482</v>
+        <v>-53975365.69662206</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.2626390078663826</v>
+        <v>0.250952590405941</v>
       </c>
       <c r="C16" t="n">
-        <v>38.49805450439453</v>
+        <v>35.85993957519531</v>
       </c>
       <c r="D16" t="n">
-        <v>30.84496879577637</v>
+        <v>10.51207065582275</v>
       </c>
       <c r="E16" t="n">
-        <v>3.393747806549072</v>
+        <v>-23.24396896362305</v>
       </c>
       <c r="F16" t="n">
-        <v>33.25666046142578</v>
+        <v>22.83588027954102</v>
       </c>
       <c r="G16" t="n">
-        <v>32.81770706176758</v>
+        <v>64.09529113769531</v>
       </c>
       <c r="H16" t="n">
-        <v>12.81215572357178</v>
+        <v>-17.56949806213379</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.5755505394935608</v>
+        <v>-26987683.42157985</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2230698853731156</v>
+        <v>0.2704689407348633</v>
       </c>
       <c r="C17" t="n">
-        <v>37.86883926391602</v>
+        <v>36.55049896240234</v>
       </c>
       <c r="D17" t="n">
-        <v>30.8449592590332</v>
+        <v>9.949353218078613</v>
       </c>
       <c r="E17" t="n">
-        <v>3.989676952362061</v>
+        <v>-23.32043647766113</v>
       </c>
       <c r="F17" t="n">
-        <v>32.18738555908203</v>
+        <v>21.96114349365234</v>
       </c>
       <c r="G17" t="n">
-        <v>33.58247375488281</v>
+        <v>64.3790283203125</v>
       </c>
       <c r="H17" t="n">
-        <v>14.03953456878662</v>
+        <v>-18.4733772277832</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.489178141951561</v>
+        <v>-13493842.42480582</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1725842681527138</v>
+        <v>0.2888458389043808</v>
       </c>
       <c r="C18" t="n">
-        <v>36.91243743896484</v>
+        <v>37.2557487487793</v>
       </c>
       <c r="D18" t="n">
-        <v>30.60814094543457</v>
+        <v>9.477179527282715</v>
       </c>
       <c r="E18" t="n">
-        <v>4.361286640167236</v>
+        <v>-23.36831665039062</v>
       </c>
       <c r="F18" t="n">
-        <v>30.8231143951416</v>
+        <v>21.13747787475586</v>
       </c>
       <c r="G18" t="n">
-        <v>34.19651794433594</v>
+        <v>64.62030792236328</v>
       </c>
       <c r="H18" t="n">
-        <v>15.15795230865479</v>
+        <v>-19.53568649291992</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.3855736845731735</v>
+        <v>-6746922.062579442</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1099367101490498</v>
+        <v>0.3059123015403748</v>
       </c>
       <c r="C19" t="n">
-        <v>35.76522445678711</v>
+        <v>37.95647811889648</v>
       </c>
       <c r="D19" t="n">
-        <v>30.41726493835449</v>
+        <v>9.112570762634277</v>
       </c>
       <c r="E19" t="n">
-        <v>4.682252407073975</v>
+        <v>-23.39498710632324</v>
       </c>
       <c r="F19" t="n">
-        <v>29.13019180297852</v>
+        <v>20.3725471496582</v>
       </c>
       <c r="G19" t="n">
-        <v>34.64398193359375</v>
+        <v>64.81462097167969</v>
       </c>
       <c r="H19" t="n">
-        <v>16.11032676696777</v>
+        <v>-20.77178192138672</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.2749403178691864</v>
+        <v>-3373462.009668181</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.03609618164598942</v>
+        <v>0.3215274983644485</v>
       </c>
       <c r="C20" t="n">
-        <v>34.54018020629883</v>
+        <v>38.63437271118164</v>
       </c>
       <c r="D20" t="n">
-        <v>30.48383140563965</v>
+        <v>8.873316764831543</v>
       </c>
       <c r="E20" t="n">
-        <v>5.115525722503662</v>
+        <v>-23.40938377380371</v>
       </c>
       <c r="F20" t="n">
-        <v>26.02565002441406</v>
+        <v>19.67266273498535</v>
       </c>
       <c r="G20" t="n">
-        <v>34.93779373168945</v>
+        <v>64.95677947998047</v>
       </c>
       <c r="H20" t="n">
-        <v>16.86883926391602</v>
+        <v>-22.1928825378418</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.1625041624903679</v>
+        <v>-1686732.100562524</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04599347330629826</v>
+        <v>0.3355865806341172</v>
       </c>
       <c r="C21" t="n">
-        <v>33.29517364501953</v>
+        <v>39.27264404296875</v>
       </c>
       <c r="D21" t="n">
-        <v>30.92743301391602</v>
+        <v>8.776469230651855</v>
       </c>
       <c r="E21" t="n">
-        <v>5.752022266387939</v>
+        <v>-23.4217643737793</v>
       </c>
       <c r="F21" t="n">
-        <v>24.3066577911377</v>
+        <v>19.04252433776855</v>
       </c>
       <c r="G21" t="n">
-        <v>35.11938095092773</v>
+        <v>65.04096984863281</v>
       </c>
       <c r="H21" t="n">
-        <v>17.43233680725098</v>
+        <v>-23.80562973022461</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.05126032195985317</v>
+        <v>-843367.250265295</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1321731650829315</v>
+        <v>0.3480250722169876</v>
       </c>
       <c r="C22" t="n">
-        <v>32.06336975097656</v>
+        <v>39.85688781738281</v>
       </c>
       <c r="D22" t="n">
-        <v>31.76310157775879</v>
+        <v>8.836541175842285</v>
       </c>
       <c r="E22" t="n">
-        <v>6.58294153213501</v>
+        <v>-23.44338607788086</v>
       </c>
       <c r="F22" t="n">
-        <v>22.29981994628906</v>
+        <v>18.48502159118652</v>
       </c>
       <c r="G22" t="n">
-        <v>35.25644683837891</v>
+        <v>65.06060791015625</v>
       </c>
       <c r="H22" t="n">
-        <v>17.86770248413086</v>
+        <v>-25.61181449890137</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.05653089039027691</v>
+        <v>-421684.9148201976</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2170892897248268</v>
+        <v>0.3588216179609299</v>
       </c>
       <c r="C23" t="n">
-        <v>30.86979675292969</v>
+        <v>40.37593841552734</v>
       </c>
       <c r="D23" t="n">
-        <v>32.91049957275391</v>
+        <v>9.063658714294434</v>
       </c>
       <c r="E23" t="n">
-        <v>7.575903415679932</v>
+        <v>-23.4859619140625</v>
       </c>
       <c r="F23" t="n">
-        <v>20.25187301635742</v>
+        <v>18.00111389160156</v>
       </c>
       <c r="G23" t="n">
-        <v>35.42691421508789</v>
+        <v>65.00849151611328</v>
       </c>
       <c r="H23" t="n">
-        <v>18.31691741943359</v>
+        <v>-28.69624328613281</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1565468174219131</v>
+        <v>-210843.8216784327</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2943958407640457</v>
+        <v>0.3679995316267013</v>
       </c>
       <c r="C24" t="n">
-        <v>29.76231956481934</v>
+        <v>40.82254028320312</v>
       </c>
       <c r="D24" t="n">
-        <v>34.2430534362793</v>
+        <v>9.462368011474609</v>
       </c>
       <c r="E24" t="n">
-        <v>8.74177360534668</v>
+        <v>-23.56115531921387</v>
       </c>
       <c r="F24" t="n">
-        <v>18.3708381652832</v>
+        <v>17.58975219726562</v>
       </c>
       <c r="G24" t="n">
-        <v>35.69547653198242</v>
+        <v>64.87752532958984</v>
       </c>
       <c r="H24" t="n">
-        <v>18.89045906066895</v>
+        <v>-30.41067314147949</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2413895732164383</v>
+        <v>-105423.3348638149</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3578279399871827</v>
+        <v>0.3756321346759796</v>
       </c>
       <c r="C25" t="n">
-        <v>28.82285499572754</v>
+        <v>41.19385147094727</v>
       </c>
       <c r="D25" t="n">
-        <v>35.67253875732422</v>
+        <v>10.02874946594238</v>
       </c>
       <c r="E25" t="n">
-        <v>10.10919380187988</v>
+        <v>-23.67935943603516</v>
       </c>
       <c r="F25" t="n">
-        <v>16.80587387084961</v>
+        <v>17.24765396118164</v>
       </c>
       <c r="G25" t="n">
-        <v>36.09590530395508</v>
+        <v>64.6611328125</v>
       </c>
       <c r="H25" t="n">
-        <v>19.57411766052246</v>
+        <v>-32.50858688354492</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3054678553342819</v>
+        <v>-52713.13739093285</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4040440905094147</v>
+        <v>0.3818338793516159</v>
       </c>
       <c r="C26" t="n">
-        <v>28.11331558227539</v>
+        <v>41.49135589599609</v>
       </c>
       <c r="D26" t="n">
-        <v>37.18181991577148</v>
+        <v>10.74911975860596</v>
       </c>
       <c r="E26" t="n">
-        <v>11.64831352233887</v>
+        <v>-23.84831047058105</v>
       </c>
       <c r="F26" t="n">
-        <v>15.60197162628174</v>
+        <v>16.96968650817871</v>
       </c>
       <c r="G26" t="n">
-        <v>36.58527755737305</v>
+        <v>64.35476684570312</v>
       </c>
       <c r="H26" t="n">
-        <v>20.18265533447266</v>
+        <v>-34.85344696044922</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.3499634945392609</v>
+        <v>-26358.07218321791</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4352337956428528</v>
+        <v>0.3867479020357132</v>
       </c>
       <c r="C27" t="n">
-        <v>27.62061500549316</v>
+        <v>41.72004699707031</v>
       </c>
       <c r="D27" t="n">
-        <v>38.7418098449707</v>
+        <v>11.59933948516846</v>
       </c>
       <c r="E27" t="n">
-        <v>13.19118881225586</v>
+        <v>-24.07161331176758</v>
       </c>
       <c r="F27" t="n">
-        <v>15.60197162628174</v>
+        <v>16.74943733215332</v>
       </c>
       <c r="G27" t="n">
-        <v>37.04113006591797</v>
+        <v>63.95729064941406</v>
       </c>
       <c r="H27" t="n">
-        <v>20.4545783996582</v>
+        <v>-37.35821533203125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.3860475730895996</v>
+        <v>-13180.562200911</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4575729274749756</v>
+        <v>0.3905325341224671</v>
       </c>
       <c r="C28" t="n">
-        <v>27.22105598449707</v>
+        <v>41.8869743347168</v>
       </c>
       <c r="D28" t="n">
-        <v>40.24690246582031</v>
+        <v>12.54506778717041</v>
       </c>
       <c r="E28" t="n">
-        <v>14.49913024902344</v>
+        <v>-24.34761238098145</v>
       </c>
       <c r="F28" t="n">
-        <v>13.79440021514893</v>
+        <v>16.57980728149414</v>
       </c>
       <c r="G28" t="n">
-        <v>37.29516220092773</v>
+        <v>63.47213363647461</v>
       </c>
       <c r="H28" t="n">
-        <v>20.0853157043457</v>
+        <v>-39.95748519897461</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4246120399236679</v>
+        <v>-6591.820186361051</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4785204362869263</v>
+        <v>0.3933389043807984</v>
       </c>
       <c r="C29" t="n">
-        <v>26.79403114318848</v>
+        <v>41.99959945678711</v>
       </c>
       <c r="D29" t="n">
-        <v>41.5245475769043</v>
+        <v>13.54404926300049</v>
       </c>
       <c r="E29" t="n">
-        <v>15.2365837097168</v>
+        <v>-24.66882514953613</v>
       </c>
       <c r="F29" t="n">
-        <v>13.22833633422852</v>
+        <v>16.45402336120605</v>
       </c>
       <c r="G29" t="n">
-        <v>37.24628829956055</v>
+        <v>62.90800476074219</v>
       </c>
       <c r="H29" t="n">
-        <v>18.95427131652832</v>
+        <v>-42.59466552734375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4693423014879227</v>
+        <v>-3297.45332122742</v>
       </c>
       <c r="B30" t="n">
-        <v>0.501168617606163</v>
+        <v>0.3952847504615784</v>
       </c>
       <c r="C30" t="n">
-        <v>26.29873275756836</v>
+        <v>42.06420516967773</v>
       </c>
       <c r="D30" t="n">
-        <v>42.46045303344727</v>
+        <v>14.55064392089844</v>
       </c>
       <c r="E30" t="n">
-        <v>15.06781196594238</v>
+        <v>-25.02255249023438</v>
       </c>
       <c r="F30" t="n">
-        <v>12.61631488800049</v>
+        <v>16.3668098449707</v>
       </c>
       <c r="G30" t="n">
-        <v>36.88393783569336</v>
+        <v>62.27862167358398</v>
       </c>
       <c r="H30" t="n">
-        <v>15.59688758850098</v>
+        <v>-45.21706008911133</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.511477564573288</v>
+        <v>-1650.265554196531</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5213844597339631</v>
+        <v>0.3964385920763016</v>
       </c>
       <c r="C31" t="n">
-        <v>25.83216857910156</v>
+        <v>42.0848274230957</v>
       </c>
       <c r="D31" t="n">
-        <v>43.07968139648438</v>
+        <v>15.52238655090332</v>
       </c>
       <c r="E31" t="n">
-        <v>12.46804618835449</v>
+        <v>-25.39277267456055</v>
       </c>
       <c r="F31" t="n">
-        <v>12.07002353668213</v>
+        <v>16.31509399414062</v>
       </c>
       <c r="G31" t="n">
-        <v>36.3405647277832</v>
+        <v>61.60161972045898</v>
       </c>
       <c r="H31" t="n">
-        <v>13.00671005249023</v>
+        <v>-47.77474975585938</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.53</v>
+        <v>-826.6589576683909</v>
       </c>
       <c r="B32" t="n">
-        <v>0.53</v>
+        <v>0.3968357789516449</v>
       </c>
       <c r="C32" t="n">
-        <v>25.6270694732666</v>
+        <v>42.06324768066406</v>
       </c>
       <c r="D32" t="n">
-        <v>43.53989028930664</v>
+        <v>16.42646217346191</v>
       </c>
       <c r="E32" t="n">
-        <v>9.810553550720215</v>
+        <v>-25.76298904418945</v>
       </c>
       <c r="F32" t="n">
-        <v>11.83720588684082</v>
+        <v>16.29729080200195</v>
       </c>
       <c r="G32" t="n">
-        <v>35.91814422607422</v>
+        <v>60.89722442626953</v>
       </c>
       <c r="H32" t="n">
-        <v>9.367259979248047</v>
+        <v>-50.22090911865234</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.5034070229530335</v>
+        <v>-414.8347180872396</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5149721014499664</v>
+        <v>0.3965348482131958</v>
       </c>
       <c r="C33" t="n">
-        <v>25.92153358459473</v>
+        <v>41.99995422363281</v>
       </c>
       <c r="D33" t="n">
-        <v>44.06046295166016</v>
+        <v>17.24367904663086</v>
       </c>
       <c r="E33" t="n">
-        <v>5.907320022583008</v>
+        <v>-26.11929512023926</v>
       </c>
       <c r="F33" t="n">
-        <v>12.24330425262451</v>
+        <v>16.3107795715332</v>
       </c>
       <c r="G33" t="n">
-        <v>36.05953598022461</v>
+        <v>60.18716049194336</v>
       </c>
       <c r="H33" t="n">
-        <v>4.977194786071777</v>
+        <v>-52.51329040527344</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4193581986427307</v>
+        <v>-195.7434713621778</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5697509320823906</v>
+        <v>0.5494825770352589</v>
       </c>
       <c r="C34" t="n">
-        <v>26.85220718383789</v>
+        <v>41.89569473266602</v>
       </c>
       <c r="D34" t="n">
-        <v>44.81106567382812</v>
+        <v>17.96803092956543</v>
       </c>
       <c r="E34" t="n">
-        <v>1.215548753738403</v>
+        <v>-26.45271682739258</v>
       </c>
       <c r="F34" t="n">
-        <v>14.4575138092041</v>
+        <v>16.34945487976074</v>
       </c>
       <c r="G34" t="n">
-        <v>38.22765350341797</v>
+        <v>59.49275970458984</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4509902000427246</v>
+        <v>-54.61488342285156</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.69215993797746</v>
+        <v>-158.168052895565</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6785909208886534</v>
+        <v>0.6646486964175735</v>
       </c>
       <c r="C35" t="n">
-        <v>28.38434600830078</v>
+        <v>41.75346755981445</v>
       </c>
       <c r="D35" t="n">
-        <v>45.92138671875</v>
+        <v>18.60278511047363</v>
       </c>
       <c r="E35" t="n">
-        <v>-3.352808952331543</v>
+        <v>-26.76062965393066</v>
       </c>
       <c r="F35" t="n">
-        <v>16.27376937866211</v>
+        <v>16.40127944946289</v>
       </c>
       <c r="G35" t="n">
-        <v>40.33536529541016</v>
+        <v>58.83467864990234</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.472568988800049</v>
+        <v>-56.50095367431641</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9397546583697587</v>
+        <v>243.1985578956785</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8189126854783796</v>
+        <v>0.7511136396766394</v>
       </c>
       <c r="C36" t="n">
-        <v>31.47142028808594</v>
+        <v>41.58008193969727</v>
       </c>
       <c r="D36" t="n">
-        <v>48.589599609375</v>
+        <v>19.15680122375488</v>
       </c>
       <c r="E36" t="n">
-        <v>-6.843827724456787</v>
+        <v>-27.04513168334961</v>
       </c>
       <c r="F36" t="n">
-        <v>18.68611526489258</v>
+        <v>16.45361518859863</v>
       </c>
       <c r="G36" t="n">
-        <v>43.22617340087891</v>
+        <v>58.22611999511719</v>
       </c>
       <c r="H36" t="n">
-        <v>-6.394634246826172</v>
+        <v>-58.16286468505859</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.011290418816163</v>
+        <v>-1530.268531305322</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9360105945343407</v>
+        <v>0.8157469509751273</v>
       </c>
       <c r="C37" t="n">
-        <v>33.28260803222656</v>
+        <v>41.38464736938477</v>
       </c>
       <c r="D37" t="n">
-        <v>50.42059707641602</v>
+        <v>19.63872337341309</v>
       </c>
       <c r="E37" t="n">
-        <v>-8.771267890930176</v>
+        <v>-27.30998992919922</v>
       </c>
       <c r="F37" t="n">
-        <v>21.48652076721191</v>
+        <v>16.49770736694336</v>
       </c>
       <c r="G37" t="n">
-        <v>46.52231979370117</v>
+        <v>57.67048645019531</v>
       </c>
       <c r="H37" t="n">
-        <v>-8.18766975402832</v>
+        <v>-59.60705184936523</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9930779756136348</v>
+        <v>7454.488227638396</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9916341621344453</v>
+        <v>0.8638496352524757</v>
       </c>
       <c r="C38" t="n">
-        <v>35.53347015380859</v>
+        <v>41.17651748657227</v>
       </c>
       <c r="D38" t="n">
-        <v>52.68246459960938</v>
+        <v>20.05549240112305</v>
       </c>
       <c r="E38" t="n">
-        <v>-8.771267890930176</v>
+        <v>-27.55815124511719</v>
       </c>
       <c r="F38" t="n">
-        <v>24.54178237915039</v>
+        <v>16.53045463562012</v>
       </c>
       <c r="G38" t="n">
-        <v>49.80998229980469</v>
+        <v>57.1639289855957</v>
       </c>
       <c r="H38" t="n">
-        <v>-8.18766975402832</v>
+        <v>-60.84913635253906</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.007417263300755</v>
+        <v>-35850.29044240418</v>
       </c>
       <c r="B39" t="n">
-        <v>1.000839766595214</v>
+        <v>0.8995088618807133</v>
       </c>
       <c r="C39" t="n">
-        <v>38.04576873779297</v>
+        <v>40.96424102783203</v>
       </c>
       <c r="D39" t="n">
-        <v>54.99908828735352</v>
+        <v>20.41300964355469</v>
       </c>
       <c r="E39" t="n">
-        <v>-9.731437683105469</v>
+        <v>-27.79180145263672</v>
       </c>
       <c r="F39" t="n">
-        <v>27.79990577697754</v>
+        <v>16.55045700073242</v>
       </c>
       <c r="G39" t="n">
-        <v>52.82770538330078</v>
+        <v>56.70168685913086</v>
       </c>
       <c r="H39" t="n">
-        <v>-7.972246646881104</v>
+        <v>-61.91037750244141</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9885464364477499</v>
+        <v>166608.4830314782</v>
       </c>
       <c r="B40" t="n">
-        <v>0.999712772219399</v>
+        <v>0.9258584286062911</v>
       </c>
       <c r="C40" t="n">
-        <v>40.63346481323242</v>
+        <v>40.75474548339844</v>
       </c>
       <c r="D40" t="n">
-        <v>56.98291397094727</v>
+        <v>20.71808242797852</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.007014751434326</v>
+        <v>-28.01248550415039</v>
       </c>
       <c r="F40" t="n">
-        <v>31.25284576416016</v>
+        <v>16.55751800537109</v>
       </c>
       <c r="G40" t="n">
-        <v>55.57541275024414</v>
+        <v>56.27821731567383</v>
       </c>
       <c r="H40" t="n">
-        <v>-5.601594924926758</v>
+        <v>-61.91037750244141</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.022883724042426</v>
+        <v>-750463.4576525419</v>
       </c>
       <c r="B41" t="n">
-        <v>1.000171396211015</v>
+        <v>0.9452795367779898</v>
       </c>
       <c r="C41" t="n">
-        <v>43.12964630126953</v>
+        <v>40.5530891418457</v>
       </c>
       <c r="D41" t="n">
-        <v>58.35125732421875</v>
+        <v>20.97787857055664</v>
       </c>
       <c r="E41" t="n">
-        <v>-5.35905933380127</v>
+        <v>-28.22174072265625</v>
       </c>
       <c r="F41" t="n">
-        <v>34.88146209716797</v>
+        <v>16.55130386352539</v>
       </c>
       <c r="G41" t="n">
-        <v>58.24571228027344</v>
+        <v>55.88927459716797</v>
       </c>
       <c r="H41" t="n">
-        <v>-2.757727861404419</v>
+        <v>-63.71710205078125</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9449028087019788</v>
+        <v>3279873.343245897</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9998521967772158</v>
+        <v>0.9595675411278899</v>
       </c>
       <c r="C42" t="n">
-        <v>45.44768524169922</v>
+        <v>40.36276626586914</v>
       </c>
       <c r="D42" t="n">
-        <v>58.35125732421875</v>
+        <v>21.19967269897461</v>
       </c>
       <c r="E42" t="n">
-        <v>-3.630953788757324</v>
+        <v>-28.42112922668457</v>
       </c>
       <c r="F42" t="n">
-        <v>38.60908126831055</v>
+        <v>16.53141403198242</v>
       </c>
       <c r="G42" t="n">
-        <v>60.98226928710938</v>
+        <v>55.5313720703125</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.1428477764129639</v>
+        <v>-64.35064697265625</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.152747625639968</v>
+        <v>-13929372.92516647</v>
       </c>
       <c r="B43" t="n">
-        <v>1.000166948208535</v>
+        <v>0.9700692241798118</v>
       </c>
       <c r="C43" t="n">
-        <v>47.52757263183594</v>
+        <v>40.18542098999023</v>
       </c>
       <c r="D43" t="n">
-        <v>59.62979888916016</v>
+        <v>21.39016532897949</v>
       </c>
       <c r="E43" t="n">
-        <v>-2.271372318267822</v>
+        <v>-28.61193656921387</v>
       </c>
       <c r="F43" t="n">
-        <v>42.27911376953125</v>
+        <v>16.49875068664551</v>
       </c>
       <c r="G43" t="n">
-        <v>63.64759063720703</v>
+        <v>55.20050048828125</v>
       </c>
       <c r="H43" t="n">
-        <v>1.832094669342041</v>
+        <v>-64.89253234863281</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.554028096255445</v>
+        <v>57569417.21003906</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9997693180146239</v>
+        <v>0.9777878499745914</v>
       </c>
       <c r="C44" t="n">
-        <v>49.34334945678711</v>
+        <v>40.02151870727539</v>
       </c>
       <c r="D44" t="n">
-        <v>58.87858963012695</v>
+        <v>21.55512428283691</v>
       </c>
       <c r="E44" t="n">
-        <v>-2.271372318267822</v>
+        <v>-28.7951774597168</v>
       </c>
       <c r="F44" t="n">
-        <v>45.66146087646484</v>
+        <v>16.45477104187012</v>
       </c>
       <c r="G44" t="n">
-        <v>65.79772186279297</v>
+        <v>54.89296722412109</v>
       </c>
       <c r="H44" t="n">
-        <v>3.081522941589355</v>
+        <v>-65.35941314697266</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1.540772793089328</v>
+        <v>-231780569.9117202</v>
       </c>
       <c r="B45" t="n">
-        <v>1.000368591155942</v>
+        <v>0.98346375836597</v>
       </c>
       <c r="C45" t="n">
-        <v>50.88942718505859</v>
+        <v>39.87025451660156</v>
       </c>
       <c r="D45" t="n">
-        <v>56.46244812011719</v>
+        <v>21.69844055175781</v>
       </c>
       <c r="E45" t="n">
-        <v>-2.212027788162231</v>
+        <v>-28.97256469726562</v>
       </c>
       <c r="F45" t="n">
-        <v>48.49114990234375</v>
+        <v>16.39892578125</v>
       </c>
       <c r="G45" t="n">
-        <v>65.79772186279297</v>
+        <v>54.60597610473633</v>
       </c>
       <c r="H45" t="n">
-        <v>3.081522941589355</v>
+        <v>-65.76153564453125</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10.20042948719719</v>
+        <v>909566462.9024463</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9993524521018927</v>
+        <v>0.987637822509548</v>
       </c>
       <c r="C46" t="n">
-        <v>52.0965461730957</v>
+        <v>39.72866439819336</v>
       </c>
       <c r="D46" t="n">
-        <v>54.14835357666016</v>
+        <v>21.82178115844727</v>
       </c>
       <c r="E46" t="n">
-        <v>-5.094081878662109</v>
+        <v>-29.14826774597168</v>
       </c>
       <c r="F46" t="n">
-        <v>50.51103210449219</v>
+        <v>16.32498741149902</v>
       </c>
       <c r="G46" t="n">
-        <v>66.34538269042969</v>
+        <v>54.33880996704102</v>
       </c>
       <c r="H46" t="n">
-        <v>4.122815608978271</v>
+        <v>-66.09970855712891</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-33.54296581601031</v>
+        <v>-3479330046.571648</v>
       </c>
       <c r="B47" t="n">
-        <v>1.001192335817121</v>
+        <v>0.9907062869408026</v>
       </c>
       <c r="C47" t="n">
-        <v>52.0965461730957</v>
+        <v>39.59392166137695</v>
       </c>
       <c r="D47" t="n">
-        <v>50.25579833984375</v>
+        <v>21.92322540283203</v>
       </c>
       <c r="E47" t="n">
-        <v>-9.953422546386719</v>
+        <v>-29.32611465454102</v>
       </c>
       <c r="F47" t="n">
-        <v>50.51103210449219</v>
+        <v>16.2250919342041</v>
       </c>
       <c r="G47" t="n">
-        <v>62.61628723144531</v>
+        <v>54.09115219116211</v>
       </c>
       <c r="H47" t="n">
-        <v>1.47193717956543</v>
+        <v>-66.3701171875</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>123.0074925474468</v>
+        <v>12973290968.00056</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9978112977101785</v>
+        <v>0.9929605665220578</v>
       </c>
       <c r="C48" t="n">
-        <v>53.43477630615234</v>
+        <v>39.46323013305664</v>
       </c>
       <c r="D48" t="n">
-        <v>44.88137054443359</v>
+        <v>21.99817657470703</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.56287384033203</v>
+        <v>-29.50911521911621</v>
       </c>
       <c r="F48" t="n">
-        <v>52.44976043701172</v>
+        <v>16.09077453613281</v>
       </c>
       <c r="G48" t="n">
-        <v>56.60286712646484</v>
+        <v>53.86373138427734</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.8144980669021606</v>
+        <v>-66.56607055664062</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-384.1751252525251</v>
+        <v>-47183225835.9355</v>
       </c>
       <c r="B49" t="n">
-        <v>1.003823700013231</v>
+        <v>0.9946175023396534</v>
       </c>
       <c r="C49" t="n">
-        <v>51.33689117431641</v>
+        <v>39.33576965332031</v>
       </c>
       <c r="D49" t="n">
-        <v>39.20606994628906</v>
+        <v>22.0428638458252</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.46679878234863</v>
+        <v>-29.69658470153809</v>
       </c>
       <c r="F49" t="n">
-        <v>51.18045043945312</v>
+        <v>15.92020225524902</v>
       </c>
       <c r="G49" t="n">
-        <v>49.84775161743164</v>
+        <v>53.65666580200195</v>
       </c>
       <c r="H49" t="n">
-        <v>-2.443813562393188</v>
+        <v>-66.6883544921875</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1074.200060015862</v>
+        <v>167702186147.5414</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9937682277568245</v>
+        <v>0.9958399838901755</v>
       </c>
       <c r="C50" t="n">
-        <v>49.74092864990234</v>
+        <v>39.21433258056641</v>
       </c>
       <c r="D50" t="n">
-        <v>34.85330963134766</v>
+        <v>22.05886650085449</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.46679878234863</v>
+        <v>-29.8827953338623</v>
       </c>
       <c r="F50" t="n">
-        <v>49.50129699707031</v>
+        <v>15.72404384613037</v>
       </c>
       <c r="G50" t="n">
-        <v>44.52861785888672</v>
+        <v>53.4671630859375</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.443813562393188</v>
+        <v>-66.75457763671875</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-2719.983764569248</v>
+        <v>-584154793576.4767</v>
       </c>
       <c r="B51" t="n">
-        <v>1.009547498212916</v>
+        <v>0.9967492859233162</v>
       </c>
       <c r="C51" t="n">
-        <v>48.17007446289062</v>
+        <v>39.10412979125977</v>
       </c>
       <c r="D51" t="n">
-        <v>32.60281753540039</v>
+        <v>22.05379486083984</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.70123481750488</v>
+        <v>-30.06011772155762</v>
       </c>
       <c r="F51" t="n">
-        <v>48.10191345214844</v>
+        <v>15.52117156982422</v>
       </c>
       <c r="G51" t="n">
-        <v>41.61091613769531</v>
+        <v>53.28926467895508</v>
       </c>
       <c r="H51" t="n">
-        <v>1.297515392303467</v>
+        <v>-66.79383850097656</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-1359.894392090035</v>
+        <v>-292077396789.1475</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9861927042389994</v>
+        <v>0.9974331397250192</v>
       </c>
       <c r="C52" t="n">
-        <v>38.75341033935547</v>
+        <v>39.00883865356445</v>
       </c>
       <c r="D52" t="n">
-        <v>28.17514419555664</v>
+        <v>22.03660011291504</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.05789375305176</v>
+        <v>-30.22425651550293</v>
       </c>
       <c r="F52" t="n">
-        <v>34.39659118652344</v>
+        <v>15.32611751556396</v>
       </c>
       <c r="G52" t="n">
-        <v>36.10720062255859</v>
+        <v>53.11708068847656</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.648133397102356</v>
+        <v>-66.82950592041016</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-680.0201140491131</v>
+        <v>-146038698395.471</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1568239763379097</v>
+        <v>0.4226172286272049</v>
       </c>
       <c r="C53" t="n">
-        <v>35.9320068359375</v>
+        <v>38.9282341003418</v>
       </c>
       <c r="D53" t="n">
-        <v>25.90976333618164</v>
+        <v>22.01239776611328</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.22920799255371</v>
+        <v>-30.375732421875</v>
       </c>
       <c r="F53" t="n">
-        <v>29.37184906005859</v>
+        <v>15.14174842834473</v>
       </c>
       <c r="G53" t="n">
-        <v>36.10720062255859</v>
+        <v>52.94807815551758</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5793798565864563</v>
+        <v>-66.86837768554688</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-340.1967766343536</v>
+        <v>-73019349198.6223</v>
       </c>
       <c r="B54" t="n">
-        <v>0.06706411778926849</v>
+        <v>0.4260338318347931</v>
       </c>
       <c r="C54" t="n">
-        <v>35.9320068359375</v>
+        <v>38.86859512329102</v>
       </c>
       <c r="D54" t="n">
-        <v>25.90976333618164</v>
+        <v>21.9968433380127</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.181601524353027</v>
+        <v>-30.51060485839844</v>
       </c>
       <c r="F54" t="n">
-        <v>29.37184906005859</v>
+        <v>14.98861408233643</v>
       </c>
       <c r="G54" t="n">
-        <v>40.11625289916992</v>
+        <v>52.77290344238281</v>
       </c>
       <c r="H54" t="n">
-        <v>3.180503129959106</v>
+        <v>-66.9443359375</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-170.363114522645</v>
+        <v>-36509674600.18914</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1114513385295868</v>
+        <v>0.4295600855350495</v>
       </c>
       <c r="C55" t="n">
-        <v>35.630859375</v>
+        <v>38.81678009033203</v>
       </c>
       <c r="D55" t="n">
-        <v>25.89208030700684</v>
+        <v>21.97331809997559</v>
       </c>
       <c r="E55" t="n">
-        <v>-6.645411014556885</v>
+        <v>-30.6401195526123</v>
       </c>
       <c r="F55" t="n">
-        <v>31.74197769165039</v>
+        <v>14.83056449890137</v>
       </c>
       <c r="G55" t="n">
-        <v>43.26409912109375</v>
+        <v>52.60611724853516</v>
       </c>
       <c r="H55" t="n">
-        <v>6.005832672119141</v>
+        <v>-67.00347900390625</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-85.51330019888734</v>
+        <v>-18254837300.96525</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.3017232483625412</v>
+        <v>0.4331388425827026</v>
       </c>
       <c r="C56" t="n">
-        <v>37.35839462280273</v>
+        <v>38.77286148071289</v>
       </c>
       <c r="D56" t="n">
-        <v>27.48486709594727</v>
+        <v>21.94441986083984</v>
       </c>
       <c r="E56" t="n">
-        <v>-4.181203842163086</v>
+        <v>-30.76379776000977</v>
       </c>
       <c r="F56" t="n">
-        <v>35.13711166381836</v>
+        <v>14.67016315460205</v>
       </c>
       <c r="G56" t="n">
-        <v>45.24698638916016</v>
+        <v>52.44680404663086</v>
       </c>
       <c r="H56" t="n">
-        <v>8.425971984863281</v>
+        <v>-67.05117034912109</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-43.14644594399857</v>
+        <v>-9127418651.347439</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.4578650128841401</v>
+        <v>0.436721580028534</v>
       </c>
       <c r="C57" t="n">
-        <v>38.84254837036133</v>
+        <v>38.7364616394043</v>
       </c>
       <c r="D57" t="n">
-        <v>28.97357749938965</v>
+        <v>21.91228103637695</v>
       </c>
       <c r="E57" t="n">
-        <v>-2.434081792831421</v>
+        <v>-30.88156700134277</v>
       </c>
       <c r="F57" t="n">
-        <v>38.22810745239258</v>
+        <v>14.50958061218262</v>
       </c>
       <c r="G57" t="n">
-        <v>45.24698638916016</v>
+        <v>52.29419708251953</v>
       </c>
       <c r="H57" t="n">
-        <v>10.13196754455566</v>
+        <v>-67.09096527099609</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-21.99653424307072</v>
+        <v>-4563709326.534027</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.5609942865371704</v>
+        <v>0.4402772760391235</v>
       </c>
       <c r="C58" t="n">
-        <v>40.12818908691406</v>
+        <v>38.70724487304688</v>
       </c>
       <c r="D58" t="n">
-        <v>28.97357749938965</v>
+        <v>21.87859153747559</v>
       </c>
       <c r="E58" t="n">
-        <v>-2.434081792831421</v>
+        <v>-30.99368858337402</v>
       </c>
       <c r="F58" t="n">
-        <v>40.40447998046875</v>
+        <v>14.35021209716797</v>
       </c>
       <c r="G58" t="n">
-        <v>43.36338043212891</v>
+        <v>52.14749908447266</v>
       </c>
       <c r="H58" t="n">
-        <v>10.13196754455566</v>
+        <v>-67.12541961669922</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-11.41341263733488</v>
+        <v>-2281854664.124136</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.6076861262321472</v>
+        <v>0.4437930101156235</v>
       </c>
       <c r="C59" t="n">
-        <v>40.87042236328125</v>
+        <v>38.68481063842773</v>
       </c>
       <c r="D59" t="n">
-        <v>30.32114791870117</v>
+        <v>21.84446334838867</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.074871063232422</v>
+        <v>-31.10066223144531</v>
       </c>
       <c r="F59" t="n">
-        <v>41.46860504150391</v>
+        <v>14.19263553619385</v>
       </c>
       <c r="G59" t="n">
-        <v>39.51853942871094</v>
+        <v>52.00619506835938</v>
       </c>
       <c r="H59" t="n">
-        <v>11.92928791046143</v>
+        <v>-67.15589904785156</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-6.074465604832679</v>
+        <v>-1140927332.917281</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.6059050559997559</v>
+        <v>0.4472508704662323</v>
       </c>
       <c r="C60" t="n">
-        <v>40.68958282470703</v>
+        <v>38.6689567565918</v>
       </c>
       <c r="D60" t="n">
-        <v>27.24909591674805</v>
+        <v>21.81119346618652</v>
       </c>
       <c r="E60" t="n">
-        <v>-2.304449081420898</v>
+        <v>-31.20293045043945</v>
       </c>
       <c r="F60" t="n">
-        <v>41.46860504150391</v>
+        <v>14.0376501083374</v>
       </c>
       <c r="G60" t="n">
-        <v>34.90322113037109</v>
+        <v>51.86957931518555</v>
       </c>
       <c r="H60" t="n">
-        <v>11.32400798797607</v>
+        <v>-67.18415069580078</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-3.34763404538776</v>
+        <v>-570463667.3131608</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.5732674336433411</v>
+        <v>0.4506432753801346</v>
       </c>
       <c r="C61" t="n">
-        <v>39.64016723632812</v>
+        <v>38.65944671630859</v>
       </c>
       <c r="D61" t="n">
-        <v>25.70441055297852</v>
+        <v>21.77971076965332</v>
       </c>
       <c r="E61" t="n">
-        <v>-3.425769805908203</v>
+        <v>-31.30099487304688</v>
       </c>
       <c r="F61" t="n">
-        <v>41.65076065063477</v>
+        <v>13.88560199737549</v>
       </c>
       <c r="G61" t="n">
-        <v>30.89745330810547</v>
+        <v>51.73715972900391</v>
       </c>
       <c r="H61" t="n">
-        <v>10.3312520980835</v>
+        <v>-67.21124267578125</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.951278164637812</v>
+        <v>-285231834.5115795</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.5285264629125596</v>
+        <v>0.4539718043804169</v>
       </c>
       <c r="C62" t="n">
-        <v>38.36991500854492</v>
+        <v>38.65599822998047</v>
       </c>
       <c r="D62" t="n">
-        <v>25.70441055297852</v>
+        <v>21.75050735473633</v>
       </c>
       <c r="E62" t="n">
-        <v>-3.645040988922119</v>
+        <v>-31.39533042907715</v>
       </c>
       <c r="F62" t="n">
-        <v>40.44172668457031</v>
+        <v>13.73641395568848</v>
       </c>
       <c r="G62" t="n">
-        <v>28.50191497802734</v>
+        <v>51.60865020751953</v>
       </c>
       <c r="H62" t="n">
-        <v>9.385540008544922</v>
+        <v>-67.23748016357422</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-1.951278164637812</v>
+        <v>-142615918.1124177</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.4808694082498551</v>
+        <v>0.4572376894950867</v>
       </c>
       <c r="C63" t="n">
-        <v>37.64042282104492</v>
+        <v>38.65838241577148</v>
       </c>
       <c r="D63" t="n">
-        <v>24.06240463256836</v>
+        <v>21.7240161895752</v>
       </c>
       <c r="E63" t="n">
-        <v>-2.763439178466797</v>
+        <v>-31.48635101318359</v>
       </c>
       <c r="F63" t="n">
-        <v>39.15389251708984</v>
+        <v>13.59003353118896</v>
       </c>
       <c r="G63" t="n">
-        <v>28.50191497802734</v>
+        <v>51.48383331298828</v>
       </c>
       <c r="H63" t="n">
-        <v>8.923174858093262</v>
+        <v>-67.26316070556641</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.5626350319385529</v>
+        <v>-71307959.91556843</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.431469002366066</v>
+        <v>0.4604391616582871</v>
       </c>
       <c r="C64" t="n">
-        <v>37.72582626342773</v>
+        <v>38.6664924621582</v>
       </c>
       <c r="D64" t="n">
-        <v>26.67639541625977</v>
+        <v>21.70068359375</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.155473709106445</v>
+        <v>-31.5743579864502</v>
       </c>
       <c r="F64" t="n">
-        <v>37.81894683837891</v>
+        <v>13.44654273986816</v>
       </c>
       <c r="G64" t="n">
-        <v>27.22711372375488</v>
+        <v>51.36246109008789</v>
       </c>
       <c r="H64" t="n">
-        <v>9.181017875671387</v>
+        <v>-67.28884124755859</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.6171645283699035</v>
+        <v>-35653980.82093962</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.3812664830684662</v>
+        <v>0.4635834234952927</v>
       </c>
       <c r="C65" t="n">
-        <v>38.32963180541992</v>
+        <v>38.68009185791016</v>
       </c>
       <c r="D65" t="n">
-        <v>28.18755531311035</v>
+        <v>21.68047714233398</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6283907294273376</v>
+        <v>-31.65965270996094</v>
       </c>
       <c r="F65" t="n">
-        <v>36.46232604980469</v>
+        <v>13.30561447143555</v>
       </c>
       <c r="G65" t="n">
-        <v>29.05596351623535</v>
+        <v>51.24460601806641</v>
       </c>
       <c r="H65" t="n">
-        <v>10.07996082305908</v>
+        <v>-67.31417846679688</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.6716454386711121</v>
+        <v>-17826991.27846842</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.3327674162387848</v>
+        <v>0.4666745185852051</v>
       </c>
       <c r="C66" t="n">
-        <v>38.93289947509766</v>
+        <v>38.69898986816406</v>
       </c>
       <c r="D66" t="n">
-        <v>29.46110725402832</v>
+        <v>21.6633472442627</v>
       </c>
       <c r="E66" t="n">
-        <v>2.1742844581604</v>
+        <v>-31.74240684509277</v>
       </c>
       <c r="F66" t="n">
-        <v>35.15173721313477</v>
+        <v>13.167067527771</v>
       </c>
       <c r="G66" t="n">
-        <v>30.72871589660645</v>
+        <v>51.13038635253906</v>
       </c>
       <c r="H66" t="n">
-        <v>11.36575603485107</v>
+        <v>-67.33895111083984</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.689525260925293</v>
+        <v>-8913496.513060626</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.2872552275657654</v>
+        <v>0.4697114676237106</v>
       </c>
       <c r="C67" t="n">
-        <v>39.13088226318359</v>
+        <v>38.72310256958008</v>
       </c>
       <c r="D67" t="n">
-        <v>29.46110725402832</v>
+        <v>21.64938354492188</v>
       </c>
       <c r="E67" t="n">
-        <v>3.297256946563721</v>
+        <v>-31.82271957397461</v>
       </c>
       <c r="F67" t="n">
-        <v>33.9218635559082</v>
+        <v>13.03095054626465</v>
       </c>
       <c r="G67" t="n">
-        <v>31.93523406982422</v>
+        <v>51.01979446411133</v>
       </c>
       <c r="H67" t="n">
-        <v>12.78410816192627</v>
+        <v>-67.36342620849609</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.6565076053142548</v>
+        <v>-4456749.137142296</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.2427374276518822</v>
+        <v>0.4727021998167038</v>
       </c>
       <c r="C68" t="n">
-        <v>38.76527786254883</v>
+        <v>38.75211715698242</v>
       </c>
       <c r="D68" t="n">
-        <v>30.84030723571777</v>
+        <v>21.63811111450195</v>
       </c>
       <c r="E68" t="n">
-        <v>3.990348339080811</v>
+        <v>-31.90066719055176</v>
       </c>
       <c r="F68" t="n">
-        <v>32.7188606262207</v>
+        <v>12.89690399169922</v>
       </c>
       <c r="G68" t="n">
-        <v>32.72170639038086</v>
+        <v>50.91329193115234</v>
       </c>
       <c r="H68" t="n">
-        <v>14.16335201263428</v>
+        <v>-67.38668823242188</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.5782817244529724</v>
+        <v>-2228375.456875156</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.1942572677135468</v>
+        <v>0.4756431770324707</v>
       </c>
       <c r="C69" t="n">
-        <v>37.89908218383789</v>
+        <v>38.7859001159668</v>
       </c>
       <c r="D69" t="n">
-        <v>30.35566139221191</v>
+        <v>21.62948226928711</v>
       </c>
       <c r="E69" t="n">
-        <v>4.369537830352783</v>
+        <v>-31.97621536254883</v>
       </c>
       <c r="F69" t="n">
-        <v>31.40878295898438</v>
+        <v>12.76508712768555</v>
       </c>
       <c r="G69" t="n">
-        <v>33.23163223266602</v>
+        <v>50.81100463867188</v>
       </c>
       <c r="H69" t="n">
-        <v>15.39427661895752</v>
+        <v>-67.40883636474609</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.4715419453382492</v>
+        <v>-1114188.625271832</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.1364069819450378</v>
+        <v>0.4785340201854706</v>
       </c>
       <c r="C70" t="n">
-        <v>36.7171516418457</v>
+        <v>38.82419586181641</v>
       </c>
       <c r="D70" t="n">
-        <v>29.77163314819336</v>
+        <v>21.62321662902832</v>
       </c>
       <c r="E70" t="n">
-        <v>4.620995044708252</v>
+        <v>-32.04933547973633</v>
       </c>
       <c r="F70" t="n">
-        <v>29.84549713134766</v>
+        <v>12.63551616668701</v>
       </c>
       <c r="G70" t="n">
-        <v>33.57363891601562</v>
+        <v>50.7132682800293</v>
       </c>
       <c r="H70" t="n">
-        <v>16.39856338500977</v>
+        <v>-67.42952728271484</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.3542531001567841</v>
+        <v>-557095.2187918839</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.06594030290842057</v>
+        <v>0.4813735604286194</v>
       </c>
       <c r="C71" t="n">
-        <v>35.41841125488281</v>
+        <v>38.86666488647461</v>
       </c>
       <c r="D71" t="n">
-        <v>29.50789642333984</v>
+        <v>21.61892127990723</v>
       </c>
       <c r="E71" t="n">
-        <v>4.932131290435791</v>
+        <v>-32.11993026733398</v>
       </c>
       <c r="F71" t="n">
-        <v>26.82819938659668</v>
+        <v>12.5082483291626</v>
       </c>
       <c r="G71" t="n">
-        <v>33.79530334472656</v>
+        <v>50.62052917480469</v>
       </c>
       <c r="H71" t="n">
-        <v>17.12994575500488</v>
+        <v>-67.44825744628906</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.2386712771654129</v>
+        <v>-278548.5255808704</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01643993789330125</v>
+        <v>0.4841533315181732</v>
       </c>
       <c r="C72" t="n">
-        <v>34.13857269287109</v>
+        <v>38.9130744934082</v>
       </c>
       <c r="D72" t="n">
-        <v>29.79030799865723</v>
+        <v>21.61655044555664</v>
       </c>
       <c r="E72" t="n">
-        <v>5.430602550506592</v>
+        <v>-32.18790435791016</v>
       </c>
       <c r="F72" t="n">
-        <v>25.05810165405273</v>
+        <v>12.38365459442139</v>
       </c>
       <c r="G72" t="n">
-        <v>33.91798782348633</v>
+        <v>50.53296661376953</v>
       </c>
       <c r="H72" t="n">
-        <v>17.58802795410156</v>
+        <v>-67.46521759033203</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.1314612345397473</v>
+        <v>-139275.1896349331</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1062566819787026</v>
+        <v>0.4868689423799515</v>
       </c>
       <c r="C73" t="n">
-        <v>32.95143508911133</v>
+        <v>38.96300506591797</v>
       </c>
       <c r="D73" t="n">
-        <v>30.62094497680664</v>
+        <v>21.61576843261719</v>
       </c>
       <c r="E73" t="n">
-        <v>6.12549352645874</v>
+        <v>-32.25313186645508</v>
       </c>
       <c r="F73" t="n">
-        <v>22.95653915405273</v>
+        <v>12.26194000244141</v>
       </c>
       <c r="G73" t="n">
-        <v>33.98350143432617</v>
+        <v>50.45096588134766</v>
       </c>
       <c r="H73" t="n">
-        <v>17.86088371276855</v>
+        <v>-67.47998046875</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.034417859390378</v>
+        <v>-69638.53288776141</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1962922304868698</v>
+        <v>0.4895113265514374</v>
       </c>
       <c r="C74" t="n">
-        <v>31.87687301635742</v>
+        <v>39.01607513427734</v>
       </c>
       <c r="D74" t="n">
-        <v>31.84409332275391</v>
+        <v>21.61644554138184</v>
       </c>
       <c r="E74" t="n">
-        <v>6.987625598907471</v>
+        <v>-32.31550598144531</v>
       </c>
       <c r="F74" t="n">
-        <v>20.79701995849609</v>
+        <v>12.14350700378418</v>
       </c>
       <c r="G74" t="n">
-        <v>34.07046508789062</v>
+        <v>50.37478637695312</v>
       </c>
       <c r="H74" t="n">
-        <v>18.1189022064209</v>
+        <v>-67.49248504638672</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.05263351589441299</v>
+        <v>-34820.21618129125</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278351234793663</v>
+        <v>0.492068258523941</v>
       </c>
       <c r="C75" t="n">
-        <v>30.9129524230957</v>
+        <v>39.07196426391602</v>
       </c>
       <c r="D75" t="n">
-        <v>33.24364852905273</v>
+        <v>21.61869049072266</v>
       </c>
       <c r="E75" t="n">
-        <v>8.002773284912109</v>
+        <v>-32.37491607666016</v>
       </c>
       <c r="F75" t="n">
-        <v>18.81434631347656</v>
+        <v>12.02890300750732</v>
       </c>
       <c r="G75" t="n">
-        <v>34.25839614868164</v>
+        <v>50.30441284179688</v>
       </c>
       <c r="H75" t="n">
-        <v>18.49376106262207</v>
+        <v>-67.50322723388672</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.1267539319396019</v>
+        <v>-17411.06985909398</v>
       </c>
       <c r="B76" t="n">
-        <v>0.345176939368248</v>
+        <v>0.4945346206426621</v>
       </c>
       <c r="C76" t="n">
-        <v>30.09221649169922</v>
+        <v>39.13005065917969</v>
       </c>
       <c r="D76" t="n">
-        <v>34.66004180908203</v>
+        <v>21.62211608886719</v>
       </c>
       <c r="E76" t="n">
-        <v>9.182960510253906</v>
+        <v>-32.43130111694336</v>
       </c>
       <c r="F76" t="n">
-        <v>17.17961311340332</v>
+        <v>11.91835975646973</v>
       </c>
       <c r="G76" t="n">
-        <v>34.60054397583008</v>
+        <v>50.24031448364258</v>
       </c>
       <c r="H76" t="n">
-        <v>19.00377655029297</v>
+        <v>-67.5115966796875</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.1851622000336647</v>
+        <v>-8706.509007976927</v>
       </c>
       <c r="B77" t="n">
-        <v>0.392795422077179</v>
+        <v>0.4968980610370636</v>
       </c>
       <c r="C77" t="n">
-        <v>29.44546127319336</v>
+        <v>39.18994903564453</v>
       </c>
       <c r="D77" t="n">
-        <v>36.05115509033203</v>
+        <v>21.62689208984375</v>
       </c>
       <c r="E77" t="n">
-        <v>10.53608512878418</v>
+        <v>-32.48457717895508</v>
       </c>
       <c r="F77" t="n">
-        <v>15.95424842834473</v>
+        <v>11.81242847442627</v>
       </c>
       <c r="G77" t="n">
-        <v>35.06935882568359</v>
+        <v>50.18238067626953</v>
       </c>
       <c r="H77" t="n">
-        <v>19.48480796813965</v>
+        <v>-67.51805114746094</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.2258836162090302</v>
+        <v>-4354.241072465617</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4229918599128724</v>
+        <v>0.4991478705406189</v>
       </c>
       <c r="C78" t="n">
-        <v>28.99455261230469</v>
+        <v>39.25123596191406</v>
       </c>
       <c r="D78" t="n">
-        <v>37.42462539672852</v>
+        <v>21.63313293457031</v>
       </c>
       <c r="E78" t="n">
-        <v>11.9438533782959</v>
+        <v>-32.53470993041992</v>
       </c>
       <c r="F78" t="n">
-        <v>15.95424842834473</v>
+        <v>11.71158885955811</v>
       </c>
       <c r="G78" t="n">
-        <v>35.55921173095703</v>
+        <v>50.1304817199707</v>
       </c>
       <c r="H78" t="n">
-        <v>19.72924613952637</v>
+        <v>-67.52298736572266</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.2558072546124459</v>
+        <v>-2178.119669057945</v>
       </c>
       <c r="B79" t="n">
-        <v>0.441812698841095</v>
+        <v>0.5012760251760483</v>
       </c>
       <c r="C79" t="n">
-        <v>28.6632080078125</v>
+        <v>39.31341934204102</v>
       </c>
       <c r="D79" t="n">
-        <v>38.75397872924805</v>
+        <v>21.64086532592773</v>
       </c>
       <c r="E79" t="n">
-        <v>13.2142219543457</v>
+        <v>-32.5816650390625</v>
       </c>
       <c r="F79" t="n">
-        <v>14.22028827667236</v>
+        <v>11.6162052154541</v>
       </c>
       <c r="G79" t="n">
-        <v>35.90646743774414</v>
+        <v>50.08460235595703</v>
       </c>
       <c r="H79" t="n">
-        <v>19.48108291625977</v>
+        <v>-67.52658081054688</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.2836674672365189</v>
+        <v>-1090.071500301172</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4577387773990632</v>
+        <v>0.5032769966125489</v>
       </c>
       <c r="C80" t="n">
-        <v>28.35471153259277</v>
+        <v>39.37597274780273</v>
       </c>
       <c r="D80" t="n">
-        <v>39.9371223449707</v>
+        <v>21.65003776550293</v>
       </c>
       <c r="E80" t="n">
-        <v>14.04343795776367</v>
+        <v>-32.62546920776367</v>
       </c>
       <c r="F80" t="n">
-        <v>13.78991794586182</v>
+        <v>11.52651977539062</v>
       </c>
       <c r="G80" t="n">
-        <v>35.99247741699219</v>
+        <v>50.04469299316406</v>
       </c>
       <c r="H80" t="n">
-        <v>18.62074851989746</v>
+        <v>-67.52873992919922</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.317411482334137</v>
+        <v>-546.0598477171907</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4762903392314911</v>
+        <v>0.5051463621854783</v>
       </c>
       <c r="C81" t="n">
-        <v>27.98106384277344</v>
+        <v>39.43836975097656</v>
       </c>
       <c r="D81" t="n">
-        <v>40.86770629882812</v>
+        <v>21.66054153442383</v>
       </c>
       <c r="E81" t="n">
-        <v>14.09415626525879</v>
+        <v>-32.66617965698242</v>
       </c>
       <c r="F81" t="n">
-        <v>13.28859996795654</v>
+        <v>11.44273471832275</v>
       </c>
       <c r="G81" t="n">
-        <v>35.77731704711914</v>
+        <v>50.01073455810547</v>
       </c>
       <c r="H81" t="n">
-        <v>15.88971519470215</v>
+        <v>-67.52940368652344</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.3578579825162888</v>
+        <v>-274.066273153973</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4961593180894852</v>
+        <v>0.5068796992301942</v>
       </c>
       <c r="C82" t="n">
-        <v>27.53319931030273</v>
+        <v>39.50026321411133</v>
       </c>
       <c r="D82" t="n">
-        <v>41.52560424804688</v>
+        <v>21.67258071899414</v>
       </c>
       <c r="E82" t="n">
-        <v>11.95227241516113</v>
+        <v>-32.70382308959961</v>
       </c>
       <c r="F82" t="n">
-        <v>12.75168132781982</v>
+        <v>11.36504459381104</v>
       </c>
       <c r="G82" t="n">
-        <v>35.3460578918457</v>
+        <v>49.98233413696289</v>
       </c>
       <c r="H82" t="n">
-        <v>13.65417671203613</v>
+        <v>-67.52904510498047</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.3913508534431458</v>
+        <v>-138.0814809602263</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5094585549831391</v>
+        <v>0.5084756493568421</v>
       </c>
       <c r="C83" t="n">
-        <v>27.16233253479004</v>
+        <v>39.56126022338867</v>
       </c>
       <c r="D83" t="n">
-        <v>42.0261344909668</v>
+        <v>21.68611907958984</v>
       </c>
       <c r="E83" t="n">
-        <v>9.521560668945312</v>
+        <v>-32.73849868774414</v>
       </c>
       <c r="F83" t="n">
-        <v>12.39229679107666</v>
+        <v>11.29351234436035</v>
       </c>
       <c r="G83" t="n">
-        <v>34.95891571044922</v>
+        <v>49.95927810668945</v>
       </c>
       <c r="H83" t="n">
-        <v>10.37976169586182</v>
+        <v>-67.52770233154297</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.3955601876974106</v>
+        <v>-70.10075273721228</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5032474279403687</v>
+        <v>0.509935507774353</v>
       </c>
       <c r="C84" t="n">
-        <v>27.11572265625</v>
+        <v>39.62097930908203</v>
       </c>
       <c r="D84" t="n">
-        <v>42.57276153564453</v>
+        <v>21.70108413696289</v>
       </c>
       <c r="E84" t="n">
-        <v>5.82017707824707</v>
+        <v>-32.77031326293945</v>
       </c>
       <c r="F84" t="n">
-        <v>12.56013965606689</v>
+        <v>11.2280797958374</v>
       </c>
       <c r="G84" t="n">
-        <v>35.05033111572266</v>
+        <v>49.94132614135742</v>
       </c>
       <c r="H84" t="n">
-        <v>6.231680870056152</v>
+        <v>-67.52527618408203</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.3489091628789902</v>
+        <v>-28.24382800462745</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5616752168536301</v>
+        <v>0.5272609463969304</v>
       </c>
       <c r="C85" t="n">
-        <v>27.63228988647461</v>
+        <v>39.67906951904297</v>
       </c>
       <c r="D85" t="n">
-        <v>43.32842254638672</v>
+        <v>21.71738243103027</v>
       </c>
       <c r="E85" t="n">
-        <v>1.266692399978638</v>
+        <v>-32.7994384765625</v>
       </c>
       <c r="F85" t="n">
-        <v>13.52177238464355</v>
+        <v>11.16859531402588</v>
       </c>
       <c r="G85" t="n">
-        <v>37.17925262451172</v>
+        <v>49.92819976806641</v>
       </c>
       <c r="H85" t="n">
-        <v>1.755242109298706</v>
+        <v>-67.52173614501953</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.697689461151503</v>
+        <v>-39.37528666741317</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6689194212647045</v>
+        <v>0.5429039658099015</v>
       </c>
       <c r="C86" t="n">
-        <v>28.77084732055664</v>
+        <v>39.73524856567383</v>
       </c>
       <c r="D86" t="n">
-        <v>44.40105056762695</v>
+        <v>21.73491287231445</v>
       </c>
       <c r="E86" t="n">
-        <v>-3.179390907287598</v>
+        <v>-32.82602310180664</v>
       </c>
       <c r="F86" t="n">
-        <v>16.59519577026367</v>
+        <v>11.11483192443848</v>
       </c>
       <c r="G86" t="n">
-        <v>39.32229232788086</v>
+        <v>49.91962432861328</v>
       </c>
       <c r="H86" t="n">
-        <v>-2.237353801727295</v>
+        <v>-67.51690673828125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9420953160275408</v>
+        <v>86.98834364875333</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8078920195566212</v>
+        <v>0.5570997813666416</v>
       </c>
       <c r="C87" t="n">
-        <v>30.37167167663574</v>
+        <v>39.7892951965332</v>
       </c>
       <c r="D87" t="n">
-        <v>46.91280364990234</v>
+        <v>21.75357818603516</v>
       </c>
       <c r="E87" t="n">
-        <v>-6.486773014068604</v>
+        <v>-32.85025787353516</v>
       </c>
       <c r="F87" t="n">
-        <v>18.65243911743164</v>
+        <v>11.0665225982666</v>
       </c>
       <c r="G87" t="n">
-        <v>42.22866058349609</v>
+        <v>49.91523361206055</v>
       </c>
       <c r="H87" t="n">
-        <v>-5.197760581970215</v>
+        <v>-67.51078796386719</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.007540063871835</v>
+        <v>-397.7138608658451</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9269014661859626</v>
+        <v>0.5700494672913685</v>
       </c>
       <c r="C88" t="n">
-        <v>33.33246612548828</v>
+        <v>39.84102249145508</v>
       </c>
       <c r="D88" t="n">
-        <v>48.60111999511719</v>
+        <v>21.77326583862305</v>
       </c>
       <c r="E88" t="n">
-        <v>-8.182005882263184</v>
+        <v>-32.87231063842773</v>
       </c>
       <c r="F88" t="n">
-        <v>21.13196563720703</v>
+        <v>11.0233325958252</v>
       </c>
       <c r="G88" t="n">
-        <v>45.46441650390625</v>
+        <v>49.9146728515625</v>
       </c>
       <c r="H88" t="n">
-        <v>-6.930350780487061</v>
+        <v>-67.50328063964844</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9962622614157711</v>
+        <v>1654.864825101396</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9869959147333046</v>
+        <v>0.5819253591076861</v>
       </c>
       <c r="C89" t="n">
-        <v>35.04504013061523</v>
+        <v>39.89030075073242</v>
       </c>
       <c r="D89" t="n">
-        <v>50.66244888305664</v>
+        <v>21.79386329650879</v>
       </c>
       <c r="E89" t="n">
-        <v>-8.182005882263184</v>
+        <v>-32.89237594604492</v>
       </c>
       <c r="F89" t="n">
-        <v>23.79219055175781</v>
+        <v>10.98492336273193</v>
       </c>
       <c r="G89" t="n">
-        <v>48.57342529296875</v>
+        <v>49.91757202148438</v>
       </c>
       <c r="H89" t="n">
-        <v>-6.930350780487061</v>
+        <v>-67.49431610107422</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.003351243067106</v>
+        <v>-7009.421411144463</v>
       </c>
       <c r="B90" t="n">
-        <v>1.000266070592651</v>
+        <v>0.5928747986827279</v>
       </c>
       <c r="C90" t="n">
-        <v>37.11256408691406</v>
+        <v>39.93704605102539</v>
       </c>
       <c r="D90" t="n">
-        <v>52.777099609375</v>
+        <v>21.81525993347168</v>
       </c>
       <c r="E90" t="n">
-        <v>-8.697599411010742</v>
+        <v>-32.91064834594727</v>
       </c>
       <c r="F90" t="n">
-        <v>26.5361328125</v>
+        <v>10.9509220123291</v>
       </c>
       <c r="G90" t="n">
-        <v>51.24121475219727</v>
+        <v>49.92358016967773</v>
       </c>
       <c r="H90" t="n">
-        <v>-6.545940399169922</v>
+        <v>-67.48383331298828</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9956119624126467</v>
+        <v>29887.06756621301</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9999420251476517</v>
+        <v>0.6030244148024426</v>
       </c>
       <c r="C91" t="n">
-        <v>39.27211761474609</v>
+        <v>39.98119354248047</v>
       </c>
       <c r="D91" t="n">
-        <v>54.64056396484375</v>
+        <v>21.83732032775879</v>
       </c>
       <c r="E91" t="n">
-        <v>-5.919290542602539</v>
+        <v>-32.92728042602539</v>
       </c>
       <c r="F91" t="n">
-        <v>29.36209487915039</v>
+        <v>10.92098522186279</v>
       </c>
       <c r="G91" t="n">
-        <v>53.41510772705078</v>
+        <v>49.93236541748047</v>
       </c>
       <c r="H91" t="n">
-        <v>-4.342994213104248</v>
+        <v>-67.47180938720703</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.007429105938605</v>
+        <v>-128306.0435770024</v>
       </c>
       <c r="B92" t="n">
-        <v>1.000024403555678</v>
+        <v>0.6124827630790164</v>
       </c>
       <c r="C92" t="n">
-        <v>41.30249786376953</v>
+        <v>40.02273559570312</v>
       </c>
       <c r="D92" t="n">
-        <v>56.02887344360352</v>
+        <v>21.85992240905762</v>
       </c>
       <c r="E92" t="n">
-        <v>-4.301352500915527</v>
+        <v>-32.94244766235352</v>
       </c>
       <c r="F92" t="n">
-        <v>32.29379272460938</v>
+        <v>10.89476203918457</v>
       </c>
       <c r="G92" t="n">
-        <v>55.30809783935547</v>
+        <v>49.94359970092773</v>
       </c>
       <c r="H92" t="n">
-        <v>-1.777125239372253</v>
+        <v>-67.45819854736328</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9850155514192568</v>
+        <v>554347.2498520999</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9999845522479412</v>
+        <v>0.6213427528326976</v>
       </c>
       <c r="C93" t="n">
-        <v>43.13491821289062</v>
+        <v>40.06167602539062</v>
       </c>
       <c r="D93" t="n">
-        <v>56.02887344360352</v>
+        <v>21.8829460144043</v>
       </c>
       <c r="E93" t="n">
-        <v>-2.534652471542358</v>
+        <v>-32.95631408691406</v>
       </c>
       <c r="F93" t="n">
-        <v>35.319580078125</v>
+        <v>10.87189674377441</v>
       </c>
       <c r="G93" t="n">
-        <v>57.22671127319336</v>
+        <v>49.95700836181641</v>
       </c>
       <c r="H93" t="n">
-        <v>0.5814427733421326</v>
+        <v>-67.44295501708984</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.034396758797747</v>
+        <v>-2409152.878627077</v>
       </c>
       <c r="B94" t="n">
-        <v>1.000013143694534</v>
+        <v>0.6296841902574042</v>
       </c>
       <c r="C94" t="n">
-        <v>44.75842666625977</v>
+        <v>40.09806060791016</v>
       </c>
       <c r="D94" t="n">
-        <v>57.61953735351562</v>
+        <v>21.9062671661377</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.9812861680984497</v>
+        <v>-32.9690055847168</v>
       </c>
       <c r="F94" t="n">
-        <v>38.36809539794922</v>
+        <v>10.85207271575928</v>
       </c>
       <c r="G94" t="n">
-        <v>59.29928970336914</v>
+        <v>49.97228622436523</v>
       </c>
       <c r="H94" t="n">
-        <v>2.381116628646851</v>
+        <v>-67.42617034912109</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9127512836094659</v>
+        <v>10526959.57629161</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9999859981778464</v>
+        <v>0.637575104260772</v>
       </c>
       <c r="C95" t="n">
-        <v>46.21663665771484</v>
+        <v>40.13193130493164</v>
       </c>
       <c r="D95" t="n">
-        <v>57.25435256958008</v>
+        <v>21.92978096008301</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.9812861680984497</v>
+        <v>-32.98065185546875</v>
       </c>
       <c r="F95" t="n">
-        <v>41.28844451904297</v>
+        <v>10.8349609375</v>
       </c>
       <c r="G95" t="n">
-        <v>61.37871551513672</v>
+        <v>49.98917007446289</v>
       </c>
       <c r="H95" t="n">
-        <v>3.556684017181396</v>
+        <v>-67.40778350830078</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.240531165287422</v>
+        <v>-46228455.17022316</v>
       </c>
       <c r="B96" t="n">
-        <v>1.00001764570098</v>
+        <v>0.6450738036501191</v>
       </c>
       <c r="C96" t="n">
-        <v>47.58235168457031</v>
+        <v>40.16337585449219</v>
       </c>
       <c r="D96" t="n">
-        <v>56.4928092956543</v>
+        <v>21.95337677001953</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9673294425010681</v>
+        <v>-32.99138259887695</v>
       </c>
       <c r="F96" t="n">
-        <v>43.87192153930664</v>
+        <v>10.82027435302734</v>
       </c>
       <c r="G96" t="n">
-        <v>63.05635452270508</v>
+        <v>50.00743865966797</v>
       </c>
       <c r="H96" t="n">
-        <v>3.556684017181396</v>
+        <v>-67.38786315917969</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.783031202647511</v>
+        <v>203942374.2301936</v>
       </c>
       <c r="B97" t="n">
-        <v>0.999974994184807</v>
+        <v>0.6522296078663996</v>
       </c>
       <c r="C97" t="n">
-        <v>48.89788436889648</v>
+        <v>40.19248199462891</v>
       </c>
       <c r="D97" t="n">
-        <v>55.36828994750977</v>
+        <v>21.97695922851562</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.980978965759277</v>
+        <v>-33.00130844116211</v>
       </c>
       <c r="F97" t="n">
-        <v>45.88793182373047</v>
+        <v>10.80770969390869</v>
       </c>
       <c r="G97" t="n">
-        <v>63.05635452270508</v>
+        <v>50.02684783935547</v>
       </c>
       <c r="H97" t="n">
-        <v>4.742729663848877</v>
+        <v>-67.36642456054688</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-2.43814521118609</v>
+        <v>-903505822.8940774</v>
       </c>
       <c r="B98" t="n">
-        <v>1.000037964958394</v>
+        <v>0.6590844909756177</v>
       </c>
       <c r="C98" t="n">
-        <v>50.04848098754883</v>
+        <v>40.21935272216797</v>
       </c>
       <c r="D98" t="n">
-        <v>51.79007720947266</v>
+        <v>22.00044441223145</v>
       </c>
       <c r="E98" t="n">
-        <v>-6.153481483459473</v>
+        <v>-33.01050567626953</v>
       </c>
       <c r="F98" t="n">
-        <v>47.10234069824219</v>
+        <v>10.79700756072998</v>
       </c>
       <c r="G98" t="n">
-        <v>62.64891815185547</v>
+        <v>50.04716110229492</v>
       </c>
       <c r="H98" t="n">
-        <v>2.921331644058228</v>
+        <v>-67.34363555908203</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>12.07786649064055</v>
+        <v>4018140801.278236</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9999412656220948</v>
+        <v>0.6656735244804897</v>
       </c>
       <c r="C99" t="n">
-        <v>50.04848098754883</v>
+        <v>40.24409484863281</v>
       </c>
       <c r="D99" t="n">
-        <v>47.90574645996094</v>
+        <v>22.02376365661621</v>
       </c>
       <c r="E99" t="n">
-        <v>-11.99247360229492</v>
+        <v>-33.01906585693359</v>
       </c>
       <c r="F99" t="n">
-        <v>47.10234069824219</v>
+        <v>10.78789806365967</v>
       </c>
       <c r="G99" t="n">
-        <v>58.17870330810547</v>
+        <v>50.06818771362305</v>
       </c>
       <c r="H99" t="n">
-        <v>0.8360865116119385</v>
+        <v>-67.31948852539062</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-32.3270769092976</v>
+        <v>-17932701195.29084</v>
       </c>
       <c r="B100" t="n">
-        <v>1.000088048940949</v>
+        <v>0.672026088056254</v>
       </c>
       <c r="C100" t="n">
-        <v>51.106201171875</v>
+        <v>40.2668342590332</v>
       </c>
       <c r="D100" t="n">
-        <v>42.27038955688477</v>
+        <v>22.04685211181641</v>
       </c>
       <c r="E100" t="n">
-        <v>-16.84775543212891</v>
+        <v>-33.02704238891602</v>
       </c>
       <c r="F100" t="n">
-        <v>47.62979888916016</v>
+        <v>10.7801456451416</v>
       </c>
       <c r="G100" t="n">
-        <v>51.31615447998047</v>
+        <v>50.08975219726562</v>
       </c>
       <c r="H100" t="n">
-        <v>-1.058764100074768</v>
+        <v>-67.29411315917969</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>85.62055243622058</v>
+        <v>80289563448.7961</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9998747128000008</v>
+        <v>0.6781665412055182</v>
       </c>
       <c r="C101" t="n">
-        <v>48.05461883544922</v>
+        <v>40.28768920898438</v>
       </c>
       <c r="D101" t="n">
-        <v>36.81440353393555</v>
+        <v>22.06965637207031</v>
       </c>
       <c r="E101" t="n">
-        <v>-18.18910026550293</v>
+        <v>-33.03450775146484</v>
       </c>
       <c r="F101" t="n">
-        <v>46.53877639770508</v>
+        <v>10.77352428436279</v>
       </c>
       <c r="G101" t="n">
-        <v>44.64745330810547</v>
+        <v>50.11166000366211</v>
       </c>
       <c r="H101" t="n">
-        <v>-1.058764100074768</v>
+        <v>-67.26759338378906</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-189.3555372406414</v>
+        <v>-360529900950.952</v>
       </c>
       <c r="B102" t="n">
-        <v>1.000174168022414</v>
+        <v>0.6841148696957391</v>
       </c>
       <c r="C102" t="n">
-        <v>46.5158576965332</v>
+        <v>40.30678558349609</v>
       </c>
       <c r="D102" t="n">
-        <v>33.21406173706055</v>
+        <v>22.09211540222168</v>
       </c>
       <c r="E102" t="n">
-        <v>-15.88039493560791</v>
+        <v>-33.04149627685547</v>
       </c>
       <c r="F102" t="n">
-        <v>46.06934356689453</v>
+        <v>10.76783084869385</v>
       </c>
       <c r="G102" t="n">
-        <v>40.30773544311523</v>
+        <v>50.13380813598633</v>
       </c>
       <c r="H102" t="n">
-        <v>0.8301732540130615</v>
+        <v>-67.24002075195312</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-94.55521376363292</v>
+        <v>-180264950476.6688</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9997587057486973</v>
+        <v>0.6898876681179981</v>
       </c>
       <c r="C103" t="n">
-        <v>37.64875793457031</v>
+        <v>40.32423782348633</v>
       </c>
       <c r="D103" t="n">
-        <v>28.09492492675781</v>
+        <v>22.11417007446289</v>
       </c>
       <c r="E103" t="n">
-        <v>-12.56424999237061</v>
+        <v>-33.04806900024414</v>
       </c>
       <c r="F103" t="n">
-        <v>33.13282775878906</v>
+        <v>10.76289749145508</v>
       </c>
       <c r="G103" t="n">
-        <v>34.66215896606445</v>
+        <v>50.15606689453125</v>
       </c>
       <c r="H103" t="n">
-        <v>-1.288650512695312</v>
+        <v>-67.21146392822266</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-47.2998062120346</v>
+        <v>-90132475239.53011</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2181545200943947</v>
+        <v>0.5204107785224915</v>
       </c>
       <c r="C104" t="n">
-        <v>34.81807327270508</v>
+        <v>40.34015655517578</v>
       </c>
       <c r="D104" t="n">
-        <v>24.97395896911621</v>
+        <v>22.13575553894043</v>
       </c>
       <c r="E104" t="n">
-        <v>-11.25003528594971</v>
+        <v>-33.05425262451172</v>
       </c>
       <c r="F104" t="n">
-        <v>26.84040069580078</v>
+        <v>10.75857067108154</v>
       </c>
       <c r="G104" t="n">
-        <v>34.66215896606445</v>
+        <v>50.17837905883789</v>
       </c>
       <c r="H104" t="n">
-        <v>-1.288650512695312</v>
+        <v>-67.18196105957031</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-23.76045164443392</v>
+        <v>-45066237620.96341</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2076531240344048</v>
+        <v>0.5204966413974762</v>
       </c>
       <c r="C105" t="n">
-        <v>34.81807327270508</v>
+        <v>40.35465621948242</v>
       </c>
       <c r="D105" t="n">
-        <v>23.62426376342773</v>
+        <v>22.15682220458984</v>
       </c>
       <c r="E105" t="n">
-        <v>-9.776218414306641</v>
+        <v>-33.06010055541992</v>
       </c>
       <c r="F105" t="n">
-        <v>25.51162528991699</v>
+        <v>10.75472164154053</v>
       </c>
       <c r="G105" t="n">
-        <v>37.84152221679688</v>
+        <v>50.20066070556641</v>
       </c>
       <c r="H105" t="n">
-        <v>2.184269428253174</v>
+        <v>-67.15159606933594</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-12.03758593607614</v>
+        <v>-22533118811.68247</v>
       </c>
       <c r="B106" t="n">
-        <v>0.07314247012138367</v>
+        <v>0.5205746066570283</v>
       </c>
       <c r="C106" t="n">
-        <v>33.94397354125977</v>
+        <v>40.36784362792969</v>
       </c>
       <c r="D106" t="n">
-        <v>23.62426376342773</v>
+        <v>22.17732048034668</v>
       </c>
       <c r="E106" t="n">
-        <v>-7.42302131652832</v>
+        <v>-33.06562805175781</v>
       </c>
       <c r="F106" t="n">
-        <v>27.35551834106445</v>
+        <v>10.75122833251953</v>
       </c>
       <c r="G106" t="n">
-        <v>41.67147064208984</v>
+        <v>50.22287368774414</v>
       </c>
       <c r="H106" t="n">
-        <v>4.681254386901855</v>
+        <v>-67.12040710449219</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-6.220000010970579</v>
+        <v>-11266559407.04418</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.1124982938170433</v>
+        <v>0.5206465381383896</v>
       </c>
       <c r="C107" t="n">
-        <v>34.98066329956055</v>
+        <v>40.37982177734375</v>
       </c>
       <c r="D107" t="n">
-        <v>25.18828201293945</v>
+        <v>22.19722366333008</v>
       </c>
       <c r="E107" t="n">
-        <v>-4.576029300689697</v>
+        <v>-33.07086944580078</v>
       </c>
       <c r="F107" t="n">
-        <v>30.67043304443359</v>
+        <v>10.74800491333008</v>
       </c>
       <c r="G107" t="n">
-        <v>44.69907379150391</v>
+        <v>50.24493408203125</v>
       </c>
       <c r="H107" t="n">
-        <v>7.151017189025879</v>
+        <v>-67.08851623535156</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-3.369600168885463</v>
+        <v>-5633279704.727018</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.2896044838428498</v>
+        <v>0.5207149630784988</v>
       </c>
       <c r="C108" t="n">
-        <v>35.95169830322266</v>
+        <v>40.39069366455078</v>
       </c>
       <c r="D108" t="n">
-        <v>27.02700614929199</v>
+        <v>22.21651077270508</v>
       </c>
       <c r="E108" t="n">
-        <v>-2.008668422698975</v>
+        <v>-33.07583999633789</v>
       </c>
       <c r="F108" t="n">
-        <v>34.19514465332031</v>
+        <v>10.74493885040283</v>
       </c>
       <c r="G108" t="n">
-        <v>46.0806770324707</v>
+        <v>50.26680755615234</v>
       </c>
       <c r="H108" t="n">
-        <v>9.216150283813477</v>
+        <v>-67.05597686767578</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-2.009217130751249</v>
+        <v>-2816639853.570231</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.4278022342920303</v>
+        <v>0.520781524181366</v>
       </c>
       <c r="C109" t="n">
-        <v>37.244873046875</v>
+        <v>40.40055084228516</v>
       </c>
       <c r="D109" t="n">
-        <v>28.78019523620605</v>
+        <v>22.23516273498535</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.4190082550048828</v>
+        <v>-33.08054733276367</v>
       </c>
       <c r="F109" t="n">
-        <v>37.132568359375</v>
+        <v>10.74195575714111</v>
       </c>
       <c r="G109" t="n">
-        <v>46.0806770324707</v>
+        <v>50.28843307495117</v>
       </c>
       <c r="H109" t="n">
-        <v>10.66138076782227</v>
+        <v>-67.02291107177734</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-2.009217130751249</v>
+        <v>-1408319927.993464</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.5147703331708908</v>
+        <v>0.5208476430177689</v>
       </c>
       <c r="C110" t="n">
-        <v>38.6803092956543</v>
+        <v>40.40948486328125</v>
       </c>
       <c r="D110" t="n">
-        <v>28.78019523620605</v>
+        <v>22.25317192077637</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.4190082550048828</v>
+        <v>-33.08499526977539</v>
       </c>
       <c r="F110" t="n">
-        <v>39.09676361083984</v>
+        <v>10.73899078369141</v>
       </c>
       <c r="G110" t="n">
-        <v>41.888916015625</v>
+        <v>50.30978012084961</v>
       </c>
       <c r="H110" t="n">
-        <v>10.66138076782227</v>
+        <v>-66.9893798828125</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-0.7352815806865692</v>
+        <v>-704159965.206556</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.551441330909729</v>
+        <v>0.520914804339409</v>
       </c>
       <c r="C111" t="n">
-        <v>39.63754272460938</v>
+        <v>40.41758346557617</v>
       </c>
       <c r="D111" t="n">
-        <v>29.39042282104492</v>
+        <v>22.27052688598633</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1490191966295242</v>
+        <v>-33.08920288085938</v>
       </c>
       <c r="F111" t="n">
-        <v>39.09676361083984</v>
+        <v>10.73598194122314</v>
       </c>
       <c r="G111" t="n">
-        <v>37.05451583862305</v>
+        <v>50.330810546875</v>
       </c>
       <c r="H111" t="n">
-        <v>12.06797885894775</v>
+        <v>-66.95549011230469</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-0.7222052145004273</v>
+        <v>-352079983.8144395</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.5514328646659852</v>
+        <v>0.520983829498291</v>
       </c>
       <c r="C112" t="n">
-        <v>39.49274826049805</v>
+        <v>40.4249267578125</v>
       </c>
       <c r="D112" t="n">
-        <v>27.39366722106934</v>
+        <v>22.28722381591797</v>
       </c>
       <c r="E112" t="n">
-        <v>-1.68681526184082</v>
+        <v>-33.09317398071289</v>
       </c>
       <c r="F112" t="n">
-        <v>41.06072616577148</v>
+        <v>10.73288822174072</v>
       </c>
       <c r="G112" t="n">
-        <v>31.52283096313477</v>
+        <v>50.35152435302734</v>
       </c>
       <c r="H112" t="n">
-        <v>11.24868106842041</v>
+        <v>-66.92128753662109</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.6193890023231506</v>
+        <v>-176039993.1195965</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.5367839252948762</v>
+        <v>0.5210559189319611</v>
       </c>
       <c r="C113" t="n">
-        <v>38.35426330566406</v>
+        <v>40.43158721923828</v>
       </c>
       <c r="D113" t="n">
-        <v>25.44475936889648</v>
+        <v>22.30326461791992</v>
       </c>
       <c r="E113" t="n">
-        <v>-3.070379734039307</v>
+        <v>-33.096923828125</v>
       </c>
       <c r="F113" t="n">
-        <v>40.66486740112305</v>
+        <v>10.72965717315674</v>
       </c>
       <c r="G113" t="n">
-        <v>27.16300964355469</v>
+        <v>50.37187576293945</v>
       </c>
       <c r="H113" t="n">
-        <v>10.03172206878662</v>
+        <v>-66.88684844970703</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-0.5152464330196381</v>
+        <v>-88019997.7732791</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.5215205830335617</v>
+        <v>0.5211314833164216</v>
       </c>
       <c r="C114" t="n">
-        <v>37.20109176635742</v>
+        <v>40.43763732910156</v>
       </c>
       <c r="D114" t="n">
-        <v>25.44475936889648</v>
+        <v>22.31865119934082</v>
       </c>
       <c r="E114" t="n">
-        <v>-3.114672183990479</v>
+        <v>-33.10042190551758</v>
       </c>
       <c r="F114" t="n">
-        <v>40.25240707397461</v>
+        <v>10.72626972198486</v>
       </c>
       <c r="G114" t="n">
-        <v>25.15524291992188</v>
+        <v>50.39185333251953</v>
       </c>
       <c r="H114" t="n">
-        <v>9.051618576049805</v>
+        <v>-66.85231018066406</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-0.4944442403316498</v>
+        <v>-44010000.10112487</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.5007262563705445</v>
+        <v>0.521211154460907</v>
       </c>
       <c r="C115" t="n">
-        <v>36.97074890136719</v>
+        <v>40.44313430786133</v>
       </c>
       <c r="D115" t="n">
-        <v>23.70245933532715</v>
+        <v>22.33338928222656</v>
       </c>
       <c r="E115" t="n">
-        <v>-1.843504905700684</v>
+        <v>-33.10371398925781</v>
       </c>
       <c r="F115" t="n">
-        <v>39.69048309326172</v>
+        <v>10.72269725799561</v>
       </c>
       <c r="G115" t="n">
-        <v>25.15524291992188</v>
+        <v>50.41146087646484</v>
       </c>
       <c r="H115" t="n">
-        <v>8.832234382629395</v>
+        <v>-66.81763458251953</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.566880031824112</v>
+        <v>-22005001.26596489</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.4629956513643265</v>
+        <v>0.5212952482700348</v>
       </c>
       <c r="C116" t="n">
-        <v>37.77283096313477</v>
+        <v>40.44813537597656</v>
       </c>
       <c r="D116" t="n">
-        <v>26.98427963256836</v>
+        <v>22.34748458862305</v>
       </c>
       <c r="E116" t="n">
-        <v>0.06075472384691238</v>
+        <v>-33.10676574707031</v>
       </c>
       <c r="F116" t="n">
-        <v>38.67089080810547</v>
+        <v>10.71892833709717</v>
       </c>
       <c r="G116" t="n">
-        <v>27.20565032958984</v>
+        <v>50.43069839477539</v>
       </c>
       <c r="H116" t="n">
-        <v>9.505780220031738</v>
+        <v>-66.782958984375</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-0.6772023272514344</v>
+        <v>-11002501.84922318</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.4062762725353241</v>
+        <v>0.5213842070102692</v>
       </c>
       <c r="C117" t="n">
-        <v>38.99443054199219</v>
+        <v>40.45270156860352</v>
       </c>
       <c r="D117" t="n">
-        <v>28.59103393554688</v>
+        <v>22.36095237731934</v>
       </c>
       <c r="E117" t="n">
-        <v>1.872021198272705</v>
+        <v>-33.10960388183594</v>
       </c>
       <c r="F117" t="n">
-        <v>37.13816452026367</v>
+        <v>10.71494102478027</v>
       </c>
       <c r="G117" t="n">
-        <v>29.07094955444336</v>
+        <v>50.44955062866211</v>
       </c>
       <c r="H117" t="n">
-        <v>10.86181545257568</v>
+        <v>-66.74831390380859</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-0.7558484876155853</v>
+        <v>-5501252.141620861</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.3392403966188431</v>
+        <v>0.5214779675006866</v>
       </c>
       <c r="C118" t="n">
-        <v>39.86528015136719</v>
+        <v>40.45687484741211</v>
       </c>
       <c r="D118" t="n">
-        <v>29.71907043457031</v>
+        <v>22.37380409240723</v>
       </c>
       <c r="E118" t="n">
-        <v>3.194157123565674</v>
+        <v>-33.11220550537109</v>
       </c>
       <c r="F118" t="n">
-        <v>35.32665634155273</v>
+        <v>10.71073913574219</v>
       </c>
       <c r="G118" t="n">
-        <v>30.60712623596191</v>
+        <v>50.4680290222168</v>
       </c>
       <c r="H118" t="n">
-        <v>12.5377893447876</v>
+        <v>-66.71379852294922</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-0.7607769787311555</v>
+        <v>-2750627.288526822</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.2725113904476166</v>
+        <v>0.5215767824649811</v>
       </c>
       <c r="C119" t="n">
-        <v>39.91985321044922</v>
+        <v>40.46070098876953</v>
       </c>
       <c r="D119" t="n">
-        <v>29.71907043457031</v>
+        <v>22.38605690002441</v>
       </c>
       <c r="E119" t="n">
-        <v>3.960333347320557</v>
+        <v>-33.11459732055664</v>
       </c>
       <c r="F119" t="n">
-        <v>33.52344131469727</v>
+        <v>10.7063102722168</v>
       </c>
       <c r="G119" t="n">
-        <v>30.60712623596191</v>
+        <v>50.48611831665039</v>
       </c>
       <c r="H119" t="n">
-        <v>14.21212673187256</v>
+        <v>-66.67941284179688</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.6893316113948822</v>
+        <v>-1375314.86263423</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.2106911313533783</v>
+        <v>0.5216806834936142</v>
       </c>
       <c r="C120" t="n">
-        <v>39.12873840332031</v>
+        <v>40.4642219543457</v>
       </c>
       <c r="D120" t="n">
-        <v>30.34597778320312</v>
+        <v>22.39772415161133</v>
       </c>
       <c r="E120" t="n">
-        <v>4.311775684356689</v>
+        <v>-33.11675262451172</v>
       </c>
       <c r="F120" t="n">
-        <v>31.85287475585938</v>
+        <v>10.70165348052979</v>
       </c>
       <c r="G120" t="n">
-        <v>32.59775543212891</v>
+        <v>50.50383758544922</v>
       </c>
       <c r="H120" t="n">
-        <v>15.67525959014893</v>
+        <v>-66.64521026611328</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-0.5670688164234161</v>
+        <v>-687658.6502924492</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.1506756669282913</v>
+        <v>0.5217894810438156</v>
       </c>
       <c r="C121" t="n">
-        <v>37.77492141723633</v>
+        <v>40.46747970581055</v>
       </c>
       <c r="D121" t="n">
-        <v>29.3342170715332</v>
+        <v>22.40882682800293</v>
       </c>
       <c r="E121" t="n">
-        <v>4.483999729156494</v>
+        <v>-33.11869049072266</v>
       </c>
       <c r="F121" t="n">
-        <v>30.2310791015625</v>
+        <v>10.69677639007568</v>
       </c>
       <c r="G121" t="n">
-        <v>32.69596862792969</v>
+        <v>50.52119064331055</v>
       </c>
       <c r="H121" t="n">
-        <v>16.803466796875</v>
+        <v>-66.61129760742188</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.4282339811325073</v>
+        <v>-343830.5446855117</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.08507797047495842</v>
+        <v>0.5219029223918915</v>
       </c>
       <c r="C122" t="n">
-        <v>36.23760223388672</v>
+        <v>40.47048950195312</v>
       </c>
       <c r="D122" t="n">
-        <v>28.5539379119873</v>
+        <v>22.41937446594238</v>
       </c>
       <c r="E122" t="n">
-        <v>4.699499607086182</v>
+        <v>-33.12040710449219</v>
       </c>
       <c r="F122" t="n">
-        <v>27.41529655456543</v>
+        <v>10.69169330596924</v>
       </c>
       <c r="G122" t="n">
-        <v>32.70058441162109</v>
+        <v>50.53816986083984</v>
       </c>
       <c r="H122" t="n">
-        <v>17.53767585754395</v>
+        <v>-66.57766723632812</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.2988795697689057</v>
+        <v>-171916.4924068237</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.007874114597216248</v>
+        <v>0.5220211338996887</v>
       </c>
       <c r="C123" t="n">
-        <v>34.80525970458984</v>
+        <v>40.47329711914062</v>
       </c>
       <c r="D123" t="n">
-        <v>28.50919151306152</v>
+        <v>22.42939567565918</v>
       </c>
       <c r="E123" t="n">
-        <v>5.103886127471924</v>
+        <v>-33.12190628051758</v>
       </c>
       <c r="F123" t="n">
-        <v>25.68917465209961</v>
+        <v>10.68639469146729</v>
       </c>
       <c r="G123" t="n">
-        <v>32.70161437988281</v>
+        <v>50.55480194091797</v>
       </c>
       <c r="H123" t="n">
-        <v>17.89140701293945</v>
+        <v>-66.54433441162109</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.1914717945456505</v>
+        <v>-85959.46676092269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.08127611368894577</v>
+        <v>0.522143452167511</v>
       </c>
       <c r="C124" t="n">
-        <v>33.61593246459961</v>
+        <v>40.47591018676758</v>
       </c>
       <c r="D124" t="n">
-        <v>29.29773139953613</v>
+        <v>22.43890190124512</v>
       </c>
       <c r="E124" t="n">
-        <v>5.694324016571045</v>
+        <v>-33.12319564819336</v>
       </c>
       <c r="F124" t="n">
-        <v>23.5518913269043</v>
+        <v>10.68091201782227</v>
       </c>
       <c r="G124" t="n">
-        <v>32.7014274597168</v>
+        <v>50.57109069824219</v>
       </c>
       <c r="H124" t="n">
-        <v>17.98169326782227</v>
+        <v>-66.51137542724609</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.1060936672985554</v>
+        <v>-42980.95440235198</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1755828189849854</v>
+        <v>0.5222701615095139</v>
       </c>
       <c r="C125" t="n">
-        <v>32.67053985595703</v>
+        <v>40.47836685180664</v>
       </c>
       <c r="D125" t="n">
-        <v>30.6904354095459</v>
+        <v>22.44791793823242</v>
       </c>
       <c r="E125" t="n">
-        <v>6.442527294158936</v>
+        <v>-33.1242561340332</v>
       </c>
       <c r="F125" t="n">
-        <v>21.28867340087891</v>
+        <v>10.67523097991943</v>
       </c>
       <c r="G125" t="n">
-        <v>32.73386383056641</v>
+        <v>50.58702850341797</v>
       </c>
       <c r="H125" t="n">
-        <v>18.03154182434082</v>
+        <v>-66.47882080078125</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.03555059067904949</v>
+        <v>-21491.69866053135</v>
       </c>
       <c r="B126" t="n">
-        <v>0.2639946967363357</v>
+        <v>0.5224007248878479</v>
       </c>
       <c r="C126" t="n">
-        <v>31.8894157409668</v>
+        <v>40.48067855834961</v>
       </c>
       <c r="D126" t="n">
-        <v>32.310302734375</v>
+        <v>22.45646286010742</v>
       </c>
       <c r="E126" t="n">
-        <v>7.327682018280029</v>
+        <v>-33.1251106262207</v>
       </c>
       <c r="F126" t="n">
-        <v>19.18060874938965</v>
+        <v>10.66938018798828</v>
       </c>
       <c r="G126" t="n">
-        <v>32.86735916137695</v>
+        <v>50.6026496887207</v>
       </c>
       <c r="H126" t="n">
-        <v>18.21321678161621</v>
+        <v>-66.44669342041016</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.02465289030224085</v>
+        <v>-10747.07120724693</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3362633430957794</v>
+        <v>0.5225348579883575</v>
       </c>
       <c r="C127" t="n">
-        <v>31.22278213500977</v>
+        <v>40.48285675048828</v>
       </c>
       <c r="D127" t="n">
-        <v>33.85068893432617</v>
+        <v>22.46455383300781</v>
       </c>
       <c r="E127" t="n">
-        <v>8.357690811157227</v>
+        <v>-33.12575531005859</v>
       </c>
       <c r="F127" t="n">
-        <v>17.44599151611328</v>
+        <v>10.66336727142334</v>
       </c>
       <c r="G127" t="n">
-        <v>33.17264938354492</v>
+        <v>50.61795425415039</v>
       </c>
       <c r="H127" t="n">
-        <v>18.57246017456055</v>
+        <v>-66.41495513916016</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.0763140419125557</v>
+        <v>-5374.757876749115</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3866342395544052</v>
+        <v>0.5226724028587342</v>
       </c>
       <c r="C128" t="n">
-        <v>30.65073776245117</v>
+        <v>40.48493576049805</v>
       </c>
       <c r="D128" t="n">
-        <v>35.20492935180664</v>
+        <v>22.47220993041992</v>
       </c>
       <c r="E128" t="n">
-        <v>9.566993713378906</v>
+        <v>-33.12619781494141</v>
       </c>
       <c r="F128" t="n">
-        <v>16.17401123046875</v>
+        <v>10.65720367431641</v>
       </c>
       <c r="G128" t="n">
-        <v>33.64313888549805</v>
+        <v>50.63294219970703</v>
       </c>
       <c r="H128" t="n">
-        <v>18.95016479492188</v>
+        <v>-66.38371276855469</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.1153117403388023</v>
+        <v>-2688.601589195766</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4165843349695206</v>
+        <v>0.5228128224611283</v>
       </c>
       <c r="C129" t="n">
-        <v>30.21891593933105</v>
+        <v>40.48690795898438</v>
       </c>
       <c r="D129" t="n">
-        <v>36.41019821166992</v>
+        <v>22.47945022583008</v>
       </c>
       <c r="E129" t="n">
-        <v>10.86784934997559</v>
+        <v>-33.12644577026367</v>
       </c>
       <c r="F129" t="n">
-        <v>16.17401123046875</v>
+        <v>10.65090942382812</v>
       </c>
       <c r="G129" t="n">
-        <v>34.18784713745117</v>
+        <v>50.64764022827148</v>
       </c>
       <c r="H129" t="n">
-        <v>19.17004013061523</v>
+        <v>-66.35293579101562</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.1435421299934387</v>
+        <v>-1345.52380858304</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4323840200901032</v>
+        <v>0.522955990433693</v>
       </c>
       <c r="C130" t="n">
-        <v>29.90632057189941</v>
+        <v>40.48878860473633</v>
       </c>
       <c r="D130" t="n">
-        <v>37.53018951416016</v>
+        <v>22.48629188537598</v>
       </c>
       <c r="E130" t="n">
-        <v>12.09978675842285</v>
+        <v>-33.12650680541992</v>
       </c>
       <c r="F130" t="n">
-        <v>14.47507858276367</v>
+        <v>10.64449310302734</v>
       </c>
       <c r="G130" t="n">
-        <v>34.63704299926758</v>
+        <v>50.66203689575195</v>
       </c>
       <c r="H130" t="n">
-        <v>19.00667381286621</v>
+        <v>-66.32262420654297</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.1654705068469048</v>
+        <v>-673.9852669090127</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4434512013196946</v>
+        <v>0.5231014961004258</v>
       </c>
       <c r="C131" t="n">
-        <v>29.66350746154785</v>
+        <v>40.49059677124023</v>
       </c>
       <c r="D131" t="n">
-        <v>38.55720138549805</v>
+        <v>22.49275016784668</v>
       </c>
       <c r="E131" t="n">
-        <v>12.98734283447266</v>
+        <v>-33.12637710571289</v>
       </c>
       <c r="F131" t="n">
-        <v>14.17601108551025</v>
+        <v>10.63797187805176</v>
       </c>
       <c r="G131" t="n">
-        <v>34.8475227355957</v>
+        <v>50.67616271972656</v>
       </c>
       <c r="H131" t="n">
-        <v>18.34814071655273</v>
+        <v>-66.29287719726562</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.1892845341563225</v>
+        <v>-338.2163324472355</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4571981698274613</v>
+        <v>0.5232491499185562</v>
       </c>
       <c r="C132" t="n">
-        <v>29.39981460571289</v>
+        <v>40.49233245849609</v>
       </c>
       <c r="D132" t="n">
-        <v>39.42901611328125</v>
+        <v>22.49885177612305</v>
       </c>
       <c r="E132" t="n">
-        <v>13.20596885681152</v>
+        <v>-33.12606811523438</v>
       </c>
       <c r="F132" t="n">
-        <v>13.80452728271484</v>
+        <v>10.6313533782959</v>
       </c>
       <c r="G132" t="n">
-        <v>34.75067138671875</v>
+        <v>50.69001388549805</v>
       </c>
       <c r="H132" t="n">
-        <v>17.1043586730957</v>
+        <v>-66.26358032226562</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.2219345715641975</v>
+        <v>-170.3321885763132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4749375092983246</v>
+        <v>0.5233986043930055</v>
       </c>
       <c r="C133" t="n">
-        <v>29.03828048706055</v>
+        <v>40.4940071105957</v>
       </c>
       <c r="D133" t="n">
-        <v>40.10299301147461</v>
+        <v>22.50460052490234</v>
       </c>
       <c r="E133" t="n">
-        <v>12.45911598205566</v>
+        <v>-33.12558364868164</v>
       </c>
       <c r="F133" t="n">
-        <v>13.32515716552734</v>
+        <v>10.62465476989746</v>
       </c>
       <c r="G133" t="n">
-        <v>34.39847183227539</v>
+        <v>50.70361328125</v>
       </c>
       <c r="H133" t="n">
-        <v>13.69491100311279</v>
+        <v>-66.23481750488281</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.2584849095344544</v>
+        <v>-86.39043077640353</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4907739025354386</v>
+        <v>0.523549543619156</v>
       </c>
       <c r="C134" t="n">
-        <v>28.63355827331543</v>
+        <v>40.4956169128418</v>
       </c>
       <c r="D134" t="n">
-        <v>40.63929748535156</v>
+        <v>22.5100212097168</v>
       </c>
       <c r="E134" t="n">
-        <v>8.741776466369629</v>
+        <v>-33.12493896484375</v>
       </c>
       <c r="F134" t="n">
-        <v>12.8972110748291</v>
+        <v>10.61788845062256</v>
       </c>
       <c r="G134" t="n">
-        <v>34.01949310302734</v>
+        <v>50.71695709228516</v>
       </c>
       <c r="H134" t="n">
-        <v>11.0080509185791</v>
+        <v>-66.20655822753906</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.2815913105010986</v>
+        <v>-44.41985451307207</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4918884456157684</v>
+        <v>0.5237016516923905</v>
       </c>
       <c r="C135" t="n">
-        <v>28.37770080566406</v>
+        <v>40.4971809387207</v>
       </c>
       <c r="D135" t="n">
-        <v>41.21183013916016</v>
+        <v>22.5151252746582</v>
       </c>
       <c r="E135" t="n">
-        <v>5.481441497802734</v>
+        <v>-33.12412643432617</v>
       </c>
       <c r="F135" t="n">
-        <v>12.86709308624268</v>
+        <v>10.61107158660889</v>
       </c>
       <c r="G135" t="n">
-        <v>34.03760528564453</v>
+        <v>50.73004913330078</v>
       </c>
       <c r="H135" t="n">
-        <v>7.241837024688721</v>
+        <v>-66.1788330078125</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.266373205780983</v>
+        <v>-13.73797729067362</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5536245439940625</v>
+        <v>0.52922424081206</v>
       </c>
       <c r="C136" t="n">
-        <v>28.54621124267578</v>
+        <v>40.49868774414062</v>
       </c>
       <c r="D136" t="n">
-        <v>41.98770141601562</v>
+        <v>22.51992797851562</v>
       </c>
       <c r="E136" t="n">
-        <v>1.181314945220947</v>
+        <v>-33.12316513061523</v>
       </c>
       <c r="F136" t="n">
-        <v>13.57736492156982</v>
+        <v>10.60421085357666</v>
       </c>
       <c r="G136" t="n">
-        <v>36.06854248046875</v>
+        <v>50.74291610717773</v>
       </c>
       <c r="H136" t="n">
-        <v>2.909084796905518</v>
+        <v>-66.15162658691406</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.7241163012946994</v>
+        <v>-43.22700336402705</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6581193248848123</v>
+        <v>0.5345461880792135</v>
       </c>
       <c r="C137" t="n">
-        <v>29.28881454467773</v>
+        <v>40.50014877319336</v>
       </c>
       <c r="D137" t="n">
-        <v>43.05604934692383</v>
+        <v>22.52444267272949</v>
       </c>
       <c r="E137" t="n">
-        <v>-3.092020750045776</v>
+        <v>-33.12207412719727</v>
       </c>
       <c r="F137" t="n">
-        <v>16.38583946228027</v>
+        <v>10.59731769561768</v>
       </c>
       <c r="G137" t="n">
-        <v>38.2501220703125</v>
+        <v>50.75554275512695</v>
       </c>
       <c r="H137" t="n">
-        <v>-1.108741521835327</v>
+        <v>-66.12492370605469</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.9534950625606901</v>
+        <v>149.3366328687925</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7952448118594579</v>
+        <v>0.5396726095356861</v>
       </c>
       <c r="C138" t="n">
-        <v>30.50649452209473</v>
+        <v>40.50156784057617</v>
       </c>
       <c r="D138" t="n">
-        <v>44.50319290161133</v>
+        <v>22.52868461608887</v>
       </c>
       <c r="E138" t="n">
-        <v>-6.195268154144287</v>
+        <v>-33.12083435058594</v>
       </c>
       <c r="F138" t="n">
-        <v>18.37292098999023</v>
+        <v>10.590407371521</v>
       </c>
       <c r="G138" t="n">
-        <v>41.21759033203125</v>
+        <v>50.7679557800293</v>
       </c>
       <c r="H138" t="n">
-        <v>-4.10389232635498</v>
+        <v>-66.09871673583984</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.004356133940028</v>
+        <v>-713.2519579855917</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9170899237183603</v>
+        <v>0.5446084385318727</v>
       </c>
       <c r="C139" t="n">
-        <v>32.04548645019531</v>
+        <v>40.50294494628906</v>
       </c>
       <c r="D139" t="n">
-        <v>47.48896026611328</v>
+        <v>22.53266143798828</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.651289939880371</v>
+        <v>-33.11948013305664</v>
       </c>
       <c r="F139" t="n">
-        <v>20.73750686645508</v>
+        <v>10.58348655700684</v>
       </c>
       <c r="G139" t="n">
-        <v>44.47482299804688</v>
+        <v>50.7801399230957</v>
       </c>
       <c r="H139" t="n">
-        <v>-5.798201560974121</v>
+        <v>-66.07304382324219</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9982198551960944</v>
+        <v>3291.504044056883</v>
       </c>
       <c r="B140" t="n">
-        <v>0.982301581840466</v>
+        <v>0.549358650638774</v>
       </c>
       <c r="C140" t="n">
-        <v>34.95272064208984</v>
+        <v>40.50428009033203</v>
       </c>
       <c r="D140" t="n">
-        <v>49.15275192260742</v>
+        <v>22.53638458251953</v>
       </c>
       <c r="E140" t="n">
-        <v>-7.651289939880371</v>
+        <v>-33.11800003051758</v>
       </c>
       <c r="F140" t="n">
-        <v>23.18907928466797</v>
+        <v>10.57656574249268</v>
       </c>
       <c r="G140" t="n">
-        <v>47.51011657714844</v>
+        <v>50.79213333129883</v>
       </c>
       <c r="H140" t="n">
-        <v>-5.798201560974121</v>
+        <v>-66.04786682128906</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.001369728408424</v>
+        <v>-15233.02652870105</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9993589912933802</v>
+        <v>0.5539285471185926</v>
       </c>
       <c r="C141" t="n">
-        <v>36.59421539306641</v>
+        <v>40.50558090209961</v>
       </c>
       <c r="D141" t="n">
-        <v>50.98218536376953</v>
+        <v>22.53985977172852</v>
       </c>
       <c r="E141" t="n">
-        <v>-7.743111133575439</v>
+        <v>-33.11640548706055</v>
       </c>
       <c r="F141" t="n">
-        <v>25.60787963867188</v>
+        <v>10.56967258453369</v>
       </c>
       <c r="G141" t="n">
-        <v>49.96425628662109</v>
+        <v>50.80389785766602</v>
       </c>
       <c r="H141" t="n">
-        <v>-5.317698001861572</v>
+        <v>-66.02324676513672</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.9984269259391725</v>
+        <v>70507.91567571096</v>
       </c>
       <c r="B142" t="n">
-        <v>1.000083573873634</v>
+        <v>0.5583230908085706</v>
       </c>
       <c r="C142" t="n">
-        <v>38.44126510620117</v>
+        <v>40.5068473815918</v>
       </c>
       <c r="D142" t="n">
-        <v>52.66939544677734</v>
+        <v>22.54310607910156</v>
       </c>
       <c r="E142" t="n">
-        <v>-5.961706161499023</v>
+        <v>-33.11468887329102</v>
       </c>
       <c r="F142" t="n">
-        <v>28.00579452514648</v>
+        <v>10.56280040740967</v>
       </c>
       <c r="G142" t="n">
-        <v>51.7476806640625</v>
+        <v>50.81547927856445</v>
       </c>
       <c r="H142" t="n">
-        <v>-3.24869966506958</v>
+        <v>-65.99906921386719</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.002356799187474</v>
+        <v>-326405.3669551216</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9999752331158505</v>
+        <v>0.5625475948395882</v>
       </c>
       <c r="C143" t="n">
-        <v>40.1890869140625</v>
+        <v>40.50807189941406</v>
       </c>
       <c r="D143" t="n">
-        <v>54.00979995727539</v>
+        <v>22.5461311340332</v>
       </c>
       <c r="E143" t="n">
-        <v>-2.988543510437012</v>
+        <v>-33.11286544799805</v>
       </c>
       <c r="F143" t="n">
-        <v>30.44832229614258</v>
+        <v>10.55598449707031</v>
       </c>
       <c r="G143" t="n">
-        <v>53.06891632080078</v>
+        <v>50.82686233520508</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.8923913240432739</v>
+        <v>-65.97549438476562</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.9958069594960299</v>
+        <v>1511352.960775994</v>
       </c>
       <c r="B144" t="n">
-        <v>1.000011640528761</v>
+        <v>0.5666073531818592</v>
       </c>
       <c r="C144" t="n">
-        <v>41.7440185546875</v>
+        <v>40.50928115844727</v>
       </c>
       <c r="D144" t="n">
-        <v>54.00979995727539</v>
+        <v>22.54895401000977</v>
       </c>
       <c r="E144" t="n">
-        <v>-1.553673028945923</v>
+        <v>-33.11093139648438</v>
       </c>
       <c r="F144" t="n">
-        <v>32.97460174560547</v>
+        <v>10.54923343658447</v>
       </c>
       <c r="G144" t="n">
-        <v>54.31957244873047</v>
+        <v>50.83805465698242</v>
       </c>
       <c r="H144" t="n">
-        <v>1.275893449783325</v>
+        <v>-65.95241546630859</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.008433094678368</v>
+        <v>-6999276.172384166</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9999924075742818</v>
+        <v>0.5705076065644186</v>
       </c>
       <c r="C145" t="n">
-        <v>43.09194564819336</v>
+        <v>40.51044845581055</v>
       </c>
       <c r="D145" t="n">
-        <v>55.75093078613281</v>
+        <v>22.55158424377441</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.1109875440597534</v>
+        <v>-33.1088981628418</v>
       </c>
       <c r="F145" t="n">
-        <v>35.57519149780273</v>
+        <v>10.54255485534668</v>
       </c>
       <c r="G145" t="n">
-        <v>55.7908935546875</v>
+        <v>50.84906005859375</v>
       </c>
       <c r="H145" t="n">
-        <v>2.942543983459473</v>
+        <v>-65.92984771728516</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.981399798535872</v>
+        <v>32420439.37364847</v>
       </c>
       <c r="B146" t="n">
-        <v>1.000006370100447</v>
+        <v>0.5742534763945824</v>
       </c>
       <c r="C146" t="n">
-        <v>44.30030059814453</v>
+        <v>40.51158142089844</v>
       </c>
       <c r="D146" t="n">
-        <v>55.63649368286133</v>
+        <v>22.55403327941895</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9859088063240051</v>
+        <v>-33.10676193237305</v>
       </c>
       <c r="F146" t="n">
-        <v>38.1533203125</v>
+        <v>10.5359582901001</v>
       </c>
       <c r="G146" t="n">
-        <v>57.54704284667969</v>
+        <v>50.85988235473633</v>
       </c>
       <c r="H146" t="n">
-        <v>4.051600456237793</v>
+        <v>-65.90781402587891</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.044412367801356</v>
+        <v>-150196852.8784467</v>
       </c>
       <c r="B147" t="n">
-        <v>0.999993518751512</v>
+        <v>0.5778505179620012</v>
       </c>
       <c r="C147" t="n">
-        <v>45.47965240478516</v>
+        <v>40.5126838684082</v>
       </c>
       <c r="D147" t="n">
-        <v>55.1598014831543</v>
+        <v>22.55631637573242</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9859088063240051</v>
+        <v>-33.10451889038086</v>
       </c>
       <c r="F147" t="n">
-        <v>40.53144073486328</v>
+        <v>10.52947521209717</v>
       </c>
       <c r="G147" t="n">
-        <v>59.38214111328125</v>
+        <v>50.87053680419922</v>
       </c>
       <c r="H147" t="n">
-        <v>4.051600456237793</v>
+        <v>-65.88630676269531</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.885249504313591</v>
+        <v>695947587.7918746</v>
       </c>
       <c r="B148" t="n">
-        <v>1.000007580004241</v>
+        <v>0.5813037546466651</v>
       </c>
       <c r="C148" t="n">
-        <v>46.74703216552734</v>
+        <v>40.51375961303711</v>
       </c>
       <c r="D148" t="n">
-        <v>54.47291564941406</v>
+        <v>22.55844497680664</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3638231456279755</v>
+        <v>-33.10220336914062</v>
       </c>
       <c r="F148" t="n">
-        <v>42.47809600830078</v>
+        <v>10.52309417724609</v>
       </c>
       <c r="G148" t="n">
-        <v>60.84697341918945</v>
+        <v>50.88101196289062</v>
       </c>
       <c r="H148" t="n">
-        <v>5.292534351348877</v>
+        <v>-65.86528778076172</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.32298881601578</v>
+        <v>-3225248864.974996</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9999903330557793</v>
+        <v>0.5846182067670862</v>
       </c>
       <c r="C149" t="n">
-        <v>48.11114501953125</v>
+        <v>40.51480102539062</v>
       </c>
       <c r="D149" t="n">
-        <v>53.52779006958008</v>
+        <v>22.56042671203613</v>
       </c>
       <c r="E149" t="n">
-        <v>-3.098389387130737</v>
+        <v>-33.09981536865234</v>
       </c>
       <c r="F149" t="n">
-        <v>43.73797225952148</v>
+        <v>10.51682376861572</v>
       </c>
       <c r="G149" t="n">
-        <v>60.84697341918945</v>
+        <v>50.89132690429688</v>
       </c>
       <c r="H149" t="n">
-        <v>4.899436473846436</v>
+        <v>-65.84481811523438</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2.085253760363248</v>
+        <v>14949219253.54137</v>
       </c>
       <c r="B150" t="n">
-        <v>1.000012715283947</v>
+        <v>0.5877985606548096</v>
       </c>
       <c r="C150" t="n">
-        <v>49.17429351806641</v>
+        <v>40.51580429077148</v>
       </c>
       <c r="D150" t="n">
-        <v>49.687255859375</v>
+        <v>22.5622730255127</v>
       </c>
       <c r="E150" t="n">
-        <v>-8.82612133026123</v>
+        <v>-33.09734344482422</v>
       </c>
       <c r="F150" t="n">
-        <v>43.73797225952148</v>
+        <v>10.51065444946289</v>
       </c>
       <c r="G150" t="n">
-        <v>59.03341674804688</v>
+        <v>50.90147018432617</v>
       </c>
       <c r="H150" t="n">
-        <v>1.996307611465454</v>
+        <v>-65.82481384277344</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-3.159955986428865</v>
+        <v>-69301115024.03865</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9999837318479439</v>
+        <v>0.5908498462793266</v>
       </c>
       <c r="C151" t="n">
-        <v>49.17429351806641</v>
+        <v>40.51677322387695</v>
       </c>
       <c r="D151" t="n">
-        <v>45.07358169555664</v>
+        <v>22.56399536132812</v>
       </c>
       <c r="E151" t="n">
-        <v>-14.46910858154297</v>
+        <v>-33.09481048583984</v>
       </c>
       <c r="F151" t="n">
-        <v>44.48340606689453</v>
+        <v>10.50461959838867</v>
       </c>
       <c r="G151" t="n">
-        <v>53.21829986572266</v>
+        <v>50.91145324707031</v>
       </c>
       <c r="H151" t="n">
-        <v>0.1805777549743652</v>
+        <v>-65.80528259277344</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>10.4123728236837</v>
+        <v>321311214686.8617</v>
       </c>
       <c r="B152" t="n">
-        <v>1.000019611511692</v>
+        <v>0.5937768360957425</v>
       </c>
       <c r="C152" t="n">
-        <v>47.40031433105469</v>
+        <v>40.5177116394043</v>
       </c>
       <c r="D152" t="n">
-        <v>39.12739562988281</v>
+        <v>22.56559944152832</v>
       </c>
       <c r="E152" t="n">
-        <v>-16.80603408813477</v>
+        <v>-33.09222030639648</v>
       </c>
       <c r="F152" t="n">
-        <v>43.42497634887695</v>
+        <v>10.49871349334717</v>
       </c>
       <c r="G152" t="n">
-        <v>45.80568695068359</v>
+        <v>50.92127227783203</v>
       </c>
       <c r="H152" t="n">
-        <v>0.1805777549743652</v>
+        <v>-65.78623962402344</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-17.01831233512039</v>
+        <v>-1489954662247.959</v>
       </c>
       <c r="B153" t="n">
-        <v>0.9999766843494637</v>
+        <v>0.5965837971783656</v>
       </c>
       <c r="C153" t="n">
-        <v>45.25029754638672</v>
+        <v>40.51861572265625</v>
       </c>
       <c r="D153" t="n">
-        <v>34.21307373046875</v>
+        <v>22.56709098815918</v>
       </c>
       <c r="E153" t="n">
-        <v>-15.22868537902832</v>
+        <v>-33.08958435058594</v>
       </c>
       <c r="F153" t="n">
-        <v>43.1866569519043</v>
+        <v>10.49292087554932</v>
       </c>
       <c r="G153" t="n">
-        <v>39.94323348999023</v>
+        <v>50.93093109130859</v>
       </c>
       <c r="H153" t="n">
-        <v>0.7180688381195068</v>
+        <v>-65.76766204833984</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-8.382526433520889</v>
+        <v>-744977331125.2087</v>
       </c>
       <c r="B154" t="n">
-        <v>1.00002888897242</v>
+        <v>0.5992752897653177</v>
       </c>
       <c r="C154" t="n">
-        <v>36.97085952758789</v>
+        <v>40.51948547363281</v>
       </c>
       <c r="D154" t="n">
-        <v>28.35160064697266</v>
+        <v>22.56848335266113</v>
       </c>
       <c r="E154" t="n">
-        <v>-12.19581031799316</v>
+        <v>-33.08690643310547</v>
       </c>
       <c r="F154" t="n">
-        <v>31.66833114624023</v>
+        <v>10.48726367950439</v>
       </c>
       <c r="G154" t="n">
-        <v>34.08824157714844</v>
+        <v>50.94042205810547</v>
       </c>
       <c r="H154" t="n">
-        <v>-1.547875046730042</v>
+        <v>-65.74953460693359</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-4.198455171369451</v>
+        <v>-372488665563.8335</v>
       </c>
       <c r="B155" t="n">
-        <v>0.2489660558104515</v>
+        <v>0.5265873456001282</v>
       </c>
       <c r="C155" t="n">
-        <v>34.31295013427734</v>
+        <v>40.52032470703125</v>
       </c>
       <c r="D155" t="n">
-        <v>24.43090057373047</v>
+        <v>22.56977653503418</v>
       </c>
       <c r="E155" t="n">
-        <v>-12.19581031799316</v>
+        <v>-33.08419036865234</v>
       </c>
       <c r="F155" t="n">
-        <v>24.97173118591309</v>
+        <v>10.48173332214355</v>
       </c>
       <c r="G155" t="n">
-        <v>34.08824157714844</v>
+        <v>50.94975662231445</v>
       </c>
       <c r="H155" t="n">
-        <v>-1.547875046730042</v>
+        <v>-65.73186492919922</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-2.176471011083791</v>
+        <v>-186244332783.1461</v>
       </c>
       <c r="B156" t="n">
-        <v>0.2917609435319901</v>
+        <v>0.5267080211639404</v>
       </c>
       <c r="C156" t="n">
-        <v>34.31295013427734</v>
+        <v>40.52112197875977</v>
       </c>
       <c r="D156" t="n">
-        <v>22.29732894897461</v>
+        <v>22.57098007202148</v>
       </c>
       <c r="E156" t="n">
-        <v>-10.24639225006104</v>
+        <v>-33.08145141601562</v>
       </c>
       <c r="F156" t="n">
-        <v>22.92899513244629</v>
+        <v>10.4763240814209</v>
       </c>
       <c r="G156" t="n">
-        <v>36.12114715576172</v>
+        <v>50.95893096923828</v>
       </c>
       <c r="H156" t="n">
-        <v>1.082264423370361</v>
+        <v>-65.71463775634766</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-2.176471011083791</v>
+        <v>-93122166392.80247</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1951346769928932</v>
+        <v>0.526825253367424</v>
       </c>
       <c r="C157" t="n">
-        <v>33.20639801025391</v>
+        <v>40.52188873291016</v>
       </c>
       <c r="D157" t="n">
-        <v>22.29732894897461</v>
+        <v>22.57210922241211</v>
       </c>
       <c r="E157" t="n">
-        <v>-7.702182769775391</v>
+        <v>-33.07867813110352</v>
       </c>
       <c r="F157" t="n">
-        <v>24.23190689086914</v>
+        <v>10.4710693359375</v>
       </c>
       <c r="G157" t="n">
-        <v>40.21321105957031</v>
+        <v>50.96796035766602</v>
       </c>
       <c r="H157" t="n">
-        <v>3.459087371826172</v>
+        <v>-65.69783020019531</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-0.1890919587016106</v>
+        <v>-46561083197.63082</v>
       </c>
       <c r="B158" t="n">
-        <v>0.02311217412352562</v>
+        <v>0.5269403690099717</v>
       </c>
       <c r="C158" t="n">
-        <v>33.58958053588867</v>
+        <v>40.52261352539062</v>
       </c>
       <c r="D158" t="n">
-        <v>22.46842193603516</v>
+        <v>22.57314872741699</v>
       </c>
       <c r="E158" t="n">
-        <v>-5.037322998046875</v>
+        <v>-33.07591247558594</v>
       </c>
       <c r="F158" t="n">
-        <v>27.3188362121582</v>
+        <v>10.46590995788574</v>
       </c>
       <c r="G158" t="n">
-        <v>43.79942321777344</v>
+        <v>50.97682189941406</v>
       </c>
       <c r="H158" t="n">
-        <v>5.945253372192383</v>
+        <v>-65.68143463134766</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-0.2152391311526299</v>
+        <v>-23280541600.04513</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.1571401020884514</v>
+        <v>0.5270519465208053</v>
       </c>
       <c r="C159" t="n">
-        <v>33.87910842895508</v>
+        <v>40.52331924438477</v>
       </c>
       <c r="D159" t="n">
-        <v>24.38786315917969</v>
+        <v>22.57412528991699</v>
       </c>
       <c r="E159" t="n">
-        <v>-2.107010126113892</v>
+        <v>-33.0731086730957</v>
       </c>
       <c r="F159" t="n">
-        <v>30.92543411254883</v>
+        <v>10.46090888977051</v>
       </c>
       <c r="G159" t="n">
-        <v>46.01315307617188</v>
+        <v>50.98552322387695</v>
       </c>
       <c r="H159" t="n">
-        <v>8.204769134521484</v>
+        <v>-65.66542816162109</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-0.2921228122711182</v>
+        <v>-11640270801.25241</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.309834857583046</v>
+        <v>0.5271612811088562</v>
       </c>
       <c r="C160" t="n">
-        <v>34.73044204711914</v>
+        <v>40.52397537231445</v>
       </c>
       <c r="D160" t="n">
-        <v>26.71616744995117</v>
+        <v>22.57502174377441</v>
       </c>
       <c r="E160" t="n">
-        <v>0.1996809244155884</v>
+        <v>-33.07031631469727</v>
       </c>
       <c r="F160" t="n">
-        <v>34.17555618286133</v>
+        <v>10.45600891113281</v>
       </c>
       <c r="G160" t="n">
-        <v>46.01315307617188</v>
+        <v>50.99407196044922</v>
       </c>
       <c r="H160" t="n">
-        <v>10.01878356933594</v>
+        <v>-65.64984893798828</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-0.4276872766017914</v>
+        <v>-5820135401.856171</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.416915876865387</v>
+        <v>0.5272673302888871</v>
       </c>
       <c r="C161" t="n">
-        <v>36.23154830932617</v>
+        <v>40.52460861206055</v>
       </c>
       <c r="D161" t="n">
-        <v>28.74462509155273</v>
+        <v>22.57586669921875</v>
       </c>
       <c r="E161" t="n">
-        <v>1.233852863311768</v>
+        <v>-33.06752014160156</v>
       </c>
       <c r="F161" t="n">
-        <v>36.56505584716797</v>
+        <v>10.45125579833984</v>
       </c>
       <c r="G161" t="n">
-        <v>44.58775329589844</v>
+        <v>51.00246429443359</v>
       </c>
       <c r="H161" t="n">
-        <v>11.21976661682129</v>
+        <v>-65.63465881347656</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-0.5774917733669281</v>
+        <v>-2910067702.158165</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.4734928458929062</v>
+        <v>0.5273710733652115</v>
       </c>
       <c r="C162" t="n">
-        <v>37.89033508300781</v>
+        <v>40.52520751953125</v>
       </c>
       <c r="D162" t="n">
-        <v>28.74462509155273</v>
+        <v>22.57664108276367</v>
       </c>
       <c r="E162" t="n">
-        <v>1.233852863311768</v>
+        <v>-33.06472778320312</v>
       </c>
       <c r="F162" t="n">
-        <v>37.97220611572266</v>
+        <v>10.44660663604736</v>
       </c>
       <c r="G162" t="n">
-        <v>40.13765716552734</v>
+        <v>51.01069641113281</v>
       </c>
       <c r="H162" t="n">
-        <v>11.21976661682129</v>
+        <v>-65.61983489990234</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-0.6552022874355317</v>
+        <v>-1455033852.309269</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.4892128282785416</v>
+        <v>0.5274716258049011</v>
       </c>
       <c r="C163" t="n">
-        <v>38.75082397460938</v>
+        <v>40.52577209472656</v>
       </c>
       <c r="D163" t="n">
-        <v>29.06721878051758</v>
+        <v>22.57736587524414</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.6609971523284912</v>
+        <v>-33.06195068359375</v>
       </c>
       <c r="F163" t="n">
-        <v>37.97220611572266</v>
+        <v>10.44209861755371</v>
       </c>
       <c r="G163" t="n">
-        <v>33.91640853881836</v>
+        <v>51.01877593994141</v>
       </c>
       <c r="H163" t="n">
-        <v>12.06086444854736</v>
+        <v>-65.60540008544922</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-0.5994473969936371</v>
+        <v>-727516927.3849212</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.4879444712400436</v>
+        <v>0.52757015645504</v>
       </c>
       <c r="C164" t="n">
-        <v>38.13344955444336</v>
+        <v>40.52630615234375</v>
       </c>
       <c r="D164" t="n">
-        <v>26.85095405578613</v>
+        <v>22.57803535461426</v>
       </c>
       <c r="E164" t="n">
-        <v>-1.784084439277649</v>
+        <v>-33.05918502807617</v>
       </c>
       <c r="F164" t="n">
-        <v>39.3450813293457</v>
+        <v>10.43768405914307</v>
       </c>
       <c r="G164" t="n">
-        <v>27.73345184326172</v>
+        <v>51.02670669555664</v>
       </c>
       <c r="H164" t="n">
-        <v>10.84854221343994</v>
+        <v>-65.59129333496094</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-0.4642022806406021</v>
+        <v>-363758464.9228432</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.4945237535238266</v>
+        <v>0.5276656860113145</v>
       </c>
       <c r="C165" t="n">
-        <v>36.63587951660156</v>
+        <v>40.52680587768555</v>
       </c>
       <c r="D165" t="n">
-        <v>24.95302391052246</v>
+        <v>22.57865333557129</v>
       </c>
       <c r="E165" t="n">
-        <v>-1.784084439277649</v>
+        <v>-33.05643081665039</v>
       </c>
       <c r="F165" t="n">
-        <v>39.52287292480469</v>
+        <v>10.43340110778809</v>
       </c>
       <c r="G165" t="n">
-        <v>23.63934707641602</v>
+        <v>51.03446578979492</v>
       </c>
       <c r="H165" t="n">
-        <v>9.436692237854004</v>
+        <v>-65.57756805419922</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-0.3825472235679627</v>
+        <v>-181879233.6918932</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.5111714845895767</v>
+        <v>0.527758846282959</v>
       </c>
       <c r="C166" t="n">
-        <v>35.73171234130859</v>
+        <v>40.52728271484375</v>
       </c>
       <c r="D166" t="n">
-        <v>24.95302391052246</v>
+        <v>22.5792293548584</v>
       </c>
       <c r="E166" t="n">
-        <v>-2.353993892669678</v>
+        <v>-33.05370712280273</v>
       </c>
       <c r="F166" t="n">
-        <v>39.97274398803711</v>
+        <v>10.42922592163086</v>
       </c>
       <c r="G166" t="n">
-        <v>22.55796051025391</v>
+        <v>51.04209136962891</v>
       </c>
       <c r="H166" t="n">
-        <v>8.642233848571777</v>
+        <v>-65.56417846679688</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-0.4362347394227982</v>
+        <v>-90939618.0765025</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.5164319914579392</v>
+        <v>0.527849732041359</v>
       </c>
       <c r="C167" t="n">
-        <v>36.32619476318359</v>
+        <v>40.52772521972656</v>
       </c>
       <c r="D167" t="n">
-        <v>25.07121849060059</v>
+        <v>22.57975196838379</v>
       </c>
       <c r="E167" t="n">
-        <v>0.4913429915904999</v>
+        <v>-33.05100631713867</v>
       </c>
       <c r="F167" t="n">
-        <v>40.11489868164062</v>
+        <v>10.42515277862549</v>
       </c>
       <c r="G167" t="n">
-        <v>23.97626113891602</v>
+        <v>51.04955673217773</v>
       </c>
       <c r="H167" t="n">
-        <v>8.86555290222168</v>
+        <v>-65.55111694335938</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-0.6010837829113007</v>
+        <v>-45469810.26888523</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.4886562359333039</v>
+        <v>0.5279376482963563</v>
       </c>
       <c r="C168" t="n">
-        <v>39.15215301513672</v>
+        <v>40.52814483642578</v>
       </c>
       <c r="D168" t="n">
-        <v>27.03629684448242</v>
+        <v>22.58024215698242</v>
       </c>
       <c r="E168" t="n">
-        <v>1.83364725112915</v>
+        <v>-33.04833221435547</v>
       </c>
       <c r="F168" t="n">
-        <v>39.36431503295898</v>
+        <v>10.42121028900146</v>
       </c>
       <c r="G168" t="n">
-        <v>26.55950164794922</v>
+        <v>51.0568733215332</v>
       </c>
       <c r="H168" t="n">
-        <v>10.05133152008057</v>
+        <v>-65.53836822509766</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-0.781808581352234</v>
+        <v>-22734906.36514938</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.424101727604866</v>
+        <v>0.5280238270759583</v>
       </c>
       <c r="C169" t="n">
-        <v>40.19609069824219</v>
+        <v>40.52853393554688</v>
       </c>
       <c r="D169" t="n">
-        <v>28.80117797851562</v>
+        <v>22.58068466186523</v>
       </c>
       <c r="E169" t="n">
-        <v>2.95715856552124</v>
+        <v>-33.04568481445312</v>
       </c>
       <c r="F169" t="n">
-        <v>36.44278717041016</v>
+        <v>10.41734886169434</v>
       </c>
       <c r="G169" t="n">
-        <v>29.01421356201172</v>
+        <v>51.06403732299805</v>
       </c>
       <c r="H169" t="n">
-        <v>12.90632724761963</v>
+        <v>-65.52595520019531</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-0.8800012135505677</v>
+        <v>-11367454.41335045</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.3369849956035614</v>
+        <v>0.5281074470281601</v>
       </c>
       <c r="C170" t="n">
-        <v>40.19609069824219</v>
+        <v>40.52889633178711</v>
       </c>
       <c r="D170" t="n">
-        <v>28.80117797851562</v>
+        <v>22.58109283447266</v>
       </c>
       <c r="E170" t="n">
-        <v>2.95715856552124</v>
+        <v>-33.04307556152344</v>
       </c>
       <c r="F170" t="n">
-        <v>34.63814544677734</v>
+        <v>10.41359996795654</v>
       </c>
       <c r="G170" t="n">
-        <v>30.64290809631348</v>
+        <v>51.071044921875</v>
       </c>
       <c r="H170" t="n">
-        <v>14.35880851745605</v>
+        <v>-65.51383972167969</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-0.8492569971084595</v>
+        <v>-5683728.437514548</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.246979995071888</v>
+        <v>0.5281888556480407</v>
       </c>
       <c r="C171" t="n">
-        <v>40.89959335327148</v>
+        <v>40.52923965454102</v>
       </c>
       <c r="D171" t="n">
-        <v>30.46464920043945</v>
+        <v>22.58147048950195</v>
       </c>
       <c r="E171" t="n">
-        <v>4.351813793182373</v>
+        <v>-33.04050064086914</v>
       </c>
       <c r="F171" t="n">
-        <v>32.64461517333984</v>
+        <v>10.40995216369629</v>
       </c>
       <c r="G171" t="n">
-        <v>30.64290809631348</v>
+        <v>51.07790374755859</v>
       </c>
       <c r="H171" t="n">
-        <v>15.80014991760254</v>
+        <v>-65.50205230712891</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.7096842086315155</v>
+        <v>-2841865.449654848</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.1662182214856148</v>
+        <v>0.5282681477069855</v>
       </c>
       <c r="C172" t="n">
-        <v>38.32034301757812</v>
+        <v>40.52955627441406</v>
       </c>
       <c r="D172" t="n">
-        <v>29.16355323791504</v>
+        <v>22.58180809020996</v>
       </c>
       <c r="E172" t="n">
-        <v>4.322523593902588</v>
+        <v>-33.0379524230957</v>
       </c>
       <c r="F172" t="n">
-        <v>30.67143249511719</v>
+        <v>10.40639781951904</v>
       </c>
       <c r="G172" t="n">
-        <v>32.14595413208008</v>
+        <v>51.08461761474609</v>
       </c>
       <c r="H172" t="n">
-        <v>16.94395446777344</v>
+        <v>-65.49052429199219</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-0.5229667627811432</v>
+        <v>-1420933.955780219</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.09395245775580406</v>
+        <v>0.5283455127477646</v>
       </c>
       <c r="C173" t="n">
-        <v>36.84779357910156</v>
+        <v>40.52984619140625</v>
       </c>
       <c r="D173" t="n">
-        <v>27.71892166137695</v>
+        <v>22.58211135864258</v>
       </c>
       <c r="E173" t="n">
-        <v>4.354791164398193</v>
+        <v>-33.03544998168945</v>
       </c>
       <c r="F173" t="n">
-        <v>28.69309043884277</v>
+        <v>10.40293216705322</v>
       </c>
       <c r="G173" t="n">
-        <v>31.76459503173828</v>
+        <v>51.09118270874023</v>
       </c>
       <c r="H173" t="n">
-        <v>16.94395446777344</v>
+        <v>-65.47930145263672</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.3503550267219543</v>
+        <v>-710468.2088942069</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.02055186394602061</v>
+        <v>0.5284204453229905</v>
       </c>
       <c r="C174" t="n">
-        <v>35.41939544677734</v>
+        <v>40.53012084960938</v>
       </c>
       <c r="D174" t="n">
-        <v>27.09945869445801</v>
+        <v>22.58239555358887</v>
       </c>
       <c r="E174" t="n">
-        <v>4.6639723777771</v>
+        <v>-33.03298568725586</v>
       </c>
       <c r="F174" t="n">
-        <v>26.57196044921875</v>
+        <v>10.39957237243652</v>
       </c>
       <c r="G174" t="n">
-        <v>31.4998950958252</v>
+        <v>51.09761047363281</v>
       </c>
       <c r="H174" t="n">
-        <v>18.37414932250977</v>
+        <v>-65.4683837890625</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-0.2253441300988197</v>
+        <v>-355235.3354979548</v>
       </c>
       <c r="B175" t="n">
-        <v>0.06322562791407109</v>
+        <v>0.5284936404228211</v>
       </c>
       <c r="C175" t="n">
-        <v>34.28366088867188</v>
+        <v>40.53037643432617</v>
       </c>
       <c r="D175" t="n">
-        <v>27.700439453125</v>
+        <v>22.58264541625977</v>
       </c>
       <c r="E175" t="n">
-        <v>5.21459436416626</v>
+        <v>-33.03055953979492</v>
       </c>
       <c r="F175" t="n">
-        <v>24.24089813232422</v>
+        <v>10.39629173278809</v>
       </c>
       <c r="G175" t="n">
-        <v>31.39813232421875</v>
+        <v>51.1038818359375</v>
       </c>
       <c r="H175" t="n">
-        <v>18.27325057983398</v>
+        <v>-65.45771789550781</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-0.1492062997817993</v>
+        <v>-177618.8988435499</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1572565761208534</v>
+        <v>0.5285650032758713</v>
       </c>
       <c r="C176" t="n">
-        <v>34.28366088867188</v>
+        <v>40.53060913085938</v>
       </c>
       <c r="D176" t="n">
-        <v>30.31231307983398</v>
+        <v>22.58286476135254</v>
       </c>
       <c r="E176" t="n">
-        <v>5.908764362335205</v>
+        <v>-33.02818298339844</v>
       </c>
       <c r="F176" t="n">
-        <v>21.8111515045166</v>
+        <v>10.39309310913086</v>
       </c>
       <c r="G176" t="n">
-        <v>31.40036582946777</v>
+        <v>51.11002349853516</v>
       </c>
       <c r="H176" t="n">
-        <v>18.07771492004395</v>
+        <v>-65.44731140136719</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.1023764729499817</v>
+        <v>-88810.68055615151</v>
       </c>
       <c r="B177" t="n">
-        <v>0.2508226588368416</v>
+        <v>0.5286345022916794</v>
       </c>
       <c r="C177" t="n">
-        <v>32.62937927246094</v>
+        <v>40.53082656860352</v>
       </c>
       <c r="D177" t="n">
-        <v>31.75019645690918</v>
+        <v>22.58306121826172</v>
       </c>
       <c r="E177" t="n">
-        <v>6.700140476226807</v>
+        <v>-33.02583694458008</v>
       </c>
       <c r="F177" t="n">
-        <v>19.52853775024414</v>
+        <v>10.38997840881348</v>
       </c>
       <c r="G177" t="n">
-        <v>31.50333023071289</v>
+        <v>51.11601638793945</v>
       </c>
       <c r="H177" t="n">
-        <v>18.03516960144043</v>
+        <v>-65.43717956542969</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-0.0651393622905016</v>
+        <v>-44406.57144998175</v>
       </c>
       <c r="B178" t="n">
-        <v>0.3298472571372986</v>
+        <v>0.5287018531560899</v>
       </c>
       <c r="C178" t="n">
-        <v>32.2170524597168</v>
+        <v>40.53102493286133</v>
       </c>
       <c r="D178" t="n">
-        <v>33.19208908081055</v>
+        <v>22.58323669433594</v>
       </c>
       <c r="E178" t="n">
-        <v>7.606167316436768</v>
+        <v>-33.0235481262207</v>
       </c>
       <c r="F178" t="n">
-        <v>17.64655113220215</v>
+        <v>10.38696002960205</v>
       </c>
       <c r="G178" t="n">
-        <v>31.77927017211914</v>
+        <v>51.12186813354492</v>
       </c>
       <c r="H178" t="n">
-        <v>18.23748397827148</v>
+        <v>-65.42732238769531</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-0.02576632771641016</v>
+        <v>-22204.51692987731</v>
       </c>
       <c r="B179" t="n">
-        <v>0.3846658378839493</v>
+        <v>0.5287676560878753</v>
       </c>
       <c r="C179" t="n">
-        <v>31.78107452392578</v>
+        <v>40.53121185302734</v>
       </c>
       <c r="D179" t="n">
-        <v>34.44487762451172</v>
+        <v>22.58338737487793</v>
       </c>
       <c r="E179" t="n">
-        <v>8.698902130126953</v>
+        <v>-33.02129745483398</v>
       </c>
       <c r="F179" t="n">
-        <v>16.29125785827637</v>
+        <v>10.38401031494141</v>
       </c>
       <c r="G179" t="n">
-        <v>32.25860977172852</v>
+        <v>51.12758636474609</v>
       </c>
       <c r="H179" t="n">
-        <v>18.52322387695312</v>
+        <v>-65.41769409179688</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.01127734368667006</v>
+        <v>-11103.48970040466</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4153286772966385</v>
+        <v>0.5288320058584214</v>
       </c>
       <c r="C180" t="n">
-        <v>31.37088966369629</v>
+        <v>40.53137588500977</v>
       </c>
       <c r="D180" t="n">
-        <v>35.50149154663086</v>
+        <v>22.58350944519043</v>
       </c>
       <c r="E180" t="n">
-        <v>9.916807174682617</v>
+        <v>-33.01910018920898</v>
       </c>
       <c r="F180" t="n">
-        <v>16.29125785827637</v>
+        <v>10.38112735748291</v>
       </c>
       <c r="G180" t="n">
-        <v>32.87685394287109</v>
+        <v>51.13317489624023</v>
       </c>
       <c r="H180" t="n">
-        <v>18.72625350952148</v>
+        <v>-65.40829467773438</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.04190755113959313</v>
+        <v>-5552.97611561609</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4283800238370896</v>
+        <v>0.5288944602012634</v>
       </c>
       <c r="C181" t="n">
-        <v>31.0317211151123</v>
+        <v>40.53152847290039</v>
       </c>
       <c r="D181" t="n">
-        <v>35.50149154663086</v>
+        <v>22.58361434936523</v>
       </c>
       <c r="E181" t="n">
-        <v>11.11857032775879</v>
+        <v>-33.01693344116211</v>
       </c>
       <c r="F181" t="n">
-        <v>14.58327865600586</v>
+        <v>10.37832641601562</v>
       </c>
       <c r="G181" t="n">
-        <v>33.45238876342773</v>
+        <v>51.13862228393555</v>
       </c>
       <c r="H181" t="n">
-        <v>18.63276863098145</v>
+        <v>-65.39913940429688</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.06375376515090465</v>
+        <v>-2777.719349252347</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4345122694969177</v>
+        <v>0.5289551454782486</v>
       </c>
       <c r="C182" t="n">
-        <v>30.78981781005859</v>
+        <v>40.53167724609375</v>
       </c>
       <c r="D182" t="n">
-        <v>37.34563064575195</v>
+        <v>22.58370399475098</v>
       </c>
       <c r="E182" t="n">
-        <v>12.04689025878906</v>
+        <v>-33.01481246948242</v>
       </c>
       <c r="F182" t="n">
-        <v>14.41756725311279</v>
+        <v>10.37560558319092</v>
       </c>
       <c r="G182" t="n">
-        <v>33.80327224731445</v>
+        <v>51.14393997192383</v>
       </c>
       <c r="H182" t="n">
-        <v>18.13569259643555</v>
+        <v>-65.3902587890625</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.08161751180887222</v>
+        <v>-1390.090989826502</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4429843574762344</v>
+        <v>0.5290144723653794</v>
       </c>
       <c r="C183" t="n">
-        <v>30.59201240539551</v>
+        <v>40.53180694580078</v>
       </c>
       <c r="D183" t="n">
-        <v>38.08687973022461</v>
+        <v>22.58377265930176</v>
       </c>
       <c r="E183" t="n">
-        <v>12.39341926574707</v>
+        <v>-33.01274108886719</v>
       </c>
       <c r="F183" t="n">
-        <v>14.18862628936768</v>
+        <v>10.37294769287109</v>
       </c>
       <c r="G183" t="n">
-        <v>33.82124710083008</v>
+        <v>51.14912414550781</v>
       </c>
       <c r="H183" t="n">
-        <v>17.139404296875</v>
+        <v>-65.38157653808594</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.1048984105885029</v>
+        <v>-696.2768315950939</v>
       </c>
       <c r="B184" t="n">
-        <v>0.457452883720398</v>
+        <v>0.5290722513198853</v>
       </c>
       <c r="C184" t="n">
-        <v>30.3342227935791</v>
+        <v>40.53192520141602</v>
       </c>
       <c r="D184" t="n">
-        <v>38.74774932861328</v>
+        <v>22.58382225036621</v>
       </c>
       <c r="E184" t="n">
-        <v>11.85548782348633</v>
+        <v>-33.01070785522461</v>
       </c>
       <c r="F184" t="n">
-        <v>13.79764366149902</v>
+        <v>10.37035655975342</v>
       </c>
       <c r="G184" t="n">
-        <v>33.52746963500977</v>
+        <v>51.1541862487793</v>
       </c>
       <c r="H184" t="n">
-        <v>14.2338981628418</v>
+        <v>-65.37311553955078</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.1364152112603188</v>
+        <v>-349.3697723181997</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4741710615158081</v>
+        <v>0.5291287982463837</v>
       </c>
       <c r="C185" t="n">
-        <v>29.98523712158203</v>
+        <v>40.53203201293945</v>
       </c>
       <c r="D185" t="n">
-        <v>39.33152389526367</v>
+        <v>22.58385276794434</v>
       </c>
       <c r="E185" t="n">
-        <v>8.530230522155762</v>
+        <v>-33.00872802734375</v>
       </c>
       <c r="F185" t="n">
-        <v>13.34586906433105</v>
+        <v>10.36782264709473</v>
       </c>
       <c r="G185" t="n">
-        <v>33.12777709960938</v>
+        <v>51.15912246704102</v>
       </c>
       <c r="H185" t="n">
-        <v>11.81608009338379</v>
+        <v>-65.36484527587891</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.1671385937929153</v>
+        <v>-175.9162611285823</v>
       </c>
       <c r="B186" t="n">
-        <v>0.481079832315445</v>
+        <v>0.5291835761070252</v>
       </c>
       <c r="C186" t="n">
-        <v>29.6450366973877</v>
+        <v>40.53213119506836</v>
       </c>
       <c r="D186" t="n">
-        <v>39.95296859741211</v>
+        <v>22.5838737487793</v>
       </c>
       <c r="E186" t="n">
-        <v>5.422224998474121</v>
+        <v>-33.00678634643555</v>
       </c>
       <c r="F186" t="n">
-        <v>13.1591739654541</v>
+        <v>10.36536693572998</v>
       </c>
       <c r="G186" t="n">
-        <v>33.04045867919922</v>
+        <v>51.1639289855957</v>
       </c>
       <c r="H186" t="n">
-        <v>8.288626670837402</v>
+        <v>-65.35683441162109</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.1745426872372627</v>
+        <v>-79.41284397451633</v>
       </c>
       <c r="B187" t="n">
-        <v>0.5461495653735008</v>
+        <v>0.5298612716578872</v>
       </c>
       <c r="C187" t="n">
-        <v>29.56305122375488</v>
+        <v>40.53222274780273</v>
       </c>
       <c r="D187" t="n">
-        <v>40.76605606079102</v>
+        <v>22.58388137817383</v>
       </c>
       <c r="E187" t="n">
-        <v>1.227221965789795</v>
+        <v>-33.0048828125</v>
       </c>
       <c r="F187" t="n">
-        <v>13.63312721252441</v>
+        <v>10.36296844482422</v>
       </c>
       <c r="G187" t="n">
-        <v>34.90313720703125</v>
+        <v>51.16861724853516</v>
       </c>
       <c r="H187" t="n">
-        <v>4.050491333007812</v>
+        <v>-65.34901428222656</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.7819354472794291</v>
+        <v>-76.59141539047891</v>
       </c>
       <c r="B188" t="n">
-        <v>0.6472550953986351</v>
+        <v>0.5304918628784039</v>
       </c>
       <c r="C188" t="n">
-        <v>29.94540596008301</v>
+        <v>40.53230667114258</v>
       </c>
       <c r="D188" t="n">
-        <v>41.85092544555664</v>
+        <v>22.5838737487793</v>
       </c>
       <c r="E188" t="n">
-        <v>-2.958805322647095</v>
+        <v>-33.00302886962891</v>
       </c>
       <c r="F188" t="n">
-        <v>16.16082763671875</v>
+        <v>10.36063766479492</v>
       </c>
       <c r="G188" t="n">
-        <v>37.10801696777344</v>
+        <v>51.17318725585938</v>
       </c>
       <c r="H188" t="n">
-        <v>-0.01326465606689453</v>
+        <v>-65.34141540527344</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.9730590646475082</v>
+        <v>135.927656839698</v>
       </c>
       <c r="B189" t="n">
-        <v>0.7816486067998487</v>
+        <v>0.5310764460673654</v>
       </c>
       <c r="C189" t="n">
-        <v>30.77071189880371</v>
+        <v>40.53238296508789</v>
       </c>
       <c r="D189" t="n">
-        <v>43.26103210449219</v>
+        <v>22.5838508605957</v>
       </c>
       <c r="E189" t="n">
-        <v>-5.908763408660889</v>
+        <v>-33.00121307373047</v>
       </c>
       <c r="F189" t="n">
-        <v>18.08844757080078</v>
+        <v>10.35835361480713</v>
       </c>
       <c r="G189" t="n">
-        <v>40.16025543212891</v>
+        <v>51.17763900756836</v>
       </c>
       <c r="H189" t="n">
-        <v>-3.063607215881348</v>
+        <v>-65.33400726318359</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.002063137443258</v>
+        <v>-738.8148439204981</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9063409809653328</v>
+        <v>0.5316164002321011</v>
       </c>
       <c r="C190" t="n">
-        <v>31.94518852233887</v>
+        <v>40.53245544433594</v>
       </c>
       <c r="D190" t="n">
-        <v>46.06245422363281</v>
+        <v>22.58381652832031</v>
       </c>
       <c r="E190" t="n">
-        <v>-7.150644302368164</v>
+        <v>-32.99944686889648</v>
       </c>
       <c r="F190" t="n">
-        <v>20.38129043579102</v>
+        <v>10.35612869262695</v>
       </c>
       <c r="G190" t="n">
-        <v>43.50450897216797</v>
+        <v>51.18198776245117</v>
       </c>
       <c r="H190" t="n">
-        <v>-4.742850780487061</v>
+        <v>-65.32676696777344</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9992951553114198</v>
+        <v>3382.487440671766</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9772084398801436</v>
+        <v>0.5321129350587053</v>
       </c>
       <c r="C191" t="n">
-        <v>33.50072860717773</v>
+        <v>40.53251647949219</v>
       </c>
       <c r="D191" t="n">
-        <v>47.59745025634766</v>
+        <v>22.58376502990723</v>
       </c>
       <c r="E191" t="n">
-        <v>-7.150644302368164</v>
+        <v>-32.99773025512695</v>
       </c>
       <c r="F191" t="n">
-        <v>22.7016716003418</v>
+        <v>10.35395812988281</v>
       </c>
       <c r="G191" t="n">
-        <v>46.55713653564453</v>
+        <v>51.18621444702148</v>
       </c>
       <c r="H191" t="n">
-        <v>-4.742850780487061</v>
+        <v>-65.31972503662109</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.00047104726697</v>
+        <v>-15741.00470409188</v>
       </c>
       <c r="B192" t="n">
-        <v>0.9981901224665114</v>
+        <v>0.5325674310225708</v>
       </c>
       <c r="C192" t="n">
-        <v>36.46949768066406</v>
+        <v>40.53257369995117</v>
       </c>
       <c r="D192" t="n">
-        <v>49.28723907470703</v>
+        <v>22.58371353149414</v>
       </c>
       <c r="E192" t="n">
-        <v>-6.848743438720703</v>
+        <v>-32.99603271484375</v>
       </c>
       <c r="F192" t="n">
-        <v>24.8975830078125</v>
+        <v>10.35185050964355</v>
       </c>
       <c r="G192" t="n">
-        <v>48.904541015625</v>
+        <v>51.19033050537109</v>
       </c>
       <c r="H192" t="n">
-        <v>-4.21508264541626</v>
+        <v>-65.31289672851562</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.9995163732995119</v>
+        <v>73140.66109548573</v>
       </c>
       <c r="B193" t="n">
-        <v>1.000118043539608</v>
+        <v>0.532981064216254</v>
       </c>
       <c r="C193" t="n">
-        <v>37.98056411743164</v>
+        <v>40.53262710571289</v>
       </c>
       <c r="D193" t="n">
-        <v>50.8685417175293</v>
+        <v>22.58364868164062</v>
       </c>
       <c r="E193" t="n">
-        <v>-5.051129817962646</v>
+        <v>-32.99438095092773</v>
       </c>
       <c r="F193" t="n">
-        <v>26.98116683959961</v>
+        <v>10.34979724884033</v>
       </c>
       <c r="G193" t="n">
-        <v>50.42263793945312</v>
+        <v>51.1943359375</v>
       </c>
       <c r="H193" t="n">
-        <v>-2.264547824859619</v>
+        <v>-65.30624389648438</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1.00065892249024</v>
+        <v>-339891.9345511148</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9999760538443522</v>
+        <v>0.5333549583211568</v>
       </c>
       <c r="C194" t="n">
-        <v>39.51046371459961</v>
+        <v>40.53267288208008</v>
       </c>
       <c r="D194" t="n">
-        <v>52.17239379882812</v>
+        <v>22.58357429504395</v>
       </c>
       <c r="E194" t="n">
-        <v>-3.249986171722412</v>
+        <v>-32.99277496337891</v>
       </c>
       <c r="F194" t="n">
-        <v>29.04962539672852</v>
+        <v>10.34779262542725</v>
       </c>
       <c r="G194" t="n">
-        <v>50.42263793945312</v>
+        <v>51.19823837280273</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.07740199565887451</v>
+        <v>-65.29975128173828</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.998928355956985</v>
+        <v>1579516.754974961</v>
       </c>
       <c r="B195" t="n">
-        <v>1.000008290781836</v>
+        <v>0.5336900358454678</v>
       </c>
       <c r="C195" t="n">
-        <v>40.88742828369141</v>
+        <v>40.53272247314453</v>
       </c>
       <c r="D195" t="n">
-        <v>52.17239379882812</v>
+        <v>22.5834903717041</v>
       </c>
       <c r="E195" t="n">
-        <v>-1.399687767028809</v>
+        <v>-32.99120330810547</v>
       </c>
       <c r="F195" t="n">
-        <v>31.1829948425293</v>
+        <v>10.34583187103271</v>
       </c>
       <c r="G195" t="n">
-        <v>52.19418716430664</v>
+        <v>51.20203399658203</v>
       </c>
       <c r="H195" t="n">
-        <v>1.934436798095703</v>
+        <v>-65.29341888427734</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1.001966388520192</v>
+        <v>-7340227.388335712</v>
       </c>
       <c r="B196" t="n">
-        <v>0.9999958569807346</v>
+        <v>0.5339874315351918</v>
       </c>
       <c r="C196" t="n">
-        <v>42.05735015869141</v>
+        <v>40.53276062011719</v>
       </c>
       <c r="D196" t="n">
-        <v>54.01579666137695</v>
+        <v>22.58340072631836</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2758612036705017</v>
+        <v>-32.98967742919922</v>
       </c>
       <c r="F196" t="n">
-        <v>33.42230224609375</v>
+        <v>10.34392642974854</v>
       </c>
       <c r="G196" t="n">
-        <v>52.69063949584961</v>
+        <v>51.20573806762695</v>
       </c>
       <c r="H196" t="n">
-        <v>3.488031148910522</v>
+        <v>-65.28726959228516</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.9960691932554948</v>
+        <v>34111191.08977202</v>
       </c>
       <c r="B197" t="n">
-        <v>1.000002748742095</v>
+        <v>0.5342480433870798</v>
       </c>
       <c r="C197" t="n">
-        <v>43.08253860473633</v>
+        <v>40.53279876708984</v>
       </c>
       <c r="D197" t="n">
-        <v>54.09942245483398</v>
+        <v>22.58329772949219</v>
       </c>
       <c r="E197" t="n">
-        <v>1.705248355865479</v>
+        <v>-32.98818969726562</v>
       </c>
       <c r="F197" t="n">
-        <v>35.71879196166992</v>
+        <v>10.34206104278564</v>
       </c>
       <c r="G197" t="n">
-        <v>53.79281997680664</v>
+        <v>51.20934295654297</v>
       </c>
       <c r="H197" t="n">
-        <v>4.53217601776123</v>
+        <v>-65.28128814697266</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1.00844739693557</v>
+        <v>-158521063.9756123</v>
       </c>
       <c r="B198" t="n">
-        <v>0.9999977245887998</v>
+        <v>0.5344729454937298</v>
       </c>
       <c r="C198" t="n">
-        <v>44.08970642089844</v>
+        <v>40.5328254699707</v>
       </c>
       <c r="D198" t="n">
-        <v>53.82928085327148</v>
+        <v>22.58319091796875</v>
       </c>
       <c r="E198" t="n">
-        <v>2.643504619598389</v>
+        <v>-32.98673248291016</v>
       </c>
       <c r="F198" t="n">
-        <v>37.92756652832031</v>
+        <v>10.34024620056152</v>
       </c>
       <c r="G198" t="n">
-        <v>56.5936279296875</v>
+        <v>51.21285247802734</v>
       </c>
       <c r="H198" t="n">
-        <v>4.53217601776123</v>
+        <v>-65.27546691894531</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.980422565424764</v>
+        <v>736680515.7498853</v>
       </c>
       <c r="B199" t="n">
-        <v>1.00000222056667</v>
+        <v>0.5346632013875815</v>
       </c>
       <c r="C199" t="n">
-        <v>45.24348449707031</v>
+        <v>40.53286361694336</v>
       </c>
       <c r="D199" t="n">
-        <v>53.36856460571289</v>
+        <v>22.58308219909668</v>
       </c>
       <c r="E199" t="n">
-        <v>2.676952838897705</v>
+        <v>-32.98530960083008</v>
       </c>
       <c r="F199" t="n">
-        <v>39.82075500488281</v>
+        <v>10.3384838104248</v>
       </c>
       <c r="G199" t="n">
-        <v>58.07682418823242</v>
+        <v>51.21625518798828</v>
       </c>
       <c r="H199" t="n">
-        <v>5.764888286590576</v>
+        <v>-65.26979827880859</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1.04971006789976</v>
+        <v>-3423525392.981123</v>
       </c>
       <c r="B200" t="n">
-        <v>0.999997588356957</v>
+        <v>0.5348196406538157</v>
       </c>
       <c r="C200" t="n">
-        <v>46.6673698425293</v>
+        <v>40.53289413452148</v>
       </c>
       <c r="D200" t="n">
-        <v>52.83731842041016</v>
+        <v>22.58296775817871</v>
       </c>
       <c r="E200" t="n">
-        <v>-1.255609512329102</v>
+        <v>-32.98392868041992</v>
       </c>
       <c r="F200" t="n">
-        <v>41.11248397827148</v>
+        <v>10.33676052093506</v>
       </c>
       <c r="G200" t="n">
-        <v>59.24953460693359</v>
+        <v>51.21957397460938</v>
       </c>
       <c r="H200" t="n">
-        <v>5.622128009796143</v>
+        <v>-65.26431274414062</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.8594298898778233</v>
+        <v>15909974610.78227</v>
       </c>
       <c r="B201" t="n">
-        <v>1.000002735391841</v>
+        <v>0.5349433082622711</v>
       </c>
       <c r="C201" t="n">
-        <v>48.12572479248047</v>
+        <v>40.53292465209961</v>
       </c>
       <c r="D201" t="n">
-        <v>50.92681503295898</v>
+        <v>22.58284759521484</v>
       </c>
       <c r="E201" t="n">
-        <v>-6.274250030517578</v>
+        <v>-32.98257827758789</v>
       </c>
       <c r="F201" t="n">
-        <v>41.11248397827148</v>
+        <v>10.33509063720703</v>
       </c>
       <c r="G201" t="n">
-        <v>59.24953460693359</v>
+        <v>51.22279739379883</v>
       </c>
       <c r="H201" t="n">
-        <v>3.517522811889648</v>
+        <v>-65.25895690917969</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.433261126045116</v>
+        <v>-73937889039.14627</v>
       </c>
       <c r="B202" t="n">
-        <v>0.9999969830165366</v>
+        <v>0.5350347553953536</v>
       </c>
       <c r="C202" t="n">
-        <v>48.12572479248047</v>
+        <v>40.5329475402832</v>
       </c>
       <c r="D202" t="n">
-        <v>47.55534362792969</v>
+        <v>22.58271980285645</v>
       </c>
       <c r="E202" t="n">
-        <v>-12.31634330749512</v>
+        <v>-32.98126983642578</v>
       </c>
       <c r="F202" t="n">
-        <v>41.95592498779297</v>
+        <v>10.33344650268555</v>
       </c>
       <c r="G202" t="n">
-        <v>54.59797668457031</v>
+        <v>51.22594833374023</v>
       </c>
       <c r="H202" t="n">
-        <v>1.673897385597229</v>
+        <v>-65.25373077392578</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.935102434647332</v>
+        <v>343610343120.0289</v>
       </c>
       <c r="B203" t="n">
-        <v>1.000003064257939</v>
+        <v>0.5350949366088252</v>
       </c>
       <c r="C203" t="n">
-        <v>47.47263336181641</v>
+        <v>40.5329704284668</v>
       </c>
       <c r="D203" t="n">
-        <v>41.72901153564453</v>
+        <v>22.58259010314941</v>
       </c>
       <c r="E203" t="n">
-        <v>-15.60004806518555</v>
+        <v>-32.97998809814453</v>
       </c>
       <c r="F203" t="n">
-        <v>40.70596694946289</v>
+        <v>10.33185005187988</v>
       </c>
       <c r="G203" t="n">
-        <v>47.48722457885742</v>
+        <v>51.22900390625</v>
       </c>
       <c r="H203" t="n">
-        <v>1.673897385597229</v>
+        <v>-65.24866485595703</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-0.1653514439667034</v>
+        <v>-712527210063.2513</v>
       </c>
       <c r="B204" t="n">
-        <v>0.9999970032088993</v>
+        <v>0.5351246873650426</v>
       </c>
       <c r="C204" t="n">
-        <v>42.04044723510742</v>
+        <v>39.00016021728516</v>
       </c>
       <c r="D204" t="n">
-        <v>34.49962615966797</v>
+        <v>22.58245468139648</v>
       </c>
       <c r="E204" t="n">
-        <v>-13.70456123352051</v>
+        <v>-29.44925117492676</v>
       </c>
       <c r="F204" t="n">
-        <v>36.90293121337891</v>
+        <v>16.26828002929688</v>
       </c>
       <c r="G204" t="n">
-        <v>40.41929626464844</v>
+        <v>52.75904846191406</v>
       </c>
       <c r="H204" t="n">
-        <v>-0.178545743227005</v>
+        <v>-51.07305908203125</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-0.1653514439667034</v>
+        <v>-712527210063.2513</v>
       </c>
       <c r="B205" t="n">
-        <v>1.000003130365046</v>
+        <v>0.5351246873650426</v>
       </c>
       <c r="C205" t="n">
-        <v>42.04044723510742</v>
+        <v>39.00016021728516</v>
       </c>
       <c r="D205" t="n">
-        <v>34.49962615966797</v>
+        <v>22.58231353759766</v>
       </c>
       <c r="E205" t="n">
-        <v>-13.70456123352051</v>
+        <v>-29.44925117492676</v>
       </c>
       <c r="F205" t="n">
-        <v>36.90293121337891</v>
+        <v>16.26828002929688</v>
       </c>
       <c r="G205" t="n">
-        <v>40.41929626464844</v>
+        <v>52.75904846191406</v>
       </c>
       <c r="H205" t="n">
-        <v>0.6332845687866211</v>
+        <v>-51.07305908203125</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/PV_cp_lstm.xlsx
+++ b/Predictions/PV_cp_lstm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,5306 +477,5306 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-884332381623.3533</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>36.15248107910156</v>
+        <v>35.7794189453125</v>
       </c>
       <c r="D2" t="n">
-        <v>24.28925132751465</v>
+        <v>25.66837310791016</v>
       </c>
       <c r="E2" t="n">
-        <v>-22.63095092773438</v>
+        <v>-20.65994262695312</v>
       </c>
       <c r="F2" t="n">
-        <v>27.93913841247559</v>
+        <v>40.69371795654297</v>
       </c>
       <c r="G2" t="n">
-        <v>55.88208770751953</v>
+        <v>50.92035675048828</v>
       </c>
       <c r="H2" t="n">
-        <v>-22.85134887695312</v>
+        <v>-54.76684951782227</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-442166190811.7424</v>
+        <v>0.04648830235004425</v>
       </c>
       <c r="B3" t="n">
-        <v>0.009186447039246559</v>
+        <v>-0.1197062104940415</v>
       </c>
       <c r="C3" t="n">
-        <v>36.15248107910156</v>
+        <v>35.7794189453125</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01112937927246</v>
+        <v>26.13063430786133</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.18818283081055</v>
+        <v>-20.65994262695312</v>
       </c>
       <c r="F3" t="n">
-        <v>30.5577392578125</v>
+        <v>41.50815963745117</v>
       </c>
       <c r="G3" t="n">
-        <v>56.93010711669922</v>
+        <v>47.85140991210938</v>
       </c>
       <c r="H3" t="n">
-        <v>-16.2190055847168</v>
+        <v>-54.76684951782227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-221083095405.8562</v>
+        <v>0.0829056839644909</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02024548780173063</v>
+        <v>-0.2344335746765137</v>
       </c>
       <c r="C4" t="n">
-        <v>34.72895431518555</v>
+        <v>34.36673355102539</v>
       </c>
       <c r="D4" t="n">
-        <v>21.66419219970703</v>
+        <v>26.80419921875</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.18818283081055</v>
+        <v>-21.57056617736816</v>
       </c>
       <c r="F4" t="n">
-        <v>31.5798511505127</v>
+        <v>42.28872680664062</v>
       </c>
       <c r="G4" t="n">
-        <v>56.93010711669922</v>
+        <v>46.68174743652344</v>
       </c>
       <c r="H4" t="n">
-        <v>-13.37956809997559</v>
+        <v>-54.12808990478516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-110541547702.8197</v>
+        <v>0.118123646825552</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0330604350194335</v>
+        <v>-0.3513150608539581</v>
       </c>
       <c r="C5" t="n">
-        <v>34.32688140869141</v>
+        <v>34.00942230224609</v>
       </c>
       <c r="D5" t="n">
-        <v>20.37546539306641</v>
+        <v>27.60887336730957</v>
       </c>
       <c r="E5" t="n">
-        <v>-20.12750625610352</v>
+        <v>-20.8062686920166</v>
       </c>
       <c r="F5" t="n">
-        <v>31.5798511505127</v>
+        <v>43.08395004272461</v>
       </c>
       <c r="G5" t="n">
-        <v>58.60536956787109</v>
+        <v>46.68174743652344</v>
       </c>
       <c r="H5" t="n">
-        <v>-13.37956809997559</v>
+        <v>-55.61592483520508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-55270773851.22131</v>
+        <v>0.1528182426095009</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04774044558405877</v>
+        <v>-0.4707168340682983</v>
       </c>
       <c r="C6" t="n">
-        <v>33.86181259155273</v>
+        <v>33.65742111206055</v>
       </c>
       <c r="D6" t="n">
-        <v>19.17502021789551</v>
+        <v>28.5016975402832</v>
       </c>
       <c r="E6" t="n">
-        <v>-20.5112247467041</v>
+        <v>-20.05403137207031</v>
       </c>
       <c r="F6" t="n">
-        <v>31.94399452209473</v>
+        <v>43.89632034301758</v>
       </c>
       <c r="G6" t="n">
-        <v>59.26896286010742</v>
+        <v>46.30809783935547</v>
       </c>
       <c r="H6" t="n">
-        <v>-11.47150993347168</v>
+        <v>-57.11036682128906</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-27635386925.36832</v>
+        <v>0.187180814743042</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06421610735356809</v>
+        <v>-0.5923562860488892</v>
       </c>
       <c r="C7" t="n">
-        <v>33.46309661865234</v>
+        <v>33.30878829956055</v>
       </c>
       <c r="D7" t="n">
-        <v>18.06290817260742</v>
+        <v>29.43852615356445</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.89634704589844</v>
+        <v>-19.30731391906738</v>
       </c>
       <c r="F7" t="n">
-        <v>31.20554351806641</v>
+        <v>44.72391510009766</v>
       </c>
       <c r="G7" t="n">
-        <v>59.92098617553711</v>
+        <v>47.15426254272461</v>
       </c>
       <c r="H7" t="n">
-        <v>-12.3023796081543</v>
+        <v>-58.55677795410156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-13817693462.41916</v>
+        <v>0.2210749161243439</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08235078170895577</v>
+        <v>-0.7151877093315124</v>
       </c>
       <c r="C8" t="n">
-        <v>33.19514846801758</v>
+        <v>32.96490859985352</v>
       </c>
       <c r="D8" t="n">
-        <v>17.02647399902344</v>
+        <v>30.38314628601074</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.2757625579834</v>
+        <v>-18.56386375427246</v>
       </c>
       <c r="F8" t="n">
-        <v>30.39273452758789</v>
+        <v>45.55961990356445</v>
       </c>
       <c r="G8" t="n">
-        <v>60.53889083862305</v>
+        <v>48.03530502319336</v>
       </c>
       <c r="H8" t="n">
-        <v>-13.01399517059326</v>
+        <v>-59.91529846191406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6908846730.953414</v>
+        <v>0.2544911327958107</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1019012181460857</v>
+        <v>-0.8378005266189575</v>
       </c>
       <c r="C9" t="n">
-        <v>33.08230972290039</v>
+        <v>32.62587738037109</v>
       </c>
       <c r="D9" t="n">
-        <v>16.05147552490234</v>
+        <v>31.30863952636719</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.64016914367676</v>
+        <v>-17.82549095153809</v>
       </c>
       <c r="F9" t="n">
-        <v>29.51646995544434</v>
+        <v>46.39383697509766</v>
       </c>
       <c r="G9" t="n">
-        <v>61.11490249633789</v>
+        <v>48.93630599975586</v>
       </c>
       <c r="H9" t="n">
-        <v>-13.6188850402832</v>
+        <v>-61.15761184692383</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3454423365.25885</v>
+        <v>0.2870986020565033</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1225501655042172</v>
+        <v>-0.9583981883525848</v>
       </c>
       <c r="C10" t="n">
-        <v>33.12628936767578</v>
+        <v>32.29505157470703</v>
       </c>
       <c r="D10" t="n">
-        <v>15.12666416168213</v>
+        <v>32.19624710083008</v>
       </c>
       <c r="E10" t="n">
-        <v>-21.9805736541748</v>
+        <v>-17.09530258178711</v>
       </c>
       <c r="F10" t="n">
-        <v>28.59096908569336</v>
+        <v>47.2143440246582</v>
       </c>
       <c r="G10" t="n">
-        <v>61.64862823486328</v>
+        <v>49.84849548339844</v>
       </c>
       <c r="H10" t="n">
-        <v>-14.14479351043701</v>
+        <v>-62.26981353759766</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1727211682.476197</v>
+        <v>0.3185512030124664</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1439499154686928</v>
+        <v>-1.075111486911774</v>
       </c>
       <c r="C11" t="n">
-        <v>33.3170166015625</v>
+        <v>31.97594261169434</v>
       </c>
       <c r="D11" t="n">
-        <v>14.24510288238525</v>
+        <v>33.03340530395508</v>
       </c>
       <c r="E11" t="n">
-        <v>-22.2895393371582</v>
+        <v>-16.38033676147461</v>
       </c>
       <c r="F11" t="n">
-        <v>27.63181686401367</v>
+        <v>48.0084228515625</v>
       </c>
       <c r="G11" t="n">
-        <v>62.14271926879883</v>
+        <v>50.76608657836914</v>
       </c>
       <c r="H11" t="n">
-        <v>-14.62593746185303</v>
+        <v>-63.24966049194336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-863605841.1721635</v>
+        <v>0.3485116916894913</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1657545050978661</v>
+        <v>-1.18608283996582</v>
       </c>
       <c r="C12" t="n">
-        <v>33.6387825012207</v>
+        <v>31.67197227478027</v>
       </c>
       <c r="D12" t="n">
-        <v>13.40410804748535</v>
+        <v>33.80932998657227</v>
       </c>
       <c r="E12" t="n">
-        <v>-22.56161689758301</v>
+        <v>-15.68970108032227</v>
       </c>
       <c r="F12" t="n">
-        <v>26.65452003479004</v>
+        <v>48.76343536376953</v>
       </c>
       <c r="G12" t="n">
-        <v>62.60045623779297</v>
+        <v>51.68393325805664</v>
       </c>
       <c r="H12" t="n">
-        <v>-15.09841060638428</v>
+        <v>-64.09918212890625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-431802920.6262374</v>
+        <v>0.3768289077281952</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1876392081379891</v>
+        <v>-1.289502935409546</v>
       </c>
       <c r="C13" t="n">
-        <v>34.07338333129883</v>
+        <v>31.38467407226562</v>
       </c>
       <c r="D13" t="n">
-        <v>12.60467433929443</v>
+        <v>34.51605224609375</v>
       </c>
       <c r="E13" t="n">
-        <v>-22.79346466064453</v>
+        <v>-15.03331661224365</v>
       </c>
       <c r="F13" t="n">
-        <v>25.67363166809082</v>
+        <v>49.46707153320312</v>
       </c>
       <c r="G13" t="n">
-        <v>63.02431488037109</v>
+        <v>52.59360504150391</v>
       </c>
       <c r="H13" t="n">
-        <v>-15.59752178192139</v>
+        <v>-64.82260894775391</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-215901460.4742149</v>
+        <v>0.4035363054275513</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2093076902627945</v>
+        <v>-1.384589087963104</v>
       </c>
       <c r="C14" t="n">
-        <v>34.60157012939453</v>
+        <v>31.11370849609375</v>
       </c>
       <c r="D14" t="n">
-        <v>11.85099506378174</v>
+        <v>35.1509895324707</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.98376083374023</v>
+        <v>-14.41633987426758</v>
       </c>
       <c r="F14" t="n">
-        <v>24.70243453979492</v>
+        <v>50.11400604248047</v>
       </c>
       <c r="G14" t="n">
-        <v>63.41535568237305</v>
+        <v>53.48921203613281</v>
       </c>
       <c r="H14" t="n">
-        <v>-16.15632247924805</v>
+        <v>-65.42723846435547</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-107950730.5300168</v>
+        <v>0.4285440415143967</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2304927119612694</v>
+        <v>-1.47105849981308</v>
       </c>
       <c r="C15" t="n">
-        <v>35.20368957519531</v>
+        <v>30.85998725891113</v>
       </c>
       <c r="D15" t="n">
-        <v>11.15016269683838</v>
+        <v>35.71693801879883</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.13312149047852</v>
+        <v>-13.84376430511475</v>
       </c>
       <c r="F15" t="n">
-        <v>23.75290679931641</v>
+        <v>50.70231628417969</v>
       </c>
       <c r="G15" t="n">
-        <v>63.77301788330078</v>
+        <v>54.36482238769531</v>
       </c>
       <c r="H15" t="n">
-        <v>-16.80480575561523</v>
+        <v>-65.92564392089844</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-53975365.69662206</v>
+        <v>0.4515046840906143</v>
       </c>
       <c r="B16" t="n">
-        <v>0.250952590405941</v>
+        <v>-1.549024770259857</v>
       </c>
       <c r="C16" t="n">
-        <v>35.85993957519531</v>
+        <v>30.62703514099121</v>
       </c>
       <c r="D16" t="n">
-        <v>10.51207065582275</v>
+        <v>36.21617889404297</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.24396896362305</v>
+        <v>-13.31615161895752</v>
       </c>
       <c r="F16" t="n">
-        <v>22.83588027954102</v>
+        <v>51.23277282714844</v>
       </c>
       <c r="G16" t="n">
-        <v>64.09529113769531</v>
+        <v>55.22113800048828</v>
       </c>
       <c r="H16" t="n">
-        <v>-17.56949806213379</v>
+        <v>-66.32833862304688</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-26987683.42157985</v>
+        <v>0.4720067358016968</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2704689407348633</v>
+        <v>-1.618333485126495</v>
       </c>
       <c r="C17" t="n">
-        <v>36.55049896240234</v>
+        <v>30.41902732849121</v>
       </c>
       <c r="D17" t="n">
-        <v>9.949353218078613</v>
+        <v>36.6513786315918</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.32043647766113</v>
+        <v>-12.83436679840088</v>
       </c>
       <c r="F17" t="n">
-        <v>21.96114349365234</v>
+        <v>51.70432662963867</v>
       </c>
       <c r="G17" t="n">
-        <v>64.3790283203125</v>
+        <v>56.05633544921875</v>
       </c>
       <c r="H17" t="n">
-        <v>-18.4733772277832</v>
+        <v>-66.64374542236328</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-13493842.42480582</v>
+        <v>0.4897059553861619</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2888458389043808</v>
+        <v>-1.679211211204529</v>
       </c>
       <c r="C18" t="n">
-        <v>37.2557487487793</v>
+        <v>30.23945617675781</v>
       </c>
       <c r="D18" t="n">
-        <v>9.477179527282715</v>
+        <v>37.02646636962891</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.36831665039062</v>
+        <v>-12.3963098526001</v>
       </c>
       <c r="F18" t="n">
-        <v>21.13747787475586</v>
+        <v>52.1185188293457</v>
       </c>
       <c r="G18" t="n">
-        <v>64.62030792236328</v>
+        <v>56.87337493896484</v>
       </c>
       <c r="H18" t="n">
-        <v>-19.53568649291992</v>
+        <v>-66.88105010986328</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-6746922.062579442</v>
+        <v>0.5043825995922089</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3059123015403748</v>
+        <v>-1.731706218719482</v>
       </c>
       <c r="C19" t="n">
-        <v>37.95647811889648</v>
+        <v>30.09055137634277</v>
       </c>
       <c r="D19" t="n">
-        <v>9.112570762634277</v>
+        <v>37.34532928466797</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.39498710632324</v>
+        <v>-12.00195693969727</v>
       </c>
       <c r="F19" t="n">
-        <v>20.3725471496582</v>
+        <v>52.47567749023438</v>
       </c>
       <c r="G19" t="n">
-        <v>64.81462097167969</v>
+        <v>57.67108535766602</v>
       </c>
       <c r="H19" t="n">
-        <v>-20.77178192138672</v>
+        <v>-67.04742431640625</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-3373462.009668181</v>
+        <v>0.5158777683973312</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3215274983644485</v>
+        <v>-1.776233985424042</v>
       </c>
       <c r="C20" t="n">
-        <v>38.63437271118164</v>
+        <v>29.97392463684082</v>
       </c>
       <c r="D20" t="n">
-        <v>8.873316764831543</v>
+        <v>37.61220169067383</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.40938377380371</v>
+        <v>-11.64888763427734</v>
       </c>
       <c r="F20" t="n">
-        <v>19.67266273498535</v>
+        <v>52.77862930297852</v>
       </c>
       <c r="G20" t="n">
-        <v>64.95677947998047</v>
+        <v>58.45061874389648</v>
       </c>
       <c r="H20" t="n">
-        <v>-22.1928825378418</v>
+        <v>-67.14987945556641</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1686732.100562524</v>
+        <v>0.5240380901098252</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3355865806341172</v>
+        <v>-1.81306960105896</v>
       </c>
       <c r="C21" t="n">
-        <v>39.27264404296875</v>
+        <v>29.89113235473633</v>
       </c>
       <c r="D21" t="n">
-        <v>8.776469230651855</v>
+        <v>37.83013153076172</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.4217643737793</v>
+        <v>-11.33530616760254</v>
       </c>
       <c r="F21" t="n">
-        <v>19.04252433776855</v>
+        <v>53.02924728393555</v>
       </c>
       <c r="G21" t="n">
-        <v>65.04096984863281</v>
+        <v>59.21246719360352</v>
       </c>
       <c r="H21" t="n">
-        <v>-23.80562973022461</v>
+        <v>-67.19306182861328</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-843367.250265295</v>
+        <v>0.5287552726268768</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3480250722169876</v>
+        <v>-1.841989657878876</v>
       </c>
       <c r="C22" t="n">
-        <v>39.85688781738281</v>
+        <v>29.8432731628418</v>
       </c>
       <c r="D22" t="n">
-        <v>8.836541175842285</v>
+        <v>37.99984359741211</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.44338607788086</v>
+        <v>-11.06344318389893</v>
       </c>
       <c r="F22" t="n">
-        <v>18.48502159118652</v>
+        <v>53.22600936889648</v>
       </c>
       <c r="G22" t="n">
-        <v>65.06060791015625</v>
+        <v>59.95191192626953</v>
       </c>
       <c r="H22" t="n">
-        <v>-25.61181449890137</v>
+        <v>-67.18061828613281</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-421684.9148201976</v>
+        <v>0.53</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3588216179609299</v>
+        <v>-1.862631750106812</v>
       </c>
       <c r="C23" t="n">
-        <v>40.37593841552734</v>
+        <v>29.83064460754395</v>
       </c>
       <c r="D23" t="n">
-        <v>9.063658714294434</v>
+        <v>38.12072372436523</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.4859619140625</v>
+        <v>-10.83699035644531</v>
       </c>
       <c r="F23" t="n">
-        <v>18.00111389160156</v>
+        <v>53.36645126342773</v>
       </c>
       <c r="G23" t="n">
-        <v>65.00849151611328</v>
+        <v>60.66220855712891</v>
       </c>
       <c r="H23" t="n">
-        <v>-28.69624328613281</v>
+        <v>-67.11587524414062</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-210843.8216784327</v>
+        <v>0.5277350270748139</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3679995316267013</v>
+        <v>-1.87489883184433</v>
       </c>
       <c r="C24" t="n">
-        <v>40.82254028320312</v>
+        <v>29.85362434387207</v>
       </c>
       <c r="D24" t="n">
-        <v>9.462368011474609</v>
+        <v>38.19165420532227</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.56115531921387</v>
+        <v>-10.6569242477417</v>
       </c>
       <c r="F24" t="n">
-        <v>17.58975219726562</v>
+        <v>53.44991302490234</v>
       </c>
       <c r="G24" t="n">
-        <v>64.87752532958984</v>
+        <v>61.33956527709961</v>
       </c>
       <c r="H24" t="n">
-        <v>-30.41067314147949</v>
+        <v>-67.00209045410156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-105423.3348638149</v>
+        <v>0.5219586795568466</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3756321346759796</v>
+        <v>-1.878814659118653</v>
       </c>
       <c r="C25" t="n">
-        <v>41.19385147094727</v>
+        <v>29.91222953796387</v>
       </c>
       <c r="D25" t="n">
-        <v>10.02874946594238</v>
+        <v>38.21173477172852</v>
       </c>
       <c r="E25" t="n">
-        <v>-23.67935943603516</v>
+        <v>-10.52358913421631</v>
       </c>
       <c r="F25" t="n">
-        <v>17.24765396118164</v>
+        <v>53.47655487060547</v>
       </c>
       <c r="G25" t="n">
-        <v>64.6611328125</v>
+        <v>61.98174285888672</v>
       </c>
       <c r="H25" t="n">
-        <v>-32.50858688354492</v>
+        <v>-66.84300231933594</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-52713.13739093285</v>
+        <v>0.5126042068004608</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3818338793516159</v>
+        <v>-1.874682500362396</v>
       </c>
       <c r="C26" t="n">
-        <v>41.49135589599609</v>
+        <v>30.00713729858398</v>
       </c>
       <c r="D26" t="n">
-        <v>10.74911975860596</v>
+        <v>38.18119430541992</v>
       </c>
       <c r="E26" t="n">
-        <v>-23.84831047058105</v>
+        <v>-10.43312358856201</v>
       </c>
       <c r="F26" t="n">
-        <v>16.96968650817871</v>
+        <v>53.44844055175781</v>
       </c>
       <c r="G26" t="n">
-        <v>64.35476684570312</v>
+        <v>62.59115219116211</v>
       </c>
       <c r="H26" t="n">
-        <v>-34.85344696044922</v>
+        <v>-66.64242553710938</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-26358.07218321791</v>
+        <v>0.4995469844341278</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3867479020357132</v>
+        <v>-1.86312064409256</v>
       </c>
       <c r="C27" t="n">
-        <v>41.72004699707031</v>
+        <v>30.13961219787598</v>
       </c>
       <c r="D27" t="n">
-        <v>11.59933948516846</v>
+        <v>38.10185623168945</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.07161331176758</v>
+        <v>-10.37775325775146</v>
       </c>
       <c r="F27" t="n">
-        <v>16.74943733215332</v>
+        <v>53.36977767944336</v>
       </c>
       <c r="G27" t="n">
-        <v>63.95729064941406</v>
+        <v>63.17276382446289</v>
       </c>
       <c r="H27" t="n">
-        <v>-37.35821533203125</v>
+        <v>-66.40379333496094</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-13180.562200911</v>
+        <v>0.4824662429094315</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3905325341224671</v>
+        <v>-1.844166746139526</v>
       </c>
       <c r="C28" t="n">
-        <v>41.8869743347168</v>
+        <v>30.31290817260742</v>
       </c>
       <c r="D28" t="n">
-        <v>12.54506778717041</v>
+        <v>37.97348785400391</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.34761238098145</v>
+        <v>-10.35079669952393</v>
       </c>
       <c r="F28" t="n">
-        <v>16.57980728149414</v>
+        <v>53.24082183837891</v>
       </c>
       <c r="G28" t="n">
-        <v>63.47213363647461</v>
+        <v>63.73369598388672</v>
       </c>
       <c r="H28" t="n">
-        <v>-39.95748519897461</v>
+        <v>-66.12705993652344</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-6591.820186361051</v>
+        <v>0.4610086113214493</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3933389043807984</v>
+        <v>-1.817462570667267</v>
       </c>
       <c r="C29" t="n">
-        <v>41.99959945678711</v>
+        <v>30.53061103820801</v>
       </c>
       <c r="D29" t="n">
-        <v>13.54404926300049</v>
+        <v>37.79484176635742</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.66882514953613</v>
+        <v>-10.34605979919434</v>
       </c>
       <c r="F29" t="n">
-        <v>16.45402336120605</v>
+        <v>53.05913543701172</v>
       </c>
       <c r="G29" t="n">
-        <v>62.90800476074219</v>
+        <v>64.27677917480469</v>
       </c>
       <c r="H29" t="n">
-        <v>-42.59466552734375</v>
+        <v>-65.80976104736328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-3297.45332122742</v>
+        <v>0.4349120151996613</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3952847504615784</v>
+        <v>-1.7823521733284</v>
       </c>
       <c r="C30" t="n">
-        <v>42.06420516967773</v>
+        <v>30.79537963867188</v>
       </c>
       <c r="D30" t="n">
-        <v>14.55064392089844</v>
+        <v>37.56378936767578</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.02255249023438</v>
+        <v>-10.36087894439697</v>
       </c>
       <c r="F30" t="n">
-        <v>16.3668098449707</v>
+        <v>52.82025527954102</v>
       </c>
       <c r="G30" t="n">
-        <v>62.27862167358398</v>
+        <v>64.80049896240234</v>
       </c>
       <c r="H30" t="n">
-        <v>-45.21706008911133</v>
+        <v>-65.45148468017578</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-1650.265554196531</v>
+        <v>0.4040662670135498</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3964385920763016</v>
+        <v>-1.738325684070587</v>
       </c>
       <c r="C31" t="n">
-        <v>42.0848274230957</v>
+        <v>31.10833168029785</v>
       </c>
       <c r="D31" t="n">
-        <v>15.52238655090332</v>
+        <v>37.27889251708984</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.39277267456055</v>
+        <v>-10.39456367492676</v>
       </c>
       <c r="F31" t="n">
-        <v>16.31509399414062</v>
+        <v>52.52071380615234</v>
       </c>
       <c r="G31" t="n">
-        <v>61.60161972045898</v>
+        <v>65.30088043212891</v>
       </c>
       <c r="H31" t="n">
-        <v>-47.77474975585938</v>
+        <v>-65.05499267578125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-826.6589576683909</v>
+        <v>0.3691915661096573</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3968357789516449</v>
+        <v>-1.685780258178711</v>
       </c>
       <c r="C32" t="n">
-        <v>42.06324768066406</v>
+        <v>31.46216011047363</v>
       </c>
       <c r="D32" t="n">
-        <v>16.42646217346191</v>
+        <v>36.94229125976562</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.76298904418945</v>
+        <v>-10.45570755004883</v>
       </c>
       <c r="F32" t="n">
-        <v>16.29729080200195</v>
+        <v>52.16321182250977</v>
       </c>
       <c r="G32" t="n">
-        <v>60.89722442626953</v>
+        <v>65.76460266113281</v>
       </c>
       <c r="H32" t="n">
-        <v>-50.22090911865234</v>
+        <v>-64.63706207275391</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-414.8347180872396</v>
+        <v>0.3311390227079392</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3965348482131958</v>
+        <v>3.549878848092125</v>
       </c>
       <c r="C33" t="n">
-        <v>41.99995422363281</v>
+        <v>31.84823036193848</v>
       </c>
       <c r="D33" t="n">
-        <v>17.24367904663086</v>
+        <v>36.56010818481445</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.11929512023926</v>
+        <v>-10.54804229736328</v>
       </c>
       <c r="F33" t="n">
-        <v>16.3107795715332</v>
+        <v>51.75467300415039</v>
       </c>
       <c r="G33" t="n">
-        <v>60.18716049194336</v>
+        <v>66.18471527099609</v>
       </c>
       <c r="H33" t="n">
-        <v>-52.51329040527344</v>
+        <v>-64.21340942382812</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-195.7434713621778</v>
+        <v>0.2907773113250733</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5494825770352589</v>
+        <v>-8.568577827044006</v>
       </c>
       <c r="C34" t="n">
-        <v>41.89569473266602</v>
+        <v>32.25772857666016</v>
       </c>
       <c r="D34" t="n">
-        <v>17.96803092956543</v>
+        <v>36.14013671875</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.45271682739258</v>
+        <v>-10.67277431488037</v>
       </c>
       <c r="F34" t="n">
-        <v>16.34945487976074</v>
+        <v>51.3032112121582</v>
       </c>
       <c r="G34" t="n">
-        <v>59.49275970458984</v>
+        <v>66.55873870849609</v>
       </c>
       <c r="H34" t="n">
-        <v>-54.61488342285156</v>
+        <v>-63.79631805419922</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-158.168052895565</v>
+        <v>0.667030876385454</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6646486964175735</v>
+        <v>25.1024059614723</v>
       </c>
       <c r="C35" t="n">
-        <v>41.75346755981445</v>
+        <v>32.68334579467773</v>
       </c>
       <c r="D35" t="n">
-        <v>18.60278511047363</v>
+        <v>35.69026947021484</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.76062965393066</v>
+        <v>-10.8283052444458</v>
       </c>
       <c r="F35" t="n">
-        <v>16.40127944946289</v>
+        <v>50.81634521484375</v>
       </c>
       <c r="G35" t="n">
-        <v>58.83467864990234</v>
+        <v>66.88861083984375</v>
       </c>
       <c r="H35" t="n">
-        <v>-56.50095367431641</v>
+        <v>-63.39295959472656</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>243.1985578956785</v>
+        <v>0.8707335041036637</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7511136396766394</v>
+        <v>-59.56196049160141</v>
       </c>
       <c r="C36" t="n">
-        <v>41.58008193969727</v>
+        <v>33.12030410766602</v>
       </c>
       <c r="D36" t="n">
-        <v>19.15680122375488</v>
+        <v>35.2166748046875</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.04513168334961</v>
+        <v>-11.01097679138184</v>
       </c>
       <c r="F36" t="n">
-        <v>16.45361518859863</v>
+        <v>50.29981231689453</v>
       </c>
       <c r="G36" t="n">
-        <v>58.22611999511719</v>
+        <v>67.17951965332031</v>
       </c>
       <c r="H36" t="n">
-        <v>-58.16286468505859</v>
+        <v>-63.00619506835938</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-1530.268531305322</v>
+        <v>0.9605209236738963</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8157469509751273</v>
+        <v>141.9036671344607</v>
       </c>
       <c r="C37" t="n">
-        <v>41.38464736938477</v>
+        <v>33.56562042236328</v>
       </c>
       <c r="D37" t="n">
-        <v>19.63872337341309</v>
+        <v>34.72363662719727</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.30998992919922</v>
+        <v>-11.21633911132812</v>
       </c>
       <c r="F37" t="n">
-        <v>16.49770736694336</v>
+        <v>49.7580680847168</v>
       </c>
       <c r="G37" t="n">
-        <v>57.67048645019531</v>
+        <v>67.43780517578125</v>
       </c>
       <c r="H37" t="n">
-        <v>-59.60705184936523</v>
+        <v>-62.63649368286133</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7454.488227638396</v>
+        <v>0.9912546021092511</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8638496352524757</v>
+        <v>-304.4994798243903</v>
       </c>
       <c r="C38" t="n">
-        <v>41.17651748657227</v>
+        <v>34.01670837402344</v>
       </c>
       <c r="D38" t="n">
-        <v>20.05549240112305</v>
+        <v>34.21457672119141</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.55815124511719</v>
+        <v>-11.44033718109131</v>
       </c>
       <c r="F38" t="n">
-        <v>16.53045463562012</v>
+        <v>49.1946907043457</v>
       </c>
       <c r="G38" t="n">
-        <v>57.1639289855957</v>
+        <v>67.66914367675781</v>
       </c>
       <c r="H38" t="n">
-        <v>-60.84913635253906</v>
+        <v>-62.28370666503906</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-35850.29044240418</v>
+        <v>0.9988014289984156</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8995088618807133</v>
+        <v>611.6810683141252</v>
       </c>
       <c r="C39" t="n">
-        <v>40.96424102783203</v>
+        <v>34.47091293334961</v>
       </c>
       <c r="D39" t="n">
-        <v>20.41300964355469</v>
+        <v>33.69296646118164</v>
       </c>
       <c r="E39" t="n">
-        <v>-27.79180145263672</v>
+        <v>-11.67935562133789</v>
       </c>
       <c r="F39" t="n">
-        <v>16.55045700073242</v>
+        <v>48.61300277709961</v>
       </c>
       <c r="G39" t="n">
-        <v>56.70168685913086</v>
+        <v>67.87834167480469</v>
       </c>
       <c r="H39" t="n">
-        <v>-61.91037750244141</v>
+        <v>-61.94760131835938</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>166608.4830314782</v>
+        <v>0.9999370651537728</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9258584286062911</v>
+        <v>-1115.046669300508</v>
       </c>
       <c r="C40" t="n">
-        <v>40.75474548339844</v>
+        <v>34.92552185058594</v>
       </c>
       <c r="D40" t="n">
-        <v>20.71808242797852</v>
+        <v>33.16229629516602</v>
       </c>
       <c r="E40" t="n">
-        <v>-28.01248550415039</v>
+        <v>-11.92999458312988</v>
       </c>
       <c r="F40" t="n">
-        <v>16.55751800537109</v>
+        <v>48.01618194580078</v>
       </c>
       <c r="G40" t="n">
-        <v>56.27821731567383</v>
+        <v>68.06945037841797</v>
       </c>
       <c r="H40" t="n">
-        <v>-61.91037750244141</v>
+        <v>-61.62774658203125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-750463.4576525419</v>
+        <v>1.000001990589664</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9452795367779898</v>
+        <v>1846.089208923913</v>
       </c>
       <c r="C41" t="n">
-        <v>40.5530891418457</v>
+        <v>35.37794876098633</v>
       </c>
       <c r="D41" t="n">
-        <v>20.97787857055664</v>
+        <v>32.62591171264648</v>
       </c>
       <c r="E41" t="n">
-        <v>-28.22174072265625</v>
+        <v>-12.18891143798828</v>
       </c>
       <c r="F41" t="n">
-        <v>16.55130386352539</v>
+        <v>47.40741729736328</v>
       </c>
       <c r="G41" t="n">
-        <v>55.88927459716797</v>
+        <v>68.24596405029297</v>
       </c>
       <c r="H41" t="n">
-        <v>-63.71710205078125</v>
+        <v>-61.32371139526367</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3279873.343245897</v>
+        <v>0.9999997712839332</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9595675411278899</v>
+        <v>-2725.489956129723</v>
       </c>
       <c r="C42" t="n">
-        <v>40.36276626586914</v>
+        <v>35.82570648193359</v>
       </c>
       <c r="D42" t="n">
-        <v>21.19967269897461</v>
+        <v>32.08683395385742</v>
       </c>
       <c r="E42" t="n">
-        <v>-28.42112922668457</v>
+        <v>-12.45292472839355</v>
       </c>
       <c r="F42" t="n">
-        <v>16.53141403198242</v>
+        <v>46.79022216796875</v>
       </c>
       <c r="G42" t="n">
-        <v>55.5313720703125</v>
+        <v>68.41075897216797</v>
       </c>
       <c r="H42" t="n">
-        <v>-64.35064697265625</v>
+        <v>-61.03569030761719</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-13929372.92516647</v>
+        <v>1.000000045020935</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9700692241798118</v>
+        <v>3551.220665994673</v>
       </c>
       <c r="C43" t="n">
-        <v>40.18542098999023</v>
+        <v>36.26633453369141</v>
       </c>
       <c r="D43" t="n">
-        <v>21.39016532897949</v>
+        <v>31.5477466583252</v>
       </c>
       <c r="E43" t="n">
-        <v>-28.61193656921387</v>
+        <v>-12.71909618377686</v>
       </c>
       <c r="F43" t="n">
-        <v>16.49875068664551</v>
+        <v>46.16920852661133</v>
       </c>
       <c r="G43" t="n">
-        <v>55.20050048828125</v>
+        <v>68.56582641601562</v>
       </c>
       <c r="H43" t="n">
-        <v>-64.89253234863281</v>
+        <v>-60.76520156860352</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>57569417.21003906</v>
+        <v>0.9999999875168497</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9777878499745914</v>
+        <v>-4004.938623308213</v>
       </c>
       <c r="C44" t="n">
-        <v>40.02151870727539</v>
+        <v>36.69883728027344</v>
       </c>
       <c r="D44" t="n">
-        <v>21.55512428283691</v>
+        <v>31.00944328308105</v>
       </c>
       <c r="E44" t="n">
-        <v>-28.7951774597168</v>
+        <v>-12.98559188842773</v>
       </c>
       <c r="F44" t="n">
-        <v>16.45477104187012</v>
+        <v>45.54916381835938</v>
       </c>
       <c r="G44" t="n">
-        <v>54.89296722412109</v>
+        <v>68.71248626708984</v>
       </c>
       <c r="H44" t="n">
-        <v>-65.35941314697266</v>
+        <v>-60.51450729370117</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-231780569.9117202</v>
+        <v>1.000000004445664</v>
       </c>
       <c r="B45" t="n">
-        <v>0.98346375836597</v>
+        <v>3843.062301778264</v>
       </c>
       <c r="C45" t="n">
-        <v>39.87025451660156</v>
+        <v>37.12287902832031</v>
       </c>
       <c r="D45" t="n">
-        <v>21.69844055175781</v>
+        <v>30.47298240661621</v>
       </c>
       <c r="E45" t="n">
-        <v>-28.97256469726562</v>
+        <v>-13.25053119659424</v>
       </c>
       <c r="F45" t="n">
-        <v>16.39892578125</v>
+        <v>44.93637466430664</v>
       </c>
       <c r="G45" t="n">
-        <v>54.60597610473633</v>
+        <v>68.85084533691406</v>
       </c>
       <c r="H45" t="n">
-        <v>-65.76153564453125</v>
+        <v>-60.28802108764648</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>909566462.9024463</v>
+        <v>0.9999999980751348</v>
       </c>
       <c r="B46" t="n">
-        <v>0.987637822509548</v>
+        <v>-3055.790117088241</v>
       </c>
       <c r="C46" t="n">
-        <v>39.72866439819336</v>
+        <v>37.53607940673828</v>
       </c>
       <c r="D46" t="n">
-        <v>21.82178115844727</v>
+        <v>29.94160652160645</v>
       </c>
       <c r="E46" t="n">
-        <v>-29.14826774597168</v>
+        <v>-13.51146602630615</v>
       </c>
       <c r="F46" t="n">
-        <v>16.32498741149902</v>
+        <v>44.33957290649414</v>
       </c>
       <c r="G46" t="n">
-        <v>54.33880996704102</v>
+        <v>68.97999572753906</v>
       </c>
       <c r="H46" t="n">
-        <v>-66.09970855712891</v>
+        <v>-60.09235382080078</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-3479330046.571648</v>
+        <v>1.000000000976188</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9907062869408026</v>
+        <v>1949.413071058995</v>
       </c>
       <c r="C47" t="n">
-        <v>39.59392166137695</v>
+        <v>37.93490982055664</v>
       </c>
       <c r="D47" t="n">
-        <v>21.92322540283203</v>
+        <v>29.41988372802734</v>
       </c>
       <c r="E47" t="n">
-        <v>-29.32611465454102</v>
+        <v>-13.76687431335449</v>
       </c>
       <c r="F47" t="n">
-        <v>16.2250919342041</v>
+        <v>43.7646598815918</v>
       </c>
       <c r="G47" t="n">
-        <v>54.09115219116211</v>
+        <v>69.09963989257812</v>
       </c>
       <c r="H47" t="n">
-        <v>-66.3701171875</v>
+        <v>-59.93006896972656</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>12973290968.00056</v>
+        <v>0.9999999994356727</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9929605665220578</v>
+        <v>-940.2807184365136</v>
       </c>
       <c r="C48" t="n">
-        <v>39.46323013305664</v>
+        <v>38.31640625</v>
       </c>
       <c r="D48" t="n">
-        <v>21.99817657470703</v>
+        <v>28.91374015808105</v>
       </c>
       <c r="E48" t="n">
-        <v>-29.50911521911621</v>
+        <v>-14.01546382904053</v>
       </c>
       <c r="F48" t="n">
-        <v>16.09077453613281</v>
+        <v>43.21232604980469</v>
       </c>
       <c r="G48" t="n">
-        <v>53.86373138427734</v>
+        <v>69.210693359375</v>
       </c>
       <c r="H48" t="n">
-        <v>-66.56607055664062</v>
+        <v>-59.79650497436523</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-47183225835.9355</v>
+        <v>1.0000000003643</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9946175023396534</v>
+        <v>314.4681173546441</v>
       </c>
       <c r="C49" t="n">
-        <v>39.33576965332031</v>
+        <v>38.67912673950195</v>
       </c>
       <c r="D49" t="n">
-        <v>22.0428638458252</v>
+        <v>28.42815589904785</v>
       </c>
       <c r="E49" t="n">
-        <v>-29.69658470153809</v>
+        <v>-14.25522327423096</v>
       </c>
       <c r="F49" t="n">
-        <v>15.92020225524902</v>
+        <v>42.68035125732422</v>
       </c>
       <c r="G49" t="n">
-        <v>53.65666580200195</v>
+        <v>69.31559753417969</v>
       </c>
       <c r="H49" t="n">
-        <v>-66.6883544921875</v>
+        <v>-59.68195724487305</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>167702186147.5414</v>
+        <v>0.9999999997415485</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9958399838901755</v>
+        <v>-58.25894877588064</v>
       </c>
       <c r="C50" t="n">
-        <v>39.21433258056641</v>
+        <v>39.02272415161133</v>
       </c>
       <c r="D50" t="n">
-        <v>22.05886650085449</v>
+        <v>27.96530914306641</v>
       </c>
       <c r="E50" t="n">
-        <v>-29.8827953338623</v>
+        <v>-14.48331165313721</v>
       </c>
       <c r="F50" t="n">
-        <v>15.72404384613037</v>
+        <v>42.16981887817383</v>
       </c>
       <c r="G50" t="n">
-        <v>53.4671630859375</v>
+        <v>69.41623687744141</v>
       </c>
       <c r="H50" t="n">
-        <v>-66.75457763671875</v>
+        <v>-59.58099746704102</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-584154793576.4767</v>
+        <v>1.000000000198889</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9967492859233162</v>
+        <v>3.985509267483209</v>
       </c>
       <c r="C51" t="n">
-        <v>39.10412979125977</v>
+        <v>39.34586715698242</v>
       </c>
       <c r="D51" t="n">
-        <v>22.05379486083984</v>
+        <v>27.52589225769043</v>
       </c>
       <c r="E51" t="n">
-        <v>-30.06011772155762</v>
+        <v>-14.69736194610596</v>
       </c>
       <c r="F51" t="n">
-        <v>15.52117156982422</v>
+        <v>41.6870231628418</v>
       </c>
       <c r="G51" t="n">
-        <v>53.28926467895508</v>
+        <v>69.51213836669922</v>
       </c>
       <c r="H51" t="n">
-        <v>-66.79383850097656</v>
+        <v>-59.49745559692383</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-292077396789.1475</v>
+        <v>0.9999999998358482</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9974331397250192</v>
+        <v>1.983331247380155</v>
       </c>
       <c r="C52" t="n">
-        <v>39.00883865356445</v>
+        <v>39.64592742919922</v>
       </c>
       <c r="D52" t="n">
-        <v>22.03660011291504</v>
+        <v>27.11117172241211</v>
       </c>
       <c r="E52" t="n">
-        <v>-30.22425651550293</v>
+        <v>-14.89572620391846</v>
       </c>
       <c r="F52" t="n">
-        <v>15.32611751556396</v>
+        <v>41.23821640014648</v>
       </c>
       <c r="G52" t="n">
-        <v>53.11708068847656</v>
+        <v>69.60213470458984</v>
       </c>
       <c r="H52" t="n">
-        <v>-66.82950592041016</v>
+        <v>-59.43792343139648</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-146038698395.471</v>
+        <v>-0.4645205861330032</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4226172286272049</v>
+        <v>1.983331247380155</v>
       </c>
       <c r="C53" t="n">
-        <v>38.9282341003418</v>
+        <v>39.92076110839844</v>
       </c>
       <c r="D53" t="n">
-        <v>22.01239776611328</v>
+        <v>26.72349739074707</v>
       </c>
       <c r="E53" t="n">
-        <v>-30.375732421875</v>
+        <v>-15.07673835754395</v>
       </c>
       <c r="F53" t="n">
-        <v>15.14174842834473</v>
+        <v>40.82194519042969</v>
       </c>
       <c r="G53" t="n">
-        <v>52.94807815551758</v>
+        <v>69.68777465820312</v>
       </c>
       <c r="H53" t="n">
-        <v>-66.86837768554688</v>
+        <v>-59.40068817138672</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-73019349198.6223</v>
+        <v>-0.4909798091650009</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4260338318347931</v>
+        <v>0.04674127086997033</v>
       </c>
       <c r="C54" t="n">
-        <v>38.86859512329102</v>
+        <v>40.189208984375</v>
       </c>
       <c r="D54" t="n">
-        <v>21.9968433380127</v>
+        <v>26.3587818145752</v>
       </c>
       <c r="E54" t="n">
-        <v>-30.51060485839844</v>
+        <v>-15.23126220703125</v>
       </c>
       <c r="F54" t="n">
-        <v>14.98861408233643</v>
+        <v>40.37570571899414</v>
       </c>
       <c r="G54" t="n">
-        <v>52.77290344238281</v>
+        <v>69.79701232910156</v>
       </c>
       <c r="H54" t="n">
-        <v>-66.9443359375</v>
+        <v>-59.30298233032227</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-36509674600.18914</v>
+        <v>-0.5147150182724</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4295600855350495</v>
+        <v>0.1076868690550327</v>
       </c>
       <c r="C55" t="n">
-        <v>38.81678009033203</v>
+        <v>40.43001937866211</v>
       </c>
       <c r="D55" t="n">
-        <v>21.97331809997559</v>
+        <v>26.02416038513184</v>
       </c>
       <c r="E55" t="n">
-        <v>-30.6401195526123</v>
+        <v>-15.37374401092529</v>
       </c>
       <c r="F55" t="n">
-        <v>14.83056449890137</v>
+        <v>39.96105194091797</v>
       </c>
       <c r="G55" t="n">
-        <v>52.60611724853516</v>
+        <v>69.90036010742188</v>
       </c>
       <c r="H55" t="n">
-        <v>-67.00347900390625</v>
+        <v>-59.22306060791016</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-18254837300.96525</v>
+        <v>-0.5358750677108765</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4331388425827026</v>
+        <v>0.1640774780511856</v>
       </c>
       <c r="C56" t="n">
-        <v>38.77286148071289</v>
+        <v>40.64470291137695</v>
       </c>
       <c r="D56" t="n">
-        <v>21.94441986083984</v>
+        <v>25.71967124938965</v>
       </c>
       <c r="E56" t="n">
-        <v>-30.76379776000977</v>
+        <v>-15.50413227081299</v>
       </c>
       <c r="F56" t="n">
-        <v>14.67016315460205</v>
+        <v>39.57738876342773</v>
       </c>
       <c r="G56" t="n">
-        <v>52.44680404663086</v>
+        <v>69.99872589111328</v>
       </c>
       <c r="H56" t="n">
-        <v>-67.05117034912109</v>
+        <v>-59.15814208984375</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-9127418651.347439</v>
+        <v>-0.5545407342910766</v>
       </c>
       <c r="B57" t="n">
-        <v>0.436721580028534</v>
+        <v>0.2159647008776665</v>
       </c>
       <c r="C57" t="n">
-        <v>38.7364616394043</v>
+        <v>40.83407974243164</v>
       </c>
       <c r="D57" t="n">
-        <v>21.91228103637695</v>
+        <v>25.44484710693359</v>
       </c>
       <c r="E57" t="n">
-        <v>-30.88156700134277</v>
+        <v>-15.62246608734131</v>
       </c>
       <c r="F57" t="n">
-        <v>14.50958061218262</v>
+        <v>39.224365234375</v>
       </c>
       <c r="G57" t="n">
-        <v>52.29419708251953</v>
+        <v>70.09249114990234</v>
       </c>
       <c r="H57" t="n">
-        <v>-67.09096527099609</v>
+        <v>-59.10659027099609</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-4563709326.534027</v>
+        <v>-0.570802366733551</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4402772760391235</v>
+        <v>0.2633905607461929</v>
       </c>
       <c r="C58" t="n">
-        <v>38.70724487304688</v>
+        <v>40.99906539916992</v>
       </c>
       <c r="D58" t="n">
-        <v>21.87859153747559</v>
+        <v>25.19892883300781</v>
       </c>
       <c r="E58" t="n">
-        <v>-30.99368858337402</v>
+        <v>-15.72880077362061</v>
       </c>
       <c r="F58" t="n">
-        <v>14.35021209716797</v>
+        <v>38.90169525146484</v>
       </c>
       <c r="G58" t="n">
-        <v>52.14749908447266</v>
+        <v>70.18207550048828</v>
       </c>
       <c r="H58" t="n">
-        <v>-67.12541961669922</v>
+        <v>-59.06702041625977</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-2281854664.124136</v>
+        <v>-0.58478133559227</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4437930101156235</v>
+        <v>0.3064089035987854</v>
       </c>
       <c r="C59" t="n">
-        <v>38.68481063842773</v>
+        <v>41.14089202880859</v>
       </c>
       <c r="D59" t="n">
-        <v>21.84446334838867</v>
+        <v>24.98067855834961</v>
       </c>
       <c r="E59" t="n">
-        <v>-31.10066223144531</v>
+        <v>-15.82329559326172</v>
       </c>
       <c r="F59" t="n">
-        <v>14.19263553619385</v>
+        <v>38.60901260375977</v>
       </c>
       <c r="G59" t="n">
-        <v>52.00619506835938</v>
+        <v>70.26789093017578</v>
       </c>
       <c r="H59" t="n">
-        <v>-67.15589904785156</v>
+        <v>-59.03834915161133</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-1140927332.917281</v>
+        <v>-0.5966450071334839</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4472508704662323</v>
+        <v>0.3451010274887085</v>
       </c>
       <c r="C60" t="n">
-        <v>38.6689567565918</v>
+        <v>41.26125717163086</v>
       </c>
       <c r="D60" t="n">
-        <v>21.81119346618652</v>
+        <v>24.78825187683105</v>
       </c>
       <c r="E60" t="n">
-        <v>-31.20293045043945</v>
+        <v>-15.90608406066895</v>
       </c>
       <c r="F60" t="n">
-        <v>14.0376501083374</v>
+        <v>38.34576416015625</v>
       </c>
       <c r="G60" t="n">
-        <v>51.86957931518555</v>
+        <v>70.35048675537109</v>
       </c>
       <c r="H60" t="n">
-        <v>-67.18415069580078</v>
+        <v>-59.01935195922852</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-570463667.3131608</v>
+        <v>-0.6065072333812714</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4506432753801346</v>
+        <v>0.3795157080888749</v>
       </c>
       <c r="C61" t="n">
-        <v>38.65944671630859</v>
+        <v>41.3613166809082</v>
       </c>
       <c r="D61" t="n">
-        <v>21.77971076965332</v>
+        <v>24.6201171875</v>
       </c>
       <c r="E61" t="n">
-        <v>-31.30099487304688</v>
+        <v>-15.97741222381592</v>
       </c>
       <c r="F61" t="n">
-        <v>13.88560199737549</v>
+        <v>38.11161804199219</v>
       </c>
       <c r="G61" t="n">
-        <v>51.73715972900391</v>
+        <v>70.43026733398438</v>
       </c>
       <c r="H61" t="n">
-        <v>-67.21124267578125</v>
+        <v>-59.00940704345703</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-285231834.5115795</v>
+        <v>-0.6145805549621582</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4539718043804169</v>
+        <v>0.4098233759403229</v>
       </c>
       <c r="C62" t="n">
-        <v>38.65599822998047</v>
+        <v>41.4432258605957</v>
       </c>
       <c r="D62" t="n">
-        <v>21.75050735473633</v>
+        <v>24.47387313842773</v>
       </c>
       <c r="E62" t="n">
-        <v>-31.39533042907715</v>
+        <v>-16.03753471374512</v>
       </c>
       <c r="F62" t="n">
-        <v>13.73641395568848</v>
+        <v>37.90541458129883</v>
       </c>
       <c r="G62" t="n">
-        <v>51.60865020751953</v>
+        <v>70.50782012939453</v>
       </c>
       <c r="H62" t="n">
-        <v>-67.23748016357422</v>
+        <v>-59.00706100463867</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-142615918.1124177</v>
+        <v>-0.6210009372234345</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4572376894950867</v>
+        <v>0.4361468547582626</v>
       </c>
       <c r="C63" t="n">
-        <v>38.65838241577148</v>
+        <v>41.50836563110352</v>
       </c>
       <c r="D63" t="n">
-        <v>21.7240161895752</v>
+        <v>24.34774017333984</v>
       </c>
       <c r="E63" t="n">
-        <v>-31.48635101318359</v>
+        <v>-16.08677101135254</v>
       </c>
       <c r="F63" t="n">
-        <v>13.59003353118896</v>
+        <v>37.726318359375</v>
       </c>
       <c r="G63" t="n">
-        <v>51.48383331298828</v>
+        <v>70.58356475830078</v>
       </c>
       <c r="H63" t="n">
-        <v>-67.26316070556641</v>
+        <v>-59.0115966796875</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-71307959.91556843</v>
+        <v>-0.6259433913230896</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4604391616582871</v>
+        <v>0.4586997276544571</v>
       </c>
       <c r="C64" t="n">
-        <v>38.6664924621582</v>
+        <v>41.55850982666016</v>
       </c>
       <c r="D64" t="n">
-        <v>21.70068359375</v>
+        <v>24.23957633972168</v>
       </c>
       <c r="E64" t="n">
-        <v>-31.5743579864502</v>
+        <v>-16.12558174133301</v>
       </c>
       <c r="F64" t="n">
-        <v>13.44654273986816</v>
+        <v>37.5728759765625</v>
       </c>
       <c r="G64" t="n">
-        <v>51.36246109008789</v>
+        <v>70.65795135498047</v>
       </c>
       <c r="H64" t="n">
-        <v>-67.28884124755859</v>
+        <v>-59.02190780639648</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-35653980.82093962</v>
+        <v>-0.6295589196681977</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4635834234952927</v>
+        <v>0.4776978838443756</v>
       </c>
       <c r="C65" t="n">
-        <v>38.68009185791016</v>
+        <v>41.59519195556641</v>
       </c>
       <c r="D65" t="n">
-        <v>21.68047714233398</v>
+        <v>24.14764785766602</v>
       </c>
       <c r="E65" t="n">
-        <v>-31.65965270996094</v>
+        <v>-16.15446853637695</v>
       </c>
       <c r="F65" t="n">
-        <v>13.30561447143555</v>
+        <v>37.44361877441406</v>
       </c>
       <c r="G65" t="n">
-        <v>51.24460601806641</v>
+        <v>70.73123931884766</v>
       </c>
       <c r="H65" t="n">
-        <v>-67.31417846679688</v>
+        <v>-59.03718185424805</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-17826991.27846842</v>
+        <v>-0.6319573307037354</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4666745185852051</v>
+        <v>0.4933414804935455</v>
       </c>
       <c r="C66" t="n">
-        <v>38.69898986816406</v>
+        <v>41.61952590942383</v>
       </c>
       <c r="D66" t="n">
-        <v>21.6633472442627</v>
+        <v>24.07053756713867</v>
       </c>
       <c r="E66" t="n">
-        <v>-31.74240684509277</v>
+        <v>-16.17400741577148</v>
       </c>
       <c r="F66" t="n">
-        <v>13.167067527771</v>
+        <v>37.33718490600586</v>
       </c>
       <c r="G66" t="n">
-        <v>51.13038635253906</v>
+        <v>70.80354309082031</v>
       </c>
       <c r="H66" t="n">
-        <v>-67.33895111083984</v>
+        <v>-59.05691909790039</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-8913496.513060626</v>
+        <v>-0.6332608795166016</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4697114676237106</v>
+        <v>0.5058743959665298</v>
       </c>
       <c r="C67" t="n">
-        <v>38.72310256958008</v>
+        <v>41.63275146484375</v>
       </c>
       <c r="D67" t="n">
-        <v>21.64938354492188</v>
+        <v>24.00679969787598</v>
       </c>
       <c r="E67" t="n">
-        <v>-31.82271957397461</v>
+        <v>-16.18489265441895</v>
       </c>
       <c r="F67" t="n">
-        <v>13.03095054626465</v>
+        <v>37.25191497802734</v>
       </c>
       <c r="G67" t="n">
-        <v>51.01979446411133</v>
+        <v>70.87492370605469</v>
       </c>
       <c r="H67" t="n">
-        <v>-67.36342620849609</v>
+        <v>-59.08052444458008</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-4456749.137142296</v>
+        <v>-0.6335805118083954</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4727021998167038</v>
+        <v>0.5155344116687774</v>
       </c>
       <c r="C68" t="n">
-        <v>38.75211715698242</v>
+        <v>41.63599395751953</v>
       </c>
       <c r="D68" t="n">
-        <v>21.63811111450195</v>
+        <v>23.95522117614746</v>
       </c>
       <c r="E68" t="n">
-        <v>-31.90066719055176</v>
+        <v>-16.18780136108398</v>
       </c>
       <c r="F68" t="n">
-        <v>12.89690399169922</v>
+        <v>37.18619155883789</v>
       </c>
       <c r="G68" t="n">
-        <v>50.91329193115234</v>
+        <v>70.94535064697266</v>
       </c>
       <c r="H68" t="n">
-        <v>-67.38668823242188</v>
+        <v>-59.10752868652344</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-2228375.456875156</v>
+        <v>-0.633018012046814</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4756431770324707</v>
+        <v>0.5225664800405503</v>
       </c>
       <c r="C69" t="n">
-        <v>38.7859001159668</v>
+        <v>41.63028717041016</v>
       </c>
       <c r="D69" t="n">
-        <v>21.62948226928711</v>
+        <v>23.91459846496582</v>
       </c>
       <c r="E69" t="n">
-        <v>-31.97621536254883</v>
+        <v>-16.18347930908203</v>
       </c>
       <c r="F69" t="n">
-        <v>12.76508712768555</v>
+        <v>37.13834762573242</v>
       </c>
       <c r="G69" t="n">
-        <v>50.81100463867188</v>
+        <v>71.01470947265625</v>
       </c>
       <c r="H69" t="n">
-        <v>-67.40883636474609</v>
+        <v>-59.13748931884766</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-1114188.625271832</v>
+        <v>-0.6316422474384308</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4785340201854706</v>
+        <v>0.5271836787462235</v>
       </c>
       <c r="C70" t="n">
-        <v>38.82419586181641</v>
+        <v>41.61632919311523</v>
       </c>
       <c r="D70" t="n">
-        <v>21.62321662902832</v>
+        <v>23.8841724395752</v>
       </c>
       <c r="E70" t="n">
-        <v>-32.04933547973633</v>
+        <v>-16.17268753051758</v>
       </c>
       <c r="F70" t="n">
-        <v>12.63551616668701</v>
+        <v>37.10693359375</v>
       </c>
       <c r="G70" t="n">
-        <v>50.7132682800293</v>
+        <v>71.08282470703125</v>
       </c>
       <c r="H70" t="n">
-        <v>-67.42952728271484</v>
+        <v>-59.17036437988281</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-557095.2187918839</v>
+        <v>-0.6295250546932221</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4813735604286194</v>
+        <v>0.5295912510156632</v>
       </c>
       <c r="C71" t="n">
-        <v>38.86666488647461</v>
+        <v>41.5948486328125</v>
       </c>
       <c r="D71" t="n">
-        <v>21.61892127990723</v>
+        <v>23.86313819885254</v>
       </c>
       <c r="E71" t="n">
-        <v>-32.11993026733398</v>
+        <v>-16.1561393737793</v>
       </c>
       <c r="F71" t="n">
-        <v>12.5082483291626</v>
+        <v>37.09055328369141</v>
       </c>
       <c r="G71" t="n">
-        <v>50.62052917480469</v>
+        <v>71.14939117431641</v>
       </c>
       <c r="H71" t="n">
-        <v>-67.44825744628906</v>
+        <v>-59.20601272583008</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-278548.5255808704</v>
+        <v>-0.6267341005802155</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4841533315181732</v>
+        <v>0.53</v>
       </c>
       <c r="C72" t="n">
-        <v>38.9130744934082</v>
+        <v>41.56653213500977</v>
       </c>
       <c r="D72" t="n">
-        <v>21.61655044555664</v>
+        <v>23.8507194519043</v>
       </c>
       <c r="E72" t="n">
-        <v>-32.18790435791016</v>
+        <v>-16.13459777832031</v>
       </c>
       <c r="F72" t="n">
-        <v>12.38365459442139</v>
+        <v>37.08777236938477</v>
       </c>
       <c r="G72" t="n">
-        <v>50.53296661376953</v>
+        <v>71.21421051025391</v>
       </c>
       <c r="H72" t="n">
-        <v>-67.46521759033203</v>
+        <v>-59.24434280395508</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-139275.1896349331</v>
+        <v>-0.623333261013031</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4868689423799515</v>
+        <v>0.5285904335975647</v>
       </c>
       <c r="C73" t="n">
-        <v>38.96300506591797</v>
+        <v>41.53202819824219</v>
       </c>
       <c r="D73" t="n">
-        <v>21.61576843261719</v>
+        <v>23.84624671936035</v>
       </c>
       <c r="E73" t="n">
-        <v>-32.25313186645508</v>
+        <v>-16.10869979858398</v>
       </c>
       <c r="F73" t="n">
-        <v>12.26194000244141</v>
+        <v>37.09736251831055</v>
       </c>
       <c r="G73" t="n">
-        <v>50.45096588134766</v>
+        <v>71.27700805664062</v>
       </c>
       <c r="H73" t="n">
-        <v>-67.47998046875</v>
+        <v>-59.28525161743164</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-69638.53288776141</v>
+        <v>-0.6193797147274017</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4895113265514374</v>
+        <v>0.5255498516559601</v>
       </c>
       <c r="C74" t="n">
-        <v>39.01607513427734</v>
+        <v>41.49191665649414</v>
       </c>
       <c r="D74" t="n">
-        <v>21.61644554138184</v>
+        <v>23.84902191162109</v>
       </c>
       <c r="E74" t="n">
-        <v>-32.31550598144531</v>
+        <v>-16.07912063598633</v>
       </c>
       <c r="F74" t="n">
-        <v>12.14350700378418</v>
+        <v>37.11804962158203</v>
       </c>
       <c r="G74" t="n">
-        <v>50.37478637695312</v>
+        <v>71.3375244140625</v>
       </c>
       <c r="H74" t="n">
-        <v>-67.49248504638672</v>
+        <v>-59.32868194580078</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-34820.21618129125</v>
+        <v>-0.6149301981925964</v>
       </c>
       <c r="B75" t="n">
-        <v>0.492068258523941</v>
+        <v>0.5210414189100265</v>
       </c>
       <c r="C75" t="n">
-        <v>39.07196426391602</v>
+        <v>41.44677352905273</v>
       </c>
       <c r="D75" t="n">
-        <v>21.61869049072266</v>
+        <v>23.85844802856445</v>
       </c>
       <c r="E75" t="n">
-        <v>-32.37491607666016</v>
+        <v>-16.04644966125488</v>
       </c>
       <c r="F75" t="n">
-        <v>12.02890300750732</v>
+        <v>37.14872360229492</v>
       </c>
       <c r="G75" t="n">
-        <v>50.30441284179688</v>
+        <v>71.39557647705078</v>
       </c>
       <c r="H75" t="n">
-        <v>-67.50322723388672</v>
+        <v>-59.3745231628418</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-17411.06985909398</v>
+        <v>-0.6100348138809204</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4945346206426621</v>
+        <v>0.515223782658577</v>
       </c>
       <c r="C76" t="n">
-        <v>39.13005065917969</v>
+        <v>41.3971061706543</v>
       </c>
       <c r="D76" t="n">
-        <v>21.62211608886719</v>
+        <v>23.87394714355469</v>
       </c>
       <c r="E76" t="n">
-        <v>-32.43130111694336</v>
+        <v>-16.01127433776855</v>
       </c>
       <c r="F76" t="n">
-        <v>11.91835975646973</v>
+        <v>37.18830490112305</v>
       </c>
       <c r="G76" t="n">
-        <v>50.24031448364258</v>
+        <v>71.45089721679688</v>
       </c>
       <c r="H76" t="n">
-        <v>-67.5115966796875</v>
+        <v>-59.42269134521484</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-8706.509007976927</v>
+        <v>-0.6047438538074493</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4968980610370636</v>
+        <v>0.5082472187280656</v>
       </c>
       <c r="C77" t="n">
-        <v>39.18994903564453</v>
+        <v>41.34342575073242</v>
       </c>
       <c r="D77" t="n">
-        <v>21.62689208984375</v>
+        <v>23.89496231079102</v>
       </c>
       <c r="E77" t="n">
-        <v>-32.48457717895508</v>
+        <v>-15.97411727905273</v>
       </c>
       <c r="F77" t="n">
-        <v>11.81242847442627</v>
+        <v>37.23577117919922</v>
       </c>
       <c r="G77" t="n">
-        <v>50.18238067626953</v>
+        <v>71.50337982177734</v>
       </c>
       <c r="H77" t="n">
-        <v>-67.51805114746094</v>
+        <v>-59.47305679321289</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-4354.241072465617</v>
+        <v>-0.5991152548789979</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4991478705406189</v>
+        <v>0.5002597284317016</v>
       </c>
       <c r="C78" t="n">
-        <v>39.25123596191406</v>
+        <v>41.28631973266602</v>
       </c>
       <c r="D78" t="n">
-        <v>21.63313293457031</v>
+        <v>23.92085075378418</v>
       </c>
       <c r="E78" t="n">
-        <v>-32.53470993041992</v>
+        <v>-15.93543720245361</v>
       </c>
       <c r="F78" t="n">
-        <v>11.71158885955811</v>
+        <v>37.29011535644531</v>
       </c>
       <c r="G78" t="n">
-        <v>50.1304817199707</v>
+        <v>71.55293273925781</v>
       </c>
       <c r="H78" t="n">
-        <v>-67.52298736572266</v>
+        <v>-59.52525329589844</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-2178.119669057945</v>
+        <v>-0.593191158771515</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5012760251760483</v>
+        <v>0.4913964557647705</v>
       </c>
       <c r="C79" t="n">
-        <v>39.31341934204102</v>
+        <v>41.22621536254883</v>
       </c>
       <c r="D79" t="n">
-        <v>21.64086532592773</v>
+        <v>23.95111083984375</v>
       </c>
       <c r="E79" t="n">
-        <v>-32.5816650390625</v>
+        <v>-15.89568901062012</v>
       </c>
       <c r="F79" t="n">
-        <v>11.6162052154541</v>
+        <v>37.35041809082031</v>
       </c>
       <c r="G79" t="n">
-        <v>50.08460235595703</v>
+        <v>71.5994873046875</v>
       </c>
       <c r="H79" t="n">
-        <v>-67.52658081054688</v>
+        <v>-59.57915115356445</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1090.071500301172</v>
+        <v>-0.5870132648944855</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5032769966125489</v>
+        <v>0.4817628180980683</v>
       </c>
       <c r="C80" t="n">
-        <v>39.37597274780273</v>
+        <v>41.16353607177734</v>
       </c>
       <c r="D80" t="n">
-        <v>21.65003776550293</v>
+        <v>23.98528099060059</v>
       </c>
       <c r="E80" t="n">
-        <v>-32.62546920776367</v>
+        <v>-15.85523891448975</v>
       </c>
       <c r="F80" t="n">
-        <v>11.52651977539062</v>
+        <v>37.41596221923828</v>
       </c>
       <c r="G80" t="n">
-        <v>50.04469299316406</v>
+        <v>71.64300537109375</v>
       </c>
       <c r="H80" t="n">
-        <v>-67.52873992919922</v>
+        <v>-59.63455200195312</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-546.0598477171907</v>
+        <v>-0.5806495559215546</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5051463621854783</v>
+        <v>0.4715242230892182</v>
       </c>
       <c r="C81" t="n">
-        <v>39.43836975097656</v>
+        <v>41.09897232055664</v>
       </c>
       <c r="D81" t="n">
-        <v>21.66054153442383</v>
+        <v>24.02258682250977</v>
       </c>
       <c r="E81" t="n">
-        <v>-32.66617965698242</v>
+        <v>-15.81442451477051</v>
       </c>
       <c r="F81" t="n">
-        <v>11.44273471832275</v>
+        <v>37.48562240600586</v>
       </c>
       <c r="G81" t="n">
-        <v>50.01073455810547</v>
+        <v>71.68367767333984</v>
       </c>
       <c r="H81" t="n">
-        <v>-67.52940368652344</v>
+        <v>-59.6907844543457</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-274.066273153973</v>
+        <v>-0.5741611278057098</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5068796992301942</v>
+        <v>0.4608202373981476</v>
       </c>
       <c r="C82" t="n">
-        <v>39.50026321411133</v>
+        <v>41.03314208984375</v>
       </c>
       <c r="D82" t="n">
-        <v>21.67258071899414</v>
+        <v>24.06235694885254</v>
       </c>
       <c r="E82" t="n">
-        <v>-32.70382308959961</v>
+        <v>-15.77354145050049</v>
       </c>
       <c r="F82" t="n">
-        <v>11.36504459381104</v>
+        <v>37.55844879150391</v>
       </c>
       <c r="G82" t="n">
-        <v>49.98233413696289</v>
+        <v>71.72159576416016</v>
       </c>
       <c r="H82" t="n">
-        <v>-67.52904510498047</v>
+        <v>-59.74721145629883</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-138.0814809602263</v>
+        <v>-0.5675090610980987</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5084756493568421</v>
+        <v>0.4496121942996979</v>
       </c>
       <c r="C83" t="n">
-        <v>39.56126022338867</v>
+        <v>40.96565246582031</v>
       </c>
       <c r="D83" t="n">
-        <v>21.68611907958984</v>
+        <v>24.10498237609863</v>
       </c>
       <c r="E83" t="n">
-        <v>-32.73849868774414</v>
+        <v>-15.73288345336914</v>
       </c>
       <c r="F83" t="n">
-        <v>11.29351234436035</v>
+        <v>37.63470458984375</v>
       </c>
       <c r="G83" t="n">
-        <v>49.95927810668945</v>
+        <v>71.75645446777344</v>
       </c>
       <c r="H83" t="n">
-        <v>-67.52770233154297</v>
+        <v>-59.80481719970703</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-70.10075273721228</v>
+        <v>-0.5607171750068665</v>
       </c>
       <c r="B84" t="n">
-        <v>0.509935507774353</v>
+        <v>0.4379606527090073</v>
       </c>
       <c r="C84" t="n">
-        <v>39.62097930908203</v>
+        <v>40.89674377441406</v>
       </c>
       <c r="D84" t="n">
-        <v>21.70108413696289</v>
+        <v>24.15016746520996</v>
       </c>
       <c r="E84" t="n">
-        <v>-32.77031326293945</v>
+        <v>-15.69266796112061</v>
       </c>
       <c r="F84" t="n">
-        <v>11.2280797958374</v>
+        <v>37.7139778137207</v>
       </c>
       <c r="G84" t="n">
-        <v>49.94132614135742</v>
+        <v>71.78821563720703</v>
       </c>
       <c r="H84" t="n">
-        <v>-67.52527618408203</v>
+        <v>-59.86362838745117</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-28.24382800462745</v>
+        <v>1.024709615483968</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5272609463969304</v>
+        <v>0.5482944020319546</v>
       </c>
       <c r="C85" t="n">
-        <v>39.67906951904297</v>
+        <v>40.82678604125977</v>
       </c>
       <c r="D85" t="n">
-        <v>21.71738243103027</v>
+        <v>24.19747352600098</v>
       </c>
       <c r="E85" t="n">
-        <v>-32.7994384765625</v>
+        <v>-15.65306663513184</v>
       </c>
       <c r="F85" t="n">
-        <v>11.16859531402588</v>
+        <v>37.795654296875</v>
       </c>
       <c r="G85" t="n">
-        <v>49.92819976806641</v>
+        <v>71.81707000732422</v>
       </c>
       <c r="H85" t="n">
-        <v>-67.52173614501953</v>
+        <v>-59.92328643798828</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-39.37528666741317</v>
+        <v>1.024709615483968</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5429039658099015</v>
+        <v>0.6474383803045838</v>
       </c>
       <c r="C86" t="n">
-        <v>39.73524856567383</v>
+        <v>40.75611877441406</v>
       </c>
       <c r="D86" t="n">
-        <v>21.73491287231445</v>
+        <v>24.24650382995605</v>
       </c>
       <c r="E86" t="n">
-        <v>-32.82602310180664</v>
+        <v>-15.61420059204102</v>
       </c>
       <c r="F86" t="n">
-        <v>11.11483192443848</v>
+        <v>37.87923431396484</v>
       </c>
       <c r="G86" t="n">
-        <v>49.91962432861328</v>
+        <v>71.84322357177734</v>
       </c>
       <c r="H86" t="n">
-        <v>-67.51690673828125</v>
+        <v>-59.98356628417969</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>86.98834364875333</v>
+        <v>1.004360914404689</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5570997813666416</v>
+        <v>0.7331368459190599</v>
       </c>
       <c r="C87" t="n">
-        <v>39.7892951965332</v>
+        <v>40.6850471496582</v>
       </c>
       <c r="D87" t="n">
-        <v>21.75357818603516</v>
+        <v>24.29689979553223</v>
       </c>
       <c r="E87" t="n">
-        <v>-32.85025787353516</v>
+        <v>-15.57614803314209</v>
       </c>
       <c r="F87" t="n">
-        <v>11.0665225982666</v>
+        <v>37.96428298950195</v>
       </c>
       <c r="G87" t="n">
-        <v>49.91523361206055</v>
+        <v>71.86680603027344</v>
       </c>
       <c r="H87" t="n">
-        <v>-67.51078796386719</v>
+        <v>-60.04412841796875</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-397.7138608658451</v>
+        <v>1.004360914404689</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5700494672913685</v>
+        <v>0.8043785917728988</v>
       </c>
       <c r="C88" t="n">
-        <v>39.84102249145508</v>
+        <v>40.61381530761719</v>
       </c>
       <c r="D88" t="n">
-        <v>21.77326583862305</v>
+        <v>24.34836959838867</v>
       </c>
       <c r="E88" t="n">
-        <v>-32.87231063842773</v>
+        <v>-15.53898239135742</v>
       </c>
       <c r="F88" t="n">
-        <v>11.0233325958252</v>
+        <v>38.0504150390625</v>
       </c>
       <c r="G88" t="n">
-        <v>49.9146728515625</v>
+        <v>71.88798522949219</v>
       </c>
       <c r="H88" t="n">
-        <v>-67.50328063964844</v>
+        <v>-60.10480499267578</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1654.864825101396</v>
+        <v>0.9828611422207668</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5819253591076861</v>
+        <v>0.8613121599032801</v>
       </c>
       <c r="C89" t="n">
-        <v>39.89030075073242</v>
+        <v>40.54270172119141</v>
       </c>
       <c r="D89" t="n">
-        <v>21.79386329650879</v>
+        <v>24.40058135986328</v>
       </c>
       <c r="E89" t="n">
-        <v>-32.89237594604492</v>
+        <v>-15.50275421142578</v>
       </c>
       <c r="F89" t="n">
-        <v>10.98492336273193</v>
+        <v>38.13724517822266</v>
       </c>
       <c r="G89" t="n">
-        <v>49.91757202148438</v>
+        <v>71.906982421875</v>
       </c>
       <c r="H89" t="n">
-        <v>-67.49431610107422</v>
+        <v>-60.16536331176758</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-7009.421411144463</v>
+        <v>0.9828611422207668</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5928747986827279</v>
+        <v>0.905029015743356</v>
       </c>
       <c r="C90" t="n">
-        <v>39.93704605102539</v>
+        <v>40.4719352722168</v>
       </c>
       <c r="D90" t="n">
-        <v>21.81525993347168</v>
+        <v>24.45326614379883</v>
       </c>
       <c r="E90" t="n">
-        <v>-32.91064834594727</v>
+        <v>-15.46750545501709</v>
       </c>
       <c r="F90" t="n">
-        <v>10.9509220123291</v>
+        <v>38.22443008422852</v>
       </c>
       <c r="G90" t="n">
-        <v>49.92358016967773</v>
+        <v>71.92394256591797</v>
       </c>
       <c r="H90" t="n">
-        <v>-67.48383331298828</v>
+        <v>-60.22554779052734</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>29887.06756621301</v>
+        <v>0.9637908294159463</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6030244148024426</v>
+        <v>0.9372629701651608</v>
       </c>
       <c r="C91" t="n">
-        <v>39.98119354248047</v>
+        <v>40.40172576904297</v>
       </c>
       <c r="D91" t="n">
-        <v>21.83732032775879</v>
+        <v>24.50617027282715</v>
       </c>
       <c r="E91" t="n">
-        <v>-32.92728042602539</v>
+        <v>-15.43325710296631</v>
       </c>
       <c r="F91" t="n">
-        <v>10.92098522186279</v>
+        <v>38.31166076660156</v>
       </c>
       <c r="G91" t="n">
-        <v>49.93236541748047</v>
+        <v>71.93901062011719</v>
       </c>
       <c r="H91" t="n">
-        <v>-67.47180938720703</v>
+        <v>-60.28518676757812</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-128306.0435770024</v>
+        <v>0.9637908294159463</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6124827630790164</v>
+        <v>0.9600696598945152</v>
       </c>
       <c r="C92" t="n">
-        <v>40.02273559570312</v>
+        <v>40.33226013183594</v>
       </c>
       <c r="D92" t="n">
-        <v>21.85992240905762</v>
+        <v>24.5590705871582</v>
       </c>
       <c r="E92" t="n">
-        <v>-32.94244766235352</v>
+        <v>-15.40002536773682</v>
       </c>
       <c r="F92" t="n">
-        <v>10.89476203918457</v>
+        <v>38.39863586425781</v>
       </c>
       <c r="G92" t="n">
-        <v>49.94359970092773</v>
+        <v>71.95238494873047</v>
       </c>
       <c r="H92" t="n">
-        <v>-67.45819854736328</v>
+        <v>-60.34408187866211</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>554347.2498520999</v>
+        <v>0.9501042725897478</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6213427528326976</v>
+        <v>0.9755429270013836</v>
       </c>
       <c r="C93" t="n">
-        <v>40.06167602539062</v>
+        <v>40.26372146606445</v>
       </c>
       <c r="D93" t="n">
-        <v>21.8829460144043</v>
+        <v>24.61176300048828</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.95631408691406</v>
+        <v>-15.36782169342041</v>
       </c>
       <c r="F93" t="n">
-        <v>10.87189674377441</v>
+        <v>38.48509979248047</v>
       </c>
       <c r="G93" t="n">
-        <v>49.95700836181641</v>
+        <v>71.96420288085938</v>
       </c>
       <c r="H93" t="n">
-        <v>-67.44295501708984</v>
+        <v>-60.40209579467773</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-2409152.878627077</v>
+        <v>0.9501042725897478</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6296841902574042</v>
+        <v>0.9856014631748578</v>
       </c>
       <c r="C94" t="n">
-        <v>40.09806060791016</v>
+        <v>40.19626235961914</v>
       </c>
       <c r="D94" t="n">
-        <v>21.9062671661377</v>
+        <v>24.66406059265137</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.9690055847168</v>
+        <v>-15.33664894104004</v>
       </c>
       <c r="F94" t="n">
-        <v>10.85207271575928</v>
+        <v>38.57080078125</v>
       </c>
       <c r="G94" t="n">
-        <v>49.97228622436523</v>
+        <v>71.97461700439453</v>
       </c>
       <c r="H94" t="n">
-        <v>-67.42617034912109</v>
+        <v>-60.45907974243164</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>10526959.57629161</v>
+        <v>0.9433370209818013</v>
       </c>
       <c r="B95" t="n">
-        <v>0.637575104260772</v>
+        <v>0.9918614680958627</v>
       </c>
       <c r="C95" t="n">
-        <v>40.13193130493164</v>
+        <v>40.13001251220703</v>
       </c>
       <c r="D95" t="n">
-        <v>21.92978096008301</v>
+        <v>24.71580123901367</v>
       </c>
       <c r="E95" t="n">
-        <v>-32.98065185546875</v>
+        <v>-15.30650615692139</v>
       </c>
       <c r="F95" t="n">
-        <v>10.8349609375</v>
+        <v>38.655517578125</v>
       </c>
       <c r="G95" t="n">
-        <v>49.98917007446289</v>
+        <v>71.98374176025391</v>
       </c>
       <c r="H95" t="n">
-        <v>-67.40778350830078</v>
+        <v>-60.51488876342773</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-46228455.17022316</v>
+        <v>0.9433370209818013</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6450738036501191</v>
+        <v>0.995588348622815</v>
       </c>
       <c r="C96" t="n">
-        <v>40.16337585449219</v>
+        <v>40.06509780883789</v>
       </c>
       <c r="D96" t="n">
-        <v>21.95337677001953</v>
+        <v>24.76684188842773</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.99138259887695</v>
+        <v>-15.27738571166992</v>
       </c>
       <c r="F96" t="n">
-        <v>10.82027435302734</v>
+        <v>38.73904418945312</v>
       </c>
       <c r="G96" t="n">
-        <v>50.00743865966797</v>
+        <v>71.99170684814453</v>
       </c>
       <c r="H96" t="n">
-        <v>-67.38786315917969</v>
+        <v>-60.56937408447266</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>203942374.2301936</v>
+        <v>0.05630161468394124</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6522296078663996</v>
+        <v>0.9977091057278308</v>
       </c>
       <c r="C97" t="n">
-        <v>40.19248199462891</v>
+        <v>40.00162506103516</v>
       </c>
       <c r="D97" t="n">
-        <v>21.97695922851562</v>
+        <v>24.81705665588379</v>
       </c>
       <c r="E97" t="n">
-        <v>-33.00130844116211</v>
+        <v>-15.24928665161133</v>
       </c>
       <c r="F97" t="n">
-        <v>10.80770969390869</v>
+        <v>38.82121276855469</v>
       </c>
       <c r="G97" t="n">
-        <v>50.02684783935547</v>
+        <v>71.99861907958984</v>
       </c>
       <c r="H97" t="n">
-        <v>-67.36642456054688</v>
+        <v>-60.62251663208008</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-903505822.8940774</v>
+        <v>1.830428067828682</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6590844909756177</v>
+        <v>0.9988616162023403</v>
       </c>
       <c r="C98" t="n">
-        <v>40.21935272216797</v>
+        <v>39.93967819213867</v>
       </c>
       <c r="D98" t="n">
-        <v>22.00044441223145</v>
+        <v>24.86635208129883</v>
       </c>
       <c r="E98" t="n">
-        <v>-33.01050567626953</v>
+        <v>-15.22219085693359</v>
       </c>
       <c r="F98" t="n">
-        <v>10.79700756072998</v>
+        <v>38.90186309814453</v>
       </c>
       <c r="G98" t="n">
-        <v>50.04716110229492</v>
+        <v>72.00460052490234</v>
       </c>
       <c r="H98" t="n">
-        <v>-67.34363555908203</v>
+        <v>-60.6741943359375</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4018140801.278236</v>
+        <v>0.278565919838868</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6656735244804897</v>
+        <v>0.9994592635714323</v>
       </c>
       <c r="C99" t="n">
-        <v>40.24409484863281</v>
+        <v>39.87933349609375</v>
       </c>
       <c r="D99" t="n">
-        <v>22.02376365661621</v>
+        <v>24.91463470458984</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.01906585693359</v>
+        <v>-15.19609451293945</v>
       </c>
       <c r="F99" t="n">
-        <v>10.78789806365967</v>
+        <v>38.98088073730469</v>
       </c>
       <c r="G99" t="n">
-        <v>50.06818771362305</v>
+        <v>72.00971221923828</v>
       </c>
       <c r="H99" t="n">
-        <v>-67.31948852539062</v>
+        <v>-60.72438430786133</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-17932701195.29084</v>
+        <v>1.618868512618755</v>
       </c>
       <c r="B100" t="n">
-        <v>0.672026088056254</v>
+        <v>0.9997547383433513</v>
       </c>
       <c r="C100" t="n">
-        <v>40.2668342590332</v>
+        <v>39.82062149047852</v>
       </c>
       <c r="D100" t="n">
-        <v>22.04685211181641</v>
+        <v>24.96184539794922</v>
       </c>
       <c r="E100" t="n">
-        <v>-33.02704238891602</v>
+        <v>-15.17097949981689</v>
       </c>
       <c r="F100" t="n">
-        <v>10.7801456451416</v>
+        <v>39.05817031860352</v>
       </c>
       <c r="G100" t="n">
-        <v>50.08975219726562</v>
+        <v>72.0140380859375</v>
       </c>
       <c r="H100" t="n">
-        <v>-67.29411315917969</v>
+        <v>-60.77303314208984</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>80289563448.7961</v>
+        <v>0.4756798769866889</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6781665412055182</v>
+        <v>0.9998938917200146</v>
       </c>
       <c r="C101" t="n">
-        <v>40.28768920898438</v>
+        <v>39.76358413696289</v>
       </c>
       <c r="D101" t="n">
-        <v>22.06965637207031</v>
+        <v>25.00792503356934</v>
       </c>
       <c r="E101" t="n">
-        <v>-33.03450775146484</v>
+        <v>-15.14683532714844</v>
       </c>
       <c r="F101" t="n">
-        <v>10.77352428436279</v>
+        <v>39.1336669921875</v>
       </c>
       <c r="G101" t="n">
-        <v>50.11166000366211</v>
+        <v>72.01764678955078</v>
       </c>
       <c r="H101" t="n">
-        <v>-67.26759338378906</v>
+        <v>-60.8202018737793</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-360529900950.952</v>
+        <v>1.438820800942521</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6841148696957391</v>
+        <v>0.999956260952367</v>
       </c>
       <c r="C102" t="n">
-        <v>40.30678558349609</v>
+        <v>39.70824813842773</v>
       </c>
       <c r="D102" t="n">
-        <v>22.09211540222168</v>
+        <v>25.05282592773438</v>
       </c>
       <c r="E102" t="n">
-        <v>-33.04149627685547</v>
+        <v>-15.1236457824707</v>
       </c>
       <c r="F102" t="n">
-        <v>10.76783084869385</v>
+        <v>39.20730590820312</v>
       </c>
       <c r="G102" t="n">
-        <v>50.13380813598633</v>
+        <v>72.02058410644531</v>
       </c>
       <c r="H102" t="n">
-        <v>-67.24002075195312</v>
+        <v>-60.8658447265625</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-180264950476.6688</v>
+        <v>0.6371133787325305</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6898876681179981</v>
+        <v>0.9999828405315495</v>
       </c>
       <c r="C103" t="n">
-        <v>40.32423782348633</v>
+        <v>39.65461349487305</v>
       </c>
       <c r="D103" t="n">
-        <v>22.11417007446289</v>
+        <v>25.09652900695801</v>
       </c>
       <c r="E103" t="n">
-        <v>-33.04806900024414</v>
+        <v>-15.10138607025146</v>
       </c>
       <c r="F103" t="n">
-        <v>10.76289749145508</v>
+        <v>39.279052734375</v>
       </c>
       <c r="G103" t="n">
-        <v>50.15606689453125</v>
+        <v>72.02291107177734</v>
       </c>
       <c r="H103" t="n">
-        <v>-67.21146392822266</v>
+        <v>-60.91003036499023</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-90132475239.53011</v>
+        <v>-0.4331696748733521</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5204107785224915</v>
+        <v>0.1976606661081314</v>
       </c>
       <c r="C104" t="n">
-        <v>40.34015655517578</v>
+        <v>39.60268402099609</v>
       </c>
       <c r="D104" t="n">
-        <v>22.13575553894043</v>
+        <v>25.13900566101074</v>
       </c>
       <c r="E104" t="n">
-        <v>-33.05425262451172</v>
+        <v>-15.08004379272461</v>
       </c>
       <c r="F104" t="n">
-        <v>10.75857067108154</v>
+        <v>39.34889984130859</v>
       </c>
       <c r="G104" t="n">
-        <v>50.17837905883789</v>
+        <v>72.02465057373047</v>
       </c>
       <c r="H104" t="n">
-        <v>-67.18196105957031</v>
+        <v>-60.95277404785156</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-45066237620.96341</v>
+        <v>-0.428217111825943</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5204966413974762</v>
+        <v>0.1876737996935844</v>
       </c>
       <c r="C105" t="n">
-        <v>40.35465621948242</v>
+        <v>39.55243682861328</v>
       </c>
       <c r="D105" t="n">
-        <v>22.15682220458984</v>
+        <v>25.18025398254395</v>
       </c>
       <c r="E105" t="n">
-        <v>-33.06010055541992</v>
+        <v>-15.05959701538086</v>
       </c>
       <c r="F105" t="n">
-        <v>10.75472164154053</v>
+        <v>39.41684722900391</v>
       </c>
       <c r="G105" t="n">
-        <v>50.20066070556641</v>
+        <v>72.02586364746094</v>
       </c>
       <c r="H105" t="n">
-        <v>-67.15159606933594</v>
+        <v>-60.99412536621094</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-22533118811.68247</v>
+        <v>-0.4234322625398636</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5205746066570283</v>
+        <v>0.177974548637867</v>
       </c>
       <c r="C106" t="n">
-        <v>40.36784362792969</v>
+        <v>39.50389099121094</v>
       </c>
       <c r="D106" t="n">
-        <v>22.17732048034668</v>
+        <v>25.22021865844727</v>
       </c>
       <c r="E106" t="n">
-        <v>-33.06562805175781</v>
+        <v>-15.0400276184082</v>
       </c>
       <c r="F106" t="n">
-        <v>10.75122833251953</v>
+        <v>39.48283767700195</v>
       </c>
       <c r="G106" t="n">
-        <v>50.22287368774414</v>
+        <v>72.02657318115234</v>
       </c>
       <c r="H106" t="n">
-        <v>-67.12040710449219</v>
+        <v>-61.03407287597656</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-11266559407.04418</v>
+        <v>-0.4188131999969483</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5206465381383896</v>
+        <v>0.1685629445314407</v>
       </c>
       <c r="C107" t="n">
-        <v>40.37982177734375</v>
+        <v>39.45702743530273</v>
       </c>
       <c r="D107" t="n">
-        <v>22.19722366333008</v>
+        <v>25.25889205932617</v>
       </c>
       <c r="E107" t="n">
-        <v>-33.07086944580078</v>
+        <v>-15.0213098526001</v>
       </c>
       <c r="F107" t="n">
-        <v>10.74800491333008</v>
+        <v>39.54687118530273</v>
       </c>
       <c r="G107" t="n">
-        <v>50.24493408203125</v>
+        <v>72.02682495117188</v>
       </c>
       <c r="H107" t="n">
-        <v>-67.08851623535156</v>
+        <v>-61.07267761230469</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-5633279704.727018</v>
+        <v>-0.4143584710359574</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5207149630784988</v>
+        <v>0.1594395244121552</v>
       </c>
       <c r="C108" t="n">
-        <v>40.39069366455078</v>
+        <v>39.41183090209961</v>
       </c>
       <c r="D108" t="n">
-        <v>22.21651077270508</v>
+        <v>25.29628944396973</v>
       </c>
       <c r="E108" t="n">
-        <v>-33.07583999633789</v>
+        <v>-15.00341510772705</v>
       </c>
       <c r="F108" t="n">
-        <v>10.74493885040283</v>
+        <v>39.60894393920898</v>
       </c>
       <c r="G108" t="n">
-        <v>50.26680755615234</v>
+        <v>72.02665710449219</v>
       </c>
       <c r="H108" t="n">
-        <v>-67.05597686767578</v>
+        <v>-61.10995483398438</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-2816639853.570231</v>
+        <v>-0.4100661486387253</v>
       </c>
       <c r="B109" t="n">
-        <v>0.520781524181366</v>
+        <v>0.1506026139855385</v>
       </c>
       <c r="C109" t="n">
-        <v>40.40055084228516</v>
+        <v>39.36828231811523</v>
       </c>
       <c r="D109" t="n">
-        <v>22.23516273498535</v>
+        <v>25.3324089050293</v>
       </c>
       <c r="E109" t="n">
-        <v>-33.08054733276367</v>
+        <v>-14.98632144927979</v>
       </c>
       <c r="F109" t="n">
-        <v>10.74195575714111</v>
+        <v>39.6690673828125</v>
       </c>
       <c r="G109" t="n">
-        <v>50.28843307495117</v>
+        <v>72.02607727050781</v>
       </c>
       <c r="H109" t="n">
-        <v>-67.02291107177734</v>
+        <v>-61.14590454101562</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-1408319927.993464</v>
+        <v>-0.4059325051307678</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5208476430177689</v>
+        <v>0.1420494017004967</v>
       </c>
       <c r="C110" t="n">
-        <v>40.40948486328125</v>
+        <v>39.32634353637695</v>
       </c>
       <c r="D110" t="n">
-        <v>22.25317192077637</v>
+        <v>25.36726951599121</v>
       </c>
       <c r="E110" t="n">
-        <v>-33.08499526977539</v>
+        <v>-14.97000312805176</v>
       </c>
       <c r="F110" t="n">
-        <v>10.73899078369141</v>
+        <v>39.72726058959961</v>
       </c>
       <c r="G110" t="n">
-        <v>50.30978012084961</v>
+        <v>72.02516174316406</v>
       </c>
       <c r="H110" t="n">
-        <v>-66.9893798828125</v>
+        <v>-61.18061065673828</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-704159965.206556</v>
+        <v>-0.4019537496566772</v>
       </c>
       <c r="B111" t="n">
-        <v>0.520914804339409</v>
+        <v>0.1337759703397751</v>
       </c>
       <c r="C111" t="n">
-        <v>40.41758346557617</v>
+        <v>39.28597640991211</v>
       </c>
       <c r="D111" t="n">
-        <v>22.27052688598633</v>
+        <v>25.40089797973633</v>
       </c>
       <c r="E111" t="n">
-        <v>-33.08920288085938</v>
+        <v>-14.95443153381348</v>
       </c>
       <c r="F111" t="n">
-        <v>10.73598194122314</v>
+        <v>39.78355026245117</v>
       </c>
       <c r="G111" t="n">
-        <v>50.330810546875</v>
+        <v>72.02389526367188</v>
       </c>
       <c r="H111" t="n">
-        <v>-66.95549011230469</v>
+        <v>-61.214111328125</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-352079983.8144395</v>
+        <v>-0.398128429055214</v>
       </c>
       <c r="B112" t="n">
-        <v>0.520983829498291</v>
+        <v>0.1257834492623806</v>
       </c>
       <c r="C112" t="n">
-        <v>40.4249267578125</v>
+        <v>39.24716567993164</v>
       </c>
       <c r="D112" t="n">
-        <v>22.28722381591797</v>
+        <v>25.43331336975098</v>
       </c>
       <c r="E112" t="n">
-        <v>-33.09317398071289</v>
+        <v>-14.9395866394043</v>
       </c>
       <c r="F112" t="n">
-        <v>10.73288822174072</v>
+        <v>39.83792877197266</v>
       </c>
       <c r="G112" t="n">
-        <v>50.35152435302734</v>
+        <v>72.02231597900391</v>
       </c>
       <c r="H112" t="n">
-        <v>-66.92128753662109</v>
+        <v>-61.24643707275391</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-176039993.1195965</v>
+        <v>-0.3944523417949677</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5210559189319611</v>
+        <v>0.1180617295205593</v>
       </c>
       <c r="C113" t="n">
-        <v>40.43158721923828</v>
+        <v>39.20986938476562</v>
       </c>
       <c r="D113" t="n">
-        <v>22.30326461791992</v>
+        <v>25.46452903747559</v>
       </c>
       <c r="E113" t="n">
-        <v>-33.096923828125</v>
+        <v>-14.92544460296631</v>
       </c>
       <c r="F113" t="n">
-        <v>10.72965717315674</v>
+        <v>39.89046478271484</v>
       </c>
       <c r="G113" t="n">
-        <v>50.37187576293945</v>
+        <v>72.02044677734375</v>
       </c>
       <c r="H113" t="n">
-        <v>-66.88684844970703</v>
+        <v>-61.27761840820312</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-88019997.7732791</v>
+        <v>-0.3909221708774567</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5211314833164216</v>
+        <v>0.1106091447174549</v>
       </c>
       <c r="C114" t="n">
-        <v>40.43763732910156</v>
+        <v>39.17405319213867</v>
       </c>
       <c r="D114" t="n">
-        <v>22.31865119934082</v>
+        <v>25.49458312988281</v>
       </c>
       <c r="E114" t="n">
-        <v>-33.10042190551758</v>
+        <v>-14.9119758605957</v>
       </c>
       <c r="F114" t="n">
-        <v>10.72626972198486</v>
+        <v>39.94116973876953</v>
       </c>
       <c r="G114" t="n">
-        <v>50.39185333251953</v>
+        <v>72.01832580566406</v>
       </c>
       <c r="H114" t="n">
-        <v>-66.85231018066406</v>
+        <v>-61.30767059326172</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-44010000.10112487</v>
+        <v>-0.3875348836183548</v>
       </c>
       <c r="B115" t="n">
-        <v>0.521211154460907</v>
+        <v>0.103419518917799</v>
       </c>
       <c r="C115" t="n">
-        <v>40.44313430786133</v>
+        <v>39.13968658447266</v>
       </c>
       <c r="D115" t="n">
-        <v>22.33338928222656</v>
+        <v>25.52349472045898</v>
       </c>
       <c r="E115" t="n">
-        <v>-33.10371398925781</v>
+        <v>-14.899169921875</v>
       </c>
       <c r="F115" t="n">
-        <v>10.72269725799561</v>
+        <v>39.99008560180664</v>
       </c>
       <c r="G115" t="n">
-        <v>50.41146087646484</v>
+        <v>72.01594543457031</v>
       </c>
       <c r="H115" t="n">
-        <v>-66.81763458251953</v>
+        <v>-61.33665466308594</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-22005001.26596489</v>
+        <v>-0.3842851728200913</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5212952482700348</v>
+        <v>0.09648780554533005</v>
       </c>
       <c r="C116" t="n">
-        <v>40.44813537597656</v>
+        <v>39.10671615600586</v>
       </c>
       <c r="D116" t="n">
-        <v>22.34748458862305</v>
+        <v>25.55130004882812</v>
       </c>
       <c r="E116" t="n">
-        <v>-33.10676574707031</v>
+        <v>-14.88699722290039</v>
       </c>
       <c r="F116" t="n">
-        <v>10.71892833709717</v>
+        <v>40.03724670410156</v>
       </c>
       <c r="G116" t="n">
-        <v>50.43069839477539</v>
+        <v>72.01335906982422</v>
       </c>
       <c r="H116" t="n">
-        <v>-66.782958984375</v>
+        <v>-61.36460113525391</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-11002501.84922318</v>
+        <v>-0.3811697214841843</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5213842070102692</v>
+        <v>0.08980727583169938</v>
       </c>
       <c r="C117" t="n">
-        <v>40.45270156860352</v>
+        <v>39.07510757446289</v>
       </c>
       <c r="D117" t="n">
-        <v>22.36095237731934</v>
+        <v>25.57802581787109</v>
       </c>
       <c r="E117" t="n">
-        <v>-33.10960388183594</v>
+        <v>-14.87543487548828</v>
       </c>
       <c r="F117" t="n">
-        <v>10.71494102478027</v>
+        <v>40.08269882202148</v>
       </c>
       <c r="G117" t="n">
-        <v>50.44955062866211</v>
+        <v>72.01055908203125</v>
       </c>
       <c r="H117" t="n">
-        <v>-66.74831390380859</v>
+        <v>-61.39153289794922</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-5501252.141620861</v>
+        <v>-0.3781836014986039</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5214779675006866</v>
+        <v>0.08337007954716683</v>
       </c>
       <c r="C118" t="n">
-        <v>40.45687484741211</v>
+        <v>39.0448112487793</v>
       </c>
       <c r="D118" t="n">
-        <v>22.37380409240723</v>
+        <v>25.60371589660645</v>
       </c>
       <c r="E118" t="n">
-        <v>-33.11220550537109</v>
+        <v>-14.86446189880371</v>
       </c>
       <c r="F118" t="n">
-        <v>10.71073913574219</v>
+        <v>40.12649536132812</v>
       </c>
       <c r="G118" t="n">
-        <v>50.4680290222168</v>
+        <v>72.00759124755859</v>
       </c>
       <c r="H118" t="n">
-        <v>-66.71379852294922</v>
+        <v>-61.41754531860352</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-2750627.288526822</v>
+        <v>-0.3753238117694855</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5215767824649811</v>
+        <v>0.07717229947447778</v>
       </c>
       <c r="C119" t="n">
-        <v>40.46070098876953</v>
+        <v>39.01579666137695</v>
       </c>
       <c r="D119" t="n">
-        <v>22.38605690002441</v>
+        <v>25.62838745117188</v>
       </c>
       <c r="E119" t="n">
-        <v>-33.11459732055664</v>
+        <v>-14.85406303405762</v>
       </c>
       <c r="F119" t="n">
-        <v>10.7063102722168</v>
+        <v>40.16866302490234</v>
       </c>
       <c r="G119" t="n">
-        <v>50.48611831665039</v>
+        <v>72.00444030761719</v>
       </c>
       <c r="H119" t="n">
-        <v>-66.67941284179688</v>
+        <v>-61.44260406494141</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1375314.86263423</v>
+        <v>-0.3725865930318832</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5216806834936142</v>
+        <v>0.07120607748627664</v>
       </c>
       <c r="C120" t="n">
-        <v>40.4642219543457</v>
+        <v>38.9880256652832</v>
       </c>
       <c r="D120" t="n">
-        <v>22.39772415161133</v>
+        <v>25.65207481384277</v>
       </c>
       <c r="E120" t="n">
-        <v>-33.11675262451172</v>
+        <v>-14.84420871734619</v>
       </c>
       <c r="F120" t="n">
-        <v>10.70165348052979</v>
+        <v>40.20925521850586</v>
       </c>
       <c r="G120" t="n">
-        <v>50.50383758544922</v>
+        <v>72.00114440917969</v>
       </c>
       <c r="H120" t="n">
-        <v>-66.64521026611328</v>
+        <v>-61.46677398681641</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-687658.6502924492</v>
+        <v>-0.3699674278497696</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5217894810438156</v>
+        <v>0.06546749636530877</v>
       </c>
       <c r="C121" t="n">
-        <v>40.46747970581055</v>
+        <v>38.96145248413086</v>
       </c>
       <c r="D121" t="n">
-        <v>22.40882682800293</v>
+        <v>25.67481422424316</v>
       </c>
       <c r="E121" t="n">
-        <v>-33.11869049072266</v>
+        <v>-14.83488273620605</v>
       </c>
       <c r="F121" t="n">
-        <v>10.69677639007568</v>
+        <v>40.24829864501953</v>
       </c>
       <c r="G121" t="n">
-        <v>50.52119064331055</v>
+        <v>71.99770355224609</v>
       </c>
       <c r="H121" t="n">
-        <v>-66.61129760742188</v>
+        <v>-61.49007797241211</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-343830.5446855117</v>
+        <v>-0.3674618303775787</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5219029223918915</v>
+        <v>0.05994758047163487</v>
       </c>
       <c r="C122" t="n">
-        <v>40.47048950195312</v>
+        <v>38.93603134155273</v>
       </c>
       <c r="D122" t="n">
-        <v>22.41937446594238</v>
+        <v>25.69663619995117</v>
       </c>
       <c r="E122" t="n">
-        <v>-33.12040710449219</v>
+        <v>-14.82606410980225</v>
       </c>
       <c r="F122" t="n">
-        <v>10.69169330596924</v>
+        <v>40.28585433959961</v>
       </c>
       <c r="G122" t="n">
-        <v>50.53816986083984</v>
+        <v>71.994140625</v>
       </c>
       <c r="H122" t="n">
-        <v>-66.57766723632812</v>
+        <v>-61.51255416870117</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-171916.4924068237</v>
+        <v>-0.3650667679309845</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5220211338996887</v>
+        <v>0.05464240469038487</v>
       </c>
       <c r="C123" t="n">
-        <v>40.47329711914062</v>
+        <v>38.9117317199707</v>
       </c>
       <c r="D123" t="n">
-        <v>22.42939567565918</v>
+        <v>25.71756744384766</v>
       </c>
       <c r="E123" t="n">
-        <v>-33.12190628051758</v>
+        <v>-14.81772994995117</v>
       </c>
       <c r="F123" t="n">
-        <v>10.68639469146729</v>
+        <v>40.32194900512695</v>
       </c>
       <c r="G123" t="n">
-        <v>50.55480194091797</v>
+        <v>71.99047088623047</v>
       </c>
       <c r="H123" t="n">
-        <v>-66.54433441162109</v>
+        <v>-61.53423309326172</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-85959.46676092269</v>
+        <v>-0.3627777230739594</v>
       </c>
       <c r="B124" t="n">
-        <v>0.522143452167511</v>
+        <v>0.04954356200993061</v>
       </c>
       <c r="C124" t="n">
-        <v>40.47591018676758</v>
+        <v>38.88850784301758</v>
       </c>
       <c r="D124" t="n">
-        <v>22.43890190124512</v>
+        <v>25.73764228820801</v>
       </c>
       <c r="E124" t="n">
-        <v>-33.12319564819336</v>
+        <v>-14.80986404418945</v>
       </c>
       <c r="F124" t="n">
-        <v>10.68091201782227</v>
+        <v>40.35663986206055</v>
       </c>
       <c r="G124" t="n">
-        <v>50.57109069824219</v>
+        <v>71.9866943359375</v>
       </c>
       <c r="H124" t="n">
-        <v>-66.51137542724609</v>
+        <v>-61.55513381958008</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-42980.95440235198</v>
+        <v>-0.3605913472175598</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5222701615095139</v>
+        <v>0.04464431971311569</v>
       </c>
       <c r="C125" t="n">
-        <v>40.47836685180664</v>
+        <v>38.86632537841797</v>
       </c>
       <c r="D125" t="n">
-        <v>22.44791793823242</v>
+        <v>25.75688362121582</v>
       </c>
       <c r="E125" t="n">
-        <v>-33.1242561340332</v>
+        <v>-14.8024435043335</v>
       </c>
       <c r="F125" t="n">
-        <v>10.67523097991943</v>
+        <v>40.38997268676758</v>
       </c>
       <c r="G125" t="n">
-        <v>50.58702850341797</v>
+        <v>71.98285675048828</v>
       </c>
       <c r="H125" t="n">
-        <v>-66.47882080078125</v>
+        <v>-61.57529830932617</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-21491.69866053135</v>
+        <v>-0.3585038495063782</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5224007248878479</v>
+        <v>0.03994131736457348</v>
       </c>
       <c r="C126" t="n">
-        <v>40.48067855834961</v>
+        <v>38.84514617919922</v>
       </c>
       <c r="D126" t="n">
-        <v>22.45646286010742</v>
+        <v>25.77532386779785</v>
       </c>
       <c r="E126" t="n">
-        <v>-33.1251106262207</v>
+        <v>-14.79545307159424</v>
       </c>
       <c r="F126" t="n">
-        <v>10.66938018798828</v>
+        <v>40.42197036743164</v>
       </c>
       <c r="G126" t="n">
-        <v>50.6026496887207</v>
+        <v>71.97891998291016</v>
       </c>
       <c r="H126" t="n">
-        <v>-66.44669342041016</v>
+        <v>-61.5947380065918</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-10747.07120724693</v>
+        <v>-0.3565107125043869</v>
       </c>
       <c r="B127" t="n">
-        <v>0.5225348579883575</v>
+        <v>0.03542558327317238</v>
       </c>
       <c r="C127" t="n">
-        <v>40.48285675048828</v>
+        <v>38.82492446899414</v>
       </c>
       <c r="D127" t="n">
-        <v>22.46455383300781</v>
+        <v>25.79299736022949</v>
       </c>
       <c r="E127" t="n">
-        <v>-33.12575531005859</v>
+        <v>-14.78886795043945</v>
       </c>
       <c r="F127" t="n">
-        <v>10.66336727142334</v>
+        <v>40.45269393920898</v>
       </c>
       <c r="G127" t="n">
-        <v>50.61795425415039</v>
+        <v>71.97493743896484</v>
       </c>
       <c r="H127" t="n">
-        <v>-66.41495513916016</v>
+        <v>-61.61349868774414</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-5374.757876749115</v>
+        <v>-0.3546096932888031</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5226724028587342</v>
+        <v>0.0310926315933466</v>
       </c>
       <c r="C128" t="n">
-        <v>40.48493576049805</v>
+        <v>38.80563735961914</v>
       </c>
       <c r="D128" t="n">
-        <v>22.47220993041992</v>
+        <v>25.8099250793457</v>
       </c>
       <c r="E128" t="n">
-        <v>-33.12619781494141</v>
+        <v>-14.78267097473145</v>
       </c>
       <c r="F128" t="n">
-        <v>10.65720367431641</v>
+        <v>40.48217391967773</v>
       </c>
       <c r="G128" t="n">
-        <v>50.63294219970703</v>
+        <v>71.97089385986328</v>
       </c>
       <c r="H128" t="n">
-        <v>-66.38371276855469</v>
+        <v>-61.63156890869141</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-2688.601589195766</v>
+        <v>-0.352796306014061</v>
       </c>
       <c r="B129" t="n">
-        <v>0.5228128224611283</v>
+        <v>0.02693629428744316</v>
       </c>
       <c r="C129" t="n">
-        <v>40.48690795898438</v>
+        <v>38.78723907470703</v>
       </c>
       <c r="D129" t="n">
-        <v>22.47945022583008</v>
+        <v>25.82613754272461</v>
       </c>
       <c r="E129" t="n">
-        <v>-33.12644577026367</v>
+        <v>-14.77684497833252</v>
       </c>
       <c r="F129" t="n">
-        <v>10.65090942382812</v>
+        <v>40.51045227050781</v>
       </c>
       <c r="G129" t="n">
-        <v>50.64764022827148</v>
+        <v>71.96683502197266</v>
       </c>
       <c r="H129" t="n">
-        <v>-66.35293579101562</v>
+        <v>-61.64901351928711</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-1345.52380858304</v>
+        <v>-0.3510674864053727</v>
       </c>
       <c r="B130" t="n">
-        <v>0.522955990433693</v>
+        <v>0.02294984456151724</v>
       </c>
       <c r="C130" t="n">
-        <v>40.48878860473633</v>
+        <v>38.76969909667969</v>
       </c>
       <c r="D130" t="n">
-        <v>22.48629188537598</v>
+        <v>25.84165191650391</v>
       </c>
       <c r="E130" t="n">
-        <v>-33.12650680541992</v>
+        <v>-14.77137470245361</v>
       </c>
       <c r="F130" t="n">
-        <v>10.64449310302734</v>
+        <v>40.53757476806641</v>
       </c>
       <c r="G130" t="n">
-        <v>50.66203689575195</v>
+        <v>71.96271514892578</v>
       </c>
       <c r="H130" t="n">
-        <v>-66.32262420654297</v>
+        <v>-61.66585159301758</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-673.9852669090127</v>
+        <v>-0.3494198858737946</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5231014961004258</v>
+        <v>0.01912879459559918</v>
       </c>
       <c r="C131" t="n">
-        <v>40.49059677124023</v>
+        <v>38.75298309326172</v>
       </c>
       <c r="D131" t="n">
-        <v>22.49275016784668</v>
+        <v>25.85650825500488</v>
       </c>
       <c r="E131" t="n">
-        <v>-33.12637710571289</v>
+        <v>-14.76623821258545</v>
       </c>
       <c r="F131" t="n">
-        <v>10.63797187805176</v>
+        <v>40.56357192993164</v>
       </c>
       <c r="G131" t="n">
-        <v>50.67616271972656</v>
+        <v>71.95859527587891</v>
       </c>
       <c r="H131" t="n">
-        <v>-66.29287719726562</v>
+        <v>-61.68207168579102</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-338.2163324472355</v>
+        <v>-0.3478501242399216</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5232491499185562</v>
+        <v>0.01546473639085889</v>
       </c>
       <c r="C132" t="n">
-        <v>40.49233245849609</v>
+        <v>38.73705673217773</v>
       </c>
       <c r="D132" t="n">
-        <v>22.49885177612305</v>
+        <v>25.87071990966797</v>
       </c>
       <c r="E132" t="n">
-        <v>-33.12606811523438</v>
+        <v>-14.7614221572876</v>
       </c>
       <c r="F132" t="n">
-        <v>10.6313533782959</v>
+        <v>40.5885009765625</v>
       </c>
       <c r="G132" t="n">
-        <v>50.69001388549805</v>
+        <v>71.95446014404297</v>
       </c>
       <c r="H132" t="n">
-        <v>-66.26358032226562</v>
+        <v>-61.69773101806641</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-170.3321885763132</v>
+        <v>-0.3463552004098893</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5233986043930055</v>
+        <v>0.01195654848590493</v>
       </c>
       <c r="C133" t="n">
-        <v>40.4940071105957</v>
+        <v>38.72188949584961</v>
       </c>
       <c r="D133" t="n">
-        <v>22.50460052490234</v>
+        <v>25.88431549072266</v>
       </c>
       <c r="E133" t="n">
-        <v>-33.12558364868164</v>
+        <v>-14.7569055557251</v>
       </c>
       <c r="F133" t="n">
-        <v>10.62465476989746</v>
+        <v>40.61236953735352</v>
       </c>
       <c r="G133" t="n">
-        <v>50.70361328125</v>
+        <v>71.95030975341797</v>
       </c>
       <c r="H133" t="n">
-        <v>-66.23481750488281</v>
+        <v>-61.71282577514648</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-86.39043077640353</v>
+        <v>-0.3449320501089096</v>
       </c>
       <c r="B134" t="n">
-        <v>0.523549543619156</v>
+        <v>0.008596940394490958</v>
       </c>
       <c r="C134" t="n">
-        <v>40.4956169128418</v>
+        <v>38.70745086669922</v>
       </c>
       <c r="D134" t="n">
-        <v>22.5100212097168</v>
+        <v>25.8973217010498</v>
       </c>
       <c r="E134" t="n">
-        <v>-33.12493896484375</v>
+        <v>-14.75267791748047</v>
       </c>
       <c r="F134" t="n">
-        <v>10.61788845062256</v>
+        <v>40.63522720336914</v>
       </c>
       <c r="G134" t="n">
-        <v>50.71695709228516</v>
+        <v>71.9461669921875</v>
       </c>
       <c r="H134" t="n">
-        <v>-66.20655822753906</v>
+        <v>-61.72736740112305</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-44.41985451307207</v>
+        <v>-0.3435784935951233</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5237016516923905</v>
+        <v>0.005377503130584956</v>
       </c>
       <c r="C135" t="n">
-        <v>40.4971809387207</v>
+        <v>38.69371795654297</v>
       </c>
       <c r="D135" t="n">
-        <v>22.5151252746582</v>
+        <v>25.90974807739258</v>
       </c>
       <c r="E135" t="n">
-        <v>-33.12412643432617</v>
+        <v>-14.74872016906738</v>
       </c>
       <c r="F135" t="n">
-        <v>10.61107158660889</v>
+        <v>40.65713119506836</v>
       </c>
       <c r="G135" t="n">
-        <v>50.73004913330078</v>
+        <v>71.94206237792969</v>
       </c>
       <c r="H135" t="n">
-        <v>-66.1788330078125</v>
+        <v>-61.74138641357422</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-13.73797729067362</v>
+        <v>0.7607503477564335</v>
       </c>
       <c r="B136" t="n">
-        <v>0.52922424081206</v>
+        <v>0.9956870233649314</v>
       </c>
       <c r="C136" t="n">
-        <v>40.49868774414062</v>
+        <v>38.68064880371094</v>
       </c>
       <c r="D136" t="n">
-        <v>22.51992797851562</v>
+        <v>25.9216365814209</v>
       </c>
       <c r="E136" t="n">
-        <v>-33.12316513061523</v>
+        <v>-14.74501800537109</v>
       </c>
       <c r="F136" t="n">
-        <v>10.60421085357666</v>
+        <v>40.67808151245117</v>
       </c>
       <c r="G136" t="n">
-        <v>50.74291610717773</v>
+        <v>71.93794250488281</v>
       </c>
       <c r="H136" t="n">
-        <v>-66.15162658691406</v>
+        <v>-61.75492858886719</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-43.22700336402705</v>
+        <v>0.7607503477564335</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5345461880792135</v>
+        <v>1.000005265308515</v>
       </c>
       <c r="C137" t="n">
-        <v>40.50014877319336</v>
+        <v>38.6682243347168</v>
       </c>
       <c r="D137" t="n">
-        <v>22.52444267272949</v>
+        <v>25.93299102783203</v>
       </c>
       <c r="E137" t="n">
-        <v>-33.12207412719727</v>
+        <v>-14.7415599822998</v>
       </c>
       <c r="F137" t="n">
-        <v>10.59731769561768</v>
+        <v>40.6981201171875</v>
       </c>
       <c r="G137" t="n">
-        <v>50.75554275512695</v>
+        <v>71.93387603759766</v>
       </c>
       <c r="H137" t="n">
-        <v>-66.12492370605469</v>
+        <v>-61.7679443359375</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>149.3366328687925</v>
+        <v>0.4460313638329113</v>
       </c>
       <c r="B138" t="n">
-        <v>0.5396726095356861</v>
+        <v>0.9999999655655039</v>
       </c>
       <c r="C138" t="n">
-        <v>40.50156784057617</v>
+        <v>38.65640640258789</v>
       </c>
       <c r="D138" t="n">
-        <v>22.52868461608887</v>
+        <v>25.9438419342041</v>
       </c>
       <c r="E138" t="n">
-        <v>-33.12083435058594</v>
+        <v>-14.73832702636719</v>
       </c>
       <c r="F138" t="n">
-        <v>10.590407371521</v>
+        <v>40.71730041503906</v>
       </c>
       <c r="G138" t="n">
-        <v>50.7679557800293</v>
+        <v>71.92981719970703</v>
       </c>
       <c r="H138" t="n">
-        <v>-66.09871673583984</v>
+        <v>-61.78052520751953</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-713.2519579855917</v>
+        <v>1.354116357184333</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5446084385318727</v>
+        <v>1.000000000400416</v>
       </c>
       <c r="C139" t="n">
-        <v>40.50294494628906</v>
+        <v>38.64518356323242</v>
       </c>
       <c r="D139" t="n">
-        <v>22.53266143798828</v>
+        <v>25.95421409606934</v>
       </c>
       <c r="E139" t="n">
-        <v>-33.11948013305664</v>
+        <v>-14.73531150817871</v>
       </c>
       <c r="F139" t="n">
-        <v>10.58348655700684</v>
+        <v>40.73564910888672</v>
       </c>
       <c r="G139" t="n">
-        <v>50.7801399230957</v>
+        <v>71.92580413818359</v>
       </c>
       <c r="H139" t="n">
-        <v>-66.07304382324219</v>
+        <v>-61.79265213012695</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3291.504044056883</v>
+        <v>0.7743384418243278</v>
       </c>
       <c r="B140" t="n">
-        <v>0.549358650638774</v>
+        <v>0.9999999999933978</v>
       </c>
       <c r="C140" t="n">
-        <v>40.50428009033203</v>
+        <v>38.634521484375</v>
       </c>
       <c r="D140" t="n">
-        <v>22.53638458251953</v>
+        <v>25.96412086486816</v>
       </c>
       <c r="E140" t="n">
-        <v>-33.11800003051758</v>
+        <v>-14.732497215271</v>
       </c>
       <c r="F140" t="n">
-        <v>10.57656574249268</v>
+        <v>40.753173828125</v>
       </c>
       <c r="G140" t="n">
-        <v>50.79213333129883</v>
+        <v>71.92183685302734</v>
       </c>
       <c r="H140" t="n">
-        <v>-66.04786682128906</v>
+        <v>-61.80431365966797</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-15233.02652870105</v>
+        <v>1.143378213249643</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5539285471185926</v>
+        <v>1.00000000000014</v>
       </c>
       <c r="C141" t="n">
-        <v>40.50558090209961</v>
+        <v>38.6243896484375</v>
       </c>
       <c r="D141" t="n">
-        <v>22.53985977172852</v>
+        <v>25.97358322143555</v>
       </c>
       <c r="E141" t="n">
-        <v>-33.11640548706055</v>
+        <v>-14.72987461090088</v>
       </c>
       <c r="F141" t="n">
-        <v>10.56967258453369</v>
+        <v>40.76994705200195</v>
       </c>
       <c r="G141" t="n">
-        <v>50.80389785766602</v>
+        <v>71.91791534423828</v>
       </c>
       <c r="H141" t="n">
-        <v>-66.02324676513672</v>
+        <v>-61.81557846069336</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>70507.91567571096</v>
+        <v>0.909158443839833</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5583230908085706</v>
+        <v>0.9999999999999964</v>
       </c>
       <c r="C142" t="n">
-        <v>40.5068473815918</v>
+        <v>38.61477279663086</v>
       </c>
       <c r="D142" t="n">
-        <v>22.54310607910156</v>
+        <v>25.98261833190918</v>
       </c>
       <c r="E142" t="n">
-        <v>-33.11468887329102</v>
+        <v>-14.72743225097656</v>
       </c>
       <c r="F142" t="n">
-        <v>10.56280040740967</v>
+        <v>40.78596496582031</v>
       </c>
       <c r="G142" t="n">
-        <v>50.81547927856445</v>
+        <v>71.91403198242188</v>
       </c>
       <c r="H142" t="n">
-        <v>-65.99906921386719</v>
+        <v>-61.82644271850586</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-326405.3669551216</v>
+        <v>1.057401105115886</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5625475948395882</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>40.50807189941406</v>
+        <v>38.60564041137695</v>
       </c>
       <c r="D143" t="n">
-        <v>22.5461311340332</v>
+        <v>25.99124908447266</v>
       </c>
       <c r="E143" t="n">
-        <v>-33.11286544799805</v>
+        <v>-14.72515487670898</v>
       </c>
       <c r="F143" t="n">
-        <v>10.55598449707031</v>
+        <v>40.80128479003906</v>
       </c>
       <c r="G143" t="n">
-        <v>50.82686233520508</v>
+        <v>71.91020965576172</v>
       </c>
       <c r="H143" t="n">
-        <v>-65.97549438476562</v>
+        <v>-61.83691787719727</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1511352.960775994</v>
+        <v>0.9638217777483964</v>
       </c>
       <c r="B144" t="n">
-        <v>0.5666073531818592</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>40.50928115844727</v>
+        <v>38.59697723388672</v>
       </c>
       <c r="D144" t="n">
-        <v>22.54895401000977</v>
+        <v>25.99948883056641</v>
       </c>
       <c r="E144" t="n">
-        <v>-33.11093139648438</v>
+        <v>-14.72303867340088</v>
       </c>
       <c r="F144" t="n">
-        <v>10.54923343658447</v>
+        <v>40.81591415405273</v>
       </c>
       <c r="G144" t="n">
-        <v>50.83805465698242</v>
+        <v>71.90644073486328</v>
       </c>
       <c r="H144" t="n">
-        <v>-65.95241546630859</v>
+        <v>-61.84698486328125</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-6999276.172384166</v>
+        <v>1.022746756553813</v>
       </c>
       <c r="B145" t="n">
-        <v>0.5705076065644186</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>40.51044845581055</v>
+        <v>38.5887565612793</v>
       </c>
       <c r="D145" t="n">
-        <v>22.55158424377441</v>
+        <v>26.00736045837402</v>
       </c>
       <c r="E145" t="n">
-        <v>-33.1088981628418</v>
+        <v>-14.72107124328613</v>
       </c>
       <c r="F145" t="n">
-        <v>10.54255485534668</v>
+        <v>40.82988739013672</v>
       </c>
       <c r="G145" t="n">
-        <v>50.84906005859375</v>
+        <v>71.90273284912109</v>
       </c>
       <c r="H145" t="n">
-        <v>-65.92984771728516</v>
+        <v>-61.85671997070312</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>32420439.37364847</v>
+        <v>0.9857311820575246</v>
       </c>
       <c r="B146" t="n">
-        <v>0.5742534763945824</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>40.51158142089844</v>
+        <v>38.58095169067383</v>
       </c>
       <c r="D146" t="n">
-        <v>22.55403327941895</v>
+        <v>26.01487350463867</v>
       </c>
       <c r="E146" t="n">
-        <v>-33.10676193237305</v>
+        <v>-14.71924114227295</v>
       </c>
       <c r="F146" t="n">
-        <v>10.5359582901001</v>
+        <v>40.8432502746582</v>
       </c>
       <c r="G146" t="n">
-        <v>50.85988235473633</v>
+        <v>71.89908599853516</v>
       </c>
       <c r="H146" t="n">
-        <v>-65.90781402587891</v>
+        <v>-61.86608505249023</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-150196852.8784467</v>
+        <v>1.008931052217671</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5778505179620012</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>40.5126838684082</v>
+        <v>38.57355117797852</v>
       </c>
       <c r="D147" t="n">
-        <v>22.55631637573242</v>
+        <v>26.02205657958984</v>
       </c>
       <c r="E147" t="n">
-        <v>-33.10451889038086</v>
+        <v>-14.71754264831543</v>
       </c>
       <c r="F147" t="n">
-        <v>10.52947521209717</v>
+        <v>40.85600662231445</v>
       </c>
       <c r="G147" t="n">
-        <v>50.87053680419922</v>
+        <v>71.8955078125</v>
       </c>
       <c r="H147" t="n">
-        <v>-65.88630676269531</v>
+        <v>-61.87512969970703</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>695947587.7918746</v>
+        <v>0.9944216131128728</v>
       </c>
       <c r="B148" t="n">
-        <v>0.5813037546466651</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>40.51375961303711</v>
+        <v>38.5665168762207</v>
       </c>
       <c r="D148" t="n">
-        <v>22.55844497680664</v>
+        <v>26.02891159057617</v>
       </c>
       <c r="E148" t="n">
-        <v>-33.10220336914062</v>
+        <v>-14.71596431732178</v>
       </c>
       <c r="F148" t="n">
-        <v>10.52309417724609</v>
+        <v>40.86818695068359</v>
       </c>
       <c r="G148" t="n">
-        <v>50.88101196289062</v>
+        <v>71.89199829101562</v>
       </c>
       <c r="H148" t="n">
-        <v>-65.86528778076172</v>
+        <v>-61.88384628295898</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-3225248864.974996</v>
+        <v>1.003477383096273</v>
       </c>
       <c r="B149" t="n">
-        <v>0.5846182067670862</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>40.51480102539062</v>
+        <v>38.55985641479492</v>
       </c>
       <c r="D149" t="n">
-        <v>22.56042671203613</v>
+        <v>26.03545379638672</v>
       </c>
       <c r="E149" t="n">
-        <v>-33.09981536865234</v>
+        <v>-14.71450424194336</v>
       </c>
       <c r="F149" t="n">
-        <v>10.51682376861572</v>
+        <v>40.87982177734375</v>
       </c>
       <c r="G149" t="n">
-        <v>50.89132690429688</v>
+        <v>71.88853454589844</v>
       </c>
       <c r="H149" t="n">
-        <v>-65.84481811523438</v>
+        <v>-61.89225769042969</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>14949219253.54137</v>
+        <v>0.997836396379971</v>
       </c>
       <c r="B150" t="n">
-        <v>0.5877985606548096</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>40.51580429077148</v>
+        <v>38.55354309082031</v>
       </c>
       <c r="D150" t="n">
-        <v>22.5622730255127</v>
+        <v>26.04170036315918</v>
       </c>
       <c r="E150" t="n">
-        <v>-33.09734344482422</v>
+        <v>-14.71314811706543</v>
       </c>
       <c r="F150" t="n">
-        <v>10.51065444946289</v>
+        <v>40.89093780517578</v>
       </c>
       <c r="G150" t="n">
-        <v>50.90147018432617</v>
+        <v>71.88515472412109</v>
       </c>
       <c r="H150" t="n">
-        <v>-65.82481384277344</v>
+        <v>-61.9003791809082</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-69301115024.03865</v>
+        <v>1.001343764756675</v>
       </c>
       <c r="B151" t="n">
-        <v>0.5908498462793266</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>40.51677322387695</v>
+        <v>38.54754257202148</v>
       </c>
       <c r="D151" t="n">
-        <v>22.56399536132812</v>
+        <v>26.04767417907715</v>
       </c>
       <c r="E151" t="n">
-        <v>-33.09481048583984</v>
+        <v>-14.71189022064209</v>
       </c>
       <c r="F151" t="n">
-        <v>10.50461959838867</v>
+        <v>40.90155410766602</v>
       </c>
       <c r="G151" t="n">
-        <v>50.91145324707031</v>
+        <v>71.8818359375</v>
       </c>
       <c r="H151" t="n">
-        <v>-65.80528259277344</v>
+        <v>-61.9081916809082</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>321311214686.8617</v>
+        <v>0.9991668397783794</v>
       </c>
       <c r="B152" t="n">
-        <v>0.5937768360957425</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>40.5177116394043</v>
+        <v>38.54185485839844</v>
       </c>
       <c r="D152" t="n">
-        <v>22.56559944152832</v>
+        <v>26.05337524414062</v>
       </c>
       <c r="E152" t="n">
-        <v>-33.09222030639648</v>
+        <v>-14.71072959899902</v>
       </c>
       <c r="F152" t="n">
-        <v>10.49871349334717</v>
+        <v>40.91168975830078</v>
       </c>
       <c r="G152" t="n">
-        <v>50.92127227783203</v>
+        <v>71.87860107421875</v>
       </c>
       <c r="H152" t="n">
-        <v>-65.78623962402344</v>
+        <v>-61.91575241088867</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-1489954662247.959</v>
+        <v>1.000515740337462</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5965837971783656</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>40.51861572265625</v>
+        <v>38.53646469116211</v>
       </c>
       <c r="D153" t="n">
-        <v>22.56709098815918</v>
+        <v>26.05882453918457</v>
       </c>
       <c r="E153" t="n">
-        <v>-33.08958435058594</v>
+        <v>-14.7096529006958</v>
       </c>
       <c r="F153" t="n">
-        <v>10.49292087554932</v>
+        <v>40.92136383056641</v>
       </c>
       <c r="G153" t="n">
-        <v>50.93093109130859</v>
+        <v>71.87541961669922</v>
       </c>
       <c r="H153" t="n">
-        <v>-65.76766204833984</v>
+        <v>-61.92301177978516</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-744977331125.2087</v>
+        <v>0.9996812386042161</v>
       </c>
       <c r="B154" t="n">
-        <v>0.5992752897653177</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>40.51948547363281</v>
+        <v>38.53134918212891</v>
       </c>
       <c r="D154" t="n">
-        <v>22.56848335266113</v>
+        <v>26.06402969360352</v>
       </c>
       <c r="E154" t="n">
-        <v>-33.08690643310547</v>
+        <v>-14.70865917205811</v>
       </c>
       <c r="F154" t="n">
-        <v>10.48726367950439</v>
+        <v>40.93062210083008</v>
       </c>
       <c r="G154" t="n">
-        <v>50.94042205810547</v>
+        <v>71.87232971191406</v>
       </c>
       <c r="H154" t="n">
-        <v>-65.74953460693359</v>
+        <v>-61.93003082275391</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-372488665563.8335</v>
+        <v>-0.3270957911014557</v>
       </c>
       <c r="B155" t="n">
-        <v>0.5265873456001282</v>
+        <v>-0.03611746571958065</v>
       </c>
       <c r="C155" t="n">
-        <v>40.52032470703125</v>
+        <v>38.5264892578125</v>
       </c>
       <c r="D155" t="n">
-        <v>22.56977653503418</v>
+        <v>26.06900215148926</v>
       </c>
       <c r="E155" t="n">
-        <v>-33.08419036865234</v>
+        <v>-14.70773601531982</v>
       </c>
       <c r="F155" t="n">
-        <v>10.48173332214355</v>
+        <v>40.93944931030273</v>
       </c>
       <c r="G155" t="n">
-        <v>50.94975662231445</v>
+        <v>71.86930084228516</v>
       </c>
       <c r="H155" t="n">
-        <v>-65.73186492919922</v>
+        <v>-61.93681335449219</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-186244332783.1461</v>
+        <v>-0.3266419625282288</v>
       </c>
       <c r="B156" t="n">
-        <v>0.5267080211639404</v>
+        <v>-0.03735713467001915</v>
       </c>
       <c r="C156" t="n">
-        <v>40.52112197875977</v>
+        <v>38.52188491821289</v>
       </c>
       <c r="D156" t="n">
-        <v>22.57098007202148</v>
+        <v>26.0737476348877</v>
       </c>
       <c r="E156" t="n">
-        <v>-33.08145141601562</v>
+        <v>-14.70688819885254</v>
       </c>
       <c r="F156" t="n">
-        <v>10.4763240814209</v>
+        <v>40.94788360595703</v>
       </c>
       <c r="G156" t="n">
-        <v>50.95893096923828</v>
+        <v>71.86634063720703</v>
       </c>
       <c r="H156" t="n">
-        <v>-65.71463775634766</v>
+        <v>-61.943359375</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-93122166392.80247</v>
+        <v>-0.3262122058868409</v>
       </c>
       <c r="B157" t="n">
-        <v>0.526825253367424</v>
+        <v>-0.03854129523038864</v>
       </c>
       <c r="C157" t="n">
-        <v>40.52188873291016</v>
+        <v>38.51752471923828</v>
       </c>
       <c r="D157" t="n">
-        <v>22.57210922241211</v>
+        <v>26.07829093933105</v>
       </c>
       <c r="E157" t="n">
-        <v>-33.07867813110352</v>
+        <v>-14.70610237121582</v>
       </c>
       <c r="F157" t="n">
-        <v>10.4710693359375</v>
+        <v>40.95594024658203</v>
       </c>
       <c r="G157" t="n">
-        <v>50.96796035766602</v>
+        <v>71.86346435546875</v>
       </c>
       <c r="H157" t="n">
-        <v>-65.69783020019531</v>
+        <v>-61.94965362548828</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-46561083197.63082</v>
+        <v>-0.3258035200834274</v>
       </c>
       <c r="B158" t="n">
-        <v>0.5269403690099717</v>
+        <v>-0.03967219032347202</v>
       </c>
       <c r="C158" t="n">
-        <v>40.52261352539062</v>
+        <v>38.51337814331055</v>
       </c>
       <c r="D158" t="n">
-        <v>22.57314872741699</v>
+        <v>26.08263206481934</v>
       </c>
       <c r="E158" t="n">
-        <v>-33.07591247558594</v>
+        <v>-14.70537757873535</v>
       </c>
       <c r="F158" t="n">
-        <v>10.46590995788574</v>
+        <v>40.9636344909668</v>
       </c>
       <c r="G158" t="n">
-        <v>50.97682189941406</v>
+        <v>71.86064147949219</v>
       </c>
       <c r="H158" t="n">
-        <v>-65.68143463134766</v>
+        <v>-61.95573806762695</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-23280541600.04513</v>
+        <v>-0.3254151153564454</v>
       </c>
       <c r="B159" t="n">
-        <v>0.5270519465208053</v>
+        <v>-0.04075430974364281</v>
       </c>
       <c r="C159" t="n">
-        <v>40.52331924438477</v>
+        <v>38.50943756103516</v>
       </c>
       <c r="D159" t="n">
-        <v>22.57412528991699</v>
+        <v>26.08677864074707</v>
       </c>
       <c r="E159" t="n">
-        <v>-33.0731086730957</v>
+        <v>-14.7047061920166</v>
       </c>
       <c r="F159" t="n">
-        <v>10.46090888977051</v>
+        <v>40.97099685668945</v>
       </c>
       <c r="G159" t="n">
-        <v>50.98552322387695</v>
+        <v>71.85792541503906</v>
       </c>
       <c r="H159" t="n">
-        <v>-65.66542816162109</v>
+        <v>-61.96161651611328</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-11640270801.25241</v>
+        <v>-0.3250470232963562</v>
       </c>
       <c r="B160" t="n">
-        <v>0.5271612811088562</v>
+        <v>-0.04178652413189411</v>
       </c>
       <c r="C160" t="n">
-        <v>40.52397537231445</v>
+        <v>38.50570297241211</v>
       </c>
       <c r="D160" t="n">
-        <v>22.57502174377441</v>
+        <v>26.09074974060059</v>
       </c>
       <c r="E160" t="n">
-        <v>-33.07031631469727</v>
+        <v>-14.70408725738525</v>
       </c>
       <c r="F160" t="n">
-        <v>10.45600891113281</v>
+        <v>40.97801971435547</v>
       </c>
       <c r="G160" t="n">
-        <v>50.99407196044922</v>
+        <v>71.85525512695312</v>
       </c>
       <c r="H160" t="n">
-        <v>-65.64984893798828</v>
+        <v>-61.96728134155273</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-5820135401.856171</v>
+        <v>-0.324697727560997</v>
       </c>
       <c r="B161" t="n">
-        <v>0.5272673302888871</v>
+        <v>-0.04277388401329518</v>
       </c>
       <c r="C161" t="n">
-        <v>40.52460861206055</v>
+        <v>38.50215911865234</v>
       </c>
       <c r="D161" t="n">
-        <v>22.57586669921875</v>
+        <v>26.09454345703125</v>
       </c>
       <c r="E161" t="n">
-        <v>-33.06752014160156</v>
+        <v>-14.70351696014404</v>
       </c>
       <c r="F161" t="n">
-        <v>10.45125579833984</v>
+        <v>40.98473739624023</v>
       </c>
       <c r="G161" t="n">
-        <v>51.00246429443359</v>
+        <v>71.85264587402344</v>
       </c>
       <c r="H161" t="n">
-        <v>-65.63465881347656</v>
+        <v>-61.9727668762207</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-2910067702.158165</v>
+        <v>-0.3243653327226639</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5273710733652115</v>
+        <v>-0.04371807552874089</v>
       </c>
       <c r="C162" t="n">
-        <v>40.52520751953125</v>
+        <v>38.49878692626953</v>
       </c>
       <c r="D162" t="n">
-        <v>22.57664108276367</v>
+        <v>26.09816741943359</v>
       </c>
       <c r="E162" t="n">
-        <v>-33.06472778320312</v>
+        <v>-14.70298767089844</v>
       </c>
       <c r="F162" t="n">
-        <v>10.44660663604736</v>
+        <v>40.99116134643555</v>
       </c>
       <c r="G162" t="n">
-        <v>51.01069641113281</v>
+        <v>71.85012054443359</v>
       </c>
       <c r="H162" t="n">
-        <v>-65.61983489990234</v>
+        <v>-61.97804260253906</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-1455033852.309269</v>
+        <v>-0.3240499019622803</v>
       </c>
       <c r="B163" t="n">
-        <v>0.5274716258049011</v>
+        <v>-0.04462077297270298</v>
       </c>
       <c r="C163" t="n">
-        <v>40.52577209472656</v>
+        <v>38.49558639526367</v>
       </c>
       <c r="D163" t="n">
-        <v>22.57736587524414</v>
+        <v>26.10164070129395</v>
       </c>
       <c r="E163" t="n">
-        <v>-33.06195068359375</v>
+        <v>-14.70249652862549</v>
       </c>
       <c r="F163" t="n">
-        <v>10.44209861755371</v>
+        <v>40.9973030090332</v>
       </c>
       <c r="G163" t="n">
-        <v>51.01877593994141</v>
+        <v>71.84766387939453</v>
       </c>
       <c r="H163" t="n">
-        <v>-65.60540008544922</v>
+        <v>-61.98316955566406</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-727516927.3849212</v>
+        <v>-0.3237498557567597</v>
       </c>
       <c r="B164" t="n">
-        <v>0.52757015645504</v>
+        <v>-0.04548310175538063</v>
       </c>
       <c r="C164" t="n">
-        <v>40.52630615234375</v>
+        <v>38.4925422668457</v>
       </c>
       <c r="D164" t="n">
-        <v>22.57803535461426</v>
+        <v>26.10495758056641</v>
       </c>
       <c r="E164" t="n">
-        <v>-33.05918502807617</v>
+        <v>-14.70204830169678</v>
       </c>
       <c r="F164" t="n">
-        <v>10.43768405914307</v>
+        <v>41.00317001342773</v>
       </c>
       <c r="G164" t="n">
-        <v>51.02670669555664</v>
+        <v>71.84526824951172</v>
       </c>
       <c r="H164" t="n">
-        <v>-65.59129333496094</v>
+        <v>-61.98809051513672</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-363758464.9228432</v>
+        <v>-0.323464846611023</v>
       </c>
       <c r="B165" t="n">
-        <v>0.5276656860113145</v>
+        <v>-0.04630674406886101</v>
       </c>
       <c r="C165" t="n">
-        <v>40.52680587768555</v>
+        <v>38.48965072631836</v>
       </c>
       <c r="D165" t="n">
-        <v>22.57865333557129</v>
+        <v>26.10813140869141</v>
       </c>
       <c r="E165" t="n">
-        <v>-33.05643081665039</v>
+        <v>-14.70163059234619</v>
       </c>
       <c r="F165" t="n">
-        <v>10.43340110778809</v>
+        <v>41.00877380371094</v>
       </c>
       <c r="G165" t="n">
-        <v>51.03446578979492</v>
+        <v>71.84294891357422</v>
       </c>
       <c r="H165" t="n">
-        <v>-65.57756805419922</v>
+        <v>-61.99283981323242</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-181879233.6918932</v>
+        <v>-0.3231944954395294</v>
       </c>
       <c r="B166" t="n">
-        <v>0.527758846282959</v>
+        <v>-0.04709730722010136</v>
       </c>
       <c r="C166" t="n">
-        <v>40.52728271484375</v>
+        <v>38.48690795898438</v>
       </c>
       <c r="D166" t="n">
-        <v>22.5792293548584</v>
+        <v>26.11117553710938</v>
       </c>
       <c r="E166" t="n">
-        <v>-33.05370712280273</v>
+        <v>-14.70124435424805</v>
       </c>
       <c r="F166" t="n">
-        <v>10.42922592163086</v>
+        <v>41.01415252685547</v>
       </c>
       <c r="G166" t="n">
-        <v>51.04209136962891</v>
+        <v>71.84069061279297</v>
       </c>
       <c r="H166" t="n">
-        <v>-65.56417846679688</v>
+        <v>-61.99742889404297</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-90939618.0765025</v>
+        <v>-0.3229358327388764</v>
       </c>
       <c r="B167" t="n">
-        <v>0.527849732041359</v>
+        <v>-0.04785198360681534</v>
       </c>
       <c r="C167" t="n">
-        <v>40.52772521972656</v>
+        <v>38.48428344726562</v>
       </c>
       <c r="D167" t="n">
-        <v>22.57975196838379</v>
+        <v>26.11408996582031</v>
       </c>
       <c r="E167" t="n">
-        <v>-33.05100631713867</v>
+        <v>-14.70088672637939</v>
       </c>
       <c r="F167" t="n">
-        <v>10.42515277862549</v>
+        <v>41.019287109375</v>
       </c>
       <c r="G167" t="n">
-        <v>51.04955673217773</v>
+        <v>71.83848571777344</v>
       </c>
       <c r="H167" t="n">
-        <v>-65.55111694335938</v>
+        <v>-62.00186157226562</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-45469810.26888523</v>
+        <v>-0.3226910698413849</v>
       </c>
       <c r="B168" t="n">
-        <v>0.5279376482963563</v>
+        <v>-0.04857470229268075</v>
       </c>
       <c r="C168" t="n">
-        <v>40.52814483642578</v>
+        <v>38.4818000793457</v>
       </c>
       <c r="D168" t="n">
-        <v>22.58024215698242</v>
+        <v>26.11687660217285</v>
       </c>
       <c r="E168" t="n">
-        <v>-33.04833221435547</v>
+        <v>-14.7005558013916</v>
       </c>
       <c r="F168" t="n">
-        <v>10.42121028900146</v>
+        <v>41.02420425415039</v>
       </c>
       <c r="G168" t="n">
-        <v>51.0568733215332</v>
+        <v>71.83636474609375</v>
       </c>
       <c r="H168" t="n">
-        <v>-65.53836822509766</v>
+        <v>-62.00614929199219</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-22734906.36514938</v>
+        <v>-0.3224575531482697</v>
       </c>
       <c r="B169" t="n">
-        <v>0.5280238270759583</v>
+        <v>-0.04926602400839329</v>
       </c>
       <c r="C169" t="n">
-        <v>40.52853393554688</v>
+        <v>38.47943115234375</v>
       </c>
       <c r="D169" t="n">
-        <v>22.58068466186523</v>
+        <v>26.11954879760742</v>
       </c>
       <c r="E169" t="n">
-        <v>-33.04568481445312</v>
+        <v>-14.70024681091309</v>
       </c>
       <c r="F169" t="n">
-        <v>10.41734886169434</v>
+        <v>41.02890777587891</v>
       </c>
       <c r="G169" t="n">
-        <v>51.06403732299805</v>
+        <v>71.83429718017578</v>
       </c>
       <c r="H169" t="n">
-        <v>-65.52595520019531</v>
+        <v>-62.01028442382812</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-11367454.41335045</v>
+        <v>-0.3222353458404541</v>
       </c>
       <c r="B170" t="n">
-        <v>0.5281074470281601</v>
+        <v>-0.04992707021534443</v>
       </c>
       <c r="C170" t="n">
-        <v>40.52889633178711</v>
+        <v>38.47717666625977</v>
       </c>
       <c r="D170" t="n">
-        <v>22.58109283447266</v>
+        <v>26.12211227416992</v>
       </c>
       <c r="E170" t="n">
-        <v>-33.04307556152344</v>
+        <v>-14.69996356964111</v>
       </c>
       <c r="F170" t="n">
-        <v>10.41359996795654</v>
+        <v>41.03340530395508</v>
       </c>
       <c r="G170" t="n">
-        <v>51.071044921875</v>
+        <v>71.83229064941406</v>
       </c>
       <c r="H170" t="n">
-        <v>-65.51383972167969</v>
+        <v>-62.0142936706543</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-5683728.437514548</v>
+        <v>-0.3220232790708542</v>
       </c>
       <c r="B171" t="n">
-        <v>0.5281888556480407</v>
+        <v>-0.05056176207959652</v>
       </c>
       <c r="C171" t="n">
-        <v>40.52923965454102</v>
+        <v>38.47502517700195</v>
       </c>
       <c r="D171" t="n">
-        <v>22.58147048950195</v>
+        <v>26.12456703186035</v>
       </c>
       <c r="E171" t="n">
-        <v>-33.04050064086914</v>
+        <v>-14.69969654083252</v>
       </c>
       <c r="F171" t="n">
-        <v>10.40995216369629</v>
+        <v>41.03772354125977</v>
       </c>
       <c r="G171" t="n">
-        <v>51.07790374755859</v>
+        <v>71.83034515380859</v>
       </c>
       <c r="H171" t="n">
-        <v>-65.50205230712891</v>
+        <v>-62.01816177368164</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-2841865.449654848</v>
+        <v>-0.3218213844299316</v>
       </c>
       <c r="B172" t="n">
-        <v>0.5282681477069855</v>
+        <v>-0.05116897813975811</v>
       </c>
       <c r="C172" t="n">
-        <v>40.52955627441406</v>
+        <v>38.47297668457031</v>
       </c>
       <c r="D172" t="n">
-        <v>22.58180809020996</v>
+        <v>26.12692260742188</v>
       </c>
       <c r="E172" t="n">
-        <v>-33.0379524230957</v>
+        <v>-14.69944858551025</v>
       </c>
       <c r="F172" t="n">
-        <v>10.40639781951904</v>
+        <v>41.04185485839844</v>
       </c>
       <c r="G172" t="n">
-        <v>51.08461761474609</v>
+        <v>71.82846832275391</v>
       </c>
       <c r="H172" t="n">
-        <v>-65.49052429199219</v>
+        <v>-62.02188110351562</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-1420933.955780219</v>
+        <v>-0.3216288721561432</v>
       </c>
       <c r="B173" t="n">
-        <v>0.5283455127477646</v>
+        <v>-0.05174928702414036</v>
       </c>
       <c r="C173" t="n">
-        <v>40.52984619140625</v>
+        <v>38.47102355957031</v>
       </c>
       <c r="D173" t="n">
-        <v>22.58211135864258</v>
+        <v>26.12918090820312</v>
       </c>
       <c r="E173" t="n">
-        <v>-33.03544998168945</v>
+        <v>-14.69921875</v>
       </c>
       <c r="F173" t="n">
-        <v>10.40293216705322</v>
+        <v>41.04580307006836</v>
       </c>
       <c r="G173" t="n">
-        <v>51.09118270874023</v>
+        <v>71.82664489746094</v>
       </c>
       <c r="H173" t="n">
-        <v>-65.47930145263672</v>
+        <v>-62.02549743652344</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-710468.2088942069</v>
+        <v>-0.3214446365833283</v>
       </c>
       <c r="B174" t="n">
-        <v>0.5284204453229905</v>
+        <v>-0.05230772741138935</v>
       </c>
       <c r="C174" t="n">
-        <v>40.53012084960938</v>
+        <v>38.46915435791016</v>
       </c>
       <c r="D174" t="n">
-        <v>22.58239555358887</v>
+        <v>26.13134765625</v>
       </c>
       <c r="E174" t="n">
-        <v>-33.03298568725586</v>
+        <v>-14.69900417327881</v>
       </c>
       <c r="F174" t="n">
-        <v>10.39957237243652</v>
+        <v>41.04960250854492</v>
       </c>
       <c r="G174" t="n">
-        <v>51.09761047363281</v>
+        <v>71.82487487792969</v>
       </c>
       <c r="H174" t="n">
-        <v>-65.4683837890625</v>
+        <v>-62.02897262573242</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-355235.3354979548</v>
+        <v>-0.3212698149681091</v>
       </c>
       <c r="B175" t="n">
-        <v>0.5284936404228211</v>
+        <v>-0.05284261710941792</v>
       </c>
       <c r="C175" t="n">
-        <v>40.53037643432617</v>
+        <v>38.46738052368164</v>
       </c>
       <c r="D175" t="n">
-        <v>22.58264541625977</v>
+        <v>26.13343048095703</v>
       </c>
       <c r="E175" t="n">
-        <v>-33.03055953979492</v>
+        <v>-14.69880294799805</v>
       </c>
       <c r="F175" t="n">
-        <v>10.39629173278809</v>
+        <v>41.05324172973633</v>
       </c>
       <c r="G175" t="n">
-        <v>51.1038818359375</v>
+        <v>71.82317352294922</v>
       </c>
       <c r="H175" t="n">
-        <v>-65.45771789550781</v>
+        <v>-62.03234100341797</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-177618.8988435499</v>
+        <v>-0.3211017537117005</v>
       </c>
       <c r="B176" t="n">
-        <v>0.5285650032758713</v>
+        <v>-0.05335676372051239</v>
       </c>
       <c r="C176" t="n">
-        <v>40.53060913085938</v>
+        <v>38.46567535400391</v>
       </c>
       <c r="D176" t="n">
-        <v>22.58286476135254</v>
+        <v>26.13542366027832</v>
       </c>
       <c r="E176" t="n">
-        <v>-33.02818298339844</v>
+        <v>-14.6986141204834</v>
       </c>
       <c r="F176" t="n">
-        <v>10.39309310913086</v>
+        <v>41.05673980712891</v>
       </c>
       <c r="G176" t="n">
-        <v>51.11002349853516</v>
+        <v>71.82151031494141</v>
       </c>
       <c r="H176" t="n">
-        <v>-65.44731140136719</v>
+        <v>-62.03560256958008</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-88810.68055615151</v>
+        <v>-0.3209415584802628</v>
       </c>
       <c r="B177" t="n">
-        <v>0.5286345022916794</v>
+        <v>-0.05384679891169072</v>
       </c>
       <c r="C177" t="n">
-        <v>40.53082656860352</v>
+        <v>38.46405029296875</v>
       </c>
       <c r="D177" t="n">
-        <v>22.58306121826172</v>
+        <v>26.1373462677002</v>
       </c>
       <c r="E177" t="n">
-        <v>-33.02583694458008</v>
+        <v>-14.69843673706055</v>
       </c>
       <c r="F177" t="n">
-        <v>10.38997840881348</v>
+        <v>41.06007385253906</v>
       </c>
       <c r="G177" t="n">
-        <v>51.11601638793945</v>
+        <v>71.81991577148438</v>
       </c>
       <c r="H177" t="n">
-        <v>-65.43717956542969</v>
+        <v>-62.03873443603516</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-44406.57144998175</v>
+        <v>-0.320788534283638</v>
       </c>
       <c r="B178" t="n">
-        <v>0.5287018531560899</v>
+        <v>-0.0543194554001093</v>
       </c>
       <c r="C178" t="n">
-        <v>40.53102493286133</v>
+        <v>38.46249771118164</v>
       </c>
       <c r="D178" t="n">
-        <v>22.58323669433594</v>
+        <v>26.13919067382812</v>
       </c>
       <c r="E178" t="n">
-        <v>-33.0235481262207</v>
+        <v>-14.69826889038086</v>
       </c>
       <c r="F178" t="n">
-        <v>10.38696002960205</v>
+        <v>41.06328964233398</v>
       </c>
       <c r="G178" t="n">
-        <v>51.12186813354492</v>
+        <v>71.81836700439453</v>
       </c>
       <c r="H178" t="n">
-        <v>-65.42732238769531</v>
+        <v>-62.04178619384766</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-22204.51692987731</v>
+        <v>-0.3206422704458237</v>
       </c>
       <c r="B179" t="n">
-        <v>0.5287676560878753</v>
+        <v>-0.05477136485278607</v>
       </c>
       <c r="C179" t="n">
-        <v>40.53121185302734</v>
+        <v>38.46101379394531</v>
       </c>
       <c r="D179" t="n">
-        <v>22.58338737487793</v>
+        <v>26.14096260070801</v>
       </c>
       <c r="E179" t="n">
-        <v>-33.02129745483398</v>
+        <v>-14.69811344146729</v>
       </c>
       <c r="F179" t="n">
-        <v>10.38401031494141</v>
+        <v>41.06636428833008</v>
       </c>
       <c r="G179" t="n">
-        <v>51.12758636474609</v>
+        <v>71.81687164306641</v>
       </c>
       <c r="H179" t="n">
-        <v>-65.41769409179688</v>
+        <v>-62.04472351074219</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-11103.48970040466</v>
+        <v>-0.3205016613006592</v>
       </c>
       <c r="B180" t="n">
-        <v>0.5288320058584214</v>
+        <v>-0.05520757384598256</v>
       </c>
       <c r="C180" t="n">
-        <v>40.53137588500977</v>
+        <v>38.45958709716797</v>
       </c>
       <c r="D180" t="n">
-        <v>22.58350944519043</v>
+        <v>26.14266395568848</v>
       </c>
       <c r="E180" t="n">
-        <v>-33.01910018920898</v>
+        <v>-14.69796371459961</v>
       </c>
       <c r="F180" t="n">
-        <v>10.38112735748291</v>
+        <v>41.06933212280273</v>
       </c>
       <c r="G180" t="n">
-        <v>51.13317489624023</v>
+        <v>71.81541442871094</v>
       </c>
       <c r="H180" t="n">
-        <v>-65.40829467773438</v>
+        <v>-62.04756927490234</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-5552.97611561609</v>
+        <v>-0.3203674334287643</v>
       </c>
       <c r="B181" t="n">
-        <v>0.5288944602012634</v>
+        <v>-0.05562472194433213</v>
       </c>
       <c r="C181" t="n">
-        <v>40.53152847290039</v>
+        <v>38.45822525024414</v>
       </c>
       <c r="D181" t="n">
-        <v>22.58361434936523</v>
+        <v>26.1443042755127</v>
       </c>
       <c r="E181" t="n">
-        <v>-33.01693344116211</v>
+        <v>-14.6978235244751</v>
       </c>
       <c r="F181" t="n">
-        <v>10.37832641601562</v>
+        <v>41.07217025756836</v>
       </c>
       <c r="G181" t="n">
-        <v>51.13862228393555</v>
+        <v>71.81402587890625</v>
       </c>
       <c r="H181" t="n">
-        <v>-65.39913940429688</v>
+        <v>-62.05030059814453</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-2777.719349252347</v>
+        <v>-0.3202388286590576</v>
       </c>
       <c r="B182" t="n">
-        <v>0.5289551454782486</v>
+        <v>-0.05602504812180996</v>
       </c>
       <c r="C182" t="n">
-        <v>40.53167724609375</v>
+        <v>38.4569206237793</v>
       </c>
       <c r="D182" t="n">
-        <v>22.58370399475098</v>
+        <v>26.14588165283203</v>
       </c>
       <c r="E182" t="n">
-        <v>-33.01481246948242</v>
+        <v>-14.69768905639648</v>
       </c>
       <c r="F182" t="n">
-        <v>10.37560558319092</v>
+        <v>41.07489395141602</v>
       </c>
       <c r="G182" t="n">
-        <v>51.14393997192383</v>
+        <v>71.81266784667969</v>
       </c>
       <c r="H182" t="n">
-        <v>-65.3902587890625</v>
+        <v>-62.05294799804688</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-1390.090989826502</v>
+        <v>-0.32011549949646</v>
       </c>
       <c r="B183" t="n">
-        <v>0.5290144723653794</v>
+        <v>-0.05641079925000668</v>
       </c>
       <c r="C183" t="n">
-        <v>40.53180694580078</v>
+        <v>38.45566940307617</v>
       </c>
       <c r="D183" t="n">
-        <v>22.58377265930176</v>
+        <v>26.14739990234375</v>
       </c>
       <c r="E183" t="n">
-        <v>-33.01274108886719</v>
+        <v>-14.69756126403809</v>
       </c>
       <c r="F183" t="n">
-        <v>10.37294769287109</v>
+        <v>41.07751846313477</v>
       </c>
       <c r="G183" t="n">
-        <v>51.14912414550781</v>
+        <v>71.81135559082031</v>
       </c>
       <c r="H183" t="n">
-        <v>-65.38157653808594</v>
+        <v>-62.05552291870117</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-696.2768315950939</v>
+        <v>-0.3199970668554306</v>
       </c>
       <c r="B184" t="n">
-        <v>0.5290722513198853</v>
+        <v>-0.05678084991872311</v>
       </c>
       <c r="C184" t="n">
-        <v>40.53192520141602</v>
+        <v>38.4544677734375</v>
       </c>
       <c r="D184" t="n">
-        <v>22.58382225036621</v>
+        <v>26.14885711669922</v>
       </c>
       <c r="E184" t="n">
-        <v>-33.01070785522461</v>
+        <v>-14.69743633270264</v>
       </c>
       <c r="F184" t="n">
-        <v>10.37035655975342</v>
+        <v>41.08003616333008</v>
       </c>
       <c r="G184" t="n">
-        <v>51.1541862487793</v>
+        <v>71.81008911132812</v>
       </c>
       <c r="H184" t="n">
-        <v>-65.37311553955078</v>
+        <v>-62.05798721313477</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-349.3697723181997</v>
+        <v>-0.3198835307359695</v>
       </c>
       <c r="B185" t="n">
-        <v>0.5291287982463837</v>
+        <v>-0.05713744305074215</v>
       </c>
       <c r="C185" t="n">
-        <v>40.53203201293945</v>
+        <v>38.45331573486328</v>
       </c>
       <c r="D185" t="n">
-        <v>22.58385276794434</v>
+        <v>26.15027046203613</v>
       </c>
       <c r="E185" t="n">
-        <v>-33.00872802734375</v>
+        <v>-14.69732093811035</v>
       </c>
       <c r="F185" t="n">
-        <v>10.36782264709473</v>
+        <v>41.08246231079102</v>
       </c>
       <c r="G185" t="n">
-        <v>51.15912246704102</v>
+        <v>71.80887603759766</v>
       </c>
       <c r="H185" t="n">
-        <v>-65.36484527587891</v>
+        <v>-62.06038665771484</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-175.9162611285823</v>
+        <v>-0.3197741013765335</v>
       </c>
       <c r="B186" t="n">
-        <v>0.5291835761070252</v>
+        <v>-0.05748001791536808</v>
       </c>
       <c r="C186" t="n">
-        <v>40.53213119506836</v>
+        <v>38.45220565795898</v>
       </c>
       <c r="D186" t="n">
-        <v>22.5838737487793</v>
+        <v>26.15162467956543</v>
       </c>
       <c r="E186" t="n">
-        <v>-33.00678634643555</v>
+        <v>-14.69720649719238</v>
       </c>
       <c r="F186" t="n">
-        <v>10.36536693572998</v>
+        <v>41.08479309082031</v>
       </c>
       <c r="G186" t="n">
-        <v>51.1639289855957</v>
+        <v>71.80769348144531</v>
       </c>
       <c r="H186" t="n">
-        <v>-65.35683441162109</v>
+        <v>-62.06271362304688</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-79.41284397451633</v>
+        <v>0.7380188270687777</v>
       </c>
       <c r="B187" t="n">
-        <v>0.5298612716578872</v>
+        <v>1.115344533641654</v>
       </c>
       <c r="C187" t="n">
-        <v>40.53222274780273</v>
+        <v>38.45114135742188</v>
       </c>
       <c r="D187" t="n">
-        <v>22.58388137817383</v>
+        <v>26.15293121337891</v>
       </c>
       <c r="E187" t="n">
-        <v>-33.0048828125</v>
+        <v>-14.69709873199463</v>
       </c>
       <c r="F187" t="n">
-        <v>10.36296844482422</v>
+        <v>41.0870361328125</v>
       </c>
       <c r="G187" t="n">
-        <v>51.16861724853516</v>
+        <v>71.80655670166016</v>
       </c>
       <c r="H187" t="n">
-        <v>-65.34901428222656</v>
+        <v>-62.06494522094727</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-76.59141539047891</v>
+        <v>0.7380188270687777</v>
       </c>
       <c r="B188" t="n">
-        <v>0.5304918628784039</v>
+        <v>0.9873498634292763</v>
       </c>
       <c r="C188" t="n">
-        <v>40.53230667114258</v>
+        <v>38.45011901855469</v>
       </c>
       <c r="D188" t="n">
-        <v>22.5838737487793</v>
+        <v>26.15419578552246</v>
       </c>
       <c r="E188" t="n">
-        <v>-33.00302886962891</v>
+        <v>-14.69699192047119</v>
       </c>
       <c r="F188" t="n">
-        <v>10.36063766479492</v>
+        <v>41.08919143676758</v>
       </c>
       <c r="G188" t="n">
-        <v>51.17318725585938</v>
+        <v>71.80546569824219</v>
       </c>
       <c r="H188" t="n">
-        <v>-65.34141540527344</v>
+        <v>-62.06710052490234</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>135.927656839698</v>
+        <v>0.5203661856246951</v>
       </c>
       <c r="B189" t="n">
-        <v>0.5310764460673654</v>
+        <v>1.001394693759742</v>
       </c>
       <c r="C189" t="n">
-        <v>40.53238296508789</v>
+        <v>38.44913864135742</v>
       </c>
       <c r="D189" t="n">
-        <v>22.5838508605957</v>
+        <v>26.15540885925293</v>
       </c>
       <c r="E189" t="n">
-        <v>-33.00121307373047</v>
+        <v>-14.69689083099365</v>
       </c>
       <c r="F189" t="n">
-        <v>10.35835361480713</v>
+        <v>41.09127807617188</v>
       </c>
       <c r="G189" t="n">
-        <v>51.17763900756836</v>
+        <v>71.80440521240234</v>
       </c>
       <c r="H189" t="n">
-        <v>-65.33400726318359</v>
+        <v>-62.0692024230957</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-738.8148439204981</v>
+        <v>1.289027513648172</v>
       </c>
       <c r="B190" t="n">
-        <v>0.5316164002321011</v>
+        <v>0.9998454600992271</v>
       </c>
       <c r="C190" t="n">
-        <v>40.53245544433594</v>
+        <v>38.44818878173828</v>
       </c>
       <c r="D190" t="n">
-        <v>22.58381652832031</v>
+        <v>26.15657997131348</v>
       </c>
       <c r="E190" t="n">
-        <v>-32.99944686889648</v>
+        <v>-14.69679355621338</v>
       </c>
       <c r="F190" t="n">
-        <v>10.35612869262695</v>
+        <v>41.09327697753906</v>
       </c>
       <c r="G190" t="n">
-        <v>51.18198776245117</v>
+        <v>71.80340576171875</v>
       </c>
       <c r="H190" t="n">
-        <v>-65.32676696777344</v>
+        <v>-62.07122421264648</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3382.487440671766</v>
+        <v>0.8258809183816029</v>
       </c>
       <c r="B191" t="n">
-        <v>0.5321129350587053</v>
+        <v>1.000017206776444</v>
       </c>
       <c r="C191" t="n">
-        <v>40.53251647949219</v>
+        <v>38.4472770690918</v>
       </c>
       <c r="D191" t="n">
-        <v>22.58376502990723</v>
+        <v>26.15771293640137</v>
       </c>
       <c r="E191" t="n">
-        <v>-32.99773025512695</v>
+        <v>-14.69669628143311</v>
       </c>
       <c r="F191" t="n">
-        <v>10.35395812988281</v>
+        <v>41.09521102905273</v>
       </c>
       <c r="G191" t="n">
-        <v>51.18621444702148</v>
+        <v>71.80241394042969</v>
       </c>
       <c r="H191" t="n">
-        <v>-65.31972503662109</v>
+        <v>-62.07319259643555</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-15741.00470409188</v>
+        <v>1.104866167022206</v>
       </c>
       <c r="B192" t="n">
-        <v>0.5325674310225708</v>
+        <v>0.9999980752988658</v>
       </c>
       <c r="C192" t="n">
-        <v>40.53257369995117</v>
+        <v>38.44639587402344</v>
       </c>
       <c r="D192" t="n">
-        <v>22.58371353149414</v>
+        <v>26.15880012512207</v>
       </c>
       <c r="E192" t="n">
-        <v>-32.99603271484375</v>
+        <v>-14.69660186767578</v>
       </c>
       <c r="F192" t="n">
-        <v>10.35185050964355</v>
+        <v>41.09706878662109</v>
       </c>
       <c r="G192" t="n">
-        <v>51.19033050537109</v>
+        <v>71.80146026611328</v>
       </c>
       <c r="H192" t="n">
-        <v>-65.31289672851562</v>
+        <v>-62.07507705688477</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>73140.66109548573</v>
+        <v>0.9368590151994365</v>
       </c>
       <c r="B193" t="n">
-        <v>0.532981064216254</v>
+        <v>1.00000021624858</v>
       </c>
       <c r="C193" t="n">
-        <v>40.53262710571289</v>
+        <v>38.44555282592773</v>
       </c>
       <c r="D193" t="n">
-        <v>22.58364868164062</v>
+        <v>26.15985107421875</v>
       </c>
       <c r="E193" t="n">
-        <v>-32.99438095092773</v>
+        <v>-14.69651222229004</v>
       </c>
       <c r="F193" t="n">
-        <v>10.34979724884033</v>
+        <v>41.09886169433594</v>
       </c>
       <c r="G193" t="n">
-        <v>51.1943359375</v>
+        <v>71.80055236816406</v>
       </c>
       <c r="H193" t="n">
-        <v>-65.30624389648438</v>
+        <v>-62.07690048217773</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-339891.9345511148</v>
+        <v>1.038008198017472</v>
       </c>
       <c r="B194" t="n">
-        <v>0.5333549583211568</v>
+        <v>0.9999999756001247</v>
       </c>
       <c r="C194" t="n">
-        <v>40.53267288208008</v>
+        <v>38.44473266601562</v>
       </c>
       <c r="D194" t="n">
-        <v>22.58357429504395</v>
+        <v>26.16086959838867</v>
       </c>
       <c r="E194" t="n">
-        <v>-32.99277496337891</v>
+        <v>-14.69642543792725</v>
       </c>
       <c r="F194" t="n">
-        <v>10.34779262542725</v>
+        <v>41.1005859375</v>
       </c>
       <c r="G194" t="n">
-        <v>51.19823837280273</v>
+        <v>71.79965972900391</v>
       </c>
       <c r="H194" t="n">
-        <v>-65.29975128173828</v>
+        <v>-62.07867050170898</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1579516.754974961</v>
+        <v>0.9771262294462922</v>
       </c>
       <c r="B195" t="n">
-        <v>0.5336900358454678</v>
+        <v>1.00000000276438</v>
       </c>
       <c r="C195" t="n">
-        <v>40.53272247314453</v>
+        <v>38.44394683837891</v>
       </c>
       <c r="D195" t="n">
-        <v>22.5834903717041</v>
+        <v>26.1618537902832</v>
       </c>
       <c r="E195" t="n">
-        <v>-32.99120330810547</v>
+        <v>-14.6963357925415</v>
       </c>
       <c r="F195" t="n">
-        <v>10.34583187103271</v>
+        <v>41.10225296020508</v>
       </c>
       <c r="G195" t="n">
-        <v>51.20203399658203</v>
+        <v>71.79878997802734</v>
       </c>
       <c r="H195" t="n">
-        <v>-65.29341888427734</v>
+        <v>-62.08037948608398</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-7340227.388335712</v>
+        <v>1.013762468920065</v>
       </c>
       <c r="B196" t="n">
-        <v>0.5339874315351918</v>
+        <v>0.9999999996855818</v>
       </c>
       <c r="C196" t="n">
-        <v>40.53276062011719</v>
+        <v>38.44318771362305</v>
       </c>
       <c r="D196" t="n">
-        <v>22.58340072631836</v>
+        <v>26.16280364990234</v>
       </c>
       <c r="E196" t="n">
-        <v>-32.98967742919922</v>
+        <v>-14.69625091552734</v>
       </c>
       <c r="F196" t="n">
-        <v>10.34392642974854</v>
+        <v>41.10385513305664</v>
       </c>
       <c r="G196" t="n">
-        <v>51.20573806762695</v>
+        <v>71.79798126220703</v>
       </c>
       <c r="H196" t="n">
-        <v>-65.28726959228516</v>
+        <v>-62.08205032348633</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>34111191.08977202</v>
+        <v>0.9917214249647184</v>
       </c>
       <c r="B197" t="n">
-        <v>0.5342480433870798</v>
+        <v>1.000000000035898</v>
       </c>
       <c r="C197" t="n">
-        <v>40.53279876708984</v>
+        <v>38.44244766235352</v>
       </c>
       <c r="D197" t="n">
-        <v>22.58329772949219</v>
+        <v>26.16371917724609</v>
       </c>
       <c r="E197" t="n">
-        <v>-32.98818969726562</v>
+        <v>-14.6961669921875</v>
       </c>
       <c r="F197" t="n">
-        <v>10.34206104278564</v>
+        <v>41.10541534423828</v>
       </c>
       <c r="G197" t="n">
-        <v>51.20934295654297</v>
+        <v>71.79718017578125</v>
       </c>
       <c r="H197" t="n">
-        <v>-65.28128814697266</v>
+        <v>-62.08364486694336</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-158521063.9756123</v>
+        <v>1.004978741189895</v>
       </c>
       <c r="B198" t="n">
-        <v>0.5344729454937298</v>
+        <v>0.9999999999958866</v>
       </c>
       <c r="C198" t="n">
-        <v>40.5328254699707</v>
+        <v>38.44173812866211</v>
       </c>
       <c r="D198" t="n">
-        <v>22.58319091796875</v>
+        <v>26.16460609436035</v>
       </c>
       <c r="E198" t="n">
-        <v>-32.98673248291016</v>
+        <v>-14.69608402252197</v>
       </c>
       <c r="F198" t="n">
-        <v>10.34024620056152</v>
+        <v>41.10690689086914</v>
       </c>
       <c r="G198" t="n">
-        <v>51.21285247802734</v>
+        <v>71.79640960693359</v>
       </c>
       <c r="H198" t="n">
-        <v>-65.27546691894531</v>
+        <v>-62.08518218994141</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>736680515.7498853</v>
+        <v>0.9970064135705101</v>
       </c>
       <c r="B199" t="n">
-        <v>0.5346632013875815</v>
+        <v>1.000000000000473</v>
       </c>
       <c r="C199" t="n">
-        <v>40.53286361694336</v>
+        <v>38.44105529785156</v>
       </c>
       <c r="D199" t="n">
-        <v>22.58308219909668</v>
+        <v>26.16546249389648</v>
       </c>
       <c r="E199" t="n">
-        <v>-32.98530960083008</v>
+        <v>-14.69600200653076</v>
       </c>
       <c r="F199" t="n">
-        <v>10.3384838104248</v>
+        <v>41.10835266113281</v>
       </c>
       <c r="G199" t="n">
-        <v>51.21625518798828</v>
+        <v>71.79570007324219</v>
       </c>
       <c r="H199" t="n">
-        <v>-65.26979827880859</v>
+        <v>-62.08668518066406</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-3423525392.981123</v>
+        <v>1.001799595440674</v>
       </c>
       <c r="B200" t="n">
-        <v>0.5348196406538157</v>
+        <v>0.9999999999999455</v>
       </c>
       <c r="C200" t="n">
-        <v>40.53289413452148</v>
+        <v>38.44039154052734</v>
       </c>
       <c r="D200" t="n">
-        <v>22.58296775817871</v>
+        <v>26.16629028320312</v>
       </c>
       <c r="E200" t="n">
-        <v>-32.98392868041992</v>
+        <v>-14.69592475891113</v>
       </c>
       <c r="F200" t="n">
-        <v>10.33676052093506</v>
+        <v>41.10974502563477</v>
       </c>
       <c r="G200" t="n">
-        <v>51.21957397460938</v>
+        <v>71.79497528076172</v>
       </c>
       <c r="H200" t="n">
-        <v>-65.26431274414062</v>
+        <v>-62.0881233215332</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>15909974610.78227</v>
+        <v>0.9989183883808355</v>
       </c>
       <c r="B201" t="n">
-        <v>0.5349433082622711</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="C201" t="n">
-        <v>40.53292465209961</v>
+        <v>38.43974685668945</v>
       </c>
       <c r="D201" t="n">
-        <v>22.58284759521484</v>
+        <v>26.16709136962891</v>
       </c>
       <c r="E201" t="n">
-        <v>-32.98257827758789</v>
+        <v>-14.69584369659424</v>
       </c>
       <c r="F201" t="n">
-        <v>10.33509063720703</v>
+        <v>41.1110954284668</v>
       </c>
       <c r="G201" t="n">
-        <v>51.22279739379883</v>
+        <v>71.79430389404297</v>
       </c>
       <c r="H201" t="n">
-        <v>-65.25895690917969</v>
+        <v>-62.08953094482422</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-73937889039.14627</v>
+        <v>1.000649957190261</v>
       </c>
       <c r="B202" t="n">
-        <v>0.5350347553953536</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="C202" t="n">
-        <v>40.5329475402832</v>
+        <v>38.43912887573242</v>
       </c>
       <c r="D202" t="n">
-        <v>22.58271980285645</v>
+        <v>26.1678638458252</v>
       </c>
       <c r="E202" t="n">
-        <v>-32.98126983642578</v>
+        <v>-14.69576835632324</v>
       </c>
       <c r="F202" t="n">
-        <v>10.33344650268555</v>
+        <v>41.11239242553711</v>
       </c>
       <c r="G202" t="n">
-        <v>51.22594833374023</v>
+        <v>71.79364013671875</v>
       </c>
       <c r="H202" t="n">
-        <v>-65.25373077392578</v>
+        <v>-62.09090423583984</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>343610343120.0289</v>
+        <v>0.9996095030393085</v>
       </c>
       <c r="B203" t="n">
-        <v>0.5350949366088252</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>40.5329704284668</v>
+        <v>38.43852996826172</v>
       </c>
       <c r="D203" t="n">
-        <v>22.58259010314941</v>
+        <v>26.16861534118652</v>
       </c>
       <c r="E203" t="n">
-        <v>-32.97998809814453</v>
+        <v>-14.69569110870361</v>
       </c>
       <c r="F203" t="n">
-        <v>10.33185005187988</v>
+        <v>41.11365509033203</v>
       </c>
       <c r="G203" t="n">
-        <v>51.22900390625</v>
+        <v>71.79299926757812</v>
       </c>
       <c r="H203" t="n">
-        <v>-65.24866485595703</v>
+        <v>-62.09219741821289</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-712527210063.2513</v>
+        <v>1.000234569799735</v>
       </c>
       <c r="B204" t="n">
-        <v>0.5351246873650426</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>39.00016021728516</v>
+        <v>38.43794631958008</v>
       </c>
       <c r="D204" t="n">
-        <v>22.58245468139648</v>
+        <v>26.16933822631836</v>
       </c>
       <c r="E204" t="n">
-        <v>-29.44925117492676</v>
+        <v>-16.82839584350586</v>
       </c>
       <c r="F204" t="n">
-        <v>16.26828002929688</v>
+        <v>41.1148681640625</v>
       </c>
       <c r="G204" t="n">
-        <v>52.75904846191406</v>
+        <v>64.74807739257812</v>
       </c>
       <c r="H204" t="n">
-        <v>-51.07305908203125</v>
+        <v>-59.45072937011719</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-712527210063.2513</v>
+        <v>0.9998591197520041</v>
       </c>
       <c r="B205" t="n">
-        <v>0.5351246873650426</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>39.00016021728516</v>
+        <v>36.82262420654297</v>
       </c>
       <c r="D205" t="n">
-        <v>22.58231353759766</v>
+        <v>26.1700439453125</v>
       </c>
       <c r="E205" t="n">
-        <v>-29.44925117492676</v>
+        <v>-16.82839584350586</v>
       </c>
       <c r="F205" t="n">
-        <v>16.26828002929688</v>
+        <v>41.11603546142578</v>
       </c>
       <c r="G205" t="n">
-        <v>52.75904846191406</v>
+        <v>64.74807739257812</v>
       </c>
       <c r="H205" t="n">
-        <v>-51.07305908203125</v>
+        <v>-59.45072937011719</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/PV_cp_lstm.xlsx
+++ b/Predictions/PV_cp_lstm.xlsx
@@ -476,5307 +476,5423 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>35.7794189453125</v>
+        <v>47.44820404052734</v>
       </c>
       <c r="D2" t="n">
-        <v>25.66837310791016</v>
+        <v>19.69286727905273</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.65994262695312</v>
+        <v>-29.72189903259277</v>
       </c>
       <c r="F2" t="n">
-        <v>40.69371795654297</v>
+        <v>29.68033790588379</v>
       </c>
       <c r="G2" t="n">
-        <v>50.92035675048828</v>
+        <v>51.73646545410156</v>
       </c>
       <c r="H2" t="n">
-        <v>-54.76684951782227</v>
+        <v>-60.46580505371094</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0.04648830235004425</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1197062104940415</v>
+        <v>0.02698074009269476</v>
       </c>
       <c r="C3" t="n">
-        <v>35.7794189453125</v>
+        <v>47.44820404052734</v>
       </c>
       <c r="D3" t="n">
-        <v>26.13063430786133</v>
+        <v>19.69286727905273</v>
       </c>
       <c r="E3" t="n">
-        <v>-20.65994262695312</v>
+        <v>-28.07958602905273</v>
       </c>
       <c r="F3" t="n">
-        <v>41.50815963745117</v>
+        <v>31.41058349609375</v>
       </c>
       <c r="G3" t="n">
-        <v>47.85140991210938</v>
+        <v>51.73646545410156</v>
       </c>
       <c r="H3" t="n">
-        <v>-54.76684951782227</v>
+        <v>-58.38847351074219</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0.0829056839644909</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2344335746765137</v>
+        <v>0.06135156720876694</v>
       </c>
       <c r="C4" t="n">
-        <v>34.36673355102539</v>
+        <v>46.64127731323242</v>
       </c>
       <c r="D4" t="n">
-        <v>26.80419921875</v>
+        <v>17.87673377990723</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.57056617736816</v>
+        <v>-28.22477531433105</v>
       </c>
       <c r="F4" t="n">
-        <v>42.28872680664062</v>
+        <v>31.41058349609375</v>
       </c>
       <c r="G4" t="n">
-        <v>46.68174743652344</v>
+        <v>50.35720443725586</v>
       </c>
       <c r="H4" t="n">
-        <v>-54.12808990478516</v>
+        <v>-58.38847351074219</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0.118123646825552</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3513150608539581</v>
+        <v>0.09980026289820672</v>
       </c>
       <c r="C5" t="n">
-        <v>34.00942230224609</v>
+        <v>47.67352294921875</v>
       </c>
       <c r="D5" t="n">
-        <v>27.60887336730957</v>
+        <v>17.73979568481445</v>
       </c>
       <c r="E5" t="n">
-        <v>-20.8062686920166</v>
+        <v>-28.47101783752441</v>
       </c>
       <c r="F5" t="n">
-        <v>43.08395004272461</v>
+        <v>31.56884002685547</v>
       </c>
       <c r="G5" t="n">
-        <v>46.68174743652344</v>
+        <v>50.85790252685547</v>
       </c>
       <c r="H5" t="n">
-        <v>-55.61592483520508</v>
+        <v>-58.01377487182617</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>0.1528182426095009</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4707168340682983</v>
+        <v>0.1399908092617989</v>
       </c>
       <c r="C6" t="n">
-        <v>33.65742111206055</v>
+        <v>48.71046447753906</v>
       </c>
       <c r="D6" t="n">
-        <v>28.5016975402832</v>
+        <v>17.81272315979004</v>
       </c>
       <c r="E6" t="n">
-        <v>-20.05403137207031</v>
+        <v>-28.74214935302734</v>
       </c>
       <c r="F6" t="n">
-        <v>43.89632034301758</v>
+        <v>29.92563247680664</v>
       </c>
       <c r="G6" t="n">
-        <v>46.30809783935547</v>
+        <v>51.43077850341797</v>
       </c>
       <c r="H6" t="n">
-        <v>-57.11036682128906</v>
+        <v>-61.00734329223633</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0.187180814743042</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5923562860488892</v>
+        <v>0.1798296985030174</v>
       </c>
       <c r="C7" t="n">
-        <v>33.30878829956055</v>
+        <v>49.65462493896484</v>
       </c>
       <c r="D7" t="n">
-        <v>29.43852615356445</v>
+        <v>18.04891395568848</v>
       </c>
       <c r="E7" t="n">
-        <v>-19.30731391906738</v>
+        <v>-28.9902515411377</v>
       </c>
       <c r="F7" t="n">
-        <v>44.72391510009766</v>
+        <v>28.29680252075195</v>
       </c>
       <c r="G7" t="n">
-        <v>47.15426254272461</v>
+        <v>52.0436897277832</v>
       </c>
       <c r="H7" t="n">
-        <v>-58.55677795410156</v>
+        <v>-62.5869140625</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0.2210749161243439</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7151877093315124</v>
+        <v>0.2168921178579331</v>
       </c>
       <c r="C8" t="n">
-        <v>32.96490859985352</v>
+        <v>50.41971206665039</v>
       </c>
       <c r="D8" t="n">
-        <v>30.38314628601074</v>
+        <v>18.4206714630127</v>
       </c>
       <c r="E8" t="n">
-        <v>-18.56386375427246</v>
+        <v>-29.17688369750977</v>
       </c>
       <c r="F8" t="n">
-        <v>45.55961990356445</v>
+        <v>26.78149032592773</v>
       </c>
       <c r="G8" t="n">
-        <v>48.03530502319336</v>
+        <v>52.65084075927734</v>
       </c>
       <c r="H8" t="n">
-        <v>-59.91529846191406</v>
+        <v>-64.40205383300781</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0.2544911327958107</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.8378005266189575</v>
+        <v>0.2502568104863167</v>
       </c>
       <c r="C9" t="n">
-        <v>32.62587738037109</v>
+        <v>50.99978256225586</v>
       </c>
       <c r="D9" t="n">
-        <v>31.30863952636719</v>
+        <v>18.87376976013184</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.82549095153809</v>
+        <v>-29.30697441101074</v>
       </c>
       <c r="F9" t="n">
-        <v>46.39383697509766</v>
+        <v>25.41736030578613</v>
       </c>
       <c r="G9" t="n">
-        <v>48.93630599975586</v>
+        <v>53.22898483276367</v>
       </c>
       <c r="H9" t="n">
-        <v>-61.15761184692383</v>
+        <v>-66.26484680175781</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0.2870986020565033</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.9583981883525848</v>
+        <v>0.2793487983942032</v>
       </c>
       <c r="C10" t="n">
-        <v>32.29505157470703</v>
+        <v>51.40503692626953</v>
       </c>
       <c r="D10" t="n">
-        <v>32.19624710083008</v>
+        <v>19.36593246459961</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.09530258178711</v>
+        <v>-29.38797378540039</v>
       </c>
       <c r="F10" t="n">
-        <v>47.2143440246582</v>
+        <v>24.2279224395752</v>
       </c>
       <c r="G10" t="n">
-        <v>49.84849548339844</v>
+        <v>53.75736999511719</v>
       </c>
       <c r="H10" t="n">
-        <v>-62.26981353759766</v>
+        <v>-68.05690765380859</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0.3185512030124664</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.075111486911774</v>
+        <v>0.3041094022989273</v>
       </c>
       <c r="C11" t="n">
-        <v>31.97594261169434</v>
+        <v>51.66596221923828</v>
       </c>
       <c r="D11" t="n">
-        <v>33.03340530395508</v>
+        <v>19.85934066772461</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.38033676147461</v>
+        <v>-29.43498039245605</v>
       </c>
       <c r="F11" t="n">
-        <v>48.0084228515625</v>
+        <v>23.21557426452637</v>
       </c>
       <c r="G11" t="n">
-        <v>50.76608657836914</v>
+        <v>54.22846221923828</v>
       </c>
       <c r="H11" t="n">
-        <v>-63.24966049194336</v>
+        <v>-69.70757293701172</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0.3485116916894913</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.18608283996582</v>
+        <v>0.324949598312378</v>
       </c>
       <c r="C12" t="n">
-        <v>31.67197227478027</v>
+        <v>51.82039642333984</v>
       </c>
       <c r="D12" t="n">
-        <v>33.80932998657227</v>
+        <v>20.32515144348145</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.68970108032227</v>
+        <v>-29.46482086181641</v>
       </c>
       <c r="F12" t="n">
-        <v>48.76343536376953</v>
+        <v>22.3635139465332</v>
       </c>
       <c r="G12" t="n">
-        <v>51.68393325805664</v>
+        <v>54.64281463623047</v>
       </c>
       <c r="H12" t="n">
-        <v>-64.09918212890625</v>
+        <v>-71.18121337890625</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0.3768289077281952</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.289502935409546</v>
+        <v>0.3424935823678971</v>
       </c>
       <c r="C13" t="n">
-        <v>31.38467407226562</v>
+        <v>51.90312957763672</v>
       </c>
       <c r="D13" t="n">
-        <v>34.51605224609375</v>
+        <v>20.74678230285645</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.03331661224365</v>
+        <v>-29.49073028564453</v>
       </c>
       <c r="F13" t="n">
-        <v>49.46707153320312</v>
+        <v>21.64622116088867</v>
       </c>
       <c r="G13" t="n">
-        <v>52.59360504150391</v>
+        <v>55.00454330444336</v>
       </c>
       <c r="H13" t="n">
-        <v>-64.82260894775391</v>
+        <v>-72.46607971191406</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0.4035363054275513</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.384589087963104</v>
+        <v>0.3572935873270035</v>
       </c>
       <c r="C14" t="n">
-        <v>31.11370849609375</v>
+        <v>51.93899917602539</v>
       </c>
       <c r="D14" t="n">
-        <v>35.1509895324707</v>
+        <v>21.12238693237305</v>
       </c>
       <c r="E14" t="n">
-        <v>-14.41633987426758</v>
+        <v>-29.51265525817871</v>
       </c>
       <c r="F14" t="n">
-        <v>50.11400604248047</v>
+        <v>21.04111671447754</v>
       </c>
       <c r="G14" t="n">
-        <v>53.48921203613281</v>
+        <v>55.31489181518555</v>
       </c>
       <c r="H14" t="n">
-        <v>-65.42723846435547</v>
+        <v>-73.56913757324219</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0.4285440415143967</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.47105849981308</v>
+        <v>0.3699550127983093</v>
       </c>
       <c r="C15" t="n">
-        <v>30.85998725891113</v>
+        <v>51.95066070556641</v>
       </c>
       <c r="D15" t="n">
-        <v>35.71693801879883</v>
+        <v>21.45090675354004</v>
       </c>
       <c r="E15" t="n">
-        <v>-13.84376430511475</v>
+        <v>-29.53608512878418</v>
       </c>
       <c r="F15" t="n">
-        <v>50.70231628417969</v>
+        <v>20.5234489440918</v>
       </c>
       <c r="G15" t="n">
-        <v>54.36482238769531</v>
+        <v>55.57745742797852</v>
       </c>
       <c r="H15" t="n">
-        <v>-65.92564392089844</v>
+        <v>-73.56913757324219</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>0.4515046840906143</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.549024770259857</v>
+        <v>0.3810281962156296</v>
       </c>
       <c r="C16" t="n">
-        <v>30.62703514099121</v>
+        <v>51.95470809936523</v>
       </c>
       <c r="D16" t="n">
-        <v>36.21617889404297</v>
+        <v>21.73312759399414</v>
       </c>
       <c r="E16" t="n">
-        <v>-13.31615161895752</v>
+        <v>-29.56576919555664</v>
       </c>
       <c r="F16" t="n">
-        <v>51.23277282714844</v>
+        <v>20.07071685791016</v>
       </c>
       <c r="G16" t="n">
-        <v>55.22113800048828</v>
+        <v>55.79674911499023</v>
       </c>
       <c r="H16" t="n">
-        <v>-66.32833862304688</v>
+        <v>-75.44393920898438</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0.4720067358016968</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.618333485126495</v>
+        <v>0.3908718156814575</v>
       </c>
       <c r="C17" t="n">
-        <v>30.41902732849121</v>
+        <v>51.95936965942383</v>
       </c>
       <c r="D17" t="n">
-        <v>36.6513786315918</v>
+        <v>21.97256278991699</v>
       </c>
       <c r="E17" t="n">
-        <v>-12.83436679840088</v>
+        <v>-29.6013126373291</v>
       </c>
       <c r="F17" t="n">
-        <v>51.70432662963867</v>
+        <v>19.66825675964355</v>
       </c>
       <c r="G17" t="n">
-        <v>56.05633544921875</v>
+        <v>55.97811126708984</v>
       </c>
       <c r="H17" t="n">
-        <v>-66.64374542236328</v>
+        <v>-76.08837890625</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>0.4897059553861619</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.679211211204529</v>
+        <v>0.3997201144695282</v>
       </c>
       <c r="C18" t="n">
-        <v>30.23945617675781</v>
+        <v>51.96805191040039</v>
       </c>
       <c r="D18" t="n">
-        <v>37.02646636962891</v>
+        <v>22.17364120483398</v>
       </c>
       <c r="E18" t="n">
-        <v>-12.3963098526001</v>
+        <v>-29.64107894897461</v>
       </c>
       <c r="F18" t="n">
-        <v>52.1185188293457</v>
+        <v>19.30648994445801</v>
       </c>
       <c r="G18" t="n">
-        <v>56.87337493896484</v>
+        <v>56.12738800048828</v>
       </c>
       <c r="H18" t="n">
-        <v>-66.88105010986328</v>
+        <v>-76.62542724609375</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>0.5043825995922089</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.731706218719482</v>
+        <v>0.4077605819702149</v>
       </c>
       <c r="C19" t="n">
-        <v>30.09055137634277</v>
+        <v>51.98220443725586</v>
       </c>
       <c r="D19" t="n">
-        <v>37.34532928466797</v>
+        <v>22.34087181091309</v>
       </c>
       <c r="E19" t="n">
-        <v>-12.00195693969727</v>
+        <v>-29.6833667755127</v>
       </c>
       <c r="F19" t="n">
-        <v>52.47567749023438</v>
+        <v>18.97775268554688</v>
       </c>
       <c r="G19" t="n">
-        <v>57.67108535766602</v>
+        <v>56.25070571899414</v>
       </c>
       <c r="H19" t="n">
-        <v>-67.04742431640625</v>
+        <v>-77.07091522216797</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>0.5158777683973312</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.776233985424042</v>
+        <v>0.4151255190372467</v>
       </c>
       <c r="C20" t="n">
-        <v>29.97392463684082</v>
+        <v>52.00190734863281</v>
       </c>
       <c r="D20" t="n">
-        <v>37.61220169067383</v>
+        <v>22.47897720336914</v>
       </c>
       <c r="E20" t="n">
-        <v>-11.64888763427734</v>
+        <v>-29.7270450592041</v>
       </c>
       <c r="F20" t="n">
-        <v>52.77862930297852</v>
+        <v>18.67663383483887</v>
       </c>
       <c r="G20" t="n">
-        <v>58.45061874389648</v>
+        <v>56.35383605957031</v>
       </c>
       <c r="H20" t="n">
-        <v>-67.14987945556641</v>
+        <v>-77.43754577636719</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>0.5240380901098252</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.81306960105896</v>
+        <v>0.4219298201799393</v>
       </c>
       <c r="C21" t="n">
-        <v>29.89113235473633</v>
+        <v>52.02632522583008</v>
       </c>
       <c r="D21" t="n">
-        <v>37.83013153076172</v>
+        <v>22.59236907958984</v>
       </c>
       <c r="E21" t="n">
-        <v>-11.33530616760254</v>
+        <v>-29.77205276489258</v>
       </c>
       <c r="F21" t="n">
-        <v>53.02924728393555</v>
+        <v>18.3984375</v>
       </c>
       <c r="G21" t="n">
-        <v>59.21246719360352</v>
+        <v>56.44119262695312</v>
       </c>
       <c r="H21" t="n">
-        <v>-67.19306182861328</v>
+        <v>-77.73606872558594</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>0.5287552726268768</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.841989657878876</v>
+        <v>0.4282635813951493</v>
       </c>
       <c r="C22" t="n">
-        <v>29.8432731628418</v>
+        <v>52.05485153198242</v>
       </c>
       <c r="D22" t="n">
-        <v>37.99984359741211</v>
+        <v>22.68497657775879</v>
       </c>
       <c r="E22" t="n">
-        <v>-11.06344318389893</v>
+        <v>-29.81819534301758</v>
       </c>
       <c r="F22" t="n">
-        <v>53.22600936889648</v>
+        <v>18.13947868347168</v>
       </c>
       <c r="G22" t="n">
-        <v>59.95191192626953</v>
+        <v>56.51682281494141</v>
       </c>
       <c r="H22" t="n">
-        <v>-67.18061828613281</v>
+        <v>-77.97528839111328</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>0.53</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.862631750106812</v>
+        <v>0.4342005980014801</v>
       </c>
       <c r="C23" t="n">
-        <v>29.83064460754395</v>
+        <v>52.08672332763672</v>
       </c>
       <c r="D23" t="n">
-        <v>38.12072372436523</v>
+        <v>22.76065063476562</v>
       </c>
       <c r="E23" t="n">
-        <v>-10.83699035644531</v>
+        <v>-29.86567115783691</v>
       </c>
       <c r="F23" t="n">
-        <v>53.36645126342773</v>
+        <v>17.89674186706543</v>
       </c>
       <c r="G23" t="n">
-        <v>60.66220855712891</v>
+        <v>56.58374404907227</v>
       </c>
       <c r="H23" t="n">
-        <v>-67.11587524414062</v>
+        <v>-78.16289520263672</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>0.5277350270748139</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.87489883184433</v>
+        <v>0.4397862654924393</v>
       </c>
       <c r="C24" t="n">
-        <v>29.85362434387207</v>
+        <v>52.12133026123047</v>
       </c>
       <c r="D24" t="n">
-        <v>38.19165420532227</v>
+        <v>22.82258987426758</v>
       </c>
       <c r="E24" t="n">
-        <v>-10.6569242477417</v>
+        <v>-29.91414260864258</v>
       </c>
       <c r="F24" t="n">
-        <v>53.44991302490234</v>
+        <v>17.66836929321289</v>
       </c>
       <c r="G24" t="n">
-        <v>61.33956527709961</v>
+        <v>56.64397811889648</v>
       </c>
       <c r="H24" t="n">
-        <v>-67.00209045410156</v>
+        <v>-78.30628967285156</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>0.5219586795568466</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.878814659118653</v>
+        <v>0.4450480675697327</v>
       </c>
       <c r="C25" t="n">
-        <v>29.91222953796387</v>
+        <v>52.15763854980469</v>
       </c>
       <c r="D25" t="n">
-        <v>38.21173477172852</v>
+        <v>22.87349700927734</v>
       </c>
       <c r="E25" t="n">
-        <v>-10.52358913421631</v>
+        <v>-29.96328926086426</v>
       </c>
       <c r="F25" t="n">
-        <v>53.47655487060547</v>
+        <v>17.45323753356934</v>
       </c>
       <c r="G25" t="n">
-        <v>61.98174285888672</v>
+        <v>56.69865036010742</v>
       </c>
       <c r="H25" t="n">
-        <v>-66.84300231933594</v>
+        <v>-78.41304779052734</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>0.5126042068004608</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.874682500362396</v>
+        <v>0.4500082123279572</v>
       </c>
       <c r="C26" t="n">
-        <v>30.00713729858398</v>
+        <v>52.19454574584961</v>
       </c>
       <c r="D26" t="n">
-        <v>38.18119430541992</v>
+        <v>22.91553115844727</v>
       </c>
       <c r="E26" t="n">
-        <v>-10.43312358856201</v>
+        <v>-30.0129451751709</v>
       </c>
       <c r="F26" t="n">
-        <v>53.44844055175781</v>
+        <v>17.25044059753418</v>
       </c>
       <c r="G26" t="n">
-        <v>62.59115219116211</v>
+        <v>56.74838638305664</v>
       </c>
       <c r="H26" t="n">
-        <v>-66.64242553710938</v>
+        <v>-78.49014282226562</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>0.4995469844341278</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.86312064409256</v>
+        <v>0.4546787357330322</v>
       </c>
       <c r="C27" t="n">
-        <v>30.13961219787598</v>
+        <v>52.23139572143555</v>
       </c>
       <c r="D27" t="n">
-        <v>38.10185623168945</v>
+        <v>22.95045471191406</v>
       </c>
       <c r="E27" t="n">
-        <v>-10.37775325775146</v>
+        <v>-30.06254196166992</v>
       </c>
       <c r="F27" t="n">
-        <v>53.36977767944336</v>
+        <v>17.05948448181152</v>
       </c>
       <c r="G27" t="n">
-        <v>63.17276382446289</v>
+        <v>56.79411697387695</v>
       </c>
       <c r="H27" t="n">
-        <v>-66.40379333496094</v>
+        <v>-78.54312896728516</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>0.4824662429094315</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.844166746139526</v>
+        <v>0.4590841203927994</v>
       </c>
       <c r="C28" t="n">
-        <v>30.31290817260742</v>
+        <v>52.26782608032227</v>
       </c>
       <c r="D28" t="n">
-        <v>37.97348785400391</v>
+        <v>22.97973442077637</v>
       </c>
       <c r="E28" t="n">
-        <v>-10.35079669952393</v>
+        <v>-30.11183929443359</v>
       </c>
       <c r="F28" t="n">
-        <v>53.24082183837891</v>
+        <v>16.87936782836914</v>
       </c>
       <c r="G28" t="n">
-        <v>63.73369598388672</v>
+        <v>56.83638763427734</v>
       </c>
       <c r="H28" t="n">
-        <v>-66.12705993652344</v>
+        <v>-78.57640838623047</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>0.4610086113214493</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.817462570667267</v>
+        <v>0.463246985077858</v>
       </c>
       <c r="C29" t="n">
-        <v>30.53061103820801</v>
+        <v>52.30358505249023</v>
       </c>
       <c r="D29" t="n">
-        <v>37.79484176635742</v>
+        <v>23.00467300415039</v>
       </c>
       <c r="E29" t="n">
-        <v>-10.34605979919434</v>
+        <v>-30.16070747375488</v>
       </c>
       <c r="F29" t="n">
-        <v>53.05913543701172</v>
+        <v>16.70916748046875</v>
       </c>
       <c r="G29" t="n">
-        <v>64.27677917480469</v>
+        <v>56.87555313110352</v>
       </c>
       <c r="H29" t="n">
-        <v>-65.80976104736328</v>
+        <v>-78.59359741210938</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>0.4349120151996613</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.7823521733284</v>
+        <v>0.4671833461523056</v>
       </c>
       <c r="C30" t="n">
-        <v>30.79537963867188</v>
+        <v>52.33845520019531</v>
       </c>
       <c r="D30" t="n">
-        <v>37.56378936767578</v>
+        <v>23.02624320983887</v>
       </c>
       <c r="E30" t="n">
-        <v>-10.36087894439697</v>
+        <v>-30.2089729309082</v>
       </c>
       <c r="F30" t="n">
-        <v>52.82025527954102</v>
+        <v>16.54822731018066</v>
       </c>
       <c r="G30" t="n">
-        <v>64.80049896240234</v>
+        <v>56.91179656982422</v>
       </c>
       <c r="H30" t="n">
-        <v>-65.45148468017578</v>
+        <v>-78.5980224609375</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>0.4040662670135498</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.738325684070587</v>
+        <v>0.4709030282497406</v>
       </c>
       <c r="C31" t="n">
-        <v>31.10833168029785</v>
+        <v>52.37221908569336</v>
       </c>
       <c r="D31" t="n">
-        <v>37.27889251708984</v>
+        <v>23.0450611114502</v>
       </c>
       <c r="E31" t="n">
-        <v>-10.39456367492676</v>
+        <v>-30.25638008117676</v>
       </c>
       <c r="F31" t="n">
-        <v>52.52071380615234</v>
+        <v>16.39614677429199</v>
       </c>
       <c r="G31" t="n">
-        <v>65.30088043212891</v>
+        <v>56.94516754150391</v>
       </c>
       <c r="H31" t="n">
-        <v>-65.05499267578125</v>
+        <v>-78.59286499023438</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>0.3691915661096573</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.685780258178711</v>
+        <v>0.4744057470560074</v>
       </c>
       <c r="C32" t="n">
-        <v>31.46216011047363</v>
+        <v>52.40463256835938</v>
       </c>
       <c r="D32" t="n">
-        <v>36.94229125976562</v>
+        <v>23.06157875061035</v>
       </c>
       <c r="E32" t="n">
-        <v>-10.45570755004883</v>
+        <v>-30.30270004272461</v>
       </c>
       <c r="F32" t="n">
-        <v>52.16321182250977</v>
+        <v>16.25293731689453</v>
       </c>
       <c r="G32" t="n">
-        <v>65.76460266113281</v>
+        <v>56.97589492797852</v>
       </c>
       <c r="H32" t="n">
-        <v>-64.63706207275391</v>
+        <v>-78.58100128173828</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>0.3311390227079392</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B33" t="n">
-        <v>3.549878848092125</v>
+        <v>0.4776863217353821</v>
       </c>
       <c r="C33" t="n">
-        <v>31.84823036193848</v>
+        <v>52.43553924560547</v>
       </c>
       <c r="D33" t="n">
-        <v>36.56010818481445</v>
+        <v>23.07626724243164</v>
       </c>
       <c r="E33" t="n">
-        <v>-10.54804229736328</v>
+        <v>-30.34771728515625</v>
       </c>
       <c r="F33" t="n">
-        <v>51.75467300415039</v>
+        <v>16.11880874633789</v>
       </c>
       <c r="G33" t="n">
-        <v>66.18471527099609</v>
+        <v>57.00459671020508</v>
       </c>
       <c r="H33" t="n">
-        <v>-64.21340942382812</v>
+        <v>-78.56444549560547</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>0.2907773113250733</v>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="n">
-        <v>-8.568577827044006</v>
+        <v>0.5262205112140415</v>
       </c>
       <c r="C34" t="n">
-        <v>32.25772857666016</v>
+        <v>52.46493530273438</v>
       </c>
       <c r="D34" t="n">
-        <v>36.14013671875</v>
+        <v>23.08946418762207</v>
       </c>
       <c r="E34" t="n">
-        <v>-10.67277431488037</v>
+        <v>-30.39144706726074</v>
       </c>
       <c r="F34" t="n">
-        <v>51.3032112121582</v>
+        <v>15.993483543396</v>
       </c>
       <c r="G34" t="n">
-        <v>66.55873870849609</v>
+        <v>57.03155136108398</v>
       </c>
       <c r="H34" t="n">
-        <v>-63.79631805419922</v>
+        <v>-78.54461669921875</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>0.667030876385454</v>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="n">
-        <v>25.1024059614723</v>
+        <v>0.5676878827544407</v>
       </c>
       <c r="C35" t="n">
-        <v>32.68334579467773</v>
+        <v>52.49296188354492</v>
       </c>
       <c r="D35" t="n">
-        <v>35.69026947021484</v>
+        <v>23.10143852233887</v>
       </c>
       <c r="E35" t="n">
-        <v>-10.8283052444458</v>
+        <v>-30.43391036987305</v>
       </c>
       <c r="F35" t="n">
-        <v>50.81634521484375</v>
+        <v>15.87653827667236</v>
       </c>
       <c r="G35" t="n">
-        <v>66.88861083984375</v>
+        <v>57.05709075927734</v>
       </c>
       <c r="H35" t="n">
-        <v>-63.39295959472656</v>
+        <v>-78.5223388671875</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>0.8707335041036637</v>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
-        <v>-59.56196049160141</v>
+        <v>0.6033475992040516</v>
       </c>
       <c r="C36" t="n">
-        <v>33.12030410766602</v>
+        <v>52.51984024047852</v>
       </c>
       <c r="D36" t="n">
-        <v>35.2166748046875</v>
+        <v>23.11241340637207</v>
       </c>
       <c r="E36" t="n">
-        <v>-11.01097679138184</v>
+        <v>-30.47508239746094</v>
       </c>
       <c r="F36" t="n">
-        <v>50.29981231689453</v>
+        <v>15.76735496520996</v>
       </c>
       <c r="G36" t="n">
-        <v>67.17951965332031</v>
+        <v>57.08146286010742</v>
       </c>
       <c r="H36" t="n">
-        <v>-63.00619506835938</v>
+        <v>-78.49794769287109</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>0.9605209236738963</v>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="n">
-        <v>141.9036671344607</v>
+        <v>0.6341984927808618</v>
       </c>
       <c r="C37" t="n">
-        <v>33.56562042236328</v>
+        <v>52.54575729370117</v>
       </c>
       <c r="D37" t="n">
-        <v>34.72363662719727</v>
+        <v>23.12258529663086</v>
       </c>
       <c r="E37" t="n">
-        <v>-11.21633911132812</v>
+        <v>-30.51498222351074</v>
       </c>
       <c r="F37" t="n">
-        <v>49.7580680847168</v>
+        <v>15.66533851623535</v>
       </c>
       <c r="G37" t="n">
-        <v>67.43780517578125</v>
+        <v>57.10481262207031</v>
       </c>
       <c r="H37" t="n">
-        <v>-62.63649368286133</v>
+        <v>-78.47187042236328</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>0.9912546021092511</v>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="n">
-        <v>-304.4994798243903</v>
+        <v>0.661038406502373</v>
       </c>
       <c r="C38" t="n">
-        <v>34.01670837402344</v>
+        <v>52.57081985473633</v>
       </c>
       <c r="D38" t="n">
-        <v>34.21457672119141</v>
+        <v>23.13210296630859</v>
       </c>
       <c r="E38" t="n">
-        <v>-11.44033718109131</v>
+        <v>-30.55357551574707</v>
       </c>
       <c r="F38" t="n">
-        <v>49.1946907043457</v>
+        <v>15.56987953186035</v>
       </c>
       <c r="G38" t="n">
-        <v>67.66914367675781</v>
+        <v>57.12725830078125</v>
       </c>
       <c r="H38" t="n">
-        <v>-62.28370666503906</v>
+        <v>-78.44439697265625</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>0.9988014289984156</v>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
-        <v>611.6810683141252</v>
+        <v>0.6845103304254061</v>
       </c>
       <c r="C39" t="n">
-        <v>34.47091293334961</v>
+        <v>52.59516143798828</v>
       </c>
       <c r="D39" t="n">
-        <v>33.69296646118164</v>
+        <v>23.14111328125</v>
       </c>
       <c r="E39" t="n">
-        <v>-11.67935562133789</v>
+        <v>-30.59086608886719</v>
       </c>
       <c r="F39" t="n">
-        <v>48.61300277709961</v>
+        <v>15.48046493530273</v>
       </c>
       <c r="G39" t="n">
-        <v>67.87834167480469</v>
+        <v>57.14896392822266</v>
       </c>
       <c r="H39" t="n">
-        <v>-61.94760131835938</v>
+        <v>-78.41579437255859</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>0.9999370651537728</v>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="n">
-        <v>-1115.046669300508</v>
+        <v>0.70513670464367</v>
       </c>
       <c r="C40" t="n">
-        <v>34.92552185058594</v>
+        <v>52.61886215209961</v>
       </c>
       <c r="D40" t="n">
-        <v>33.16229629516602</v>
+        <v>23.14975166320801</v>
       </c>
       <c r="E40" t="n">
-        <v>-11.92999458312988</v>
+        <v>-30.62684059143066</v>
       </c>
       <c r="F40" t="n">
-        <v>48.01618194580078</v>
+        <v>15.39665603637695</v>
       </c>
       <c r="G40" t="n">
-        <v>68.06945037841797</v>
+        <v>57.17009353637695</v>
       </c>
       <c r="H40" t="n">
-        <v>-61.62774658203125</v>
+        <v>-78.38631439208984</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>1.000001990589664</v>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
-        <v>1846.089208923913</v>
+        <v>0.7233453944043526</v>
       </c>
       <c r="C41" t="n">
-        <v>35.37794876098633</v>
+        <v>52.64200210571289</v>
       </c>
       <c r="D41" t="n">
-        <v>32.62591171264648</v>
+        <v>23.15812683105469</v>
       </c>
       <c r="E41" t="n">
-        <v>-12.18891143798828</v>
+        <v>-30.66152572631836</v>
       </c>
       <c r="F41" t="n">
-        <v>47.40741729736328</v>
+        <v>15.31808471679688</v>
       </c>
       <c r="G41" t="n">
-        <v>68.24596405029297</v>
+        <v>57.19082641601562</v>
       </c>
       <c r="H41" t="n">
-        <v>-61.32371139526367</v>
+        <v>-78.35612487792969</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>0.9999997712839332</v>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="n">
-        <v>-2725.489956129723</v>
+        <v>0.7394892657787866</v>
       </c>
       <c r="C42" t="n">
-        <v>35.82570648193359</v>
+        <v>52.66459274291992</v>
       </c>
       <c r="D42" t="n">
-        <v>32.08683395385742</v>
+        <v>23.16632843017578</v>
       </c>
       <c r="E42" t="n">
-        <v>-12.45292472839355</v>
+        <v>-30.69491577148438</v>
       </c>
       <c r="F42" t="n">
-        <v>46.79022216796875</v>
+        <v>15.24442863464355</v>
       </c>
       <c r="G42" t="n">
-        <v>68.41075897216797</v>
+        <v>57.21121215820312</v>
       </c>
       <c r="H42" t="n">
-        <v>-61.03569030761719</v>
+        <v>-78.32550811767578</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>1.000000045020935</v>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="n">
-        <v>3551.220665994673</v>
+        <v>0.75385996769639</v>
       </c>
       <c r="C43" t="n">
-        <v>36.26633453369141</v>
+        <v>52.68670654296875</v>
       </c>
       <c r="D43" t="n">
-        <v>31.5477466583252</v>
+        <v>23.17440032958984</v>
       </c>
       <c r="E43" t="n">
-        <v>-12.71909618377686</v>
+        <v>-30.7270679473877</v>
       </c>
       <c r="F43" t="n">
-        <v>46.16920852661133</v>
+        <v>15.17529678344727</v>
       </c>
       <c r="G43" t="n">
-        <v>68.56582641601562</v>
+        <v>57.23126220703125</v>
       </c>
       <c r="H43" t="n">
-        <v>-60.76520156860352</v>
+        <v>-78.29463195800781</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>0.9999999875168497</v>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="n">
-        <v>-4004.938623308213</v>
+        <v>0.76670000471311</v>
       </c>
       <c r="C44" t="n">
-        <v>36.69883728027344</v>
+        <v>52.70840454101562</v>
       </c>
       <c r="D44" t="n">
-        <v>31.00944328308105</v>
+        <v>23.18235397338867</v>
       </c>
       <c r="E44" t="n">
-        <v>-12.98559188842773</v>
+        <v>-30.75801467895508</v>
       </c>
       <c r="F44" t="n">
-        <v>45.54916381835938</v>
+        <v>15.11033153533936</v>
       </c>
       <c r="G44" t="n">
-        <v>68.71248626708984</v>
+        <v>57.25094223022461</v>
       </c>
       <c r="H44" t="n">
-        <v>-60.51450729370117</v>
+        <v>-78.26363372802734</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>1.000000004445664</v>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="n">
-        <v>3843.062301778264</v>
+        <v>0.7782121604465098</v>
       </c>
       <c r="C45" t="n">
-        <v>37.12287902832031</v>
+        <v>52.72969436645508</v>
       </c>
       <c r="D45" t="n">
-        <v>30.47298240661621</v>
+        <v>23.19015884399414</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.25053119659424</v>
+        <v>-30.78778648376465</v>
       </c>
       <c r="F45" t="n">
-        <v>44.93637466430664</v>
+        <v>15.04920864105225</v>
       </c>
       <c r="G45" t="n">
-        <v>68.85084533691406</v>
+        <v>57.27010345458984</v>
       </c>
       <c r="H45" t="n">
-        <v>-60.28802108764648</v>
+        <v>-78.23267364501953</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>0.9999999980751348</v>
-      </c>
+      <c r="A46" t="inlineStr"/>
       <c r="B46" t="n">
-        <v>-3055.790117088241</v>
+        <v>0.7885668824262866</v>
       </c>
       <c r="C46" t="n">
-        <v>37.53607940673828</v>
+        <v>52.75064468383789</v>
       </c>
       <c r="D46" t="n">
-        <v>29.94160652160645</v>
+        <v>23.19780921936035</v>
       </c>
       <c r="E46" t="n">
-        <v>-13.51146602630615</v>
+        <v>-30.8164005279541</v>
       </c>
       <c r="F46" t="n">
-        <v>44.33957290649414</v>
+        <v>14.99162769317627</v>
       </c>
       <c r="G46" t="n">
-        <v>68.97999572753906</v>
+        <v>57.2886848449707</v>
       </c>
       <c r="H46" t="n">
-        <v>-60.09235382080078</v>
+        <v>-78.20198822021484</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>1.000000000976188</v>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="n">
-        <v>1949.413071058995</v>
+        <v>0.7979098338766017</v>
       </c>
       <c r="C47" t="n">
-        <v>37.93490982055664</v>
+        <v>52.77117538452148</v>
       </c>
       <c r="D47" t="n">
-        <v>29.41988372802734</v>
+        <v>23.2053279876709</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.76687431335449</v>
+        <v>-30.84387397766113</v>
       </c>
       <c r="F47" t="n">
-        <v>43.7646598815918</v>
+        <v>14.93747901916504</v>
       </c>
       <c r="G47" t="n">
-        <v>69.09963989257812</v>
+        <v>57.30667495727539</v>
       </c>
       <c r="H47" t="n">
-        <v>-59.93006896972656</v>
+        <v>-78.17177581787109</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>0.9999999994356727</v>
-      </c>
+      <c r="A48" t="inlineStr"/>
       <c r="B48" t="n">
-        <v>-940.2807184365136</v>
+        <v>0.8063676926380999</v>
       </c>
       <c r="C48" t="n">
-        <v>38.31640625</v>
+        <v>52.79117965698242</v>
       </c>
       <c r="D48" t="n">
-        <v>28.91374015808105</v>
+        <v>23.21276092529297</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.01546382904053</v>
+        <v>-30.87016296386719</v>
       </c>
       <c r="F48" t="n">
-        <v>43.21232604980469</v>
+        <v>14.88684272766113</v>
       </c>
       <c r="G48" t="n">
-        <v>69.210693359375</v>
+        <v>57.32430648803711</v>
       </c>
       <c r="H48" t="n">
-        <v>-59.79650497436523</v>
+        <v>-78.14237213134766</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>1.0000000003643</v>
-      </c>
+      <c r="A49" t="inlineStr"/>
       <c r="B49" t="n">
-        <v>314.4681173546441</v>
+        <v>0.8140501346317532</v>
       </c>
       <c r="C49" t="n">
-        <v>38.67912673950195</v>
+        <v>52.81052780151367</v>
       </c>
       <c r="D49" t="n">
-        <v>28.42815589904785</v>
+        <v>23.22007179260254</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.25522327423096</v>
+        <v>-30.89526176452637</v>
       </c>
       <c r="F49" t="n">
-        <v>42.68035125732422</v>
+        <v>14.83968067169189</v>
       </c>
       <c r="G49" t="n">
-        <v>69.31559753417969</v>
+        <v>57.341796875</v>
       </c>
       <c r="H49" t="n">
-        <v>-59.68195724487305</v>
+        <v>-78.11395263671875</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>0.9999999997415485</v>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="n">
-        <v>-58.25894877588064</v>
+        <v>0.8210494875485318</v>
       </c>
       <c r="C50" t="n">
-        <v>39.02272415161133</v>
+        <v>52.82912445068359</v>
       </c>
       <c r="D50" t="n">
-        <v>27.96530914306641</v>
+        <v>23.22702407836914</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.48331165313721</v>
+        <v>-30.91909790039062</v>
       </c>
       <c r="F50" t="n">
-        <v>42.16981887817383</v>
+        <v>14.7955961227417</v>
       </c>
       <c r="G50" t="n">
-        <v>69.41623687744141</v>
+        <v>57.35877227783203</v>
       </c>
       <c r="H50" t="n">
-        <v>-59.58099746704102</v>
+        <v>-78.08663177490234</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>1.000000000198889</v>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="n">
-        <v>3.985509267483209</v>
+        <v>0.8274408473026429</v>
       </c>
       <c r="C51" t="n">
-        <v>39.34586715698242</v>
+        <v>52.84700775146484</v>
       </c>
       <c r="D51" t="n">
-        <v>27.52589225769043</v>
+        <v>23.2332935333252</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.69736194610596</v>
+        <v>-30.94166564941406</v>
       </c>
       <c r="F51" t="n">
-        <v>41.6870231628418</v>
+        <v>14.75387763977051</v>
       </c>
       <c r="G51" t="n">
-        <v>69.51213836669922</v>
+        <v>57.37436294555664</v>
       </c>
       <c r="H51" t="n">
-        <v>-59.49745559692383</v>
+        <v>-78.06053161621094</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>0.9999999998358482</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B52" t="n">
-        <v>1.983331247380155</v>
+        <v>0.8332854707967937</v>
       </c>
       <c r="C52" t="n">
-        <v>39.64592742919922</v>
+        <v>52.86430740356445</v>
       </c>
       <c r="D52" t="n">
-        <v>27.11117172241211</v>
+        <v>23.23865509033203</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.89572620391846</v>
+        <v>-30.96296119689941</v>
       </c>
       <c r="F52" t="n">
-        <v>41.23821640014648</v>
+        <v>14.71388530731201</v>
       </c>
       <c r="G52" t="n">
-        <v>69.60213470458984</v>
+        <v>57.38779067993164</v>
       </c>
       <c r="H52" t="n">
-        <v>-59.43792343139648</v>
+        <v>-78.03567504882812</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>-0.4645205861330032</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B53" t="n">
-        <v>1.983331247380155</v>
+        <v>0.5129990559816361</v>
       </c>
       <c r="C53" t="n">
-        <v>39.92076110839844</v>
+        <v>52.8811149597168</v>
       </c>
       <c r="D53" t="n">
-        <v>26.72349739074707</v>
+        <v>23.24288749694824</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.07673835754395</v>
+        <v>-30.98297500610352</v>
       </c>
       <c r="F53" t="n">
-        <v>40.82194519042969</v>
+        <v>14.67503452301025</v>
       </c>
       <c r="G53" t="n">
-        <v>69.68777465820312</v>
+        <v>57.39852523803711</v>
       </c>
       <c r="H53" t="n">
-        <v>-59.40068817138672</v>
+        <v>-78.01226806640625</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>-0.4909798091650009</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B54" t="n">
-        <v>0.04674127086997033</v>
+        <v>0.5138231247663498</v>
       </c>
       <c r="C54" t="n">
-        <v>40.189208984375</v>
+        <v>52.89769744873047</v>
       </c>
       <c r="D54" t="n">
-        <v>26.3587818145752</v>
+        <v>23.24960708618164</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.23126220703125</v>
+        <v>-31.00241279602051</v>
       </c>
       <c r="F54" t="n">
-        <v>40.37570571899414</v>
+        <v>14.6413402557373</v>
       </c>
       <c r="G54" t="n">
-        <v>69.79701232910156</v>
+        <v>57.41437149047852</v>
       </c>
       <c r="H54" t="n">
-        <v>-59.30298233032227</v>
+        <v>-77.98838806152344</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>-0.5147150182724</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1076868690550327</v>
+        <v>0.5145939004421234</v>
       </c>
       <c r="C55" t="n">
-        <v>40.43001937866211</v>
+        <v>52.91362762451172</v>
       </c>
       <c r="D55" t="n">
-        <v>26.02416038513184</v>
+        <v>23.25593185424805</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.37374401092529</v>
+        <v>-31.0207576751709</v>
       </c>
       <c r="F55" t="n">
-        <v>39.96105194091797</v>
+        <v>14.60982704162598</v>
       </c>
       <c r="G55" t="n">
-        <v>69.90036010742188</v>
+        <v>57.4293212890625</v>
       </c>
       <c r="H55" t="n">
-        <v>-59.22306060791016</v>
+        <v>-77.96576690673828</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>-0.5358750677108765</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1640774780511856</v>
+        <v>0.5153191858530045</v>
       </c>
       <c r="C56" t="n">
-        <v>40.64470291137695</v>
+        <v>52.92887115478516</v>
       </c>
       <c r="D56" t="n">
-        <v>25.71967124938965</v>
+        <v>23.26175498962402</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.50413227081299</v>
+        <v>-31.03800964355469</v>
       </c>
       <c r="F56" t="n">
-        <v>39.57738876342773</v>
+        <v>14.58017253875732</v>
       </c>
       <c r="G56" t="n">
-        <v>69.99872589111328</v>
+        <v>57.44314956665039</v>
       </c>
       <c r="H56" t="n">
-        <v>-59.15814208984375</v>
+        <v>-77.94435119628906</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>-0.5545407342910766</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2159647008776665</v>
+        <v>0.5160020136833191</v>
       </c>
       <c r="C57" t="n">
-        <v>40.83407974243164</v>
+        <v>52.94343948364258</v>
       </c>
       <c r="D57" t="n">
-        <v>25.44484710693359</v>
+        <v>23.26704025268555</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.62246608734131</v>
+        <v>-31.05417823791504</v>
       </c>
       <c r="F57" t="n">
-        <v>39.224365234375</v>
+        <v>14.55225563049316</v>
       </c>
       <c r="G57" t="n">
-        <v>70.09249114990234</v>
+        <v>57.45572662353516</v>
       </c>
       <c r="H57" t="n">
-        <v>-59.10659027099609</v>
+        <v>-77.92430114746094</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>-0.570802366733551</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2633905607461929</v>
+        <v>0.5166451954841614</v>
       </c>
       <c r="C58" t="n">
-        <v>40.99906539916992</v>
+        <v>52.95731353759766</v>
       </c>
       <c r="D58" t="n">
-        <v>25.19892883300781</v>
+        <v>23.27178382873535</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.72880077362061</v>
+        <v>-31.06928443908691</v>
       </c>
       <c r="F58" t="n">
-        <v>38.90169525146484</v>
+        <v>14.52595996856689</v>
       </c>
       <c r="G58" t="n">
-        <v>70.18207550048828</v>
+        <v>57.46701812744141</v>
       </c>
       <c r="H58" t="n">
-        <v>-59.06702041625977</v>
+        <v>-77.90565490722656</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>-0.58478133559227</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3064089035987854</v>
+        <v>0.5172512900829316</v>
       </c>
       <c r="C59" t="n">
-        <v>41.14089202880859</v>
+        <v>52.97048950195312</v>
       </c>
       <c r="D59" t="n">
-        <v>24.98067855834961</v>
+        <v>23.27596664428711</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.82329559326172</v>
+        <v>-31.08332633972168</v>
       </c>
       <c r="F59" t="n">
-        <v>38.60901260375977</v>
+        <v>14.50117969512939</v>
       </c>
       <c r="G59" t="n">
-        <v>70.26789093017578</v>
+        <v>57.47697830200195</v>
       </c>
       <c r="H59" t="n">
-        <v>-59.03834915161133</v>
+        <v>-77.88840484619141</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>-0.5966450071334839</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B60" t="n">
-        <v>0.3451010274887085</v>
+        <v>0.5178232353925705</v>
       </c>
       <c r="C60" t="n">
-        <v>41.26125717163086</v>
+        <v>52.98296737670898</v>
       </c>
       <c r="D60" t="n">
-        <v>24.78825187683105</v>
+        <v>23.27957344055176</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.90608406066895</v>
+        <v>-31.09634590148926</v>
       </c>
       <c r="F60" t="n">
-        <v>38.34576416015625</v>
+        <v>14.47779560089111</v>
       </c>
       <c r="G60" t="n">
-        <v>70.35048675537109</v>
+        <v>57.48557662963867</v>
       </c>
       <c r="H60" t="n">
-        <v>-59.01935195922852</v>
+        <v>-77.87261199951172</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>-0.6065072333812714</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B61" t="n">
-        <v>0.3795157080888749</v>
+        <v>0.5183633691072465</v>
       </c>
       <c r="C61" t="n">
-        <v>41.3613166809082</v>
+        <v>52.99478912353516</v>
       </c>
       <c r="D61" t="n">
-        <v>24.6201171875</v>
+        <v>23.28263473510742</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.97741222381592</v>
+        <v>-31.1084156036377</v>
       </c>
       <c r="F61" t="n">
-        <v>38.11161804199219</v>
+        <v>14.45571231842041</v>
       </c>
       <c r="G61" t="n">
-        <v>70.43026733398438</v>
+        <v>57.49290084838867</v>
       </c>
       <c r="H61" t="n">
-        <v>-59.00940704345703</v>
+        <v>-77.85816955566406</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>-0.6145805549621582</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B62" t="n">
-        <v>0.4098233759403229</v>
+        <v>0.5188737761974335</v>
       </c>
       <c r="C62" t="n">
-        <v>41.4432258605957</v>
+        <v>53.00596618652344</v>
       </c>
       <c r="D62" t="n">
-        <v>24.47387313842773</v>
+        <v>23.28516960144043</v>
       </c>
       <c r="E62" t="n">
-        <v>-16.03753471374512</v>
+        <v>-31.11956405639648</v>
       </c>
       <c r="F62" t="n">
-        <v>37.90541458129883</v>
+        <v>14.43484306335449</v>
       </c>
       <c r="G62" t="n">
-        <v>70.50782012939453</v>
+        <v>57.4990119934082</v>
       </c>
       <c r="H62" t="n">
-        <v>-59.00706100463867</v>
+        <v>-77.84506988525391</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>-0.6210009372234345</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B63" t="n">
-        <v>0.4361468547582626</v>
+        <v>0.5193568259477616</v>
       </c>
       <c r="C63" t="n">
-        <v>41.50836563110352</v>
+        <v>53.01653671264648</v>
       </c>
       <c r="D63" t="n">
-        <v>24.34774017333984</v>
+        <v>23.2872314453125</v>
       </c>
       <c r="E63" t="n">
-        <v>-16.08677101135254</v>
+        <v>-31.12989616394043</v>
       </c>
       <c r="F63" t="n">
-        <v>37.726318359375</v>
+        <v>14.4150915145874</v>
       </c>
       <c r="G63" t="n">
-        <v>70.58356475830078</v>
+        <v>57.50402450561523</v>
       </c>
       <c r="H63" t="n">
-        <v>-59.0115966796875</v>
+        <v>-77.83312225341797</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>-0.6259433913230896</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B64" t="n">
-        <v>0.4586997276544571</v>
+        <v>0.5198143821954727</v>
       </c>
       <c r="C64" t="n">
-        <v>41.55850982666016</v>
+        <v>53.02653884887695</v>
       </c>
       <c r="D64" t="n">
-        <v>24.23957633972168</v>
+        <v>23.28884887695312</v>
       </c>
       <c r="E64" t="n">
-        <v>-16.12558174133301</v>
+        <v>-31.13946342468262</v>
       </c>
       <c r="F64" t="n">
-        <v>37.5728759765625</v>
+        <v>14.39638614654541</v>
       </c>
       <c r="G64" t="n">
-        <v>70.65795135498047</v>
+        <v>57.50803375244141</v>
       </c>
       <c r="H64" t="n">
-        <v>-59.02190780639648</v>
+        <v>-77.82233428955078</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>-0.6295589196681977</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B65" t="n">
-        <v>0.4776978838443756</v>
+        <v>0.5202484351396561</v>
       </c>
       <c r="C65" t="n">
-        <v>41.59519195556641</v>
+        <v>53.03601837158203</v>
       </c>
       <c r="D65" t="n">
-        <v>24.14764785766602</v>
+        <v>23.29006195068359</v>
       </c>
       <c r="E65" t="n">
-        <v>-16.15446853637695</v>
+        <v>-31.14833068847656</v>
       </c>
       <c r="F65" t="n">
-        <v>37.44361877441406</v>
+        <v>14.37863826751709</v>
       </c>
       <c r="G65" t="n">
-        <v>70.73123931884766</v>
+        <v>57.51113510131836</v>
       </c>
       <c r="H65" t="n">
-        <v>-59.03718185424805</v>
+        <v>-77.81256103515625</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>-0.6319573307037354</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B66" t="n">
-        <v>0.4933414804935455</v>
+        <v>0.5206602799892426</v>
       </c>
       <c r="C66" t="n">
-        <v>41.61952590942383</v>
+        <v>53.04498672485352</v>
       </c>
       <c r="D66" t="n">
-        <v>24.07053756713867</v>
+        <v>23.29092407226562</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.17400741577148</v>
+        <v>-31.15656661987305</v>
       </c>
       <c r="F66" t="n">
-        <v>37.33718490600586</v>
+        <v>14.36180114746094</v>
       </c>
       <c r="G66" t="n">
-        <v>70.80354309082031</v>
+        <v>57.51346969604492</v>
       </c>
       <c r="H66" t="n">
-        <v>-59.05691909790039</v>
+        <v>-77.80374145507812</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>-0.6332608795166016</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B67" t="n">
-        <v>0.5058743959665298</v>
+        <v>0.5210516858100891</v>
       </c>
       <c r="C67" t="n">
-        <v>41.63275146484375</v>
+        <v>53.05348968505859</v>
       </c>
       <c r="D67" t="n">
-        <v>24.00679969787598</v>
+        <v>23.29145622253418</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.18489265441895</v>
+        <v>-31.16422843933105</v>
       </c>
       <c r="F67" t="n">
-        <v>37.25191497802734</v>
+        <v>14.34579849243164</v>
       </c>
       <c r="G67" t="n">
-        <v>70.87492370605469</v>
+        <v>57.51510620117188</v>
       </c>
       <c r="H67" t="n">
-        <v>-59.08052444458008</v>
+        <v>-77.79580688476562</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>-0.6335805118083954</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B68" t="n">
-        <v>0.5155344116687774</v>
+        <v>0.521424263715744</v>
       </c>
       <c r="C68" t="n">
-        <v>41.63599395751953</v>
+        <v>53.06155395507812</v>
       </c>
       <c r="D68" t="n">
-        <v>23.95522117614746</v>
+        <v>23.29169273376465</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.18780136108398</v>
+        <v>-31.1713695526123</v>
       </c>
       <c r="F68" t="n">
-        <v>37.18619155883789</v>
+        <v>14.33056449890137</v>
       </c>
       <c r="G68" t="n">
-        <v>70.94535064697266</v>
+        <v>57.51611709594727</v>
       </c>
       <c r="H68" t="n">
-        <v>-59.10752868652344</v>
+        <v>-77.78865051269531</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>-0.633018012046814</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B69" t="n">
-        <v>0.5225664800405503</v>
+        <v>0.5217790877819062</v>
       </c>
       <c r="C69" t="n">
-        <v>41.63028717041016</v>
+        <v>53.06919097900391</v>
       </c>
       <c r="D69" t="n">
-        <v>23.91459846496582</v>
+        <v>23.29167175292969</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.18347930908203</v>
+        <v>-31.17803001403809</v>
       </c>
       <c r="F69" t="n">
-        <v>37.13834762573242</v>
+        <v>14.3160572052002</v>
       </c>
       <c r="G69" t="n">
-        <v>71.01470947265625</v>
+        <v>57.51658248901367</v>
       </c>
       <c r="H69" t="n">
-        <v>-59.13748931884766</v>
+        <v>-77.78223419189453</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>-0.6316422474384308</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B70" t="n">
-        <v>0.5271836787462235</v>
+        <v>0.5221175479888917</v>
       </c>
       <c r="C70" t="n">
-        <v>41.61632919311523</v>
+        <v>53.07643508911133</v>
       </c>
       <c r="D70" t="n">
-        <v>23.8841724395752</v>
+        <v>23.29141235351562</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.17268753051758</v>
+        <v>-31.18425750732422</v>
       </c>
       <c r="F70" t="n">
-        <v>37.10693359375</v>
+        <v>14.30221939086914</v>
       </c>
       <c r="G70" t="n">
-        <v>71.08282470703125</v>
+        <v>57.51658248901367</v>
       </c>
       <c r="H70" t="n">
-        <v>-59.17036437988281</v>
+        <v>-77.7764892578125</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>-0.6295250546932221</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B71" t="n">
-        <v>0.5295912510156632</v>
+        <v>0.5224405604600907</v>
       </c>
       <c r="C71" t="n">
-        <v>41.5948486328125</v>
+        <v>53.08330535888672</v>
       </c>
       <c r="D71" t="n">
-        <v>23.86313819885254</v>
+        <v>23.29094696044922</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.1561393737793</v>
+        <v>-31.19009780883789</v>
       </c>
       <c r="F71" t="n">
-        <v>37.09055328369141</v>
+        <v>14.28901386260986</v>
       </c>
       <c r="G71" t="n">
-        <v>71.14939117431641</v>
+        <v>57.51616287231445</v>
       </c>
       <c r="H71" t="n">
-        <v>-59.20601272583008</v>
+        <v>-77.77134704589844</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>-0.6267341005802155</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B72" t="n">
-        <v>0.53</v>
+        <v>0.5227491044998169</v>
       </c>
       <c r="C72" t="n">
-        <v>41.56653213500977</v>
+        <v>53.08982086181641</v>
       </c>
       <c r="D72" t="n">
-        <v>23.8507194519043</v>
+        <v>23.2903003692627</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.13459777832031</v>
+        <v>-31.19557952880859</v>
       </c>
       <c r="F72" t="n">
-        <v>37.08777236938477</v>
+        <v>14.27639675140381</v>
       </c>
       <c r="G72" t="n">
-        <v>71.21421051025391</v>
+        <v>57.515380859375</v>
       </c>
       <c r="H72" t="n">
-        <v>-59.24434280395508</v>
+        <v>-77.76677703857422</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>-0.623333261013031</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B73" t="n">
-        <v>0.5285904335975647</v>
+        <v>0.5230441910028458</v>
       </c>
       <c r="C73" t="n">
-        <v>41.53202819824219</v>
+        <v>53.09598922729492</v>
       </c>
       <c r="D73" t="n">
-        <v>23.84624671936035</v>
+        <v>23.28949737548828</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.10869979858398</v>
+        <v>-31.20072174072266</v>
       </c>
       <c r="F73" t="n">
-        <v>37.09736251831055</v>
+        <v>14.26433372497559</v>
       </c>
       <c r="G73" t="n">
-        <v>71.27700805664062</v>
+        <v>57.51430130004883</v>
       </c>
       <c r="H73" t="n">
-        <v>-59.28525161743164</v>
+        <v>-77.76271057128906</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>-0.6193797147274017</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B74" t="n">
-        <v>0.5255498516559601</v>
+        <v>0.523326325416565</v>
       </c>
       <c r="C74" t="n">
-        <v>41.49191665649414</v>
+        <v>53.10185241699219</v>
       </c>
       <c r="D74" t="n">
-        <v>23.84902191162109</v>
+        <v>23.28856086730957</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.07912063598633</v>
+        <v>-31.20557594299316</v>
       </c>
       <c r="F74" t="n">
-        <v>37.11804962158203</v>
+        <v>14.25279808044434</v>
       </c>
       <c r="G74" t="n">
-        <v>71.3375244140625</v>
+        <v>57.51294708251953</v>
       </c>
       <c r="H74" t="n">
-        <v>-59.32868194580078</v>
+        <v>-77.75907897949219</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>-0.6149301981925964</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B75" t="n">
-        <v>0.5210414189100265</v>
+        <v>0.523596265912056</v>
       </c>
       <c r="C75" t="n">
-        <v>41.44677352905273</v>
+        <v>53.10739517211914</v>
       </c>
       <c r="D75" t="n">
-        <v>23.85844802856445</v>
+        <v>23.28751182556152</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.04644966125488</v>
+        <v>-31.21015548706055</v>
       </c>
       <c r="F75" t="n">
-        <v>37.14872360229492</v>
+        <v>14.24176216125488</v>
       </c>
       <c r="G75" t="n">
-        <v>71.39557647705078</v>
+        <v>57.51138687133789</v>
       </c>
       <c r="H75" t="n">
-        <v>-59.3745231628418</v>
+        <v>-77.75592041015625</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>-0.6100348138809204</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B76" t="n">
-        <v>0.515223782658577</v>
+        <v>0.5238550233840943</v>
       </c>
       <c r="C76" t="n">
-        <v>41.3971061706543</v>
+        <v>53.11264801025391</v>
       </c>
       <c r="D76" t="n">
-        <v>23.87394714355469</v>
+        <v>23.28636741638184</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.01127433776855</v>
+        <v>-31.2144889831543</v>
       </c>
       <c r="F76" t="n">
-        <v>37.18830490112305</v>
+        <v>14.23118305206299</v>
       </c>
       <c r="G76" t="n">
-        <v>71.45089721679688</v>
+        <v>57.50963973999023</v>
       </c>
       <c r="H76" t="n">
-        <v>-59.42269134521484</v>
+        <v>-77.75312042236328</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>-0.6047438538074493</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B77" t="n">
-        <v>0.5082472187280656</v>
+        <v>0.5241028505563736</v>
       </c>
       <c r="C77" t="n">
-        <v>41.34342575073242</v>
+        <v>53.11762619018555</v>
       </c>
       <c r="D77" t="n">
-        <v>23.89496231079102</v>
+        <v>23.28514099121094</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.97411727905273</v>
+        <v>-31.21858978271484</v>
       </c>
       <c r="F77" t="n">
-        <v>37.23577117919922</v>
+        <v>14.22104930877686</v>
       </c>
       <c r="G77" t="n">
-        <v>71.50337982177734</v>
+        <v>57.50772857666016</v>
       </c>
       <c r="H77" t="n">
-        <v>-59.47305679321289</v>
+        <v>-77.75067901611328</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>-0.5991152548789979</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B78" t="n">
-        <v>0.5002597284317016</v>
+        <v>0.5243405687808991</v>
       </c>
       <c r="C78" t="n">
-        <v>41.28631973266602</v>
+        <v>53.12234497070312</v>
       </c>
       <c r="D78" t="n">
-        <v>23.92085075378418</v>
+        <v>23.28385162353516</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.93543720245361</v>
+        <v>-31.22246742248535</v>
       </c>
       <c r="F78" t="n">
-        <v>37.29011535644531</v>
+        <v>14.21133041381836</v>
       </c>
       <c r="G78" t="n">
-        <v>71.55293273925781</v>
+        <v>57.50571060180664</v>
       </c>
       <c r="H78" t="n">
-        <v>-59.52525329589844</v>
+        <v>-77.74851226806641</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>-0.593191158771515</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B79" t="n">
-        <v>0.4913964557647705</v>
+        <v>0.5245682412385941</v>
       </c>
       <c r="C79" t="n">
-        <v>41.22621536254883</v>
+        <v>53.12680053710938</v>
       </c>
       <c r="D79" t="n">
-        <v>23.95111083984375</v>
+        <v>23.28251647949219</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.89568901062012</v>
+        <v>-31.22616004943848</v>
       </c>
       <c r="F79" t="n">
-        <v>37.35041809082031</v>
+        <v>14.20202159881592</v>
       </c>
       <c r="G79" t="n">
-        <v>71.5994873046875</v>
+        <v>57.50359344482422</v>
       </c>
       <c r="H79" t="n">
-        <v>-59.57915115356445</v>
+        <v>-77.74668121337891</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>-0.5870132648944855</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B80" t="n">
-        <v>0.4817628180980683</v>
+        <v>0.5247868472337723</v>
       </c>
       <c r="C80" t="n">
-        <v>41.16353607177734</v>
+        <v>53.13101959228516</v>
       </c>
       <c r="D80" t="n">
-        <v>23.98528099060059</v>
+        <v>23.2811450958252</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.85523891448975</v>
+        <v>-31.22966384887695</v>
       </c>
       <c r="F80" t="n">
-        <v>37.41596221923828</v>
+        <v>14.19308567047119</v>
       </c>
       <c r="G80" t="n">
-        <v>71.64300537109375</v>
+        <v>57.50138854980469</v>
       </c>
       <c r="H80" t="n">
-        <v>-59.63455200195312</v>
+        <v>-77.74508666992188</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>-0.5806495559215546</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B81" t="n">
-        <v>0.4715242230892182</v>
+        <v>0.5249963867664338</v>
       </c>
       <c r="C81" t="n">
-        <v>41.09897232055664</v>
+        <v>53.13501739501953</v>
       </c>
       <c r="D81" t="n">
-        <v>24.02258682250977</v>
+        <v>23.27975082397461</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.81442451477051</v>
+        <v>-31.23299789428711</v>
       </c>
       <c r="F81" t="n">
-        <v>37.48562240600586</v>
+        <v>14.18451690673828</v>
       </c>
       <c r="G81" t="n">
-        <v>71.68367767333984</v>
+        <v>57.4991569519043</v>
       </c>
       <c r="H81" t="n">
-        <v>-59.6907844543457</v>
+        <v>-77.74372863769531</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>-0.5741611278057098</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B82" t="n">
-        <v>0.4608202373981476</v>
+        <v>0.5251973652839661</v>
       </c>
       <c r="C82" t="n">
-        <v>41.03314208984375</v>
+        <v>53.1387939453125</v>
       </c>
       <c r="D82" t="n">
-        <v>24.06235694885254</v>
+        <v>23.27834129333496</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.77354145050049</v>
+        <v>-31.23617553710938</v>
       </c>
       <c r="F82" t="n">
-        <v>37.55844879150391</v>
+        <v>14.17630004882812</v>
       </c>
       <c r="G82" t="n">
-        <v>71.72159576416016</v>
+        <v>57.49687194824219</v>
       </c>
       <c r="H82" t="n">
-        <v>-59.74721145629883</v>
+        <v>-77.74256896972656</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>-0.5675090610980987</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B83" t="n">
-        <v>0.4496121942996979</v>
+        <v>0.5253904461860657</v>
       </c>
       <c r="C83" t="n">
-        <v>40.96565246582031</v>
+        <v>53.14236068725586</v>
       </c>
       <c r="D83" t="n">
-        <v>24.10498237609863</v>
+        <v>23.27692604064941</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.73288345336914</v>
+        <v>-31.23920440673828</v>
       </c>
       <c r="F83" t="n">
-        <v>37.63470458984375</v>
+        <v>14.16840553283691</v>
       </c>
       <c r="G83" t="n">
-        <v>71.75645446777344</v>
+        <v>57.49456024169922</v>
       </c>
       <c r="H83" t="n">
-        <v>-59.80481719970703</v>
+        <v>-77.74156951904297</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>-0.5607171750068665</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B84" t="n">
-        <v>0.4379606527090073</v>
+        <v>0.5255755347013473</v>
       </c>
       <c r="C84" t="n">
-        <v>40.89674377441406</v>
+        <v>53.14573669433594</v>
       </c>
       <c r="D84" t="n">
-        <v>24.15016746520996</v>
+        <v>23.27551460266113</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.69266796112061</v>
+        <v>-31.24210357666016</v>
       </c>
       <c r="F84" t="n">
-        <v>37.7139778137207</v>
+        <v>14.16083812713623</v>
       </c>
       <c r="G84" t="n">
-        <v>71.78821563720703</v>
+        <v>57.49227142333984</v>
       </c>
       <c r="H84" t="n">
-        <v>-59.86362838745117</v>
+        <v>-77.74076080322266</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>1.024709615483968</v>
-      </c>
+      <c r="A85" t="inlineStr"/>
       <c r="B85" t="n">
-        <v>0.5482944020319546</v>
+        <v>0.529376880283327</v>
       </c>
       <c r="C85" t="n">
-        <v>40.82678604125977</v>
+        <v>53.14892959594727</v>
       </c>
       <c r="D85" t="n">
-        <v>24.19747352600098</v>
+        <v>23.27411460876465</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.65306663513184</v>
+        <v>-31.24485397338867</v>
       </c>
       <c r="F85" t="n">
-        <v>37.795654296875</v>
+        <v>14.15356826782227</v>
       </c>
       <c r="G85" t="n">
-        <v>71.81707000732422</v>
+        <v>57.4899787902832</v>
       </c>
       <c r="H85" t="n">
-        <v>-59.92328643798828</v>
+        <v>-77.74008178710938</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>1.024709615483968</v>
-      </c>
+      <c r="A86" t="inlineStr"/>
       <c r="B86" t="n">
-        <v>0.6474383803045838</v>
+        <v>0.5329961531577234</v>
       </c>
       <c r="C86" t="n">
-        <v>40.75611877441406</v>
+        <v>53.15194320678711</v>
       </c>
       <c r="D86" t="n">
-        <v>24.24650382995605</v>
+        <v>23.27272605895996</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.61420059204102</v>
+        <v>-31.24749183654785</v>
       </c>
       <c r="F86" t="n">
-        <v>37.87923431396484</v>
+        <v>14.14658832550049</v>
       </c>
       <c r="G86" t="n">
-        <v>71.84322357177734</v>
+        <v>57.48770523071289</v>
       </c>
       <c r="H86" t="n">
-        <v>-59.98356628417969</v>
+        <v>-77.73954010009766</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>1.004360914404689</v>
-      </c>
+      <c r="A87" t="inlineStr"/>
       <c r="B87" t="n">
-        <v>0.7331368459190599</v>
+        <v>0.5364431045171144</v>
       </c>
       <c r="C87" t="n">
-        <v>40.6850471496582</v>
+        <v>53.15479278564453</v>
       </c>
       <c r="D87" t="n">
-        <v>24.29689979553223</v>
+        <v>23.27136039733887</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.57614803314209</v>
+        <v>-31.25002098083496</v>
       </c>
       <c r="F87" t="n">
-        <v>37.96428298950195</v>
+        <v>14.13988304138184</v>
       </c>
       <c r="G87" t="n">
-        <v>71.86680603027344</v>
+        <v>57.48545837402344</v>
       </c>
       <c r="H87" t="n">
-        <v>-60.04412841796875</v>
+        <v>-77.73911285400391</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>1.004360914404689</v>
-      </c>
+      <c r="A88" t="inlineStr"/>
       <c r="B88" t="n">
-        <v>0.8043785917728988</v>
+        <v>0.5397269048847303</v>
       </c>
       <c r="C88" t="n">
-        <v>40.61381530761719</v>
+        <v>53.15748596191406</v>
       </c>
       <c r="D88" t="n">
-        <v>24.34836959838867</v>
+        <v>23.27001762390137</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.53898239135742</v>
+        <v>-31.25243759155273</v>
       </c>
       <c r="F88" t="n">
-        <v>38.0504150390625</v>
+        <v>14.13344573974609</v>
       </c>
       <c r="G88" t="n">
-        <v>71.88798522949219</v>
+        <v>57.48324584960938</v>
       </c>
       <c r="H88" t="n">
-        <v>-60.10480499267578</v>
+        <v>-77.73877716064453</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>0.9828611422207668</v>
-      </c>
+      <c r="A89" t="inlineStr"/>
       <c r="B89" t="n">
-        <v>0.8613121599032801</v>
+        <v>0.5428560573181925</v>
       </c>
       <c r="C89" t="n">
-        <v>40.54270172119141</v>
+        <v>53.16003036499023</v>
       </c>
       <c r="D89" t="n">
-        <v>24.40058135986328</v>
+        <v>23.26870536804199</v>
       </c>
       <c r="E89" t="n">
-        <v>-15.50275421142578</v>
+        <v>-31.25474739074707</v>
       </c>
       <c r="F89" t="n">
-        <v>38.13724517822266</v>
+        <v>14.12726020812988</v>
       </c>
       <c r="G89" t="n">
-        <v>71.906982421875</v>
+        <v>57.4810791015625</v>
       </c>
       <c r="H89" t="n">
-        <v>-60.16536331176758</v>
+        <v>-77.73853302001953</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>0.9828611422207668</v>
-      </c>
+      <c r="A90" t="inlineStr"/>
       <c r="B90" t="n">
-        <v>0.905029015743356</v>
+        <v>0.5458385942666723</v>
       </c>
       <c r="C90" t="n">
-        <v>40.4719352722168</v>
+        <v>53.16243743896484</v>
       </c>
       <c r="D90" t="n">
-        <v>24.45326614379883</v>
+        <v>23.26742362976074</v>
       </c>
       <c r="E90" t="n">
-        <v>-15.46750545501709</v>
+        <v>-31.25696563720703</v>
       </c>
       <c r="F90" t="n">
-        <v>38.22443008422852</v>
+        <v>14.12131881713867</v>
       </c>
       <c r="G90" t="n">
-        <v>71.92394256591797</v>
+        <v>57.47894668579102</v>
       </c>
       <c r="H90" t="n">
-        <v>-60.22554779052734</v>
+        <v>-77.73835754394531</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>0.9637908294159463</v>
-      </c>
+      <c r="A91" t="inlineStr"/>
       <c r="B91" t="n">
-        <v>0.9372629701651608</v>
+        <v>0.5486820650349196</v>
       </c>
       <c r="C91" t="n">
-        <v>40.40172576904297</v>
+        <v>53.16471862792969</v>
       </c>
       <c r="D91" t="n">
-        <v>24.50617027282715</v>
+        <v>23.26617431640625</v>
       </c>
       <c r="E91" t="n">
-        <v>-15.43325710296631</v>
+        <v>-31.25908660888672</v>
       </c>
       <c r="F91" t="n">
-        <v>38.31166076660156</v>
+        <v>14.11561107635498</v>
       </c>
       <c r="G91" t="n">
-        <v>71.93901062011719</v>
+        <v>57.47686386108398</v>
       </c>
       <c r="H91" t="n">
-        <v>-60.28518676757812</v>
+        <v>-77.73825073242188</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>0.9637908294159463</v>
-      </c>
+      <c r="A92" t="inlineStr"/>
       <c r="B92" t="n">
-        <v>0.9600696598945152</v>
+        <v>0.5513936416830532</v>
       </c>
       <c r="C92" t="n">
-        <v>40.33226013183594</v>
+        <v>53.16686630249023</v>
       </c>
       <c r="D92" t="n">
-        <v>24.5590705871582</v>
+        <v>23.26496315002441</v>
       </c>
       <c r="E92" t="n">
-        <v>-15.40002536773682</v>
+        <v>-31.26112174987793</v>
       </c>
       <c r="F92" t="n">
-        <v>38.39863586425781</v>
+        <v>14.11013317108154</v>
       </c>
       <c r="G92" t="n">
-        <v>71.95238494873047</v>
+        <v>57.474853515625</v>
       </c>
       <c r="H92" t="n">
-        <v>-60.34408187866211</v>
+        <v>-77.73818206787109</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>0.9501042725897478</v>
-      </c>
+      <c r="A93" t="inlineStr"/>
       <c r="B93" t="n">
-        <v>0.9755429270013836</v>
+        <v>0.5539797065349839</v>
       </c>
       <c r="C93" t="n">
-        <v>40.26372146606445</v>
+        <v>53.16889572143555</v>
       </c>
       <c r="D93" t="n">
-        <v>24.61176300048828</v>
+        <v>23.26379013061523</v>
       </c>
       <c r="E93" t="n">
-        <v>-15.36782169342041</v>
+        <v>-31.26307487487793</v>
       </c>
       <c r="F93" t="n">
-        <v>38.48509979248047</v>
+        <v>14.10485744476318</v>
       </c>
       <c r="G93" t="n">
-        <v>71.96420288085938</v>
+        <v>57.47288513183594</v>
       </c>
       <c r="H93" t="n">
-        <v>-60.40209579467773</v>
+        <v>-77.73818206787109</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>0.9501042725897478</v>
-      </c>
+      <c r="A94" t="inlineStr"/>
       <c r="B94" t="n">
-        <v>0.9856014631748578</v>
+        <v>0.5564466699377264</v>
       </c>
       <c r="C94" t="n">
-        <v>40.19626235961914</v>
+        <v>53.17082977294922</v>
       </c>
       <c r="D94" t="n">
-        <v>24.66406059265137</v>
+        <v>23.26265335083008</v>
       </c>
       <c r="E94" t="n">
-        <v>-15.33664894104004</v>
+        <v>-31.26494598388672</v>
       </c>
       <c r="F94" t="n">
-        <v>38.57080078125</v>
+        <v>14.09979724884033</v>
       </c>
       <c r="G94" t="n">
-        <v>71.97461700439453</v>
+        <v>57.47098922729492</v>
       </c>
       <c r="H94" t="n">
-        <v>-60.45907974243164</v>
+        <v>-77.73819732666016</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>0.9433370209818013</v>
-      </c>
+      <c r="A95" t="inlineStr"/>
       <c r="B95" t="n">
-        <v>0.9918614680958627</v>
+        <v>0.5588004314365808</v>
       </c>
       <c r="C95" t="n">
-        <v>40.13001251220703</v>
+        <v>53.17265319824219</v>
       </c>
       <c r="D95" t="n">
-        <v>24.71580123901367</v>
+        <v>23.26155662536621</v>
       </c>
       <c r="E95" t="n">
-        <v>-15.30650615692139</v>
+        <v>-31.26674652099609</v>
       </c>
       <c r="F95" t="n">
-        <v>38.655517578125</v>
+        <v>14.09493350982666</v>
       </c>
       <c r="G95" t="n">
-        <v>71.98374176025391</v>
+        <v>57.46916198730469</v>
       </c>
       <c r="H95" t="n">
-        <v>-60.51488876342773</v>
+        <v>-77.73825836181641</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>0.9433370209818013</v>
-      </c>
+      <c r="A96" t="inlineStr"/>
       <c r="B96" t="n">
-        <v>0.995588348622815</v>
+        <v>0.5610464795846595</v>
       </c>
       <c r="C96" t="n">
-        <v>40.06509780883789</v>
+        <v>53.17437362670898</v>
       </c>
       <c r="D96" t="n">
-        <v>24.76684188842773</v>
+        <v>23.26050186157227</v>
       </c>
       <c r="E96" t="n">
-        <v>-15.27738571166992</v>
+        <v>-31.26847648620605</v>
       </c>
       <c r="F96" t="n">
-        <v>38.73904418945312</v>
+        <v>14.09025573730469</v>
       </c>
       <c r="G96" t="n">
-        <v>71.99170684814453</v>
+        <v>57.46739196777344</v>
       </c>
       <c r="H96" t="n">
-        <v>-60.56937408447266</v>
+        <v>-77.73833465576172</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>0.05630161468394124</v>
-      </c>
+      <c r="A97" t="inlineStr"/>
       <c r="B97" t="n">
-        <v>0.9977091057278308</v>
+        <v>0.5631901805612691</v>
       </c>
       <c r="C97" t="n">
-        <v>40.00162506103516</v>
+        <v>53.17601776123047</v>
       </c>
       <c r="D97" t="n">
-        <v>24.81705665588379</v>
+        <v>23.25948524475098</v>
       </c>
       <c r="E97" t="n">
-        <v>-15.24928665161133</v>
+        <v>-31.27012825012207</v>
       </c>
       <c r="F97" t="n">
-        <v>38.82121276855469</v>
+        <v>14.08576774597168</v>
       </c>
       <c r="G97" t="n">
-        <v>71.99861907958984</v>
+        <v>57.46567535400391</v>
       </c>
       <c r="H97" t="n">
-        <v>-60.62251663208008</v>
+        <v>-77.73843383789062</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>1.830428067828682</v>
-      </c>
+      <c r="A98" t="inlineStr"/>
       <c r="B98" t="n">
-        <v>0.9988616162023403</v>
+        <v>0.5652364806218424</v>
       </c>
       <c r="C98" t="n">
-        <v>39.93967819213867</v>
+        <v>53.17755889892578</v>
       </c>
       <c r="D98" t="n">
-        <v>24.86635208129883</v>
+        <v>23.25851058959961</v>
       </c>
       <c r="E98" t="n">
-        <v>-15.22219085693359</v>
+        <v>-31.27172470092773</v>
       </c>
       <c r="F98" t="n">
-        <v>38.90186309814453</v>
+        <v>14.08145523071289</v>
       </c>
       <c r="G98" t="n">
-        <v>72.00460052490234</v>
+        <v>57.46403503417969</v>
       </c>
       <c r="H98" t="n">
-        <v>-60.6741943359375</v>
+        <v>-77.73855590820312</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>0.278565919838868</v>
-      </c>
+      <c r="A99" t="inlineStr"/>
       <c r="B99" t="n">
-        <v>0.9994592635714323</v>
+        <v>0.567189999268822</v>
       </c>
       <c r="C99" t="n">
-        <v>39.87933349609375</v>
+        <v>53.17903137207031</v>
       </c>
       <c r="D99" t="n">
-        <v>24.91463470458984</v>
+        <v>23.25757217407227</v>
       </c>
       <c r="E99" t="n">
-        <v>-15.19609451293945</v>
+        <v>-31.27326011657715</v>
       </c>
       <c r="F99" t="n">
-        <v>38.98088073730469</v>
+        <v>14.07730960845947</v>
       </c>
       <c r="G99" t="n">
-        <v>72.00971221923828</v>
+        <v>57.46245574951172</v>
       </c>
       <c r="H99" t="n">
-        <v>-60.72438430786133</v>
+        <v>-77.73869323730469</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>1.618868512618755</v>
-      </c>
+      <c r="A100" t="inlineStr"/>
       <c r="B100" t="n">
-        <v>0.9997547383433513</v>
+        <v>0.5690552712670721</v>
       </c>
       <c r="C100" t="n">
-        <v>39.82062149047852</v>
+        <v>53.18043899536133</v>
       </c>
       <c r="D100" t="n">
-        <v>24.96184539794922</v>
+        <v>23.25667572021484</v>
       </c>
       <c r="E100" t="n">
-        <v>-15.17097949981689</v>
+        <v>-31.27472305297852</v>
       </c>
       <c r="F100" t="n">
-        <v>39.05817031860352</v>
+        <v>14.07332992553711</v>
       </c>
       <c r="G100" t="n">
-        <v>72.0140380859375</v>
+        <v>57.46094512939453</v>
       </c>
       <c r="H100" t="n">
-        <v>-60.77303314208984</v>
+        <v>-77.73881530761719</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>0.4756798769866889</v>
-      </c>
+      <c r="A101" t="inlineStr"/>
       <c r="B101" t="n">
-        <v>0.9998938917200146</v>
+        <v>0.5708364126763554</v>
       </c>
       <c r="C101" t="n">
-        <v>39.76358413696289</v>
+        <v>53.18175506591797</v>
       </c>
       <c r="D101" t="n">
-        <v>25.00792503356934</v>
+        <v>23.25581550598145</v>
       </c>
       <c r="E101" t="n">
-        <v>-15.14683532714844</v>
+        <v>-31.27613830566406</v>
       </c>
       <c r="F101" t="n">
-        <v>39.1336669921875</v>
+        <v>14.069504737854</v>
       </c>
       <c r="G101" t="n">
-        <v>72.01764678955078</v>
+        <v>57.45948791503906</v>
       </c>
       <c r="H101" t="n">
-        <v>-60.8202018737793</v>
+        <v>-77.73896026611328</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>1.438820800942521</v>
-      </c>
+      <c r="A102" t="inlineStr"/>
       <c r="B102" t="n">
-        <v>0.999956260952367</v>
+        <v>0.5725374370931012</v>
       </c>
       <c r="C102" t="n">
-        <v>39.70824813842773</v>
+        <v>53.18301391601562</v>
       </c>
       <c r="D102" t="n">
-        <v>25.05282592773438</v>
+        <v>23.25499725341797</v>
       </c>
       <c r="E102" t="n">
-        <v>-15.1236457824707</v>
+        <v>-31.27748489379883</v>
       </c>
       <c r="F102" t="n">
-        <v>39.20730590820312</v>
+        <v>14.06583023071289</v>
       </c>
       <c r="G102" t="n">
-        <v>72.02058410644531</v>
+        <v>57.45809936523438</v>
       </c>
       <c r="H102" t="n">
-        <v>-60.8658447265625</v>
+        <v>-77.73911285400391</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>0.6371133787325305</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9999828405315495</v>
+        <v>0.5741620366897187</v>
       </c>
       <c r="C103" t="n">
-        <v>39.65461349487305</v>
+        <v>53.18420791625977</v>
       </c>
       <c r="D103" t="n">
-        <v>25.09652900695801</v>
+        <v>23.25421142578125</v>
       </c>
       <c r="E103" t="n">
-        <v>-15.10138607025146</v>
+        <v>-31.2787914276123</v>
       </c>
       <c r="F103" t="n">
-        <v>39.279052734375</v>
+        <v>14.06229782104492</v>
       </c>
       <c r="G103" t="n">
-        <v>72.02291107177734</v>
+        <v>57.45677185058594</v>
       </c>
       <c r="H103" t="n">
-        <v>-60.91003036499023</v>
+        <v>-77.73924255371094</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>-0.4331696748733521</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1976606661081314</v>
+        <v>0.5280685591697694</v>
       </c>
       <c r="C104" t="n">
-        <v>39.60268402099609</v>
+        <v>53.18534088134766</v>
       </c>
       <c r="D104" t="n">
-        <v>25.13900566101074</v>
+        <v>23.25346565246582</v>
       </c>
       <c r="E104" t="n">
-        <v>-15.08004379272461</v>
+        <v>-31.28004837036133</v>
       </c>
       <c r="F104" t="n">
-        <v>39.34889984130859</v>
+        <v>14.05891036987305</v>
       </c>
       <c r="G104" t="n">
-        <v>72.02465057373047</v>
+        <v>57.45550155639648</v>
       </c>
       <c r="H104" t="n">
-        <v>-60.95277404785156</v>
+        <v>-77.7393798828125</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>-0.428217111825943</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1876737996935844</v>
+        <v>0.5281482934951782</v>
       </c>
       <c r="C105" t="n">
-        <v>39.55243682861328</v>
+        <v>53.18642425537109</v>
       </c>
       <c r="D105" t="n">
-        <v>25.18025398254395</v>
+        <v>23.25275230407715</v>
       </c>
       <c r="E105" t="n">
-        <v>-15.05959701538086</v>
+        <v>-31.28124809265137</v>
       </c>
       <c r="F105" t="n">
-        <v>39.41684722900391</v>
+        <v>14.05565071105957</v>
       </c>
       <c r="G105" t="n">
-        <v>72.02586364746094</v>
+        <v>57.45429611206055</v>
       </c>
       <c r="H105" t="n">
-        <v>-60.99412536621094</v>
+        <v>-77.73954010009766</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>-0.4234322625398636</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B106" t="n">
-        <v>0.177974548637867</v>
+        <v>0.5282246476411819</v>
       </c>
       <c r="C106" t="n">
-        <v>39.50389099121094</v>
+        <v>53.18743896484375</v>
       </c>
       <c r="D106" t="n">
-        <v>25.22021865844727</v>
+        <v>23.25207138061523</v>
       </c>
       <c r="E106" t="n">
-        <v>-15.0400276184082</v>
+        <v>-31.28240394592285</v>
       </c>
       <c r="F106" t="n">
-        <v>39.48283767700195</v>
+        <v>14.05252742767334</v>
       </c>
       <c r="G106" t="n">
-        <v>72.02657318115234</v>
+        <v>57.45314788818359</v>
       </c>
       <c r="H106" t="n">
-        <v>-61.03407287597656</v>
+        <v>-77.73965454101562</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>-0.4188131999969483</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B107" t="n">
-        <v>0.1685629445314407</v>
+        <v>0.5282980638742447</v>
       </c>
       <c r="C107" t="n">
-        <v>39.45702743530273</v>
+        <v>53.18842315673828</v>
       </c>
       <c r="D107" t="n">
-        <v>25.25889205932617</v>
+        <v>23.25142478942871</v>
       </c>
       <c r="E107" t="n">
-        <v>-15.0213098526001</v>
+        <v>-31.28351974487305</v>
       </c>
       <c r="F107" t="n">
-        <v>39.54687118530273</v>
+        <v>14.04952716827393</v>
       </c>
       <c r="G107" t="n">
-        <v>72.02682495117188</v>
+        <v>57.45202255249023</v>
       </c>
       <c r="H107" t="n">
-        <v>-61.07267761230469</v>
+        <v>-77.73980712890625</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>-0.4143584710359574</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1594395244121552</v>
+        <v>0.5283687001466751</v>
       </c>
       <c r="C108" t="n">
-        <v>39.41183090209961</v>
+        <v>53.18935775756836</v>
       </c>
       <c r="D108" t="n">
-        <v>25.29628944396973</v>
+        <v>23.25080490112305</v>
       </c>
       <c r="E108" t="n">
-        <v>-15.00341510772705</v>
+        <v>-31.28457832336426</v>
       </c>
       <c r="F108" t="n">
-        <v>39.60894393920898</v>
+        <v>14.04663848876953</v>
       </c>
       <c r="G108" t="n">
-        <v>72.02665710449219</v>
+        <v>57.45096969604492</v>
       </c>
       <c r="H108" t="n">
-        <v>-61.10995483398438</v>
+        <v>-77.73992919921875</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>-0.4100661486387253</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1506026139855385</v>
+        <v>0.5284364932775498</v>
       </c>
       <c r="C109" t="n">
-        <v>39.36828231811523</v>
+        <v>53.19025039672852</v>
       </c>
       <c r="D109" t="n">
-        <v>25.3324089050293</v>
+        <v>23.25021934509277</v>
       </c>
       <c r="E109" t="n">
-        <v>-14.98632144927979</v>
+        <v>-31.28560829162598</v>
       </c>
       <c r="F109" t="n">
-        <v>39.6690673828125</v>
+        <v>14.04386711120605</v>
       </c>
       <c r="G109" t="n">
-        <v>72.02607727050781</v>
+        <v>57.44998931884766</v>
       </c>
       <c r="H109" t="n">
-        <v>-61.14590454101562</v>
+        <v>-77.74001312255859</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>-0.4059325051307678</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B110" t="n">
-        <v>0.1420494017004967</v>
+        <v>0.5285013800859452</v>
       </c>
       <c r="C110" t="n">
-        <v>39.32634353637695</v>
+        <v>53.19109344482422</v>
       </c>
       <c r="D110" t="n">
-        <v>25.36726951599121</v>
+        <v>23.24966430664062</v>
       </c>
       <c r="E110" t="n">
-        <v>-14.97000312805176</v>
+        <v>-31.28659057617188</v>
       </c>
       <c r="F110" t="n">
-        <v>39.72726058959961</v>
+        <v>14.0412130355835</v>
       </c>
       <c r="G110" t="n">
-        <v>72.02516174316406</v>
+        <v>57.44903564453125</v>
       </c>
       <c r="H110" t="n">
-        <v>-61.18061065673828</v>
+        <v>-77.74013519287109</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>-0.4019537496566772</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B111" t="n">
-        <v>0.1337759703397751</v>
+        <v>0.5285638028383255</v>
       </c>
       <c r="C111" t="n">
-        <v>39.28597640991211</v>
+        <v>53.1919059753418</v>
       </c>
       <c r="D111" t="n">
-        <v>25.40089797973633</v>
+        <v>23.2491340637207</v>
       </c>
       <c r="E111" t="n">
-        <v>-14.95443153381348</v>
+        <v>-31.28753662109375</v>
       </c>
       <c r="F111" t="n">
-        <v>39.78355026245117</v>
+        <v>14.03866195678711</v>
       </c>
       <c r="G111" t="n">
-        <v>72.02389526367188</v>
+        <v>57.4481315612793</v>
       </c>
       <c r="H111" t="n">
-        <v>-61.214111328125</v>
+        <v>-77.74025726318359</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>-0.398128429055214</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B112" t="n">
-        <v>0.1257834492623806</v>
+        <v>0.5286236035823823</v>
       </c>
       <c r="C112" t="n">
-        <v>39.24716567993164</v>
+        <v>53.19268798828125</v>
       </c>
       <c r="D112" t="n">
-        <v>25.43331336975098</v>
+        <v>23.24863052368164</v>
       </c>
       <c r="E112" t="n">
-        <v>-14.9395866394043</v>
+        <v>-31.28845024108887</v>
       </c>
       <c r="F112" t="n">
-        <v>39.83792877197266</v>
+        <v>14.03621673583984</v>
       </c>
       <c r="G112" t="n">
-        <v>72.02231597900391</v>
+        <v>57.44726943969727</v>
       </c>
       <c r="H112" t="n">
-        <v>-61.24643707275391</v>
+        <v>-77.7403564453125</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>-0.3944523417949677</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1180617295205593</v>
+        <v>0.5286812245845794</v>
       </c>
       <c r="C113" t="n">
-        <v>39.20986938476562</v>
+        <v>53.19342041015625</v>
       </c>
       <c r="D113" t="n">
-        <v>25.46452903747559</v>
+        <v>23.2481517791748</v>
       </c>
       <c r="E113" t="n">
-        <v>-14.92544460296631</v>
+        <v>-31.28931999206543</v>
       </c>
       <c r="F113" t="n">
-        <v>39.89046478271484</v>
+        <v>14.03386116027832</v>
       </c>
       <c r="G113" t="n">
-        <v>72.02044677734375</v>
+        <v>57.44645309448242</v>
       </c>
       <c r="H113" t="n">
-        <v>-61.27761840820312</v>
+        <v>-77.74044036865234</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>-0.3909221708774567</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B114" t="n">
-        <v>0.1106091447174549</v>
+        <v>0.5287363183498383</v>
       </c>
       <c r="C114" t="n">
-        <v>39.17405319213867</v>
+        <v>53.19413375854492</v>
       </c>
       <c r="D114" t="n">
-        <v>25.49458312988281</v>
+        <v>23.24769973754883</v>
       </c>
       <c r="E114" t="n">
-        <v>-14.9119758605957</v>
+        <v>-31.29015922546387</v>
       </c>
       <c r="F114" t="n">
-        <v>39.94116973876953</v>
+        <v>14.03160762786865</v>
       </c>
       <c r="G114" t="n">
-        <v>72.01832580566406</v>
+        <v>57.44568252563477</v>
       </c>
       <c r="H114" t="n">
-        <v>-61.30767059326172</v>
+        <v>-77.74052429199219</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>-0.3875348836183548</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B115" t="n">
-        <v>0.103419518917799</v>
+        <v>0.5287893271446228</v>
       </c>
       <c r="C115" t="n">
-        <v>39.13968658447266</v>
+        <v>53.19480895996094</v>
       </c>
       <c r="D115" t="n">
-        <v>25.52349472045898</v>
+        <v>23.24726676940918</v>
       </c>
       <c r="E115" t="n">
-        <v>-14.899169921875</v>
+        <v>-31.29096412658691</v>
       </c>
       <c r="F115" t="n">
-        <v>39.99008560180664</v>
+        <v>14.02944278717041</v>
       </c>
       <c r="G115" t="n">
-        <v>72.01594543457031</v>
+        <v>57.44493865966797</v>
       </c>
       <c r="H115" t="n">
-        <v>-61.33665466308594</v>
+        <v>-77.74057769775391</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>-0.3842851728200913</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B116" t="n">
-        <v>0.09648780554533005</v>
+        <v>0.5288400614261628</v>
       </c>
       <c r="C116" t="n">
-        <v>39.10671615600586</v>
+        <v>53.19545364379883</v>
       </c>
       <c r="D116" t="n">
-        <v>25.55130004882812</v>
+        <v>23.24685668945312</v>
       </c>
       <c r="E116" t="n">
-        <v>-14.88699722290039</v>
+        <v>-31.29174423217773</v>
       </c>
       <c r="F116" t="n">
-        <v>40.03724670410156</v>
+        <v>14.02736568450928</v>
       </c>
       <c r="G116" t="n">
-        <v>72.01335906982422</v>
+        <v>57.44424057006836</v>
       </c>
       <c r="H116" t="n">
-        <v>-61.36460113525391</v>
+        <v>-77.74067687988281</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>-0.3811697214841843</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B117" t="n">
-        <v>0.08980727583169938</v>
+        <v>0.5288888686895371</v>
       </c>
       <c r="C117" t="n">
-        <v>39.07510757446289</v>
+        <v>53.19607162475586</v>
       </c>
       <c r="D117" t="n">
-        <v>25.57802581787109</v>
+        <v>23.2464656829834</v>
       </c>
       <c r="E117" t="n">
-        <v>-14.87543487548828</v>
+        <v>-31.2924861907959</v>
       </c>
       <c r="F117" t="n">
-        <v>40.08269882202148</v>
+        <v>14.02537155151367</v>
       </c>
       <c r="G117" t="n">
-        <v>72.01055908203125</v>
+        <v>57.44356918334961</v>
       </c>
       <c r="H117" t="n">
-        <v>-61.39153289794922</v>
+        <v>-77.74072265625</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>-0.3781836014986039</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B118" t="n">
-        <v>0.08337007954716683</v>
+        <v>0.5289355593919755</v>
       </c>
       <c r="C118" t="n">
-        <v>39.0448112487793</v>
+        <v>53.19665908813477</v>
       </c>
       <c r="D118" t="n">
-        <v>25.60371589660645</v>
+        <v>23.24609756469727</v>
       </c>
       <c r="E118" t="n">
-        <v>-14.86446189880371</v>
+        <v>-31.2932014465332</v>
       </c>
       <c r="F118" t="n">
-        <v>40.12649536132812</v>
+        <v>14.02346229553223</v>
       </c>
       <c r="G118" t="n">
-        <v>72.00759124755859</v>
+        <v>57.44294738769531</v>
       </c>
       <c r="H118" t="n">
-        <v>-61.41754531860352</v>
+        <v>-77.74078369140625</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>-0.3753238117694855</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B119" t="n">
-        <v>0.07717229947447778</v>
+        <v>0.5289802914857865</v>
       </c>
       <c r="C119" t="n">
-        <v>39.01579666137695</v>
+        <v>53.19722747802734</v>
       </c>
       <c r="D119" t="n">
-        <v>25.62838745117188</v>
+        <v>23.24574661254883</v>
       </c>
       <c r="E119" t="n">
-        <v>-14.85406303405762</v>
+        <v>-31.29389572143555</v>
       </c>
       <c r="F119" t="n">
-        <v>40.16866302490234</v>
+        <v>14.02163219451904</v>
       </c>
       <c r="G119" t="n">
-        <v>72.00444030761719</v>
+        <v>57.44234466552734</v>
       </c>
       <c r="H119" t="n">
-        <v>-61.44260406494141</v>
+        <v>-77.74082183837891</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>-0.3725865930318832</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B120" t="n">
-        <v>0.07120607748627664</v>
+        <v>0.5290234124660492</v>
       </c>
       <c r="C120" t="n">
-        <v>38.9880256652832</v>
+        <v>53.19777297973633</v>
       </c>
       <c r="D120" t="n">
-        <v>25.65207481384277</v>
+        <v>23.24541473388672</v>
       </c>
       <c r="E120" t="n">
-        <v>-14.84420871734619</v>
+        <v>-31.2945499420166</v>
       </c>
       <c r="F120" t="n">
-        <v>40.20925521850586</v>
+        <v>14.01986980438232</v>
       </c>
       <c r="G120" t="n">
-        <v>72.00114440917969</v>
+        <v>57.44176864624023</v>
       </c>
       <c r="H120" t="n">
-        <v>-61.46677398681641</v>
+        <v>-77.74086761474609</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>-0.3699674278497696</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B121" t="n">
-        <v>0.06546749636530877</v>
+        <v>0.5290648275613785</v>
       </c>
       <c r="C121" t="n">
-        <v>38.96145248413086</v>
+        <v>53.19830322265625</v>
       </c>
       <c r="D121" t="n">
-        <v>25.67481422424316</v>
+        <v>23.24509620666504</v>
       </c>
       <c r="E121" t="n">
-        <v>-14.83488273620605</v>
+        <v>-31.29518699645996</v>
       </c>
       <c r="F121" t="n">
-        <v>40.24829864501953</v>
+        <v>14.0181770324707</v>
       </c>
       <c r="G121" t="n">
-        <v>71.99770355224609</v>
+        <v>57.44123077392578</v>
       </c>
       <c r="H121" t="n">
-        <v>-61.49007797241211</v>
+        <v>-77.74092864990234</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>-0.3674618303775787</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B122" t="n">
-        <v>0.05994758047163487</v>
+        <v>0.5291042840480805</v>
       </c>
       <c r="C122" t="n">
-        <v>38.93603134155273</v>
+        <v>53.19879913330078</v>
       </c>
       <c r="D122" t="n">
-        <v>25.69663619995117</v>
+        <v>23.24479484558105</v>
       </c>
       <c r="E122" t="n">
-        <v>-14.82606410980225</v>
+        <v>-31.29578399658203</v>
       </c>
       <c r="F122" t="n">
-        <v>40.28585433959961</v>
+        <v>14.01656246185303</v>
       </c>
       <c r="G122" t="n">
-        <v>71.994140625</v>
+        <v>57.44071578979492</v>
       </c>
       <c r="H122" t="n">
-        <v>-61.51255416870117</v>
+        <v>-77.74095153808594</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>-0.3650667679309845</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B123" t="n">
-        <v>0.05464240469038487</v>
+        <v>0.529142382144928</v>
       </c>
       <c r="C123" t="n">
-        <v>38.9117317199707</v>
+        <v>53.19927597045898</v>
       </c>
       <c r="D123" t="n">
-        <v>25.71756744384766</v>
+        <v>23.24450874328613</v>
       </c>
       <c r="E123" t="n">
-        <v>-14.81772994995117</v>
+        <v>-31.2963695526123</v>
       </c>
       <c r="F123" t="n">
-        <v>40.32194900512695</v>
+        <v>14.01500701904297</v>
       </c>
       <c r="G123" t="n">
-        <v>71.99047088623047</v>
+        <v>57.44020843505859</v>
       </c>
       <c r="H123" t="n">
-        <v>-61.53423309326172</v>
+        <v>-77.74097442626953</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>-0.3627777230739594</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B124" t="n">
-        <v>0.04954356200993061</v>
+        <v>0.5291787427663803</v>
       </c>
       <c r="C124" t="n">
-        <v>38.88850784301758</v>
+        <v>53.19974517822266</v>
       </c>
       <c r="D124" t="n">
-        <v>25.73764228820801</v>
+        <v>23.24423599243164</v>
       </c>
       <c r="E124" t="n">
-        <v>-14.80986404418945</v>
+        <v>-31.29693222045898</v>
       </c>
       <c r="F124" t="n">
-        <v>40.35663986206055</v>
+        <v>14.01351928710938</v>
       </c>
       <c r="G124" t="n">
-        <v>71.9866943359375</v>
+        <v>57.43975067138672</v>
       </c>
       <c r="H124" t="n">
-        <v>-61.55513381958008</v>
+        <v>-77.74100494384766</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>-0.3605913472175598</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B125" t="n">
-        <v>0.04464431971311569</v>
+        <v>0.5292136502265931</v>
       </c>
       <c r="C125" t="n">
-        <v>38.86632537841797</v>
+        <v>53.2001838684082</v>
       </c>
       <c r="D125" t="n">
-        <v>25.75688362121582</v>
+        <v>23.24397659301758</v>
       </c>
       <c r="E125" t="n">
-        <v>-14.8024435043335</v>
+        <v>-31.29746437072754</v>
       </c>
       <c r="F125" t="n">
-        <v>40.38997268676758</v>
+        <v>14.01209354400635</v>
       </c>
       <c r="G125" t="n">
-        <v>71.98285675048828</v>
+        <v>57.43930435180664</v>
       </c>
       <c r="H125" t="n">
-        <v>-61.57529830932617</v>
+        <v>-77.74102020263672</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>-0.3585038495063782</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B126" t="n">
-        <v>0.03994131736457348</v>
+        <v>0.5292471361160278</v>
       </c>
       <c r="C126" t="n">
-        <v>38.84514617919922</v>
+        <v>53.20060348510742</v>
       </c>
       <c r="D126" t="n">
-        <v>25.77532386779785</v>
+        <v>23.24373054504395</v>
       </c>
       <c r="E126" t="n">
-        <v>-14.79545307159424</v>
+        <v>-31.29798126220703</v>
       </c>
       <c r="F126" t="n">
-        <v>40.42197036743164</v>
+        <v>14.01072216033936</v>
       </c>
       <c r="G126" t="n">
-        <v>71.97891998291016</v>
+        <v>57.43888473510742</v>
       </c>
       <c r="H126" t="n">
-        <v>-61.5947380065918</v>
+        <v>-77.74104309082031</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>-0.3565107125043869</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B127" t="n">
-        <v>0.03542558327317238</v>
+        <v>0.5292793267965317</v>
       </c>
       <c r="C127" t="n">
-        <v>38.82492446899414</v>
+        <v>53.20101165771484</v>
       </c>
       <c r="D127" t="n">
-        <v>25.79299736022949</v>
+        <v>23.24349784851074</v>
       </c>
       <c r="E127" t="n">
-        <v>-14.78886795043945</v>
+        <v>-31.29847526550293</v>
       </c>
       <c r="F127" t="n">
-        <v>40.45269393920898</v>
+        <v>14.00940704345703</v>
       </c>
       <c r="G127" t="n">
-        <v>71.97493743896484</v>
+        <v>57.4384765625</v>
       </c>
       <c r="H127" t="n">
-        <v>-61.61349868774414</v>
+        <v>-77.74105834960938</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>-0.3546096932888031</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B128" t="n">
-        <v>0.0310926315933466</v>
+        <v>0.5293101274967194</v>
       </c>
       <c r="C128" t="n">
-        <v>38.80563735961914</v>
+        <v>53.2014045715332</v>
       </c>
       <c r="D128" t="n">
-        <v>25.8099250793457</v>
+        <v>23.2432746887207</v>
       </c>
       <c r="E128" t="n">
-        <v>-14.78267097473145</v>
+        <v>-31.2989501953125</v>
       </c>
       <c r="F128" t="n">
-        <v>40.48217391967773</v>
+        <v>14.00814819335938</v>
       </c>
       <c r="G128" t="n">
-        <v>71.97089385986328</v>
+        <v>57.43809509277344</v>
       </c>
       <c r="H128" t="n">
-        <v>-61.63156890869141</v>
+        <v>-77.74105072021484</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>-0.352796306014061</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B129" t="n">
-        <v>0.02693629428744316</v>
+        <v>0.5293395698070527</v>
       </c>
       <c r="C129" t="n">
-        <v>38.78723907470703</v>
+        <v>53.20177459716797</v>
       </c>
       <c r="D129" t="n">
-        <v>25.82613754272461</v>
+        <v>23.2430591583252</v>
       </c>
       <c r="E129" t="n">
-        <v>-14.77684497833252</v>
+        <v>-31.29940223693848</v>
       </c>
       <c r="F129" t="n">
-        <v>40.51045227050781</v>
+        <v>14.00694465637207</v>
       </c>
       <c r="G129" t="n">
-        <v>71.96683502197266</v>
+        <v>57.43773651123047</v>
       </c>
       <c r="H129" t="n">
-        <v>-61.64901351928711</v>
+        <v>-77.74107360839844</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>-0.3510674864053727</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B130" t="n">
-        <v>0.02294984456151724</v>
+        <v>0.5293679696321487</v>
       </c>
       <c r="C130" t="n">
-        <v>38.76969909667969</v>
+        <v>53.20214080810547</v>
       </c>
       <c r="D130" t="n">
-        <v>25.84165191650391</v>
+        <v>23.24285697937012</v>
       </c>
       <c r="E130" t="n">
-        <v>-14.77137470245361</v>
+        <v>-31.29984474182129</v>
       </c>
       <c r="F130" t="n">
-        <v>40.53757476806641</v>
+        <v>14.005784034729</v>
       </c>
       <c r="G130" t="n">
-        <v>71.96271514892578</v>
+        <v>57.4373893737793</v>
       </c>
       <c r="H130" t="n">
-        <v>-61.66585159301758</v>
+        <v>-77.74107360839844</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>-0.3494198858737946</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B131" t="n">
-        <v>0.01912879459559918</v>
+        <v>0.5293951374292374</v>
       </c>
       <c r="C131" t="n">
-        <v>38.75298309326172</v>
+        <v>53.20248413085938</v>
       </c>
       <c r="D131" t="n">
-        <v>25.85650825500488</v>
+        <v>23.24266624450684</v>
       </c>
       <c r="E131" t="n">
-        <v>-14.76623821258545</v>
+        <v>-31.30026817321777</v>
       </c>
       <c r="F131" t="n">
-        <v>40.56357192993164</v>
+        <v>14.00467395782471</v>
       </c>
       <c r="G131" t="n">
-        <v>71.95859527587891</v>
+        <v>57.43705749511719</v>
       </c>
       <c r="H131" t="n">
-        <v>-61.68207168579102</v>
+        <v>-77.74107360839844</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>-0.3478501242399216</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B132" t="n">
-        <v>0.01546473639085889</v>
+        <v>0.5294211679697037</v>
       </c>
       <c r="C132" t="n">
-        <v>38.73705673217773</v>
+        <v>53.20281982421875</v>
       </c>
       <c r="D132" t="n">
-        <v>25.87071990966797</v>
+        <v>23.24247932434082</v>
       </c>
       <c r="E132" t="n">
-        <v>-14.7614221572876</v>
+        <v>-31.30066680908203</v>
       </c>
       <c r="F132" t="n">
-        <v>40.5885009765625</v>
+        <v>14.00360774993896</v>
       </c>
       <c r="G132" t="n">
-        <v>71.95446014404297</v>
+        <v>57.43674850463867</v>
       </c>
       <c r="H132" t="n">
-        <v>-61.69773101806641</v>
+        <v>-77.7410888671875</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>-0.3463552004098893</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B133" t="n">
-        <v>0.01195654848590493</v>
+        <v>0.5294462507963181</v>
       </c>
       <c r="C133" t="n">
-        <v>38.72188949584961</v>
+        <v>53.20312881469727</v>
       </c>
       <c r="D133" t="n">
-        <v>25.88431549072266</v>
+        <v>23.2423038482666</v>
       </c>
       <c r="E133" t="n">
-        <v>-14.7569055557251</v>
+        <v>-31.30105400085449</v>
       </c>
       <c r="F133" t="n">
-        <v>40.61236953735352</v>
+        <v>14.00258255004883</v>
       </c>
       <c r="G133" t="n">
-        <v>71.95030975341797</v>
+        <v>57.43643569946289</v>
       </c>
       <c r="H133" t="n">
-        <v>-61.71282577514648</v>
+        <v>-77.74108123779297</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>-0.3449320501089096</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B134" t="n">
-        <v>0.008596940394490958</v>
+        <v>0.5294700384140015</v>
       </c>
       <c r="C134" t="n">
-        <v>38.70745086669922</v>
+        <v>53.20343780517578</v>
       </c>
       <c r="D134" t="n">
-        <v>25.8973217010498</v>
+        <v>23.24213790893555</v>
       </c>
       <c r="E134" t="n">
-        <v>-14.75267791748047</v>
+        <v>-31.30142211914062</v>
       </c>
       <c r="F134" t="n">
-        <v>40.63522720336914</v>
+        <v>14.00160980224609</v>
       </c>
       <c r="G134" t="n">
-        <v>71.9461669921875</v>
+        <v>57.43614959716797</v>
       </c>
       <c r="H134" t="n">
-        <v>-61.72736740112305</v>
+        <v>-77.74108123779297</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>-0.3435784935951233</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B135" t="n">
-        <v>0.005377503130584956</v>
+        <v>0.5294930046796799</v>
       </c>
       <c r="C135" t="n">
-        <v>38.69371795654297</v>
+        <v>53.20373916625977</v>
       </c>
       <c r="D135" t="n">
-        <v>25.90974807739258</v>
+        <v>23.24197578430176</v>
       </c>
       <c r="E135" t="n">
-        <v>-14.74872016906738</v>
+        <v>-31.3017749786377</v>
       </c>
       <c r="F135" t="n">
-        <v>40.65713119506836</v>
+        <v>14.00067138671875</v>
       </c>
       <c r="G135" t="n">
-        <v>71.94206237792969</v>
+        <v>57.43588256835938</v>
       </c>
       <c r="H135" t="n">
-        <v>-61.74138641357422</v>
+        <v>-77.74108123779297</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>0.7607503477564335</v>
-      </c>
+      <c r="A136" t="inlineStr"/>
       <c r="B136" t="n">
-        <v>0.9956870233649314</v>
+        <v>0.5299235492229439</v>
       </c>
       <c r="C136" t="n">
-        <v>38.68064880371094</v>
+        <v>53.20401000976562</v>
       </c>
       <c r="D136" t="n">
-        <v>25.9216365814209</v>
+        <v>23.24182319641113</v>
       </c>
       <c r="E136" t="n">
-        <v>-14.74501800537109</v>
+        <v>-31.3021125793457</v>
       </c>
       <c r="F136" t="n">
-        <v>40.67808151245117</v>
+        <v>13.99977111816406</v>
       </c>
       <c r="G136" t="n">
-        <v>71.93794250488281</v>
+        <v>57.43560791015625</v>
       </c>
       <c r="H136" t="n">
-        <v>-61.75492858886719</v>
+        <v>-77.74105834960938</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>0.7607503477564335</v>
-      </c>
+      <c r="A137" t="inlineStr"/>
       <c r="B137" t="n">
-        <v>1.000005265308515</v>
+        <v>0.5303348734617107</v>
       </c>
       <c r="C137" t="n">
-        <v>38.6682243347168</v>
+        <v>53.20429229736328</v>
       </c>
       <c r="D137" t="n">
-        <v>25.93299102783203</v>
+        <v>23.24168014526367</v>
       </c>
       <c r="E137" t="n">
-        <v>-14.7415599822998</v>
+        <v>-31.30243492126465</v>
       </c>
       <c r="F137" t="n">
-        <v>40.6981201171875</v>
+        <v>13.99890327453613</v>
       </c>
       <c r="G137" t="n">
-        <v>71.93387603759766</v>
+        <v>57.43536758422852</v>
       </c>
       <c r="H137" t="n">
-        <v>-61.7679443359375</v>
+        <v>-77.74109649658203</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>0.4460313638329113</v>
-      </c>
+      <c r="A138" t="inlineStr"/>
       <c r="B138" t="n">
-        <v>0.9999999655655039</v>
+        <v>0.5307279374179614</v>
       </c>
       <c r="C138" t="n">
-        <v>38.65640640258789</v>
+        <v>53.20454788208008</v>
       </c>
       <c r="D138" t="n">
-        <v>25.9438419342041</v>
+        <v>23.24153709411621</v>
       </c>
       <c r="E138" t="n">
-        <v>-14.73832702636719</v>
+        <v>-31.30274963378906</v>
       </c>
       <c r="F138" t="n">
-        <v>40.71730041503906</v>
+        <v>13.99807739257812</v>
       </c>
       <c r="G138" t="n">
-        <v>71.92981719970703</v>
+        <v>57.43511581420898</v>
       </c>
       <c r="H138" t="n">
-        <v>-61.78052520751953</v>
+        <v>-77.74107360839844</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>1.354116357184333</v>
-      </c>
+      <c r="A139" t="inlineStr"/>
       <c r="B139" t="n">
-        <v>1.000000000400416</v>
+        <v>0.5311034892290788</v>
       </c>
       <c r="C139" t="n">
-        <v>38.64518356323242</v>
+        <v>53.20479583740234</v>
       </c>
       <c r="D139" t="n">
-        <v>25.95421409606934</v>
+        <v>23.24140548706055</v>
       </c>
       <c r="E139" t="n">
-        <v>-14.73531150817871</v>
+        <v>-31.30305099487305</v>
       </c>
       <c r="F139" t="n">
-        <v>40.73564910888672</v>
+        <v>13.99728393554688</v>
       </c>
       <c r="G139" t="n">
-        <v>71.92580413818359</v>
+        <v>57.43489456176758</v>
       </c>
       <c r="H139" t="n">
-        <v>-61.79265213012695</v>
+        <v>-77.74106597900391</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>0.7743384418243278</v>
-      </c>
+      <c r="A140" t="inlineStr"/>
       <c r="B140" t="n">
-        <v>0.9999999999933978</v>
+        <v>0.5314623965076724</v>
       </c>
       <c r="C140" t="n">
-        <v>38.634521484375</v>
+        <v>53.20503997802734</v>
       </c>
       <c r="D140" t="n">
-        <v>25.96412086486816</v>
+        <v>23.24127578735352</v>
       </c>
       <c r="E140" t="n">
-        <v>-14.732497215271</v>
+        <v>-31.30334091186523</v>
       </c>
       <c r="F140" t="n">
-        <v>40.753173828125</v>
+        <v>13.99652767181396</v>
       </c>
       <c r="G140" t="n">
-        <v>71.92183685302734</v>
+        <v>57.43466186523438</v>
       </c>
       <c r="H140" t="n">
-        <v>-61.80431365966797</v>
+        <v>-77.74104309082031</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>1.143378213249643</v>
-      </c>
+      <c r="A141" t="inlineStr"/>
       <c r="B141" t="n">
-        <v>1.00000000000014</v>
+        <v>0.5318051924876026</v>
       </c>
       <c r="C141" t="n">
-        <v>38.6243896484375</v>
+        <v>53.20527267456055</v>
       </c>
       <c r="D141" t="n">
-        <v>25.97358322143555</v>
+        <v>23.24115371704102</v>
       </c>
       <c r="E141" t="n">
-        <v>-14.72987461090088</v>
+        <v>-31.30361938476562</v>
       </c>
       <c r="F141" t="n">
-        <v>40.76994705200195</v>
+        <v>13.99579620361328</v>
       </c>
       <c r="G141" t="n">
-        <v>71.91791534423828</v>
+        <v>57.43446731567383</v>
       </c>
       <c r="H141" t="n">
-        <v>-61.81557846069336</v>
+        <v>-77.74105834960938</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>0.909158443839833</v>
-      </c>
+      <c r="A142" t="inlineStr"/>
       <c r="B142" t="n">
-        <v>0.9999999999999964</v>
+        <v>0.5321326544705454</v>
       </c>
       <c r="C142" t="n">
-        <v>38.61477279663086</v>
+        <v>53.20549011230469</v>
       </c>
       <c r="D142" t="n">
-        <v>25.98261833190918</v>
+        <v>23.24103546142578</v>
       </c>
       <c r="E142" t="n">
-        <v>-14.72743225097656</v>
+        <v>-31.30388832092285</v>
       </c>
       <c r="F142" t="n">
-        <v>40.78596496582031</v>
+        <v>13.99509811401367</v>
       </c>
       <c r="G142" t="n">
-        <v>71.91403198242188</v>
+        <v>57.43426513671875</v>
       </c>
       <c r="H142" t="n">
-        <v>-61.82644271850586</v>
+        <v>-77.74103546142578</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>1.057401105115886</v>
-      </c>
+      <c r="A143" t="inlineStr"/>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0.5324453913234775</v>
       </c>
       <c r="C143" t="n">
-        <v>38.60564041137695</v>
+        <v>53.20570373535156</v>
       </c>
       <c r="D143" t="n">
-        <v>25.99124908447266</v>
+        <v>23.24092483520508</v>
       </c>
       <c r="E143" t="n">
-        <v>-14.72515487670898</v>
+        <v>-31.30414199829102</v>
       </c>
       <c r="F143" t="n">
-        <v>40.80128479003906</v>
+        <v>13.99442768096924</v>
       </c>
       <c r="G143" t="n">
-        <v>71.91020965576172</v>
+        <v>57.43406677246094</v>
       </c>
       <c r="H143" t="n">
-        <v>-61.83691787719727</v>
+        <v>-77.74102783203125</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>0.9638217777483964</v>
-      </c>
+      <c r="A144" t="inlineStr"/>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0.5327441323523345</v>
       </c>
       <c r="C144" t="n">
-        <v>38.59697723388672</v>
+        <v>53.20591354370117</v>
       </c>
       <c r="D144" t="n">
-        <v>25.99948883056641</v>
+        <v>23.24081611633301</v>
       </c>
       <c r="E144" t="n">
-        <v>-14.72303867340088</v>
+        <v>-31.30437850952148</v>
       </c>
       <c r="F144" t="n">
-        <v>40.81591415405273</v>
+        <v>13.99378776550293</v>
       </c>
       <c r="G144" t="n">
-        <v>71.90644073486328</v>
+        <v>57.43389129638672</v>
       </c>
       <c r="H144" t="n">
-        <v>-61.84698486328125</v>
+        <v>-77.74102020263672</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>1.022746756553813</v>
-      </c>
+      <c r="A145" t="inlineStr"/>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0.5330293980696083</v>
       </c>
       <c r="C145" t="n">
-        <v>38.5887565612793</v>
+        <v>53.20610809326172</v>
       </c>
       <c r="D145" t="n">
-        <v>26.00736045837402</v>
+        <v>23.24071311950684</v>
       </c>
       <c r="E145" t="n">
-        <v>-14.72107124328613</v>
+        <v>-31.30461311340332</v>
       </c>
       <c r="F145" t="n">
-        <v>40.82988739013672</v>
+        <v>13.99317073822021</v>
       </c>
       <c r="G145" t="n">
-        <v>71.90273284912109</v>
+        <v>57.43369293212891</v>
       </c>
       <c r="H145" t="n">
-        <v>-61.85671997070312</v>
+        <v>-77.74100494384766</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>0.9857311820575246</v>
-      </c>
+      <c r="A146" t="inlineStr"/>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0.5333015832343907</v>
       </c>
       <c r="C146" t="n">
-        <v>38.58095169067383</v>
+        <v>53.20629501342773</v>
       </c>
       <c r="D146" t="n">
-        <v>26.01487350463867</v>
+        <v>23.24061393737793</v>
       </c>
       <c r="E146" t="n">
-        <v>-14.71924114227295</v>
+        <v>-31.30483627319336</v>
       </c>
       <c r="F146" t="n">
-        <v>40.8432502746582</v>
+        <v>13.99257373809814</v>
       </c>
       <c r="G146" t="n">
-        <v>71.89908599853516</v>
+        <v>57.43354034423828</v>
       </c>
       <c r="H146" t="n">
-        <v>-61.86608505249023</v>
+        <v>-77.74100494384766</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>1.008931052217671</v>
-      </c>
+      <c r="A147" t="inlineStr"/>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0.5335615324622973</v>
       </c>
       <c r="C147" t="n">
-        <v>38.57355117797852</v>
+        <v>53.20647811889648</v>
       </c>
       <c r="D147" t="n">
-        <v>26.02205657958984</v>
+        <v>23.24052047729492</v>
       </c>
       <c r="E147" t="n">
-        <v>-14.71754264831543</v>
+        <v>-31.3050537109375</v>
       </c>
       <c r="F147" t="n">
-        <v>40.85600662231445</v>
+        <v>13.99201202392578</v>
       </c>
       <c r="G147" t="n">
-        <v>71.8955078125</v>
+        <v>57.43336868286133</v>
       </c>
       <c r="H147" t="n">
-        <v>-61.87512969970703</v>
+        <v>-77.74099731445312</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>0.9944216131128728</v>
-      </c>
+      <c r="A148" t="inlineStr"/>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0.5338095947899624</v>
       </c>
       <c r="C148" t="n">
-        <v>38.5665168762207</v>
+        <v>53.20664978027344</v>
       </c>
       <c r="D148" t="n">
-        <v>26.02891159057617</v>
+        <v>23.24043083190918</v>
       </c>
       <c r="E148" t="n">
-        <v>-14.71596431732178</v>
+        <v>-31.30525588989258</v>
       </c>
       <c r="F148" t="n">
-        <v>40.86818695068359</v>
+        <v>13.99146747589111</v>
       </c>
       <c r="G148" t="n">
-        <v>71.89199829101562</v>
+        <v>57.43321990966797</v>
       </c>
       <c r="H148" t="n">
-        <v>-61.88384628295898</v>
+        <v>-77.74098205566406</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>1.003477383096273</v>
-      </c>
+      <c r="A149" t="inlineStr"/>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0.5340463638106649</v>
       </c>
       <c r="C149" t="n">
-        <v>38.55985641479492</v>
+        <v>53.20681762695312</v>
       </c>
       <c r="D149" t="n">
-        <v>26.03545379638672</v>
+        <v>23.2403450012207</v>
       </c>
       <c r="E149" t="n">
-        <v>-14.71450424194336</v>
+        <v>-31.30545234680176</v>
       </c>
       <c r="F149" t="n">
-        <v>40.87982177734375</v>
+        <v>13.99094867706299</v>
       </c>
       <c r="G149" t="n">
-        <v>71.88853454589844</v>
+        <v>57.43307876586914</v>
       </c>
       <c r="H149" t="n">
-        <v>-61.89225769042969</v>
+        <v>-77.74100494384766</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>0.997836396379971</v>
-      </c>
+      <c r="A150" t="inlineStr"/>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0.5342722670042503</v>
       </c>
       <c r="C150" t="n">
-        <v>38.55354309082031</v>
+        <v>53.20698547363281</v>
       </c>
       <c r="D150" t="n">
-        <v>26.04170036315918</v>
+        <v>23.24025917053223</v>
       </c>
       <c r="E150" t="n">
-        <v>-14.71314811706543</v>
+        <v>-31.30564880371094</v>
       </c>
       <c r="F150" t="n">
-        <v>40.89093780517578</v>
+        <v>13.99044704437256</v>
       </c>
       <c r="G150" t="n">
-        <v>71.88515472412109</v>
+        <v>57.43293380737305</v>
       </c>
       <c r="H150" t="n">
-        <v>-61.9003791809082</v>
+        <v>-77.740966796875</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
-        <v>1.001343764756675</v>
-      </c>
+      <c r="A151" t="inlineStr"/>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0.5344877302462554</v>
       </c>
       <c r="C151" t="n">
-        <v>38.54754257202148</v>
+        <v>53.20713424682617</v>
       </c>
       <c r="D151" t="n">
-        <v>26.04767417907715</v>
+        <v>23.24018096923828</v>
       </c>
       <c r="E151" t="n">
-        <v>-14.71189022064209</v>
+        <v>-31.30582618713379</v>
       </c>
       <c r="F151" t="n">
-        <v>40.90155410766602</v>
+        <v>13.98996639251709</v>
       </c>
       <c r="G151" t="n">
-        <v>71.8818359375</v>
+        <v>57.43280029296875</v>
       </c>
       <c r="H151" t="n">
-        <v>-61.9081916809082</v>
+        <v>-77.74097442626953</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
-        <v>0.9991668397783794</v>
-      </c>
+      <c r="A152" t="inlineStr"/>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0.5346932598542882</v>
       </c>
       <c r="C152" t="n">
-        <v>38.54185485839844</v>
+        <v>53.2072868347168</v>
       </c>
       <c r="D152" t="n">
-        <v>26.05337524414062</v>
+        <v>23.24010467529297</v>
       </c>
       <c r="E152" t="n">
-        <v>-14.71072959899902</v>
+        <v>-31.30599784851074</v>
       </c>
       <c r="F152" t="n">
-        <v>40.91168975830078</v>
+        <v>13.98950958251953</v>
       </c>
       <c r="G152" t="n">
-        <v>71.87860107421875</v>
+        <v>57.43266296386719</v>
       </c>
       <c r="H152" t="n">
-        <v>-61.91575241088867</v>
+        <v>-77.74095916748047</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>1.000515740337462</v>
-      </c>
+      <c r="A153" t="inlineStr"/>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0.5348891967613449</v>
       </c>
       <c r="C153" t="n">
-        <v>38.53646469116211</v>
+        <v>53.20742416381836</v>
       </c>
       <c r="D153" t="n">
-        <v>26.05882453918457</v>
+        <v>23.24003028869629</v>
       </c>
       <c r="E153" t="n">
-        <v>-14.7096529006958</v>
+        <v>-31.30617141723633</v>
       </c>
       <c r="F153" t="n">
-        <v>40.92136383056641</v>
+        <v>13.9890661239624</v>
       </c>
       <c r="G153" t="n">
-        <v>71.87541961669922</v>
+        <v>57.43254852294922</v>
       </c>
       <c r="H153" t="n">
-        <v>-61.92301177978516</v>
+        <v>-77.74095916748047</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>0.9996812386042161</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0.5350759625997681</v>
       </c>
       <c r="C154" t="n">
-        <v>38.53134918212891</v>
+        <v>53.20756530761719</v>
       </c>
       <c r="D154" t="n">
-        <v>26.06402969360352</v>
+        <v>23.23995590209961</v>
       </c>
       <c r="E154" t="n">
-        <v>-14.70865917205811</v>
+        <v>-31.30632972717285</v>
       </c>
       <c r="F154" t="n">
-        <v>40.93062210083008</v>
+        <v>13.98864269256592</v>
       </c>
       <c r="G154" t="n">
-        <v>71.87232971191406</v>
+        <v>57.43243026733398</v>
       </c>
       <c r="H154" t="n">
-        <v>-61.93003082275391</v>
+        <v>-77.74095153808594</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>-0.3270957911014557</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B155" t="n">
-        <v>-0.03611746571958065</v>
+        <v>0.5297970628738403</v>
       </c>
       <c r="C155" t="n">
-        <v>38.5264892578125</v>
+        <v>53.20769500732422</v>
       </c>
       <c r="D155" t="n">
-        <v>26.06900215148926</v>
+        <v>23.23989105224609</v>
       </c>
       <c r="E155" t="n">
-        <v>-14.70773601531982</v>
+        <v>-31.30647850036621</v>
       </c>
       <c r="F155" t="n">
-        <v>40.93944931030273</v>
+        <v>13.98824024200439</v>
       </c>
       <c r="G155" t="n">
-        <v>71.86930084228516</v>
+        <v>57.43230438232422</v>
       </c>
       <c r="H155" t="n">
-        <v>-61.93681335449219</v>
+        <v>-77.74095153808594</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>-0.3266419625282288</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B156" t="n">
-        <v>-0.03735713467001915</v>
+        <v>0.5298064768314362</v>
       </c>
       <c r="C156" t="n">
-        <v>38.52188491821289</v>
+        <v>53.20782470703125</v>
       </c>
       <c r="D156" t="n">
-        <v>26.0737476348877</v>
+        <v>23.23982620239258</v>
       </c>
       <c r="E156" t="n">
-        <v>-14.70688819885254</v>
+        <v>-31.30662727355957</v>
       </c>
       <c r="F156" t="n">
-        <v>40.94788360595703</v>
+        <v>13.98785495758057</v>
       </c>
       <c r="G156" t="n">
-        <v>71.86634063720703</v>
+        <v>57.43220520019531</v>
       </c>
       <c r="H156" t="n">
-        <v>-61.943359375</v>
+        <v>-77.74093627929688</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>-0.3262122058868409</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.03854129523038864</v>
+        <v>0.5298156380653382</v>
       </c>
       <c r="C157" t="n">
-        <v>38.51752471923828</v>
+        <v>53.20793914794922</v>
       </c>
       <c r="D157" t="n">
-        <v>26.07829093933105</v>
+        <v>23.2397632598877</v>
       </c>
       <c r="E157" t="n">
-        <v>-14.70610237121582</v>
+        <v>-31.30676460266113</v>
       </c>
       <c r="F157" t="n">
-        <v>40.95594024658203</v>
+        <v>13.98748016357422</v>
       </c>
       <c r="G157" t="n">
-        <v>71.86346435546875</v>
+        <v>57.43209075927734</v>
       </c>
       <c r="H157" t="n">
-        <v>-61.94965362548828</v>
+        <v>-77.74092102050781</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>-0.3258035200834274</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.03967219032347202</v>
+        <v>0.5298244202136994</v>
       </c>
       <c r="C158" t="n">
-        <v>38.51337814331055</v>
+        <v>53.20805358886719</v>
       </c>
       <c r="D158" t="n">
-        <v>26.08263206481934</v>
+        <v>23.23970222473145</v>
       </c>
       <c r="E158" t="n">
-        <v>-14.70537757873535</v>
+        <v>-31.3069019317627</v>
       </c>
       <c r="F158" t="n">
-        <v>40.9636344909668</v>
+        <v>13.98712253570557</v>
       </c>
       <c r="G158" t="n">
-        <v>71.86064147949219</v>
+        <v>57.43199157714844</v>
       </c>
       <c r="H158" t="n">
-        <v>-61.95573806762695</v>
+        <v>-77.74093627929688</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>-0.3254151153564454</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.04075430974364281</v>
+        <v>0.5298326969146728</v>
       </c>
       <c r="C159" t="n">
-        <v>38.50943756103516</v>
+        <v>53.20816802978516</v>
       </c>
       <c r="D159" t="n">
-        <v>26.08677864074707</v>
+        <v>23.23964881896973</v>
       </c>
       <c r="E159" t="n">
-        <v>-14.7047061920166</v>
+        <v>-31.30703353881836</v>
       </c>
       <c r="F159" t="n">
-        <v>40.97099685668945</v>
+        <v>13.98678112030029</v>
       </c>
       <c r="G159" t="n">
-        <v>71.85792541503906</v>
+        <v>57.431884765625</v>
       </c>
       <c r="H159" t="n">
-        <v>-61.96161651611328</v>
+        <v>-77.74092864990234</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>-0.3250470232963562</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.04178652413189411</v>
+        <v>0.529840784072876</v>
       </c>
       <c r="C160" t="n">
-        <v>38.50570297241211</v>
+        <v>53.20828247070312</v>
       </c>
       <c r="D160" t="n">
-        <v>26.09074974060059</v>
+        <v>23.23959350585938</v>
       </c>
       <c r="E160" t="n">
-        <v>-14.70408725738525</v>
+        <v>-31.30716133117676</v>
       </c>
       <c r="F160" t="n">
-        <v>40.97801971435547</v>
+        <v>13.98645210266113</v>
       </c>
       <c r="G160" t="n">
-        <v>71.85525512695312</v>
+        <v>57.43180084228516</v>
       </c>
       <c r="H160" t="n">
-        <v>-61.96728134155273</v>
+        <v>-77.74091339111328</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
-        <v>-0.324697727560997</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.04277388401329518</v>
+        <v>0.5298484921455383</v>
       </c>
       <c r="C161" t="n">
-        <v>38.50215911865234</v>
+        <v>53.2083854675293</v>
       </c>
       <c r="D161" t="n">
-        <v>26.09454345703125</v>
+        <v>23.23954010009766</v>
       </c>
       <c r="E161" t="n">
-        <v>-14.70351696014404</v>
+        <v>-31.30727767944336</v>
       </c>
       <c r="F161" t="n">
-        <v>40.98473739624023</v>
+        <v>13.9861364364624</v>
       </c>
       <c r="G161" t="n">
-        <v>71.85264587402344</v>
+        <v>57.43169403076172</v>
       </c>
       <c r="H161" t="n">
-        <v>-61.9727668762207</v>
+        <v>-77.74089813232422</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
-        <v>-0.3243653327226639</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B162" t="n">
-        <v>-0.04371807552874089</v>
+        <v>0.5298559474945068</v>
       </c>
       <c r="C162" t="n">
-        <v>38.49878692626953</v>
+        <v>53.20847702026367</v>
       </c>
       <c r="D162" t="n">
-        <v>26.09816741943359</v>
+        <v>23.23948860168457</v>
       </c>
       <c r="E162" t="n">
-        <v>-14.70298767089844</v>
+        <v>-31.3073844909668</v>
       </c>
       <c r="F162" t="n">
-        <v>40.99116134643555</v>
+        <v>13.98583316802979</v>
       </c>
       <c r="G162" t="n">
-        <v>71.85012054443359</v>
+        <v>57.43161773681641</v>
       </c>
       <c r="H162" t="n">
-        <v>-61.97804260253906</v>
+        <v>-77.74089813232422</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
-        <v>-0.3240499019622803</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B163" t="n">
-        <v>-0.04462077297270298</v>
+        <v>0.5298629921674729</v>
       </c>
       <c r="C163" t="n">
-        <v>38.49558639526367</v>
+        <v>53.20857238769531</v>
       </c>
       <c r="D163" t="n">
-        <v>26.10164070129395</v>
+        <v>23.23943901062012</v>
       </c>
       <c r="E163" t="n">
-        <v>-14.70249652862549</v>
+        <v>-31.3075008392334</v>
       </c>
       <c r="F163" t="n">
-        <v>40.9973030090332</v>
+        <v>13.98554420471191</v>
       </c>
       <c r="G163" t="n">
-        <v>71.84766387939453</v>
+        <v>57.43154144287109</v>
       </c>
       <c r="H163" t="n">
-        <v>-61.98316955566406</v>
+        <v>-77.74089813232422</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
-        <v>-0.3237498557567597</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B164" t="n">
-        <v>-0.04548310175538063</v>
+        <v>0.5298698472976685</v>
       </c>
       <c r="C164" t="n">
-        <v>38.4925422668457</v>
+        <v>53.20866012573242</v>
       </c>
       <c r="D164" t="n">
-        <v>26.10495758056641</v>
+        <v>23.2393913269043</v>
       </c>
       <c r="E164" t="n">
-        <v>-14.70204830169678</v>
+        <v>-31.30760192871094</v>
       </c>
       <c r="F164" t="n">
-        <v>41.00317001342773</v>
+        <v>13.98526287078857</v>
       </c>
       <c r="G164" t="n">
-        <v>71.84526824951172</v>
+        <v>57.43146896362305</v>
       </c>
       <c r="H164" t="n">
-        <v>-61.98809051513672</v>
+        <v>-77.74089813232422</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
-        <v>-0.323464846611023</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B165" t="n">
-        <v>-0.04630674406886101</v>
+        <v>0.5298761969804764</v>
       </c>
       <c r="C165" t="n">
-        <v>38.48965072631836</v>
+        <v>53.20875930786133</v>
       </c>
       <c r="D165" t="n">
-        <v>26.10813140869141</v>
+        <v>23.23934745788574</v>
       </c>
       <c r="E165" t="n">
-        <v>-14.70163059234619</v>
+        <v>-31.30770111083984</v>
       </c>
       <c r="F165" t="n">
-        <v>41.00877380371094</v>
+        <v>13.98500347137451</v>
       </c>
       <c r="G165" t="n">
-        <v>71.84294891357422</v>
+        <v>57.43137741088867</v>
       </c>
       <c r="H165" t="n">
-        <v>-61.99283981323242</v>
+        <v>-77.74089050292969</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
-        <v>-0.3231944954395294</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B166" t="n">
-        <v>-0.04709730722010136</v>
+        <v>0.5298825466632844</v>
       </c>
       <c r="C166" t="n">
-        <v>38.48690795898438</v>
+        <v>53.20883178710938</v>
       </c>
       <c r="D166" t="n">
-        <v>26.11117553710938</v>
+        <v>23.23930549621582</v>
       </c>
       <c r="E166" t="n">
-        <v>-14.70124435424805</v>
+        <v>-31.30780029296875</v>
       </c>
       <c r="F166" t="n">
-        <v>41.01415252685547</v>
+        <v>13.98474597930908</v>
       </c>
       <c r="G166" t="n">
-        <v>71.84069061279297</v>
+        <v>57.43131256103516</v>
       </c>
       <c r="H166" t="n">
-        <v>-61.99742889404297</v>
+        <v>-77.74088287353516</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
-        <v>-0.3229358327388764</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B167" t="n">
-        <v>-0.04785198360681534</v>
+        <v>0.529888454079628</v>
       </c>
       <c r="C167" t="n">
-        <v>38.48428344726562</v>
+        <v>53.20891189575195</v>
       </c>
       <c r="D167" t="n">
-        <v>26.11408996582031</v>
+        <v>23.2392635345459</v>
       </c>
       <c r="E167" t="n">
-        <v>-14.70088672637939</v>
+        <v>-31.30789184570312</v>
       </c>
       <c r="F167" t="n">
-        <v>41.019287109375</v>
+        <v>13.9845027923584</v>
       </c>
       <c r="G167" t="n">
-        <v>71.83848571777344</v>
+        <v>57.43124008178711</v>
       </c>
       <c r="H167" t="n">
-        <v>-62.00186157226562</v>
+        <v>-77.74085998535156</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
-        <v>-0.3226910698413849</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B168" t="n">
-        <v>-0.04857470229268075</v>
+        <v>0.529894203543663</v>
       </c>
       <c r="C168" t="n">
-        <v>38.4818000793457</v>
+        <v>53.208984375</v>
       </c>
       <c r="D168" t="n">
-        <v>26.11687660217285</v>
+        <v>23.23922348022461</v>
       </c>
       <c r="E168" t="n">
-        <v>-14.7005558013916</v>
+        <v>-31.3079833984375</v>
       </c>
       <c r="F168" t="n">
-        <v>41.02420425415039</v>
+        <v>13.98426818847656</v>
       </c>
       <c r="G168" t="n">
-        <v>71.83636474609375</v>
+        <v>57.43117904663086</v>
       </c>
       <c r="H168" t="n">
-        <v>-62.00614929199219</v>
+        <v>-77.74088287353516</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
-        <v>-0.3224575531482697</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B169" t="n">
-        <v>-0.04926602400839329</v>
+        <v>0.5298997318744659</v>
       </c>
       <c r="C169" t="n">
-        <v>38.47943115234375</v>
+        <v>53.20906448364258</v>
       </c>
       <c r="D169" t="n">
-        <v>26.11954879760742</v>
+        <v>23.23918533325195</v>
       </c>
       <c r="E169" t="n">
-        <v>-14.70024681091309</v>
+        <v>-31.30806350708008</v>
       </c>
       <c r="F169" t="n">
-        <v>41.02890777587891</v>
+        <v>13.98404121398926</v>
       </c>
       <c r="G169" t="n">
-        <v>71.83429718017578</v>
+        <v>57.43110275268555</v>
       </c>
       <c r="H169" t="n">
-        <v>-62.01028442382812</v>
+        <v>-77.7408447265625</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
-        <v>-0.3222353458404541</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.04992707021534443</v>
+        <v>0.529905007481575</v>
       </c>
       <c r="C170" t="n">
-        <v>38.47717666625977</v>
+        <v>53.20913314819336</v>
       </c>
       <c r="D170" t="n">
-        <v>26.12211227416992</v>
+        <v>23.2391471862793</v>
       </c>
       <c r="E170" t="n">
-        <v>-14.69996356964111</v>
+        <v>-31.30814552307129</v>
       </c>
       <c r="F170" t="n">
-        <v>41.03340530395508</v>
+        <v>13.98382472991943</v>
       </c>
       <c r="G170" t="n">
-        <v>71.83229064941406</v>
+        <v>57.43104934692383</v>
       </c>
       <c r="H170" t="n">
-        <v>-62.0142936706543</v>
+        <v>-77.74085998535156</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
-        <v>-0.3220232790708542</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B171" t="n">
-        <v>-0.05056176207959652</v>
+        <v>0.5299099671840668</v>
       </c>
       <c r="C171" t="n">
-        <v>38.47502517700195</v>
+        <v>53.20919418334961</v>
       </c>
       <c r="D171" t="n">
-        <v>26.12456703186035</v>
+        <v>23.23911285400391</v>
       </c>
       <c r="E171" t="n">
-        <v>-14.69969654083252</v>
+        <v>-31.30822563171387</v>
       </c>
       <c r="F171" t="n">
-        <v>41.03772354125977</v>
+        <v>13.98362255096436</v>
       </c>
       <c r="G171" t="n">
-        <v>71.83034515380859</v>
+        <v>57.43099212646484</v>
       </c>
       <c r="H171" t="n">
-        <v>-62.01816177368164</v>
+        <v>-77.74086761474609</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
-        <v>-0.3218213844299316</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.05116897813975811</v>
+        <v>0.529914990067482</v>
       </c>
       <c r="C172" t="n">
-        <v>38.47297668457031</v>
+        <v>53.20925903320312</v>
       </c>
       <c r="D172" t="n">
-        <v>26.12692260742188</v>
+        <v>23.23907661437988</v>
       </c>
       <c r="E172" t="n">
-        <v>-14.69944858551025</v>
+        <v>-31.30830192565918</v>
       </c>
       <c r="F172" t="n">
-        <v>41.04185485839844</v>
+        <v>13.98341655731201</v>
       </c>
       <c r="G172" t="n">
-        <v>71.82846832275391</v>
+        <v>57.43093490600586</v>
       </c>
       <c r="H172" t="n">
-        <v>-62.02188110351562</v>
+        <v>-77.74085998535156</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
-        <v>-0.3216288721561432</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B173" t="n">
-        <v>-0.05174928702414036</v>
+        <v>0.5299196338653565</v>
       </c>
       <c r="C173" t="n">
-        <v>38.47102355957031</v>
+        <v>53.20933151245117</v>
       </c>
       <c r="D173" t="n">
-        <v>26.12918090820312</v>
+        <v>23.23904991149902</v>
       </c>
       <c r="E173" t="n">
-        <v>-14.69921875</v>
+        <v>-31.30837249755859</v>
       </c>
       <c r="F173" t="n">
-        <v>41.04580307006836</v>
+        <v>13.98322868347168</v>
       </c>
       <c r="G173" t="n">
-        <v>71.82664489746094</v>
+        <v>57.43087387084961</v>
       </c>
       <c r="H173" t="n">
-        <v>-62.02549743652344</v>
+        <v>-77.74083709716797</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
-        <v>-0.3214446365833283</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.05230772741138935</v>
+        <v>0.5299240565299989</v>
       </c>
       <c r="C174" t="n">
-        <v>38.46915435791016</v>
+        <v>53.20938873291016</v>
       </c>
       <c r="D174" t="n">
-        <v>26.13134765625</v>
+        <v>23.239013671875</v>
       </c>
       <c r="E174" t="n">
-        <v>-14.69900417327881</v>
+        <v>-31.30844497680664</v>
       </c>
       <c r="F174" t="n">
-        <v>41.04960250854492</v>
+        <v>13.98304748535156</v>
       </c>
       <c r="G174" t="n">
-        <v>71.82487487792969</v>
+        <v>57.43082427978516</v>
       </c>
       <c r="H174" t="n">
-        <v>-62.02897262573242</v>
+        <v>-77.74082946777344</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
-        <v>-0.3212698149681091</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.05284261710941792</v>
+        <v>0.5299283528327943</v>
       </c>
       <c r="C175" t="n">
-        <v>38.46738052368164</v>
+        <v>53.20944595336914</v>
       </c>
       <c r="D175" t="n">
-        <v>26.13343048095703</v>
+        <v>23.23898696899414</v>
       </c>
       <c r="E175" t="n">
-        <v>-14.69880294799805</v>
+        <v>-31.30850791931152</v>
       </c>
       <c r="F175" t="n">
-        <v>41.05324172973633</v>
+        <v>13.98287200927734</v>
       </c>
       <c r="G175" t="n">
-        <v>71.82317352294922</v>
+        <v>57.43076705932617</v>
       </c>
       <c r="H175" t="n">
-        <v>-62.03234100341797</v>
+        <v>-77.74083709716797</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
-        <v>-0.3211017537117005</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B176" t="n">
-        <v>-0.05335676372051239</v>
+        <v>0.529932364821434</v>
       </c>
       <c r="C176" t="n">
-        <v>38.46567535400391</v>
+        <v>53.20949935913086</v>
       </c>
       <c r="D176" t="n">
-        <v>26.13542366027832</v>
+        <v>23.23895645141602</v>
       </c>
       <c r="E176" t="n">
-        <v>-14.6986141204834</v>
+        <v>-31.30857467651367</v>
       </c>
       <c r="F176" t="n">
-        <v>41.05673980712891</v>
+        <v>13.98270702362061</v>
       </c>
       <c r="G176" t="n">
-        <v>71.82151031494141</v>
+        <v>57.43072509765625</v>
       </c>
       <c r="H176" t="n">
-        <v>-62.03560256958008</v>
+        <v>-77.74085235595703</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
-        <v>-0.3209415584802628</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B177" t="n">
-        <v>-0.05384679891169072</v>
+        <v>0.5299363768100739</v>
       </c>
       <c r="C177" t="n">
-        <v>38.46405029296875</v>
+        <v>53.20955657958984</v>
       </c>
       <c r="D177" t="n">
-        <v>26.1373462677002</v>
+        <v>23.23892974853516</v>
       </c>
       <c r="E177" t="n">
-        <v>-14.69843673706055</v>
+        <v>-31.30863189697266</v>
       </c>
       <c r="F177" t="n">
-        <v>41.06007385253906</v>
+        <v>13.9825439453125</v>
       </c>
       <c r="G177" t="n">
-        <v>71.81991577148438</v>
+        <v>57.43067169189453</v>
       </c>
       <c r="H177" t="n">
-        <v>-62.03873443603516</v>
+        <v>-77.74083709716797</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
-        <v>-0.320788534283638</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B178" t="n">
-        <v>-0.0543194554001093</v>
+        <v>0.5299400097131729</v>
       </c>
       <c r="C178" t="n">
-        <v>38.46249771118164</v>
+        <v>53.20959854125977</v>
       </c>
       <c r="D178" t="n">
-        <v>26.13919067382812</v>
+        <v>23.23890495300293</v>
       </c>
       <c r="E178" t="n">
-        <v>-14.69826889038086</v>
+        <v>-31.30869102478027</v>
       </c>
       <c r="F178" t="n">
-        <v>41.06328964233398</v>
+        <v>13.98239421844482</v>
       </c>
       <c r="G178" t="n">
-        <v>71.81836700439453</v>
+        <v>57.43062973022461</v>
       </c>
       <c r="H178" t="n">
-        <v>-62.04178619384766</v>
+        <v>-77.74083709716797</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
-        <v>-0.3206422704458237</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B179" t="n">
-        <v>-0.05477136485278607</v>
+        <v>0.5299437373876572</v>
       </c>
       <c r="C179" t="n">
-        <v>38.46101379394531</v>
+        <v>53.20965576171875</v>
       </c>
       <c r="D179" t="n">
-        <v>26.14096260070801</v>
+        <v>23.2388801574707</v>
       </c>
       <c r="E179" t="n">
-        <v>-14.69811344146729</v>
+        <v>-31.30875015258789</v>
       </c>
       <c r="F179" t="n">
-        <v>41.06636428833008</v>
+        <v>13.98224353790283</v>
       </c>
       <c r="G179" t="n">
-        <v>71.81687164306641</v>
+        <v>57.43058776855469</v>
       </c>
       <c r="H179" t="n">
-        <v>-62.04472351074219</v>
+        <v>-77.74082946777344</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
-        <v>-0.3205016613006592</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B180" t="n">
-        <v>-0.05520757384598256</v>
+        <v>0.5299472439289094</v>
       </c>
       <c r="C180" t="n">
-        <v>38.45958709716797</v>
+        <v>53.20969772338867</v>
       </c>
       <c r="D180" t="n">
-        <v>26.14266395568848</v>
+        <v>23.23885345458984</v>
       </c>
       <c r="E180" t="n">
-        <v>-14.69796371459961</v>
+        <v>-31.30880355834961</v>
       </c>
       <c r="F180" t="n">
-        <v>41.06933212280273</v>
+        <v>13.98209953308105</v>
       </c>
       <c r="G180" t="n">
-        <v>71.81541442871094</v>
+        <v>57.43054580688477</v>
       </c>
       <c r="H180" t="n">
-        <v>-62.04756927490234</v>
+        <v>-77.74083709716797</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
-        <v>-0.3203674334287643</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B181" t="n">
-        <v>-0.05562472194433213</v>
+        <v>0.5299505925178528</v>
       </c>
       <c r="C181" t="n">
-        <v>38.45822525024414</v>
+        <v>53.20974731445312</v>
       </c>
       <c r="D181" t="n">
-        <v>26.1443042755127</v>
+        <v>23.23883247375488</v>
       </c>
       <c r="E181" t="n">
-        <v>-14.6978235244751</v>
+        <v>-31.30885696411133</v>
       </c>
       <c r="F181" t="n">
-        <v>41.07217025756836</v>
+        <v>13.98196220397949</v>
       </c>
       <c r="G181" t="n">
-        <v>71.81402587890625</v>
+        <v>57.43050003051758</v>
       </c>
       <c r="H181" t="n">
-        <v>-62.05030059814453</v>
+        <v>-77.74085235595703</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
-        <v>-0.3202388286590576</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B182" t="n">
-        <v>-0.05602504812180996</v>
+        <v>0.5299538147449494</v>
       </c>
       <c r="C182" t="n">
-        <v>38.4569206237793</v>
+        <v>53.20978546142578</v>
       </c>
       <c r="D182" t="n">
-        <v>26.14588165283203</v>
+        <v>23.23880767822266</v>
       </c>
       <c r="E182" t="n">
-        <v>-14.69768905639648</v>
+        <v>-31.30890083312988</v>
       </c>
       <c r="F182" t="n">
-        <v>41.07489395141602</v>
+        <v>13.98183059692383</v>
       </c>
       <c r="G182" t="n">
-        <v>71.81266784667969</v>
+        <v>57.43046951293945</v>
       </c>
       <c r="H182" t="n">
-        <v>-62.05294799804688</v>
+        <v>-77.74085235595703</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
-        <v>-0.32011549949646</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B183" t="n">
-        <v>-0.05641079925000668</v>
+        <v>0.5299569422006607</v>
       </c>
       <c r="C183" t="n">
-        <v>38.45566940307617</v>
+        <v>53.20982360839844</v>
       </c>
       <c r="D183" t="n">
-        <v>26.14739990234375</v>
+        <v>23.2387866973877</v>
       </c>
       <c r="E183" t="n">
-        <v>-14.69756126403809</v>
+        <v>-31.30894660949707</v>
       </c>
       <c r="F183" t="n">
-        <v>41.07751846313477</v>
+        <v>13.98170280456543</v>
       </c>
       <c r="G183" t="n">
-        <v>71.81135559082031</v>
+        <v>57.43042755126953</v>
       </c>
       <c r="H183" t="n">
-        <v>-62.05552291870117</v>
+        <v>-77.74083709716797</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
-        <v>-0.3199970668554306</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B184" t="n">
-        <v>-0.05678084991872311</v>
+        <v>0.5299597537517547</v>
       </c>
       <c r="C184" t="n">
-        <v>38.4544677734375</v>
+        <v>53.20986938476562</v>
       </c>
       <c r="D184" t="n">
-        <v>26.14885711669922</v>
+        <v>23.23876571655273</v>
       </c>
       <c r="E184" t="n">
-        <v>-14.69743633270264</v>
+        <v>-31.30899429321289</v>
       </c>
       <c r="F184" t="n">
-        <v>41.08003616333008</v>
+        <v>13.98158836364746</v>
       </c>
       <c r="G184" t="n">
-        <v>71.81008911132812</v>
+        <v>57.43039703369141</v>
       </c>
       <c r="H184" t="n">
-        <v>-62.05798721313477</v>
+        <v>-77.74082946777344</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
-        <v>-0.3198835307359695</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B185" t="n">
-        <v>-0.05713744305074215</v>
+        <v>0.5299625021219254</v>
       </c>
       <c r="C185" t="n">
-        <v>38.45331573486328</v>
+        <v>53.20990371704102</v>
       </c>
       <c r="D185" t="n">
-        <v>26.15027046203613</v>
+        <v>23.23874664306641</v>
       </c>
       <c r="E185" t="n">
-        <v>-14.69732093811035</v>
+        <v>-31.30903434753418</v>
       </c>
       <c r="F185" t="n">
-        <v>41.08246231079102</v>
+        <v>13.98147487640381</v>
       </c>
       <c r="G185" t="n">
-        <v>71.80887603759766</v>
+        <v>57.43037033081055</v>
       </c>
       <c r="H185" t="n">
-        <v>-62.06038665771484</v>
+        <v>-77.74081420898438</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
-        <v>-0.3197741013765335</v>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B186" t="n">
-        <v>-0.05748001791536808</v>
+        <v>0.5299651873111725</v>
       </c>
       <c r="C186" t="n">
-        <v>38.45220565795898</v>
+        <v>53.20993804931641</v>
       </c>
       <c r="D186" t="n">
-        <v>26.15162467956543</v>
+        <v>23.23872566223145</v>
       </c>
       <c r="E186" t="n">
-        <v>-14.69720649719238</v>
+        <v>-31.30908203125</v>
       </c>
       <c r="F186" t="n">
-        <v>41.08479309082031</v>
+        <v>13.98136520385742</v>
       </c>
       <c r="G186" t="n">
-        <v>71.80769348144531</v>
+        <v>57.43033218383789</v>
       </c>
       <c r="H186" t="n">
-        <v>-62.06271362304688</v>
+        <v>-77.74081420898438</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
-        <v>0.7380188270687777</v>
-      </c>
+      <c r="A187" t="inlineStr"/>
       <c r="B187" t="n">
-        <v>1.115344533641654</v>
+        <v>0.5299938173444603</v>
       </c>
       <c r="C187" t="n">
-        <v>38.45114135742188</v>
+        <v>53.20997619628906</v>
       </c>
       <c r="D187" t="n">
-        <v>26.15293121337891</v>
+        <v>23.23870849609375</v>
       </c>
       <c r="E187" t="n">
-        <v>-14.69709873199463</v>
+        <v>-31.30912208557129</v>
       </c>
       <c r="F187" t="n">
-        <v>41.0870361328125</v>
+        <v>13.98126125335693</v>
       </c>
       <c r="G187" t="n">
-        <v>71.80655670166016</v>
+        <v>57.43029403686523</v>
       </c>
       <c r="H187" t="n">
-        <v>-62.06494522094727</v>
+        <v>-77.74083709716797</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
-        <v>0.7380188270687777</v>
-      </c>
+      <c r="A188" t="inlineStr"/>
       <c r="B188" t="n">
-        <v>0.9873498634292763</v>
+        <v>0.5300201288936955</v>
       </c>
       <c r="C188" t="n">
-        <v>38.45011901855469</v>
+        <v>53.21000671386719</v>
       </c>
       <c r="D188" t="n">
-        <v>26.15419578552246</v>
+        <v>23.23869132995605</v>
       </c>
       <c r="E188" t="n">
-        <v>-14.69699192047119</v>
+        <v>-31.30915451049805</v>
       </c>
       <c r="F188" t="n">
-        <v>41.08919143676758</v>
+        <v>13.98115539550781</v>
       </c>
       <c r="G188" t="n">
-        <v>71.80546569824219</v>
+        <v>57.43027114868164</v>
       </c>
       <c r="H188" t="n">
-        <v>-62.06710052490234</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
-        <v>0.5203661856246951</v>
-      </c>
+      <c r="A189" t="inlineStr"/>
       <c r="B189" t="n">
-        <v>1.001394693759742</v>
+        <v>0.5300443291997088</v>
       </c>
       <c r="C189" t="n">
-        <v>38.44913864135742</v>
+        <v>53.21004104614258</v>
       </c>
       <c r="D189" t="n">
-        <v>26.15540885925293</v>
+        <v>23.23867416381836</v>
       </c>
       <c r="E189" t="n">
-        <v>-14.69689083099365</v>
+        <v>-31.30919456481934</v>
       </c>
       <c r="F189" t="n">
-        <v>41.09127807617188</v>
+        <v>13.98105812072754</v>
       </c>
       <c r="G189" t="n">
-        <v>71.80440521240234</v>
+        <v>57.43024444580078</v>
       </c>
       <c r="H189" t="n">
-        <v>-62.0692024230957</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
-        <v>1.289027513648172</v>
-      </c>
+      <c r="A190" t="inlineStr"/>
       <c r="B190" t="n">
-        <v>0.9998454600992271</v>
+        <v>0.5300665013297922</v>
       </c>
       <c r="C190" t="n">
-        <v>38.44818878173828</v>
+        <v>53.2100715637207</v>
       </c>
       <c r="D190" t="n">
-        <v>26.15657997131348</v>
+        <v>23.23866081237793</v>
       </c>
       <c r="E190" t="n">
-        <v>-14.69679355621338</v>
+        <v>-31.30922889709473</v>
       </c>
       <c r="F190" t="n">
-        <v>41.09327697753906</v>
+        <v>13.98096370697021</v>
       </c>
       <c r="G190" t="n">
-        <v>71.80340576171875</v>
+        <v>57.43022537231445</v>
       </c>
       <c r="H190" t="n">
-        <v>-62.07122421264648</v>
+        <v>-77.74082946777344</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
-        <v>0.8258809183816029</v>
-      </c>
+      <c r="A191" t="inlineStr"/>
       <c r="B191" t="n">
-        <v>1.000017206776444</v>
+        <v>0.5300866869436015</v>
       </c>
       <c r="C191" t="n">
-        <v>38.4472770690918</v>
+        <v>53.21010208129883</v>
       </c>
       <c r="D191" t="n">
-        <v>26.15771293640137</v>
+        <v>23.23864555358887</v>
       </c>
       <c r="E191" t="n">
-        <v>-14.69669628143311</v>
+        <v>-31.30926322937012</v>
       </c>
       <c r="F191" t="n">
-        <v>41.09521102905273</v>
+        <v>13.98087310791016</v>
       </c>
       <c r="G191" t="n">
-        <v>71.80241394042969</v>
+        <v>57.43019485473633</v>
       </c>
       <c r="H191" t="n">
-        <v>-62.07319259643555</v>
+        <v>-77.74081420898438</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
-        <v>1.104866167022206</v>
-      </c>
+      <c r="A192" t="inlineStr"/>
       <c r="B192" t="n">
-        <v>0.9999980752988658</v>
+        <v>0.5301050517541714</v>
       </c>
       <c r="C192" t="n">
-        <v>38.44639587402344</v>
+        <v>53.21013259887695</v>
       </c>
       <c r="D192" t="n">
-        <v>26.15880012512207</v>
+        <v>23.2386302947998</v>
       </c>
       <c r="E192" t="n">
-        <v>-14.69660186767578</v>
+        <v>-31.30929565429688</v>
       </c>
       <c r="F192" t="n">
-        <v>41.09706878662109</v>
+        <v>13.980788230896</v>
       </c>
       <c r="G192" t="n">
-        <v>71.80146026611328</v>
+        <v>57.43016052246094</v>
       </c>
       <c r="H192" t="n">
-        <v>-62.07507705688477</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
-        <v>0.9368590151994365</v>
-      </c>
+      <c r="A193" t="inlineStr"/>
       <c r="B193" t="n">
-        <v>1.00000021624858</v>
+        <v>0.5301215959819641</v>
       </c>
       <c r="C193" t="n">
-        <v>38.44555282592773</v>
+        <v>53.21015167236328</v>
       </c>
       <c r="D193" t="n">
-        <v>26.15985107421875</v>
+        <v>23.23861312866211</v>
       </c>
       <c r="E193" t="n">
-        <v>-14.69651222229004</v>
+        <v>-31.30932235717773</v>
       </c>
       <c r="F193" t="n">
-        <v>41.09886169433594</v>
+        <v>13.98070526123047</v>
       </c>
       <c r="G193" t="n">
-        <v>71.80055236816406</v>
+        <v>57.43014526367188</v>
       </c>
       <c r="H193" t="n">
-        <v>-62.07690048217773</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
-        <v>1.038008198017472</v>
-      </c>
+      <c r="A194" t="inlineStr"/>
       <c r="B194" t="n">
-        <v>0.9999999756001247</v>
+        <v>0.5301364852627319</v>
       </c>
       <c r="C194" t="n">
-        <v>38.44473266601562</v>
+        <v>53.21017837524414</v>
       </c>
       <c r="D194" t="n">
-        <v>26.16086959838867</v>
+        <v>23.23860168457031</v>
       </c>
       <c r="E194" t="n">
-        <v>-14.69642543792725</v>
+        <v>-31.30935668945312</v>
       </c>
       <c r="F194" t="n">
-        <v>41.1005859375</v>
+        <v>13.98062896728516</v>
       </c>
       <c r="G194" t="n">
-        <v>71.79965972900391</v>
+        <v>57.43011474609375</v>
       </c>
       <c r="H194" t="n">
-        <v>-62.07867050170898</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
-        <v>0.9771262294462922</v>
-      </c>
+      <c r="A195" t="inlineStr"/>
       <c r="B195" t="n">
-        <v>1.00000000276438</v>
+        <v>0.530149637043983</v>
       </c>
       <c r="C195" t="n">
-        <v>38.44394683837891</v>
+        <v>53.210205078125</v>
       </c>
       <c r="D195" t="n">
-        <v>26.1618537902832</v>
+        <v>23.23858642578125</v>
       </c>
       <c r="E195" t="n">
-        <v>-14.6963357925415</v>
+        <v>-31.30938529968262</v>
       </c>
       <c r="F195" t="n">
-        <v>41.10225296020508</v>
+        <v>13.98054981231689</v>
       </c>
       <c r="G195" t="n">
-        <v>71.79878997802734</v>
+        <v>57.43009567260742</v>
       </c>
       <c r="H195" t="n">
-        <v>-62.08037948608398</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
-        <v>1.013762468920065</v>
-      </c>
+      <c r="A196" t="inlineStr"/>
       <c r="B196" t="n">
-        <v>0.9999999996855818</v>
+        <v>0.5301611341913055</v>
       </c>
       <c r="C196" t="n">
-        <v>38.44318771362305</v>
+        <v>53.21023559570312</v>
       </c>
       <c r="D196" t="n">
-        <v>26.16280364990234</v>
+        <v>23.23857307434082</v>
       </c>
       <c r="E196" t="n">
-        <v>-14.69625091552734</v>
+        <v>-31.30941200256348</v>
       </c>
       <c r="F196" t="n">
-        <v>41.10385513305664</v>
+        <v>13.98047256469727</v>
       </c>
       <c r="G196" t="n">
-        <v>71.79798126220703</v>
+        <v>57.43008041381836</v>
       </c>
       <c r="H196" t="n">
-        <v>-62.08205032348633</v>
+        <v>-77.74081420898438</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
-        <v>0.9917214249647184</v>
-      </c>
+      <c r="A197" t="inlineStr"/>
       <c r="B197" t="n">
-        <v>1.000000000035898</v>
+        <v>0.5301712249657711</v>
       </c>
       <c r="C197" t="n">
-        <v>38.44244766235352</v>
+        <v>53.21025085449219</v>
       </c>
       <c r="D197" t="n">
-        <v>26.16371917724609</v>
+        <v>23.23856353759766</v>
       </c>
       <c r="E197" t="n">
-        <v>-14.6961669921875</v>
+        <v>-31.30943870544434</v>
       </c>
       <c r="F197" t="n">
-        <v>41.10541534423828</v>
+        <v>13.98040676116943</v>
       </c>
       <c r="G197" t="n">
-        <v>71.79718017578125</v>
+        <v>57.43004989624023</v>
       </c>
       <c r="H197" t="n">
-        <v>-62.08364486694336</v>
+        <v>-77.74079132080078</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
-        <v>1.004978741189895</v>
-      </c>
+      <c r="A198" t="inlineStr"/>
       <c r="B198" t="n">
-        <v>0.9999999999958866</v>
+        <v>0.5301799094621911</v>
       </c>
       <c r="C198" t="n">
-        <v>38.44173812866211</v>
+        <v>53.21027755737305</v>
       </c>
       <c r="D198" t="n">
-        <v>26.16460609436035</v>
+        <v>23.23855209350586</v>
       </c>
       <c r="E198" t="n">
-        <v>-14.69608402252197</v>
+        <v>-31.30946731567383</v>
       </c>
       <c r="F198" t="n">
-        <v>41.10690689086914</v>
+        <v>13.98034191131592</v>
       </c>
       <c r="G198" t="n">
-        <v>71.79640960693359</v>
+        <v>57.43003463745117</v>
       </c>
       <c r="H198" t="n">
-        <v>-62.08518218994141</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
-        <v>0.9970064135705101</v>
-      </c>
+      <c r="A199" t="inlineStr"/>
       <c r="B199" t="n">
-        <v>1.000000000000473</v>
+        <v>0.5301871050547876</v>
       </c>
       <c r="C199" t="n">
-        <v>38.44105529785156</v>
+        <v>53.21029663085938</v>
       </c>
       <c r="D199" t="n">
-        <v>26.16546249389648</v>
+        <v>23.23854064941406</v>
       </c>
       <c r="E199" t="n">
-        <v>-14.69600200653076</v>
+        <v>-31.30949211120605</v>
       </c>
       <c r="F199" t="n">
-        <v>41.10835266113281</v>
+        <v>13.98027515411377</v>
       </c>
       <c r="G199" t="n">
-        <v>71.79570007324219</v>
+        <v>57.43001937866211</v>
       </c>
       <c r="H199" t="n">
-        <v>-62.08668518066406</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
-        <v>1.001799595440674</v>
-      </c>
+      <c r="A200" t="inlineStr"/>
       <c r="B200" t="n">
-        <v>0.9999999999999455</v>
+        <v>0.5301931012901138</v>
       </c>
       <c r="C200" t="n">
-        <v>38.44039154052734</v>
+        <v>53.21031188964844</v>
       </c>
       <c r="D200" t="n">
-        <v>26.16629028320312</v>
+        <v>23.2385311126709</v>
       </c>
       <c r="E200" t="n">
-        <v>-14.69592475891113</v>
+        <v>-31.30951309204102</v>
       </c>
       <c r="F200" t="n">
-        <v>41.10974502563477</v>
+        <v>13.9802188873291</v>
       </c>
       <c r="G200" t="n">
-        <v>71.79497528076172</v>
+        <v>57.42998886108398</v>
       </c>
       <c r="H200" t="n">
-        <v>-62.0881233215332</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
-        <v>0.9989183883808355</v>
-      </c>
+      <c r="A201" t="inlineStr"/>
       <c r="B201" t="n">
-        <v>1.000000000000006</v>
+        <v>0.5301977328058735</v>
       </c>
       <c r="C201" t="n">
-        <v>38.43974685668945</v>
+        <v>53.2103385925293</v>
       </c>
       <c r="D201" t="n">
-        <v>26.16709136962891</v>
+        <v>23.2385196685791</v>
       </c>
       <c r="E201" t="n">
-        <v>-14.69584369659424</v>
+        <v>-31.30953407287598</v>
       </c>
       <c r="F201" t="n">
-        <v>41.1110954284668</v>
+        <v>13.98015689849854</v>
       </c>
       <c r="G201" t="n">
-        <v>71.79430389404297</v>
+        <v>57.42997741699219</v>
       </c>
       <c r="H201" t="n">
-        <v>-62.08953094482422</v>
+        <v>-77.74079132080078</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
-        <v>1.000649957190261</v>
-      </c>
+      <c r="A202" t="inlineStr"/>
       <c r="B202" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.5302011650560374</v>
       </c>
       <c r="C202" t="n">
-        <v>38.43912887573242</v>
+        <v>53.21035766601562</v>
       </c>
       <c r="D202" t="n">
-        <v>26.1678638458252</v>
+        <v>23.2385082244873</v>
       </c>
       <c r="E202" t="n">
-        <v>-14.69576835632324</v>
+        <v>-31.30955696105957</v>
       </c>
       <c r="F202" t="n">
-        <v>41.11239242553711</v>
+        <v>13.98010063171387</v>
       </c>
       <c r="G202" t="n">
-        <v>71.79364013671875</v>
+        <v>57.42996978759766</v>
       </c>
       <c r="H202" t="n">
-        <v>-62.09090423583984</v>
+        <v>-77.74079132080078</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
-        <v>0.9996095030393085</v>
-      </c>
+      <c r="A203" t="inlineStr"/>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0.5302033153657316</v>
       </c>
       <c r="C203" t="n">
-        <v>38.43852996826172</v>
+        <v>53.21037673950195</v>
       </c>
       <c r="D203" t="n">
-        <v>26.16861534118652</v>
+        <v>23.23850250244141</v>
       </c>
       <c r="E203" t="n">
-        <v>-14.69569110870361</v>
+        <v>-31.3095760345459</v>
       </c>
       <c r="F203" t="n">
-        <v>41.11365509033203</v>
+        <v>13.98004150390625</v>
       </c>
       <c r="G203" t="n">
-        <v>71.79299926757812</v>
+        <v>57.42995452880859</v>
       </c>
       <c r="H203" t="n">
-        <v>-62.09219741821289</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
-        <v>1.000234569799735</v>
-      </c>
+      <c r="A204" t="inlineStr"/>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0.5302043078118173</v>
       </c>
       <c r="C204" t="n">
-        <v>38.43794631958008</v>
+        <v>51.19043731689453</v>
       </c>
       <c r="D204" t="n">
-        <v>26.16933822631836</v>
+        <v>22.16803359985352</v>
       </c>
       <c r="E204" t="n">
-        <v>-16.82839584350586</v>
+        <v>-31.30960083007812</v>
       </c>
       <c r="F204" t="n">
-        <v>41.1148681640625</v>
+        <v>19.39728355407715</v>
       </c>
       <c r="G204" t="n">
-        <v>64.74807739257812</v>
+        <v>55.47224426269531</v>
       </c>
       <c r="H204" t="n">
-        <v>-59.45072937011719</v>
+        <v>-71.85015869140625</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
-        <v>0.9998591197520041</v>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0.5302043078118173</v>
       </c>
       <c r="C205" t="n">
-        <v>36.82262420654297</v>
+        <v>51.19043731689453</v>
       </c>
       <c r="D205" t="n">
-        <v>26.1700439453125</v>
+        <v>22.16803359985352</v>
       </c>
       <c r="E205" t="n">
-        <v>-16.82839584350586</v>
+        <v>-29.72189903259277</v>
       </c>
       <c r="F205" t="n">
-        <v>41.11603546142578</v>
+        <v>19.39728355407715</v>
       </c>
       <c r="G205" t="n">
-        <v>64.74807739257812</v>
+        <v>55.47224426269531</v>
       </c>
       <c r="H205" t="n">
-        <v>-59.45072937011719</v>
+        <v>-71.85015869140625</v>
       </c>
     </row>
   </sheetData>
